--- a/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alweena Mohsin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5B670-7E97-4A68-A00E-1B98DF3D10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC9F4E-D90A-4BF1-9D07-264966BD658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMDB TestCases" sheetId="1" r:id="rId1"/>
@@ -259,15 +259,6 @@
     <t>1. Open IMDb home page</t>
   </si>
   <si>
-    <t>Verify that All drop down is clickable and has the following options 
-*Titles
-*Tc episodes
-*Celebs
-*Companies
-*Keywords
-*Advanced search</t>
-  </si>
-  <si>
     <t>IMDB rating Vs your Rating</t>
   </si>
   <si>
@@ -286,9 +277,6 @@
     <t>3. Select Sort by 'Ranking'</t>
   </si>
   <si>
-    <t>The goal is to verify verify that Sort by IMDb Rating is working correctly</t>
-  </si>
-  <si>
     <t>4.Verify movies are sorted by IMDb rating</t>
   </si>
   <si>
@@ -298,13 +286,7 @@
     <t xml:space="preserve">Sort by Release date </t>
   </si>
   <si>
-    <t>The goal is to verify verify that Sort by Release date is working correctly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sort by 'Numer of rating' </t>
-  </si>
-  <si>
-    <t>The goal is to verify verify that Sort by Number of rating is working correctly</t>
   </si>
   <si>
     <t xml:space="preserve">Sort by 'Your Rating' </t>
@@ -963,9 +945,6 @@
     <t>1. User scrolls down to From your watchlist section</t>
   </si>
   <si>
-    <t>2. Click Star button against a movie 'Ryan Renolds' to provide rating</t>
-  </si>
-  <si>
     <t>3. Select the empty star against  star button to add rating</t>
   </si>
   <si>
@@ -1035,9 +1014,6 @@
     <t>1. User selects Celebs from All drop-down presents against search bar</t>
   </si>
   <si>
-    <t>3. Verify that user is routed to Names page where only titels containg Virgin + River  are displayed</t>
-  </si>
-  <si>
     <t>Virginia Rivera,Virgin Rides and many more are displayed containing words river and  virgin</t>
   </si>
   <si>
@@ -1164,12 +1140,6 @@
     <t>7.User right clicks and copy the URL to share  Your ratings with your friends</t>
   </si>
   <si>
-    <t>4. User has already added a movie to watchlist</t>
-  </si>
-  <si>
-    <t>Movies are sorted in ascending order i.e top movie has the  highest IMDb rating</t>
-  </si>
-  <si>
     <t>Movies are sorted in ascending order i.e top movie has the  highest ''Your rating''</t>
   </si>
   <si>
@@ -1198,6 +1168,37 @@
   </si>
   <si>
     <t>4. Verify that a pop up window opens up showing minimal information for movie "Lucifer".</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to Names page where only titels containg Virgin or River are displayed</t>
+  </si>
+  <si>
+    <t>2. Click Star button against a movie 'Cruella' to provide rating</t>
+  </si>
+  <si>
+    <t>4. User has already added Cruella to the watchlist</t>
+  </si>
+  <si>
+    <t>Verify that All drop down is clickable and has the following options
+*All
+*Titles
+*Tv episodes
+*Celebs
+*Companies
+*Keywords
+*Advanced search</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Sort by Number of rating is working correctly</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Sort by Release date is working correctly</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Sort by IMDb Rating is working correctly</t>
+  </si>
+  <si>
+    <t>Movies are sorted in ascending order i.e top movie has the most IMDb ratings</t>
   </si>
 </sst>
 </file>
@@ -2570,153 +2571,23 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2726,33 +2597,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2762,54 +2606,211 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3032,9 +3033,9 @@
   </sheetPr>
   <dimension ref="A1:T649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E277" sqref="E277"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3082,30 +3083,30 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="187" t="s">
+      <c r="C3" s="211" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="233" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="3"/>
@@ -3124,12 +3125,12 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="178"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="74" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="3"/>
@@ -3148,12 +3149,12 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="178"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="76" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="3"/>
@@ -3172,12 +3173,12 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="181"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="178"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="76" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="3"/>
@@ -3196,12 +3197,12 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="181"/>
-      <c r="B7" s="184"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="178"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="76" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="3"/>
@@ -3220,12 +3221,12 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="181"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="178"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="76" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="3"/>
@@ -3244,12 +3245,12 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="181"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="178"/>
+      <c r="A9" s="208"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="76" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>59</v>
@@ -3270,10 +3271,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="178"/>
+      <c r="A10" s="208"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="76"/>
       <c r="F10" s="78"/>
       <c r="G10" s="3"/>
@@ -3292,10 +3293,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" s="71" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="182"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="179"/>
+      <c r="A11" s="222"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="234"/>
       <c r="E11" s="67"/>
       <c r="F11" s="68"/>
       <c r="G11" s="69"/>
@@ -3314,20 +3315,20 @@
       <c r="T11" s="70"/>
     </row>
     <row r="12" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="217" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
@@ -3346,12 +3347,12 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="181"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="170"/>
+      <c r="A13" s="208"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="250"/>
       <c r="E13" s="79" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -3370,12 +3371,12 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="181"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="171"/>
+      <c r="A14" s="208"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="251"/>
       <c r="E14" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="3"/>
@@ -3394,12 +3395,12 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="181"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="171"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="251"/>
       <c r="E15" s="79" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
@@ -3418,12 +3419,12 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="181"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="171"/>
+      <c r="A16" s="208"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="251"/>
       <c r="E16" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3442,12 +3443,12 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="171"/>
+      <c r="A17" s="208"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="149" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -3466,12 +3467,12 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="181"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="171"/>
+      <c r="A18" s="208"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="251"/>
       <c r="E18" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>59</v>
@@ -3492,10 +3493,10 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="205"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="172"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="252"/>
       <c r="E19" s="88"/>
       <c r="F19" s="86" t="s">
         <v>63</v>
@@ -3516,20 +3517,20 @@
       <c r="T19" s="70"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="181" t="s">
+      <c r="A20" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="186" t="s">
+      <c r="C20" s="217" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3"/>
@@ -3548,14 +3549,14 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="181"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="187"/>
+      <c r="A21" s="208"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="211"/>
       <c r="D21" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -3574,14 +3575,14 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="181"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="187"/>
+      <c r="A22" s="208"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="211"/>
       <c r="D22" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
@@ -3600,12 +3601,12 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="167"/>
+      <c r="A23" s="208"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="194"/>
       <c r="E23" s="85" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
@@ -3624,10 +3625,10 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="181"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="168"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="195"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="4"/>
@@ -3646,10 +3647,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="181"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="187"/>
-      <c r="D25" s="168"/>
+      <c r="A25" s="208"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="195"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="4"/>
@@ -3668,10 +3669,10 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="181"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="169"/>
+      <c r="A26" s="208"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="249"/>
       <c r="E26" s="88"/>
       <c r="F26" s="89"/>
       <c r="G26" s="4"/>
@@ -3690,20 +3691,20 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="180" t="s">
+      <c r="A27" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="206" t="s">
+      <c r="B27" s="236" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="209" t="s">
-        <v>275</v>
+      <c r="C27" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="4"/>
@@ -3722,14 +3723,14 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A28" s="181"/>
-      <c r="B28" s="207"/>
-      <c r="C28" s="210"/>
+      <c r="A28" s="208"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="240"/>
       <c r="D28" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -3748,14 +3749,14 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="181"/>
-      <c r="B29" s="207"/>
-      <c r="C29" s="210"/>
+      <c r="A29" s="208"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="240"/>
       <c r="D29" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -3774,9 +3775,9 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="182"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="211"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="241"/>
       <c r="D30" s="96"/>
       <c r="E30" s="91"/>
       <c r="F30" s="92"/>
@@ -3796,18 +3797,18 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="183" t="s">
+      <c r="B31" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="212" t="s">
-        <v>274</v>
+      <c r="C31" s="245" t="s">
+        <v>270</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="129" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="4"/>
@@ -3826,14 +3827,14 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="181"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="187"/>
+      <c r="A32" s="208"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="211"/>
       <c r="D32" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
@@ -3852,14 +3853,14 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="181"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="187"/>
+      <c r="A33" s="208"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="211"/>
       <c r="D33" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="4"/>
@@ -3878,13 +3879,13 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="181"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="187"/>
+      <c r="A34" s="208"/>
+      <c r="B34" s="216"/>
+      <c r="C34" s="211"/>
       <c r="D34" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="174"/>
+      <c r="E34" s="242"/>
       <c r="F34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3902,13 +3903,13 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="181"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="187"/>
+      <c r="A35" s="208"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="211"/>
       <c r="D35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="175"/>
+      <c r="E35" s="243"/>
       <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3926,11 +3927,11 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="181"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="187"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="176"/>
+      <c r="A36" s="208"/>
+      <c r="B36" s="216"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="244"/>
       <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3948,10 +3949,10 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="182"/>
-      <c r="B37" s="185"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="173"/>
+      <c r="A37" s="222"/>
+      <c r="B37" s="224"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="196"/>
       <c r="E37" s="94"/>
       <c r="F37" s="95"/>
       <c r="G37" s="4"/>
@@ -3970,14 +3971,14 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="183" t="s">
+      <c r="B38" s="223" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="186" t="s">
-        <v>273</v>
+      <c r="C38" s="217" t="s">
+        <v>269</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="17"/>
@@ -3998,12 +3999,12 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="181"/>
-      <c r="B39" s="184"/>
-      <c r="C39" s="187"/>
+      <c r="A39" s="208"/>
+      <c r="B39" s="216"/>
+      <c r="C39" s="211"/>
       <c r="D39" s="81"/>
       <c r="E39" s="13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="4"/>
@@ -4022,14 +4023,14 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="181"/>
-      <c r="B40" s="184"/>
-      <c r="C40" s="187"/>
+      <c r="A40" s="208"/>
+      <c r="B40" s="216"/>
+      <c r="C40" s="211"/>
       <c r="D40" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="4"/>
@@ -4048,14 +4049,14 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A41" s="181"/>
-      <c r="B41" s="184"/>
-      <c r="C41" s="187"/>
+      <c r="A41" s="208"/>
+      <c r="B41" s="216"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="113" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="4"/>
@@ -4074,9 +4075,9 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="181"/>
-      <c r="B42" s="184"/>
-      <c r="C42" s="187"/>
+      <c r="A42" s="208"/>
+      <c r="B42" s="216"/>
+      <c r="C42" s="211"/>
       <c r="D42" s="80" t="s">
         <v>68</v>
       </c>
@@ -4098,9 +4099,9 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="181"/>
-      <c r="B43" s="184"/>
-      <c r="C43" s="187"/>
+      <c r="A43" s="208"/>
+      <c r="B43" s="216"/>
+      <c r="C43" s="211"/>
       <c r="D43" s="81"/>
       <c r="E43" s="13"/>
       <c r="F43" s="14"/>
@@ -4120,9 +4121,9 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="182"/>
-      <c r="B44" s="185"/>
-      <c r="C44" s="188"/>
+      <c r="A44" s="222"/>
+      <c r="B44" s="224"/>
+      <c r="C44" s="218"/>
       <c r="D44" s="100"/>
       <c r="E44" s="94"/>
       <c r="F44" s="16"/>
@@ -4142,14 +4143,14 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="180" t="s">
+      <c r="A45" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="183" t="s">
-        <v>309</v>
-      </c>
-      <c r="C45" s="186" t="s">
-        <v>310</v>
+      <c r="B45" s="223" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" s="217" t="s">
+        <v>305</v>
       </c>
       <c r="D45" s="114"/>
       <c r="E45" s="17"/>
@@ -4170,14 +4171,14 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="181"/>
-      <c r="B46" s="184"/>
-      <c r="C46" s="187"/>
+      <c r="A46" s="208"/>
+      <c r="B46" s="216"/>
+      <c r="C46" s="211"/>
       <c r="D46" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="4"/>
@@ -4196,14 +4197,14 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="181"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="187"/>
+      <c r="A47" s="208"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="211"/>
       <c r="D47" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="4"/>
@@ -4222,14 +4223,14 @@
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="181"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="187"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="211"/>
       <c r="D48" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="4"/>
@@ -4248,9 +4249,9 @@
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="181"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="187"/>
+      <c r="A49" s="208"/>
+      <c r="B49" s="216"/>
+      <c r="C49" s="211"/>
       <c r="D49" s="81"/>
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
@@ -4270,9 +4271,9 @@
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="182"/>
-      <c r="B50" s="185"/>
-      <c r="C50" s="188"/>
+      <c r="A50" s="222"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="218"/>
       <c r="D50" s="100"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
@@ -4292,14 +4293,14 @@
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="180" t="s">
+      <c r="A51" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="183" t="s">
+      <c r="B51" s="223" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="186" t="s">
-        <v>272</v>
+      <c r="C51" s="217" t="s">
+        <v>268</v>
       </c>
       <c r="D51" s="114"/>
       <c r="E51" s="17"/>
@@ -4320,12 +4321,12 @@
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="181"/>
-      <c r="B52" s="184"/>
-      <c r="C52" s="187"/>
+      <c r="A52" s="208"/>
+      <c r="B52" s="216"/>
+      <c r="C52" s="211"/>
       <c r="D52" s="81"/>
       <c r="E52" s="13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
@@ -4344,14 +4345,14 @@
       <c r="T52" s="4"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="181"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="187"/>
+      <c r="A53" s="208"/>
+      <c r="B53" s="216"/>
+      <c r="C53" s="211"/>
       <c r="D53" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="4"/>
@@ -4370,14 +4371,14 @@
       <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="181"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="187"/>
+      <c r="A54" s="208"/>
+      <c r="B54" s="216"/>
+      <c r="C54" s="211"/>
       <c r="D54" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="4"/>
@@ -4396,14 +4397,14 @@
       <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="181"/>
-      <c r="B55" s="184"/>
-      <c r="C55" s="187"/>
+      <c r="A55" s="208"/>
+      <c r="B55" s="216"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="4"/>
@@ -4422,11 +4423,11 @@
       <c r="T55" s="4"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="181"/>
-      <c r="B56" s="184"/>
-      <c r="C56" s="187"/>
+      <c r="A56" s="208"/>
+      <c r="B56" s="216"/>
+      <c r="C56" s="211"/>
       <c r="D56" s="81" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="14"/>
@@ -4446,11 +4447,11 @@
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="181"/>
-      <c r="B57" s="184"/>
-      <c r="C57" s="187"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="174"/>
+      <c r="A57" s="208"/>
+      <c r="B57" s="216"/>
+      <c r="C57" s="211"/>
+      <c r="D57" s="194"/>
+      <c r="E57" s="242"/>
       <c r="F57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4468,11 +4469,11 @@
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="181"/>
-      <c r="B58" s="184"/>
-      <c r="C58" s="187"/>
-      <c r="D58" s="168"/>
-      <c r="E58" s="175"/>
+      <c r="A58" s="208"/>
+      <c r="B58" s="216"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="243"/>
       <c r="F58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4490,11 +4491,11 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="181"/>
-      <c r="B59" s="184"/>
-      <c r="C59" s="187"/>
-      <c r="D59" s="196"/>
-      <c r="E59" s="176"/>
+      <c r="A59" s="208"/>
+      <c r="B59" s="216"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="244"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4512,9 +4513,9 @@
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="182"/>
-      <c r="B60" s="185"/>
-      <c r="C60" s="188"/>
+      <c r="A60" s="222"/>
+      <c r="B60" s="224"/>
+      <c r="C60" s="218"/>
       <c r="D60" s="101"/>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
@@ -4534,14 +4535,14 @@
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="180" t="s">
+      <c r="A61" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="183" t="s">
+      <c r="B61" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="186" t="s">
-        <v>276</v>
+      <c r="C61" s="217" t="s">
+        <v>272</v>
       </c>
       <c r="D61" s="82"/>
       <c r="E61" s="17"/>
@@ -4562,9 +4563,9 @@
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="181"/>
-      <c r="B62" s="184"/>
-      <c r="C62" s="187"/>
+      <c r="A62" s="208"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="211"/>
       <c r="D62" s="82" t="s">
         <v>66</v>
       </c>
@@ -4587,15 +4588,15 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="181"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="187"/>
+    <row r="63" spans="1:20" ht="132" x14ac:dyDescent="0.3">
+      <c r="A63" s="208"/>
+      <c r="B63" s="216"/>
+      <c r="C63" s="211"/>
       <c r="D63" s="81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E63" s="113" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="4"/>
@@ -4614,11 +4615,11 @@
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="181"/>
-      <c r="B64" s="184"/>
-      <c r="C64" s="187"/>
+      <c r="A64" s="208"/>
+      <c r="B64" s="216"/>
+      <c r="C64" s="211"/>
       <c r="D64" s="80" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -4638,10 +4639,10 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="181"/>
-      <c r="B65" s="184"/>
-      <c r="C65" s="187"/>
-      <c r="D65" s="167"/>
+      <c r="A65" s="208"/>
+      <c r="B65" s="216"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="194"/>
       <c r="E65" s="13"/>
       <c r="F65" s="14"/>
       <c r="G65" s="4"/>
@@ -4660,10 +4661,10 @@
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="181"/>
-      <c r="B66" s="184"/>
-      <c r="C66" s="187"/>
-      <c r="D66" s="168"/>
+      <c r="A66" s="208"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="211"/>
+      <c r="D66" s="195"/>
       <c r="E66" s="13"/>
       <c r="F66" s="14"/>
       <c r="G66" s="4"/>
@@ -4682,10 +4683,10 @@
       <c r="T66" s="4"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="181"/>
-      <c r="B67" s="184"/>
-      <c r="C67" s="187"/>
-      <c r="D67" s="196"/>
+      <c r="A67" s="208"/>
+      <c r="B67" s="216"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="198"/>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
       <c r="G67" s="4"/>
@@ -4704,9 +4705,9 @@
       <c r="T67" s="4"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="181"/>
-      <c r="B68" s="184"/>
-      <c r="C68" s="187"/>
+      <c r="A68" s="208"/>
+      <c r="B68" s="216"/>
+      <c r="C68" s="211"/>
       <c r="D68" s="82"/>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
@@ -4726,9 +4727,9 @@
       <c r="T68" s="4"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="181"/>
-      <c r="B69" s="184"/>
-      <c r="C69" s="187"/>
+      <c r="A69" s="208"/>
+      <c r="B69" s="216"/>
+      <c r="C69" s="211"/>
       <c r="D69" s="81"/>
       <c r="E69" s="13"/>
       <c r="F69" s="14"/>
@@ -4748,9 +4749,9 @@
       <c r="T69" s="4"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="181"/>
-      <c r="B70" s="184"/>
-      <c r="C70" s="187"/>
+      <c r="A70" s="208"/>
+      <c r="B70" s="216"/>
+      <c r="C70" s="211"/>
       <c r="D70" s="80"/>
       <c r="E70" s="13"/>
       <c r="F70" s="14"/>
@@ -4770,9 +4771,9 @@
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="181"/>
-      <c r="B71" s="184"/>
-      <c r="C71" s="187"/>
+      <c r="A71" s="208"/>
+      <c r="B71" s="216"/>
+      <c r="C71" s="211"/>
       <c r="D71" s="81"/>
       <c r="E71" s="13"/>
       <c r="F71" s="14"/>
@@ -4792,9 +4793,9 @@
       <c r="T71" s="4"/>
     </row>
     <row r="72" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="182"/>
-      <c r="B72" s="185"/>
-      <c r="C72" s="188"/>
+      <c r="A72" s="222"/>
+      <c r="B72" s="224"/>
+      <c r="C72" s="218"/>
       <c r="D72" s="102"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -4814,14 +4815,14 @@
       <c r="T72" s="4"/>
     </row>
     <row r="73" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="180" t="s">
+      <c r="A73" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="183" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="186" t="s">
-        <v>277</v>
+      <c r="B73" s="223" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="217" t="s">
+        <v>273</v>
       </c>
       <c r="D73" s="114"/>
       <c r="E73" s="17"/>
@@ -4842,14 +4843,14 @@
       <c r="T73" s="4"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="181"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="187"/>
+      <c r="A74" s="208"/>
+      <c r="B74" s="216"/>
+      <c r="C74" s="211"/>
       <c r="D74" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="4"/>
@@ -4868,14 +4869,14 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="181"/>
-      <c r="B75" s="184"/>
-      <c r="C75" s="187"/>
+      <c r="A75" s="208"/>
+      <c r="B75" s="216"/>
+      <c r="C75" s="211"/>
       <c r="D75" s="81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="4"/>
@@ -4894,14 +4895,14 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="181"/>
-      <c r="B76" s="184"/>
-      <c r="C76" s="187"/>
+      <c r="A76" s="208"/>
+      <c r="B76" s="216"/>
+      <c r="C76" s="211"/>
       <c r="D76" s="80" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="4"/>
@@ -4920,9 +4921,9 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="181"/>
-      <c r="B77" s="184"/>
-      <c r="C77" s="187"/>
+      <c r="A77" s="208"/>
+      <c r="B77" s="216"/>
+      <c r="C77" s="211"/>
       <c r="D77" s="81"/>
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
@@ -4942,10 +4943,10 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="181"/>
-      <c r="B78" s="184"/>
-      <c r="C78" s="187"/>
-      <c r="D78" s="167"/>
+      <c r="A78" s="208"/>
+      <c r="B78" s="216"/>
+      <c r="C78" s="211"/>
+      <c r="D78" s="194"/>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
       <c r="G78" s="4"/>
@@ -4964,10 +4965,10 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="181"/>
-      <c r="B79" s="184"/>
-      <c r="C79" s="187"/>
-      <c r="D79" s="168"/>
+      <c r="A79" s="208"/>
+      <c r="B79" s="216"/>
+      <c r="C79" s="211"/>
+      <c r="D79" s="195"/>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
@@ -4986,10 +4987,10 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="181"/>
-      <c r="B80" s="184"/>
-      <c r="C80" s="187"/>
-      <c r="D80" s="168"/>
+      <c r="A80" s="208"/>
+      <c r="B80" s="216"/>
+      <c r="C80" s="211"/>
+      <c r="D80" s="195"/>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
       <c r="G80" s="4"/>
@@ -5008,10 +5009,10 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="181"/>
-      <c r="B81" s="184"/>
-      <c r="C81" s="187"/>
-      <c r="D81" s="168"/>
+      <c r="A81" s="208"/>
+      <c r="B81" s="216"/>
+      <c r="C81" s="211"/>
+      <c r="D81" s="195"/>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
       <c r="G81" s="4"/>
@@ -5030,10 +5031,10 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="181"/>
-      <c r="B82" s="184"/>
-      <c r="C82" s="187"/>
-      <c r="D82" s="196"/>
+      <c r="A82" s="208"/>
+      <c r="B82" s="216"/>
+      <c r="C82" s="211"/>
+      <c r="D82" s="198"/>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
       <c r="G82" s="4"/>
@@ -5052,9 +5053,9 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="181"/>
-      <c r="B83" s="184"/>
-      <c r="C83" s="187"/>
+      <c r="A83" s="208"/>
+      <c r="B83" s="216"/>
+      <c r="C83" s="211"/>
       <c r="D83" s="81"/>
       <c r="E83" s="13"/>
       <c r="F83" s="14"/>
@@ -5074,9 +5075,9 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="182"/>
-      <c r="B84" s="185"/>
-      <c r="C84" s="188"/>
+      <c r="A84" s="222"/>
+      <c r="B84" s="224"/>
+      <c r="C84" s="218"/>
       <c r="D84" s="100"/>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
@@ -5096,14 +5097,14 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="180" t="s">
+      <c r="A85" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="183" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="186" t="s">
-        <v>278</v>
+      <c r="B85" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="217" t="s">
+        <v>274</v>
       </c>
       <c r="D85" s="82"/>
       <c r="E85" s="17"/>
@@ -5124,14 +5125,14 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="181"/>
-      <c r="B86" s="184"/>
-      <c r="C86" s="187"/>
+      <c r="A86" s="208"/>
+      <c r="B86" s="216"/>
+      <c r="C86" s="211"/>
       <c r="D86" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="4"/>
@@ -5150,14 +5151,14 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="181"/>
-      <c r="B87" s="184"/>
-      <c r="C87" s="187"/>
+      <c r="A87" s="208"/>
+      <c r="B87" s="216"/>
+      <c r="C87" s="211"/>
       <c r="D87" s="81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="4"/>
@@ -5176,14 +5177,14 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="181"/>
-      <c r="B88" s="184"/>
-      <c r="C88" s="187"/>
+      <c r="A88" s="208"/>
+      <c r="B88" s="216"/>
+      <c r="C88" s="211"/>
       <c r="D88" s="80" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="4"/>
@@ -5202,12 +5203,12 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="181"/>
-      <c r="B89" s="184"/>
-      <c r="C89" s="187"/>
+      <c r="A89" s="208"/>
+      <c r="B89" s="216"/>
+      <c r="C89" s="211"/>
       <c r="D89" s="81"/>
       <c r="E89" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="4"/>
@@ -5226,9 +5227,9 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="181"/>
-      <c r="B90" s="184"/>
-      <c r="C90" s="187"/>
+      <c r="A90" s="208"/>
+      <c r="B90" s="216"/>
+      <c r="C90" s="211"/>
       <c r="D90" s="105"/>
       <c r="E90" s="63"/>
       <c r="F90" s="14"/>
@@ -5248,9 +5249,9 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="181"/>
-      <c r="B91" s="184"/>
-      <c r="C91" s="187"/>
+      <c r="A91" s="208"/>
+      <c r="B91" s="216"/>
+      <c r="C91" s="211"/>
       <c r="D91" s="106"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
@@ -5270,9 +5271,9 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="182"/>
-      <c r="B92" s="185"/>
-      <c r="C92" s="188"/>
+      <c r="A92" s="222"/>
+      <c r="B92" s="224"/>
+      <c r="C92" s="218"/>
       <c r="D92" s="107"/>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -5292,14 +5293,14 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="180" t="s">
+      <c r="A93" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="183" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" s="186" t="s">
+      <c r="B93" s="223" t="s">
         <v>84</v>
+      </c>
+      <c r="C93" s="217" t="s">
+        <v>365</v>
       </c>
       <c r="D93" s="114"/>
       <c r="E93" s="20"/>
@@ -5320,14 +5321,14 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="181"/>
-      <c r="B94" s="184"/>
-      <c r="C94" s="187"/>
+      <c r="A94" s="208"/>
+      <c r="B94" s="216"/>
+      <c r="C94" s="211"/>
       <c r="D94" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="4"/>
@@ -5346,14 +5347,14 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="181"/>
-      <c r="B95" s="184"/>
-      <c r="C95" s="187"/>
+      <c r="A95" s="208"/>
+      <c r="B95" s="216"/>
+      <c r="C95" s="211"/>
       <c r="D95" s="81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="4"/>
@@ -5372,14 +5373,14 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="181"/>
-      <c r="B96" s="184"/>
-      <c r="C96" s="187"/>
+      <c r="A96" s="208"/>
+      <c r="B96" s="216"/>
+      <c r="C96" s="211"/>
       <c r="D96" s="80" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="4"/>
@@ -5398,12 +5399,12 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="181"/>
-      <c r="B97" s="184"/>
-      <c r="C97" s="187"/>
+      <c r="A97" s="208"/>
+      <c r="B97" s="216"/>
+      <c r="C97" s="211"/>
       <c r="D97" s="105"/>
       <c r="E97" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="4"/>
@@ -5422,9 +5423,9 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="181"/>
-      <c r="B98" s="184"/>
-      <c r="C98" s="187"/>
+      <c r="A98" s="208"/>
+      <c r="B98" s="216"/>
+      <c r="C98" s="211"/>
       <c r="D98" s="104"/>
       <c r="E98" s="22"/>
       <c r="F98" s="23"/>
@@ -5444,9 +5445,9 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="181"/>
-      <c r="B99" s="184"/>
-      <c r="C99" s="187"/>
+      <c r="A99" s="208"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="211"/>
       <c r="D99" s="99"/>
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
@@ -5466,9 +5467,9 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="182"/>
-      <c r="B100" s="185"/>
-      <c r="C100" s="188"/>
+      <c r="A100" s="222"/>
+      <c r="B100" s="224"/>
+      <c r="C100" s="218"/>
       <c r="D100" s="108"/>
       <c r="E100" s="24"/>
       <c r="F100" s="25"/>
@@ -5488,14 +5489,14 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="180" t="s">
+      <c r="A101" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="183" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101" s="186" t="s">
-        <v>88</v>
+      <c r="B101" s="223" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="217" t="s">
+        <v>364</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="17"/>
@@ -5516,12 +5517,12 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="181"/>
-      <c r="B102" s="184"/>
-      <c r="C102" s="187"/>
+      <c r="A102" s="208"/>
+      <c r="B102" s="216"/>
+      <c r="C102" s="211"/>
       <c r="D102" s="81"/>
       <c r="E102" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="4"/>
@@ -5540,14 +5541,14 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="181"/>
-      <c r="B103" s="184"/>
-      <c r="C103" s="187"/>
+      <c r="A103" s="208"/>
+      <c r="B103" s="216"/>
+      <c r="C103" s="211"/>
       <c r="D103" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="4"/>
@@ -5566,14 +5567,14 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="181"/>
-      <c r="B104" s="184"/>
-      <c r="C104" s="187"/>
+      <c r="A104" s="208"/>
+      <c r="B104" s="216"/>
+      <c r="C104" s="211"/>
       <c r="D104" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="4"/>
@@ -5592,17 +5593,17 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="181"/>
-      <c r="B105" s="184"/>
-      <c r="C105" s="187"/>
+      <c r="A105" s="208"/>
+      <c r="B105" s="216"/>
+      <c r="C105" s="211"/>
       <c r="D105" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5620,9 +5621,9 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="181"/>
-      <c r="B106" s="184"/>
-      <c r="C106" s="187"/>
+      <c r="A106" s="208"/>
+      <c r="B106" s="216"/>
+      <c r="C106" s="211"/>
       <c r="D106" s="82"/>
       <c r="E106" s="13"/>
       <c r="F106" s="14"/>
@@ -5642,9 +5643,9 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="181"/>
-      <c r="B107" s="184"/>
-      <c r="C107" s="187"/>
+      <c r="A107" s="208"/>
+      <c r="B107" s="216"/>
+      <c r="C107" s="211"/>
       <c r="D107" s="81"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
@@ -5664,9 +5665,9 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="181"/>
-      <c r="B108" s="184"/>
-      <c r="C108" s="187"/>
+      <c r="A108" s="208"/>
+      <c r="B108" s="216"/>
+      <c r="C108" s="211"/>
       <c r="D108" s="80"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
@@ -5686,9 +5687,9 @@
       <c r="T108" s="4"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="181"/>
-      <c r="B109" s="184"/>
-      <c r="C109" s="187"/>
+      <c r="A109" s="208"/>
+      <c r="B109" s="216"/>
+      <c r="C109" s="211"/>
       <c r="D109" s="105"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
@@ -5708,9 +5709,9 @@
       <c r="T109" s="4"/>
     </row>
     <row r="110" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="182"/>
-      <c r="B110" s="185"/>
-      <c r="C110" s="188"/>
+      <c r="A110" s="222"/>
+      <c r="B110" s="224"/>
+      <c r="C110" s="218"/>
       <c r="D110" s="109"/>
       <c r="E110" s="15"/>
       <c r="F110" s="16"/>
@@ -5730,14 +5731,14 @@
       <c r="T110" s="4"/>
     </row>
     <row r="111" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="180" t="s">
+      <c r="A111" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="183" t="s">
-        <v>89</v>
-      </c>
-      <c r="C111" s="186" t="s">
-        <v>90</v>
+      <c r="B111" s="223" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="217" t="s">
+        <v>363</v>
       </c>
       <c r="D111" s="82"/>
       <c r="E111" s="17"/>
@@ -5758,9 +5759,9 @@
       <c r="T111" s="4"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="181"/>
-      <c r="B112" s="184"/>
-      <c r="C112" s="187"/>
+      <c r="A112" s="208"/>
+      <c r="B112" s="216"/>
+      <c r="C112" s="211"/>
       <c r="D112" s="81"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
@@ -5780,14 +5781,14 @@
       <c r="T112" s="4"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="181"/>
-      <c r="B113" s="184"/>
-      <c r="C113" s="187"/>
+      <c r="A113" s="208"/>
+      <c r="B113" s="216"/>
+      <c r="C113" s="211"/>
       <c r="D113" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="4"/>
@@ -5806,14 +5807,14 @@
       <c r="T113" s="4"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="181"/>
-      <c r="B114" s="184"/>
-      <c r="C114" s="187"/>
+      <c r="A114" s="208"/>
+      <c r="B114" s="216"/>
+      <c r="C114" s="211"/>
       <c r="D114" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="4"/>
@@ -5832,14 +5833,14 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="181"/>
-      <c r="B115" s="184"/>
-      <c r="C115" s="187"/>
+      <c r="A115" s="208"/>
+      <c r="B115" s="216"/>
+      <c r="C115" s="211"/>
       <c r="D115" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="4"/>
@@ -5858,15 +5859,15 @@
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="181"/>
-      <c r="B116" s="184"/>
-      <c r="C116" s="187"/>
+      <c r="A116" s="208"/>
+      <c r="B116" s="216"/>
+      <c r="C116" s="211"/>
       <c r="D116" s="81"/>
       <c r="E116" s="13" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F116" s="162" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5884,9 +5885,9 @@
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="181"/>
-      <c r="B117" s="184"/>
-      <c r="C117" s="187"/>
+      <c r="A117" s="208"/>
+      <c r="B117" s="216"/>
+      <c r="C117" s="211"/>
       <c r="D117" s="80"/>
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
@@ -5906,9 +5907,9 @@
       <c r="T117" s="4"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="181"/>
-      <c r="B118" s="184"/>
-      <c r="C118" s="187"/>
+      <c r="A118" s="208"/>
+      <c r="B118" s="216"/>
+      <c r="C118" s="211"/>
       <c r="D118" s="82"/>
       <c r="E118" s="13"/>
       <c r="F118" s="14"/>
@@ -5928,9 +5929,9 @@
       <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="181"/>
-      <c r="B119" s="184"/>
-      <c r="C119" s="187"/>
+      <c r="A119" s="208"/>
+      <c r="B119" s="216"/>
+      <c r="C119" s="211"/>
       <c r="D119" s="82"/>
       <c r="E119" s="13"/>
       <c r="F119" s="14"/>
@@ -5950,9 +5951,9 @@
       <c r="T119" s="4"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="181"/>
-      <c r="B120" s="184"/>
-      <c r="C120" s="187"/>
+      <c r="A120" s="208"/>
+      <c r="B120" s="216"/>
+      <c r="C120" s="211"/>
       <c r="D120" s="103"/>
       <c r="E120" s="13"/>
       <c r="F120" s="14"/>
@@ -5972,9 +5973,9 @@
       <c r="T120" s="4"/>
     </row>
     <row r="121" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="182"/>
-      <c r="B121" s="185"/>
-      <c r="C121" s="188"/>
+      <c r="A121" s="222"/>
+      <c r="B121" s="224"/>
+      <c r="C121" s="218"/>
       <c r="D121" s="107"/>
       <c r="E121" s="15"/>
       <c r="F121" s="16"/>
@@ -5994,14 +5995,14 @@
       <c r="T121" s="4"/>
     </row>
     <row r="122" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="180" t="s">
+      <c r="A122" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="183" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" s="186" t="s">
-        <v>97</v>
+      <c r="B122" s="223" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="217" t="s">
+        <v>93</v>
       </c>
       <c r="D122" s="82"/>
       <c r="E122" s="17"/>
@@ -6022,9 +6023,9 @@
       <c r="T122" s="4"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="181"/>
-      <c r="B123" s="184"/>
-      <c r="C123" s="187"/>
+      <c r="A123" s="208"/>
+      <c r="B123" s="216"/>
+      <c r="C123" s="211"/>
       <c r="D123" s="81"/>
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
@@ -6044,14 +6045,14 @@
       <c r="T123" s="4"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="181"/>
-      <c r="B124" s="184"/>
-      <c r="C124" s="187"/>
+      <c r="A124" s="208"/>
+      <c r="B124" s="216"/>
+      <c r="C124" s="211"/>
       <c r="D124" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="4"/>
@@ -6070,14 +6071,14 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="181"/>
-      <c r="B125" s="184"/>
-      <c r="C125" s="187"/>
+      <c r="A125" s="208"/>
+      <c r="B125" s="216"/>
+      <c r="C125" s="211"/>
       <c r="D125" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="4"/>
@@ -6096,14 +6097,14 @@
       <c r="T125" s="4"/>
     </row>
     <row r="126" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="181"/>
-      <c r="B126" s="184"/>
-      <c r="C126" s="187"/>
+      <c r="A126" s="208"/>
+      <c r="B126" s="216"/>
+      <c r="C126" s="211"/>
       <c r="D126" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="4"/>
@@ -6122,12 +6123,12 @@
       <c r="T126" s="4"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127" s="181"/>
-      <c r="B127" s="184"/>
-      <c r="C127" s="187"/>
+      <c r="A127" s="208"/>
+      <c r="B127" s="216"/>
+      <c r="C127" s="211"/>
       <c r="D127" s="82"/>
       <c r="E127" s="13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="4"/>
@@ -6146,15 +6147,15 @@
       <c r="T127" s="4"/>
     </row>
     <row r="128" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A128" s="181"/>
-      <c r="B128" s="184"/>
-      <c r="C128" s="187"/>
+      <c r="A128" s="208"/>
+      <c r="B128" s="216"/>
+      <c r="C128" s="211"/>
       <c r="D128" s="82"/>
       <c r="E128" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F128" s="162" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -6172,9 +6173,9 @@
       <c r="T128" s="4"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="181"/>
-      <c r="B129" s="184"/>
-      <c r="C129" s="187"/>
+      <c r="A129" s="208"/>
+      <c r="B129" s="216"/>
+      <c r="C129" s="211"/>
       <c r="D129" s="82"/>
       <c r="E129" s="13"/>
       <c r="F129" s="14"/>
@@ -6194,9 +6195,9 @@
       <c r="T129" s="4"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="181"/>
-      <c r="B130" s="184"/>
-      <c r="C130" s="187"/>
+      <c r="A130" s="208"/>
+      <c r="B130" s="216"/>
+      <c r="C130" s="211"/>
       <c r="D130" s="82"/>
       <c r="E130" s="13"/>
       <c r="F130" s="14"/>
@@ -6216,9 +6217,9 @@
       <c r="T130" s="4"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="181"/>
-      <c r="B131" s="184"/>
-      <c r="C131" s="187"/>
+      <c r="A131" s="208"/>
+      <c r="B131" s="216"/>
+      <c r="C131" s="211"/>
       <c r="D131" s="81"/>
       <c r="E131" s="13"/>
       <c r="F131" s="14"/>
@@ -6238,9 +6239,9 @@
       <c r="T131" s="4"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="181"/>
-      <c r="B132" s="184"/>
-      <c r="C132" s="187"/>
+      <c r="A132" s="208"/>
+      <c r="B132" s="216"/>
+      <c r="C132" s="211"/>
       <c r="D132" s="80"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
@@ -6260,9 +6261,9 @@
       <c r="T132" s="4"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133" s="181"/>
-      <c r="B133" s="184"/>
-      <c r="C133" s="187"/>
+      <c r="A133" s="208"/>
+      <c r="B133" s="216"/>
+      <c r="C133" s="211"/>
       <c r="D133" s="103"/>
       <c r="E133" s="13"/>
       <c r="F133" s="14"/>
@@ -6282,9 +6283,9 @@
       <c r="T133" s="4"/>
     </row>
     <row r="134" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="182"/>
-      <c r="B134" s="185"/>
-      <c r="C134" s="188"/>
+      <c r="A134" s="222"/>
+      <c r="B134" s="224"/>
+      <c r="C134" s="218"/>
       <c r="D134" s="107"/>
       <c r="E134" s="15"/>
       <c r="F134" s="16"/>
@@ -6304,14 +6305,14 @@
       <c r="T134" s="4"/>
     </row>
     <row r="135" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="180" t="s">
+      <c r="A135" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="183" t="s">
-        <v>93</v>
-      </c>
-      <c r="C135" s="186" t="s">
-        <v>96</v>
+      <c r="B135" s="223" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" s="217" t="s">
+        <v>92</v>
       </c>
       <c r="D135" s="114"/>
       <c r="E135" s="17"/>
@@ -6332,9 +6333,9 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="181"/>
-      <c r="B136" s="184"/>
-      <c r="C136" s="187"/>
+      <c r="A136" s="208"/>
+      <c r="B136" s="216"/>
+      <c r="C136" s="211"/>
       <c r="D136" s="81"/>
       <c r="E136" s="13"/>
       <c r="F136" s="14"/>
@@ -6354,14 +6355,14 @@
       <c r="T136" s="4"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="181"/>
-      <c r="B137" s="184"/>
-      <c r="C137" s="187"/>
+      <c r="A137" s="208"/>
+      <c r="B137" s="216"/>
+      <c r="C137" s="211"/>
       <c r="D137" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="4"/>
@@ -6380,14 +6381,14 @@
       <c r="T137" s="4"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="181"/>
-      <c r="B138" s="184"/>
-      <c r="C138" s="187"/>
+      <c r="A138" s="208"/>
+      <c r="B138" s="216"/>
+      <c r="C138" s="211"/>
       <c r="D138" s="81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F138" s="14"/>
       <c r="G138" s="4"/>
@@ -6406,14 +6407,14 @@
       <c r="T138" s="4"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="181"/>
-      <c r="B139" s="184"/>
-      <c r="C139" s="187"/>
+      <c r="A139" s="208"/>
+      <c r="B139" s="216"/>
+      <c r="C139" s="211"/>
       <c r="D139" s="80" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F139" s="14"/>
       <c r="G139" s="4"/>
@@ -6432,12 +6433,12 @@
       <c r="T139" s="4"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="181"/>
-      <c r="B140" s="184"/>
-      <c r="C140" s="187"/>
+      <c r="A140" s="208"/>
+      <c r="B140" s="216"/>
+      <c r="C140" s="211"/>
       <c r="D140" s="82"/>
       <c r="E140" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="4"/>
@@ -6456,15 +6457,15 @@
       <c r="T140" s="4"/>
     </row>
     <row r="141" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A141" s="181"/>
-      <c r="B141" s="184"/>
-      <c r="C141" s="187"/>
+      <c r="A141" s="208"/>
+      <c r="B141" s="216"/>
+      <c r="C141" s="211"/>
       <c r="D141" s="81"/>
       <c r="E141" s="13" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F141" s="162" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -6482,9 +6483,9 @@
       <c r="T141" s="4"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="181"/>
-      <c r="B142" s="184"/>
-      <c r="C142" s="187"/>
+      <c r="A142" s="208"/>
+      <c r="B142" s="216"/>
+      <c r="C142" s="211"/>
       <c r="D142" s="80"/>
       <c r="E142" s="13"/>
       <c r="F142" s="14"/>
@@ -6504,9 +6505,9 @@
       <c r="T142" s="4"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="181"/>
-      <c r="B143" s="184"/>
-      <c r="C143" s="187"/>
+      <c r="A143" s="208"/>
+      <c r="B143" s="216"/>
+      <c r="C143" s="211"/>
       <c r="D143" s="82"/>
       <c r="E143" s="13"/>
       <c r="F143" s="14"/>
@@ -6526,9 +6527,9 @@
       <c r="T143" s="4"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="181"/>
-      <c r="B144" s="184"/>
-      <c r="C144" s="187"/>
+      <c r="A144" s="208"/>
+      <c r="B144" s="216"/>
+      <c r="C144" s="211"/>
       <c r="D144" s="82"/>
       <c r="E144" s="13"/>
       <c r="F144" s="14"/>
@@ -6548,9 +6549,9 @@
       <c r="T144" s="4"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="181"/>
-      <c r="B145" s="184"/>
-      <c r="C145" s="187"/>
+      <c r="A145" s="208"/>
+      <c r="B145" s="216"/>
+      <c r="C145" s="211"/>
       <c r="D145" s="110"/>
       <c r="E145" s="13"/>
       <c r="F145" s="14"/>
@@ -6570,9 +6571,9 @@
       <c r="T145" s="4"/>
     </row>
     <row r="146" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="182"/>
-      <c r="B146" s="185"/>
-      <c r="C146" s="188"/>
+      <c r="A146" s="222"/>
+      <c r="B146" s="224"/>
+      <c r="C146" s="218"/>
       <c r="D146" s="109"/>
       <c r="E146" s="15"/>
       <c r="F146" s="16"/>
@@ -6592,16 +6593,16 @@
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="180" t="s">
+      <c r="A147" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="183" t="s">
-        <v>358</v>
-      </c>
-      <c r="C147" s="186" t="s">
-        <v>359</v>
-      </c>
-      <c r="D147" s="241"/>
+      <c r="B147" s="223" t="s">
+        <v>350</v>
+      </c>
+      <c r="C147" s="217" t="s">
+        <v>351</v>
+      </c>
+      <c r="D147" s="192"/>
       <c r="E147" s="17"/>
       <c r="F147" s="18"/>
       <c r="G147" s="4"/>
@@ -6620,10 +6621,10 @@
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="181"/>
-      <c r="B148" s="184"/>
-      <c r="C148" s="187"/>
-      <c r="D148" s="242"/>
+      <c r="A148" s="208"/>
+      <c r="B148" s="216"/>
+      <c r="C148" s="211"/>
+      <c r="D148" s="193"/>
       <c r="E148" s="13"/>
       <c r="F148" s="14"/>
       <c r="G148" s="4"/>
@@ -6642,12 +6643,12 @@
       <c r="T148" s="4"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="181"/>
-      <c r="B149" s="184"/>
-      <c r="C149" s="187"/>
+      <c r="A149" s="208"/>
+      <c r="B149" s="216"/>
+      <c r="C149" s="211"/>
       <c r="D149" s="80"/>
       <c r="E149" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F149" s="14"/>
       <c r="G149" s="4"/>
@@ -6666,14 +6667,14 @@
       <c r="T149" s="4"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="181"/>
-      <c r="B150" s="184"/>
-      <c r="C150" s="187"/>
+      <c r="A150" s="208"/>
+      <c r="B150" s="216"/>
+      <c r="C150" s="211"/>
       <c r="D150" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="4"/>
@@ -6692,17 +6693,17 @@
       <c r="T150" s="4"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="181"/>
-      <c r="B151" s="184"/>
-      <c r="C151" s="187"/>
+      <c r="A151" s="208"/>
+      <c r="B151" s="216"/>
+      <c r="C151" s="211"/>
       <c r="D151" s="81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -6720,11 +6721,11 @@
       <c r="T151" s="4"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="181"/>
-      <c r="B152" s="184"/>
-      <c r="C152" s="187"/>
+      <c r="A152" s="208"/>
+      <c r="B152" s="216"/>
+      <c r="C152" s="211"/>
       <c r="D152" s="80" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="14"/>
@@ -6744,9 +6745,9 @@
       <c r="T152" s="4"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="181"/>
-      <c r="B153" s="184"/>
-      <c r="C153" s="187"/>
+      <c r="A153" s="208"/>
+      <c r="B153" s="216"/>
+      <c r="C153" s="211"/>
       <c r="D153" s="82"/>
       <c r="E153" s="13"/>
       <c r="F153" s="14"/>
@@ -6766,9 +6767,9 @@
       <c r="T153" s="4"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="181"/>
-      <c r="B154" s="184"/>
-      <c r="C154" s="187"/>
+      <c r="A154" s="208"/>
+      <c r="B154" s="216"/>
+      <c r="C154" s="211"/>
       <c r="D154" s="80"/>
       <c r="E154" s="13"/>
       <c r="F154" s="14"/>
@@ -6788,9 +6789,9 @@
       <c r="T154" s="4"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="181"/>
-      <c r="B155" s="184"/>
-      <c r="C155" s="187"/>
+      <c r="A155" s="208"/>
+      <c r="B155" s="216"/>
+      <c r="C155" s="211"/>
       <c r="D155" s="82"/>
       <c r="E155" s="13"/>
       <c r="F155" s="14"/>
@@ -6810,9 +6811,9 @@
       <c r="T155" s="4"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="181"/>
-      <c r="B156" s="184"/>
-      <c r="C156" s="187"/>
+      <c r="A156" s="208"/>
+      <c r="B156" s="216"/>
+      <c r="C156" s="211"/>
       <c r="D156" s="103"/>
       <c r="E156" s="13"/>
       <c r="F156" s="14"/>
@@ -6832,9 +6833,9 @@
       <c r="T156" s="4"/>
     </row>
     <row r="157" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="182"/>
-      <c r="B157" s="185"/>
-      <c r="C157" s="188"/>
+      <c r="A157" s="222"/>
+      <c r="B157" s="224"/>
+      <c r="C157" s="218"/>
       <c r="D157" s="108"/>
       <c r="E157" s="15"/>
       <c r="F157" s="16"/>
@@ -6854,14 +6855,14 @@
       <c r="T157" s="4"/>
     </row>
     <row r="158" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="180" t="s">
+      <c r="A158" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="B158" s="183" t="s">
-        <v>100</v>
-      </c>
-      <c r="C158" s="186" t="s">
-        <v>360</v>
+      <c r="B158" s="223" t="s">
+        <v>96</v>
+      </c>
+      <c r="C158" s="217" t="s">
+        <v>352</v>
       </c>
       <c r="D158" s="82"/>
       <c r="E158" s="17"/>
@@ -6882,14 +6883,14 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="181"/>
-      <c r="B159" s="184"/>
-      <c r="C159" s="187"/>
+      <c r="A159" s="208"/>
+      <c r="B159" s="216"/>
+      <c r="C159" s="211"/>
       <c r="D159" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="4"/>
@@ -6908,17 +6909,17 @@
       <c r="T159" s="4"/>
     </row>
     <row r="160" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="181"/>
-      <c r="B160" s="184"/>
-      <c r="C160" s="187"/>
+      <c r="A160" s="208"/>
+      <c r="B160" s="216"/>
+      <c r="C160" s="211"/>
       <c r="D160" s="81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F160" s="162" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -6936,11 +6937,11 @@
       <c r="T160" s="4"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="181"/>
-      <c r="B161" s="184"/>
-      <c r="C161" s="187"/>
+      <c r="A161" s="208"/>
+      <c r="B161" s="216"/>
+      <c r="C161" s="211"/>
       <c r="D161" s="80" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E161" s="13"/>
       <c r="F161" s="14"/>
@@ -6960,9 +6961,9 @@
       <c r="T161" s="4"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="181"/>
-      <c r="B162" s="184"/>
-      <c r="C162" s="187"/>
+      <c r="A162" s="208"/>
+      <c r="B162" s="216"/>
+      <c r="C162" s="211"/>
       <c r="D162" s="82"/>
       <c r="E162" s="13"/>
       <c r="F162" s="14"/>
@@ -6982,9 +6983,9 @@
       <c r="T162" s="4"/>
     </row>
     <row r="163" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="182"/>
-      <c r="B163" s="185"/>
-      <c r="C163" s="188"/>
+      <c r="A163" s="222"/>
+      <c r="B163" s="224"/>
+      <c r="C163" s="218"/>
       <c r="D163" s="107"/>
       <c r="E163" s="15"/>
       <c r="F163" s="16"/>
@@ -7004,14 +7005,14 @@
       <c r="T163" s="4"/>
     </row>
     <row r="164" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="180" t="s">
+      <c r="A164" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="183" t="s">
+      <c r="B164" s="223" t="s">
+        <v>98</v>
+      </c>
+      <c r="C164" s="217" t="s">
         <v>102</v>
-      </c>
-      <c r="C164" s="186" t="s">
-        <v>106</v>
       </c>
       <c r="D164" s="114"/>
       <c r="E164" s="26"/>
@@ -7032,14 +7033,14 @@
       <c r="T164" s="4"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="181"/>
-      <c r="B165" s="184"/>
-      <c r="C165" s="187"/>
+      <c r="A165" s="208"/>
+      <c r="B165" s="216"/>
+      <c r="C165" s="211"/>
       <c r="D165" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E165" s="112" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F165" s="28"/>
       <c r="G165" s="4"/>
@@ -7058,14 +7059,14 @@
       <c r="T165" s="4"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="181"/>
-      <c r="B166" s="184"/>
-      <c r="C166" s="187"/>
+      <c r="A166" s="208"/>
+      <c r="B166" s="216"/>
+      <c r="C166" s="211"/>
       <c r="D166" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E166" s="111" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F166" s="28"/>
       <c r="G166" s="4"/>
@@ -7084,17 +7085,17 @@
       <c r="T166" s="4"/>
     </row>
     <row r="167" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="181"/>
-      <c r="B167" s="184"/>
-      <c r="C167" s="187"/>
+      <c r="A167" s="208"/>
+      <c r="B167" s="216"/>
+      <c r="C167" s="211"/>
       <c r="D167" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E167" s="111" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F167" s="165" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -7112,9 +7113,9 @@
       <c r="T167" s="4"/>
     </row>
     <row r="168" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="182"/>
-      <c r="B168" s="185"/>
-      <c r="C168" s="188"/>
+      <c r="A168" s="222"/>
+      <c r="B168" s="224"/>
+      <c r="C168" s="218"/>
       <c r="D168" s="107"/>
       <c r="E168" s="32"/>
       <c r="F168" s="33"/>
@@ -7134,14 +7135,14 @@
       <c r="T168" s="4"/>
     </row>
     <row r="169" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="180" t="s">
+      <c r="A169" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="183" t="s">
-        <v>335</v>
-      </c>
-      <c r="C169" s="186" t="s">
-        <v>109</v>
+      <c r="B169" s="223" t="s">
+        <v>329</v>
+      </c>
+      <c r="C169" s="217" t="s">
+        <v>105</v>
       </c>
       <c r="D169" s="82"/>
       <c r="E169" s="34"/>
@@ -7162,14 +7163,14 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="181"/>
-      <c r="B170" s="184"/>
-      <c r="C170" s="187"/>
+      <c r="A170" s="208"/>
+      <c r="B170" s="216"/>
+      <c r="C170" s="211"/>
       <c r="D170" s="80" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="4"/>
@@ -7188,12 +7189,12 @@
       <c r="T170" s="4"/>
     </row>
     <row r="171" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="181"/>
-      <c r="B171" s="184"/>
-      <c r="C171" s="187"/>
+      <c r="A171" s="208"/>
+      <c r="B171" s="216"/>
+      <c r="C171" s="211"/>
       <c r="D171" s="80"/>
       <c r="E171" s="13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="4"/>
@@ -7212,12 +7213,12 @@
       <c r="T171" s="4"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="181"/>
-      <c r="B172" s="184"/>
-      <c r="C172" s="187"/>
+      <c r="A172" s="208"/>
+      <c r="B172" s="216"/>
+      <c r="C172" s="211"/>
       <c r="D172" s="80"/>
       <c r="E172" s="13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="4"/>
@@ -7236,12 +7237,12 @@
       <c r="T172" s="4"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="181"/>
-      <c r="B173" s="184"/>
-      <c r="C173" s="187"/>
+      <c r="A173" s="208"/>
+      <c r="B173" s="216"/>
+      <c r="C173" s="211"/>
       <c r="D173" s="82"/>
       <c r="E173" s="13" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="4"/>
@@ -7260,12 +7261,12 @@
       <c r="T173" s="4"/>
     </row>
     <row r="174" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="182"/>
-      <c r="B174" s="185"/>
-      <c r="C174" s="188"/>
+      <c r="A174" s="222"/>
+      <c r="B174" s="224"/>
+      <c r="C174" s="218"/>
       <c r="D174" s="107"/>
       <c r="E174" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="4"/>
@@ -7284,16 +7285,16 @@
       <c r="T174" s="4"/>
     </row>
     <row r="175" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="180" t="s">
+      <c r="A175" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="189" t="s">
-        <v>108</v>
-      </c>
-      <c r="C175" s="186" t="s">
-        <v>110</v>
-      </c>
-      <c r="D175" s="243"/>
+      <c r="B175" s="228" t="s">
+        <v>104</v>
+      </c>
+      <c r="C175" s="217" t="s">
+        <v>106</v>
+      </c>
+      <c r="D175" s="197"/>
       <c r="F175" s="18"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -7311,12 +7312,12 @@
       <c r="T175" s="4"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="181"/>
-      <c r="B176" s="190"/>
-      <c r="C176" s="187"/>
-      <c r="D176" s="196"/>
+      <c r="A176" s="208"/>
+      <c r="B176" s="229"/>
+      <c r="C176" s="211"/>
+      <c r="D176" s="198"/>
       <c r="E176" s="34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="4"/>
@@ -7335,14 +7336,14 @@
       <c r="T176" s="4"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="181"/>
-      <c r="B177" s="190"/>
-      <c r="C177" s="187"/>
+      <c r="A177" s="208"/>
+      <c r="B177" s="229"/>
+      <c r="C177" s="211"/>
       <c r="D177" s="80" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E177" s="113" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="4"/>
@@ -7361,10 +7362,10 @@
       <c r="T177" s="4"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="181"/>
-      <c r="B178" s="190"/>
-      <c r="C178" s="187"/>
-      <c r="D178" s="167"/>
+      <c r="A178" s="208"/>
+      <c r="B178" s="229"/>
+      <c r="C178" s="211"/>
+      <c r="D178" s="194"/>
       <c r="E178" s="113"/>
       <c r="F178" s="14"/>
       <c r="G178" s="4"/>
@@ -7383,10 +7384,10 @@
       <c r="T178" s="4"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="181"/>
-      <c r="B179" s="190"/>
-      <c r="C179" s="187"/>
-      <c r="D179" s="168"/>
+      <c r="A179" s="208"/>
+      <c r="B179" s="229"/>
+      <c r="C179" s="211"/>
+      <c r="D179" s="195"/>
       <c r="E179" s="113"/>
       <c r="F179" s="14"/>
       <c r="G179" s="4"/>
@@ -7405,10 +7406,10 @@
       <c r="T179" s="4"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="181"/>
-      <c r="B180" s="190"/>
-      <c r="C180" s="187"/>
-      <c r="D180" s="168"/>
+      <c r="A180" s="208"/>
+      <c r="B180" s="229"/>
+      <c r="C180" s="211"/>
+      <c r="D180" s="195"/>
       <c r="E180" s="113"/>
       <c r="F180" s="14"/>
       <c r="G180" s="4"/>
@@ -7427,10 +7428,10 @@
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="182"/>
-      <c r="B181" s="191"/>
-      <c r="C181" s="188"/>
-      <c r="D181" s="173"/>
+      <c r="A181" s="222"/>
+      <c r="B181" s="230"/>
+      <c r="C181" s="218"/>
+      <c r="D181" s="196"/>
       <c r="E181" s="36"/>
       <c r="F181" s="16"/>
       <c r="G181" s="4"/>
@@ -7449,20 +7450,20 @@
       <c r="T181" s="4"/>
     </row>
     <row r="182" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="180" t="s">
+      <c r="A182" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="B182" s="189" t="s">
-        <v>111</v>
-      </c>
-      <c r="C182" s="186" t="s">
-        <v>112</v>
-      </c>
-      <c r="D182" s="244" t="s">
+      <c r="B182" s="228" t="s">
         <v>107</v>
       </c>
+      <c r="C182" s="217" t="s">
+        <v>108</v>
+      </c>
+      <c r="D182" s="203" t="s">
+        <v>103</v>
+      </c>
       <c r="E182" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F182" s="18"/>
       <c r="G182" s="4"/>
@@ -7481,12 +7482,12 @@
       <c r="T182" s="4"/>
     </row>
     <row r="183" spans="1:20" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="181"/>
-      <c r="B183" s="190"/>
-      <c r="C183" s="187"/>
-      <c r="D183" s="245"/>
+      <c r="A183" s="208"/>
+      <c r="B183" s="229"/>
+      <c r="C183" s="211"/>
+      <c r="D183" s="204"/>
       <c r="E183" s="58" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F183" s="162"/>
       <c r="G183" s="4"/>
@@ -7505,12 +7506,12 @@
       <c r="T183" s="4"/>
     </row>
     <row r="184" spans="1:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="182"/>
-      <c r="B184" s="191"/>
-      <c r="C184" s="188"/>
+      <c r="A184" s="222"/>
+      <c r="B184" s="230"/>
+      <c r="C184" s="218"/>
       <c r="D184" s="150"/>
       <c r="E184" s="15" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>63</v>
@@ -7531,17 +7532,17 @@
       <c r="T184" s="4"/>
     </row>
     <row r="185" spans="1:20" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="180" t="s">
+      <c r="A185" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="189" t="s">
-        <v>114</v>
-      </c>
-      <c r="C185" s="186" t="s">
-        <v>115</v>
-      </c>
-      <c r="D185" s="178" t="s">
-        <v>107</v>
+      <c r="B185" s="228" t="s">
+        <v>110</v>
+      </c>
+      <c r="C185" s="217" t="s">
+        <v>111</v>
+      </c>
+      <c r="D185" s="233" t="s">
+        <v>103</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="38"/>
@@ -7561,12 +7562,12 @@
       <c r="T185" s="4"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="181"/>
-      <c r="B186" s="190"/>
-      <c r="C186" s="187"/>
-      <c r="D186" s="178"/>
+      <c r="A186" s="208"/>
+      <c r="B186" s="229"/>
+      <c r="C186" s="211"/>
+      <c r="D186" s="233"/>
       <c r="E186" s="39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F186" s="40"/>
       <c r="G186" s="4"/>
@@ -7585,12 +7586,12 @@
       <c r="T186" s="4"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="181"/>
-      <c r="B187" s="190"/>
-      <c r="C187" s="187"/>
-      <c r="D187" s="178"/>
+      <c r="A187" s="208"/>
+      <c r="B187" s="229"/>
+      <c r="C187" s="211"/>
+      <c r="D187" s="233"/>
       <c r="E187" s="39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F187" s="40"/>
       <c r="G187" s="4"/>
@@ -7609,12 +7610,12 @@
       <c r="T187" s="4"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="181"/>
-      <c r="B188" s="190"/>
-      <c r="C188" s="187"/>
-      <c r="D188" s="178"/>
+      <c r="A188" s="208"/>
+      <c r="B188" s="229"/>
+      <c r="C188" s="211"/>
+      <c r="D188" s="233"/>
       <c r="E188" s="39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F188" s="40"/>
       <c r="G188" s="4"/>
@@ -7633,15 +7634,15 @@
       <c r="T188" s="4"/>
     </row>
     <row r="189" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="182"/>
-      <c r="B189" s="191"/>
-      <c r="C189" s="188"/>
-      <c r="D189" s="179"/>
+      <c r="A189" s="222"/>
+      <c r="B189" s="230"/>
+      <c r="C189" s="218"/>
+      <c r="D189" s="234"/>
       <c r="E189" s="119" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F189" s="42" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
@@ -7659,20 +7660,20 @@
       <c r="T189" s="4"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="181" t="s">
+      <c r="A190" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="B190" s="190" t="s">
-        <v>120</v>
-      </c>
-      <c r="C190" s="187" t="s">
-        <v>121</v>
-      </c>
-      <c r="D190" s="198" t="s">
-        <v>107</v>
+      <c r="B190" s="229" t="s">
+        <v>116</v>
+      </c>
+      <c r="C190" s="211" t="s">
+        <v>117</v>
+      </c>
+      <c r="D190" s="213" t="s">
+        <v>103</v>
       </c>
       <c r="E190" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="4"/>
@@ -7691,12 +7692,12 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="181"/>
-      <c r="B191" s="190"/>
-      <c r="C191" s="187"/>
-      <c r="D191" s="198"/>
+      <c r="A191" s="208"/>
+      <c r="B191" s="229"/>
+      <c r="C191" s="211"/>
+      <c r="D191" s="213"/>
       <c r="E191" s="115" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="4"/>
@@ -7715,12 +7716,12 @@
       <c r="T191" s="4"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="181"/>
-      <c r="B192" s="190"/>
-      <c r="C192" s="187"/>
-      <c r="D192" s="198"/>
+      <c r="A192" s="208"/>
+      <c r="B192" s="229"/>
+      <c r="C192" s="211"/>
+      <c r="D192" s="213"/>
       <c r="E192" s="118" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="4"/>
@@ -7739,12 +7740,12 @@
       <c r="T192" s="4"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="181"/>
-      <c r="B193" s="190"/>
-      <c r="C193" s="187"/>
-      <c r="D193" s="198"/>
+      <c r="A193" s="208"/>
+      <c r="B193" s="229"/>
+      <c r="C193" s="211"/>
+      <c r="D193" s="213"/>
       <c r="E193" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F193" s="117"/>
       <c r="G193" s="4"/>
@@ -7763,12 +7764,12 @@
       <c r="T193" s="4"/>
     </row>
     <row r="194" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="181"/>
-      <c r="B194" s="190"/>
-      <c r="C194" s="187"/>
-      <c r="D194" s="198"/>
+      <c r="A194" s="208"/>
+      <c r="B194" s="229"/>
+      <c r="C194" s="211"/>
+      <c r="D194" s="213"/>
       <c r="E194" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F194" s="116"/>
       <c r="G194" s="4"/>
@@ -7787,12 +7788,12 @@
       <c r="T194" s="4"/>
     </row>
     <row r="195" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="181"/>
-      <c r="B195" s="190"/>
-      <c r="C195" s="187"/>
-      <c r="D195" s="198"/>
+      <c r="A195" s="208"/>
+      <c r="B195" s="229"/>
+      <c r="C195" s="211"/>
+      <c r="D195" s="213"/>
       <c r="E195" s="115" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F195" s="116"/>
       <c r="G195" s="4"/>
@@ -7811,12 +7812,12 @@
       <c r="T195" s="4"/>
     </row>
     <row r="196" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="181"/>
-      <c r="B196" s="190"/>
-      <c r="C196" s="187"/>
-      <c r="D196" s="198"/>
+      <c r="A196" s="208"/>
+      <c r="B196" s="229"/>
+      <c r="C196" s="211"/>
+      <c r="D196" s="213"/>
       <c r="E196" s="156" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F196" s="158"/>
       <c r="G196" s="4"/>
@@ -7835,10 +7836,10 @@
       <c r="T196" s="4"/>
     </row>
     <row r="197" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="182"/>
-      <c r="B197" s="191"/>
-      <c r="C197" s="188"/>
-      <c r="D197" s="199"/>
+      <c r="A197" s="222"/>
+      <c r="B197" s="230"/>
+      <c r="C197" s="218"/>
+      <c r="D197" s="220"/>
       <c r="E197" s="159"/>
       <c r="F197" s="157"/>
       <c r="G197" s="4"/>
@@ -7857,20 +7858,20 @@
       <c r="T197" s="4"/>
     </row>
     <row r="198" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="181" t="s">
+      <c r="A198" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="B198" s="190" t="s">
-        <v>128</v>
-      </c>
-      <c r="C198" s="187" t="s">
-        <v>129</v>
-      </c>
-      <c r="D198" s="178" t="s">
-        <v>107</v>
+      <c r="B198" s="229" t="s">
+        <v>124</v>
+      </c>
+      <c r="C198" s="211" t="s">
+        <v>125</v>
+      </c>
+      <c r="D198" s="233" t="s">
+        <v>103</v>
       </c>
       <c r="E198" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F198" s="44"/>
       <c r="G198" s="4"/>
@@ -7889,12 +7890,12 @@
       <c r="T198" s="4"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="181"/>
-      <c r="B199" s="190"/>
-      <c r="C199" s="187"/>
-      <c r="D199" s="178"/>
+      <c r="A199" s="208"/>
+      <c r="B199" s="229"/>
+      <c r="C199" s="211"/>
+      <c r="D199" s="233"/>
       <c r="E199" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F199" s="45"/>
       <c r="G199" s="4"/>
@@ -7913,12 +7914,12 @@
       <c r="T199" s="4"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="181"/>
-      <c r="B200" s="190"/>
-      <c r="C200" s="187"/>
-      <c r="D200" s="178"/>
+      <c r="A200" s="208"/>
+      <c r="B200" s="229"/>
+      <c r="C200" s="211"/>
+      <c r="D200" s="233"/>
       <c r="E200" s="39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F200" s="45"/>
       <c r="G200" s="4"/>
@@ -7937,12 +7938,12 @@
       <c r="T200" s="4"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="181"/>
-      <c r="B201" s="190"/>
-      <c r="C201" s="187"/>
-      <c r="D201" s="178"/>
+      <c r="A201" s="208"/>
+      <c r="B201" s="229"/>
+      <c r="C201" s="211"/>
+      <c r="D201" s="233"/>
       <c r="E201" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F201" s="45"/>
       <c r="G201" s="4"/>
@@ -7961,10 +7962,10 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="182"/>
-      <c r="B202" s="191"/>
-      <c r="C202" s="188"/>
-      <c r="D202" s="179"/>
+      <c r="A202" s="222"/>
+      <c r="B202" s="230"/>
+      <c r="C202" s="218"/>
+      <c r="D202" s="234"/>
       <c r="E202" s="41"/>
       <c r="F202" s="46"/>
       <c r="G202" s="4"/>
@@ -7983,17 +7984,17 @@
       <c r="T202" s="4"/>
     </row>
     <row r="203" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="180" t="s">
+      <c r="A203" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="B203" s="189" t="s">
-        <v>135</v>
-      </c>
-      <c r="C203" s="186" t="s">
-        <v>134</v>
-      </c>
-      <c r="D203" s="194" t="s">
-        <v>107</v>
+      <c r="B203" s="228" t="s">
+        <v>131</v>
+      </c>
+      <c r="C203" s="217" t="s">
+        <v>130</v>
+      </c>
+      <c r="D203" s="247" t="s">
+        <v>103</v>
       </c>
       <c r="E203" s="43"/>
       <c r="F203" s="44"/>
@@ -8013,12 +8014,12 @@
       <c r="T203" s="4"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204" s="181"/>
-      <c r="B204" s="190"/>
-      <c r="C204" s="187"/>
-      <c r="D204" s="178"/>
+      <c r="A204" s="208"/>
+      <c r="B204" s="229"/>
+      <c r="C204" s="211"/>
+      <c r="D204" s="233"/>
       <c r="E204" s="43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F204" s="45"/>
       <c r="G204" s="4"/>
@@ -8037,12 +8038,12 @@
       <c r="T204" s="4"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="181"/>
-      <c r="B205" s="190"/>
-      <c r="C205" s="187"/>
-      <c r="D205" s="178"/>
+      <c r="A205" s="208"/>
+      <c r="B205" s="229"/>
+      <c r="C205" s="211"/>
+      <c r="D205" s="233"/>
       <c r="E205" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F205" s="45"/>
       <c r="G205" s="4"/>
@@ -8061,12 +8062,12 @@
       <c r="T205" s="4"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A206" s="181"/>
-      <c r="B206" s="190"/>
-      <c r="C206" s="187"/>
-      <c r="D206" s="178"/>
+      <c r="A206" s="208"/>
+      <c r="B206" s="229"/>
+      <c r="C206" s="211"/>
+      <c r="D206" s="233"/>
       <c r="E206" s="39" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F206" s="45"/>
       <c r="G206" s="4"/>
@@ -8085,12 +8086,12 @@
       <c r="T206" s="4"/>
     </row>
     <row r="207" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="182"/>
-      <c r="B207" s="191"/>
-      <c r="C207" s="188"/>
-      <c r="D207" s="179"/>
+      <c r="A207" s="222"/>
+      <c r="B207" s="230"/>
+      <c r="C207" s="218"/>
+      <c r="D207" s="234"/>
       <c r="E207" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F207" s="45"/>
       <c r="G207" s="4"/>
@@ -8109,14 +8110,14 @@
       <c r="T207" s="4"/>
     </row>
     <row r="208" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="192" t="s">
+      <c r="A208" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="192"/>
-      <c r="C208" s="192"/>
-      <c r="D208" s="192"/>
-      <c r="E208" s="192"/>
-      <c r="F208" s="192"/>
+      <c r="B208" s="253"/>
+      <c r="C208" s="253"/>
+      <c r="D208" s="253"/>
+      <c r="E208" s="253"/>
+      <c r="F208" s="253"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -8155,17 +8156,17 @@
       <c r="T209" s="4"/>
     </row>
     <row r="210" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="180" t="s">
+      <c r="A210" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="195" t="s">
-        <v>137</v>
-      </c>
-      <c r="C210" s="193" t="s">
-        <v>143</v>
-      </c>
-      <c r="D210" s="177" t="s">
-        <v>107</v>
+      <c r="B210" s="248" t="s">
+        <v>133</v>
+      </c>
+      <c r="C210" s="210" t="s">
+        <v>139</v>
+      </c>
+      <c r="D210" s="212" t="s">
+        <v>103</v>
       </c>
       <c r="E210" s="47"/>
       <c r="F210" s="19"/>
@@ -8185,12 +8186,12 @@
       <c r="T210" s="4"/>
     </row>
     <row r="211" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="181"/>
-      <c r="B211" s="184"/>
-      <c r="C211" s="187"/>
-      <c r="D211" s="178"/>
+      <c r="A211" s="208"/>
+      <c r="B211" s="216"/>
+      <c r="C211" s="211"/>
+      <c r="D211" s="233"/>
       <c r="E211" s="47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F211" s="19"/>
       <c r="G211" s="4"/>
@@ -8209,12 +8210,12 @@
       <c r="T211" s="4"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A212" s="181"/>
-      <c r="B212" s="184"/>
-      <c r="C212" s="187"/>
-      <c r="D212" s="178"/>
+      <c r="A212" s="208"/>
+      <c r="B212" s="216"/>
+      <c r="C212" s="211"/>
+      <c r="D212" s="233"/>
       <c r="E212" s="47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F212" s="19"/>
       <c r="G212" s="4"/>
@@ -8233,12 +8234,12 @@
       <c r="T212" s="4"/>
     </row>
     <row r="213" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="181"/>
-      <c r="B213" s="184"/>
-      <c r="C213" s="187"/>
-      <c r="D213" s="178"/>
+      <c r="A213" s="208"/>
+      <c r="B213" s="216"/>
+      <c r="C213" s="211"/>
+      <c r="D213" s="233"/>
       <c r="E213" s="47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F213" s="19"/>
       <c r="G213" s="4"/>
@@ -8257,12 +8258,12 @@
       <c r="T213" s="4"/>
     </row>
     <row r="214" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="181"/>
-      <c r="B214" s="184"/>
-      <c r="C214" s="187"/>
-      <c r="D214" s="178"/>
+      <c r="A214" s="208"/>
+      <c r="B214" s="216"/>
+      <c r="C214" s="211"/>
+      <c r="D214" s="233"/>
       <c r="E214" s="120" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F214" s="19"/>
       <c r="G214" s="4"/>
@@ -8281,12 +8282,12 @@
       <c r="T214" s="4"/>
     </row>
     <row r="215" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="181"/>
-      <c r="B215" s="184"/>
-      <c r="C215" s="187"/>
-      <c r="D215" s="178"/>
+      <c r="A215" s="208"/>
+      <c r="B215" s="216"/>
+      <c r="C215" s="211"/>
+      <c r="D215" s="233"/>
       <c r="E215" s="121" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F215" s="19"/>
       <c r="G215" s="4"/>
@@ -8305,10 +8306,10 @@
       <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="182"/>
-      <c r="B216" s="185"/>
-      <c r="C216" s="188"/>
-      <c r="D216" s="179"/>
+      <c r="A216" s="222"/>
+      <c r="B216" s="224"/>
+      <c r="C216" s="218"/>
+      <c r="D216" s="234"/>
       <c r="E216" s="122"/>
       <c r="F216" s="49"/>
       <c r="G216" s="4"/>
@@ -8327,17 +8328,17 @@
       <c r="T216" s="4"/>
     </row>
     <row r="217" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="180" t="s">
+      <c r="A217" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="B217" s="183" t="s">
-        <v>142</v>
-      </c>
-      <c r="C217" s="186" t="s">
-        <v>149</v>
-      </c>
-      <c r="D217" s="246" t="s">
-        <v>107</v>
+      <c r="B217" s="223" t="s">
+        <v>138</v>
+      </c>
+      <c r="C217" s="217" t="s">
+        <v>145</v>
+      </c>
+      <c r="D217" s="205" t="s">
+        <v>103</v>
       </c>
       <c r="E217" s="50"/>
       <c r="F217" s="51"/>
@@ -8357,12 +8358,12 @@
       <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="181"/>
-      <c r="B218" s="184"/>
-      <c r="C218" s="187"/>
-      <c r="D218" s="245"/>
+      <c r="A218" s="208"/>
+      <c r="B218" s="216"/>
+      <c r="C218" s="211"/>
+      <c r="D218" s="204"/>
       <c r="E218" s="50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F218" s="51"/>
       <c r="G218" s="4"/>
@@ -8381,14 +8382,14 @@
       <c r="T218" s="4"/>
     </row>
     <row r="219" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="181"/>
-      <c r="B219" s="184"/>
-      <c r="C219" s="187"/>
+      <c r="A219" s="208"/>
+      <c r="B219" s="216"/>
+      <c r="C219" s="211"/>
       <c r="D219" s="80" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E219" s="50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F219" s="51"/>
       <c r="G219" s="4"/>
@@ -8407,12 +8408,12 @@
       <c r="T219" s="4"/>
     </row>
     <row r="220" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="181"/>
-      <c r="B220" s="184"/>
-      <c r="C220" s="187"/>
-      <c r="D220" s="167"/>
+      <c r="A220" s="208"/>
+      <c r="B220" s="216"/>
+      <c r="C220" s="211"/>
+      <c r="D220" s="194"/>
       <c r="E220" s="50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F220" s="51"/>
       <c r="G220" s="4"/>
@@ -8431,10 +8432,10 @@
       <c r="T220" s="4"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221" s="181"/>
-      <c r="B221" s="184"/>
-      <c r="C221" s="187"/>
-      <c r="D221" s="168"/>
+      <c r="A221" s="208"/>
+      <c r="B221" s="216"/>
+      <c r="C221" s="211"/>
+      <c r="D221" s="195"/>
       <c r="E221" s="47"/>
       <c r="F221" s="19"/>
       <c r="G221" s="4"/>
@@ -8453,10 +8454,10 @@
       <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222" s="181"/>
-      <c r="B222" s="184"/>
-      <c r="C222" s="187"/>
-      <c r="D222" s="168"/>
+      <c r="A222" s="208"/>
+      <c r="B222" s="216"/>
+      <c r="C222" s="211"/>
+      <c r="D222" s="195"/>
       <c r="E222" s="47"/>
       <c r="F222" s="19"/>
       <c r="G222" s="4"/>
@@ -8475,10 +8476,10 @@
       <c r="T222" s="4"/>
     </row>
     <row r="223" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="181"/>
-      <c r="B223" s="184"/>
-      <c r="C223" s="187"/>
-      <c r="D223" s="173"/>
+      <c r="A223" s="208"/>
+      <c r="B223" s="216"/>
+      <c r="C223" s="211"/>
+      <c r="D223" s="196"/>
       <c r="E223" s="47"/>
       <c r="F223" s="19"/>
       <c r="G223" s="4"/>
@@ -8497,10 +8498,10 @@
       <c r="T223" s="4"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A224" s="181"/>
-      <c r="B224" s="184"/>
-      <c r="C224" s="187"/>
-      <c r="D224" s="243"/>
+      <c r="A224" s="208"/>
+      <c r="B224" s="216"/>
+      <c r="C224" s="211"/>
+      <c r="D224" s="197"/>
       <c r="E224" s="47"/>
       <c r="F224" s="19"/>
       <c r="G224" s="4"/>
@@ -8519,10 +8520,10 @@
       <c r="T224" s="4"/>
     </row>
     <row r="225" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="182"/>
-      <c r="B225" s="185"/>
-      <c r="C225" s="188"/>
-      <c r="D225" s="173"/>
+      <c r="A225" s="222"/>
+      <c r="B225" s="224"/>
+      <c r="C225" s="218"/>
+      <c r="D225" s="196"/>
       <c r="E225" s="48"/>
       <c r="F225" s="49"/>
       <c r="G225" s="4"/>
@@ -8541,17 +8542,17 @@
       <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="180" t="s">
+      <c r="A226" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="B226" s="183" t="s">
-        <v>148</v>
-      </c>
-      <c r="C226" s="186" t="s">
-        <v>154</v>
-      </c>
-      <c r="D226" s="244" t="s">
-        <v>107</v>
+      <c r="B226" s="223" t="s">
+        <v>144</v>
+      </c>
+      <c r="C226" s="217" t="s">
+        <v>150</v>
+      </c>
+      <c r="D226" s="203" t="s">
+        <v>103</v>
       </c>
       <c r="E226" s="50"/>
       <c r="F226" s="51"/>
@@ -8571,12 +8572,12 @@
       <c r="T226" s="4"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A227" s="181"/>
-      <c r="B227" s="184"/>
-      <c r="C227" s="187"/>
-      <c r="D227" s="245"/>
+      <c r="A227" s="208"/>
+      <c r="B227" s="216"/>
+      <c r="C227" s="211"/>
+      <c r="D227" s="204"/>
       <c r="E227" s="50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F227" s="19"/>
       <c r="G227" s="4"/>
@@ -8595,14 +8596,14 @@
       <c r="T227" s="4"/>
     </row>
     <row r="228" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="181"/>
-      <c r="B228" s="184"/>
-      <c r="C228" s="187"/>
+      <c r="A228" s="208"/>
+      <c r="B228" s="216"/>
+      <c r="C228" s="211"/>
       <c r="D228" s="80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E228" s="50" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F228" s="19"/>
       <c r="G228" s="4"/>
@@ -8621,12 +8622,12 @@
       <c r="T228" s="4"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A229" s="181"/>
-      <c r="B229" s="184"/>
-      <c r="C229" s="187"/>
-      <c r="D229" s="167"/>
+      <c r="A229" s="208"/>
+      <c r="B229" s="216"/>
+      <c r="C229" s="211"/>
+      <c r="D229" s="194"/>
       <c r="E229" s="50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F229" s="19"/>
       <c r="G229" s="4"/>
@@ -8645,10 +8646,10 @@
       <c r="T229" s="4"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="181"/>
-      <c r="B230" s="184"/>
-      <c r="C230" s="187"/>
-      <c r="D230" s="168"/>
+      <c r="A230" s="208"/>
+      <c r="B230" s="216"/>
+      <c r="C230" s="211"/>
+      <c r="D230" s="195"/>
       <c r="E230" s="47"/>
       <c r="F230" s="19"/>
       <c r="G230" s="4"/>
@@ -8667,10 +8668,10 @@
       <c r="T230" s="4"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="181"/>
-      <c r="B231" s="184"/>
-      <c r="C231" s="187"/>
-      <c r="D231" s="168"/>
+      <c r="A231" s="208"/>
+      <c r="B231" s="216"/>
+      <c r="C231" s="211"/>
+      <c r="D231" s="195"/>
       <c r="E231" s="47"/>
       <c r="F231" s="19"/>
       <c r="G231" s="4"/>
@@ -8689,10 +8690,10 @@
       <c r="T231" s="4"/>
     </row>
     <row r="232" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="182"/>
-      <c r="B232" s="185"/>
-      <c r="C232" s="188"/>
-      <c r="D232" s="173"/>
+      <c r="A232" s="222"/>
+      <c r="B232" s="224"/>
+      <c r="C232" s="218"/>
+      <c r="D232" s="196"/>
       <c r="E232" s="48"/>
       <c r="F232" s="49"/>
       <c r="G232" s="4"/>
@@ -8711,16 +8712,16 @@
       <c r="T232" s="4"/>
     </row>
     <row r="233" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="180" t="s">
+      <c r="A233" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="B233" s="183" t="s">
-        <v>152</v>
-      </c>
-      <c r="C233" s="200" t="s">
-        <v>153</v>
-      </c>
-      <c r="D233" s="244"/>
+      <c r="B233" s="223" t="s">
+        <v>148</v>
+      </c>
+      <c r="C233" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="D233" s="203"/>
       <c r="E233" s="50"/>
       <c r="F233" s="51"/>
       <c r="G233" s="4"/>
@@ -8739,10 +8740,10 @@
       <c r="T233" s="4"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="181"/>
-      <c r="B234" s="184"/>
-      <c r="C234" s="201"/>
-      <c r="D234" s="214"/>
+      <c r="A234" s="208"/>
+      <c r="B234" s="216"/>
+      <c r="C234" s="226"/>
+      <c r="D234" s="202"/>
       <c r="E234" s="47"/>
       <c r="F234" s="19"/>
       <c r="G234" s="4"/>
@@ -8761,14 +8762,14 @@
       <c r="T234" s="4"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="181"/>
-      <c r="B235" s="184"/>
-      <c r="C235" s="201"/>
-      <c r="D235" s="247" t="s">
-        <v>107</v>
+      <c r="A235" s="208"/>
+      <c r="B235" s="216"/>
+      <c r="C235" s="226"/>
+      <c r="D235" s="206" t="s">
+        <v>103</v>
       </c>
       <c r="E235" s="64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F235" s="19"/>
       <c r="G235" s="4"/>
@@ -8787,12 +8788,12 @@
       <c r="T235" s="4"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="181"/>
-      <c r="B236" s="184"/>
-      <c r="C236" s="201"/>
-      <c r="D236" s="229"/>
+      <c r="A236" s="208"/>
+      <c r="B236" s="216"/>
+      <c r="C236" s="226"/>
+      <c r="D236" s="207"/>
       <c r="E236" s="64" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F236" s="19"/>
       <c r="G236" s="4"/>
@@ -8811,14 +8812,14 @@
       <c r="T236" s="4"/>
     </row>
     <row r="237" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="181"/>
-      <c r="B237" s="184"/>
-      <c r="C237" s="201"/>
+      <c r="A237" s="208"/>
+      <c r="B237" s="216"/>
+      <c r="C237" s="226"/>
       <c r="D237" s="125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E237" s="50" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F237" s="19"/>
       <c r="G237" s="4"/>
@@ -8837,9 +8838,9 @@
       <c r="T237" s="4"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="181"/>
-      <c r="B238" s="184"/>
-      <c r="C238" s="201"/>
+      <c r="A238" s="208"/>
+      <c r="B238" s="216"/>
+      <c r="C238" s="226"/>
       <c r="D238" s="124"/>
       <c r="E238" s="123"/>
       <c r="F238" s="19"/>
@@ -8859,10 +8860,10 @@
       <c r="T238" s="4"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="181"/>
-      <c r="B239" s="184"/>
-      <c r="C239" s="201"/>
-      <c r="D239" s="213"/>
+      <c r="A239" s="208"/>
+      <c r="B239" s="216"/>
+      <c r="C239" s="226"/>
+      <c r="D239" s="201"/>
       <c r="E239" s="47"/>
       <c r="F239" s="19"/>
       <c r="G239" s="4"/>
@@ -8881,10 +8882,10 @@
       <c r="T239" s="4"/>
     </row>
     <row r="240" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="182"/>
-      <c r="B240" s="185"/>
-      <c r="C240" s="202"/>
-      <c r="D240" s="214"/>
+      <c r="A240" s="222"/>
+      <c r="B240" s="224"/>
+      <c r="C240" s="227"/>
+      <c r="D240" s="202"/>
       <c r="E240" s="48"/>
       <c r="F240" s="49"/>
       <c r="G240" s="4"/>
@@ -8903,17 +8904,17 @@
       <c r="T240" s="4"/>
     </row>
     <row r="241" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="180" t="s">
+      <c r="A241" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="B241" s="183" t="s">
-        <v>158</v>
-      </c>
-      <c r="C241" s="200" t="s">
-        <v>159</v>
-      </c>
-      <c r="D241" s="215" t="s">
-        <v>107</v>
+      <c r="B241" s="223" t="s">
+        <v>154</v>
+      </c>
+      <c r="C241" s="225" t="s">
+        <v>155</v>
+      </c>
+      <c r="D241" s="199" t="s">
+        <v>103</v>
       </c>
       <c r="E241" s="50"/>
       <c r="F241" s="51"/>
@@ -8933,12 +8934,12 @@
       <c r="T241" s="4"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="181"/>
-      <c r="B242" s="184"/>
-      <c r="C242" s="201"/>
-      <c r="D242" s="216"/>
+      <c r="A242" s="208"/>
+      <c r="B242" s="216"/>
+      <c r="C242" s="226"/>
+      <c r="D242" s="200"/>
       <c r="E242" s="64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F242" s="19"/>
       <c r="G242" s="4"/>
@@ -8957,14 +8958,14 @@
       <c r="T242" s="4"/>
     </row>
     <row r="243" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="181"/>
-      <c r="B243" s="184"/>
-      <c r="C243" s="201"/>
+      <c r="A243" s="208"/>
+      <c r="B243" s="216"/>
+      <c r="C243" s="226"/>
       <c r="D243" s="125" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E243" s="64" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="4"/>
@@ -8983,12 +8984,12 @@
       <c r="T243" s="4"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="181"/>
-      <c r="B244" s="184"/>
-      <c r="C244" s="201"/>
+      <c r="A244" s="208"/>
+      <c r="B244" s="216"/>
+      <c r="C244" s="226"/>
       <c r="D244" s="124"/>
       <c r="E244" s="50" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F244" s="19"/>
       <c r="G244" s="4"/>
@@ -9007,9 +9008,9 @@
       <c r="T244" s="4"/>
     </row>
     <row r="245" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="182"/>
-      <c r="B245" s="185"/>
-      <c r="C245" s="202"/>
+      <c r="A245" s="222"/>
+      <c r="B245" s="224"/>
+      <c r="C245" s="227"/>
       <c r="D245" s="126"/>
       <c r="E245" s="48"/>
       <c r="F245" s="49"/>
@@ -9029,17 +9030,17 @@
       <c r="T245" s="4"/>
     </row>
     <row r="246" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="180" t="s">
+      <c r="A246" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="B246" s="183" t="s">
-        <v>162</v>
-      </c>
-      <c r="C246" s="200" t="s">
-        <v>163</v>
-      </c>
-      <c r="D246" s="215" t="s">
-        <v>107</v>
+      <c r="B246" s="223" t="s">
+        <v>158</v>
+      </c>
+      <c r="C246" s="225" t="s">
+        <v>159</v>
+      </c>
+      <c r="D246" s="199" t="s">
+        <v>103</v>
       </c>
       <c r="E246" s="50"/>
       <c r="F246" s="51"/>
@@ -9059,12 +9060,12 @@
       <c r="T246" s="4"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" s="181"/>
-      <c r="B247" s="184"/>
-      <c r="C247" s="201"/>
-      <c r="D247" s="216"/>
+      <c r="A247" s="208"/>
+      <c r="B247" s="216"/>
+      <c r="C247" s="226"/>
+      <c r="D247" s="200"/>
       <c r="E247" s="64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F247" s="19"/>
       <c r="G247" s="4"/>
@@ -9083,14 +9084,14 @@
       <c r="T247" s="4"/>
     </row>
     <row r="248" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="181"/>
-      <c r="B248" s="184"/>
-      <c r="C248" s="201"/>
+      <c r="A248" s="208"/>
+      <c r="B248" s="216"/>
+      <c r="C248" s="226"/>
       <c r="D248" s="125" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E248" s="64" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F248" s="19"/>
       <c r="G248" s="4"/>
@@ -9109,12 +9110,12 @@
       <c r="T248" s="4"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="181"/>
-      <c r="B249" s="184"/>
-      <c r="C249" s="201"/>
+      <c r="A249" s="208"/>
+      <c r="B249" s="216"/>
+      <c r="C249" s="226"/>
       <c r="D249" s="124"/>
       <c r="E249" s="50" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F249" s="19"/>
       <c r="G249" s="4"/>
@@ -9133,10 +9134,10 @@
       <c r="T249" s="4"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="181"/>
-      <c r="B250" s="184"/>
-      <c r="C250" s="201"/>
-      <c r="D250" s="213"/>
+      <c r="A250" s="208"/>
+      <c r="B250" s="216"/>
+      <c r="C250" s="226"/>
+      <c r="D250" s="201"/>
       <c r="E250" s="47"/>
       <c r="F250" s="19"/>
       <c r="G250" s="4"/>
@@ -9155,10 +9156,10 @@
       <c r="T250" s="4"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" s="181"/>
-      <c r="B251" s="184"/>
-      <c r="C251" s="201"/>
-      <c r="D251" s="214"/>
+      <c r="A251" s="208"/>
+      <c r="B251" s="216"/>
+      <c r="C251" s="226"/>
+      <c r="D251" s="202"/>
       <c r="E251" s="47"/>
       <c r="F251" s="19"/>
       <c r="G251" s="4"/>
@@ -9177,9 +9178,9 @@
       <c r="T251" s="4"/>
     </row>
     <row r="252" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="182"/>
-      <c r="B252" s="185"/>
-      <c r="C252" s="202"/>
+      <c r="A252" s="222"/>
+      <c r="B252" s="224"/>
+      <c r="C252" s="227"/>
       <c r="D252" s="107"/>
       <c r="E252" s="48"/>
       <c r="F252" s="49"/>
@@ -9199,17 +9200,17 @@
       <c r="T252" s="4"/>
     </row>
     <row r="253" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="180" t="s">
+      <c r="A253" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="B253" s="183" t="s">
-        <v>167</v>
-      </c>
-      <c r="C253" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="D253" s="244" t="s">
-        <v>107</v>
+      <c r="B253" s="223" t="s">
+        <v>163</v>
+      </c>
+      <c r="C253" s="225" t="s">
+        <v>164</v>
+      </c>
+      <c r="D253" s="203" t="s">
+        <v>103</v>
       </c>
       <c r="E253" s="50"/>
       <c r="F253" s="51"/>
@@ -9229,12 +9230,12 @@
       <c r="T253" s="4"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" s="181"/>
-      <c r="B254" s="184"/>
-      <c r="C254" s="201"/>
-      <c r="D254" s="214"/>
+      <c r="A254" s="208"/>
+      <c r="B254" s="216"/>
+      <c r="C254" s="226"/>
+      <c r="D254" s="202"/>
       <c r="E254" s="47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F254" s="19"/>
       <c r="G254" s="4"/>
@@ -9253,14 +9254,14 @@
       <c r="T254" s="4"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="181"/>
-      <c r="B255" s="184"/>
-      <c r="C255" s="201"/>
+      <c r="A255" s="208"/>
+      <c r="B255" s="216"/>
+      <c r="C255" s="226"/>
       <c r="D255" s="125" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E255" s="47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F255" s="19"/>
       <c r="G255" s="4"/>
@@ -9279,12 +9280,12 @@
       <c r="T255" s="4"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="181"/>
-      <c r="B256" s="184"/>
-      <c r="C256" s="201"/>
+      <c r="A256" s="208"/>
+      <c r="B256" s="216"/>
+      <c r="C256" s="226"/>
       <c r="D256" s="124"/>
       <c r="E256" s="47" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F256" s="19"/>
       <c r="G256" s="4"/>
@@ -9303,10 +9304,10 @@
       <c r="T256" s="4"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" s="181"/>
-      <c r="B257" s="184"/>
-      <c r="C257" s="201"/>
-      <c r="D257" s="213"/>
+      <c r="A257" s="208"/>
+      <c r="B257" s="216"/>
+      <c r="C257" s="226"/>
+      <c r="D257" s="201"/>
       <c r="E257" s="47"/>
       <c r="F257" s="19"/>
       <c r="G257" s="4"/>
@@ -9325,10 +9326,10 @@
       <c r="T257" s="4"/>
     </row>
     <row r="258" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="182"/>
-      <c r="B258" s="185"/>
-      <c r="C258" s="202"/>
-      <c r="D258" s="214"/>
+      <c r="A258" s="222"/>
+      <c r="B258" s="224"/>
+      <c r="C258" s="227"/>
+      <c r="D258" s="202"/>
       <c r="E258" s="48"/>
       <c r="F258" s="49"/>
       <c r="G258" s="4"/>
@@ -9347,16 +9348,16 @@
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="180" t="s">
+      <c r="A259" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="183" t="s">
-        <v>173</v>
-      </c>
-      <c r="C259" s="200" t="s">
-        <v>174</v>
-      </c>
-      <c r="D259" s="213"/>
+      <c r="B259" s="223" t="s">
+        <v>169</v>
+      </c>
+      <c r="C259" s="225" t="s">
+        <v>170</v>
+      </c>
+      <c r="D259" s="201"/>
       <c r="E259" s="127"/>
       <c r="F259" s="51"/>
       <c r="G259" s="4"/>
@@ -9375,12 +9376,12 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" s="181"/>
-      <c r="B260" s="184"/>
-      <c r="C260" s="201"/>
-      <c r="D260" s="214"/>
+      <c r="A260" s="208"/>
+      <c r="B260" s="216"/>
+      <c r="C260" s="226"/>
+      <c r="D260" s="202"/>
       <c r="E260" s="128" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F260" s="19"/>
       <c r="G260" s="4"/>
@@ -9399,14 +9400,14 @@
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="181"/>
-      <c r="B261" s="184"/>
-      <c r="C261" s="201"/>
-      <c r="D261" s="213" t="s">
-        <v>107</v>
+      <c r="A261" s="208"/>
+      <c r="B261" s="216"/>
+      <c r="C261" s="226"/>
+      <c r="D261" s="201" t="s">
+        <v>103</v>
       </c>
       <c r="E261" s="128" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F261" s="19"/>
       <c r="G261" s="4"/>
@@ -9425,12 +9426,12 @@
       <c r="T261" s="4"/>
     </row>
     <row r="262" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="181"/>
-      <c r="B262" s="184"/>
-      <c r="C262" s="201"/>
-      <c r="D262" s="214"/>
+      <c r="A262" s="208"/>
+      <c r="B262" s="216"/>
+      <c r="C262" s="226"/>
+      <c r="D262" s="202"/>
       <c r="E262" s="128" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F262" s="19"/>
       <c r="G262" s="4"/>
@@ -9449,12 +9450,12 @@
       <c r="T262" s="4"/>
     </row>
     <row r="263" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="181"/>
-      <c r="B263" s="184"/>
-      <c r="C263" s="201"/>
+      <c r="A263" s="208"/>
+      <c r="B263" s="216"/>
+      <c r="C263" s="226"/>
       <c r="D263" s="126"/>
       <c r="E263" s="128" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F263" s="19"/>
       <c r="G263" s="4"/>
@@ -9473,12 +9474,12 @@
       <c r="T263" s="4"/>
     </row>
     <row r="264" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="181"/>
-      <c r="B264" s="184"/>
-      <c r="C264" s="201"/>
+      <c r="A264" s="208"/>
+      <c r="B264" s="216"/>
+      <c r="C264" s="226"/>
       <c r="D264" s="126"/>
       <c r="E264" s="128" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F264" s="19"/>
       <c r="G264" s="4"/>
@@ -9497,12 +9498,12 @@
       <c r="T264" s="4"/>
     </row>
     <row r="265" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="181"/>
-      <c r="B265" s="184"/>
-      <c r="C265" s="201"/>
+      <c r="A265" s="208"/>
+      <c r="B265" s="216"/>
+      <c r="C265" s="226"/>
       <c r="D265" s="126"/>
       <c r="E265" s="128" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F265" s="19"/>
       <c r="G265" s="4"/>
@@ -9521,12 +9522,12 @@
       <c r="T265" s="4"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" s="181"/>
-      <c r="B266" s="184"/>
-      <c r="C266" s="201"/>
-      <c r="D266" s="215"/>
+      <c r="A266" s="208"/>
+      <c r="B266" s="216"/>
+      <c r="C266" s="226"/>
+      <c r="D266" s="199"/>
       <c r="E266" s="130" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F266" s="19"/>
       <c r="G266" s="4"/>
@@ -9545,12 +9546,12 @@
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="182"/>
-      <c r="B267" s="185"/>
-      <c r="C267" s="202"/>
-      <c r="D267" s="216"/>
+      <c r="A267" s="222"/>
+      <c r="B267" s="224"/>
+      <c r="C267" s="227"/>
+      <c r="D267" s="200"/>
       <c r="E267" s="131" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F267" s="49"/>
       <c r="G267" s="4"/>
@@ -9569,17 +9570,17 @@
       <c r="T267" s="4"/>
     </row>
     <row r="268" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="180" t="s">
+      <c r="A268" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="B268" s="183" t="s">
-        <v>309</v>
-      </c>
-      <c r="C268" s="186" t="s">
-        <v>306</v>
-      </c>
-      <c r="D268" s="197" t="s">
-        <v>107</v>
+      <c r="B268" s="223" t="s">
+        <v>304</v>
+      </c>
+      <c r="C268" s="217" t="s">
+        <v>301</v>
+      </c>
+      <c r="D268" s="246" t="s">
+        <v>103</v>
       </c>
       <c r="E268" s="127"/>
       <c r="F268" s="51"/>
@@ -9599,12 +9600,12 @@
       <c r="T268" s="4"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" s="181"/>
-      <c r="B269" s="184"/>
-      <c r="C269" s="187"/>
-      <c r="D269" s="178"/>
+      <c r="A269" s="208"/>
+      <c r="B269" s="216"/>
+      <c r="C269" s="211"/>
+      <c r="D269" s="233"/>
       <c r="E269" s="128" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F269" s="19"/>
       <c r="G269" s="4"/>
@@ -9623,12 +9624,12 @@
       <c r="T269" s="4"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" s="181"/>
-      <c r="B270" s="184"/>
-      <c r="C270" s="187"/>
-      <c r="D270" s="178"/>
+      <c r="A270" s="208"/>
+      <c r="B270" s="216"/>
+      <c r="C270" s="211"/>
+      <c r="D270" s="233"/>
       <c r="E270" s="50" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F270" s="19"/>
       <c r="G270" s="4"/>
@@ -9647,12 +9648,12 @@
       <c r="T270" s="4"/>
     </row>
     <row r="271" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A271" s="181"/>
-      <c r="B271" s="184"/>
-      <c r="C271" s="187"/>
-      <c r="D271" s="178"/>
+      <c r="A271" s="208"/>
+      <c r="B271" s="216"/>
+      <c r="C271" s="211"/>
+      <c r="D271" s="233"/>
       <c r="E271" s="166" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F271" s="19"/>
       <c r="G271" s="4"/>
@@ -9671,10 +9672,10 @@
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="182"/>
-      <c r="B272" s="185"/>
-      <c r="C272" s="188"/>
-      <c r="D272" s="179"/>
+      <c r="A272" s="222"/>
+      <c r="B272" s="224"/>
+      <c r="C272" s="218"/>
+      <c r="D272" s="234"/>
       <c r="E272" s="134"/>
       <c r="F272" s="49"/>
       <c r="G272" s="4"/>
@@ -9693,17 +9694,17 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="180" t="s">
+      <c r="A273" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="B273" s="183" t="s">
-        <v>180</v>
-      </c>
-      <c r="C273" s="186" t="s">
-        <v>181</v>
-      </c>
-      <c r="D273" s="227" t="s">
-        <v>107</v>
+      <c r="B273" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="C273" s="217" t="s">
+        <v>177</v>
+      </c>
+      <c r="D273" s="219" t="s">
+        <v>103</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="50"/>
@@ -9723,12 +9724,12 @@
       <c r="T273" s="4"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="181"/>
-      <c r="B274" s="184"/>
-      <c r="C274" s="187"/>
-      <c r="D274" s="198"/>
+      <c r="A274" s="208"/>
+      <c r="B274" s="216"/>
+      <c r="C274" s="211"/>
+      <c r="D274" s="213"/>
       <c r="E274" s="133" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F274" s="123"/>
       <c r="G274" s="4"/>
@@ -9747,12 +9748,12 @@
       <c r="T274" s="4"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A275" s="181"/>
-      <c r="B275" s="184"/>
-      <c r="C275" s="187"/>
-      <c r="D275" s="198"/>
+      <c r="A275" s="208"/>
+      <c r="B275" s="216"/>
+      <c r="C275" s="211"/>
+      <c r="D275" s="213"/>
       <c r="E275" s="34" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F275" s="47"/>
       <c r="G275" s="4"/>
@@ -9771,12 +9772,12 @@
       <c r="T275" s="4"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" s="181"/>
-      <c r="B276" s="184"/>
-      <c r="C276" s="187"/>
-      <c r="D276" s="198"/>
+      <c r="A276" s="208"/>
+      <c r="B276" s="216"/>
+      <c r="C276" s="211"/>
+      <c r="D276" s="213"/>
       <c r="E276" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F276" s="47"/>
       <c r="G276" s="4"/>
@@ -9795,12 +9796,12 @@
       <c r="T276" s="4"/>
     </row>
     <row r="277" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="181"/>
-      <c r="B277" s="184"/>
-      <c r="C277" s="187"/>
-      <c r="D277" s="198"/>
+      <c r="A277" s="208"/>
+      <c r="B277" s="216"/>
+      <c r="C277" s="211"/>
+      <c r="D277" s="213"/>
       <c r="E277" s="13" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F277" s="47"/>
       <c r="G277" s="4"/>
@@ -9819,10 +9820,10 @@
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" s="181"/>
-      <c r="B278" s="184"/>
-      <c r="C278" s="187"/>
-      <c r="D278" s="198"/>
+      <c r="A278" s="208"/>
+      <c r="B278" s="216"/>
+      <c r="C278" s="211"/>
+      <c r="D278" s="213"/>
       <c r="E278" s="13"/>
       <c r="F278" s="47"/>
       <c r="G278" s="4"/>
@@ -9841,10 +9842,10 @@
       <c r="T278" s="4"/>
     </row>
     <row r="279" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="182"/>
-      <c r="B279" s="185"/>
-      <c r="C279" s="188"/>
-      <c r="D279" s="199"/>
+      <c r="A279" s="222"/>
+      <c r="B279" s="224"/>
+      <c r="C279" s="218"/>
+      <c r="D279" s="220"/>
       <c r="E279" s="135"/>
       <c r="F279" s="48"/>
       <c r="G279" s="4"/>
@@ -9863,17 +9864,17 @@
       <c r="T279" s="4"/>
     </row>
     <row r="280" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="180" t="s">
+      <c r="A280" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="B280" s="183" t="s">
-        <v>186</v>
-      </c>
-      <c r="C280" s="186" t="s">
-        <v>187</v>
-      </c>
-      <c r="D280" s="227" t="s">
-        <v>107</v>
+      <c r="B280" s="223" t="s">
+        <v>182</v>
+      </c>
+      <c r="C280" s="217" t="s">
+        <v>183</v>
+      </c>
+      <c r="D280" s="219" t="s">
+        <v>103</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="50"/>
@@ -9893,12 +9894,12 @@
       <c r="T280" s="4"/>
     </row>
     <row r="281" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="181"/>
-      <c r="B281" s="184"/>
-      <c r="C281" s="187"/>
-      <c r="D281" s="198"/>
+      <c r="A281" s="208"/>
+      <c r="B281" s="216"/>
+      <c r="C281" s="211"/>
+      <c r="D281" s="213"/>
       <c r="E281" s="136" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F281" s="64"/>
       <c r="G281" s="4"/>
@@ -9917,12 +9918,12 @@
       <c r="T281" s="4"/>
     </row>
     <row r="282" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="181"/>
-      <c r="B282" s="184"/>
-      <c r="C282" s="187"/>
-      <c r="D282" s="198"/>
+      <c r="A282" s="208"/>
+      <c r="B282" s="216"/>
+      <c r="C282" s="211"/>
+      <c r="D282" s="213"/>
       <c r="E282" s="136" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F282" s="64"/>
       <c r="G282" s="4"/>
@@ -9941,12 +9942,12 @@
       <c r="T282" s="4"/>
     </row>
     <row r="283" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="181"/>
-      <c r="B283" s="184"/>
-      <c r="C283" s="187"/>
-      <c r="D283" s="198"/>
+      <c r="A283" s="208"/>
+      <c r="B283" s="216"/>
+      <c r="C283" s="211"/>
+      <c r="D283" s="213"/>
       <c r="E283" s="136" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F283" s="64"/>
       <c r="G283" s="4"/>
@@ -9965,12 +9966,12 @@
       <c r="T283" s="4"/>
     </row>
     <row r="284" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="181"/>
-      <c r="B284" s="184"/>
-      <c r="C284" s="187"/>
-      <c r="D284" s="198"/>
+      <c r="A284" s="208"/>
+      <c r="B284" s="216"/>
+      <c r="C284" s="211"/>
+      <c r="D284" s="213"/>
       <c r="E284" s="133" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F284" s="64"/>
       <c r="G284" s="4"/>
@@ -9989,12 +9990,12 @@
       <c r="T284" s="4"/>
     </row>
     <row r="285" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="181"/>
-      <c r="B285" s="184"/>
-      <c r="C285" s="187"/>
-      <c r="D285" s="198"/>
+      <c r="A285" s="208"/>
+      <c r="B285" s="216"/>
+      <c r="C285" s="211"/>
+      <c r="D285" s="213"/>
       <c r="E285" s="133" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F285" s="64"/>
       <c r="G285" s="4"/>
@@ -10013,10 +10014,10 @@
       <c r="T285" s="4"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="181"/>
-      <c r="B286" s="184"/>
-      <c r="C286" s="187"/>
-      <c r="D286" s="198"/>
+      <c r="A286" s="208"/>
+      <c r="B286" s="216"/>
+      <c r="C286" s="211"/>
+      <c r="D286" s="213"/>
       <c r="E286" s="133"/>
       <c r="F286" s="123"/>
       <c r="G286" s="4"/>
@@ -10035,10 +10036,10 @@
       <c r="T286" s="4"/>
     </row>
     <row r="287" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="182"/>
-      <c r="B287" s="185"/>
-      <c r="C287" s="188"/>
-      <c r="D287" s="199"/>
+      <c r="A287" s="222"/>
+      <c r="B287" s="224"/>
+      <c r="C287" s="218"/>
+      <c r="D287" s="220"/>
       <c r="E287" s="136"/>
       <c r="F287" s="48"/>
       <c r="G287" s="4"/>
@@ -10057,17 +10058,17 @@
       <c r="T287" s="4"/>
     </row>
     <row r="288" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="180" t="s">
+      <c r="A288" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="B288" s="183" t="s">
-        <v>193</v>
-      </c>
-      <c r="C288" s="186" t="s">
-        <v>194</v>
-      </c>
-      <c r="D288" s="227" t="s">
-        <v>107</v>
+      <c r="B288" s="223" t="s">
+        <v>189</v>
+      </c>
+      <c r="C288" s="217" t="s">
+        <v>190</v>
+      </c>
+      <c r="D288" s="219" t="s">
+        <v>103</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="50"/>
@@ -10087,12 +10088,12 @@
       <c r="T288" s="4"/>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A289" s="181"/>
-      <c r="B289" s="184"/>
-      <c r="C289" s="187"/>
-      <c r="D289" s="198"/>
+      <c r="A289" s="208"/>
+      <c r="B289" s="216"/>
+      <c r="C289" s="211"/>
+      <c r="D289" s="213"/>
       <c r="E289" s="133" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F289" s="123"/>
       <c r="G289" s="4"/>
@@ -10111,12 +10112,12 @@
       <c r="T289" s="4"/>
     </row>
     <row r="290" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="181"/>
-      <c r="B290" s="184"/>
-      <c r="C290" s="187"/>
-      <c r="D290" s="198"/>
+      <c r="A290" s="208"/>
+      <c r="B290" s="216"/>
+      <c r="C290" s="211"/>
+      <c r="D290" s="213"/>
       <c r="E290" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F290" s="123"/>
       <c r="G290" s="4"/>
@@ -10135,12 +10136,12 @@
       <c r="T290" s="4"/>
     </row>
     <row r="291" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="181"/>
-      <c r="B291" s="184"/>
-      <c r="C291" s="187"/>
-      <c r="D291" s="198"/>
+      <c r="A291" s="208"/>
+      <c r="B291" s="216"/>
+      <c r="C291" s="211"/>
+      <c r="D291" s="213"/>
       <c r="E291" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F291" s="123"/>
       <c r="G291" s="4"/>
@@ -10159,12 +10160,12 @@
       <c r="T291" s="4"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="181"/>
-      <c r="B292" s="184"/>
-      <c r="C292" s="187"/>
-      <c r="D292" s="198"/>
+      <c r="A292" s="208"/>
+      <c r="B292" s="216"/>
+      <c r="C292" s="211"/>
+      <c r="D292" s="213"/>
       <c r="E292" s="34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F292" s="47"/>
       <c r="G292" s="4"/>
@@ -10183,12 +10184,12 @@
       <c r="T292" s="4"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A293" s="181"/>
-      <c r="B293" s="184"/>
-      <c r="C293" s="187"/>
-      <c r="D293" s="198"/>
+      <c r="A293" s="208"/>
+      <c r="B293" s="216"/>
+      <c r="C293" s="211"/>
+      <c r="D293" s="213"/>
       <c r="E293" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F293" s="47"/>
       <c r="G293" s="4"/>
@@ -10207,12 +10208,12 @@
       <c r="T293" s="4"/>
     </row>
     <row r="294" spans="1:20" s="98" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A294" s="181"/>
-      <c r="B294" s="184"/>
-      <c r="C294" s="187"/>
-      <c r="D294" s="198"/>
+      <c r="A294" s="208"/>
+      <c r="B294" s="216"/>
+      <c r="C294" s="211"/>
+      <c r="D294" s="213"/>
       <c r="E294" s="113" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F294" s="47"/>
       <c r="G294" s="4"/>
@@ -10231,12 +10232,12 @@
       <c r="T294" s="4"/>
     </row>
     <row r="295" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="181"/>
-      <c r="B295" s="184"/>
-      <c r="C295" s="187"/>
-      <c r="D295" s="198"/>
+      <c r="A295" s="208"/>
+      <c r="B295" s="216"/>
+      <c r="C295" s="211"/>
+      <c r="D295" s="213"/>
       <c r="E295" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F295" s="47"/>
       <c r="G295" s="4"/>
@@ -10255,12 +10256,12 @@
       <c r="T295" s="4"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A296" s="181"/>
-      <c r="B296" s="184"/>
-      <c r="C296" s="187"/>
-      <c r="D296" s="198"/>
+      <c r="A296" s="208"/>
+      <c r="B296" s="216"/>
+      <c r="C296" s="211"/>
+      <c r="D296" s="213"/>
       <c r="E296" s="132" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F296" s="47"/>
       <c r="G296" s="4"/>
@@ -10279,12 +10280,12 @@
       <c r="T296" s="4"/>
     </row>
     <row r="297" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="181"/>
-      <c r="B297" s="184"/>
-      <c r="C297" s="187"/>
-      <c r="D297" s="198"/>
+      <c r="A297" s="208"/>
+      <c r="B297" s="216"/>
+      <c r="C297" s="211"/>
+      <c r="D297" s="213"/>
       <c r="E297" s="133" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F297" s="137"/>
       <c r="G297" s="4"/>
@@ -10303,12 +10304,12 @@
       <c r="T297" s="4"/>
     </row>
     <row r="298" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="182"/>
-      <c r="B298" s="185"/>
-      <c r="C298" s="188"/>
-      <c r="D298" s="199"/>
+      <c r="A298" s="222"/>
+      <c r="B298" s="224"/>
+      <c r="C298" s="218"/>
+      <c r="D298" s="220"/>
       <c r="E298" s="138" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F298" s="48"/>
       <c r="G298" s="4"/>
@@ -10327,17 +10328,17 @@
       <c r="T298" s="4"/>
     </row>
     <row r="299" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="226" t="s">
+      <c r="A299" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="B299" s="220" t="s">
-        <v>204</v>
-      </c>
-      <c r="C299" s="223" t="s">
-        <v>205</v>
-      </c>
-      <c r="D299" s="224" t="s">
-        <v>107</v>
+      <c r="B299" s="182" t="s">
+        <v>200</v>
+      </c>
+      <c r="C299" s="186" t="s">
+        <v>201</v>
+      </c>
+      <c r="D299" s="187" t="s">
+        <v>103</v>
       </c>
       <c r="E299" s="34"/>
       <c r="F299" s="50"/>
@@ -10357,12 +10358,12 @@
       <c r="T299" s="4"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A300" s="218"/>
-      <c r="B300" s="221"/>
-      <c r="C300" s="221"/>
-      <c r="D300" s="225"/>
+      <c r="A300" s="174"/>
+      <c r="B300" s="183"/>
+      <c r="C300" s="183"/>
+      <c r="D300" s="188"/>
       <c r="E300" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F300" s="123"/>
       <c r="G300" s="4"/>
@@ -10381,12 +10382,12 @@
       <c r="T300" s="4"/>
     </row>
     <row r="301" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="228"/>
-      <c r="B301" s="239"/>
-      <c r="C301" s="239"/>
-      <c r="D301" s="225"/>
+      <c r="A301" s="180"/>
+      <c r="B301" s="184"/>
+      <c r="C301" s="184"/>
+      <c r="D301" s="188"/>
       <c r="E301" s="34" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F301" s="123"/>
       <c r="G301" s="4"/>
@@ -10405,12 +10406,12 @@
       <c r="T301" s="4"/>
     </row>
     <row r="302" spans="1:20" s="98" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A302" s="228"/>
-      <c r="B302" s="239"/>
-      <c r="C302" s="239"/>
-      <c r="D302" s="225"/>
+      <c r="A302" s="180"/>
+      <c r="B302" s="184"/>
+      <c r="C302" s="184"/>
+      <c r="D302" s="188"/>
       <c r="E302" s="34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F302" s="123"/>
       <c r="G302" s="4"/>
@@ -10429,10 +10430,10 @@
       <c r="T302" s="4"/>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A303" s="218"/>
-      <c r="B303" s="221"/>
-      <c r="C303" s="221"/>
-      <c r="D303" s="221"/>
+      <c r="A303" s="174"/>
+      <c r="B303" s="183"/>
+      <c r="C303" s="183"/>
+      <c r="D303" s="183"/>
       <c r="E303" s="34"/>
       <c r="F303" s="47"/>
       <c r="G303" s="4"/>
@@ -10451,10 +10452,10 @@
       <c r="T303" s="4"/>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A304" s="218"/>
-      <c r="B304" s="221"/>
-      <c r="C304" s="221"/>
-      <c r="D304" s="221"/>
+      <c r="A304" s="174"/>
+      <c r="B304" s="183"/>
+      <c r="C304" s="183"/>
+      <c r="D304" s="183"/>
       <c r="E304" s="132"/>
       <c r="F304" s="47"/>
       <c r="G304" s="4"/>
@@ -10473,10 +10474,10 @@
       <c r="T304" s="4"/>
     </row>
     <row r="305" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="219"/>
-      <c r="B305" s="222"/>
-      <c r="C305" s="222"/>
-      <c r="D305" s="240"/>
+      <c r="A305" s="175"/>
+      <c r="B305" s="185"/>
+      <c r="C305" s="185"/>
+      <c r="D305" s="189"/>
       <c r="E305" s="140"/>
       <c r="F305" s="139"/>
       <c r="G305" s="4"/>
@@ -10495,17 +10496,17 @@
       <c r="T305" s="4"/>
     </row>
     <row r="306" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="226" t="s">
+      <c r="A306" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="B306" s="220" t="s">
-        <v>209</v>
-      </c>
-      <c r="C306" s="223" t="s">
-        <v>211</v>
-      </c>
-      <c r="D306" s="230" t="s">
-        <v>107</v>
+      <c r="B306" s="182" t="s">
+        <v>205</v>
+      </c>
+      <c r="C306" s="186" t="s">
+        <v>207</v>
+      </c>
+      <c r="D306" s="191" t="s">
+        <v>103</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="50"/>
@@ -10525,12 +10526,12 @@
       <c r="T306" s="4"/>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A307" s="218"/>
-      <c r="B307" s="221"/>
-      <c r="C307" s="221"/>
-      <c r="D307" s="230"/>
+      <c r="A307" s="174"/>
+      <c r="B307" s="183"/>
+      <c r="C307" s="183"/>
+      <c r="D307" s="191"/>
       <c r="E307" s="133" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F307" s="123"/>
       <c r="G307" s="4"/>
@@ -10549,12 +10550,12 @@
       <c r="T307" s="4"/>
     </row>
     <row r="308" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="228"/>
-      <c r="B308" s="239"/>
-      <c r="C308" s="239"/>
+      <c r="A308" s="180"/>
+      <c r="B308" s="184"/>
+      <c r="C308" s="184"/>
       <c r="D308" s="163"/>
       <c r="E308" s="34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F308" s="123"/>
       <c r="G308" s="4"/>
@@ -10573,12 +10574,12 @@
       <c r="T308" s="4"/>
     </row>
     <row r="309" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="228"/>
-      <c r="B309" s="239"/>
-      <c r="C309" s="239"/>
+      <c r="A309" s="180"/>
+      <c r="B309" s="184"/>
+      <c r="C309" s="184"/>
       <c r="D309" s="163"/>
       <c r="E309" s="13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F309" s="123"/>
       <c r="G309" s="4"/>
@@ -10597,14 +10598,14 @@
       <c r="T309" s="4"/>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A310" s="218"/>
-      <c r="B310" s="221"/>
-      <c r="C310" s="221"/>
+      <c r="A310" s="174"/>
+      <c r="B310" s="183"/>
+      <c r="C310" s="183"/>
       <c r="D310" s="126" t="s">
-        <v>213</v>
-      </c>
-      <c r="E310" s="248" t="s">
-        <v>317</v>
+        <v>209</v>
+      </c>
+      <c r="E310" s="167" t="s">
+        <v>311</v>
       </c>
       <c r="F310" s="47"/>
       <c r="G310" s="4"/>
@@ -10623,12 +10624,12 @@
       <c r="T310" s="4"/>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A311" s="218"/>
-      <c r="B311" s="221"/>
-      <c r="C311" s="221"/>
+      <c r="A311" s="174"/>
+      <c r="B311" s="183"/>
+      <c r="C311" s="183"/>
       <c r="D311" s="126"/>
       <c r="E311" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F311" s="47"/>
       <c r="G311" s="4"/>
@@ -10647,12 +10648,12 @@
       <c r="T311" s="4"/>
     </row>
     <row r="312" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="228"/>
-      <c r="B312" s="239"/>
-      <c r="C312" s="239"/>
+      <c r="A312" s="180"/>
+      <c r="B312" s="184"/>
+      <c r="C312" s="184"/>
       <c r="D312" s="163"/>
       <c r="E312" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F312" s="47"/>
       <c r="G312" s="4"/>
@@ -10671,12 +10672,12 @@
       <c r="T312" s="4"/>
     </row>
     <row r="313" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="218"/>
-      <c r="B313" s="221"/>
-      <c r="C313" s="221"/>
-      <c r="D313" s="230"/>
+      <c r="A313" s="174"/>
+      <c r="B313" s="183"/>
+      <c r="C313" s="183"/>
+      <c r="D313" s="191"/>
       <c r="E313" s="135" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F313" s="47"/>
       <c r="G313" s="4"/>
@@ -10695,10 +10696,10 @@
       <c r="T313" s="4"/>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A314" s="218"/>
-      <c r="B314" s="221"/>
-      <c r="C314" s="221"/>
-      <c r="D314" s="230"/>
+      <c r="A314" s="174"/>
+      <c r="B314" s="183"/>
+      <c r="C314" s="183"/>
+      <c r="D314" s="191"/>
       <c r="F314" s="47"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10716,9 +10717,9 @@
       <c r="T314" s="4"/>
     </row>
     <row r="315" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="219"/>
-      <c r="B315" s="222"/>
-      <c r="C315" s="222"/>
+      <c r="A315" s="175"/>
+      <c r="B315" s="185"/>
+      <c r="C315" s="185"/>
       <c r="D315" s="108"/>
       <c r="E315" s="135"/>
       <c r="F315" s="48"/>
@@ -10738,17 +10739,17 @@
       <c r="T315" s="4"/>
     </row>
     <row r="316" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="217" t="s">
+      <c r="A316" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="B316" s="220" t="s">
-        <v>314</v>
-      </c>
-      <c r="C316" s="223" t="s">
-        <v>212</v>
-      </c>
-      <c r="D316" s="229" t="s">
-        <v>107</v>
+      <c r="B316" s="182" t="s">
+        <v>308</v>
+      </c>
+      <c r="C316" s="186" t="s">
+        <v>208</v>
+      </c>
+      <c r="D316" s="207" t="s">
+        <v>103</v>
       </c>
       <c r="E316" s="133"/>
       <c r="F316" s="50"/>
@@ -10768,12 +10769,12 @@
       <c r="T316" s="4"/>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A317" s="218"/>
-      <c r="B317" s="221"/>
-      <c r="C317" s="221"/>
-      <c r="D317" s="230"/>
+      <c r="A317" s="174"/>
+      <c r="B317" s="183"/>
+      <c r="C317" s="183"/>
+      <c r="D317" s="191"/>
       <c r="E317" s="34" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F317" s="123"/>
       <c r="G317" s="4"/>
@@ -10792,14 +10793,14 @@
       <c r="T317" s="4"/>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A318" s="218"/>
-      <c r="B318" s="221"/>
-      <c r="C318" s="221"/>
+      <c r="A318" s="174"/>
+      <c r="B318" s="183"/>
+      <c r="C318" s="183"/>
       <c r="D318" s="126" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E318" s="133" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F318" s="47"/>
       <c r="G318" s="4"/>
@@ -10818,12 +10819,12 @@
       <c r="T318" s="4"/>
     </row>
     <row r="319" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="228"/>
-      <c r="B319" s="239"/>
-      <c r="C319" s="239"/>
+      <c r="A319" s="180"/>
+      <c r="B319" s="184"/>
+      <c r="C319" s="184"/>
       <c r="D319" s="163"/>
       <c r="E319" s="34" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F319" s="47"/>
       <c r="G319" s="4"/>
@@ -10842,9 +10843,9 @@
       <c r="T319" s="4"/>
     </row>
     <row r="320" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="228"/>
-      <c r="B320" s="239"/>
-      <c r="C320" s="239"/>
+      <c r="A320" s="180"/>
+      <c r="B320" s="184"/>
+      <c r="C320" s="184"/>
       <c r="D320" s="163"/>
       <c r="F320" s="47"/>
       <c r="G320" s="4"/>
@@ -10863,11 +10864,11 @@
       <c r="T320" s="4"/>
     </row>
     <row r="321" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A321" s="218"/>
-      <c r="B321" s="221"/>
-      <c r="C321" s="221"/>
+      <c r="A321" s="174"/>
+      <c r="B321" s="183"/>
+      <c r="C321" s="183"/>
       <c r="D321" s="126" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E321" s="13"/>
       <c r="F321" s="47"/>
@@ -10887,9 +10888,9 @@
       <c r="T321" s="4"/>
     </row>
     <row r="322" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="219"/>
-      <c r="B322" s="222"/>
-      <c r="C322" s="222"/>
+      <c r="A322" s="175"/>
+      <c r="B322" s="185"/>
+      <c r="C322" s="185"/>
       <c r="D322" s="108"/>
       <c r="E322" s="135"/>
       <c r="F322" s="48"/>
@@ -10909,18 +10910,18 @@
       <c r="T322" s="4"/>
     </row>
     <row r="323" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="226" t="s">
+      <c r="A323" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="B323" s="220" t="s">
-        <v>329</v>
-      </c>
-      <c r="C323" s="223" t="s">
-        <v>330</v>
+      <c r="B323" s="182" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323" s="186" t="s">
+        <v>324</v>
       </c>
       <c r="D323" s="163"/>
       <c r="E323" s="133" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F323" s="50"/>
       <c r="G323" s="4"/>
@@ -10939,14 +10940,14 @@
       <c r="T323" s="4"/>
     </row>
     <row r="324" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="218"/>
-      <c r="B324" s="221"/>
-      <c r="C324" s="221"/>
+      <c r="A324" s="174"/>
+      <c r="B324" s="183"/>
+      <c r="C324" s="183"/>
       <c r="D324" s="108" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E324" s="34" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F324" s="123"/>
       <c r="G324" s="4"/>
@@ -10965,14 +10966,14 @@
       <c r="T324" s="4"/>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A325" s="218"/>
-      <c r="B325" s="221"/>
-      <c r="C325" s="221"/>
+      <c r="A325" s="174"/>
+      <c r="B325" s="183"/>
+      <c r="C325" s="183"/>
       <c r="D325" s="163" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F325" s="47"/>
       <c r="G325" s="4"/>
@@ -10991,12 +10992,12 @@
       <c r="T325" s="4"/>
     </row>
     <row r="326" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="218"/>
-      <c r="B326" s="221"/>
-      <c r="C326" s="221"/>
+      <c r="A326" s="174"/>
+      <c r="B326" s="183"/>
+      <c r="C326" s="183"/>
       <c r="D326" s="108"/>
       <c r="E326" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F326" s="47"/>
       <c r="G326" s="4"/>
@@ -11015,12 +11016,12 @@
       <c r="T326" s="4"/>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A327" s="218"/>
-      <c r="B327" s="221"/>
-      <c r="C327" s="221"/>
+      <c r="A327" s="174"/>
+      <c r="B327" s="183"/>
+      <c r="C327" s="183"/>
       <c r="D327" s="163"/>
       <c r="E327" s="13" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F327" s="47"/>
       <c r="G327" s="4"/>
@@ -11039,12 +11040,12 @@
       <c r="T327" s="4"/>
     </row>
     <row r="328" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="218"/>
-      <c r="B328" s="221"/>
-      <c r="C328" s="221"/>
+      <c r="A328" s="174"/>
+      <c r="B328" s="183"/>
+      <c r="C328" s="183"/>
       <c r="D328" s="108"/>
       <c r="E328" s="135" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F328" s="47"/>
       <c r="G328" s="4"/>
@@ -11063,9 +11064,9 @@
       <c r="T328" s="4"/>
     </row>
     <row r="329" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="219"/>
-      <c r="B329" s="222"/>
-      <c r="C329" s="222"/>
+      <c r="A329" s="175"/>
+      <c r="B329" s="185"/>
+      <c r="C329" s="185"/>
       <c r="D329" s="163"/>
       <c r="E329" s="20"/>
       <c r="F329" s="48"/>
@@ -11085,16 +11086,16 @@
       <c r="T329" s="4"/>
     </row>
     <row r="330" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="226" t="s">
+      <c r="A330" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="B330" s="220" t="s">
-        <v>216</v>
-      </c>
-      <c r="C330" s="223" t="s">
-        <v>217</v>
-      </c>
-      <c r="D330" s="224"/>
+      <c r="B330" s="182" t="s">
+        <v>212</v>
+      </c>
+      <c r="C330" s="186" t="s">
+        <v>213</v>
+      </c>
+      <c r="D330" s="187"/>
       <c r="E330" s="20"/>
       <c r="F330" s="50"/>
       <c r="G330" s="4"/>
@@ -11113,12 +11114,12 @@
       <c r="T330" s="4"/>
     </row>
     <row r="331" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="181"/>
-      <c r="B331" s="184"/>
-      <c r="C331" s="187"/>
-      <c r="D331" s="198"/>
+      <c r="A331" s="208"/>
+      <c r="B331" s="216"/>
+      <c r="C331" s="211"/>
+      <c r="D331" s="213"/>
       <c r="E331" s="133" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F331" s="64"/>
       <c r="G331" s="4"/>
@@ -11137,12 +11138,12 @@
       <c r="T331" s="4"/>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A332" s="218"/>
-      <c r="B332" s="221"/>
-      <c r="C332" s="221"/>
-      <c r="D332" s="225"/>
+      <c r="A332" s="174"/>
+      <c r="B332" s="183"/>
+      <c r="C332" s="183"/>
+      <c r="D332" s="188"/>
       <c r="E332" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F332" s="123"/>
       <c r="G332" s="4"/>
@@ -11161,10 +11162,10 @@
       <c r="T332" s="4"/>
     </row>
     <row r="333" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="219"/>
-      <c r="B333" s="222"/>
-      <c r="C333" s="222"/>
-      <c r="D333" s="222"/>
+      <c r="A333" s="175"/>
+      <c r="B333" s="185"/>
+      <c r="C333" s="185"/>
+      <c r="D333" s="185"/>
       <c r="E333" s="136"/>
       <c r="F333" s="48"/>
       <c r="G333" s="4"/>
@@ -11183,17 +11184,17 @@
       <c r="T333" s="4"/>
     </row>
     <row r="334" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="226" t="s">
+      <c r="A334" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="B334" s="220" t="s">
-        <v>219</v>
-      </c>
-      <c r="C334" s="223" t="s">
-        <v>220</v>
-      </c>
-      <c r="D334" s="224" t="s">
-        <v>107</v>
+      <c r="B334" s="182" t="s">
+        <v>215</v>
+      </c>
+      <c r="C334" s="186" t="s">
+        <v>216</v>
+      </c>
+      <c r="D334" s="187" t="s">
+        <v>103</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="50"/>
@@ -11213,12 +11214,12 @@
       <c r="T334" s="4"/>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A335" s="218"/>
-      <c r="B335" s="221"/>
-      <c r="C335" s="221"/>
-      <c r="D335" s="225"/>
+      <c r="A335" s="174"/>
+      <c r="B335" s="183"/>
+      <c r="C335" s="183"/>
+      <c r="D335" s="188"/>
       <c r="E335" s="133" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F335" s="123"/>
       <c r="G335" s="4"/>
@@ -11237,12 +11238,12 @@
       <c r="T335" s="4"/>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A336" s="218"/>
-      <c r="B336" s="221"/>
-      <c r="C336" s="221"/>
-      <c r="D336" s="221"/>
+      <c r="A336" s="174"/>
+      <c r="B336" s="183"/>
+      <c r="C336" s="183"/>
+      <c r="D336" s="183"/>
       <c r="E336" s="34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F336" s="47"/>
       <c r="G336" s="4"/>
@@ -11261,10 +11262,10 @@
       <c r="T336" s="4"/>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A337" s="218"/>
-      <c r="B337" s="221"/>
-      <c r="C337" s="221"/>
-      <c r="D337" s="221"/>
+      <c r="A337" s="174"/>
+      <c r="B337" s="183"/>
+      <c r="C337" s="183"/>
+      <c r="D337" s="183"/>
       <c r="E337" s="13"/>
       <c r="F337" s="47"/>
       <c r="G337" s="4"/>
@@ -11283,10 +11284,10 @@
       <c r="T337" s="4"/>
     </row>
     <row r="338" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="219"/>
-      <c r="B338" s="222"/>
-      <c r="C338" s="222"/>
-      <c r="D338" s="222"/>
+      <c r="A338" s="175"/>
+      <c r="B338" s="185"/>
+      <c r="C338" s="185"/>
+      <c r="D338" s="185"/>
       <c r="E338" s="135"/>
       <c r="F338" s="47"/>
       <c r="G338" s="4"/>
@@ -11305,17 +11306,17 @@
       <c r="T338" s="4"/>
     </row>
     <row r="339" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="226" t="s">
+      <c r="A339" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="B339" s="231" t="s">
-        <v>223</v>
-      </c>
-      <c r="C339" s="234" t="s">
-        <v>224</v>
-      </c>
-      <c r="D339" s="235" t="s">
-        <v>107</v>
+      <c r="B339" s="176" t="s">
+        <v>219</v>
+      </c>
+      <c r="C339" s="179" t="s">
+        <v>220</v>
+      </c>
+      <c r="D339" s="214" t="s">
+        <v>103</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="52"/>
@@ -11335,12 +11336,12 @@
       <c r="T339" s="4"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A340" s="218"/>
-      <c r="B340" s="232"/>
-      <c r="C340" s="232"/>
-      <c r="D340" s="236"/>
+      <c r="A340" s="174"/>
+      <c r="B340" s="177"/>
+      <c r="C340" s="177"/>
+      <c r="D340" s="215"/>
       <c r="E340" s="133" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F340" s="53"/>
       <c r="G340" s="4"/>
@@ -11359,12 +11360,12 @@
       <c r="T340" s="4"/>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A341" s="218"/>
-      <c r="B341" s="232"/>
-      <c r="C341" s="232"/>
-      <c r="D341" s="232"/>
+      <c r="A341" s="174"/>
+      <c r="B341" s="177"/>
+      <c r="C341" s="177"/>
+      <c r="D341" s="177"/>
       <c r="E341" s="141" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F341" s="54"/>
       <c r="G341" s="4"/>
@@ -11383,12 +11384,12 @@
       <c r="T341" s="4"/>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A342" s="218"/>
-      <c r="B342" s="232"/>
-      <c r="C342" s="232"/>
-      <c r="D342" s="232"/>
+      <c r="A342" s="174"/>
+      <c r="B342" s="177"/>
+      <c r="C342" s="177"/>
+      <c r="D342" s="177"/>
       <c r="E342" s="142" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F342" s="53"/>
       <c r="G342" s="4"/>
@@ -11407,10 +11408,10 @@
       <c r="T342" s="4"/>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A343" s="218"/>
-      <c r="B343" s="232"/>
-      <c r="C343" s="232"/>
-      <c r="D343" s="232"/>
+      <c r="A343" s="174"/>
+      <c r="B343" s="177"/>
+      <c r="C343" s="177"/>
+      <c r="D343" s="177"/>
       <c r="E343" s="34"/>
       <c r="F343" s="54"/>
       <c r="G343" s="4"/>
@@ -11429,10 +11430,10 @@
       <c r="T343" s="4"/>
     </row>
     <row r="344" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="219"/>
-      <c r="B344" s="233"/>
-      <c r="C344" s="233"/>
-      <c r="D344" s="233"/>
+      <c r="A344" s="175"/>
+      <c r="B344" s="178"/>
+      <c r="C344" s="178"/>
+      <c r="D344" s="178"/>
       <c r="E344" s="135"/>
       <c r="F344" s="55"/>
       <c r="G344" s="4"/>
@@ -11451,17 +11452,17 @@
       <c r="T344" s="4"/>
     </row>
     <row r="345" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="217" t="s">
+      <c r="A345" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="B345" s="231" t="s">
-        <v>226</v>
-      </c>
-      <c r="C345" s="234" t="s">
-        <v>227</v>
+      <c r="B345" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="C345" s="179" t="s">
+        <v>223</v>
       </c>
       <c r="D345" s="82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E345" s="20"/>
       <c r="F345" s="57"/>
@@ -11481,14 +11482,14 @@
       <c r="T345" s="4"/>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A346" s="218"/>
-      <c r="B346" s="232"/>
-      <c r="C346" s="232"/>
+      <c r="A346" s="174"/>
+      <c r="B346" s="177"/>
+      <c r="C346" s="177"/>
       <c r="D346" s="143" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E346" s="144" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F346" s="30"/>
       <c r="G346" s="4"/>
@@ -11507,12 +11508,12 @@
       <c r="T346" s="4"/>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A347" s="218"/>
-      <c r="B347" s="232"/>
-      <c r="C347" s="232"/>
+      <c r="A347" s="174"/>
+      <c r="B347" s="177"/>
+      <c r="C347" s="177"/>
       <c r="D347" s="80"/>
       <c r="E347" s="145" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F347" s="59"/>
       <c r="G347" s="4"/>
@@ -11531,12 +11532,12 @@
       <c r="T347" s="4"/>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A348" s="218"/>
-      <c r="B348" s="232"/>
-      <c r="C348" s="232"/>
+      <c r="A348" s="174"/>
+      <c r="B348" s="177"/>
+      <c r="C348" s="177"/>
       <c r="D348" s="82"/>
       <c r="E348" s="111" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F348" s="31"/>
       <c r="G348" s="4"/>
@@ -11555,12 +11556,12 @@
       <c r="T348" s="4"/>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A349" s="218"/>
-      <c r="B349" s="232"/>
-      <c r="C349" s="232"/>
+      <c r="A349" s="174"/>
+      <c r="B349" s="177"/>
+      <c r="C349" s="177"/>
       <c r="D349" s="81"/>
       <c r="E349" s="58" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F349" s="61"/>
       <c r="G349" s="4"/>
@@ -11579,9 +11580,9 @@
       <c r="T349" s="4"/>
     </row>
     <row r="350" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="219"/>
-      <c r="B350" s="233"/>
-      <c r="C350" s="233"/>
+      <c r="A350" s="175"/>
+      <c r="B350" s="178"/>
+      <c r="C350" s="178"/>
       <c r="D350" s="100"/>
       <c r="E350" s="160"/>
       <c r="F350" s="151"/>
@@ -11601,17 +11602,17 @@
       <c r="T350" s="4"/>
     </row>
     <row r="351" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="217" t="s">
+      <c r="A351" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="B351" s="231" t="s">
-        <v>230</v>
-      </c>
-      <c r="C351" s="234" t="s">
-        <v>229</v>
-      </c>
-      <c r="D351" s="235" t="s">
-        <v>231</v>
+      <c r="B351" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="C351" s="179" t="s">
+        <v>225</v>
+      </c>
+      <c r="D351" s="214" t="s">
+        <v>227</v>
       </c>
       <c r="E351" s="146"/>
       <c r="F351" s="57"/>
@@ -11631,10 +11632,10 @@
       <c r="T351" s="4"/>
     </row>
     <row r="352" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="218"/>
-      <c r="B352" s="232"/>
-      <c r="C352" s="232"/>
-      <c r="D352" s="236"/>
+      <c r="A352" s="174"/>
+      <c r="B352" s="177"/>
+      <c r="C352" s="177"/>
+      <c r="D352" s="215"/>
       <c r="E352" s="133"/>
       <c r="F352" s="161"/>
       <c r="G352" s="4"/>
@@ -11653,10 +11654,10 @@
       <c r="T352" s="4"/>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A353" s="218"/>
-      <c r="B353" s="232"/>
-      <c r="C353" s="232"/>
-      <c r="D353" s="232"/>
+      <c r="A353" s="174"/>
+      <c r="B353" s="177"/>
+      <c r="C353" s="177"/>
+      <c r="D353" s="177"/>
       <c r="E353" s="56"/>
       <c r="F353" s="57"/>
       <c r="G353" s="4"/>
@@ -11675,12 +11676,12 @@
       <c r="T353" s="4"/>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A354" s="218"/>
-      <c r="B354" s="232"/>
-      <c r="C354" s="232"/>
-      <c r="D354" s="232"/>
+      <c r="A354" s="174"/>
+      <c r="B354" s="177"/>
+      <c r="C354" s="177"/>
+      <c r="D354" s="177"/>
       <c r="E354" s="111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F354" s="31"/>
       <c r="G354" s="4"/>
@@ -11699,12 +11700,12 @@
       <c r="T354" s="4"/>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A355" s="218"/>
-      <c r="B355" s="232"/>
-      <c r="C355" s="232"/>
-      <c r="D355" s="232"/>
+      <c r="A355" s="174"/>
+      <c r="B355" s="177"/>
+      <c r="C355" s="177"/>
+      <c r="D355" s="177"/>
       <c r="E355" s="58" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F355" s="61"/>
       <c r="G355" s="4"/>
@@ -11723,12 +11724,12 @@
       <c r="T355" s="4"/>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A356" s="218"/>
-      <c r="B356" s="232"/>
-      <c r="C356" s="232"/>
-      <c r="D356" s="232"/>
+      <c r="A356" s="174"/>
+      <c r="B356" s="177"/>
+      <c r="C356" s="177"/>
+      <c r="D356" s="177"/>
       <c r="E356" s="58" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F356" s="59"/>
       <c r="G356" s="4"/>
@@ -11747,10 +11748,10 @@
       <c r="T356" s="4"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A357" s="218"/>
-      <c r="B357" s="232"/>
-      <c r="C357" s="232"/>
-      <c r="D357" s="232"/>
+      <c r="A357" s="174"/>
+      <c r="B357" s="177"/>
+      <c r="C357" s="177"/>
+      <c r="D357" s="177"/>
       <c r="E357" s="60"/>
       <c r="F357" s="31"/>
       <c r="G357" s="4"/>
@@ -11769,10 +11770,10 @@
       <c r="T357" s="4"/>
     </row>
     <row r="358" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="219"/>
-      <c r="B358" s="233"/>
-      <c r="C358" s="233"/>
-      <c r="D358" s="233"/>
+      <c r="A358" s="175"/>
+      <c r="B358" s="178"/>
+      <c r="C358" s="178"/>
+      <c r="D358" s="178"/>
       <c r="E358" s="147"/>
       <c r="F358" s="55"/>
       <c r="G358" s="4"/>
@@ -11791,17 +11792,17 @@
       <c r="T358" s="4"/>
     </row>
     <row r="359" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="217" t="s">
+      <c r="A359" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="B359" s="231" t="s">
-        <v>234</v>
-      </c>
-      <c r="C359" s="193" t="s">
-        <v>235</v>
-      </c>
-      <c r="D359" s="177" t="s">
+      <c r="B359" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="C359" s="210" t="s">
         <v>231</v>
+      </c>
+      <c r="D359" s="212" t="s">
+        <v>227</v>
       </c>
       <c r="E359" s="146"/>
       <c r="F359" s="59"/>
@@ -11821,12 +11822,12 @@
       <c r="T359" s="4"/>
     </row>
     <row r="360" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="181"/>
-      <c r="B360" s="237"/>
-      <c r="C360" s="187"/>
-      <c r="D360" s="198"/>
+      <c r="A360" s="208"/>
+      <c r="B360" s="209"/>
+      <c r="C360" s="211"/>
+      <c r="D360" s="213"/>
       <c r="E360" s="111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F360" s="153"/>
       <c r="G360" s="4"/>
@@ -11845,12 +11846,12 @@
       <c r="T360" s="4"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A361" s="218"/>
-      <c r="B361" s="232"/>
-      <c r="C361" s="221"/>
-      <c r="D361" s="225"/>
+      <c r="A361" s="174"/>
+      <c r="B361" s="177"/>
+      <c r="C361" s="183"/>
+      <c r="D361" s="188"/>
       <c r="E361" s="60" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F361" s="30"/>
       <c r="G361" s="4"/>
@@ -11869,12 +11870,12 @@
       <c r="T361" s="4"/>
     </row>
     <row r="362" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="228"/>
-      <c r="B362" s="238"/>
-      <c r="C362" s="239"/>
-      <c r="D362" s="225"/>
+      <c r="A362" s="180"/>
+      <c r="B362" s="181"/>
+      <c r="C362" s="184"/>
+      <c r="D362" s="188"/>
       <c r="E362" s="148" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F362" s="30"/>
       <c r="G362" s="4"/>
@@ -11893,10 +11894,10 @@
       <c r="T362" s="4"/>
     </row>
     <row r="363" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="219"/>
-      <c r="B363" s="233"/>
-      <c r="C363" s="222"/>
-      <c r="D363" s="222"/>
+      <c r="A363" s="175"/>
+      <c r="B363" s="178"/>
+      <c r="C363" s="185"/>
+      <c r="D363" s="185"/>
       <c r="E363" s="155"/>
       <c r="F363" s="62"/>
       <c r="G363" s="4"/>
@@ -11915,18 +11916,18 @@
       <c r="T363" s="4"/>
     </row>
     <row r="364" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="217" t="s">
+      <c r="A364" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="B364" s="220" t="s">
-        <v>236</v>
-      </c>
-      <c r="C364" s="234" t="s">
-        <v>242</v>
-      </c>
-      <c r="D364" s="235"/>
+      <c r="B364" s="182" t="s">
+        <v>232</v>
+      </c>
+      <c r="C364" s="179" t="s">
+        <v>238</v>
+      </c>
+      <c r="D364" s="214"/>
       <c r="E364" s="154" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F364" s="57"/>
       <c r="G364" s="4"/>
@@ -11945,12 +11946,12 @@
       <c r="T364" s="4"/>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A365" s="218"/>
-      <c r="B365" s="221"/>
-      <c r="C365" s="232"/>
-      <c r="D365" s="236"/>
+      <c r="A365" s="174"/>
+      <c r="B365" s="183"/>
+      <c r="C365" s="177"/>
+      <c r="D365" s="215"/>
       <c r="E365" s="58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F365" s="30"/>
       <c r="G365" s="4"/>
@@ -11969,12 +11970,12 @@
       <c r="T365" s="4"/>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A366" s="218"/>
-      <c r="B366" s="221"/>
-      <c r="C366" s="232"/>
-      <c r="D366" s="232"/>
+      <c r="A366" s="174"/>
+      <c r="B366" s="183"/>
+      <c r="C366" s="177"/>
+      <c r="D366" s="177"/>
       <c r="E366" s="58" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F366" s="59"/>
       <c r="G366" s="4"/>
@@ -11993,12 +11994,12 @@
       <c r="T366" s="4"/>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A367" s="218"/>
-      <c r="B367" s="221"/>
-      <c r="C367" s="232"/>
-      <c r="D367" s="232"/>
+      <c r="A367" s="174"/>
+      <c r="B367" s="183"/>
+      <c r="C367" s="177"/>
+      <c r="D367" s="177"/>
       <c r="E367" s="58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F367" s="31"/>
       <c r="G367" s="4"/>
@@ -12017,12 +12018,12 @@
       <c r="T367" s="4"/>
     </row>
     <row r="368" spans="1:20" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="219"/>
-      <c r="B368" s="222"/>
-      <c r="C368" s="233"/>
-      <c r="D368" s="233"/>
+      <c r="A368" s="175"/>
+      <c r="B368" s="185"/>
+      <c r="C368" s="178"/>
+      <c r="D368" s="178"/>
       <c r="E368" s="147" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F368" s="33"/>
       <c r="G368" s="4"/>
@@ -12041,16 +12042,16 @@
       <c r="T368" s="4"/>
     </row>
     <row r="369" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="217" t="s">
+      <c r="A369" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="B369" s="231" t="s">
-        <v>241</v>
-      </c>
-      <c r="C369" s="234" t="s">
-        <v>243</v>
-      </c>
-      <c r="D369" s="235"/>
+      <c r="B369" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="C369" s="179" t="s">
+        <v>239</v>
+      </c>
+      <c r="D369" s="214"/>
       <c r="E369" s="29"/>
       <c r="F369" s="61"/>
       <c r="G369" s="4"/>
@@ -12069,12 +12070,12 @@
       <c r="T369" s="4"/>
     </row>
     <row r="370" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="218"/>
-      <c r="B370" s="232"/>
-      <c r="C370" s="232"/>
-      <c r="D370" s="232"/>
+      <c r="A370" s="174"/>
+      <c r="B370" s="177"/>
+      <c r="C370" s="177"/>
+      <c r="D370" s="177"/>
       <c r="E370" s="111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F370" s="61"/>
       <c r="G370" s="4"/>
@@ -12093,12 +12094,12 @@
       <c r="T370" s="4"/>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A371" s="218"/>
-      <c r="B371" s="232"/>
-      <c r="C371" s="232"/>
-      <c r="D371" s="232"/>
+      <c r="A371" s="174"/>
+      <c r="B371" s="177"/>
+      <c r="C371" s="177"/>
+      <c r="D371" s="177"/>
       <c r="E371" s="111" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F371" s="59"/>
       <c r="G371" s="4"/>
@@ -12117,12 +12118,12 @@
       <c r="T371" s="4"/>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A372" s="218"/>
-      <c r="B372" s="232"/>
-      <c r="C372" s="232"/>
-      <c r="D372" s="236"/>
+      <c r="A372" s="174"/>
+      <c r="B372" s="177"/>
+      <c r="C372" s="177"/>
+      <c r="D372" s="215"/>
       <c r="E372" s="148" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F372" s="30"/>
       <c r="G372" s="4"/>
@@ -12141,12 +12142,12 @@
       <c r="T372" s="4"/>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A373" s="218"/>
-      <c r="B373" s="232"/>
-      <c r="C373" s="232"/>
-      <c r="D373" s="232"/>
+      <c r="A373" s="174"/>
+      <c r="B373" s="177"/>
+      <c r="C373" s="177"/>
+      <c r="D373" s="177"/>
       <c r="E373" s="145" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F373" s="59"/>
       <c r="G373" s="4"/>
@@ -12165,12 +12166,12 @@
       <c r="T373" s="4"/>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A374" s="218"/>
-      <c r="B374" s="232"/>
-      <c r="C374" s="232"/>
-      <c r="D374" s="232"/>
+      <c r="A374" s="174"/>
+      <c r="B374" s="177"/>
+      <c r="C374" s="177"/>
+      <c r="D374" s="177"/>
       <c r="E374" s="111" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F374" s="31"/>
       <c r="G374" s="4"/>
@@ -12189,12 +12190,12 @@
       <c r="T374" s="4"/>
     </row>
     <row r="375" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="219"/>
-      <c r="B375" s="233"/>
-      <c r="C375" s="233"/>
-      <c r="D375" s="233"/>
+      <c r="A375" s="175"/>
+      <c r="B375" s="178"/>
+      <c r="C375" s="178"/>
+      <c r="D375" s="178"/>
       <c r="E375" s="147" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F375" s="152"/>
       <c r="G375" s="4"/>
@@ -12213,14 +12214,14 @@
       <c r="T375" s="4"/>
     </row>
     <row r="376" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="217" t="s">
-        <v>339</v>
-      </c>
-      <c r="B376" s="231" t="s">
-        <v>340</v>
-      </c>
-      <c r="C376" s="234" t="s">
-        <v>330</v>
+      <c r="A376" s="173" t="s">
+        <v>333</v>
+      </c>
+      <c r="B376" s="176" t="s">
+        <v>334</v>
+      </c>
+      <c r="C376" s="179" t="s">
+        <v>324</v>
       </c>
       <c r="D376" s="82"/>
       <c r="E376" s="29"/>
@@ -12241,14 +12242,14 @@
       <c r="T376" s="4"/>
     </row>
     <row r="377" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="218"/>
-      <c r="B377" s="232"/>
-      <c r="C377" s="232"/>
+      <c r="A377" s="174"/>
+      <c r="B377" s="177"/>
+      <c r="C377" s="177"/>
       <c r="D377" s="82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E377" s="111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F377" s="61"/>
       <c r="G377" s="4"/>
@@ -12267,14 +12268,14 @@
       <c r="T377" s="4"/>
     </row>
     <row r="378" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="218"/>
-      <c r="B378" s="232"/>
-      <c r="C378" s="232"/>
+      <c r="A378" s="174"/>
+      <c r="B378" s="177"/>
+      <c r="C378" s="177"/>
       <c r="D378" s="143" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E378" s="111" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F378" s="59"/>
       <c r="G378" s="4"/>
@@ -12293,12 +12294,12 @@
       <c r="T378" s="4"/>
     </row>
     <row r="379" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="218"/>
-      <c r="B379" s="232"/>
-      <c r="C379" s="232"/>
+      <c r="A379" s="174"/>
+      <c r="B379" s="177"/>
+      <c r="C379" s="177"/>
       <c r="D379" s="82"/>
       <c r="E379" s="148" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F379" s="30"/>
       <c r="G379" s="4"/>
@@ -12317,12 +12318,12 @@
       <c r="T379" s="4"/>
     </row>
     <row r="380" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="218"/>
-      <c r="B380" s="232"/>
-      <c r="C380" s="232"/>
+      <c r="A380" s="174"/>
+      <c r="B380" s="177"/>
+      <c r="C380" s="177"/>
       <c r="D380" s="143"/>
       <c r="E380" s="111" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F380" s="59"/>
       <c r="G380" s="4"/>
@@ -12341,12 +12342,12 @@
       <c r="T380" s="4"/>
     </row>
     <row r="381" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="218"/>
-      <c r="B381" s="232"/>
-      <c r="C381" s="232"/>
+      <c r="A381" s="174"/>
+      <c r="B381" s="177"/>
+      <c r="C381" s="177"/>
       <c r="D381" s="80"/>
       <c r="E381" s="147" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F381" s="31"/>
       <c r="G381" s="4"/>
@@ -12365,10 +12366,10 @@
       <c r="T381" s="4"/>
     </row>
     <row r="382" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="219"/>
-      <c r="B382" s="233"/>
-      <c r="C382" s="233"/>
-      <c r="D382" s="252"/>
+      <c r="A382" s="175"/>
+      <c r="B382" s="178"/>
+      <c r="C382" s="178"/>
+      <c r="D382" s="171"/>
       <c r="E382" s="147"/>
       <c r="F382" s="152"/>
       <c r="G382" s="4"/>
@@ -12387,18 +12388,18 @@
       <c r="T382" s="4"/>
     </row>
     <row r="383" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="217" t="s">
-        <v>347</v>
-      </c>
-      <c r="B383" s="231" t="s">
-        <v>349</v>
-      </c>
-      <c r="C383" s="234" t="s">
-        <v>330</v>
+      <c r="A383" s="173" t="s">
+        <v>341</v>
+      </c>
+      <c r="B383" s="176" t="s">
+        <v>343</v>
+      </c>
+      <c r="C383" s="179" t="s">
+        <v>324</v>
       </c>
       <c r="D383" s="164"/>
       <c r="E383" s="111" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F383" s="61"/>
       <c r="G383" s="4"/>
@@ -12417,14 +12418,14 @@
       <c r="T383" s="4"/>
     </row>
     <row r="384" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="218"/>
-      <c r="B384" s="232"/>
-      <c r="C384" s="232"/>
+      <c r="A384" s="174"/>
+      <c r="B384" s="177"/>
+      <c r="C384" s="177"/>
       <c r="D384" s="82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E384" s="111" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F384" s="61"/>
       <c r="G384" s="4"/>
@@ -12443,14 +12444,14 @@
       <c r="T384" s="4"/>
     </row>
     <row r="385" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A385" s="218"/>
-      <c r="B385" s="232"/>
-      <c r="C385" s="232"/>
+      <c r="A385" s="174"/>
+      <c r="B385" s="177"/>
+      <c r="C385" s="177"/>
       <c r="D385" s="143" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E385" s="148" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F385" s="59"/>
       <c r="G385" s="4"/>
@@ -12469,12 +12470,12 @@
       <c r="T385" s="4"/>
     </row>
     <row r="386" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="218"/>
-      <c r="B386" s="232"/>
-      <c r="C386" s="232"/>
+      <c r="A386" s="174"/>
+      <c r="B386" s="177"/>
+      <c r="C386" s="177"/>
       <c r="D386" s="82"/>
-      <c r="E386" s="250" t="s">
-        <v>346</v>
+      <c r="E386" s="169" t="s">
+        <v>340</v>
       </c>
       <c r="F386" s="30"/>
       <c r="G386" s="4"/>
@@ -12493,12 +12494,12 @@
       <c r="T386" s="4"/>
     </row>
     <row r="387" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="218"/>
-      <c r="B387" s="232"/>
-      <c r="C387" s="232"/>
-      <c r="D387" s="249"/>
+      <c r="A387" s="174"/>
+      <c r="B387" s="177"/>
+      <c r="C387" s="177"/>
+      <c r="D387" s="168"/>
       <c r="E387" s="148" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F387" s="153"/>
       <c r="G387" s="4"/>
@@ -12517,12 +12518,12 @@
       <c r="T387" s="4"/>
     </row>
     <row r="388" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="228"/>
-      <c r="B388" s="238"/>
-      <c r="C388" s="238"/>
-      <c r="D388" s="249"/>
+      <c r="A388" s="180"/>
+      <c r="B388" s="181"/>
+      <c r="C388" s="181"/>
+      <c r="D388" s="168"/>
       <c r="E388" s="148" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F388" s="153"/>
       <c r="G388" s="4"/>
@@ -12541,10 +12542,10 @@
       <c r="T388" s="4"/>
     </row>
     <row r="389" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="218"/>
-      <c r="B389" s="232"/>
-      <c r="C389" s="232"/>
-      <c r="D389" s="253"/>
+      <c r="A389" s="174"/>
+      <c r="B389" s="177"/>
+      <c r="C389" s="177"/>
+      <c r="D389" s="172"/>
       <c r="E389" s="148"/>
       <c r="F389" s="30"/>
       <c r="G389" s="4"/>
@@ -12563,10 +12564,10 @@
       <c r="T389" s="4"/>
     </row>
     <row r="390" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="219"/>
-      <c r="B390" s="233"/>
-      <c r="C390" s="233"/>
-      <c r="D390" s="252"/>
+      <c r="A390" s="175"/>
+      <c r="B390" s="178"/>
+      <c r="C390" s="178"/>
+      <c r="D390" s="171"/>
       <c r="E390" s="122"/>
       <c r="F390" s="152"/>
       <c r="G390" s="4"/>
@@ -12585,18 +12586,18 @@
       <c r="T390" s="4"/>
     </row>
     <row r="391" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="217" t="s">
-        <v>348</v>
-      </c>
-      <c r="B391" s="231" t="s">
-        <v>350</v>
-      </c>
-      <c r="C391" s="234" t="s">
-        <v>351</v>
+      <c r="A391" s="173" t="s">
+        <v>342</v>
+      </c>
+      <c r="B391" s="176" t="s">
+        <v>344</v>
+      </c>
+      <c r="C391" s="179" t="s">
+        <v>345</v>
       </c>
       <c r="D391" s="164"/>
       <c r="E391" s="154" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F391" s="61"/>
       <c r="G391" s="4"/>
@@ -12615,14 +12616,14 @@
       <c r="T391" s="4"/>
     </row>
     <row r="392" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="218"/>
-      <c r="B392" s="232"/>
-      <c r="C392" s="232"/>
+      <c r="A392" s="174"/>
+      <c r="B392" s="177"/>
+      <c r="C392" s="177"/>
       <c r="D392" s="82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E392" s="111" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F392" s="61"/>
       <c r="G392" s="4"/>
@@ -12641,14 +12642,14 @@
       <c r="T392" s="4"/>
     </row>
     <row r="393" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A393" s="218"/>
-      <c r="B393" s="232"/>
-      <c r="C393" s="232"/>
+      <c r="A393" s="174"/>
+      <c r="B393" s="177"/>
+      <c r="C393" s="177"/>
       <c r="D393" s="143" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E393" s="148" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F393" s="59"/>
       <c r="G393" s="4"/>
@@ -12667,12 +12668,12 @@
       <c r="T393" s="4"/>
     </row>
     <row r="394" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="218"/>
-      <c r="B394" s="232"/>
-      <c r="C394" s="232"/>
+      <c r="A394" s="174"/>
+      <c r="B394" s="177"/>
+      <c r="C394" s="177"/>
       <c r="D394" s="82"/>
-      <c r="E394" s="250" t="s">
-        <v>346</v>
+      <c r="E394" s="169" t="s">
+        <v>340</v>
       </c>
       <c r="F394" s="30"/>
       <c r="G394" s="4"/>
@@ -12691,12 +12692,12 @@
       <c r="T394" s="4"/>
     </row>
     <row r="395" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="218"/>
-      <c r="B395" s="232"/>
-      <c r="C395" s="232"/>
+      <c r="A395" s="174"/>
+      <c r="B395" s="177"/>
+      <c r="C395" s="177"/>
       <c r="D395" s="143"/>
       <c r="E395" s="148" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F395" s="59"/>
       <c r="G395" s="4"/>
@@ -12715,12 +12716,12 @@
       <c r="T395" s="4"/>
     </row>
     <row r="396" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="218"/>
-      <c r="B396" s="232"/>
-      <c r="C396" s="232"/>
+      <c r="A396" s="174"/>
+      <c r="B396" s="177"/>
+      <c r="C396" s="177"/>
       <c r="D396" s="80"/>
-      <c r="E396" s="251" t="s">
-        <v>353</v>
+      <c r="E396" s="170" t="s">
+        <v>347</v>
       </c>
       <c r="F396" s="31"/>
       <c r="G396" s="4"/>
@@ -12739,12 +12740,12 @@
       <c r="T396" s="4"/>
     </row>
     <row r="397" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A397" s="219"/>
-      <c r="B397" s="233"/>
-      <c r="C397" s="233"/>
+      <c r="A397" s="175"/>
+      <c r="B397" s="178"/>
+      <c r="C397" s="178"/>
       <c r="D397" s="82"/>
-      <c r="E397" s="251" t="s">
-        <v>354</v>
+      <c r="E397" s="170" t="s">
+        <v>348</v>
       </c>
       <c r="F397" s="152"/>
       <c r="G397" s="4"/>
@@ -13520,15 +13521,183 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="A376:A382"/>
-    <mergeCell ref="B376:B382"/>
-    <mergeCell ref="C376:C382"/>
-    <mergeCell ref="A383:A390"/>
-    <mergeCell ref="B383:B390"/>
-    <mergeCell ref="C383:C390"/>
-    <mergeCell ref="A391:A397"/>
-    <mergeCell ref="B391:B397"/>
-    <mergeCell ref="C391:C397"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D210:D216"/>
+    <mergeCell ref="A217:A225"/>
+    <mergeCell ref="B217:B225"/>
+    <mergeCell ref="C217:C225"/>
+    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="B135:B146"/>
+    <mergeCell ref="C135:C146"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="A135:A146"/>
+    <mergeCell ref="A147:A157"/>
+    <mergeCell ref="B147:B157"/>
+    <mergeCell ref="C147:C157"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="A111:A121"/>
+    <mergeCell ref="B111:B121"/>
+    <mergeCell ref="A122:A134"/>
+    <mergeCell ref="B122:B134"/>
+    <mergeCell ref="C111:C121"/>
+    <mergeCell ref="B233:B240"/>
+    <mergeCell ref="C233:C240"/>
+    <mergeCell ref="C122:C134"/>
+    <mergeCell ref="C203:C207"/>
+    <mergeCell ref="D203:D207"/>
+    <mergeCell ref="A210:A216"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="C85:C92"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="B101:B110"/>
+    <mergeCell ref="C101:C110"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="C268:C272"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="C185:C189"/>
+    <mergeCell ref="D185:D189"/>
+    <mergeCell ref="B190:B197"/>
+    <mergeCell ref="C190:C197"/>
+    <mergeCell ref="D190:D197"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="D198:D202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A226:A232"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C73:C84"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="B61:B72"/>
+    <mergeCell ref="C61:C72"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="A233:A240"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A73:A84"/>
+    <mergeCell ref="B73:B84"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="B169:B174"/>
+    <mergeCell ref="C169:C174"/>
+    <mergeCell ref="A169:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="A246:A252"/>
+    <mergeCell ref="A253:A258"/>
+    <mergeCell ref="B253:B258"/>
+    <mergeCell ref="C253:C258"/>
+    <mergeCell ref="A259:A267"/>
+    <mergeCell ref="B259:B267"/>
+    <mergeCell ref="B246:B252"/>
+    <mergeCell ref="C246:C252"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="A316:A322"/>
+    <mergeCell ref="B316:B322"/>
+    <mergeCell ref="C316:C322"/>
+    <mergeCell ref="B323:B329"/>
+    <mergeCell ref="C323:C329"/>
+    <mergeCell ref="A323:A329"/>
+    <mergeCell ref="C273:C279"/>
+    <mergeCell ref="D273:D279"/>
+    <mergeCell ref="A273:A279"/>
+    <mergeCell ref="B273:B279"/>
+    <mergeCell ref="A280:A287"/>
+    <mergeCell ref="B280:B287"/>
+    <mergeCell ref="C280:C287"/>
+    <mergeCell ref="D280:D287"/>
+    <mergeCell ref="B288:B298"/>
+    <mergeCell ref="C288:C298"/>
+    <mergeCell ref="D288:D298"/>
+    <mergeCell ref="C306:C315"/>
+    <mergeCell ref="A288:A298"/>
+    <mergeCell ref="A299:A305"/>
+    <mergeCell ref="C259:C267"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="D330:D333"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="B334:B338"/>
+    <mergeCell ref="A339:A344"/>
+    <mergeCell ref="B339:B344"/>
+    <mergeCell ref="C339:C344"/>
+    <mergeCell ref="D339:D344"/>
+    <mergeCell ref="B345:B350"/>
+    <mergeCell ref="C345:C350"/>
+    <mergeCell ref="A345:A350"/>
+    <mergeCell ref="C334:C338"/>
+    <mergeCell ref="D334:D338"/>
+    <mergeCell ref="A351:A358"/>
+    <mergeCell ref="B351:B358"/>
+    <mergeCell ref="C351:C358"/>
+    <mergeCell ref="D351:D358"/>
+    <mergeCell ref="A359:A363"/>
+    <mergeCell ref="B359:B363"/>
+    <mergeCell ref="B369:B375"/>
+    <mergeCell ref="C369:C375"/>
+    <mergeCell ref="C359:C363"/>
+    <mergeCell ref="D359:D363"/>
+    <mergeCell ref="A364:A368"/>
+    <mergeCell ref="B364:B368"/>
+    <mergeCell ref="C364:C368"/>
+    <mergeCell ref="D364:D368"/>
+    <mergeCell ref="D369:D375"/>
+    <mergeCell ref="A369:A375"/>
     <mergeCell ref="B299:B305"/>
     <mergeCell ref="C299:C305"/>
     <mergeCell ref="D299:D305"/>
@@ -13553,183 +13722,15 @@
     <mergeCell ref="D233:D234"/>
     <mergeCell ref="D239:D240"/>
     <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A359:A363"/>
-    <mergeCell ref="B359:B363"/>
-    <mergeCell ref="B369:B375"/>
-    <mergeCell ref="C369:C375"/>
-    <mergeCell ref="C359:C363"/>
-    <mergeCell ref="D359:D363"/>
-    <mergeCell ref="A364:A368"/>
-    <mergeCell ref="B364:B368"/>
-    <mergeCell ref="C364:C368"/>
-    <mergeCell ref="D364:D368"/>
-    <mergeCell ref="D369:D375"/>
-    <mergeCell ref="A369:A375"/>
-    <mergeCell ref="B345:B350"/>
-    <mergeCell ref="C345:C350"/>
-    <mergeCell ref="A345:A350"/>
-    <mergeCell ref="C334:C338"/>
-    <mergeCell ref="D334:D338"/>
-    <mergeCell ref="A351:A358"/>
-    <mergeCell ref="B351:B358"/>
-    <mergeCell ref="C351:C358"/>
-    <mergeCell ref="D351:D358"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="D330:D333"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="B334:B338"/>
-    <mergeCell ref="A339:A344"/>
-    <mergeCell ref="B339:B344"/>
-    <mergeCell ref="C339:C344"/>
-    <mergeCell ref="D339:D344"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="A316:A322"/>
-    <mergeCell ref="B316:B322"/>
-    <mergeCell ref="C316:C322"/>
-    <mergeCell ref="B323:B329"/>
-    <mergeCell ref="C323:C329"/>
-    <mergeCell ref="A323:A329"/>
-    <mergeCell ref="C273:C279"/>
-    <mergeCell ref="D273:D279"/>
-    <mergeCell ref="A273:A279"/>
-    <mergeCell ref="B273:B279"/>
-    <mergeCell ref="A280:A287"/>
-    <mergeCell ref="B280:B287"/>
-    <mergeCell ref="C280:C287"/>
-    <mergeCell ref="D280:D287"/>
-    <mergeCell ref="B288:B298"/>
-    <mergeCell ref="C288:C298"/>
-    <mergeCell ref="D288:D298"/>
-    <mergeCell ref="C306:C315"/>
-    <mergeCell ref="A288:A298"/>
-    <mergeCell ref="A299:A305"/>
-    <mergeCell ref="C259:C267"/>
-    <mergeCell ref="A246:A252"/>
-    <mergeCell ref="A253:A258"/>
-    <mergeCell ref="B253:B258"/>
-    <mergeCell ref="C253:C258"/>
-    <mergeCell ref="A259:A267"/>
-    <mergeCell ref="B259:B267"/>
-    <mergeCell ref="B246:B252"/>
-    <mergeCell ref="C246:C252"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="C169:C174"/>
-    <mergeCell ref="A169:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="A233:A240"/>
-    <mergeCell ref="B226:B232"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A73:A84"/>
-    <mergeCell ref="B73:B84"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C73:C84"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="B61:B72"/>
-    <mergeCell ref="C61:C72"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="C268:C272"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="C185:C189"/>
-    <mergeCell ref="D185:D189"/>
-    <mergeCell ref="B190:B197"/>
-    <mergeCell ref="C190:C197"/>
-    <mergeCell ref="D190:D197"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="D198:D202"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A226:A232"/>
-    <mergeCell ref="C111:C121"/>
-    <mergeCell ref="B233:B240"/>
-    <mergeCell ref="C233:C240"/>
-    <mergeCell ref="C122:C134"/>
-    <mergeCell ref="C203:C207"/>
-    <mergeCell ref="D203:D207"/>
-    <mergeCell ref="A210:A216"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="B85:B92"/>
-    <mergeCell ref="C85:C92"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="B101:B110"/>
-    <mergeCell ref="C101:C110"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="D210:D216"/>
-    <mergeCell ref="A217:A225"/>
-    <mergeCell ref="B217:B225"/>
-    <mergeCell ref="C217:C225"/>
-    <mergeCell ref="B203:B207"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="B135:B146"/>
-    <mergeCell ref="C135:C146"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="A135:A146"/>
-    <mergeCell ref="A147:A157"/>
-    <mergeCell ref="B147:B157"/>
-    <mergeCell ref="C147:C157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="A111:A121"/>
-    <mergeCell ref="B111:B121"/>
-    <mergeCell ref="A122:A134"/>
-    <mergeCell ref="B122:B134"/>
+    <mergeCell ref="A376:A382"/>
+    <mergeCell ref="B376:B382"/>
+    <mergeCell ref="C376:C382"/>
+    <mergeCell ref="A383:A390"/>
+    <mergeCell ref="B383:B390"/>
+    <mergeCell ref="C383:C390"/>
+    <mergeCell ref="A391:A397"/>
+    <mergeCell ref="B391:B397"/>
+    <mergeCell ref="C391:C397"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC9F4E-D90A-4BF1-9D07-264966BD658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF7B1F-05D4-4CC3-8F1D-637C81B91F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="367">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -329,13 +329,6 @@
   </si>
   <si>
     <t>2. Verify that user is routed to advanced search options page</t>
-  </si>
-  <si>
-    <t>3. Verify that there are 4 ways to search as below
-*Advanced Title search
-*Advanced Name search
-*Advanced Collaborations
-*Search within a Topic</t>
   </si>
   <si>
     <t>The goal is to verify that advanced search option is present</t>
@@ -972,9 +965,6 @@
     <t>When link is pasted the following link should appear 'https://www.imdb.com/chart/top/'</t>
   </si>
   <si>
-    <t>Scroll down to end and confirm that 250 items are availabe</t>
-  </si>
-  <si>
     <t>Exactly four ways are displayed</t>
   </si>
   <si>
@@ -1199,6 +1189,16 @@
   </si>
   <si>
     <t>Movies are sorted in ascending order i.e top movie has the most IMDb ratings</t>
+  </si>
+  <si>
+    <t>1. User is on IMDb homepage</t>
+  </si>
+  <si>
+    <t>3. Verify that there are 4 ways to search as below
+*Advanced Title Search
+*Advanced Name Search
+*Search Collaborations
+*Search Within a Topic</t>
   </si>
 </sst>
 </file>
@@ -2589,27 +2589,166 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2619,50 +2758,48 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2674,143 +2811,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3034,8 +3034,8 @@
   <dimension ref="A1:T649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3083,30 +3083,30 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="233" t="s">
+      <c r="D3" s="184" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="3"/>
@@ -3125,12 +3125,12 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="208"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="233"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="3"/>
@@ -3149,12 +3149,12 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="208"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="233"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="3"/>
@@ -3173,12 +3173,12 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="208"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="233"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="3"/>
@@ -3197,12 +3197,12 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="208"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="233"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="3"/>
@@ -3221,12 +3221,12 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="208"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="233"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="3"/>
@@ -3245,12 +3245,12 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="208"/>
-      <c r="B9" s="216"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="233"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="184"/>
       <c r="E9" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>59</v>
@@ -3271,10 +3271,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="208"/>
-      <c r="B10" s="216"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="76"/>
       <c r="F10" s="78"/>
       <c r="G10" s="3"/>
@@ -3293,10 +3293,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" s="71" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="222"/>
-      <c r="B11" s="224"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="234"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="185"/>
       <c r="E11" s="67"/>
       <c r="F11" s="68"/>
       <c r="G11" s="69"/>
@@ -3315,20 +3315,20 @@
       <c r="T11" s="70"/>
     </row>
     <row r="12" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="223" t="s">
+      <c r="B12" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="217" t="s">
+      <c r="C12" s="192" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
@@ -3347,12 +3347,12 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="208"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="250"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -3371,12 +3371,12 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="208"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="251"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="177"/>
       <c r="E14" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="3"/>
@@ -3395,12 +3395,12 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="208"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="251"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="177"/>
       <c r="E15" s="79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
@@ -3419,12 +3419,12 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="208"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="251"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="177"/>
       <c r="E16" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3443,12 +3443,12 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="208"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="251"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="177"/>
       <c r="E17" s="149" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -3467,12 +3467,12 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="208"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="251"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="177"/>
       <c r="E18" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>59</v>
@@ -3493,10 +3493,10 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="235"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="252"/>
+      <c r="A19" s="212"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="88"/>
       <c r="F19" s="86" t="s">
         <v>63</v>
@@ -3517,20 +3517,20 @@
       <c r="T19" s="70"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="217" t="s">
+      <c r="C20" s="192" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3"/>
@@ -3549,14 +3549,14 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="208"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="211"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="193"/>
       <c r="D21" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -3575,14 +3575,14 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="208"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="211"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="193"/>
       <c r="D22" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
@@ -3601,12 +3601,12 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="208"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="194"/>
+      <c r="A23" s="187"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="173"/>
       <c r="E23" s="85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
@@ -3625,10 +3625,10 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="208"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="195"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="4"/>
@@ -3647,10 +3647,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="208"/>
-      <c r="B25" s="216"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="195"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="4"/>
@@ -3669,10 +3669,10 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="208"/>
-      <c r="B26" s="224"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="249"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="88"/>
       <c r="F26" s="89"/>
       <c r="G26" s="4"/>
@@ -3691,20 +3691,20 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="221" t="s">
+      <c r="A27" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="236" t="s">
+      <c r="B27" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="239" t="s">
-        <v>271</v>
+      <c r="C27" s="216" t="s">
+        <v>270</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="4"/>
@@ -3723,14 +3723,14 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A28" s="208"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="240"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="217"/>
       <c r="D28" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -3749,14 +3749,14 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="208"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="240"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="217"/>
       <c r="D29" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -3775,9 +3775,9 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="222"/>
-      <c r="B30" s="238"/>
-      <c r="C30" s="241"/>
+      <c r="A30" s="188"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="218"/>
       <c r="D30" s="96"/>
       <c r="E30" s="91"/>
       <c r="F30" s="92"/>
@@ -3797,18 +3797,18 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="221" t="s">
+      <c r="A31" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="245" t="s">
-        <v>270</v>
+      <c r="C31" s="209" t="s">
+        <v>269</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="129" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="4"/>
@@ -3827,14 +3827,14 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="208"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="211"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="193"/>
       <c r="D32" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
@@ -3853,14 +3853,14 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="208"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="211"/>
+      <c r="A33" s="187"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="193"/>
       <c r="D33" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="4"/>
@@ -3879,13 +3879,13 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="208"/>
-      <c r="B34" s="216"/>
-      <c r="C34" s="211"/>
+      <c r="A34" s="187"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="193"/>
       <c r="D34" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="242"/>
+      <c r="E34" s="180"/>
       <c r="F34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3903,13 +3903,13 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="208"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="211"/>
+      <c r="A35" s="187"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="193"/>
       <c r="D35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="243"/>
+      <c r="E35" s="181"/>
       <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3927,11 +3927,11 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="208"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="244"/>
+      <c r="A36" s="187"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="182"/>
       <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3949,10 +3949,10 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="222"/>
-      <c r="B37" s="224"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="196"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="94"/>
       <c r="F37" s="95"/>
       <c r="G37" s="4"/>
@@ -3971,14 +3971,14 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="221" t="s">
+      <c r="A38" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="223" t="s">
+      <c r="B38" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="217" t="s">
-        <v>269</v>
+      <c r="C38" s="192" t="s">
+        <v>268</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="17"/>
@@ -3999,12 +3999,12 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="208"/>
-      <c r="B39" s="216"/>
-      <c r="C39" s="211"/>
+      <c r="A39" s="187"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="193"/>
       <c r="D39" s="81"/>
       <c r="E39" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="4"/>
@@ -4023,14 +4023,14 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="208"/>
-      <c r="B40" s="216"/>
-      <c r="C40" s="211"/>
+      <c r="A40" s="187"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="193"/>
       <c r="D40" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="4"/>
@@ -4049,14 +4049,14 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A41" s="208"/>
-      <c r="B41" s="216"/>
-      <c r="C41" s="211"/>
+      <c r="A41" s="187"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="193"/>
       <c r="D41" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="4"/>
@@ -4075,9 +4075,9 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="208"/>
-      <c r="B42" s="216"/>
-      <c r="C42" s="211"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="193"/>
       <c r="D42" s="80" t="s">
         <v>68</v>
       </c>
@@ -4099,9 +4099,9 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="208"/>
-      <c r="B43" s="216"/>
-      <c r="C43" s="211"/>
+      <c r="A43" s="187"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="193"/>
       <c r="D43" s="81"/>
       <c r="E43" s="13"/>
       <c r="F43" s="14"/>
@@ -4121,9 +4121,9 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="222"/>
-      <c r="B44" s="224"/>
-      <c r="C44" s="218"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="194"/>
       <c r="D44" s="100"/>
       <c r="E44" s="94"/>
       <c r="F44" s="16"/>
@@ -4143,14 +4143,14 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="221" t="s">
+      <c r="A45" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="223" t="s">
-        <v>304</v>
-      </c>
-      <c r="C45" s="217" t="s">
-        <v>305</v>
+      <c r="B45" s="189" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" s="192" t="s">
+        <v>303</v>
       </c>
       <c r="D45" s="114"/>
       <c r="E45" s="17"/>
@@ -4171,14 +4171,14 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="208"/>
-      <c r="B46" s="216"/>
-      <c r="C46" s="211"/>
+      <c r="A46" s="187"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="193"/>
       <c r="D46" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="4"/>
@@ -4197,14 +4197,14 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="208"/>
-      <c r="B47" s="216"/>
-      <c r="C47" s="211"/>
+      <c r="A47" s="187"/>
+      <c r="B47" s="190"/>
+      <c r="C47" s="193"/>
       <c r="D47" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="4"/>
@@ -4223,14 +4223,14 @@
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="208"/>
-      <c r="B48" s="216"/>
-      <c r="C48" s="211"/>
+      <c r="A48" s="187"/>
+      <c r="B48" s="190"/>
+      <c r="C48" s="193"/>
       <c r="D48" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="4"/>
@@ -4249,9 +4249,9 @@
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="208"/>
-      <c r="B49" s="216"/>
-      <c r="C49" s="211"/>
+      <c r="A49" s="187"/>
+      <c r="B49" s="190"/>
+      <c r="C49" s="193"/>
       <c r="D49" s="81"/>
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
@@ -4271,9 +4271,9 @@
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="222"/>
-      <c r="B50" s="224"/>
-      <c r="C50" s="218"/>
+      <c r="A50" s="188"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="194"/>
       <c r="D50" s="100"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
@@ -4293,14 +4293,14 @@
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="221" t="s">
+      <c r="A51" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="223" t="s">
+      <c r="B51" s="189" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="217" t="s">
-        <v>268</v>
+      <c r="C51" s="192" t="s">
+        <v>267</v>
       </c>
       <c r="D51" s="114"/>
       <c r="E51" s="17"/>
@@ -4321,12 +4321,12 @@
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="208"/>
-      <c r="B52" s="216"/>
-      <c r="C52" s="211"/>
+      <c r="A52" s="187"/>
+      <c r="B52" s="190"/>
+      <c r="C52" s="193"/>
       <c r="D52" s="81"/>
       <c r="E52" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
@@ -4345,14 +4345,14 @@
       <c r="T52" s="4"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="208"/>
-      <c r="B53" s="216"/>
-      <c r="C53" s="211"/>
+      <c r="A53" s="187"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="193"/>
       <c r="D53" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="4"/>
@@ -4371,14 +4371,14 @@
       <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="208"/>
-      <c r="B54" s="216"/>
-      <c r="C54" s="211"/>
+      <c r="A54" s="187"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="193"/>
       <c r="D54" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="4"/>
@@ -4397,14 +4397,14 @@
       <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="208"/>
-      <c r="B55" s="216"/>
-      <c r="C55" s="211"/>
+      <c r="A55" s="187"/>
+      <c r="B55" s="190"/>
+      <c r="C55" s="193"/>
       <c r="D55" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="4"/>
@@ -4423,11 +4423,11 @@
       <c r="T55" s="4"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="208"/>
-      <c r="B56" s="216"/>
-      <c r="C56" s="211"/>
+      <c r="A56" s="187"/>
+      <c r="B56" s="190"/>
+      <c r="C56" s="193"/>
       <c r="D56" s="81" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="14"/>
@@ -4447,11 +4447,11 @@
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="208"/>
-      <c r="B57" s="216"/>
-      <c r="C57" s="211"/>
-      <c r="D57" s="194"/>
-      <c r="E57" s="242"/>
+      <c r="A57" s="187"/>
+      <c r="B57" s="190"/>
+      <c r="C57" s="193"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="180"/>
       <c r="F57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4469,11 +4469,11 @@
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="208"/>
-      <c r="B58" s="216"/>
-      <c r="C58" s="211"/>
-      <c r="D58" s="195"/>
-      <c r="E58" s="243"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="190"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="174"/>
+      <c r="E58" s="181"/>
       <c r="F58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4491,11 +4491,11 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="208"/>
-      <c r="B59" s="216"/>
-      <c r="C59" s="211"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="244"/>
+      <c r="A59" s="187"/>
+      <c r="B59" s="190"/>
+      <c r="C59" s="193"/>
+      <c r="D59" s="208"/>
+      <c r="E59" s="182"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4513,9 +4513,9 @@
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="222"/>
-      <c r="B60" s="224"/>
-      <c r="C60" s="218"/>
+      <c r="A60" s="188"/>
+      <c r="B60" s="191"/>
+      <c r="C60" s="194"/>
       <c r="D60" s="101"/>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
@@ -4535,14 +4535,14 @@
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="221" t="s">
+      <c r="A61" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="223" t="s">
+      <c r="B61" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="217" t="s">
-        <v>272</v>
+      <c r="C61" s="192" t="s">
+        <v>271</v>
       </c>
       <c r="D61" s="82"/>
       <c r="E61" s="17"/>
@@ -4563,9 +4563,9 @@
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="208"/>
-      <c r="B62" s="216"/>
-      <c r="C62" s="211"/>
+      <c r="A62" s="187"/>
+      <c r="B62" s="190"/>
+      <c r="C62" s="193"/>
       <c r="D62" s="82" t="s">
         <v>66</v>
       </c>
@@ -4589,14 +4589,14 @@
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="132" x14ac:dyDescent="0.3">
-      <c r="A63" s="208"/>
-      <c r="B63" s="216"/>
-      <c r="C63" s="211"/>
+      <c r="A63" s="187"/>
+      <c r="B63" s="190"/>
+      <c r="C63" s="193"/>
       <c r="D63" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E63" s="113" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="4"/>
@@ -4615,11 +4615,11 @@
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="208"/>
-      <c r="B64" s="216"/>
-      <c r="C64" s="211"/>
+      <c r="A64" s="187"/>
+      <c r="B64" s="190"/>
+      <c r="C64" s="193"/>
       <c r="D64" s="80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -4639,10 +4639,10 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="208"/>
-      <c r="B65" s="216"/>
-      <c r="C65" s="211"/>
-      <c r="D65" s="194"/>
+      <c r="A65" s="187"/>
+      <c r="B65" s="190"/>
+      <c r="C65" s="193"/>
+      <c r="D65" s="173"/>
       <c r="E65" s="13"/>
       <c r="F65" s="14"/>
       <c r="G65" s="4"/>
@@ -4661,10 +4661,10 @@
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="208"/>
-      <c r="B66" s="216"/>
-      <c r="C66" s="211"/>
-      <c r="D66" s="195"/>
+      <c r="A66" s="187"/>
+      <c r="B66" s="190"/>
+      <c r="C66" s="193"/>
+      <c r="D66" s="174"/>
       <c r="E66" s="13"/>
       <c r="F66" s="14"/>
       <c r="G66" s="4"/>
@@ -4683,10 +4683,10 @@
       <c r="T66" s="4"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="208"/>
-      <c r="B67" s="216"/>
-      <c r="C67" s="211"/>
-      <c r="D67" s="198"/>
+      <c r="A67" s="187"/>
+      <c r="B67" s="190"/>
+      <c r="C67" s="193"/>
+      <c r="D67" s="208"/>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
       <c r="G67" s="4"/>
@@ -4705,9 +4705,9 @@
       <c r="T67" s="4"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="208"/>
-      <c r="B68" s="216"/>
-      <c r="C68" s="211"/>
+      <c r="A68" s="187"/>
+      <c r="B68" s="190"/>
+      <c r="C68" s="193"/>
       <c r="D68" s="82"/>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
@@ -4727,9 +4727,9 @@
       <c r="T68" s="4"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="208"/>
-      <c r="B69" s="216"/>
-      <c r="C69" s="211"/>
+      <c r="A69" s="187"/>
+      <c r="B69" s="190"/>
+      <c r="C69" s="193"/>
       <c r="D69" s="81"/>
       <c r="E69" s="13"/>
       <c r="F69" s="14"/>
@@ -4749,9 +4749,9 @@
       <c r="T69" s="4"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="208"/>
-      <c r="B70" s="216"/>
-      <c r="C70" s="211"/>
+      <c r="A70" s="187"/>
+      <c r="B70" s="190"/>
+      <c r="C70" s="193"/>
       <c r="D70" s="80"/>
       <c r="E70" s="13"/>
       <c r="F70" s="14"/>
@@ -4771,9 +4771,9 @@
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="208"/>
-      <c r="B71" s="216"/>
-      <c r="C71" s="211"/>
+      <c r="A71" s="187"/>
+      <c r="B71" s="190"/>
+      <c r="C71" s="193"/>
       <c r="D71" s="81"/>
       <c r="E71" s="13"/>
       <c r="F71" s="14"/>
@@ -4793,9 +4793,9 @@
       <c r="T71" s="4"/>
     </row>
     <row r="72" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="222"/>
-      <c r="B72" s="224"/>
-      <c r="C72" s="218"/>
+      <c r="A72" s="188"/>
+      <c r="B72" s="191"/>
+      <c r="C72" s="194"/>
       <c r="D72" s="102"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -4815,14 +4815,14 @@
       <c r="T72" s="4"/>
     </row>
     <row r="73" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="221" t="s">
+      <c r="A73" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="223" t="s">
+      <c r="B73" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="217" t="s">
-        <v>273</v>
+      <c r="C73" s="192" t="s">
+        <v>272</v>
       </c>
       <c r="D73" s="114"/>
       <c r="E73" s="17"/>
@@ -4843,9 +4843,9 @@
       <c r="T73" s="4"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="208"/>
-      <c r="B74" s="216"/>
-      <c r="C74" s="211"/>
+      <c r="A74" s="187"/>
+      <c r="B74" s="190"/>
+      <c r="C74" s="193"/>
       <c r="D74" s="82" t="s">
         <v>66</v>
       </c>
@@ -4869,11 +4869,11 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="208"/>
-      <c r="B75" s="216"/>
-      <c r="C75" s="211"/>
+      <c r="A75" s="187"/>
+      <c r="B75" s="190"/>
+      <c r="C75" s="193"/>
       <c r="D75" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>79</v>
@@ -4895,11 +4895,11 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="208"/>
-      <c r="B76" s="216"/>
-      <c r="C76" s="211"/>
+      <c r="A76" s="187"/>
+      <c r="B76" s="190"/>
+      <c r="C76" s="193"/>
       <c r="D76" s="80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>80</v>
@@ -4921,9 +4921,9 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="208"/>
-      <c r="B77" s="216"/>
-      <c r="C77" s="211"/>
+      <c r="A77" s="187"/>
+      <c r="B77" s="190"/>
+      <c r="C77" s="193"/>
       <c r="D77" s="81"/>
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
@@ -4943,10 +4943,10 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="208"/>
-      <c r="B78" s="216"/>
-      <c r="C78" s="211"/>
-      <c r="D78" s="194"/>
+      <c r="A78" s="187"/>
+      <c r="B78" s="190"/>
+      <c r="C78" s="193"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
       <c r="G78" s="4"/>
@@ -4965,10 +4965,10 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="208"/>
-      <c r="B79" s="216"/>
-      <c r="C79" s="211"/>
-      <c r="D79" s="195"/>
+      <c r="A79" s="187"/>
+      <c r="B79" s="190"/>
+      <c r="C79" s="193"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
@@ -4987,10 +4987,10 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="208"/>
-      <c r="B80" s="216"/>
-      <c r="C80" s="211"/>
-      <c r="D80" s="195"/>
+      <c r="A80" s="187"/>
+      <c r="B80" s="190"/>
+      <c r="C80" s="193"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
       <c r="G80" s="4"/>
@@ -5009,10 +5009,10 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="208"/>
-      <c r="B81" s="216"/>
-      <c r="C81" s="211"/>
-      <c r="D81" s="195"/>
+      <c r="A81" s="187"/>
+      <c r="B81" s="190"/>
+      <c r="C81" s="193"/>
+      <c r="D81" s="174"/>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
       <c r="G81" s="4"/>
@@ -5031,10 +5031,10 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="208"/>
-      <c r="B82" s="216"/>
-      <c r="C82" s="211"/>
-      <c r="D82" s="198"/>
+      <c r="A82" s="187"/>
+      <c r="B82" s="190"/>
+      <c r="C82" s="193"/>
+      <c r="D82" s="208"/>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
       <c r="G82" s="4"/>
@@ -5053,9 +5053,9 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="208"/>
-      <c r="B83" s="216"/>
-      <c r="C83" s="211"/>
+      <c r="A83" s="187"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="193"/>
       <c r="D83" s="81"/>
       <c r="E83" s="13"/>
       <c r="F83" s="14"/>
@@ -5075,9 +5075,9 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="222"/>
-      <c r="B84" s="224"/>
-      <c r="C84" s="218"/>
+      <c r="A84" s="188"/>
+      <c r="B84" s="191"/>
+      <c r="C84" s="194"/>
       <c r="D84" s="100"/>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
@@ -5097,14 +5097,14 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="221" t="s">
+      <c r="A85" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="223" t="s">
+      <c r="B85" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="217" t="s">
-        <v>274</v>
+      <c r="C85" s="192" t="s">
+        <v>273</v>
       </c>
       <c r="D85" s="82"/>
       <c r="E85" s="17"/>
@@ -5125,9 +5125,9 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="208"/>
-      <c r="B86" s="216"/>
-      <c r="C86" s="211"/>
+      <c r="A86" s="187"/>
+      <c r="B86" s="190"/>
+      <c r="C86" s="193"/>
       <c r="D86" s="82" t="s">
         <v>66</v>
       </c>
@@ -5151,11 +5151,11 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="208"/>
-      <c r="B87" s="216"/>
-      <c r="C87" s="211"/>
+      <c r="A87" s="187"/>
+      <c r="B87" s="190"/>
+      <c r="C87" s="193"/>
       <c r="D87" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>79</v>
@@ -5177,11 +5177,11 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="208"/>
-      <c r="B88" s="216"/>
-      <c r="C88" s="211"/>
+      <c r="A88" s="187"/>
+      <c r="B88" s="190"/>
+      <c r="C88" s="193"/>
       <c r="D88" s="80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>82</v>
@@ -5203,9 +5203,9 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="208"/>
-      <c r="B89" s="216"/>
-      <c r="C89" s="211"/>
+      <c r="A89" s="187"/>
+      <c r="B89" s="190"/>
+      <c r="C89" s="193"/>
       <c r="D89" s="81"/>
       <c r="E89" s="13" t="s">
         <v>83</v>
@@ -5227,9 +5227,9 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="208"/>
-      <c r="B90" s="216"/>
-      <c r="C90" s="211"/>
+      <c r="A90" s="187"/>
+      <c r="B90" s="190"/>
+      <c r="C90" s="193"/>
       <c r="D90" s="105"/>
       <c r="E90" s="63"/>
       <c r="F90" s="14"/>
@@ -5249,9 +5249,9 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="208"/>
-      <c r="B91" s="216"/>
-      <c r="C91" s="211"/>
+      <c r="A91" s="187"/>
+      <c r="B91" s="190"/>
+      <c r="C91" s="193"/>
       <c r="D91" s="106"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
@@ -5271,9 +5271,9 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="222"/>
-      <c r="B92" s="224"/>
-      <c r="C92" s="218"/>
+      <c r="A92" s="188"/>
+      <c r="B92" s="191"/>
+      <c r="C92" s="194"/>
       <c r="D92" s="107"/>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -5293,14 +5293,14 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="221" t="s">
+      <c r="A93" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="223" t="s">
+      <c r="B93" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="217" t="s">
-        <v>365</v>
+      <c r="C93" s="192" t="s">
+        <v>363</v>
       </c>
       <c r="D93" s="114"/>
       <c r="E93" s="20"/>
@@ -5321,9 +5321,9 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="208"/>
-      <c r="B94" s="216"/>
-      <c r="C94" s="211"/>
+      <c r="A94" s="187"/>
+      <c r="B94" s="190"/>
+      <c r="C94" s="193"/>
       <c r="D94" s="82" t="s">
         <v>66</v>
       </c>
@@ -5347,11 +5347,11 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="208"/>
-      <c r="B95" s="216"/>
-      <c r="C95" s="211"/>
+      <c r="A95" s="187"/>
+      <c r="B95" s="190"/>
+      <c r="C95" s="193"/>
       <c r="D95" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>79</v>
@@ -5373,14 +5373,14 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="208"/>
-      <c r="B96" s="216"/>
-      <c r="C96" s="211"/>
+      <c r="A96" s="187"/>
+      <c r="B96" s="190"/>
+      <c r="C96" s="193"/>
       <c r="D96" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="E96" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="4"/>
@@ -5399,9 +5399,9 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="208"/>
-      <c r="B97" s="216"/>
-      <c r="C97" s="211"/>
+      <c r="A97" s="187"/>
+      <c r="B97" s="190"/>
+      <c r="C97" s="193"/>
       <c r="D97" s="105"/>
       <c r="E97" s="13" t="s">
         <v>83</v>
@@ -5423,9 +5423,9 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="208"/>
-      <c r="B98" s="216"/>
-      <c r="C98" s="211"/>
+      <c r="A98" s="187"/>
+      <c r="B98" s="190"/>
+      <c r="C98" s="193"/>
       <c r="D98" s="104"/>
       <c r="E98" s="22"/>
       <c r="F98" s="23"/>
@@ -5445,9 +5445,9 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="208"/>
-      <c r="B99" s="216"/>
-      <c r="C99" s="211"/>
+      <c r="A99" s="187"/>
+      <c r="B99" s="190"/>
+      <c r="C99" s="193"/>
       <c r="D99" s="99"/>
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
@@ -5467,9 +5467,9 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="222"/>
-      <c r="B100" s="224"/>
-      <c r="C100" s="218"/>
+      <c r="A100" s="188"/>
+      <c r="B100" s="191"/>
+      <c r="C100" s="194"/>
       <c r="D100" s="108"/>
       <c r="E100" s="24"/>
       <c r="F100" s="25"/>
@@ -5489,14 +5489,14 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="221" t="s">
+      <c r="A101" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="223" t="s">
+      <c r="B101" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="217" t="s">
-        <v>364</v>
+      <c r="C101" s="192" t="s">
+        <v>362</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="17"/>
@@ -5517,9 +5517,9 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="208"/>
-      <c r="B102" s="216"/>
-      <c r="C102" s="211"/>
+      <c r="A102" s="187"/>
+      <c r="B102" s="190"/>
+      <c r="C102" s="193"/>
       <c r="D102" s="81"/>
       <c r="E102" s="13" t="s">
         <v>94</v>
@@ -5541,9 +5541,9 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="208"/>
-      <c r="B103" s="216"/>
-      <c r="C103" s="211"/>
+      <c r="A103" s="187"/>
+      <c r="B103" s="190"/>
+      <c r="C103" s="193"/>
       <c r="D103" s="82" t="s">
         <v>66</v>
       </c>
@@ -5567,14 +5567,14 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="208"/>
-      <c r="B104" s="216"/>
-      <c r="C104" s="211"/>
+      <c r="A104" s="187"/>
+      <c r="B104" s="190"/>
+      <c r="C104" s="193"/>
       <c r="D104" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="4"/>
@@ -5593,17 +5593,17 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="208"/>
-      <c r="B105" s="216"/>
-      <c r="C105" s="211"/>
+      <c r="A105" s="187"/>
+      <c r="B105" s="190"/>
+      <c r="C105" s="193"/>
       <c r="D105" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E105" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F105" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5621,9 +5621,9 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="208"/>
-      <c r="B106" s="216"/>
-      <c r="C106" s="211"/>
+      <c r="A106" s="187"/>
+      <c r="B106" s="190"/>
+      <c r="C106" s="193"/>
       <c r="D106" s="82"/>
       <c r="E106" s="13"/>
       <c r="F106" s="14"/>
@@ -5643,9 +5643,9 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="208"/>
-      <c r="B107" s="216"/>
-      <c r="C107" s="211"/>
+      <c r="A107" s="187"/>
+      <c r="B107" s="190"/>
+      <c r="C107" s="193"/>
       <c r="D107" s="81"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
@@ -5665,9 +5665,9 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="208"/>
-      <c r="B108" s="216"/>
-      <c r="C108" s="211"/>
+      <c r="A108" s="187"/>
+      <c r="B108" s="190"/>
+      <c r="C108" s="193"/>
       <c r="D108" s="80"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
@@ -5687,9 +5687,9 @@
       <c r="T108" s="4"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="208"/>
-      <c r="B109" s="216"/>
-      <c r="C109" s="211"/>
+      <c r="A109" s="187"/>
+      <c r="B109" s="190"/>
+      <c r="C109" s="193"/>
       <c r="D109" s="105"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
@@ -5709,9 +5709,9 @@
       <c r="T109" s="4"/>
     </row>
     <row r="110" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="222"/>
-      <c r="B110" s="224"/>
-      <c r="C110" s="218"/>
+      <c r="A110" s="188"/>
+      <c r="B110" s="191"/>
+      <c r="C110" s="194"/>
       <c r="D110" s="109"/>
       <c r="E110" s="15"/>
       <c r="F110" s="16"/>
@@ -5731,14 +5731,14 @@
       <c r="T110" s="4"/>
     </row>
     <row r="111" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="221" t="s">
+      <c r="A111" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="223" t="s">
+      <c r="B111" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="217" t="s">
-        <v>363</v>
+      <c r="C111" s="192" t="s">
+        <v>361</v>
       </c>
       <c r="D111" s="82"/>
       <c r="E111" s="17"/>
@@ -5759,9 +5759,9 @@
       <c r="T111" s="4"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="208"/>
-      <c r="B112" s="216"/>
-      <c r="C112" s="211"/>
+      <c r="A112" s="187"/>
+      <c r="B112" s="190"/>
+      <c r="C112" s="193"/>
       <c r="D112" s="81"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
@@ -5781,9 +5781,9 @@
       <c r="T112" s="4"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="208"/>
-      <c r="B113" s="216"/>
-      <c r="C113" s="211"/>
+      <c r="A113" s="187"/>
+      <c r="B113" s="190"/>
+      <c r="C113" s="193"/>
       <c r="D113" s="82" t="s">
         <v>66</v>
       </c>
@@ -5807,9 +5807,9 @@
       <c r="T113" s="4"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="208"/>
-      <c r="B114" s="216"/>
-      <c r="C114" s="211"/>
+      <c r="A114" s="187"/>
+      <c r="B114" s="190"/>
+      <c r="C114" s="193"/>
       <c r="D114" s="81" t="s">
         <v>67</v>
       </c>
@@ -5833,14 +5833,14 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="208"/>
-      <c r="B115" s="216"/>
-      <c r="C115" s="211"/>
+      <c r="A115" s="187"/>
+      <c r="B115" s="190"/>
+      <c r="C115" s="193"/>
       <c r="D115" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="4"/>
@@ -5859,15 +5859,15 @@
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="208"/>
-      <c r="B116" s="216"/>
-      <c r="C116" s="211"/>
+      <c r="A116" s="187"/>
+      <c r="B116" s="190"/>
+      <c r="C116" s="193"/>
       <c r="D116" s="81"/>
       <c r="E116" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F116" s="162" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5885,9 +5885,9 @@
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="208"/>
-      <c r="B117" s="216"/>
-      <c r="C117" s="211"/>
+      <c r="A117" s="187"/>
+      <c r="B117" s="190"/>
+      <c r="C117" s="193"/>
       <c r="D117" s="80"/>
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
@@ -5907,9 +5907,9 @@
       <c r="T117" s="4"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="208"/>
-      <c r="B118" s="216"/>
-      <c r="C118" s="211"/>
+      <c r="A118" s="187"/>
+      <c r="B118" s="190"/>
+      <c r="C118" s="193"/>
       <c r="D118" s="82"/>
       <c r="E118" s="13"/>
       <c r="F118" s="14"/>
@@ -5929,9 +5929,9 @@
       <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="208"/>
-      <c r="B119" s="216"/>
-      <c r="C119" s="211"/>
+      <c r="A119" s="187"/>
+      <c r="B119" s="190"/>
+      <c r="C119" s="193"/>
       <c r="D119" s="82"/>
       <c r="E119" s="13"/>
       <c r="F119" s="14"/>
@@ -5951,9 +5951,9 @@
       <c r="T119" s="4"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="208"/>
-      <c r="B120" s="216"/>
-      <c r="C120" s="211"/>
+      <c r="A120" s="187"/>
+      <c r="B120" s="190"/>
+      <c r="C120" s="193"/>
       <c r="D120" s="103"/>
       <c r="E120" s="13"/>
       <c r="F120" s="14"/>
@@ -5973,9 +5973,9 @@
       <c r="T120" s="4"/>
     </row>
     <row r="121" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="222"/>
-      <c r="B121" s="224"/>
-      <c r="C121" s="218"/>
+      <c r="A121" s="188"/>
+      <c r="B121" s="191"/>
+      <c r="C121" s="194"/>
       <c r="D121" s="107"/>
       <c r="E121" s="15"/>
       <c r="F121" s="16"/>
@@ -5995,13 +5995,13 @@
       <c r="T121" s="4"/>
     </row>
     <row r="122" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="221" t="s">
+      <c r="A122" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="223" t="s">
+      <c r="B122" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="C122" s="217" t="s">
+      <c r="C122" s="192" t="s">
         <v>93</v>
       </c>
       <c r="D122" s="82"/>
@@ -6023,9 +6023,9 @@
       <c r="T122" s="4"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="208"/>
-      <c r="B123" s="216"/>
-      <c r="C123" s="211"/>
+      <c r="A123" s="187"/>
+      <c r="B123" s="190"/>
+      <c r="C123" s="193"/>
       <c r="D123" s="81"/>
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
@@ -6045,9 +6045,9 @@
       <c r="T123" s="4"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="208"/>
-      <c r="B124" s="216"/>
-      <c r="C124" s="211"/>
+      <c r="A124" s="187"/>
+      <c r="B124" s="190"/>
+      <c r="C124" s="193"/>
       <c r="D124" s="82" t="s">
         <v>66</v>
       </c>
@@ -6071,9 +6071,9 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="208"/>
-      <c r="B125" s="216"/>
-      <c r="C125" s="211"/>
+      <c r="A125" s="187"/>
+      <c r="B125" s="190"/>
+      <c r="C125" s="193"/>
       <c r="D125" s="81" t="s">
         <v>67</v>
       </c>
@@ -6097,14 +6097,14 @@
       <c r="T125" s="4"/>
     </row>
     <row r="126" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="208"/>
-      <c r="B126" s="216"/>
-      <c r="C126" s="211"/>
+      <c r="A126" s="187"/>
+      <c r="B126" s="190"/>
+      <c r="C126" s="193"/>
       <c r="D126" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="4"/>
@@ -6123,12 +6123,12 @@
       <c r="T126" s="4"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127" s="208"/>
-      <c r="B127" s="216"/>
-      <c r="C127" s="211"/>
+      <c r="A127" s="187"/>
+      <c r="B127" s="190"/>
+      <c r="C127" s="193"/>
       <c r="D127" s="82"/>
       <c r="E127" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="4"/>
@@ -6147,15 +6147,15 @@
       <c r="T127" s="4"/>
     </row>
     <row r="128" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A128" s="208"/>
-      <c r="B128" s="216"/>
-      <c r="C128" s="211"/>
+      <c r="A128" s="187"/>
+      <c r="B128" s="190"/>
+      <c r="C128" s="193"/>
       <c r="D128" s="82"/>
       <c r="E128" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F128" s="162" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -6173,9 +6173,9 @@
       <c r="T128" s="4"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="208"/>
-      <c r="B129" s="216"/>
-      <c r="C129" s="211"/>
+      <c r="A129" s="187"/>
+      <c r="B129" s="190"/>
+      <c r="C129" s="193"/>
       <c r="D129" s="82"/>
       <c r="E129" s="13"/>
       <c r="F129" s="14"/>
@@ -6195,9 +6195,9 @@
       <c r="T129" s="4"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="208"/>
-      <c r="B130" s="216"/>
-      <c r="C130" s="211"/>
+      <c r="A130" s="187"/>
+      <c r="B130" s="190"/>
+      <c r="C130" s="193"/>
       <c r="D130" s="82"/>
       <c r="E130" s="13"/>
       <c r="F130" s="14"/>
@@ -6217,9 +6217,9 @@
       <c r="T130" s="4"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="208"/>
-      <c r="B131" s="216"/>
-      <c r="C131" s="211"/>
+      <c r="A131" s="187"/>
+      <c r="B131" s="190"/>
+      <c r="C131" s="193"/>
       <c r="D131" s="81"/>
       <c r="E131" s="13"/>
       <c r="F131" s="14"/>
@@ -6239,9 +6239,9 @@
       <c r="T131" s="4"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="208"/>
-      <c r="B132" s="216"/>
-      <c r="C132" s="211"/>
+      <c r="A132" s="187"/>
+      <c r="B132" s="190"/>
+      <c r="C132" s="193"/>
       <c r="D132" s="80"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
@@ -6261,9 +6261,9 @@
       <c r="T132" s="4"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133" s="208"/>
-      <c r="B133" s="216"/>
-      <c r="C133" s="211"/>
+      <c r="A133" s="187"/>
+      <c r="B133" s="190"/>
+      <c r="C133" s="193"/>
       <c r="D133" s="103"/>
       <c r="E133" s="13"/>
       <c r="F133" s="14"/>
@@ -6283,9 +6283,9 @@
       <c r="T133" s="4"/>
     </row>
     <row r="134" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="222"/>
-      <c r="B134" s="224"/>
-      <c r="C134" s="218"/>
+      <c r="A134" s="188"/>
+      <c r="B134" s="191"/>
+      <c r="C134" s="194"/>
       <c r="D134" s="107"/>
       <c r="E134" s="15"/>
       <c r="F134" s="16"/>
@@ -6305,13 +6305,13 @@
       <c r="T134" s="4"/>
     </row>
     <row r="135" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="221" t="s">
+      <c r="A135" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="223" t="s">
+      <c r="B135" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="C135" s="217" t="s">
+      <c r="C135" s="192" t="s">
         <v>92</v>
       </c>
       <c r="D135" s="114"/>
@@ -6333,9 +6333,9 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="208"/>
-      <c r="B136" s="216"/>
-      <c r="C136" s="211"/>
+      <c r="A136" s="187"/>
+      <c r="B136" s="190"/>
+      <c r="C136" s="193"/>
       <c r="D136" s="81"/>
       <c r="E136" s="13"/>
       <c r="F136" s="14"/>
@@ -6355,12 +6355,10 @@
       <c r="T136" s="4"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="208"/>
-      <c r="B137" s="216"/>
-      <c r="C137" s="211"/>
-      <c r="D137" s="82" t="s">
-        <v>66</v>
-      </c>
+      <c r="A137" s="187"/>
+      <c r="B137" s="190"/>
+      <c r="C137" s="193"/>
+      <c r="D137" s="82"/>
       <c r="E137" s="13" t="s">
         <v>94</v>
       </c>
@@ -6381,12 +6379,10 @@
       <c r="T137" s="4"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="208"/>
-      <c r="B138" s="216"/>
-      <c r="C138" s="211"/>
-      <c r="D138" s="81" t="s">
-        <v>275</v>
-      </c>
+      <c r="A138" s="187"/>
+      <c r="B138" s="190"/>
+      <c r="C138" s="193"/>
+      <c r="D138" s="81"/>
       <c r="E138" s="13" t="s">
         <v>79</v>
       </c>
@@ -6407,11 +6403,11 @@
       <c r="T138" s="4"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="208"/>
-      <c r="B139" s="216"/>
-      <c r="C139" s="211"/>
+      <c r="A139" s="187"/>
+      <c r="B139" s="190"/>
+      <c r="C139" s="193"/>
       <c r="D139" s="80" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>91</v>
@@ -6433,9 +6429,9 @@
       <c r="T139" s="4"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="208"/>
-      <c r="B140" s="216"/>
-      <c r="C140" s="211"/>
+      <c r="A140" s="187"/>
+      <c r="B140" s="190"/>
+      <c r="C140" s="193"/>
       <c r="D140" s="82"/>
       <c r="E140" s="13" t="s">
         <v>90</v>
@@ -6457,15 +6453,15 @@
       <c r="T140" s="4"/>
     </row>
     <row r="141" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A141" s="208"/>
-      <c r="B141" s="216"/>
-      <c r="C141" s="211"/>
+      <c r="A141" s="187"/>
+      <c r="B141" s="190"/>
+      <c r="C141" s="193"/>
       <c r="D141" s="81"/>
       <c r="E141" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F141" s="162" t="s">
         <v>291</v>
-      </c>
-      <c r="F141" s="162" t="s">
-        <v>292</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -6483,9 +6479,9 @@
       <c r="T141" s="4"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="208"/>
-      <c r="B142" s="216"/>
-      <c r="C142" s="211"/>
+      <c r="A142" s="187"/>
+      <c r="B142" s="190"/>
+      <c r="C142" s="193"/>
       <c r="D142" s="80"/>
       <c r="E142" s="13"/>
       <c r="F142" s="14"/>
@@ -6505,9 +6501,9 @@
       <c r="T142" s="4"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="208"/>
-      <c r="B143" s="216"/>
-      <c r="C143" s="211"/>
+      <c r="A143" s="187"/>
+      <c r="B143" s="190"/>
+      <c r="C143" s="193"/>
       <c r="D143" s="82"/>
       <c r="E143" s="13"/>
       <c r="F143" s="14"/>
@@ -6527,9 +6523,9 @@
       <c r="T143" s="4"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="208"/>
-      <c r="B144" s="216"/>
-      <c r="C144" s="211"/>
+      <c r="A144" s="187"/>
+      <c r="B144" s="190"/>
+      <c r="C144" s="193"/>
       <c r="D144" s="82"/>
       <c r="E144" s="13"/>
       <c r="F144" s="14"/>
@@ -6549,9 +6545,9 @@
       <c r="T144" s="4"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="208"/>
-      <c r="B145" s="216"/>
-      <c r="C145" s="211"/>
+      <c r="A145" s="187"/>
+      <c r="B145" s="190"/>
+      <c r="C145" s="193"/>
       <c r="D145" s="110"/>
       <c r="E145" s="13"/>
       <c r="F145" s="14"/>
@@ -6571,9 +6567,9 @@
       <c r="T145" s="4"/>
     </row>
     <row r="146" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="222"/>
-      <c r="B146" s="224"/>
-      <c r="C146" s="218"/>
+      <c r="A146" s="188"/>
+      <c r="B146" s="191"/>
+      <c r="C146" s="194"/>
       <c r="D146" s="109"/>
       <c r="E146" s="15"/>
       <c r="F146" s="16"/>
@@ -6593,16 +6589,16 @@
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="221" t="s">
+      <c r="A147" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="223" t="s">
-        <v>350</v>
-      </c>
-      <c r="C147" s="217" t="s">
-        <v>351</v>
-      </c>
-      <c r="D147" s="192"/>
+      <c r="B147" s="189" t="s">
+        <v>348</v>
+      </c>
+      <c r="C147" s="192" t="s">
+        <v>349</v>
+      </c>
+      <c r="D147" s="247"/>
       <c r="E147" s="17"/>
       <c r="F147" s="18"/>
       <c r="G147" s="4"/>
@@ -6621,10 +6617,10 @@
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="208"/>
-      <c r="B148" s="216"/>
-      <c r="C148" s="211"/>
-      <c r="D148" s="193"/>
+      <c r="A148" s="187"/>
+      <c r="B148" s="190"/>
+      <c r="C148" s="193"/>
+      <c r="D148" s="248"/>
       <c r="E148" s="13"/>
       <c r="F148" s="14"/>
       <c r="G148" s="4"/>
@@ -6643,9 +6639,9 @@
       <c r="T148" s="4"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="208"/>
-      <c r="B149" s="216"/>
-      <c r="C149" s="211"/>
+      <c r="A149" s="187"/>
+      <c r="B149" s="190"/>
+      <c r="C149" s="193"/>
       <c r="D149" s="80"/>
       <c r="E149" s="13" t="s">
         <v>94</v>
@@ -6667,12 +6663,10 @@
       <c r="T149" s="4"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="208"/>
-      <c r="B150" s="216"/>
-      <c r="C150" s="211"/>
-      <c r="D150" s="82" t="s">
-        <v>66</v>
-      </c>
+      <c r="A150" s="187"/>
+      <c r="B150" s="190"/>
+      <c r="C150" s="193"/>
+      <c r="D150" s="82"/>
       <c r="E150" s="13" t="s">
         <v>79</v>
       </c>
@@ -6693,18 +6687,14 @@
       <c r="T150" s="4"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="208"/>
-      <c r="B151" s="216"/>
-      <c r="C151" s="211"/>
-      <c r="D151" s="81" t="s">
-        <v>275</v>
-      </c>
+      <c r="A151" s="187"/>
+      <c r="B151" s="190"/>
+      <c r="C151" s="193"/>
+      <c r="D151" s="81"/>
       <c r="E151" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F151" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="F151" s="14"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -6721,11 +6711,11 @@
       <c r="T151" s="4"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="208"/>
-      <c r="B152" s="216"/>
-      <c r="C152" s="211"/>
+      <c r="A152" s="187"/>
+      <c r="B152" s="190"/>
+      <c r="C152" s="193"/>
       <c r="D152" s="80" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="14"/>
@@ -6745,9 +6735,9 @@
       <c r="T152" s="4"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="208"/>
-      <c r="B153" s="216"/>
-      <c r="C153" s="211"/>
+      <c r="A153" s="187"/>
+      <c r="B153" s="190"/>
+      <c r="C153" s="193"/>
       <c r="D153" s="82"/>
       <c r="E153" s="13"/>
       <c r="F153" s="14"/>
@@ -6767,9 +6757,9 @@
       <c r="T153" s="4"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="208"/>
-      <c r="B154" s="216"/>
-      <c r="C154" s="211"/>
+      <c r="A154" s="187"/>
+      <c r="B154" s="190"/>
+      <c r="C154" s="193"/>
       <c r="D154" s="80"/>
       <c r="E154" s="13"/>
       <c r="F154" s="14"/>
@@ -6789,9 +6779,9 @@
       <c r="T154" s="4"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="208"/>
-      <c r="B155" s="216"/>
-      <c r="C155" s="211"/>
+      <c r="A155" s="187"/>
+      <c r="B155" s="190"/>
+      <c r="C155" s="193"/>
       <c r="D155" s="82"/>
       <c r="E155" s="13"/>
       <c r="F155" s="14"/>
@@ -6811,9 +6801,9 @@
       <c r="T155" s="4"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="208"/>
-      <c r="B156" s="216"/>
-      <c r="C156" s="211"/>
+      <c r="A156" s="187"/>
+      <c r="B156" s="190"/>
+      <c r="C156" s="193"/>
       <c r="D156" s="103"/>
       <c r="E156" s="13"/>
       <c r="F156" s="14"/>
@@ -6833,9 +6823,9 @@
       <c r="T156" s="4"/>
     </row>
     <row r="157" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="222"/>
-      <c r="B157" s="224"/>
-      <c r="C157" s="218"/>
+      <c r="A157" s="188"/>
+      <c r="B157" s="191"/>
+      <c r="C157" s="194"/>
       <c r="D157" s="108"/>
       <c r="E157" s="15"/>
       <c r="F157" s="16"/>
@@ -6855,14 +6845,14 @@
       <c r="T157" s="4"/>
     </row>
     <row r="158" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="221" t="s">
+      <c r="A158" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="B158" s="223" t="s">
+      <c r="B158" s="189" t="s">
         <v>96</v>
       </c>
-      <c r="C158" s="217" t="s">
-        <v>352</v>
+      <c r="C158" s="192" t="s">
+        <v>350</v>
       </c>
       <c r="D158" s="82"/>
       <c r="E158" s="17"/>
@@ -6883,14 +6873,14 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="208"/>
-      <c r="B159" s="216"/>
-      <c r="C159" s="211"/>
-      <c r="D159" s="82" t="s">
-        <v>66</v>
+      <c r="A159" s="187"/>
+      <c r="B159" s="190"/>
+      <c r="C159" s="193"/>
+      <c r="D159" s="80" t="s">
+        <v>365</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="4"/>
@@ -6909,17 +6899,15 @@
       <c r="T159" s="4"/>
     </row>
     <row r="160" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="208"/>
-      <c r="B160" s="216"/>
-      <c r="C160" s="211"/>
-      <c r="D160" s="81" t="s">
-        <v>275</v>
-      </c>
+      <c r="A160" s="187"/>
+      <c r="B160" s="190"/>
+      <c r="C160" s="193"/>
+      <c r="D160" s="80"/>
       <c r="E160" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F160" s="162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -6937,12 +6925,10 @@
       <c r="T160" s="4"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="208"/>
-      <c r="B161" s="216"/>
-      <c r="C161" s="211"/>
-      <c r="D161" s="80" t="s">
-        <v>276</v>
-      </c>
+      <c r="A161" s="187"/>
+      <c r="B161" s="190"/>
+      <c r="C161" s="193"/>
+      <c r="D161" s="80"/>
       <c r="E161" s="13"/>
       <c r="F161" s="14"/>
       <c r="G161" s="4"/>
@@ -6961,9 +6947,9 @@
       <c r="T161" s="4"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="208"/>
-      <c r="B162" s="216"/>
-      <c r="C162" s="211"/>
+      <c r="A162" s="187"/>
+      <c r="B162" s="190"/>
+      <c r="C162" s="193"/>
       <c r="D162" s="82"/>
       <c r="E162" s="13"/>
       <c r="F162" s="14"/>
@@ -6983,9 +6969,9 @@
       <c r="T162" s="4"/>
     </row>
     <row r="163" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="222"/>
-      <c r="B163" s="224"/>
-      <c r="C163" s="218"/>
+      <c r="A163" s="188"/>
+      <c r="B163" s="191"/>
+      <c r="C163" s="194"/>
       <c r="D163" s="107"/>
       <c r="E163" s="15"/>
       <c r="F163" s="16"/>
@@ -7005,14 +6991,14 @@
       <c r="T163" s="4"/>
     </row>
     <row r="164" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="221" t="s">
+      <c r="A164" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="223" t="s">
+      <c r="B164" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="C164" s="217" t="s">
-        <v>102</v>
+      <c r="C164" s="192" t="s">
+        <v>101</v>
       </c>
       <c r="D164" s="114"/>
       <c r="E164" s="26"/>
@@ -7033,12 +7019,10 @@
       <c r="T164" s="4"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="208"/>
-      <c r="B165" s="216"/>
-      <c r="C165" s="211"/>
-      <c r="D165" s="82" t="s">
-        <v>66</v>
-      </c>
+      <c r="A165" s="187"/>
+      <c r="B165" s="190"/>
+      <c r="C165" s="193"/>
+      <c r="D165" s="82"/>
       <c r="E165" s="112" t="s">
         <v>99</v>
       </c>
@@ -7059,12 +7043,10 @@
       <c r="T165" s="4"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="208"/>
-      <c r="B166" s="216"/>
-      <c r="C166" s="211"/>
-      <c r="D166" s="81" t="s">
-        <v>67</v>
-      </c>
+      <c r="A166" s="187"/>
+      <c r="B166" s="190"/>
+      <c r="C166" s="193"/>
+      <c r="D166" s="81"/>
       <c r="E166" s="111" t="s">
         <v>100</v>
       </c>
@@ -7085,17 +7067,17 @@
       <c r="T166" s="4"/>
     </row>
     <row r="167" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="208"/>
-      <c r="B167" s="216"/>
-      <c r="C167" s="211"/>
+      <c r="A167" s="187"/>
+      <c r="B167" s="190"/>
+      <c r="C167" s="193"/>
       <c r="D167" s="80" t="s">
-        <v>68</v>
+        <v>365</v>
       </c>
       <c r="E167" s="111" t="s">
-        <v>101</v>
+        <v>366</v>
       </c>
       <c r="F167" s="165" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -7113,9 +7095,9 @@
       <c r="T167" s="4"/>
     </row>
     <row r="168" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="222"/>
-      <c r="B168" s="224"/>
-      <c r="C168" s="218"/>
+      <c r="A168" s="188"/>
+      <c r="B168" s="191"/>
+      <c r="C168" s="194"/>
       <c r="D168" s="107"/>
       <c r="E168" s="32"/>
       <c r="F168" s="33"/>
@@ -7135,14 +7117,14 @@
       <c r="T168" s="4"/>
     </row>
     <row r="169" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="221" t="s">
+      <c r="A169" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="223" t="s">
-        <v>329</v>
-      </c>
-      <c r="C169" s="217" t="s">
-        <v>105</v>
+      <c r="B169" s="189" t="s">
+        <v>327</v>
+      </c>
+      <c r="C169" s="192" t="s">
+        <v>104</v>
       </c>
       <c r="D169" s="82"/>
       <c r="E169" s="34"/>
@@ -7163,14 +7145,14 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="208"/>
-      <c r="B170" s="216"/>
-      <c r="C170" s="211"/>
+      <c r="A170" s="187"/>
+      <c r="B170" s="190"/>
+      <c r="C170" s="193"/>
       <c r="D170" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="4"/>
@@ -7189,12 +7171,12 @@
       <c r="T170" s="4"/>
     </row>
     <row r="171" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="208"/>
-      <c r="B171" s="216"/>
-      <c r="C171" s="211"/>
+      <c r="A171" s="187"/>
+      <c r="B171" s="190"/>
+      <c r="C171" s="193"/>
       <c r="D171" s="80"/>
       <c r="E171" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="4"/>
@@ -7213,12 +7195,12 @@
       <c r="T171" s="4"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="208"/>
-      <c r="B172" s="216"/>
-      <c r="C172" s="211"/>
+      <c r="A172" s="187"/>
+      <c r="B172" s="190"/>
+      <c r="C172" s="193"/>
       <c r="D172" s="80"/>
       <c r="E172" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="4"/>
@@ -7237,12 +7219,12 @@
       <c r="T172" s="4"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="208"/>
-      <c r="B173" s="216"/>
-      <c r="C173" s="211"/>
+      <c r="A173" s="187"/>
+      <c r="B173" s="190"/>
+      <c r="C173" s="193"/>
       <c r="D173" s="82"/>
       <c r="E173" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="4"/>
@@ -7261,12 +7243,12 @@
       <c r="T173" s="4"/>
     </row>
     <row r="174" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="222"/>
-      <c r="B174" s="224"/>
-      <c r="C174" s="218"/>
+      <c r="A174" s="188"/>
+      <c r="B174" s="191"/>
+      <c r="C174" s="194"/>
       <c r="D174" s="107"/>
       <c r="E174" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="4"/>
@@ -7285,16 +7267,16 @@
       <c r="T174" s="4"/>
     </row>
     <row r="175" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="221" t="s">
+      <c r="A175" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="228" t="s">
-        <v>104</v>
-      </c>
-      <c r="C175" s="217" t="s">
-        <v>106</v>
-      </c>
-      <c r="D175" s="197"/>
+      <c r="B175" s="195" t="s">
+        <v>103</v>
+      </c>
+      <c r="C175" s="192" t="s">
+        <v>105</v>
+      </c>
+      <c r="D175" s="249"/>
       <c r="F175" s="18"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -7312,12 +7294,12 @@
       <c r="T175" s="4"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="208"/>
-      <c r="B176" s="229"/>
-      <c r="C176" s="211"/>
-      <c r="D176" s="198"/>
+      <c r="A176" s="187"/>
+      <c r="B176" s="196"/>
+      <c r="C176" s="193"/>
+      <c r="D176" s="208"/>
       <c r="E176" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="4"/>
@@ -7336,14 +7318,14 @@
       <c r="T176" s="4"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="208"/>
-      <c r="B177" s="229"/>
-      <c r="C177" s="211"/>
+      <c r="A177" s="187"/>
+      <c r="B177" s="196"/>
+      <c r="C177" s="193"/>
       <c r="D177" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E177" s="113" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="4"/>
@@ -7362,10 +7344,10 @@
       <c r="T177" s="4"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="208"/>
-      <c r="B178" s="229"/>
-      <c r="C178" s="211"/>
-      <c r="D178" s="194"/>
+      <c r="A178" s="187"/>
+      <c r="B178" s="196"/>
+      <c r="C178" s="193"/>
+      <c r="D178" s="173"/>
       <c r="E178" s="113"/>
       <c r="F178" s="14"/>
       <c r="G178" s="4"/>
@@ -7384,10 +7366,10 @@
       <c r="T178" s="4"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="208"/>
-      <c r="B179" s="229"/>
-      <c r="C179" s="211"/>
-      <c r="D179" s="195"/>
+      <c r="A179" s="187"/>
+      <c r="B179" s="196"/>
+      <c r="C179" s="193"/>
+      <c r="D179" s="174"/>
       <c r="E179" s="113"/>
       <c r="F179" s="14"/>
       <c r="G179" s="4"/>
@@ -7406,10 +7388,10 @@
       <c r="T179" s="4"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="208"/>
-      <c r="B180" s="229"/>
-      <c r="C180" s="211"/>
-      <c r="D180" s="195"/>
+      <c r="A180" s="187"/>
+      <c r="B180" s="196"/>
+      <c r="C180" s="193"/>
+      <c r="D180" s="174"/>
       <c r="E180" s="113"/>
       <c r="F180" s="14"/>
       <c r="G180" s="4"/>
@@ -7428,10 +7410,10 @@
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="222"/>
-      <c r="B181" s="230"/>
-      <c r="C181" s="218"/>
-      <c r="D181" s="196"/>
+      <c r="A181" s="188"/>
+      <c r="B181" s="197"/>
+      <c r="C181" s="194"/>
+      <c r="D181" s="179"/>
       <c r="E181" s="36"/>
       <c r="F181" s="16"/>
       <c r="G181" s="4"/>
@@ -7450,20 +7432,20 @@
       <c r="T181" s="4"/>
     </row>
     <row r="182" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="221" t="s">
+      <c r="A182" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B182" s="228" t="s">
+      <c r="B182" s="195" t="s">
+        <v>106</v>
+      </c>
+      <c r="C182" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="C182" s="217" t="s">
+      <c r="D182" s="250" t="s">
+        <v>102</v>
+      </c>
+      <c r="E182" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="D182" s="203" t="s">
-        <v>103</v>
-      </c>
-      <c r="E182" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="F182" s="18"/>
       <c r="G182" s="4"/>
@@ -7482,12 +7464,12 @@
       <c r="T182" s="4"/>
     </row>
     <row r="183" spans="1:20" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="208"/>
-      <c r="B183" s="229"/>
-      <c r="C183" s="211"/>
-      <c r="D183" s="204"/>
+      <c r="A183" s="187"/>
+      <c r="B183" s="196"/>
+      <c r="C183" s="193"/>
+      <c r="D183" s="251"/>
       <c r="E183" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F183" s="162"/>
       <c r="G183" s="4"/>
@@ -7506,12 +7488,12 @@
       <c r="T183" s="4"/>
     </row>
     <row r="184" spans="1:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="222"/>
-      <c r="B184" s="230"/>
-      <c r="C184" s="218"/>
+      <c r="A184" s="188"/>
+      <c r="B184" s="197"/>
+      <c r="C184" s="194"/>
       <c r="D184" s="150"/>
       <c r="E184" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>63</v>
@@ -7532,17 +7514,17 @@
       <c r="T184" s="4"/>
     </row>
     <row r="185" spans="1:20" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="221" t="s">
+      <c r="A185" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="228" t="s">
+      <c r="B185" s="195" t="s">
+        <v>109</v>
+      </c>
+      <c r="C185" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="C185" s="217" t="s">
-        <v>111</v>
-      </c>
-      <c r="D185" s="233" t="s">
-        <v>103</v>
+      <c r="D185" s="184" t="s">
+        <v>102</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="38"/>
@@ -7562,12 +7544,12 @@
       <c r="T185" s="4"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="208"/>
-      <c r="B186" s="229"/>
-      <c r="C186" s="211"/>
-      <c r="D186" s="233"/>
+      <c r="A186" s="187"/>
+      <c r="B186" s="196"/>
+      <c r="C186" s="193"/>
+      <c r="D186" s="184"/>
       <c r="E186" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F186" s="40"/>
       <c r="G186" s="4"/>
@@ -7586,12 +7568,12 @@
       <c r="T186" s="4"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="208"/>
-      <c r="B187" s="229"/>
-      <c r="C187" s="211"/>
-      <c r="D187" s="233"/>
+      <c r="A187" s="187"/>
+      <c r="B187" s="196"/>
+      <c r="C187" s="193"/>
+      <c r="D187" s="184"/>
       <c r="E187" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F187" s="40"/>
       <c r="G187" s="4"/>
@@ -7610,12 +7592,12 @@
       <c r="T187" s="4"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="208"/>
-      <c r="B188" s="229"/>
-      <c r="C188" s="211"/>
-      <c r="D188" s="233"/>
+      <c r="A188" s="187"/>
+      <c r="B188" s="196"/>
+      <c r="C188" s="193"/>
+      <c r="D188" s="184"/>
       <c r="E188" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F188" s="40"/>
       <c r="G188" s="4"/>
@@ -7634,15 +7616,15 @@
       <c r="T188" s="4"/>
     </row>
     <row r="189" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="222"/>
-      <c r="B189" s="230"/>
-      <c r="C189" s="218"/>
-      <c r="D189" s="234"/>
+      <c r="A189" s="188"/>
+      <c r="B189" s="197"/>
+      <c r="C189" s="194"/>
+      <c r="D189" s="185"/>
       <c r="E189" s="119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F189" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
@@ -7660,20 +7642,20 @@
       <c r="T189" s="4"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="208" t="s">
+      <c r="A190" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="B190" s="229" t="s">
+      <c r="B190" s="196" t="s">
+        <v>115</v>
+      </c>
+      <c r="C190" s="193" t="s">
         <v>116</v>
       </c>
-      <c r="C190" s="211" t="s">
+      <c r="D190" s="206" t="s">
+        <v>102</v>
+      </c>
+      <c r="E190" s="39" t="s">
         <v>117</v>
-      </c>
-      <c r="D190" s="213" t="s">
-        <v>103</v>
-      </c>
-      <c r="E190" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="4"/>
@@ -7692,12 +7674,12 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="208"/>
-      <c r="B191" s="229"/>
-      <c r="C191" s="211"/>
-      <c r="D191" s="213"/>
+      <c r="A191" s="187"/>
+      <c r="B191" s="196"/>
+      <c r="C191" s="193"/>
+      <c r="D191" s="206"/>
       <c r="E191" s="115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="4"/>
@@ -7716,12 +7698,12 @@
       <c r="T191" s="4"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="208"/>
-      <c r="B192" s="229"/>
-      <c r="C192" s="211"/>
-      <c r="D192" s="213"/>
+      <c r="A192" s="187"/>
+      <c r="B192" s="196"/>
+      <c r="C192" s="193"/>
+      <c r="D192" s="206"/>
       <c r="E192" s="118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="4"/>
@@ -7740,12 +7722,12 @@
       <c r="T192" s="4"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="208"/>
-      <c r="B193" s="229"/>
-      <c r="C193" s="211"/>
-      <c r="D193" s="213"/>
+      <c r="A193" s="187"/>
+      <c r="B193" s="196"/>
+      <c r="C193" s="193"/>
+      <c r="D193" s="206"/>
       <c r="E193" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F193" s="117"/>
       <c r="G193" s="4"/>
@@ -7764,12 +7746,12 @@
       <c r="T193" s="4"/>
     </row>
     <row r="194" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="208"/>
-      <c r="B194" s="229"/>
-      <c r="C194" s="211"/>
-      <c r="D194" s="213"/>
+      <c r="A194" s="187"/>
+      <c r="B194" s="196"/>
+      <c r="C194" s="193"/>
+      <c r="D194" s="206"/>
       <c r="E194" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F194" s="116"/>
       <c r="G194" s="4"/>
@@ -7788,12 +7770,12 @@
       <c r="T194" s="4"/>
     </row>
     <row r="195" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="208"/>
-      <c r="B195" s="229"/>
-      <c r="C195" s="211"/>
-      <c r="D195" s="213"/>
+      <c r="A195" s="187"/>
+      <c r="B195" s="196"/>
+      <c r="C195" s="193"/>
+      <c r="D195" s="206"/>
       <c r="E195" s="115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F195" s="116"/>
       <c r="G195" s="4"/>
@@ -7812,12 +7794,12 @@
       <c r="T195" s="4"/>
     </row>
     <row r="196" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="208"/>
-      <c r="B196" s="229"/>
-      <c r="C196" s="211"/>
-      <c r="D196" s="213"/>
+      <c r="A196" s="187"/>
+      <c r="B196" s="196"/>
+      <c r="C196" s="193"/>
+      <c r="D196" s="206"/>
       <c r="E196" s="156" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F196" s="158"/>
       <c r="G196" s="4"/>
@@ -7836,10 +7818,10 @@
       <c r="T196" s="4"/>
     </row>
     <row r="197" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="222"/>
-      <c r="B197" s="230"/>
-      <c r="C197" s="218"/>
-      <c r="D197" s="220"/>
+      <c r="A197" s="188"/>
+      <c r="B197" s="197"/>
+      <c r="C197" s="194"/>
+      <c r="D197" s="207"/>
       <c r="E197" s="159"/>
       <c r="F197" s="157"/>
       <c r="G197" s="4"/>
@@ -7858,20 +7840,20 @@
       <c r="T197" s="4"/>
     </row>
     <row r="198" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="208" t="s">
+      <c r="A198" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="B198" s="229" t="s">
+      <c r="B198" s="196" t="s">
+        <v>123</v>
+      </c>
+      <c r="C198" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="C198" s="211" t="s">
+      <c r="D198" s="184" t="s">
+        <v>102</v>
+      </c>
+      <c r="E198" s="43" t="s">
         <v>125</v>
-      </c>
-      <c r="D198" s="233" t="s">
-        <v>103</v>
-      </c>
-      <c r="E198" s="43" t="s">
-        <v>126</v>
       </c>
       <c r="F198" s="44"/>
       <c r="G198" s="4"/>
@@ -7890,12 +7872,12 @@
       <c r="T198" s="4"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="208"/>
-      <c r="B199" s="229"/>
-      <c r="C199" s="211"/>
-      <c r="D199" s="233"/>
+      <c r="A199" s="187"/>
+      <c r="B199" s="196"/>
+      <c r="C199" s="193"/>
+      <c r="D199" s="184"/>
       <c r="E199" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F199" s="45"/>
       <c r="G199" s="4"/>
@@ -7914,12 +7896,12 @@
       <c r="T199" s="4"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="208"/>
-      <c r="B200" s="229"/>
-      <c r="C200" s="211"/>
-      <c r="D200" s="233"/>
+      <c r="A200" s="187"/>
+      <c r="B200" s="196"/>
+      <c r="C200" s="193"/>
+      <c r="D200" s="184"/>
       <c r="E200" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F200" s="45"/>
       <c r="G200" s="4"/>
@@ -7938,12 +7920,12 @@
       <c r="T200" s="4"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="208"/>
-      <c r="B201" s="229"/>
-      <c r="C201" s="211"/>
-      <c r="D201" s="233"/>
+      <c r="A201" s="187"/>
+      <c r="B201" s="196"/>
+      <c r="C201" s="193"/>
+      <c r="D201" s="184"/>
       <c r="E201" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F201" s="45"/>
       <c r="G201" s="4"/>
@@ -7962,10 +7944,10 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="222"/>
-      <c r="B202" s="230"/>
-      <c r="C202" s="218"/>
-      <c r="D202" s="234"/>
+      <c r="A202" s="188"/>
+      <c r="B202" s="197"/>
+      <c r="C202" s="194"/>
+      <c r="D202" s="185"/>
       <c r="E202" s="41"/>
       <c r="F202" s="46"/>
       <c r="G202" s="4"/>
@@ -7984,17 +7966,17 @@
       <c r="T202" s="4"/>
     </row>
     <row r="203" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="221" t="s">
+      <c r="A203" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="B203" s="228" t="s">
-        <v>131</v>
-      </c>
-      <c r="C203" s="217" t="s">
+      <c r="B203" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="D203" s="247" t="s">
-        <v>103</v>
+      <c r="C203" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="D203" s="203" t="s">
+        <v>102</v>
       </c>
       <c r="E203" s="43"/>
       <c r="F203" s="44"/>
@@ -8014,12 +7996,12 @@
       <c r="T203" s="4"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204" s="208"/>
-      <c r="B204" s="229"/>
-      <c r="C204" s="211"/>
-      <c r="D204" s="233"/>
+      <c r="A204" s="187"/>
+      <c r="B204" s="196"/>
+      <c r="C204" s="193"/>
+      <c r="D204" s="184"/>
       <c r="E204" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F204" s="45"/>
       <c r="G204" s="4"/>
@@ -8038,12 +8020,12 @@
       <c r="T204" s="4"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="208"/>
-      <c r="B205" s="229"/>
-      <c r="C205" s="211"/>
-      <c r="D205" s="233"/>
+      <c r="A205" s="187"/>
+      <c r="B205" s="196"/>
+      <c r="C205" s="193"/>
+      <c r="D205" s="184"/>
       <c r="E205" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F205" s="45"/>
       <c r="G205" s="4"/>
@@ -8062,12 +8044,12 @@
       <c r="T205" s="4"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A206" s="208"/>
-      <c r="B206" s="229"/>
-      <c r="C206" s="211"/>
-      <c r="D206" s="233"/>
+      <c r="A206" s="187"/>
+      <c r="B206" s="196"/>
+      <c r="C206" s="193"/>
+      <c r="D206" s="184"/>
       <c r="E206" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F206" s="45"/>
       <c r="G206" s="4"/>
@@ -8086,12 +8068,12 @@
       <c r="T206" s="4"/>
     </row>
     <row r="207" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="222"/>
-      <c r="B207" s="230"/>
-      <c r="C207" s="218"/>
-      <c r="D207" s="234"/>
+      <c r="A207" s="188"/>
+      <c r="B207" s="197"/>
+      <c r="C207" s="194"/>
+      <c r="D207" s="185"/>
       <c r="E207" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F207" s="45"/>
       <c r="G207" s="4"/>
@@ -8110,14 +8092,14 @@
       <c r="T207" s="4"/>
     </row>
     <row r="208" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="253" t="s">
+      <c r="A208" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="253"/>
-      <c r="C208" s="253"/>
-      <c r="D208" s="253"/>
-      <c r="E208" s="253"/>
-      <c r="F208" s="253"/>
+      <c r="B208" s="198"/>
+      <c r="C208" s="198"/>
+      <c r="D208" s="198"/>
+      <c r="E208" s="198"/>
+      <c r="F208" s="198"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -8156,17 +8138,17 @@
       <c r="T209" s="4"/>
     </row>
     <row r="210" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="221" t="s">
+      <c r="A210" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="248" t="s">
-        <v>133</v>
-      </c>
-      <c r="C210" s="210" t="s">
-        <v>139</v>
-      </c>
-      <c r="D210" s="212" t="s">
-        <v>103</v>
+      <c r="B210" s="204" t="s">
+        <v>132</v>
+      </c>
+      <c r="C210" s="199" t="s">
+        <v>138</v>
+      </c>
+      <c r="D210" s="183" t="s">
+        <v>102</v>
       </c>
       <c r="E210" s="47"/>
       <c r="F210" s="19"/>
@@ -8186,12 +8168,12 @@
       <c r="T210" s="4"/>
     </row>
     <row r="211" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="208"/>
-      <c r="B211" s="216"/>
-      <c r="C211" s="211"/>
-      <c r="D211" s="233"/>
+      <c r="A211" s="187"/>
+      <c r="B211" s="190"/>
+      <c r="C211" s="193"/>
+      <c r="D211" s="184"/>
       <c r="E211" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F211" s="19"/>
       <c r="G211" s="4"/>
@@ -8210,12 +8192,12 @@
       <c r="T211" s="4"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A212" s="208"/>
-      <c r="B212" s="216"/>
-      <c r="C212" s="211"/>
-      <c r="D212" s="233"/>
+      <c r="A212" s="187"/>
+      <c r="B212" s="190"/>
+      <c r="C212" s="193"/>
+      <c r="D212" s="184"/>
       <c r="E212" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F212" s="19"/>
       <c r="G212" s="4"/>
@@ -8234,12 +8216,12 @@
       <c r="T212" s="4"/>
     </row>
     <row r="213" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="208"/>
-      <c r="B213" s="216"/>
-      <c r="C213" s="211"/>
-      <c r="D213" s="233"/>
+      <c r="A213" s="187"/>
+      <c r="B213" s="190"/>
+      <c r="C213" s="193"/>
+      <c r="D213" s="184"/>
       <c r="E213" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F213" s="19"/>
       <c r="G213" s="4"/>
@@ -8258,12 +8240,12 @@
       <c r="T213" s="4"/>
     </row>
     <row r="214" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="208"/>
-      <c r="B214" s="216"/>
-      <c r="C214" s="211"/>
-      <c r="D214" s="233"/>
+      <c r="A214" s="187"/>
+      <c r="B214" s="190"/>
+      <c r="C214" s="193"/>
+      <c r="D214" s="184"/>
       <c r="E214" s="120" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F214" s="19"/>
       <c r="G214" s="4"/>
@@ -8282,12 +8264,12 @@
       <c r="T214" s="4"/>
     </row>
     <row r="215" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="208"/>
-      <c r="B215" s="216"/>
-      <c r="C215" s="211"/>
-      <c r="D215" s="233"/>
+      <c r="A215" s="187"/>
+      <c r="B215" s="190"/>
+      <c r="C215" s="193"/>
+      <c r="D215" s="184"/>
       <c r="E215" s="121" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F215" s="19"/>
       <c r="G215" s="4"/>
@@ -8306,10 +8288,10 @@
       <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="222"/>
-      <c r="B216" s="224"/>
-      <c r="C216" s="218"/>
-      <c r="D216" s="234"/>
+      <c r="A216" s="188"/>
+      <c r="B216" s="191"/>
+      <c r="C216" s="194"/>
+      <c r="D216" s="185"/>
       <c r="E216" s="122"/>
       <c r="F216" s="49"/>
       <c r="G216" s="4"/>
@@ -8328,17 +8310,17 @@
       <c r="T216" s="4"/>
     </row>
     <row r="217" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="221" t="s">
+      <c r="A217" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="B217" s="223" t="s">
-        <v>138</v>
-      </c>
-      <c r="C217" s="217" t="s">
-        <v>145</v>
-      </c>
-      <c r="D217" s="205" t="s">
-        <v>103</v>
+      <c r="B217" s="189" t="s">
+        <v>137</v>
+      </c>
+      <c r="C217" s="192" t="s">
+        <v>144</v>
+      </c>
+      <c r="D217" s="252" t="s">
+        <v>102</v>
       </c>
       <c r="E217" s="50"/>
       <c r="F217" s="51"/>
@@ -8358,12 +8340,12 @@
       <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="208"/>
-      <c r="B218" s="216"/>
-      <c r="C218" s="211"/>
-      <c r="D218" s="204"/>
+      <c r="A218" s="187"/>
+      <c r="B218" s="190"/>
+      <c r="C218" s="193"/>
+      <c r="D218" s="251"/>
       <c r="E218" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F218" s="51"/>
       <c r="G218" s="4"/>
@@ -8382,14 +8364,14 @@
       <c r="T218" s="4"/>
     </row>
     <row r="219" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="208"/>
-      <c r="B219" s="216"/>
-      <c r="C219" s="211"/>
+      <c r="A219" s="187"/>
+      <c r="B219" s="190"/>
+      <c r="C219" s="193"/>
       <c r="D219" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E219" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F219" s="51"/>
       <c r="G219" s="4"/>
@@ -8408,12 +8390,12 @@
       <c r="T219" s="4"/>
     </row>
     <row r="220" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="208"/>
-      <c r="B220" s="216"/>
-      <c r="C220" s="211"/>
-      <c r="D220" s="194"/>
+      <c r="A220" s="187"/>
+      <c r="B220" s="190"/>
+      <c r="C220" s="193"/>
+      <c r="D220" s="173"/>
       <c r="E220" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F220" s="51"/>
       <c r="G220" s="4"/>
@@ -8432,10 +8414,10 @@
       <c r="T220" s="4"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221" s="208"/>
-      <c r="B221" s="216"/>
-      <c r="C221" s="211"/>
-      <c r="D221" s="195"/>
+      <c r="A221" s="187"/>
+      <c r="B221" s="190"/>
+      <c r="C221" s="193"/>
+      <c r="D221" s="174"/>
       <c r="E221" s="47"/>
       <c r="F221" s="19"/>
       <c r="G221" s="4"/>
@@ -8454,10 +8436,10 @@
       <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222" s="208"/>
-      <c r="B222" s="216"/>
-      <c r="C222" s="211"/>
-      <c r="D222" s="195"/>
+      <c r="A222" s="187"/>
+      <c r="B222" s="190"/>
+      <c r="C222" s="193"/>
+      <c r="D222" s="174"/>
       <c r="E222" s="47"/>
       <c r="F222" s="19"/>
       <c r="G222" s="4"/>
@@ -8476,10 +8458,10 @@
       <c r="T222" s="4"/>
     </row>
     <row r="223" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="208"/>
-      <c r="B223" s="216"/>
-      <c r="C223" s="211"/>
-      <c r="D223" s="196"/>
+      <c r="A223" s="187"/>
+      <c r="B223" s="190"/>
+      <c r="C223" s="193"/>
+      <c r="D223" s="179"/>
       <c r="E223" s="47"/>
       <c r="F223" s="19"/>
       <c r="G223" s="4"/>
@@ -8498,10 +8480,10 @@
       <c r="T223" s="4"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A224" s="208"/>
-      <c r="B224" s="216"/>
-      <c r="C224" s="211"/>
-      <c r="D224" s="197"/>
+      <c r="A224" s="187"/>
+      <c r="B224" s="190"/>
+      <c r="C224" s="193"/>
+      <c r="D224" s="249"/>
       <c r="E224" s="47"/>
       <c r="F224" s="19"/>
       <c r="G224" s="4"/>
@@ -8520,10 +8502,10 @@
       <c r="T224" s="4"/>
     </row>
     <row r="225" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="222"/>
-      <c r="B225" s="224"/>
-      <c r="C225" s="218"/>
-      <c r="D225" s="196"/>
+      <c r="A225" s="188"/>
+      <c r="B225" s="191"/>
+      <c r="C225" s="194"/>
+      <c r="D225" s="179"/>
       <c r="E225" s="48"/>
       <c r="F225" s="49"/>
       <c r="G225" s="4"/>
@@ -8542,17 +8524,17 @@
       <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="221" t="s">
+      <c r="A226" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="B226" s="223" t="s">
-        <v>144</v>
-      </c>
-      <c r="C226" s="217" t="s">
-        <v>150</v>
-      </c>
-      <c r="D226" s="203" t="s">
-        <v>103</v>
+      <c r="B226" s="189" t="s">
+        <v>143</v>
+      </c>
+      <c r="C226" s="192" t="s">
+        <v>149</v>
+      </c>
+      <c r="D226" s="250" t="s">
+        <v>102</v>
       </c>
       <c r="E226" s="50"/>
       <c r="F226" s="51"/>
@@ -8572,12 +8554,12 @@
       <c r="T226" s="4"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A227" s="208"/>
-      <c r="B227" s="216"/>
-      <c r="C227" s="211"/>
-      <c r="D227" s="204"/>
+      <c r="A227" s="187"/>
+      <c r="B227" s="190"/>
+      <c r="C227" s="193"/>
+      <c r="D227" s="251"/>
       <c r="E227" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F227" s="19"/>
       <c r="G227" s="4"/>
@@ -8596,14 +8578,14 @@
       <c r="T227" s="4"/>
     </row>
     <row r="228" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="208"/>
-      <c r="B228" s="216"/>
-      <c r="C228" s="211"/>
+      <c r="A228" s="187"/>
+      <c r="B228" s="190"/>
+      <c r="C228" s="193"/>
       <c r="D228" s="80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E228" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F228" s="19"/>
       <c r="G228" s="4"/>
@@ -8622,12 +8604,12 @@
       <c r="T228" s="4"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A229" s="208"/>
-      <c r="B229" s="216"/>
-      <c r="C229" s="211"/>
-      <c r="D229" s="194"/>
+      <c r="A229" s="187"/>
+      <c r="B229" s="190"/>
+      <c r="C229" s="193"/>
+      <c r="D229" s="173"/>
       <c r="E229" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F229" s="19"/>
       <c r="G229" s="4"/>
@@ -8646,10 +8628,10 @@
       <c r="T229" s="4"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="208"/>
-      <c r="B230" s="216"/>
-      <c r="C230" s="211"/>
-      <c r="D230" s="195"/>
+      <c r="A230" s="187"/>
+      <c r="B230" s="190"/>
+      <c r="C230" s="193"/>
+      <c r="D230" s="174"/>
       <c r="E230" s="47"/>
       <c r="F230" s="19"/>
       <c r="G230" s="4"/>
@@ -8668,10 +8650,10 @@
       <c r="T230" s="4"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="208"/>
-      <c r="B231" s="216"/>
-      <c r="C231" s="211"/>
-      <c r="D231" s="195"/>
+      <c r="A231" s="187"/>
+      <c r="B231" s="190"/>
+      <c r="C231" s="193"/>
+      <c r="D231" s="174"/>
       <c r="E231" s="47"/>
       <c r="F231" s="19"/>
       <c r="G231" s="4"/>
@@ -8690,10 +8672,10 @@
       <c r="T231" s="4"/>
     </row>
     <row r="232" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="222"/>
-      <c r="B232" s="224"/>
-      <c r="C232" s="218"/>
-      <c r="D232" s="196"/>
+      <c r="A232" s="188"/>
+      <c r="B232" s="191"/>
+      <c r="C232" s="194"/>
+      <c r="D232" s="179"/>
       <c r="E232" s="48"/>
       <c r="F232" s="49"/>
       <c r="G232" s="4"/>
@@ -8712,16 +8694,16 @@
       <c r="T232" s="4"/>
     </row>
     <row r="233" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="221" t="s">
+      <c r="A233" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="B233" s="223" t="s">
+      <c r="B233" s="189" t="s">
+        <v>147</v>
+      </c>
+      <c r="C233" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="C233" s="225" t="s">
-        <v>149</v>
-      </c>
-      <c r="D233" s="203"/>
+      <c r="D233" s="250"/>
       <c r="E233" s="50"/>
       <c r="F233" s="51"/>
       <c r="G233" s="4"/>
@@ -8740,10 +8722,10 @@
       <c r="T233" s="4"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="208"/>
-      <c r="B234" s="216"/>
-      <c r="C234" s="226"/>
-      <c r="D234" s="202"/>
+      <c r="A234" s="187"/>
+      <c r="B234" s="190"/>
+      <c r="C234" s="201"/>
+      <c r="D234" s="220"/>
       <c r="E234" s="47"/>
       <c r="F234" s="19"/>
       <c r="G234" s="4"/>
@@ -8762,14 +8744,14 @@
       <c r="T234" s="4"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="208"/>
-      <c r="B235" s="216"/>
-      <c r="C235" s="226"/>
-      <c r="D235" s="206" t="s">
-        <v>103</v>
+      <c r="A235" s="187"/>
+      <c r="B235" s="190"/>
+      <c r="C235" s="201"/>
+      <c r="D235" s="253" t="s">
+        <v>102</v>
       </c>
       <c r="E235" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F235" s="19"/>
       <c r="G235" s="4"/>
@@ -8788,12 +8770,12 @@
       <c r="T235" s="4"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="208"/>
-      <c r="B236" s="216"/>
-      <c r="C236" s="226"/>
-      <c r="D236" s="207"/>
+      <c r="A236" s="187"/>
+      <c r="B236" s="190"/>
+      <c r="C236" s="201"/>
+      <c r="D236" s="236"/>
       <c r="E236" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F236" s="19"/>
       <c r="G236" s="4"/>
@@ -8812,14 +8794,14 @@
       <c r="T236" s="4"/>
     </row>
     <row r="237" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="208"/>
-      <c r="B237" s="216"/>
-      <c r="C237" s="226"/>
+      <c r="A237" s="187"/>
+      <c r="B237" s="190"/>
+      <c r="C237" s="201"/>
       <c r="D237" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E237" s="50" t="s">
         <v>152</v>
-      </c>
-      <c r="E237" s="50" t="s">
-        <v>153</v>
       </c>
       <c r="F237" s="19"/>
       <c r="G237" s="4"/>
@@ -8838,9 +8820,9 @@
       <c r="T237" s="4"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="208"/>
-      <c r="B238" s="216"/>
-      <c r="C238" s="226"/>
+      <c r="A238" s="187"/>
+      <c r="B238" s="190"/>
+      <c r="C238" s="201"/>
       <c r="D238" s="124"/>
       <c r="E238" s="123"/>
       <c r="F238" s="19"/>
@@ -8860,10 +8842,10 @@
       <c r="T238" s="4"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="208"/>
-      <c r="B239" s="216"/>
-      <c r="C239" s="226"/>
-      <c r="D239" s="201"/>
+      <c r="A239" s="187"/>
+      <c r="B239" s="190"/>
+      <c r="C239" s="201"/>
+      <c r="D239" s="219"/>
       <c r="E239" s="47"/>
       <c r="F239" s="19"/>
       <c r="G239" s="4"/>
@@ -8882,10 +8864,10 @@
       <c r="T239" s="4"/>
     </row>
     <row r="240" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="222"/>
-      <c r="B240" s="224"/>
-      <c r="C240" s="227"/>
-      <c r="D240" s="202"/>
+      <c r="A240" s="188"/>
+      <c r="B240" s="191"/>
+      <c r="C240" s="202"/>
+      <c r="D240" s="220"/>
       <c r="E240" s="48"/>
       <c r="F240" s="49"/>
       <c r="G240" s="4"/>
@@ -8904,17 +8886,17 @@
       <c r="T240" s="4"/>
     </row>
     <row r="241" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="221" t="s">
+      <c r="A241" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="B241" s="223" t="s">
+      <c r="B241" s="189" t="s">
+        <v>153</v>
+      </c>
+      <c r="C241" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="C241" s="225" t="s">
-        <v>155</v>
-      </c>
-      <c r="D241" s="199" t="s">
-        <v>103</v>
+      <c r="D241" s="221" t="s">
+        <v>102</v>
       </c>
       <c r="E241" s="50"/>
       <c r="F241" s="51"/>
@@ -8934,12 +8916,12 @@
       <c r="T241" s="4"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="208"/>
-      <c r="B242" s="216"/>
-      <c r="C242" s="226"/>
-      <c r="D242" s="200"/>
+      <c r="A242" s="187"/>
+      <c r="B242" s="190"/>
+      <c r="C242" s="201"/>
+      <c r="D242" s="222"/>
       <c r="E242" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F242" s="19"/>
       <c r="G242" s="4"/>
@@ -8958,14 +8940,14 @@
       <c r="T242" s="4"/>
     </row>
     <row r="243" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="208"/>
-      <c r="B243" s="216"/>
-      <c r="C243" s="226"/>
+      <c r="A243" s="187"/>
+      <c r="B243" s="190"/>
+      <c r="C243" s="201"/>
       <c r="D243" s="125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E243" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="4"/>
@@ -8984,12 +8966,12 @@
       <c r="T243" s="4"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="208"/>
-      <c r="B244" s="216"/>
-      <c r="C244" s="226"/>
+      <c r="A244" s="187"/>
+      <c r="B244" s="190"/>
+      <c r="C244" s="201"/>
       <c r="D244" s="124"/>
       <c r="E244" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F244" s="19"/>
       <c r="G244" s="4"/>
@@ -9008,9 +8990,9 @@
       <c r="T244" s="4"/>
     </row>
     <row r="245" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="222"/>
-      <c r="B245" s="224"/>
-      <c r="C245" s="227"/>
+      <c r="A245" s="188"/>
+      <c r="B245" s="191"/>
+      <c r="C245" s="202"/>
       <c r="D245" s="126"/>
       <c r="E245" s="48"/>
       <c r="F245" s="49"/>
@@ -9030,17 +9012,17 @@
       <c r="T245" s="4"/>
     </row>
     <row r="246" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="221" t="s">
+      <c r="A246" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="B246" s="223" t="s">
+      <c r="B246" s="189" t="s">
+        <v>157</v>
+      </c>
+      <c r="C246" s="200" t="s">
         <v>158</v>
       </c>
-      <c r="C246" s="225" t="s">
-        <v>159</v>
-      </c>
-      <c r="D246" s="199" t="s">
-        <v>103</v>
+      <c r="D246" s="221" t="s">
+        <v>102</v>
       </c>
       <c r="E246" s="50"/>
       <c r="F246" s="51"/>
@@ -9060,12 +9042,12 @@
       <c r="T246" s="4"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" s="208"/>
-      <c r="B247" s="216"/>
-      <c r="C247" s="226"/>
-      <c r="D247" s="200"/>
+      <c r="A247" s="187"/>
+      <c r="B247" s="190"/>
+      <c r="C247" s="201"/>
+      <c r="D247" s="222"/>
       <c r="E247" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F247" s="19"/>
       <c r="G247" s="4"/>
@@ -9084,14 +9066,14 @@
       <c r="T247" s="4"/>
     </row>
     <row r="248" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="208"/>
-      <c r="B248" s="216"/>
-      <c r="C248" s="226"/>
+      <c r="A248" s="187"/>
+      <c r="B248" s="190"/>
+      <c r="C248" s="201"/>
       <c r="D248" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="E248" s="64" t="s">
         <v>160</v>
-      </c>
-      <c r="E248" s="64" t="s">
-        <v>161</v>
       </c>
       <c r="F248" s="19"/>
       <c r="G248" s="4"/>
@@ -9110,12 +9092,12 @@
       <c r="T248" s="4"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="208"/>
-      <c r="B249" s="216"/>
-      <c r="C249" s="226"/>
+      <c r="A249" s="187"/>
+      <c r="B249" s="190"/>
+      <c r="C249" s="201"/>
       <c r="D249" s="124"/>
       <c r="E249" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F249" s="19"/>
       <c r="G249" s="4"/>
@@ -9134,10 +9116,10 @@
       <c r="T249" s="4"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="208"/>
-      <c r="B250" s="216"/>
-      <c r="C250" s="226"/>
-      <c r="D250" s="201"/>
+      <c r="A250" s="187"/>
+      <c r="B250" s="190"/>
+      <c r="C250" s="201"/>
+      <c r="D250" s="219"/>
       <c r="E250" s="47"/>
       <c r="F250" s="19"/>
       <c r="G250" s="4"/>
@@ -9156,10 +9138,10 @@
       <c r="T250" s="4"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" s="208"/>
-      <c r="B251" s="216"/>
-      <c r="C251" s="226"/>
-      <c r="D251" s="202"/>
+      <c r="A251" s="187"/>
+      <c r="B251" s="190"/>
+      <c r="C251" s="201"/>
+      <c r="D251" s="220"/>
       <c r="E251" s="47"/>
       <c r="F251" s="19"/>
       <c r="G251" s="4"/>
@@ -9178,9 +9160,9 @@
       <c r="T251" s="4"/>
     </row>
     <row r="252" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="222"/>
-      <c r="B252" s="224"/>
-      <c r="C252" s="227"/>
+      <c r="A252" s="188"/>
+      <c r="B252" s="191"/>
+      <c r="C252" s="202"/>
       <c r="D252" s="107"/>
       <c r="E252" s="48"/>
       <c r="F252" s="49"/>
@@ -9200,17 +9182,17 @@
       <c r="T252" s="4"/>
     </row>
     <row r="253" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="221" t="s">
+      <c r="A253" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="B253" s="223" t="s">
+      <c r="B253" s="189" t="s">
+        <v>162</v>
+      </c>
+      <c r="C253" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="C253" s="225" t="s">
-        <v>164</v>
-      </c>
-      <c r="D253" s="203" t="s">
-        <v>103</v>
+      <c r="D253" s="250" t="s">
+        <v>102</v>
       </c>
       <c r="E253" s="50"/>
       <c r="F253" s="51"/>
@@ -9230,12 +9212,12 @@
       <c r="T253" s="4"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" s="208"/>
-      <c r="B254" s="216"/>
-      <c r="C254" s="226"/>
-      <c r="D254" s="202"/>
+      <c r="A254" s="187"/>
+      <c r="B254" s="190"/>
+      <c r="C254" s="201"/>
+      <c r="D254" s="220"/>
       <c r="E254" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F254" s="19"/>
       <c r="G254" s="4"/>
@@ -9254,14 +9236,14 @@
       <c r="T254" s="4"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="208"/>
-      <c r="B255" s="216"/>
-      <c r="C255" s="226"/>
+      <c r="A255" s="187"/>
+      <c r="B255" s="190"/>
+      <c r="C255" s="201"/>
       <c r="D255" s="125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E255" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F255" s="19"/>
       <c r="G255" s="4"/>
@@ -9280,12 +9262,12 @@
       <c r="T255" s="4"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="208"/>
-      <c r="B256" s="216"/>
-      <c r="C256" s="226"/>
+      <c r="A256" s="187"/>
+      <c r="B256" s="190"/>
+      <c r="C256" s="201"/>
       <c r="D256" s="124"/>
       <c r="E256" s="47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F256" s="19"/>
       <c r="G256" s="4"/>
@@ -9304,10 +9286,10 @@
       <c r="T256" s="4"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" s="208"/>
-      <c r="B257" s="216"/>
-      <c r="C257" s="226"/>
-      <c r="D257" s="201"/>
+      <c r="A257" s="187"/>
+      <c r="B257" s="190"/>
+      <c r="C257" s="201"/>
+      <c r="D257" s="219"/>
       <c r="E257" s="47"/>
       <c r="F257" s="19"/>
       <c r="G257" s="4"/>
@@ -9326,10 +9308,10 @@
       <c r="T257" s="4"/>
     </row>
     <row r="258" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="222"/>
-      <c r="B258" s="224"/>
-      <c r="C258" s="227"/>
-      <c r="D258" s="202"/>
+      <c r="A258" s="188"/>
+      <c r="B258" s="191"/>
+      <c r="C258" s="202"/>
+      <c r="D258" s="220"/>
       <c r="E258" s="48"/>
       <c r="F258" s="49"/>
       <c r="G258" s="4"/>
@@ -9348,16 +9330,16 @@
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="221" t="s">
+      <c r="A259" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="223" t="s">
+      <c r="B259" s="189" t="s">
+        <v>168</v>
+      </c>
+      <c r="C259" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="C259" s="225" t="s">
-        <v>170</v>
-      </c>
-      <c r="D259" s="201"/>
+      <c r="D259" s="219"/>
       <c r="E259" s="127"/>
       <c r="F259" s="51"/>
       <c r="G259" s="4"/>
@@ -9376,12 +9358,12 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" s="208"/>
-      <c r="B260" s="216"/>
-      <c r="C260" s="226"/>
-      <c r="D260" s="202"/>
+      <c r="A260" s="187"/>
+      <c r="B260" s="190"/>
+      <c r="C260" s="201"/>
+      <c r="D260" s="220"/>
       <c r="E260" s="128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F260" s="19"/>
       <c r="G260" s="4"/>
@@ -9400,14 +9382,14 @@
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="208"/>
-      <c r="B261" s="216"/>
-      <c r="C261" s="226"/>
-      <c r="D261" s="201" t="s">
-        <v>103</v>
+      <c r="A261" s="187"/>
+      <c r="B261" s="190"/>
+      <c r="C261" s="201"/>
+      <c r="D261" s="219" t="s">
+        <v>102</v>
       </c>
       <c r="E261" s="128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F261" s="19"/>
       <c r="G261" s="4"/>
@@ -9426,12 +9408,12 @@
       <c r="T261" s="4"/>
     </row>
     <row r="262" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="208"/>
-      <c r="B262" s="216"/>
-      <c r="C262" s="226"/>
-      <c r="D262" s="202"/>
+      <c r="A262" s="187"/>
+      <c r="B262" s="190"/>
+      <c r="C262" s="201"/>
+      <c r="D262" s="220"/>
       <c r="E262" s="128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F262" s="19"/>
       <c r="G262" s="4"/>
@@ -9450,12 +9432,12 @@
       <c r="T262" s="4"/>
     </row>
     <row r="263" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="208"/>
-      <c r="B263" s="216"/>
-      <c r="C263" s="226"/>
+      <c r="A263" s="187"/>
+      <c r="B263" s="190"/>
+      <c r="C263" s="201"/>
       <c r="D263" s="126"/>
       <c r="E263" s="128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F263" s="19"/>
       <c r="G263" s="4"/>
@@ -9474,12 +9456,12 @@
       <c r="T263" s="4"/>
     </row>
     <row r="264" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="208"/>
-      <c r="B264" s="216"/>
-      <c r="C264" s="226"/>
+      <c r="A264" s="187"/>
+      <c r="B264" s="190"/>
+      <c r="C264" s="201"/>
       <c r="D264" s="126"/>
       <c r="E264" s="128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F264" s="19"/>
       <c r="G264" s="4"/>
@@ -9498,12 +9480,12 @@
       <c r="T264" s="4"/>
     </row>
     <row r="265" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="208"/>
-      <c r="B265" s="216"/>
-      <c r="C265" s="226"/>
+      <c r="A265" s="187"/>
+      <c r="B265" s="190"/>
+      <c r="C265" s="201"/>
       <c r="D265" s="126"/>
       <c r="E265" s="128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F265" s="19"/>
       <c r="G265" s="4"/>
@@ -9522,12 +9504,12 @@
       <c r="T265" s="4"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" s="208"/>
-      <c r="B266" s="216"/>
-      <c r="C266" s="226"/>
-      <c r="D266" s="199"/>
+      <c r="A266" s="187"/>
+      <c r="B266" s="190"/>
+      <c r="C266" s="201"/>
+      <c r="D266" s="221"/>
       <c r="E266" s="130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F266" s="19"/>
       <c r="G266" s="4"/>
@@ -9546,12 +9528,12 @@
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="222"/>
-      <c r="B267" s="224"/>
-      <c r="C267" s="227"/>
-      <c r="D267" s="200"/>
+      <c r="A267" s="188"/>
+      <c r="B267" s="191"/>
+      <c r="C267" s="202"/>
+      <c r="D267" s="222"/>
       <c r="E267" s="131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F267" s="49"/>
       <c r="G267" s="4"/>
@@ -9570,17 +9552,17 @@
       <c r="T267" s="4"/>
     </row>
     <row r="268" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="221" t="s">
+      <c r="A268" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="B268" s="223" t="s">
-        <v>304</v>
-      </c>
-      <c r="C268" s="217" t="s">
-        <v>301</v>
-      </c>
-      <c r="D268" s="246" t="s">
-        <v>103</v>
+      <c r="B268" s="189" t="s">
+        <v>302</v>
+      </c>
+      <c r="C268" s="192" t="s">
+        <v>299</v>
+      </c>
+      <c r="D268" s="205" t="s">
+        <v>102</v>
       </c>
       <c r="E268" s="127"/>
       <c r="F268" s="51"/>
@@ -9600,12 +9582,12 @@
       <c r="T268" s="4"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" s="208"/>
-      <c r="B269" s="216"/>
-      <c r="C269" s="211"/>
-      <c r="D269" s="233"/>
+      <c r="A269" s="187"/>
+      <c r="B269" s="190"/>
+      <c r="C269" s="193"/>
+      <c r="D269" s="184"/>
       <c r="E269" s="128" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F269" s="19"/>
       <c r="G269" s="4"/>
@@ -9624,12 +9606,12 @@
       <c r="T269" s="4"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" s="208"/>
-      <c r="B270" s="216"/>
-      <c r="C270" s="211"/>
-      <c r="D270" s="233"/>
+      <c r="A270" s="187"/>
+      <c r="B270" s="190"/>
+      <c r="C270" s="193"/>
+      <c r="D270" s="184"/>
       <c r="E270" s="50" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F270" s="19"/>
       <c r="G270" s="4"/>
@@ -9648,12 +9630,12 @@
       <c r="T270" s="4"/>
     </row>
     <row r="271" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A271" s="208"/>
-      <c r="B271" s="216"/>
-      <c r="C271" s="211"/>
-      <c r="D271" s="233"/>
+      <c r="A271" s="187"/>
+      <c r="B271" s="190"/>
+      <c r="C271" s="193"/>
+      <c r="D271" s="184"/>
       <c r="E271" s="166" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F271" s="19"/>
       <c r="G271" s="4"/>
@@ -9672,10 +9654,10 @@
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="222"/>
-      <c r="B272" s="224"/>
-      <c r="C272" s="218"/>
-      <c r="D272" s="234"/>
+      <c r="A272" s="188"/>
+      <c r="B272" s="191"/>
+      <c r="C272" s="194"/>
+      <c r="D272" s="185"/>
       <c r="E272" s="134"/>
       <c r="F272" s="49"/>
       <c r="G272" s="4"/>
@@ -9694,17 +9676,17 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="221" t="s">
+      <c r="A273" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="B273" s="223" t="s">
+      <c r="B273" s="189" t="s">
+        <v>175</v>
+      </c>
+      <c r="C273" s="192" t="s">
         <v>176</v>
       </c>
-      <c r="C273" s="217" t="s">
-        <v>177</v>
-      </c>
-      <c r="D273" s="219" t="s">
-        <v>103</v>
+      <c r="D273" s="233" t="s">
+        <v>102</v>
       </c>
       <c r="E273" s="20"/>
       <c r="F273" s="50"/>
@@ -9724,12 +9706,12 @@
       <c r="T273" s="4"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="208"/>
-      <c r="B274" s="216"/>
-      <c r="C274" s="211"/>
-      <c r="D274" s="213"/>
+      <c r="A274" s="187"/>
+      <c r="B274" s="190"/>
+      <c r="C274" s="193"/>
+      <c r="D274" s="206"/>
       <c r="E274" s="133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F274" s="123"/>
       <c r="G274" s="4"/>
@@ -9748,12 +9730,12 @@
       <c r="T274" s="4"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A275" s="208"/>
-      <c r="B275" s="216"/>
-      <c r="C275" s="211"/>
-      <c r="D275" s="213"/>
+      <c r="A275" s="187"/>
+      <c r="B275" s="190"/>
+      <c r="C275" s="193"/>
+      <c r="D275" s="206"/>
       <c r="E275" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F275" s="47"/>
       <c r="G275" s="4"/>
@@ -9772,12 +9754,12 @@
       <c r="T275" s="4"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" s="208"/>
-      <c r="B276" s="216"/>
-      <c r="C276" s="211"/>
-      <c r="D276" s="213"/>
+      <c r="A276" s="187"/>
+      <c r="B276" s="190"/>
+      <c r="C276" s="193"/>
+      <c r="D276" s="206"/>
       <c r="E276" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F276" s="47"/>
       <c r="G276" s="4"/>
@@ -9796,12 +9778,12 @@
       <c r="T276" s="4"/>
     </row>
     <row r="277" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="208"/>
-      <c r="B277" s="216"/>
-      <c r="C277" s="211"/>
-      <c r="D277" s="213"/>
+      <c r="A277" s="187"/>
+      <c r="B277" s="190"/>
+      <c r="C277" s="193"/>
+      <c r="D277" s="206"/>
       <c r="E277" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F277" s="47"/>
       <c r="G277" s="4"/>
@@ -9820,10 +9802,10 @@
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" s="208"/>
-      <c r="B278" s="216"/>
-      <c r="C278" s="211"/>
-      <c r="D278" s="213"/>
+      <c r="A278" s="187"/>
+      <c r="B278" s="190"/>
+      <c r="C278" s="193"/>
+      <c r="D278" s="206"/>
       <c r="E278" s="13"/>
       <c r="F278" s="47"/>
       <c r="G278" s="4"/>
@@ -9842,10 +9824,10 @@
       <c r="T278" s="4"/>
     </row>
     <row r="279" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="222"/>
-      <c r="B279" s="224"/>
-      <c r="C279" s="218"/>
-      <c r="D279" s="220"/>
+      <c r="A279" s="188"/>
+      <c r="B279" s="191"/>
+      <c r="C279" s="194"/>
+      <c r="D279" s="207"/>
       <c r="E279" s="135"/>
       <c r="F279" s="48"/>
       <c r="G279" s="4"/>
@@ -9864,17 +9846,17 @@
       <c r="T279" s="4"/>
     </row>
     <row r="280" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="221" t="s">
+      <c r="A280" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="B280" s="223" t="s">
+      <c r="B280" s="189" t="s">
+        <v>181</v>
+      </c>
+      <c r="C280" s="192" t="s">
         <v>182</v>
       </c>
-      <c r="C280" s="217" t="s">
-        <v>183</v>
-      </c>
-      <c r="D280" s="219" t="s">
-        <v>103</v>
+      <c r="D280" s="233" t="s">
+        <v>102</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="50"/>
@@ -9894,12 +9876,12 @@
       <c r="T280" s="4"/>
     </row>
     <row r="281" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="208"/>
-      <c r="B281" s="216"/>
-      <c r="C281" s="211"/>
-      <c r="D281" s="213"/>
+      <c r="A281" s="187"/>
+      <c r="B281" s="190"/>
+      <c r="C281" s="193"/>
+      <c r="D281" s="206"/>
       <c r="E281" s="136" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F281" s="64"/>
       <c r="G281" s="4"/>
@@ -9918,12 +9900,12 @@
       <c r="T281" s="4"/>
     </row>
     <row r="282" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="208"/>
-      <c r="B282" s="216"/>
-      <c r="C282" s="211"/>
-      <c r="D282" s="213"/>
+      <c r="A282" s="187"/>
+      <c r="B282" s="190"/>
+      <c r="C282" s="193"/>
+      <c r="D282" s="206"/>
       <c r="E282" s="136" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F282" s="64"/>
       <c r="G282" s="4"/>
@@ -9942,12 +9924,12 @@
       <c r="T282" s="4"/>
     </row>
     <row r="283" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="208"/>
-      <c r="B283" s="216"/>
-      <c r="C283" s="211"/>
-      <c r="D283" s="213"/>
+      <c r="A283" s="187"/>
+      <c r="B283" s="190"/>
+      <c r="C283" s="193"/>
+      <c r="D283" s="206"/>
       <c r="E283" s="136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F283" s="64"/>
       <c r="G283" s="4"/>
@@ -9966,12 +9948,12 @@
       <c r="T283" s="4"/>
     </row>
     <row r="284" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="208"/>
-      <c r="B284" s="216"/>
-      <c r="C284" s="211"/>
-      <c r="D284" s="213"/>
+      <c r="A284" s="187"/>
+      <c r="B284" s="190"/>
+      <c r="C284" s="193"/>
+      <c r="D284" s="206"/>
       <c r="E284" s="133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F284" s="64"/>
       <c r="G284" s="4"/>
@@ -9990,12 +9972,12 @@
       <c r="T284" s="4"/>
     </row>
     <row r="285" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="208"/>
-      <c r="B285" s="216"/>
-      <c r="C285" s="211"/>
-      <c r="D285" s="213"/>
+      <c r="A285" s="187"/>
+      <c r="B285" s="190"/>
+      <c r="C285" s="193"/>
+      <c r="D285" s="206"/>
       <c r="E285" s="133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F285" s="64"/>
       <c r="G285" s="4"/>
@@ -10014,10 +9996,10 @@
       <c r="T285" s="4"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="208"/>
-      <c r="B286" s="216"/>
-      <c r="C286" s="211"/>
-      <c r="D286" s="213"/>
+      <c r="A286" s="187"/>
+      <c r="B286" s="190"/>
+      <c r="C286" s="193"/>
+      <c r="D286" s="206"/>
       <c r="E286" s="133"/>
       <c r="F286" s="123"/>
       <c r="G286" s="4"/>
@@ -10036,10 +10018,10 @@
       <c r="T286" s="4"/>
     </row>
     <row r="287" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="222"/>
-      <c r="B287" s="224"/>
-      <c r="C287" s="218"/>
-      <c r="D287" s="220"/>
+      <c r="A287" s="188"/>
+      <c r="B287" s="191"/>
+      <c r="C287" s="194"/>
+      <c r="D287" s="207"/>
       <c r="E287" s="136"/>
       <c r="F287" s="48"/>
       <c r="G287" s="4"/>
@@ -10058,17 +10040,17 @@
       <c r="T287" s="4"/>
     </row>
     <row r="288" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="221" t="s">
+      <c r="A288" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B288" s="223" t="s">
+      <c r="B288" s="189" t="s">
+        <v>188</v>
+      </c>
+      <c r="C288" s="192" t="s">
         <v>189</v>
       </c>
-      <c r="C288" s="217" t="s">
-        <v>190</v>
-      </c>
-      <c r="D288" s="219" t="s">
-        <v>103</v>
+      <c r="D288" s="233" t="s">
+        <v>102</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="50"/>
@@ -10088,12 +10070,12 @@
       <c r="T288" s="4"/>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A289" s="208"/>
-      <c r="B289" s="216"/>
-      <c r="C289" s="211"/>
-      <c r="D289" s="213"/>
+      <c r="A289" s="187"/>
+      <c r="B289" s="190"/>
+      <c r="C289" s="193"/>
+      <c r="D289" s="206"/>
       <c r="E289" s="133" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F289" s="123"/>
       <c r="G289" s="4"/>
@@ -10112,12 +10094,12 @@
       <c r="T289" s="4"/>
     </row>
     <row r="290" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="208"/>
-      <c r="B290" s="216"/>
-      <c r="C290" s="211"/>
-      <c r="D290" s="213"/>
+      <c r="A290" s="187"/>
+      <c r="B290" s="190"/>
+      <c r="C290" s="193"/>
+      <c r="D290" s="206"/>
       <c r="E290" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F290" s="123"/>
       <c r="G290" s="4"/>
@@ -10136,12 +10118,12 @@
       <c r="T290" s="4"/>
     </row>
     <row r="291" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="208"/>
-      <c r="B291" s="216"/>
-      <c r="C291" s="211"/>
-      <c r="D291" s="213"/>
+      <c r="A291" s="187"/>
+      <c r="B291" s="190"/>
+      <c r="C291" s="193"/>
+      <c r="D291" s="206"/>
       <c r="E291" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F291" s="123"/>
       <c r="G291" s="4"/>
@@ -10160,12 +10142,12 @@
       <c r="T291" s="4"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="208"/>
-      <c r="B292" s="216"/>
-      <c r="C292" s="211"/>
-      <c r="D292" s="213"/>
+      <c r="A292" s="187"/>
+      <c r="B292" s="190"/>
+      <c r="C292" s="193"/>
+      <c r="D292" s="206"/>
       <c r="E292" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F292" s="47"/>
       <c r="G292" s="4"/>
@@ -10184,12 +10166,12 @@
       <c r="T292" s="4"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A293" s="208"/>
-      <c r="B293" s="216"/>
-      <c r="C293" s="211"/>
-      <c r="D293" s="213"/>
+      <c r="A293" s="187"/>
+      <c r="B293" s="190"/>
+      <c r="C293" s="193"/>
+      <c r="D293" s="206"/>
       <c r="E293" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F293" s="47"/>
       <c r="G293" s="4"/>
@@ -10208,12 +10190,12 @@
       <c r="T293" s="4"/>
     </row>
     <row r="294" spans="1:20" s="98" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A294" s="208"/>
-      <c r="B294" s="216"/>
-      <c r="C294" s="211"/>
-      <c r="D294" s="213"/>
+      <c r="A294" s="187"/>
+      <c r="B294" s="190"/>
+      <c r="C294" s="193"/>
+      <c r="D294" s="206"/>
       <c r="E294" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F294" s="47"/>
       <c r="G294" s="4"/>
@@ -10232,12 +10214,12 @@
       <c r="T294" s="4"/>
     </row>
     <row r="295" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="208"/>
-      <c r="B295" s="216"/>
-      <c r="C295" s="211"/>
-      <c r="D295" s="213"/>
+      <c r="A295" s="187"/>
+      <c r="B295" s="190"/>
+      <c r="C295" s="193"/>
+      <c r="D295" s="206"/>
       <c r="E295" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F295" s="47"/>
       <c r="G295" s="4"/>
@@ -10256,12 +10238,12 @@
       <c r="T295" s="4"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A296" s="208"/>
-      <c r="B296" s="216"/>
-      <c r="C296" s="211"/>
-      <c r="D296" s="213"/>
+      <c r="A296" s="187"/>
+      <c r="B296" s="190"/>
+      <c r="C296" s="193"/>
+      <c r="D296" s="206"/>
       <c r="E296" s="132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F296" s="47"/>
       <c r="G296" s="4"/>
@@ -10280,12 +10262,12 @@
       <c r="T296" s="4"/>
     </row>
     <row r="297" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="208"/>
-      <c r="B297" s="216"/>
-      <c r="C297" s="211"/>
-      <c r="D297" s="213"/>
+      <c r="A297" s="187"/>
+      <c r="B297" s="190"/>
+      <c r="C297" s="193"/>
+      <c r="D297" s="206"/>
       <c r="E297" s="133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F297" s="137"/>
       <c r="G297" s="4"/>
@@ -10304,12 +10286,12 @@
       <c r="T297" s="4"/>
     </row>
     <row r="298" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="222"/>
-      <c r="B298" s="224"/>
-      <c r="C298" s="218"/>
-      <c r="D298" s="220"/>
+      <c r="A298" s="188"/>
+      <c r="B298" s="191"/>
+      <c r="C298" s="194"/>
+      <c r="D298" s="207"/>
       <c r="E298" s="138" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F298" s="48"/>
       <c r="G298" s="4"/>
@@ -10328,17 +10310,17 @@
       <c r="T298" s="4"/>
     </row>
     <row r="299" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="190" t="s">
+      <c r="A299" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="B299" s="182" t="s">
+      <c r="B299" s="227" t="s">
+        <v>199</v>
+      </c>
+      <c r="C299" s="231" t="s">
         <v>200</v>
       </c>
-      <c r="C299" s="186" t="s">
-        <v>201</v>
-      </c>
-      <c r="D299" s="187" t="s">
-        <v>103</v>
+      <c r="D299" s="234" t="s">
+        <v>102</v>
       </c>
       <c r="E299" s="34"/>
       <c r="F299" s="50"/>
@@ -10358,12 +10340,12 @@
       <c r="T299" s="4"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A300" s="174"/>
-      <c r="B300" s="183"/>
-      <c r="C300" s="183"/>
-      <c r="D300" s="188"/>
+      <c r="A300" s="224"/>
+      <c r="B300" s="228"/>
+      <c r="C300" s="228"/>
+      <c r="D300" s="235"/>
       <c r="E300" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F300" s="123"/>
       <c r="G300" s="4"/>
@@ -10382,12 +10364,12 @@
       <c r="T300" s="4"/>
     </row>
     <row r="301" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="180"/>
-      <c r="B301" s="184"/>
-      <c r="C301" s="184"/>
-      <c r="D301" s="188"/>
+      <c r="A301" s="225"/>
+      <c r="B301" s="229"/>
+      <c r="C301" s="229"/>
+      <c r="D301" s="235"/>
       <c r="E301" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F301" s="123"/>
       <c r="G301" s="4"/>
@@ -10406,12 +10388,12 @@
       <c r="T301" s="4"/>
     </row>
     <row r="302" spans="1:20" s="98" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A302" s="180"/>
-      <c r="B302" s="184"/>
-      <c r="C302" s="184"/>
-      <c r="D302" s="188"/>
+      <c r="A302" s="225"/>
+      <c r="B302" s="229"/>
+      <c r="C302" s="229"/>
+      <c r="D302" s="235"/>
       <c r="E302" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F302" s="123"/>
       <c r="G302" s="4"/>
@@ -10430,10 +10412,10 @@
       <c r="T302" s="4"/>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A303" s="174"/>
-      <c r="B303" s="183"/>
-      <c r="C303" s="183"/>
-      <c r="D303" s="183"/>
+      <c r="A303" s="224"/>
+      <c r="B303" s="228"/>
+      <c r="C303" s="228"/>
+      <c r="D303" s="228"/>
       <c r="E303" s="34"/>
       <c r="F303" s="47"/>
       <c r="G303" s="4"/>
@@ -10452,10 +10434,10 @@
       <c r="T303" s="4"/>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A304" s="174"/>
-      <c r="B304" s="183"/>
-      <c r="C304" s="183"/>
-      <c r="D304" s="183"/>
+      <c r="A304" s="224"/>
+      <c r="B304" s="228"/>
+      <c r="C304" s="228"/>
+      <c r="D304" s="228"/>
       <c r="E304" s="132"/>
       <c r="F304" s="47"/>
       <c r="G304" s="4"/>
@@ -10474,10 +10456,10 @@
       <c r="T304" s="4"/>
     </row>
     <row r="305" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="175"/>
-      <c r="B305" s="185"/>
-      <c r="C305" s="185"/>
-      <c r="D305" s="189"/>
+      <c r="A305" s="226"/>
+      <c r="B305" s="230"/>
+      <c r="C305" s="230"/>
+      <c r="D305" s="246"/>
       <c r="E305" s="140"/>
       <c r="F305" s="139"/>
       <c r="G305" s="4"/>
@@ -10496,17 +10478,17 @@
       <c r="T305" s="4"/>
     </row>
     <row r="306" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="190" t="s">
+      <c r="A306" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="B306" s="182" t="s">
-        <v>205</v>
-      </c>
-      <c r="C306" s="186" t="s">
-        <v>207</v>
-      </c>
-      <c r="D306" s="191" t="s">
-        <v>103</v>
+      <c r="B306" s="227" t="s">
+        <v>204</v>
+      </c>
+      <c r="C306" s="231" t="s">
+        <v>206</v>
+      </c>
+      <c r="D306" s="237" t="s">
+        <v>102</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="50"/>
@@ -10526,12 +10508,12 @@
       <c r="T306" s="4"/>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A307" s="174"/>
-      <c r="B307" s="183"/>
-      <c r="C307" s="183"/>
-      <c r="D307" s="191"/>
+      <c r="A307" s="224"/>
+      <c r="B307" s="228"/>
+      <c r="C307" s="228"/>
+      <c r="D307" s="237"/>
       <c r="E307" s="133" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F307" s="123"/>
       <c r="G307" s="4"/>
@@ -10550,12 +10532,12 @@
       <c r="T307" s="4"/>
     </row>
     <row r="308" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="180"/>
-      <c r="B308" s="184"/>
-      <c r="C308" s="184"/>
+      <c r="A308" s="225"/>
+      <c r="B308" s="229"/>
+      <c r="C308" s="229"/>
       <c r="D308" s="163"/>
       <c r="E308" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F308" s="123"/>
       <c r="G308" s="4"/>
@@ -10574,12 +10556,12 @@
       <c r="T308" s="4"/>
     </row>
     <row r="309" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="180"/>
-      <c r="B309" s="184"/>
-      <c r="C309" s="184"/>
+      <c r="A309" s="225"/>
+      <c r="B309" s="229"/>
+      <c r="C309" s="229"/>
       <c r="D309" s="163"/>
       <c r="E309" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F309" s="123"/>
       <c r="G309" s="4"/>
@@ -10598,14 +10580,14 @@
       <c r="T309" s="4"/>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A310" s="174"/>
-      <c r="B310" s="183"/>
-      <c r="C310" s="183"/>
+      <c r="A310" s="224"/>
+      <c r="B310" s="228"/>
+      <c r="C310" s="228"/>
       <c r="D310" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E310" s="167" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F310" s="47"/>
       <c r="G310" s="4"/>
@@ -10624,12 +10606,12 @@
       <c r="T310" s="4"/>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A311" s="174"/>
-      <c r="B311" s="183"/>
-      <c r="C311" s="183"/>
+      <c r="A311" s="224"/>
+      <c r="B311" s="228"/>
+      <c r="C311" s="228"/>
       <c r="D311" s="126"/>
       <c r="E311" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F311" s="47"/>
       <c r="G311" s="4"/>
@@ -10648,12 +10630,12 @@
       <c r="T311" s="4"/>
     </row>
     <row r="312" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="180"/>
-      <c r="B312" s="184"/>
-      <c r="C312" s="184"/>
+      <c r="A312" s="225"/>
+      <c r="B312" s="229"/>
+      <c r="C312" s="229"/>
       <c r="D312" s="163"/>
       <c r="E312" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F312" s="47"/>
       <c r="G312" s="4"/>
@@ -10672,12 +10654,12 @@
       <c r="T312" s="4"/>
     </row>
     <row r="313" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="174"/>
-      <c r="B313" s="183"/>
-      <c r="C313" s="183"/>
-      <c r="D313" s="191"/>
+      <c r="A313" s="224"/>
+      <c r="B313" s="228"/>
+      <c r="C313" s="228"/>
+      <c r="D313" s="237"/>
       <c r="E313" s="135" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F313" s="47"/>
       <c r="G313" s="4"/>
@@ -10696,10 +10678,10 @@
       <c r="T313" s="4"/>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A314" s="174"/>
-      <c r="B314" s="183"/>
-      <c r="C314" s="183"/>
-      <c r="D314" s="191"/>
+      <c r="A314" s="224"/>
+      <c r="B314" s="228"/>
+      <c r="C314" s="228"/>
+      <c r="D314" s="237"/>
       <c r="F314" s="47"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10717,9 +10699,9 @@
       <c r="T314" s="4"/>
     </row>
     <row r="315" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="175"/>
-      <c r="B315" s="185"/>
-      <c r="C315" s="185"/>
+      <c r="A315" s="226"/>
+      <c r="B315" s="230"/>
+      <c r="C315" s="230"/>
       <c r="D315" s="108"/>
       <c r="E315" s="135"/>
       <c r="F315" s="48"/>
@@ -10739,17 +10721,17 @@
       <c r="T315" s="4"/>
     </row>
     <row r="316" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="173" t="s">
+      <c r="A316" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="B316" s="182" t="s">
-        <v>308</v>
-      </c>
-      <c r="C316" s="186" t="s">
-        <v>208</v>
-      </c>
-      <c r="D316" s="207" t="s">
-        <v>103</v>
+      <c r="B316" s="227" t="s">
+        <v>306</v>
+      </c>
+      <c r="C316" s="231" t="s">
+        <v>207</v>
+      </c>
+      <c r="D316" s="236" t="s">
+        <v>102</v>
       </c>
       <c r="E316" s="133"/>
       <c r="F316" s="50"/>
@@ -10769,12 +10751,12 @@
       <c r="T316" s="4"/>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A317" s="174"/>
-      <c r="B317" s="183"/>
-      <c r="C317" s="183"/>
-      <c r="D317" s="191"/>
+      <c r="A317" s="224"/>
+      <c r="B317" s="228"/>
+      <c r="C317" s="228"/>
+      <c r="D317" s="237"/>
       <c r="E317" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F317" s="123"/>
       <c r="G317" s="4"/>
@@ -10793,14 +10775,14 @@
       <c r="T317" s="4"/>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A318" s="174"/>
-      <c r="B318" s="183"/>
-      <c r="C318" s="183"/>
+      <c r="A318" s="224"/>
+      <c r="B318" s="228"/>
+      <c r="C318" s="228"/>
       <c r="D318" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E318" s="133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F318" s="47"/>
       <c r="G318" s="4"/>
@@ -10819,12 +10801,12 @@
       <c r="T318" s="4"/>
     </row>
     <row r="319" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="180"/>
-      <c r="B319" s="184"/>
-      <c r="C319" s="184"/>
+      <c r="A319" s="225"/>
+      <c r="B319" s="229"/>
+      <c r="C319" s="229"/>
       <c r="D319" s="163"/>
       <c r="E319" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F319" s="47"/>
       <c r="G319" s="4"/>
@@ -10843,9 +10825,9 @@
       <c r="T319" s="4"/>
     </row>
     <row r="320" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="180"/>
-      <c r="B320" s="184"/>
-      <c r="C320" s="184"/>
+      <c r="A320" s="225"/>
+      <c r="B320" s="229"/>
+      <c r="C320" s="229"/>
       <c r="D320" s="163"/>
       <c r="F320" s="47"/>
       <c r="G320" s="4"/>
@@ -10864,11 +10846,11 @@
       <c r="T320" s="4"/>
     </row>
     <row r="321" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A321" s="174"/>
-      <c r="B321" s="183"/>
-      <c r="C321" s="183"/>
+      <c r="A321" s="224"/>
+      <c r="B321" s="228"/>
+      <c r="C321" s="228"/>
       <c r="D321" s="126" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E321" s="13"/>
       <c r="F321" s="47"/>
@@ -10888,9 +10870,9 @@
       <c r="T321" s="4"/>
     </row>
     <row r="322" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="175"/>
-      <c r="B322" s="185"/>
-      <c r="C322" s="185"/>
+      <c r="A322" s="226"/>
+      <c r="B322" s="230"/>
+      <c r="C322" s="230"/>
       <c r="D322" s="108"/>
       <c r="E322" s="135"/>
       <c r="F322" s="48"/>
@@ -10910,18 +10892,18 @@
       <c r="T322" s="4"/>
     </row>
     <row r="323" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="190" t="s">
+      <c r="A323" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="B323" s="182" t="s">
-        <v>323</v>
-      </c>
-      <c r="C323" s="186" t="s">
-        <v>324</v>
+      <c r="B323" s="227" t="s">
+        <v>321</v>
+      </c>
+      <c r="C323" s="231" t="s">
+        <v>322</v>
       </c>
       <c r="D323" s="163"/>
       <c r="E323" s="133" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F323" s="50"/>
       <c r="G323" s="4"/>
@@ -10940,14 +10922,14 @@
       <c r="T323" s="4"/>
     </row>
     <row r="324" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="174"/>
-      <c r="B324" s="183"/>
-      <c r="C324" s="183"/>
+      <c r="A324" s="224"/>
+      <c r="B324" s="228"/>
+      <c r="C324" s="228"/>
       <c r="D324" s="108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E324" s="34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F324" s="123"/>
       <c r="G324" s="4"/>
@@ -10966,14 +10948,14 @@
       <c r="T324" s="4"/>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A325" s="174"/>
-      <c r="B325" s="183"/>
-      <c r="C325" s="183"/>
+      <c r="A325" s="224"/>
+      <c r="B325" s="228"/>
+      <c r="C325" s="228"/>
       <c r="D325" s="163" t="s">
+        <v>323</v>
+      </c>
+      <c r="E325" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="F325" s="47"/>
       <c r="G325" s="4"/>
@@ -10992,12 +10974,12 @@
       <c r="T325" s="4"/>
     </row>
     <row r="326" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="174"/>
-      <c r="B326" s="183"/>
-      <c r="C326" s="183"/>
+      <c r="A326" s="224"/>
+      <c r="B326" s="228"/>
+      <c r="C326" s="228"/>
       <c r="D326" s="108"/>
       <c r="E326" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F326" s="47"/>
       <c r="G326" s="4"/>
@@ -11016,12 +10998,12 @@
       <c r="T326" s="4"/>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A327" s="174"/>
-      <c r="B327" s="183"/>
-      <c r="C327" s="183"/>
+      <c r="A327" s="224"/>
+      <c r="B327" s="228"/>
+      <c r="C327" s="228"/>
       <c r="D327" s="163"/>
       <c r="E327" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F327" s="47"/>
       <c r="G327" s="4"/>
@@ -11040,12 +11022,12 @@
       <c r="T327" s="4"/>
     </row>
     <row r="328" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="174"/>
-      <c r="B328" s="183"/>
-      <c r="C328" s="183"/>
+      <c r="A328" s="224"/>
+      <c r="B328" s="228"/>
+      <c r="C328" s="228"/>
       <c r="D328" s="108"/>
       <c r="E328" s="135" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F328" s="47"/>
       <c r="G328" s="4"/>
@@ -11064,9 +11046,9 @@
       <c r="T328" s="4"/>
     </row>
     <row r="329" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="175"/>
-      <c r="B329" s="185"/>
-      <c r="C329" s="185"/>
+      <c r="A329" s="226"/>
+      <c r="B329" s="230"/>
+      <c r="C329" s="230"/>
       <c r="D329" s="163"/>
       <c r="E329" s="20"/>
       <c r="F329" s="48"/>
@@ -11086,16 +11068,16 @@
       <c r="T329" s="4"/>
     </row>
     <row r="330" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="190" t="s">
+      <c r="A330" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="B330" s="182" t="s">
+      <c r="B330" s="227" t="s">
+        <v>211</v>
+      </c>
+      <c r="C330" s="231" t="s">
         <v>212</v>
       </c>
-      <c r="C330" s="186" t="s">
-        <v>213</v>
-      </c>
-      <c r="D330" s="187"/>
+      <c r="D330" s="234"/>
       <c r="E330" s="20"/>
       <c r="F330" s="50"/>
       <c r="G330" s="4"/>
@@ -11114,12 +11096,12 @@
       <c r="T330" s="4"/>
     </row>
     <row r="331" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="208"/>
-      <c r="B331" s="216"/>
-      <c r="C331" s="211"/>
-      <c r="D331" s="213"/>
+      <c r="A331" s="187"/>
+      <c r="B331" s="190"/>
+      <c r="C331" s="193"/>
+      <c r="D331" s="206"/>
       <c r="E331" s="133" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F331" s="64"/>
       <c r="G331" s="4"/>
@@ -11138,12 +11120,12 @@
       <c r="T331" s="4"/>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A332" s="174"/>
-      <c r="B332" s="183"/>
-      <c r="C332" s="183"/>
-      <c r="D332" s="188"/>
+      <c r="A332" s="224"/>
+      <c r="B332" s="228"/>
+      <c r="C332" s="228"/>
+      <c r="D332" s="235"/>
       <c r="E332" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F332" s="123"/>
       <c r="G332" s="4"/>
@@ -11162,10 +11144,10 @@
       <c r="T332" s="4"/>
     </row>
     <row r="333" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="175"/>
-      <c r="B333" s="185"/>
-      <c r="C333" s="185"/>
-      <c r="D333" s="185"/>
+      <c r="A333" s="226"/>
+      <c r="B333" s="230"/>
+      <c r="C333" s="230"/>
+      <c r="D333" s="230"/>
       <c r="E333" s="136"/>
       <c r="F333" s="48"/>
       <c r="G333" s="4"/>
@@ -11184,17 +11166,17 @@
       <c r="T333" s="4"/>
     </row>
     <row r="334" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="190" t="s">
+      <c r="A334" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="B334" s="182" t="s">
+      <c r="B334" s="227" t="s">
+        <v>214</v>
+      </c>
+      <c r="C334" s="231" t="s">
         <v>215</v>
       </c>
-      <c r="C334" s="186" t="s">
-        <v>216</v>
-      </c>
-      <c r="D334" s="187" t="s">
-        <v>103</v>
+      <c r="D334" s="234" t="s">
+        <v>102</v>
       </c>
       <c r="E334" s="20"/>
       <c r="F334" s="50"/>
@@ -11214,12 +11196,12 @@
       <c r="T334" s="4"/>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A335" s="174"/>
-      <c r="B335" s="183"/>
-      <c r="C335" s="183"/>
-      <c r="D335" s="188"/>
+      <c r="A335" s="224"/>
+      <c r="B335" s="228"/>
+      <c r="C335" s="228"/>
+      <c r="D335" s="235"/>
       <c r="E335" s="133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F335" s="123"/>
       <c r="G335" s="4"/>
@@ -11238,12 +11220,12 @@
       <c r="T335" s="4"/>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A336" s="174"/>
-      <c r="B336" s="183"/>
-      <c r="C336" s="183"/>
-      <c r="D336" s="183"/>
+      <c r="A336" s="224"/>
+      <c r="B336" s="228"/>
+      <c r="C336" s="228"/>
+      <c r="D336" s="228"/>
       <c r="E336" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F336" s="47"/>
       <c r="G336" s="4"/>
@@ -11262,10 +11244,10 @@
       <c r="T336" s="4"/>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A337" s="174"/>
-      <c r="B337" s="183"/>
-      <c r="C337" s="183"/>
-      <c r="D337" s="183"/>
+      <c r="A337" s="224"/>
+      <c r="B337" s="228"/>
+      <c r="C337" s="228"/>
+      <c r="D337" s="228"/>
       <c r="E337" s="13"/>
       <c r="F337" s="47"/>
       <c r="G337" s="4"/>
@@ -11284,10 +11266,10 @@
       <c r="T337" s="4"/>
     </row>
     <row r="338" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="175"/>
-      <c r="B338" s="185"/>
-      <c r="C338" s="185"/>
-      <c r="D338" s="185"/>
+      <c r="A338" s="226"/>
+      <c r="B338" s="230"/>
+      <c r="C338" s="230"/>
+      <c r="D338" s="230"/>
       <c r="E338" s="135"/>
       <c r="F338" s="47"/>
       <c r="G338" s="4"/>
@@ -11306,17 +11288,17 @@
       <c r="T338" s="4"/>
     </row>
     <row r="339" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="190" t="s">
+      <c r="A339" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B339" s="176" t="s">
+      <c r="B339" s="238" t="s">
+        <v>218</v>
+      </c>
+      <c r="C339" s="241" t="s">
         <v>219</v>
       </c>
-      <c r="C339" s="179" t="s">
-        <v>220</v>
-      </c>
-      <c r="D339" s="214" t="s">
-        <v>103</v>
+      <c r="D339" s="242" t="s">
+        <v>102</v>
       </c>
       <c r="E339" s="20"/>
       <c r="F339" s="52"/>
@@ -11336,12 +11318,12 @@
       <c r="T339" s="4"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A340" s="174"/>
-      <c r="B340" s="177"/>
-      <c r="C340" s="177"/>
-      <c r="D340" s="215"/>
+      <c r="A340" s="224"/>
+      <c r="B340" s="239"/>
+      <c r="C340" s="239"/>
+      <c r="D340" s="243"/>
       <c r="E340" s="133" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F340" s="53"/>
       <c r="G340" s="4"/>
@@ -11360,12 +11342,12 @@
       <c r="T340" s="4"/>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A341" s="174"/>
-      <c r="B341" s="177"/>
-      <c r="C341" s="177"/>
-      <c r="D341" s="177"/>
+      <c r="A341" s="224"/>
+      <c r="B341" s="239"/>
+      <c r="C341" s="239"/>
+      <c r="D341" s="239"/>
       <c r="E341" s="141" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F341" s="54"/>
       <c r="G341" s="4"/>
@@ -11384,12 +11366,12 @@
       <c r="T341" s="4"/>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A342" s="174"/>
-      <c r="B342" s="177"/>
-      <c r="C342" s="177"/>
-      <c r="D342" s="177"/>
+      <c r="A342" s="224"/>
+      <c r="B342" s="239"/>
+      <c r="C342" s="239"/>
+      <c r="D342" s="239"/>
       <c r="E342" s="142" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F342" s="53"/>
       <c r="G342" s="4"/>
@@ -11408,10 +11390,10 @@
       <c r="T342" s="4"/>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A343" s="174"/>
-      <c r="B343" s="177"/>
-      <c r="C343" s="177"/>
-      <c r="D343" s="177"/>
+      <c r="A343" s="224"/>
+      <c r="B343" s="239"/>
+      <c r="C343" s="239"/>
+      <c r="D343" s="239"/>
       <c r="E343" s="34"/>
       <c r="F343" s="54"/>
       <c r="G343" s="4"/>
@@ -11430,10 +11412,10 @@
       <c r="T343" s="4"/>
     </row>
     <row r="344" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="175"/>
-      <c r="B344" s="178"/>
-      <c r="C344" s="178"/>
-      <c r="D344" s="178"/>
+      <c r="A344" s="226"/>
+      <c r="B344" s="240"/>
+      <c r="C344" s="240"/>
+      <c r="D344" s="240"/>
       <c r="E344" s="135"/>
       <c r="F344" s="55"/>
       <c r="G344" s="4"/>
@@ -11452,17 +11434,17 @@
       <c r="T344" s="4"/>
     </row>
     <row r="345" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="173" t="s">
+      <c r="A345" s="223" t="s">
         <v>53</v>
       </c>
-      <c r="B345" s="176" t="s">
+      <c r="B345" s="238" t="s">
+        <v>221</v>
+      </c>
+      <c r="C345" s="241" t="s">
         <v>222</v>
       </c>
-      <c r="C345" s="179" t="s">
-        <v>223</v>
-      </c>
       <c r="D345" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E345" s="20"/>
       <c r="F345" s="57"/>
@@ -11482,14 +11464,14 @@
       <c r="T345" s="4"/>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A346" s="174"/>
-      <c r="B346" s="177"/>
-      <c r="C346" s="177"/>
+      <c r="A346" s="224"/>
+      <c r="B346" s="239"/>
+      <c r="C346" s="239"/>
       <c r="D346" s="143" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E346" s="144" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F346" s="30"/>
       <c r="G346" s="4"/>
@@ -11508,12 +11490,12 @@
       <c r="T346" s="4"/>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A347" s="174"/>
-      <c r="B347" s="177"/>
-      <c r="C347" s="177"/>
+      <c r="A347" s="224"/>
+      <c r="B347" s="239"/>
+      <c r="C347" s="239"/>
       <c r="D347" s="80"/>
       <c r="E347" s="145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F347" s="59"/>
       <c r="G347" s="4"/>
@@ -11532,12 +11514,12 @@
       <c r="T347" s="4"/>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A348" s="174"/>
-      <c r="B348" s="177"/>
-      <c r="C348" s="177"/>
+      <c r="A348" s="224"/>
+      <c r="B348" s="239"/>
+      <c r="C348" s="239"/>
       <c r="D348" s="82"/>
       <c r="E348" s="111" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F348" s="31"/>
       <c r="G348" s="4"/>
@@ -11556,12 +11538,12 @@
       <c r="T348" s="4"/>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A349" s="174"/>
-      <c r="B349" s="177"/>
-      <c r="C349" s="177"/>
+      <c r="A349" s="224"/>
+      <c r="B349" s="239"/>
+      <c r="C349" s="239"/>
       <c r="D349" s="81"/>
       <c r="E349" s="58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F349" s="61"/>
       <c r="G349" s="4"/>
@@ -11580,9 +11562,9 @@
       <c r="T349" s="4"/>
     </row>
     <row r="350" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="175"/>
-      <c r="B350" s="178"/>
-      <c r="C350" s="178"/>
+      <c r="A350" s="226"/>
+      <c r="B350" s="240"/>
+      <c r="C350" s="240"/>
       <c r="D350" s="100"/>
       <c r="E350" s="160"/>
       <c r="F350" s="151"/>
@@ -11602,17 +11584,17 @@
       <c r="T350" s="4"/>
     </row>
     <row r="351" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="173" t="s">
+      <c r="A351" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="B351" s="176" t="s">
+      <c r="B351" s="238" t="s">
+        <v>225</v>
+      </c>
+      <c r="C351" s="241" t="s">
+        <v>224</v>
+      </c>
+      <c r="D351" s="242" t="s">
         <v>226</v>
-      </c>
-      <c r="C351" s="179" t="s">
-        <v>225</v>
-      </c>
-      <c r="D351" s="214" t="s">
-        <v>227</v>
       </c>
       <c r="E351" s="146"/>
       <c r="F351" s="57"/>
@@ -11632,10 +11614,10 @@
       <c r="T351" s="4"/>
     </row>
     <row r="352" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="174"/>
-      <c r="B352" s="177"/>
-      <c r="C352" s="177"/>
-      <c r="D352" s="215"/>
+      <c r="A352" s="224"/>
+      <c r="B352" s="239"/>
+      <c r="C352" s="239"/>
+      <c r="D352" s="243"/>
       <c r="E352" s="133"/>
       <c r="F352" s="161"/>
       <c r="G352" s="4"/>
@@ -11654,10 +11636,10 @@
       <c r="T352" s="4"/>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A353" s="174"/>
-      <c r="B353" s="177"/>
-      <c r="C353" s="177"/>
-      <c r="D353" s="177"/>
+      <c r="A353" s="224"/>
+      <c r="B353" s="239"/>
+      <c r="C353" s="239"/>
+      <c r="D353" s="239"/>
       <c r="E353" s="56"/>
       <c r="F353" s="57"/>
       <c r="G353" s="4"/>
@@ -11676,12 +11658,12 @@
       <c r="T353" s="4"/>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A354" s="174"/>
-      <c r="B354" s="177"/>
-      <c r="C354" s="177"/>
-      <c r="D354" s="177"/>
+      <c r="A354" s="224"/>
+      <c r="B354" s="239"/>
+      <c r="C354" s="239"/>
+      <c r="D354" s="239"/>
       <c r="E354" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F354" s="31"/>
       <c r="G354" s="4"/>
@@ -11700,12 +11682,12 @@
       <c r="T354" s="4"/>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A355" s="174"/>
-      <c r="B355" s="177"/>
-      <c r="C355" s="177"/>
-      <c r="D355" s="177"/>
+      <c r="A355" s="224"/>
+      <c r="B355" s="239"/>
+      <c r="C355" s="239"/>
+      <c r="D355" s="239"/>
       <c r="E355" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F355" s="61"/>
       <c r="G355" s="4"/>
@@ -11724,12 +11706,12 @@
       <c r="T355" s="4"/>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A356" s="174"/>
-      <c r="B356" s="177"/>
-      <c r="C356" s="177"/>
-      <c r="D356" s="177"/>
+      <c r="A356" s="224"/>
+      <c r="B356" s="239"/>
+      <c r="C356" s="239"/>
+      <c r="D356" s="239"/>
       <c r="E356" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F356" s="59"/>
       <c r="G356" s="4"/>
@@ -11748,10 +11730,10 @@
       <c r="T356" s="4"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A357" s="174"/>
-      <c r="B357" s="177"/>
-      <c r="C357" s="177"/>
-      <c r="D357" s="177"/>
+      <c r="A357" s="224"/>
+      <c r="B357" s="239"/>
+      <c r="C357" s="239"/>
+      <c r="D357" s="239"/>
       <c r="E357" s="60"/>
       <c r="F357" s="31"/>
       <c r="G357" s="4"/>
@@ -11770,10 +11752,10 @@
       <c r="T357" s="4"/>
     </row>
     <row r="358" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="175"/>
-      <c r="B358" s="178"/>
-      <c r="C358" s="178"/>
-      <c r="D358" s="178"/>
+      <c r="A358" s="226"/>
+      <c r="B358" s="240"/>
+      <c r="C358" s="240"/>
+      <c r="D358" s="240"/>
       <c r="E358" s="147"/>
       <c r="F358" s="55"/>
       <c r="G358" s="4"/>
@@ -11792,17 +11774,17 @@
       <c r="T358" s="4"/>
     </row>
     <row r="359" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="173" t="s">
+      <c r="A359" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="B359" s="176" t="s">
+      <c r="B359" s="238" t="s">
+        <v>229</v>
+      </c>
+      <c r="C359" s="199" t="s">
         <v>230</v>
       </c>
-      <c r="C359" s="210" t="s">
-        <v>231</v>
-      </c>
-      <c r="D359" s="212" t="s">
-        <v>227</v>
+      <c r="D359" s="183" t="s">
+        <v>226</v>
       </c>
       <c r="E359" s="146"/>
       <c r="F359" s="59"/>
@@ -11822,12 +11804,12 @@
       <c r="T359" s="4"/>
     </row>
     <row r="360" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="208"/>
-      <c r="B360" s="209"/>
-      <c r="C360" s="211"/>
-      <c r="D360" s="213"/>
+      <c r="A360" s="187"/>
+      <c r="B360" s="244"/>
+      <c r="C360" s="193"/>
+      <c r="D360" s="206"/>
       <c r="E360" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F360" s="153"/>
       <c r="G360" s="4"/>
@@ -11846,12 +11828,12 @@
       <c r="T360" s="4"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A361" s="174"/>
-      <c r="B361" s="177"/>
-      <c r="C361" s="183"/>
-      <c r="D361" s="188"/>
+      <c r="A361" s="224"/>
+      <c r="B361" s="239"/>
+      <c r="C361" s="228"/>
+      <c r="D361" s="235"/>
       <c r="E361" s="60" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F361" s="30"/>
       <c r="G361" s="4"/>
@@ -11870,12 +11852,12 @@
       <c r="T361" s="4"/>
     </row>
     <row r="362" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="180"/>
-      <c r="B362" s="181"/>
-      <c r="C362" s="184"/>
-      <c r="D362" s="188"/>
+      <c r="A362" s="225"/>
+      <c r="B362" s="245"/>
+      <c r="C362" s="229"/>
+      <c r="D362" s="235"/>
       <c r="E362" s="148" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F362" s="30"/>
       <c r="G362" s="4"/>
@@ -11894,10 +11876,10 @@
       <c r="T362" s="4"/>
     </row>
     <row r="363" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="175"/>
-      <c r="B363" s="178"/>
-      <c r="C363" s="185"/>
-      <c r="D363" s="185"/>
+      <c r="A363" s="226"/>
+      <c r="B363" s="240"/>
+      <c r="C363" s="230"/>
+      <c r="D363" s="230"/>
       <c r="E363" s="155"/>
       <c r="F363" s="62"/>
       <c r="G363" s="4"/>
@@ -11916,18 +11898,18 @@
       <c r="T363" s="4"/>
     </row>
     <row r="364" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="173" t="s">
+      <c r="A364" s="223" t="s">
         <v>56</v>
       </c>
-      <c r="B364" s="182" t="s">
-        <v>232</v>
-      </c>
-      <c r="C364" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="D364" s="214"/>
+      <c r="B364" s="227" t="s">
+        <v>231</v>
+      </c>
+      <c r="C364" s="241" t="s">
+        <v>237</v>
+      </c>
+      <c r="D364" s="242"/>
       <c r="E364" s="154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F364" s="57"/>
       <c r="G364" s="4"/>
@@ -11946,12 +11928,12 @@
       <c r="T364" s="4"/>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A365" s="174"/>
-      <c r="B365" s="183"/>
-      <c r="C365" s="177"/>
-      <c r="D365" s="215"/>
+      <c r="A365" s="224"/>
+      <c r="B365" s="228"/>
+      <c r="C365" s="239"/>
+      <c r="D365" s="243"/>
       <c r="E365" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F365" s="30"/>
       <c r="G365" s="4"/>
@@ -11970,12 +11952,12 @@
       <c r="T365" s="4"/>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A366" s="174"/>
-      <c r="B366" s="183"/>
-      <c r="C366" s="177"/>
-      <c r="D366" s="177"/>
+      <c r="A366" s="224"/>
+      <c r="B366" s="228"/>
+      <c r="C366" s="239"/>
+      <c r="D366" s="239"/>
       <c r="E366" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F366" s="59"/>
       <c r="G366" s="4"/>
@@ -11994,12 +11976,12 @@
       <c r="T366" s="4"/>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A367" s="174"/>
-      <c r="B367" s="183"/>
-      <c r="C367" s="177"/>
-      <c r="D367" s="177"/>
+      <c r="A367" s="224"/>
+      <c r="B367" s="228"/>
+      <c r="C367" s="239"/>
+      <c r="D367" s="239"/>
       <c r="E367" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F367" s="31"/>
       <c r="G367" s="4"/>
@@ -12018,12 +12000,12 @@
       <c r="T367" s="4"/>
     </row>
     <row r="368" spans="1:20" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="175"/>
-      <c r="B368" s="185"/>
-      <c r="C368" s="178"/>
-      <c r="D368" s="178"/>
+      <c r="A368" s="226"/>
+      <c r="B368" s="230"/>
+      <c r="C368" s="240"/>
+      <c r="D368" s="240"/>
       <c r="E368" s="147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F368" s="33"/>
       <c r="G368" s="4"/>
@@ -12042,16 +12024,16 @@
       <c r="T368" s="4"/>
     </row>
     <row r="369" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="173" t="s">
+      <c r="A369" s="223" t="s">
         <v>57</v>
       </c>
-      <c r="B369" s="176" t="s">
-        <v>237</v>
-      </c>
-      <c r="C369" s="179" t="s">
-        <v>239</v>
-      </c>
-      <c r="D369" s="214"/>
+      <c r="B369" s="238" t="s">
+        <v>236</v>
+      </c>
+      <c r="C369" s="241" t="s">
+        <v>238</v>
+      </c>
+      <c r="D369" s="242"/>
       <c r="E369" s="29"/>
       <c r="F369" s="61"/>
       <c r="G369" s="4"/>
@@ -12070,12 +12052,12 @@
       <c r="T369" s="4"/>
     </row>
     <row r="370" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="174"/>
-      <c r="B370" s="177"/>
-      <c r="C370" s="177"/>
-      <c r="D370" s="177"/>
+      <c r="A370" s="224"/>
+      <c r="B370" s="239"/>
+      <c r="C370" s="239"/>
+      <c r="D370" s="239"/>
       <c r="E370" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F370" s="61"/>
       <c r="G370" s="4"/>
@@ -12094,12 +12076,12 @@
       <c r="T370" s="4"/>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A371" s="174"/>
-      <c r="B371" s="177"/>
-      <c r="C371" s="177"/>
-      <c r="D371" s="177"/>
+      <c r="A371" s="224"/>
+      <c r="B371" s="239"/>
+      <c r="C371" s="239"/>
+      <c r="D371" s="239"/>
       <c r="E371" s="111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F371" s="59"/>
       <c r="G371" s="4"/>
@@ -12118,12 +12100,12 @@
       <c r="T371" s="4"/>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A372" s="174"/>
-      <c r="B372" s="177"/>
-      <c r="C372" s="177"/>
-      <c r="D372" s="215"/>
+      <c r="A372" s="224"/>
+      <c r="B372" s="239"/>
+      <c r="C372" s="239"/>
+      <c r="D372" s="243"/>
       <c r="E372" s="148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F372" s="30"/>
       <c r="G372" s="4"/>
@@ -12142,12 +12124,12 @@
       <c r="T372" s="4"/>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A373" s="174"/>
-      <c r="B373" s="177"/>
-      <c r="C373" s="177"/>
-      <c r="D373" s="177"/>
+      <c r="A373" s="224"/>
+      <c r="B373" s="239"/>
+      <c r="C373" s="239"/>
+      <c r="D373" s="239"/>
       <c r="E373" s="145" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F373" s="59"/>
       <c r="G373" s="4"/>
@@ -12166,12 +12148,12 @@
       <c r="T373" s="4"/>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A374" s="174"/>
-      <c r="B374" s="177"/>
-      <c r="C374" s="177"/>
-      <c r="D374" s="177"/>
+      <c r="A374" s="224"/>
+      <c r="B374" s="239"/>
+      <c r="C374" s="239"/>
+      <c r="D374" s="239"/>
       <c r="E374" s="111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F374" s="31"/>
       <c r="G374" s="4"/>
@@ -12190,12 +12172,12 @@
       <c r="T374" s="4"/>
     </row>
     <row r="375" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="175"/>
-      <c r="B375" s="178"/>
-      <c r="C375" s="178"/>
-      <c r="D375" s="178"/>
+      <c r="A375" s="226"/>
+      <c r="B375" s="240"/>
+      <c r="C375" s="240"/>
+      <c r="D375" s="240"/>
       <c r="E375" s="147" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F375" s="152"/>
       <c r="G375" s="4"/>
@@ -12214,14 +12196,14 @@
       <c r="T375" s="4"/>
     </row>
     <row r="376" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="173" t="s">
-        <v>333</v>
-      </c>
-      <c r="B376" s="176" t="s">
-        <v>334</v>
-      </c>
-      <c r="C376" s="179" t="s">
-        <v>324</v>
+      <c r="A376" s="223" t="s">
+        <v>331</v>
+      </c>
+      <c r="B376" s="238" t="s">
+        <v>332</v>
+      </c>
+      <c r="C376" s="241" t="s">
+        <v>322</v>
       </c>
       <c r="D376" s="82"/>
       <c r="E376" s="29"/>
@@ -12242,14 +12224,14 @@
       <c r="T376" s="4"/>
     </row>
     <row r="377" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="174"/>
-      <c r="B377" s="177"/>
-      <c r="C377" s="177"/>
+      <c r="A377" s="224"/>
+      <c r="B377" s="239"/>
+      <c r="C377" s="239"/>
       <c r="D377" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E377" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F377" s="61"/>
       <c r="G377" s="4"/>
@@ -12268,14 +12250,14 @@
       <c r="T377" s="4"/>
     </row>
     <row r="378" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="174"/>
-      <c r="B378" s="177"/>
-      <c r="C378" s="177"/>
+      <c r="A378" s="224"/>
+      <c r="B378" s="239"/>
+      <c r="C378" s="239"/>
       <c r="D378" s="143" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E378" s="111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F378" s="59"/>
       <c r="G378" s="4"/>
@@ -12294,12 +12276,12 @@
       <c r="T378" s="4"/>
     </row>
     <row r="379" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="174"/>
-      <c r="B379" s="177"/>
-      <c r="C379" s="177"/>
+      <c r="A379" s="224"/>
+      <c r="B379" s="239"/>
+      <c r="C379" s="239"/>
       <c r="D379" s="82"/>
       <c r="E379" s="148" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F379" s="30"/>
       <c r="G379" s="4"/>
@@ -12318,12 +12300,12 @@
       <c r="T379" s="4"/>
     </row>
     <row r="380" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="174"/>
-      <c r="B380" s="177"/>
-      <c r="C380" s="177"/>
+      <c r="A380" s="224"/>
+      <c r="B380" s="239"/>
+      <c r="C380" s="239"/>
       <c r="D380" s="143"/>
       <c r="E380" s="111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F380" s="59"/>
       <c r="G380" s="4"/>
@@ -12342,12 +12324,12 @@
       <c r="T380" s="4"/>
     </row>
     <row r="381" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="174"/>
-      <c r="B381" s="177"/>
-      <c r="C381" s="177"/>
+      <c r="A381" s="224"/>
+      <c r="B381" s="239"/>
+      <c r="C381" s="239"/>
       <c r="D381" s="80"/>
       <c r="E381" s="147" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F381" s="31"/>
       <c r="G381" s="4"/>
@@ -12366,9 +12348,9 @@
       <c r="T381" s="4"/>
     </row>
     <row r="382" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="175"/>
-      <c r="B382" s="178"/>
-      <c r="C382" s="178"/>
+      <c r="A382" s="226"/>
+      <c r="B382" s="240"/>
+      <c r="C382" s="240"/>
       <c r="D382" s="171"/>
       <c r="E382" s="147"/>
       <c r="F382" s="152"/>
@@ -12388,18 +12370,18 @@
       <c r="T382" s="4"/>
     </row>
     <row r="383" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="173" t="s">
+      <c r="A383" s="223" t="s">
+        <v>339</v>
+      </c>
+      <c r="B383" s="238" t="s">
         <v>341</v>
       </c>
-      <c r="B383" s="176" t="s">
-        <v>343</v>
-      </c>
-      <c r="C383" s="179" t="s">
-        <v>324</v>
+      <c r="C383" s="241" t="s">
+        <v>322</v>
       </c>
       <c r="D383" s="164"/>
       <c r="E383" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F383" s="61"/>
       <c r="G383" s="4"/>
@@ -12418,14 +12400,14 @@
       <c r="T383" s="4"/>
     </row>
     <row r="384" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="174"/>
-      <c r="B384" s="177"/>
-      <c r="C384" s="177"/>
+      <c r="A384" s="224"/>
+      <c r="B384" s="239"/>
+      <c r="C384" s="239"/>
       <c r="D384" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E384" s="111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F384" s="61"/>
       <c r="G384" s="4"/>
@@ -12444,14 +12426,14 @@
       <c r="T384" s="4"/>
     </row>
     <row r="385" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A385" s="174"/>
-      <c r="B385" s="177"/>
-      <c r="C385" s="177"/>
+      <c r="A385" s="224"/>
+      <c r="B385" s="239"/>
+      <c r="C385" s="239"/>
       <c r="D385" s="143" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E385" s="148" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F385" s="59"/>
       <c r="G385" s="4"/>
@@ -12470,12 +12452,12 @@
       <c r="T385" s="4"/>
     </row>
     <row r="386" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="174"/>
-      <c r="B386" s="177"/>
-      <c r="C386" s="177"/>
+      <c r="A386" s="224"/>
+      <c r="B386" s="239"/>
+      <c r="C386" s="239"/>
       <c r="D386" s="82"/>
       <c r="E386" s="169" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F386" s="30"/>
       <c r="G386" s="4"/>
@@ -12494,12 +12476,12 @@
       <c r="T386" s="4"/>
     </row>
     <row r="387" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="174"/>
-      <c r="B387" s="177"/>
-      <c r="C387" s="177"/>
+      <c r="A387" s="224"/>
+      <c r="B387" s="239"/>
+      <c r="C387" s="239"/>
       <c r="D387" s="168"/>
       <c r="E387" s="148" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F387" s="153"/>
       <c r="G387" s="4"/>
@@ -12518,12 +12500,12 @@
       <c r="T387" s="4"/>
     </row>
     <row r="388" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="180"/>
-      <c r="B388" s="181"/>
-      <c r="C388" s="181"/>
+      <c r="A388" s="225"/>
+      <c r="B388" s="245"/>
+      <c r="C388" s="245"/>
       <c r="D388" s="168"/>
       <c r="E388" s="148" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F388" s="153"/>
       <c r="G388" s="4"/>
@@ -12542,9 +12524,9 @@
       <c r="T388" s="4"/>
     </row>
     <row r="389" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="174"/>
-      <c r="B389" s="177"/>
-      <c r="C389" s="177"/>
+      <c r="A389" s="224"/>
+      <c r="B389" s="239"/>
+      <c r="C389" s="239"/>
       <c r="D389" s="172"/>
       <c r="E389" s="148"/>
       <c r="F389" s="30"/>
@@ -12564,9 +12546,9 @@
       <c r="T389" s="4"/>
     </row>
     <row r="390" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="175"/>
-      <c r="B390" s="178"/>
-      <c r="C390" s="178"/>
+      <c r="A390" s="226"/>
+      <c r="B390" s="240"/>
+      <c r="C390" s="240"/>
       <c r="D390" s="171"/>
       <c r="E390" s="122"/>
       <c r="F390" s="152"/>
@@ -12586,18 +12568,18 @@
       <c r="T390" s="4"/>
     </row>
     <row r="391" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="173" t="s">
+      <c r="A391" s="223" t="s">
+        <v>340</v>
+      </c>
+      <c r="B391" s="238" t="s">
         <v>342</v>
       </c>
-      <c r="B391" s="176" t="s">
-        <v>344</v>
-      </c>
-      <c r="C391" s="179" t="s">
-        <v>345</v>
+      <c r="C391" s="241" t="s">
+        <v>343</v>
       </c>
       <c r="D391" s="164"/>
       <c r="E391" s="154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F391" s="61"/>
       <c r="G391" s="4"/>
@@ -12616,14 +12598,14 @@
       <c r="T391" s="4"/>
     </row>
     <row r="392" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="174"/>
-      <c r="B392" s="177"/>
-      <c r="C392" s="177"/>
+      <c r="A392" s="224"/>
+      <c r="B392" s="239"/>
+      <c r="C392" s="239"/>
       <c r="D392" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E392" s="111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F392" s="61"/>
       <c r="G392" s="4"/>
@@ -12642,14 +12624,14 @@
       <c r="T392" s="4"/>
     </row>
     <row r="393" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A393" s="174"/>
-      <c r="B393" s="177"/>
-      <c r="C393" s="177"/>
+      <c r="A393" s="224"/>
+      <c r="B393" s="239"/>
+      <c r="C393" s="239"/>
       <c r="D393" s="143" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E393" s="148" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F393" s="59"/>
       <c r="G393" s="4"/>
@@ -12668,12 +12650,12 @@
       <c r="T393" s="4"/>
     </row>
     <row r="394" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="174"/>
-      <c r="B394" s="177"/>
-      <c r="C394" s="177"/>
+      <c r="A394" s="224"/>
+      <c r="B394" s="239"/>
+      <c r="C394" s="239"/>
       <c r="D394" s="82"/>
       <c r="E394" s="169" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F394" s="30"/>
       <c r="G394" s="4"/>
@@ -12692,12 +12674,12 @@
       <c r="T394" s="4"/>
     </row>
     <row r="395" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="174"/>
-      <c r="B395" s="177"/>
-      <c r="C395" s="177"/>
+      <c r="A395" s="224"/>
+      <c r="B395" s="239"/>
+      <c r="C395" s="239"/>
       <c r="D395" s="143"/>
       <c r="E395" s="148" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F395" s="59"/>
       <c r="G395" s="4"/>
@@ -12716,12 +12698,12 @@
       <c r="T395" s="4"/>
     </row>
     <row r="396" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="174"/>
-      <c r="B396" s="177"/>
-      <c r="C396" s="177"/>
+      <c r="A396" s="224"/>
+      <c r="B396" s="239"/>
+      <c r="C396" s="239"/>
       <c r="D396" s="80"/>
       <c r="E396" s="170" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F396" s="31"/>
       <c r="G396" s="4"/>
@@ -12740,12 +12722,12 @@
       <c r="T396" s="4"/>
     </row>
     <row r="397" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A397" s="175"/>
-      <c r="B397" s="178"/>
-      <c r="C397" s="178"/>
+      <c r="A397" s="226"/>
+      <c r="B397" s="240"/>
+      <c r="C397" s="240"/>
       <c r="D397" s="82"/>
       <c r="E397" s="170" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F397" s="152"/>
       <c r="G397" s="4"/>
@@ -13521,6 +13503,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="A376:A382"/>
+    <mergeCell ref="B376:B382"/>
+    <mergeCell ref="C376:C382"/>
+    <mergeCell ref="A383:A390"/>
+    <mergeCell ref="B383:B390"/>
+    <mergeCell ref="C383:C390"/>
+    <mergeCell ref="A391:A397"/>
+    <mergeCell ref="B391:B397"/>
+    <mergeCell ref="C391:C397"/>
+    <mergeCell ref="B299:B305"/>
+    <mergeCell ref="C299:C305"/>
+    <mergeCell ref="D299:D305"/>
+    <mergeCell ref="A306:A315"/>
+    <mergeCell ref="B306:B315"/>
+    <mergeCell ref="D306:D307"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="D220:D223"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="D229:D232"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="A359:A363"/>
+    <mergeCell ref="B359:B363"/>
+    <mergeCell ref="B369:B375"/>
+    <mergeCell ref="C369:C375"/>
+    <mergeCell ref="C359:C363"/>
+    <mergeCell ref="D359:D363"/>
+    <mergeCell ref="A364:A368"/>
+    <mergeCell ref="B364:B368"/>
+    <mergeCell ref="C364:C368"/>
+    <mergeCell ref="D364:D368"/>
+    <mergeCell ref="D369:D375"/>
+    <mergeCell ref="A369:A375"/>
+    <mergeCell ref="B345:B350"/>
+    <mergeCell ref="C345:C350"/>
+    <mergeCell ref="A345:A350"/>
+    <mergeCell ref="C334:C338"/>
+    <mergeCell ref="D334:D338"/>
+    <mergeCell ref="A351:A358"/>
+    <mergeCell ref="B351:B358"/>
+    <mergeCell ref="C351:C358"/>
+    <mergeCell ref="D351:D358"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="D330:D333"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="B334:B338"/>
+    <mergeCell ref="A339:A344"/>
+    <mergeCell ref="B339:B344"/>
+    <mergeCell ref="C339:C344"/>
+    <mergeCell ref="D339:D344"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="A316:A322"/>
+    <mergeCell ref="B316:B322"/>
+    <mergeCell ref="C316:C322"/>
+    <mergeCell ref="B323:B329"/>
+    <mergeCell ref="C323:C329"/>
+    <mergeCell ref="A323:A329"/>
+    <mergeCell ref="C273:C279"/>
+    <mergeCell ref="D273:D279"/>
+    <mergeCell ref="A273:A279"/>
+    <mergeCell ref="B273:B279"/>
+    <mergeCell ref="A280:A287"/>
+    <mergeCell ref="B280:B287"/>
+    <mergeCell ref="C280:C287"/>
+    <mergeCell ref="D280:D287"/>
+    <mergeCell ref="B288:B298"/>
+    <mergeCell ref="C288:C298"/>
+    <mergeCell ref="D288:D298"/>
+    <mergeCell ref="C306:C315"/>
+    <mergeCell ref="A288:A298"/>
+    <mergeCell ref="A299:A305"/>
+    <mergeCell ref="C259:C267"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="A246:A252"/>
+    <mergeCell ref="A253:A258"/>
+    <mergeCell ref="B253:B258"/>
+    <mergeCell ref="C253:C258"/>
+    <mergeCell ref="A259:A267"/>
+    <mergeCell ref="B259:B267"/>
+    <mergeCell ref="B246:B252"/>
+    <mergeCell ref="C246:C252"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A73:A84"/>
+    <mergeCell ref="B73:B84"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C73:C84"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="B61:B72"/>
+    <mergeCell ref="C61:C72"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="C268:C272"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="C185:C189"/>
+    <mergeCell ref="D185:D189"/>
+    <mergeCell ref="B190:B197"/>
+    <mergeCell ref="C190:C197"/>
+    <mergeCell ref="D190:D197"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="D198:D202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A226:A232"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="A233:A240"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="C111:C121"/>
+    <mergeCell ref="B233:B240"/>
+    <mergeCell ref="C233:C240"/>
+    <mergeCell ref="C122:C134"/>
+    <mergeCell ref="C203:C207"/>
+    <mergeCell ref="D203:D207"/>
+    <mergeCell ref="A210:A216"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="C85:C92"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="B101:B110"/>
+    <mergeCell ref="C101:C110"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="B169:B174"/>
+    <mergeCell ref="C169:C174"/>
+    <mergeCell ref="A169:A174"/>
+    <mergeCell ref="A175:A181"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="D13:D19"/>
     <mergeCell ref="D36:D37"/>
@@ -13545,192 +13713,6 @@
     <mergeCell ref="B111:B121"/>
     <mergeCell ref="A122:A134"/>
     <mergeCell ref="B122:B134"/>
-    <mergeCell ref="C111:C121"/>
-    <mergeCell ref="B233:B240"/>
-    <mergeCell ref="C233:C240"/>
-    <mergeCell ref="C122:C134"/>
-    <mergeCell ref="C203:C207"/>
-    <mergeCell ref="D203:D207"/>
-    <mergeCell ref="A210:A216"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="B85:B92"/>
-    <mergeCell ref="C85:C92"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="B101:B110"/>
-    <mergeCell ref="C101:C110"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="C268:C272"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="C185:C189"/>
-    <mergeCell ref="D185:D189"/>
-    <mergeCell ref="B190:B197"/>
-    <mergeCell ref="C190:C197"/>
-    <mergeCell ref="D190:D197"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="D198:D202"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A226:A232"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C73:C84"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="B61:B72"/>
-    <mergeCell ref="C61:C72"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="A233:A240"/>
-    <mergeCell ref="B226:B232"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A73:A84"/>
-    <mergeCell ref="B73:B84"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="C169:C174"/>
-    <mergeCell ref="A169:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="A246:A252"/>
-    <mergeCell ref="A253:A258"/>
-    <mergeCell ref="B253:B258"/>
-    <mergeCell ref="C253:C258"/>
-    <mergeCell ref="A259:A267"/>
-    <mergeCell ref="B259:B267"/>
-    <mergeCell ref="B246:B252"/>
-    <mergeCell ref="C246:C252"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="A316:A322"/>
-    <mergeCell ref="B316:B322"/>
-    <mergeCell ref="C316:C322"/>
-    <mergeCell ref="B323:B329"/>
-    <mergeCell ref="C323:C329"/>
-    <mergeCell ref="A323:A329"/>
-    <mergeCell ref="C273:C279"/>
-    <mergeCell ref="D273:D279"/>
-    <mergeCell ref="A273:A279"/>
-    <mergeCell ref="B273:B279"/>
-    <mergeCell ref="A280:A287"/>
-    <mergeCell ref="B280:B287"/>
-    <mergeCell ref="C280:C287"/>
-    <mergeCell ref="D280:D287"/>
-    <mergeCell ref="B288:B298"/>
-    <mergeCell ref="C288:C298"/>
-    <mergeCell ref="D288:D298"/>
-    <mergeCell ref="C306:C315"/>
-    <mergeCell ref="A288:A298"/>
-    <mergeCell ref="A299:A305"/>
-    <mergeCell ref="C259:C267"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="D330:D333"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="B334:B338"/>
-    <mergeCell ref="A339:A344"/>
-    <mergeCell ref="B339:B344"/>
-    <mergeCell ref="C339:C344"/>
-    <mergeCell ref="D339:D344"/>
-    <mergeCell ref="B345:B350"/>
-    <mergeCell ref="C345:C350"/>
-    <mergeCell ref="A345:A350"/>
-    <mergeCell ref="C334:C338"/>
-    <mergeCell ref="D334:D338"/>
-    <mergeCell ref="A351:A358"/>
-    <mergeCell ref="B351:B358"/>
-    <mergeCell ref="C351:C358"/>
-    <mergeCell ref="D351:D358"/>
-    <mergeCell ref="A359:A363"/>
-    <mergeCell ref="B359:B363"/>
-    <mergeCell ref="B369:B375"/>
-    <mergeCell ref="C369:C375"/>
-    <mergeCell ref="C359:C363"/>
-    <mergeCell ref="D359:D363"/>
-    <mergeCell ref="A364:A368"/>
-    <mergeCell ref="B364:B368"/>
-    <mergeCell ref="C364:C368"/>
-    <mergeCell ref="D364:D368"/>
-    <mergeCell ref="D369:D375"/>
-    <mergeCell ref="A369:A375"/>
-    <mergeCell ref="B299:B305"/>
-    <mergeCell ref="C299:C305"/>
-    <mergeCell ref="D299:D305"/>
-    <mergeCell ref="A306:A315"/>
-    <mergeCell ref="B306:B315"/>
-    <mergeCell ref="D306:D307"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="D220:D223"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="D229:D232"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A376:A382"/>
-    <mergeCell ref="B376:B382"/>
-    <mergeCell ref="C376:C382"/>
-    <mergeCell ref="A383:A390"/>
-    <mergeCell ref="B383:B390"/>
-    <mergeCell ref="C383:C390"/>
-    <mergeCell ref="A391:A397"/>
-    <mergeCell ref="B391:B397"/>
-    <mergeCell ref="C391:C397"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF7B1F-05D4-4CC3-8F1D-637C81B91F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FDB65-330E-4CEE-AD8D-ED1683125471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="365">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -361,18 +361,6 @@
     <t>The goal is to verify that name is available on IM and timestamp is min:Sec format is displayed on Imdb homepage slider</t>
   </si>
   <si>
-    <t>1. User press IMDb button present on top left corner</t>
-  </si>
-  <si>
-    <t>2. User is routed to IMDb home page</t>
-  </si>
-  <si>
-    <t>3. Verify that Movie/Tvshow slider is present on home page</t>
-  </si>
-  <si>
-    <t>4. Verify that name and time stamp in MIN:SEC format is displayed on Movie/Tv show slider</t>
-  </si>
-  <si>
     <t>List and grid view</t>
   </si>
   <si>
@@ -421,16 +409,10 @@
     <t>Menu&gt;Movies Section&gt;DVD &amp; Blu-ray Releases</t>
   </si>
   <si>
-    <t>4. Verify that user is routed to Upcoming VOD, DVD, and Blu-ray Releases</t>
-  </si>
-  <si>
     <t>Profile Activity</t>
   </si>
   <si>
     <t>1.User press Profile picture on top right corner</t>
-  </si>
-  <si>
-    <t>2. A drop-down displays uder Username Alweena</t>
   </si>
   <si>
     <t>3. User selects 'Your Activity'</t>
@@ -977,9 +959,6 @@
     <t>Verify that each option is clickable</t>
   </si>
   <si>
-    <t>The nowhere Inn is marked as2:22</t>
-  </si>
-  <si>
     <t>3. User selects  DVD &amp; Blu-ray Releases</t>
   </si>
   <si>
@@ -1074,9 +1053,6 @@
   </si>
   <si>
     <t>2.User navigates to Menu button from top left corner</t>
-  </si>
-  <si>
-    <t>3. Verify that User Alweena is routed to Menu items with a cross button on right</t>
   </si>
   <si>
     <t>6. Verify user is routed to IMDB home page</t>
@@ -1199,6 +1175,24 @@
 *Advanced Name Search
 *Search Collaborations
 *Search Within a Topic</t>
+  </si>
+  <si>
+    <t>3. Verify that User is routed to Menu items with a cross button on right</t>
+  </si>
+  <si>
+    <t>5. User press IMDB button placed on top left corner</t>
+  </si>
+  <si>
+    <t>1. Verify that Movie/Tvshow slider is present on home page</t>
+  </si>
+  <si>
+    <t>2. Verify that name and time stamp in MIN:SEC format is displayed on Movie/Tv show slider</t>
+  </si>
+  <si>
+    <t>4. Verify that user is routed to New and Upcoming VOD, DVD, and Blu-ray Releases</t>
+  </si>
+  <si>
+    <t>2. A drop-down displays uder Username</t>
   </si>
 </sst>
 </file>
@@ -2685,6 +2679,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2692,12 +2689,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2724,6 +2715,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3033,9 +3027,9 @@
   </sheetPr>
   <dimension ref="A1:T649"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3083,14 +3077,14 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="187" t="s">
@@ -3106,7 +3100,7 @@
         <v>58</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="3"/>
@@ -3130,7 +3124,7 @@
       <c r="C4" s="193"/>
       <c r="D4" s="184"/>
       <c r="E4" s="74" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="3"/>
@@ -3154,7 +3148,7 @@
       <c r="C5" s="193"/>
       <c r="D5" s="184"/>
       <c r="E5" s="76" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="3"/>
@@ -3178,7 +3172,7 @@
       <c r="C6" s="193"/>
       <c r="D6" s="184"/>
       <c r="E6" s="76" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="3"/>
@@ -3202,7 +3196,7 @@
       <c r="C7" s="193"/>
       <c r="D7" s="184"/>
       <c r="E7" s="76" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="3"/>
@@ -3226,7 +3220,7 @@
       <c r="C8" s="193"/>
       <c r="D8" s="184"/>
       <c r="E8" s="76" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="3"/>
@@ -3250,7 +3244,7 @@
       <c r="C9" s="193"/>
       <c r="D9" s="184"/>
       <c r="E9" s="76" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>59</v>
@@ -3328,7 +3322,7 @@
         <v>66</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
@@ -3352,7 +3346,7 @@
       <c r="C13" s="193"/>
       <c r="D13" s="176"/>
       <c r="E13" s="79" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -3376,7 +3370,7 @@
       <c r="C14" s="193"/>
       <c r="D14" s="177"/>
       <c r="E14" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="3"/>
@@ -3400,7 +3394,7 @@
       <c r="C15" s="193"/>
       <c r="D15" s="177"/>
       <c r="E15" s="79" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
@@ -3424,7 +3418,7 @@
       <c r="C16" s="193"/>
       <c r="D16" s="177"/>
       <c r="E16" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3448,7 +3442,7 @@
       <c r="C17" s="193"/>
       <c r="D17" s="177"/>
       <c r="E17" s="149" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -3472,7 +3466,7 @@
       <c r="C18" s="193"/>
       <c r="D18" s="177"/>
       <c r="E18" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>59</v>
@@ -3493,7 +3487,7 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="212"/>
+      <c r="A19" s="211"/>
       <c r="B19" s="191"/>
       <c r="C19" s="194"/>
       <c r="D19" s="178"/>
@@ -3530,7 +3524,7 @@
         <v>66</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3"/>
@@ -3556,7 +3550,7 @@
         <v>67</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -3582,7 +3576,7 @@
         <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
@@ -3606,7 +3600,7 @@
       <c r="C23" s="193"/>
       <c r="D23" s="173"/>
       <c r="E23" s="85" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
@@ -3694,17 +3688,17 @@
       <c r="A27" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="213" t="s">
+      <c r="B27" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="216" t="s">
-        <v>270</v>
+      <c r="C27" s="215" t="s">
+        <v>264</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="4"/>
@@ -3724,13 +3718,13 @@
     </row>
     <row r="28" spans="1:20" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" s="187"/>
-      <c r="B28" s="214"/>
-      <c r="C28" s="217"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="216"/>
       <c r="D28" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -3750,13 +3744,13 @@
     </row>
     <row r="29" spans="1:20" ht="99" x14ac:dyDescent="0.3">
       <c r="A29" s="187"/>
-      <c r="B29" s="214"/>
-      <c r="C29" s="217"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="216"/>
       <c r="D29" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -3776,8 +3770,8 @@
     </row>
     <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="188"/>
-      <c r="B30" s="215"/>
-      <c r="C30" s="218"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="217"/>
       <c r="D30" s="96"/>
       <c r="E30" s="91"/>
       <c r="F30" s="92"/>
@@ -3803,12 +3797,12 @@
       <c r="B31" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="209" t="s">
-        <v>269</v>
+      <c r="C31" s="218" t="s">
+        <v>263</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="129" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="4"/>
@@ -3834,7 +3828,7 @@
         <v>66</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
@@ -3860,7 +3854,7 @@
         <v>67</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="4"/>
@@ -3978,7 +3972,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="192" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="17"/>
@@ -4004,7 +3998,7 @@
       <c r="C39" s="193"/>
       <c r="D39" s="81"/>
       <c r="E39" s="13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="4"/>
@@ -4030,7 +4024,7 @@
         <v>66</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="4"/>
@@ -4056,7 +4050,7 @@
         <v>67</v>
       </c>
       <c r="E41" s="113" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="4"/>
@@ -4147,10 +4141,10 @@
         <v>13</v>
       </c>
       <c r="B45" s="189" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C45" s="192" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D45" s="114"/>
       <c r="E45" s="17"/>
@@ -4178,7 +4172,7 @@
         <v>66</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="4"/>
@@ -4204,7 +4198,7 @@
         <v>67</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="4"/>
@@ -4230,7 +4224,7 @@
         <v>68</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="4"/>
@@ -4300,7 +4294,7 @@
         <v>74</v>
       </c>
       <c r="C51" s="192" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D51" s="114"/>
       <c r="E51" s="17"/>
@@ -4326,7 +4320,7 @@
       <c r="C52" s="193"/>
       <c r="D52" s="81"/>
       <c r="E52" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
@@ -4352,7 +4346,7 @@
         <v>66</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="4"/>
@@ -4378,7 +4372,7 @@
         <v>67</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="4"/>
@@ -4404,7 +4398,7 @@
         <v>68</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="4"/>
@@ -4427,7 +4421,7 @@
       <c r="B56" s="190"/>
       <c r="C56" s="193"/>
       <c r="D56" s="81" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="14"/>
@@ -4494,7 +4488,7 @@
       <c r="A59" s="187"/>
       <c r="B59" s="190"/>
       <c r="C59" s="193"/>
-      <c r="D59" s="208"/>
+      <c r="D59" s="205"/>
       <c r="E59" s="182"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
@@ -4542,7 +4536,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="192" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D61" s="82"/>
       <c r="E61" s="17"/>
@@ -4593,10 +4587,10 @@
       <c r="B63" s="190"/>
       <c r="C63" s="193"/>
       <c r="D63" s="81" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E63" s="113" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="4"/>
@@ -4619,7 +4613,7 @@
       <c r="B64" s="190"/>
       <c r="C64" s="193"/>
       <c r="D64" s="80" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -4686,7 +4680,7 @@
       <c r="A67" s="187"/>
       <c r="B67" s="190"/>
       <c r="C67" s="193"/>
-      <c r="D67" s="208"/>
+      <c r="D67" s="205"/>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
       <c r="G67" s="4"/>
@@ -4822,7 +4816,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="192" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D73" s="114"/>
       <c r="E73" s="17"/>
@@ -4873,7 +4867,7 @@
       <c r="B75" s="190"/>
       <c r="C75" s="193"/>
       <c r="D75" s="81" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>79</v>
@@ -4899,7 +4893,7 @@
       <c r="B76" s="190"/>
       <c r="C76" s="193"/>
       <c r="D76" s="80" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>80</v>
@@ -5034,7 +5028,7 @@
       <c r="A82" s="187"/>
       <c r="B82" s="190"/>
       <c r="C82" s="193"/>
-      <c r="D82" s="208"/>
+      <c r="D82" s="205"/>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
       <c r="G82" s="4"/>
@@ -5104,7 +5098,7 @@
         <v>81</v>
       </c>
       <c r="C85" s="192" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D85" s="82"/>
       <c r="E85" s="17"/>
@@ -5155,7 +5149,7 @@
       <c r="B87" s="190"/>
       <c r="C87" s="193"/>
       <c r="D87" s="81" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>79</v>
@@ -5181,7 +5175,7 @@
       <c r="B88" s="190"/>
       <c r="C88" s="193"/>
       <c r="D88" s="80" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>82</v>
@@ -5300,7 +5294,7 @@
         <v>84</v>
       </c>
       <c r="C93" s="192" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D93" s="114"/>
       <c r="E93" s="20"/>
@@ -5351,7 +5345,7 @@
       <c r="B95" s="190"/>
       <c r="C95" s="193"/>
       <c r="D95" s="81" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>79</v>
@@ -5377,10 +5371,10 @@
       <c r="B96" s="190"/>
       <c r="C96" s="193"/>
       <c r="D96" s="80" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="4"/>
@@ -5496,7 +5490,7 @@
         <v>85</v>
       </c>
       <c r="C101" s="192" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="17"/>
@@ -5574,7 +5568,7 @@
         <v>67</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="4"/>
@@ -5600,10 +5594,10 @@
         <v>68</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5738,7 +5732,7 @@
         <v>86</v>
       </c>
       <c r="C111" s="192" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D111" s="82"/>
       <c r="E111" s="17"/>
@@ -5840,7 +5834,7 @@
         <v>68</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="4"/>
@@ -5864,10 +5858,10 @@
       <c r="C116" s="193"/>
       <c r="D116" s="81"/>
       <c r="E116" s="13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F116" s="162" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -6104,7 +6098,7 @@
         <v>68</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="4"/>
@@ -6128,7 +6122,7 @@
       <c r="C127" s="193"/>
       <c r="D127" s="82"/>
       <c r="E127" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="4"/>
@@ -6155,7 +6149,7 @@
         <v>88</v>
       </c>
       <c r="F128" s="162" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -6407,7 +6401,7 @@
       <c r="B139" s="190"/>
       <c r="C139" s="193"/>
       <c r="D139" s="80" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>91</v>
@@ -6458,10 +6452,10 @@
       <c r="C141" s="193"/>
       <c r="D141" s="81"/>
       <c r="E141" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F141" s="162" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -6593,10 +6587,10 @@
         <v>23</v>
       </c>
       <c r="B147" s="189" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C147" s="192" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D147" s="247"/>
       <c r="E147" s="17"/>
@@ -6715,7 +6709,7 @@
       <c r="B152" s="190"/>
       <c r="C152" s="193"/>
       <c r="D152" s="80" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="14"/>
@@ -6852,7 +6846,7 @@
         <v>96</v>
       </c>
       <c r="C158" s="192" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D158" s="82"/>
       <c r="E158" s="17"/>
@@ -6877,10 +6871,10 @@
       <c r="B159" s="190"/>
       <c r="C159" s="193"/>
       <c r="D159" s="80" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="4"/>
@@ -6907,7 +6901,7 @@
         <v>97</v>
       </c>
       <c r="F160" s="162" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -7071,13 +7065,13 @@
       <c r="B167" s="190"/>
       <c r="C167" s="193"/>
       <c r="D167" s="80" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E167" s="111" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F167" s="165" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -7121,7 +7115,7 @@
         <v>26</v>
       </c>
       <c r="B169" s="189" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C169" s="192" t="s">
         <v>104</v>
@@ -7152,7 +7146,7 @@
         <v>102</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="4"/>
@@ -7176,7 +7170,7 @@
       <c r="C171" s="193"/>
       <c r="D171" s="80"/>
       <c r="E171" s="13" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="4"/>
@@ -7200,7 +7194,7 @@
       <c r="C172" s="193"/>
       <c r="D172" s="80"/>
       <c r="E172" s="13" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="4"/>
@@ -7224,7 +7218,7 @@
       <c r="C173" s="193"/>
       <c r="D173" s="82"/>
       <c r="E173" s="13" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="4"/>
@@ -7248,7 +7242,7 @@
       <c r="C174" s="194"/>
       <c r="D174" s="107"/>
       <c r="E174" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="4"/>
@@ -7297,9 +7291,9 @@
       <c r="A176" s="187"/>
       <c r="B176" s="196"/>
       <c r="C176" s="193"/>
-      <c r="D176" s="208"/>
+      <c r="D176" s="205"/>
       <c r="E176" s="34" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="4"/>
@@ -7322,10 +7316,10 @@
       <c r="B177" s="196"/>
       <c r="C177" s="193"/>
       <c r="D177" s="80" t="s">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="E177" s="113" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="4"/>
@@ -7469,7 +7463,7 @@
       <c r="C183" s="193"/>
       <c r="D183" s="251"/>
       <c r="E183" s="58" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F183" s="162"/>
       <c r="G183" s="4"/>
@@ -7493,7 +7487,7 @@
       <c r="C184" s="194"/>
       <c r="D184" s="150"/>
       <c r="E184" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>63</v>
@@ -7524,7 +7518,7 @@
         <v>110</v>
       </c>
       <c r="D185" s="184" t="s">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="38"/>
@@ -7548,9 +7542,7 @@
       <c r="B186" s="196"/>
       <c r="C186" s="193"/>
       <c r="D186" s="184"/>
-      <c r="E186" s="39" t="s">
-        <v>111</v>
-      </c>
+      <c r="E186" s="39"/>
       <c r="F186" s="40"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
@@ -7572,9 +7564,7 @@
       <c r="B187" s="196"/>
       <c r="C187" s="193"/>
       <c r="D187" s="184"/>
-      <c r="E187" s="39" t="s">
-        <v>112</v>
-      </c>
+      <c r="E187" s="39"/>
       <c r="F187" s="40"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
@@ -7597,7 +7587,7 @@
       <c r="C188" s="193"/>
       <c r="D188" s="184"/>
       <c r="E188" s="39" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
       <c r="F188" s="40"/>
       <c r="G188" s="4"/>
@@ -7621,11 +7611,9 @@
       <c r="C189" s="194"/>
       <c r="D189" s="185"/>
       <c r="E189" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="F189" s="42" t="s">
-        <v>296</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="F189" s="42"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
@@ -7646,16 +7634,16 @@
         <v>30</v>
       </c>
       <c r="B190" s="196" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C190" s="193" t="s">
-        <v>116</v>
-      </c>
-      <c r="D190" s="206" t="s">
+        <v>112</v>
+      </c>
+      <c r="D190" s="207" t="s">
         <v>102</v>
       </c>
       <c r="E190" s="39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="4"/>
@@ -7677,9 +7665,9 @@
       <c r="A191" s="187"/>
       <c r="B191" s="196"/>
       <c r="C191" s="193"/>
-      <c r="D191" s="206"/>
+      <c r="D191" s="207"/>
       <c r="E191" s="115" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="4"/>
@@ -7701,9 +7689,9 @@
       <c r="A192" s="187"/>
       <c r="B192" s="196"/>
       <c r="C192" s="193"/>
-      <c r="D192" s="206"/>
+      <c r="D192" s="207"/>
       <c r="E192" s="118" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="4"/>
@@ -7725,9 +7713,9 @@
       <c r="A193" s="187"/>
       <c r="B193" s="196"/>
       <c r="C193" s="193"/>
-      <c r="D193" s="206"/>
+      <c r="D193" s="207"/>
       <c r="E193" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F193" s="117"/>
       <c r="G193" s="4"/>
@@ -7749,9 +7737,9 @@
       <c r="A194" s="187"/>
       <c r="B194" s="196"/>
       <c r="C194" s="193"/>
-      <c r="D194" s="206"/>
+      <c r="D194" s="207"/>
       <c r="E194" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F194" s="116"/>
       <c r="G194" s="4"/>
@@ -7773,9 +7761,9 @@
       <c r="A195" s="187"/>
       <c r="B195" s="196"/>
       <c r="C195" s="193"/>
-      <c r="D195" s="206"/>
+      <c r="D195" s="207"/>
       <c r="E195" s="115" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F195" s="116"/>
       <c r="G195" s="4"/>
@@ -7797,9 +7785,9 @@
       <c r="A196" s="187"/>
       <c r="B196" s="196"/>
       <c r="C196" s="193"/>
-      <c r="D196" s="206"/>
+      <c r="D196" s="207"/>
       <c r="E196" s="156" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F196" s="158"/>
       <c r="G196" s="4"/>
@@ -7821,7 +7809,7 @@
       <c r="A197" s="188"/>
       <c r="B197" s="197"/>
       <c r="C197" s="194"/>
-      <c r="D197" s="207"/>
+      <c r="D197" s="208"/>
       <c r="E197" s="159"/>
       <c r="F197" s="157"/>
       <c r="G197" s="4"/>
@@ -7844,16 +7832,14 @@
         <v>31</v>
       </c>
       <c r="B198" s="196" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C198" s="193" t="s">
-        <v>124</v>
-      </c>
-      <c r="D198" s="184" t="s">
-        <v>102</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D198" s="184"/>
       <c r="E198" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F198" s="44"/>
       <c r="G198" s="4"/>
@@ -7877,7 +7863,7 @@
       <c r="C199" s="193"/>
       <c r="D199" s="184"/>
       <c r="E199" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F199" s="45"/>
       <c r="G199" s="4"/>
@@ -7901,7 +7887,7 @@
       <c r="C200" s="193"/>
       <c r="D200" s="184"/>
       <c r="E200" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F200" s="45"/>
       <c r="G200" s="4"/>
@@ -7925,7 +7911,7 @@
       <c r="C201" s="193"/>
       <c r="D201" s="184"/>
       <c r="E201" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F201" s="45"/>
       <c r="G201" s="4"/>
@@ -7970,14 +7956,12 @@
         <v>32</v>
       </c>
       <c r="B203" s="195" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C203" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="D203" s="203" t="s">
-        <v>102</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D203" s="203"/>
       <c r="E203" s="43"/>
       <c r="F203" s="44"/>
       <c r="G203" s="4"/>
@@ -8001,7 +7985,7 @@
       <c r="C204" s="193"/>
       <c r="D204" s="184"/>
       <c r="E204" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F204" s="45"/>
       <c r="G204" s="4"/>
@@ -8025,7 +8009,7 @@
       <c r="C205" s="193"/>
       <c r="D205" s="184"/>
       <c r="E205" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F205" s="45"/>
       <c r="G205" s="4"/>
@@ -8049,7 +8033,7 @@
       <c r="C206" s="193"/>
       <c r="D206" s="184"/>
       <c r="E206" s="39" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F206" s="45"/>
       <c r="G206" s="4"/>
@@ -8073,7 +8057,7 @@
       <c r="C207" s="194"/>
       <c r="D207" s="185"/>
       <c r="E207" s="13" t="s">
-        <v>131</v>
+        <v>363</v>
       </c>
       <c r="F207" s="45"/>
       <c r="G207" s="4"/>
@@ -8142,10 +8126,10 @@
         <v>34</v>
       </c>
       <c r="B210" s="204" t="s">
+        <v>127</v>
+      </c>
+      <c r="C210" s="199" t="s">
         <v>132</v>
-      </c>
-      <c r="C210" s="199" t="s">
-        <v>138</v>
       </c>
       <c r="D210" s="183" t="s">
         <v>102</v>
@@ -8173,7 +8157,7 @@
       <c r="C211" s="193"/>
       <c r="D211" s="184"/>
       <c r="E211" s="47" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F211" s="19"/>
       <c r="G211" s="4"/>
@@ -8197,7 +8181,7 @@
       <c r="C212" s="193"/>
       <c r="D212" s="184"/>
       <c r="E212" s="47" t="s">
-        <v>134</v>
+        <v>364</v>
       </c>
       <c r="F212" s="19"/>
       <c r="G212" s="4"/>
@@ -8221,7 +8205,7 @@
       <c r="C213" s="193"/>
       <c r="D213" s="184"/>
       <c r="E213" s="47" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F213" s="19"/>
       <c r="G213" s="4"/>
@@ -8245,7 +8229,7 @@
       <c r="C214" s="193"/>
       <c r="D214" s="184"/>
       <c r="E214" s="120" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F214" s="19"/>
       <c r="G214" s="4"/>
@@ -8269,7 +8253,7 @@
       <c r="C215" s="193"/>
       <c r="D215" s="184"/>
       <c r="E215" s="121" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F215" s="19"/>
       <c r="G215" s="4"/>
@@ -8314,10 +8298,10 @@
         <v>35</v>
       </c>
       <c r="B217" s="189" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C217" s="192" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D217" s="252" t="s">
         <v>102</v>
@@ -8345,7 +8329,7 @@
       <c r="C218" s="193"/>
       <c r="D218" s="251"/>
       <c r="E218" s="50" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F218" s="51"/>
       <c r="G218" s="4"/>
@@ -8368,10 +8352,10 @@
       <c r="B219" s="190"/>
       <c r="C219" s="193"/>
       <c r="D219" s="80" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E219" s="50" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F219" s="51"/>
       <c r="G219" s="4"/>
@@ -8395,7 +8379,7 @@
       <c r="C220" s="193"/>
       <c r="D220" s="173"/>
       <c r="E220" s="50" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F220" s="51"/>
       <c r="G220" s="4"/>
@@ -8528,10 +8512,10 @@
         <v>36</v>
       </c>
       <c r="B226" s="189" t="s">
+        <v>137</v>
+      </c>
+      <c r="C226" s="192" t="s">
         <v>143</v>
-      </c>
-      <c r="C226" s="192" t="s">
-        <v>149</v>
       </c>
       <c r="D226" s="250" t="s">
         <v>102</v>
@@ -8559,7 +8543,7 @@
       <c r="C227" s="193"/>
       <c r="D227" s="251"/>
       <c r="E227" s="50" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F227" s="19"/>
       <c r="G227" s="4"/>
@@ -8582,10 +8566,10 @@
       <c r="B228" s="190"/>
       <c r="C228" s="193"/>
       <c r="D228" s="80" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E228" s="50" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F228" s="19"/>
       <c r="G228" s="4"/>
@@ -8609,7 +8593,7 @@
       <c r="C229" s="193"/>
       <c r="D229" s="173"/>
       <c r="E229" s="50" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F229" s="19"/>
       <c r="G229" s="4"/>
@@ -8698,10 +8682,10 @@
         <v>37</v>
       </c>
       <c r="B233" s="189" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C233" s="200" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D233" s="250"/>
       <c r="E233" s="50"/>
@@ -8751,7 +8735,7 @@
         <v>102</v>
       </c>
       <c r="E235" s="64" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F235" s="19"/>
       <c r="G235" s="4"/>
@@ -8775,7 +8759,7 @@
       <c r="C236" s="201"/>
       <c r="D236" s="236"/>
       <c r="E236" s="64" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F236" s="19"/>
       <c r="G236" s="4"/>
@@ -8798,10 +8782,10 @@
       <c r="B237" s="190"/>
       <c r="C237" s="201"/>
       <c r="D237" s="125" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E237" s="50" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F237" s="19"/>
       <c r="G237" s="4"/>
@@ -8890,10 +8874,10 @@
         <v>38</v>
       </c>
       <c r="B241" s="189" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C241" s="200" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D241" s="221" t="s">
         <v>102</v>
@@ -8921,7 +8905,7 @@
       <c r="C242" s="201"/>
       <c r="D242" s="222"/>
       <c r="E242" s="64" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F242" s="19"/>
       <c r="G242" s="4"/>
@@ -8944,10 +8928,10 @@
       <c r="B243" s="190"/>
       <c r="C243" s="201"/>
       <c r="D243" s="125" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E243" s="64" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="4"/>
@@ -8971,7 +8955,7 @@
       <c r="C244" s="201"/>
       <c r="D244" s="124"/>
       <c r="E244" s="50" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F244" s="19"/>
       <c r="G244" s="4"/>
@@ -9016,10 +9000,10 @@
         <v>39</v>
       </c>
       <c r="B246" s="189" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C246" s="200" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D246" s="221" t="s">
         <v>102</v>
@@ -9047,7 +9031,7 @@
       <c r="C247" s="201"/>
       <c r="D247" s="222"/>
       <c r="E247" s="64" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F247" s="19"/>
       <c r="G247" s="4"/>
@@ -9070,10 +9054,10 @@
       <c r="B248" s="190"/>
       <c r="C248" s="201"/>
       <c r="D248" s="125" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E248" s="64" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F248" s="19"/>
       <c r="G248" s="4"/>
@@ -9097,7 +9081,7 @@
       <c r="C249" s="201"/>
       <c r="D249" s="124"/>
       <c r="E249" s="50" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F249" s="19"/>
       <c r="G249" s="4"/>
@@ -9186,10 +9170,10 @@
         <v>40</v>
       </c>
       <c r="B253" s="189" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C253" s="200" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D253" s="250" t="s">
         <v>102</v>
@@ -9217,7 +9201,7 @@
       <c r="C254" s="201"/>
       <c r="D254" s="220"/>
       <c r="E254" s="47" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F254" s="19"/>
       <c r="G254" s="4"/>
@@ -9240,10 +9224,10 @@
       <c r="B255" s="190"/>
       <c r="C255" s="201"/>
       <c r="D255" s="125" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E255" s="47" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F255" s="19"/>
       <c r="G255" s="4"/>
@@ -9267,7 +9251,7 @@
       <c r="C256" s="201"/>
       <c r="D256" s="124"/>
       <c r="E256" s="47" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F256" s="19"/>
       <c r="G256" s="4"/>
@@ -9334,10 +9318,10 @@
         <v>41</v>
       </c>
       <c r="B259" s="189" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C259" s="200" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D259" s="219"/>
       <c r="E259" s="127"/>
@@ -9363,7 +9347,7 @@
       <c r="C260" s="201"/>
       <c r="D260" s="220"/>
       <c r="E260" s="128" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F260" s="19"/>
       <c r="G260" s="4"/>
@@ -9389,7 +9373,7 @@
         <v>102</v>
       </c>
       <c r="E261" s="128" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F261" s="19"/>
       <c r="G261" s="4"/>
@@ -9413,7 +9397,7 @@
       <c r="C262" s="201"/>
       <c r="D262" s="220"/>
       <c r="E262" s="128" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F262" s="19"/>
       <c r="G262" s="4"/>
@@ -9437,7 +9421,7 @@
       <c r="C263" s="201"/>
       <c r="D263" s="126"/>
       <c r="E263" s="128" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F263" s="19"/>
       <c r="G263" s="4"/>
@@ -9461,7 +9445,7 @@
       <c r="C264" s="201"/>
       <c r="D264" s="126"/>
       <c r="E264" s="128" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F264" s="19"/>
       <c r="G264" s="4"/>
@@ -9485,7 +9469,7 @@
       <c r="C265" s="201"/>
       <c r="D265" s="126"/>
       <c r="E265" s="128" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F265" s="19"/>
       <c r="G265" s="4"/>
@@ -9509,7 +9493,7 @@
       <c r="C266" s="201"/>
       <c r="D266" s="221"/>
       <c r="E266" s="130" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F266" s="19"/>
       <c r="G266" s="4"/>
@@ -9533,7 +9517,7 @@
       <c r="C267" s="202"/>
       <c r="D267" s="222"/>
       <c r="E267" s="131" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F267" s="49"/>
       <c r="G267" s="4"/>
@@ -9556,12 +9540,12 @@
         <v>42</v>
       </c>
       <c r="B268" s="189" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C268" s="192" t="s">
-        <v>299</v>
-      </c>
-      <c r="D268" s="205" t="s">
+        <v>292</v>
+      </c>
+      <c r="D268" s="206" t="s">
         <v>102</v>
       </c>
       <c r="E268" s="127"/>
@@ -9587,7 +9571,7 @@
       <c r="C269" s="193"/>
       <c r="D269" s="184"/>
       <c r="E269" s="128" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F269" s="19"/>
       <c r="G269" s="4"/>
@@ -9611,7 +9595,7 @@
       <c r="C270" s="193"/>
       <c r="D270" s="184"/>
       <c r="E270" s="50" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F270" s="19"/>
       <c r="G270" s="4"/>
@@ -9635,7 +9619,7 @@
       <c r="C271" s="193"/>
       <c r="D271" s="184"/>
       <c r="E271" s="166" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F271" s="19"/>
       <c r="G271" s="4"/>
@@ -9680,10 +9664,10 @@
         <v>43</v>
       </c>
       <c r="B273" s="189" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C273" s="192" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D273" s="233" t="s">
         <v>102</v>
@@ -9709,9 +9693,9 @@
       <c r="A274" s="187"/>
       <c r="B274" s="190"/>
       <c r="C274" s="193"/>
-      <c r="D274" s="206"/>
+      <c r="D274" s="207"/>
       <c r="E274" s="133" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F274" s="123"/>
       <c r="G274" s="4"/>
@@ -9733,9 +9717,9 @@
       <c r="A275" s="187"/>
       <c r="B275" s="190"/>
       <c r="C275" s="193"/>
-      <c r="D275" s="206"/>
+      <c r="D275" s="207"/>
       <c r="E275" s="34" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F275" s="47"/>
       <c r="G275" s="4"/>
@@ -9757,9 +9741,9 @@
       <c r="A276" s="187"/>
       <c r="B276" s="190"/>
       <c r="C276" s="193"/>
-      <c r="D276" s="206"/>
+      <c r="D276" s="207"/>
       <c r="E276" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F276" s="47"/>
       <c r="G276" s="4"/>
@@ -9781,9 +9765,9 @@
       <c r="A277" s="187"/>
       <c r="B277" s="190"/>
       <c r="C277" s="193"/>
-      <c r="D277" s="206"/>
+      <c r="D277" s="207"/>
       <c r="E277" s="13" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F277" s="47"/>
       <c r="G277" s="4"/>
@@ -9805,7 +9789,7 @@
       <c r="A278" s="187"/>
       <c r="B278" s="190"/>
       <c r="C278" s="193"/>
-      <c r="D278" s="206"/>
+      <c r="D278" s="207"/>
       <c r="E278" s="13"/>
       <c r="F278" s="47"/>
       <c r="G278" s="4"/>
@@ -9827,7 +9811,7 @@
       <c r="A279" s="188"/>
       <c r="B279" s="191"/>
       <c r="C279" s="194"/>
-      <c r="D279" s="207"/>
+      <c r="D279" s="208"/>
       <c r="E279" s="135"/>
       <c r="F279" s="48"/>
       <c r="G279" s="4"/>
@@ -9850,10 +9834,10 @@
         <v>44</v>
       </c>
       <c r="B280" s="189" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C280" s="192" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D280" s="233" t="s">
         <v>102</v>
@@ -9879,9 +9863,9 @@
       <c r="A281" s="187"/>
       <c r="B281" s="190"/>
       <c r="C281" s="193"/>
-      <c r="D281" s="206"/>
+      <c r="D281" s="207"/>
       <c r="E281" s="136" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F281" s="64"/>
       <c r="G281" s="4"/>
@@ -9903,9 +9887,9 @@
       <c r="A282" s="187"/>
       <c r="B282" s="190"/>
       <c r="C282" s="193"/>
-      <c r="D282" s="206"/>
+      <c r="D282" s="207"/>
       <c r="E282" s="136" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F282" s="64"/>
       <c r="G282" s="4"/>
@@ -9927,9 +9911,9 @@
       <c r="A283" s="187"/>
       <c r="B283" s="190"/>
       <c r="C283" s="193"/>
-      <c r="D283" s="206"/>
+      <c r="D283" s="207"/>
       <c r="E283" s="136" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F283" s="64"/>
       <c r="G283" s="4"/>
@@ -9951,9 +9935,9 @@
       <c r="A284" s="187"/>
       <c r="B284" s="190"/>
       <c r="C284" s="193"/>
-      <c r="D284" s="206"/>
+      <c r="D284" s="207"/>
       <c r="E284" s="133" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F284" s="64"/>
       <c r="G284" s="4"/>
@@ -9975,9 +9959,9 @@
       <c r="A285" s="187"/>
       <c r="B285" s="190"/>
       <c r="C285" s="193"/>
-      <c r="D285" s="206"/>
+      <c r="D285" s="207"/>
       <c r="E285" s="133" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F285" s="64"/>
       <c r="G285" s="4"/>
@@ -9999,7 +9983,7 @@
       <c r="A286" s="187"/>
       <c r="B286" s="190"/>
       <c r="C286" s="193"/>
-      <c r="D286" s="206"/>
+      <c r="D286" s="207"/>
       <c r="E286" s="133"/>
       <c r="F286" s="123"/>
       <c r="G286" s="4"/>
@@ -10021,7 +10005,7 @@
       <c r="A287" s="188"/>
       <c r="B287" s="191"/>
       <c r="C287" s="194"/>
-      <c r="D287" s="207"/>
+      <c r="D287" s="208"/>
       <c r="E287" s="136"/>
       <c r="F287" s="48"/>
       <c r="G287" s="4"/>
@@ -10044,10 +10028,10 @@
         <v>45</v>
       </c>
       <c r="B288" s="189" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C288" s="192" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D288" s="233" t="s">
         <v>102</v>
@@ -10073,9 +10057,9 @@
       <c r="A289" s="187"/>
       <c r="B289" s="190"/>
       <c r="C289" s="193"/>
-      <c r="D289" s="206"/>
+      <c r="D289" s="207"/>
       <c r="E289" s="133" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F289" s="123"/>
       <c r="G289" s="4"/>
@@ -10097,9 +10081,9 @@
       <c r="A290" s="187"/>
       <c r="B290" s="190"/>
       <c r="C290" s="193"/>
-      <c r="D290" s="206"/>
+      <c r="D290" s="207"/>
       <c r="E290" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F290" s="123"/>
       <c r="G290" s="4"/>
@@ -10121,9 +10105,9 @@
       <c r="A291" s="187"/>
       <c r="B291" s="190"/>
       <c r="C291" s="193"/>
-      <c r="D291" s="206"/>
+      <c r="D291" s="207"/>
       <c r="E291" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F291" s="123"/>
       <c r="G291" s="4"/>
@@ -10145,9 +10129,9 @@
       <c r="A292" s="187"/>
       <c r="B292" s="190"/>
       <c r="C292" s="193"/>
-      <c r="D292" s="206"/>
+      <c r="D292" s="207"/>
       <c r="E292" s="34" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F292" s="47"/>
       <c r="G292" s="4"/>
@@ -10169,9 +10153,9 @@
       <c r="A293" s="187"/>
       <c r="B293" s="190"/>
       <c r="C293" s="193"/>
-      <c r="D293" s="206"/>
+      <c r="D293" s="207"/>
       <c r="E293" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F293" s="47"/>
       <c r="G293" s="4"/>
@@ -10193,9 +10177,9 @@
       <c r="A294" s="187"/>
       <c r="B294" s="190"/>
       <c r="C294" s="193"/>
-      <c r="D294" s="206"/>
+      <c r="D294" s="207"/>
       <c r="E294" s="113" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F294" s="47"/>
       <c r="G294" s="4"/>
@@ -10217,9 +10201,9 @@
       <c r="A295" s="187"/>
       <c r="B295" s="190"/>
       <c r="C295" s="193"/>
-      <c r="D295" s="206"/>
+      <c r="D295" s="207"/>
       <c r="E295" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F295" s="47"/>
       <c r="G295" s="4"/>
@@ -10241,9 +10225,9 @@
       <c r="A296" s="187"/>
       <c r="B296" s="190"/>
       <c r="C296" s="193"/>
-      <c r="D296" s="206"/>
+      <c r="D296" s="207"/>
       <c r="E296" s="132" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F296" s="47"/>
       <c r="G296" s="4"/>
@@ -10265,9 +10249,9 @@
       <c r="A297" s="187"/>
       <c r="B297" s="190"/>
       <c r="C297" s="193"/>
-      <c r="D297" s="206"/>
+      <c r="D297" s="207"/>
       <c r="E297" s="133" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F297" s="137"/>
       <c r="G297" s="4"/>
@@ -10289,9 +10273,9 @@
       <c r="A298" s="188"/>
       <c r="B298" s="191"/>
       <c r="C298" s="194"/>
-      <c r="D298" s="207"/>
+      <c r="D298" s="208"/>
       <c r="E298" s="138" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F298" s="48"/>
       <c r="G298" s="4"/>
@@ -10314,10 +10298,10 @@
         <v>46</v>
       </c>
       <c r="B299" s="227" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C299" s="231" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D299" s="234" t="s">
         <v>102</v>
@@ -10345,7 +10329,7 @@
       <c r="C300" s="228"/>
       <c r="D300" s="235"/>
       <c r="E300" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F300" s="123"/>
       <c r="G300" s="4"/>
@@ -10369,7 +10353,7 @@
       <c r="C301" s="229"/>
       <c r="D301" s="235"/>
       <c r="E301" s="34" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F301" s="123"/>
       <c r="G301" s="4"/>
@@ -10393,7 +10377,7 @@
       <c r="C302" s="229"/>
       <c r="D302" s="235"/>
       <c r="E302" s="34" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F302" s="123"/>
       <c r="G302" s="4"/>
@@ -10482,10 +10466,10 @@
         <v>47</v>
       </c>
       <c r="B306" s="227" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C306" s="231" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D306" s="237" t="s">
         <v>102</v>
@@ -10513,7 +10497,7 @@
       <c r="C307" s="228"/>
       <c r="D307" s="237"/>
       <c r="E307" s="133" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F307" s="123"/>
       <c r="G307" s="4"/>
@@ -10537,7 +10521,7 @@
       <c r="C308" s="229"/>
       <c r="D308" s="163"/>
       <c r="E308" s="34" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F308" s="123"/>
       <c r="G308" s="4"/>
@@ -10561,7 +10545,7 @@
       <c r="C309" s="229"/>
       <c r="D309" s="163"/>
       <c r="E309" s="13" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F309" s="123"/>
       <c r="G309" s="4"/>
@@ -10584,10 +10568,10 @@
       <c r="B310" s="228"/>
       <c r="C310" s="228"/>
       <c r="D310" s="126" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E310" s="167" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F310" s="47"/>
       <c r="G310" s="4"/>
@@ -10611,7 +10595,7 @@
       <c r="C311" s="228"/>
       <c r="D311" s="126"/>
       <c r="E311" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F311" s="47"/>
       <c r="G311" s="4"/>
@@ -10635,7 +10619,7 @@
       <c r="C312" s="229"/>
       <c r="D312" s="163"/>
       <c r="E312" s="13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F312" s="47"/>
       <c r="G312" s="4"/>
@@ -10659,7 +10643,7 @@
       <c r="C313" s="228"/>
       <c r="D313" s="237"/>
       <c r="E313" s="135" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F313" s="47"/>
       <c r="G313" s="4"/>
@@ -10725,10 +10709,10 @@
         <v>48</v>
       </c>
       <c r="B316" s="227" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C316" s="231" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D316" s="236" t="s">
         <v>102</v>
@@ -10756,7 +10740,7 @@
       <c r="C317" s="228"/>
       <c r="D317" s="237"/>
       <c r="E317" s="34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F317" s="123"/>
       <c r="G317" s="4"/>
@@ -10779,10 +10763,10 @@
       <c r="B318" s="228"/>
       <c r="C318" s="228"/>
       <c r="D318" s="126" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E318" s="133" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F318" s="47"/>
       <c r="G318" s="4"/>
@@ -10806,7 +10790,7 @@
       <c r="C319" s="229"/>
       <c r="D319" s="163"/>
       <c r="E319" s="34" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F319" s="47"/>
       <c r="G319" s="4"/>
@@ -10850,7 +10834,7 @@
       <c r="B321" s="228"/>
       <c r="C321" s="228"/>
       <c r="D321" s="126" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E321" s="13"/>
       <c r="F321" s="47"/>
@@ -10896,14 +10880,14 @@
         <v>49</v>
       </c>
       <c r="B323" s="227" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C323" s="231" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D323" s="163"/>
       <c r="E323" s="133" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F323" s="50"/>
       <c r="G323" s="4"/>
@@ -10929,7 +10913,7 @@
         <v>102</v>
       </c>
       <c r="E324" s="34" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F324" s="123"/>
       <c r="G324" s="4"/>
@@ -10952,10 +10936,10 @@
       <c r="B325" s="228"/>
       <c r="C325" s="228"/>
       <c r="D325" s="163" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F325" s="47"/>
       <c r="G325" s="4"/>
@@ -10979,7 +10963,7 @@
       <c r="C326" s="228"/>
       <c r="D326" s="108"/>
       <c r="E326" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F326" s="47"/>
       <c r="G326" s="4"/>
@@ -11003,7 +10987,7 @@
       <c r="C327" s="228"/>
       <c r="D327" s="163"/>
       <c r="E327" s="13" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F327" s="47"/>
       <c r="G327" s="4"/>
@@ -11027,7 +11011,7 @@
       <c r="C328" s="228"/>
       <c r="D328" s="108"/>
       <c r="E328" s="135" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F328" s="47"/>
       <c r="G328" s="4"/>
@@ -11072,10 +11056,10 @@
         <v>50</v>
       </c>
       <c r="B330" s="227" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C330" s="231" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D330" s="234"/>
       <c r="E330" s="20"/>
@@ -11099,9 +11083,9 @@
       <c r="A331" s="187"/>
       <c r="B331" s="190"/>
       <c r="C331" s="193"/>
-      <c r="D331" s="206"/>
+      <c r="D331" s="207"/>
       <c r="E331" s="133" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F331" s="64"/>
       <c r="G331" s="4"/>
@@ -11125,7 +11109,7 @@
       <c r="C332" s="228"/>
       <c r="D332" s="235"/>
       <c r="E332" s="34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F332" s="123"/>
       <c r="G332" s="4"/>
@@ -11170,10 +11154,10 @@
         <v>51</v>
       </c>
       <c r="B334" s="227" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C334" s="231" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D334" s="234" t="s">
         <v>102</v>
@@ -11201,7 +11185,7 @@
       <c r="C335" s="228"/>
       <c r="D335" s="235"/>
       <c r="E335" s="133" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F335" s="123"/>
       <c r="G335" s="4"/>
@@ -11225,7 +11209,7 @@
       <c r="C336" s="228"/>
       <c r="D336" s="228"/>
       <c r="E336" s="34" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F336" s="47"/>
       <c r="G336" s="4"/>
@@ -11292,10 +11276,10 @@
         <v>52</v>
       </c>
       <c r="B339" s="238" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C339" s="241" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D339" s="242" t="s">
         <v>102</v>
@@ -11323,7 +11307,7 @@
       <c r="C340" s="239"/>
       <c r="D340" s="243"/>
       <c r="E340" s="133" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F340" s="53"/>
       <c r="G340" s="4"/>
@@ -11347,7 +11331,7 @@
       <c r="C341" s="239"/>
       <c r="D341" s="239"/>
       <c r="E341" s="141" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F341" s="54"/>
       <c r="G341" s="4"/>
@@ -11371,7 +11355,7 @@
       <c r="C342" s="239"/>
       <c r="D342" s="239"/>
       <c r="E342" s="142" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F342" s="53"/>
       <c r="G342" s="4"/>
@@ -11438,10 +11422,10 @@
         <v>53</v>
       </c>
       <c r="B345" s="238" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C345" s="241" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D345" s="82" t="s">
         <v>102</v>
@@ -11468,10 +11452,10 @@
       <c r="B346" s="239"/>
       <c r="C346" s="239"/>
       <c r="D346" s="143" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E346" s="144" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F346" s="30"/>
       <c r="G346" s="4"/>
@@ -11495,7 +11479,7 @@
       <c r="C347" s="239"/>
       <c r="D347" s="80"/>
       <c r="E347" s="145" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F347" s="59"/>
       <c r="G347" s="4"/>
@@ -11519,7 +11503,7 @@
       <c r="C348" s="239"/>
       <c r="D348" s="82"/>
       <c r="E348" s="111" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F348" s="31"/>
       <c r="G348" s="4"/>
@@ -11543,7 +11527,7 @@
       <c r="C349" s="239"/>
       <c r="D349" s="81"/>
       <c r="E349" s="58" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F349" s="61"/>
       <c r="G349" s="4"/>
@@ -11588,13 +11572,13 @@
         <v>54</v>
       </c>
       <c r="B351" s="238" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C351" s="241" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D351" s="242" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E351" s="146"/>
       <c r="F351" s="57"/>
@@ -11663,7 +11647,7 @@
       <c r="C354" s="239"/>
       <c r="D354" s="239"/>
       <c r="E354" s="111" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F354" s="31"/>
       <c r="G354" s="4"/>
@@ -11687,7 +11671,7 @@
       <c r="C355" s="239"/>
       <c r="D355" s="239"/>
       <c r="E355" s="58" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F355" s="61"/>
       <c r="G355" s="4"/>
@@ -11711,7 +11695,7 @@
       <c r="C356" s="239"/>
       <c r="D356" s="239"/>
       <c r="E356" s="58" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F356" s="59"/>
       <c r="G356" s="4"/>
@@ -11778,13 +11762,13 @@
         <v>55</v>
       </c>
       <c r="B359" s="238" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C359" s="199" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D359" s="183" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E359" s="146"/>
       <c r="F359" s="59"/>
@@ -11807,9 +11791,9 @@
       <c r="A360" s="187"/>
       <c r="B360" s="244"/>
       <c r="C360" s="193"/>
-      <c r="D360" s="206"/>
+      <c r="D360" s="207"/>
       <c r="E360" s="111" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F360" s="153"/>
       <c r="G360" s="4"/>
@@ -11833,7 +11817,7 @@
       <c r="C361" s="228"/>
       <c r="D361" s="235"/>
       <c r="E361" s="60" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F361" s="30"/>
       <c r="G361" s="4"/>
@@ -11857,7 +11841,7 @@
       <c r="C362" s="229"/>
       <c r="D362" s="235"/>
       <c r="E362" s="148" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F362" s="30"/>
       <c r="G362" s="4"/>
@@ -11902,14 +11886,14 @@
         <v>56</v>
       </c>
       <c r="B364" s="227" t="s">
+        <v>225</v>
+      </c>
+      <c r="C364" s="241" t="s">
         <v>231</v>
-      </c>
-      <c r="C364" s="241" t="s">
-        <v>237</v>
       </c>
       <c r="D364" s="242"/>
       <c r="E364" s="154" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F364" s="57"/>
       <c r="G364" s="4"/>
@@ -11933,7 +11917,7 @@
       <c r="C365" s="239"/>
       <c r="D365" s="243"/>
       <c r="E365" s="58" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F365" s="30"/>
       <c r="G365" s="4"/>
@@ -11957,7 +11941,7 @@
       <c r="C366" s="239"/>
       <c r="D366" s="239"/>
       <c r="E366" s="58" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F366" s="59"/>
       <c r="G366" s="4"/>
@@ -11981,7 +11965,7 @@
       <c r="C367" s="239"/>
       <c r="D367" s="239"/>
       <c r="E367" s="58" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F367" s="31"/>
       <c r="G367" s="4"/>
@@ -12005,7 +11989,7 @@
       <c r="C368" s="240"/>
       <c r="D368" s="240"/>
       <c r="E368" s="147" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F368" s="33"/>
       <c r="G368" s="4"/>
@@ -12028,10 +12012,10 @@
         <v>57</v>
       </c>
       <c r="B369" s="238" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C369" s="241" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D369" s="242"/>
       <c r="E369" s="29"/>
@@ -12057,7 +12041,7 @@
       <c r="C370" s="239"/>
       <c r="D370" s="239"/>
       <c r="E370" s="111" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F370" s="61"/>
       <c r="G370" s="4"/>
@@ -12081,7 +12065,7 @@
       <c r="C371" s="239"/>
       <c r="D371" s="239"/>
       <c r="E371" s="111" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F371" s="59"/>
       <c r="G371" s="4"/>
@@ -12105,7 +12089,7 @@
       <c r="C372" s="239"/>
       <c r="D372" s="243"/>
       <c r="E372" s="148" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F372" s="30"/>
       <c r="G372" s="4"/>
@@ -12129,7 +12113,7 @@
       <c r="C373" s="239"/>
       <c r="D373" s="239"/>
       <c r="E373" s="145" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F373" s="59"/>
       <c r="G373" s="4"/>
@@ -12153,7 +12137,7 @@
       <c r="C374" s="239"/>
       <c r="D374" s="239"/>
       <c r="E374" s="111" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F374" s="31"/>
       <c r="G374" s="4"/>
@@ -12177,7 +12161,7 @@
       <c r="C375" s="240"/>
       <c r="D375" s="240"/>
       <c r="E375" s="147" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F375" s="152"/>
       <c r="G375" s="4"/>
@@ -12197,13 +12181,13 @@
     </row>
     <row r="376" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A376" s="223" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B376" s="238" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C376" s="241" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D376" s="82"/>
       <c r="E376" s="29"/>
@@ -12231,7 +12215,7 @@
         <v>102</v>
       </c>
       <c r="E377" s="111" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F377" s="61"/>
       <c r="G377" s="4"/>
@@ -12254,10 +12238,10 @@
       <c r="B378" s="239"/>
       <c r="C378" s="239"/>
       <c r="D378" s="143" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E378" s="111" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F378" s="59"/>
       <c r="G378" s="4"/>
@@ -12281,7 +12265,7 @@
       <c r="C379" s="239"/>
       <c r="D379" s="82"/>
       <c r="E379" s="148" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F379" s="30"/>
       <c r="G379" s="4"/>
@@ -12305,7 +12289,7 @@
       <c r="C380" s="239"/>
       <c r="D380" s="143"/>
       <c r="E380" s="111" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F380" s="59"/>
       <c r="G380" s="4"/>
@@ -12329,7 +12313,7 @@
       <c r="C381" s="239"/>
       <c r="D381" s="80"/>
       <c r="E381" s="147" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F381" s="31"/>
       <c r="G381" s="4"/>
@@ -12371,17 +12355,17 @@
     </row>
     <row r="383" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A383" s="223" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B383" s="238" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C383" s="241" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D383" s="164"/>
       <c r="E383" s="111" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F383" s="61"/>
       <c r="G383" s="4"/>
@@ -12407,7 +12391,7 @@
         <v>102</v>
       </c>
       <c r="E384" s="111" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F384" s="61"/>
       <c r="G384" s="4"/>
@@ -12430,10 +12414,10 @@
       <c r="B385" s="239"/>
       <c r="C385" s="239"/>
       <c r="D385" s="143" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E385" s="148" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F385" s="59"/>
       <c r="G385" s="4"/>
@@ -12457,7 +12441,7 @@
       <c r="C386" s="239"/>
       <c r="D386" s="82"/>
       <c r="E386" s="169" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F386" s="30"/>
       <c r="G386" s="4"/>
@@ -12481,7 +12465,7 @@
       <c r="C387" s="239"/>
       <c r="D387" s="168"/>
       <c r="E387" s="148" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F387" s="153"/>
       <c r="G387" s="4"/>
@@ -12505,7 +12489,7 @@
       <c r="C388" s="245"/>
       <c r="D388" s="168"/>
       <c r="E388" s="148" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F388" s="153"/>
       <c r="G388" s="4"/>
@@ -12569,17 +12553,17 @@
     </row>
     <row r="391" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A391" s="223" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B391" s="238" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C391" s="241" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D391" s="164"/>
       <c r="E391" s="154" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F391" s="61"/>
       <c r="G391" s="4"/>
@@ -12605,7 +12589,7 @@
         <v>102</v>
       </c>
       <c r="E392" s="111" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F392" s="61"/>
       <c r="G392" s="4"/>
@@ -12628,10 +12612,10 @@
       <c r="B393" s="239"/>
       <c r="C393" s="239"/>
       <c r="D393" s="143" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E393" s="148" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F393" s="59"/>
       <c r="G393" s="4"/>
@@ -12655,7 +12639,7 @@
       <c r="C394" s="239"/>
       <c r="D394" s="82"/>
       <c r="E394" s="169" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F394" s="30"/>
       <c r="G394" s="4"/>
@@ -12679,7 +12663,7 @@
       <c r="C395" s="239"/>
       <c r="D395" s="143"/>
       <c r="E395" s="148" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F395" s="59"/>
       <c r="G395" s="4"/>
@@ -12703,7 +12687,7 @@
       <c r="C396" s="239"/>
       <c r="D396" s="80"/>
       <c r="E396" s="170" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F396" s="31"/>
       <c r="G396" s="4"/>
@@ -12727,7 +12711,7 @@
       <c r="C397" s="240"/>
       <c r="D397" s="82"/>
       <c r="E397" s="170" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F397" s="152"/>
       <c r="G397" s="4"/>
@@ -13605,6 +13589,7 @@
     <mergeCell ref="A241:A245"/>
     <mergeCell ref="B241:B245"/>
     <mergeCell ref="C241:C245"/>
+    <mergeCell ref="B226:B232"/>
     <mergeCell ref="C12:C19"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A11"/>
@@ -13664,7 +13649,6 @@
     <mergeCell ref="C182:C184"/>
     <mergeCell ref="C226:C232"/>
     <mergeCell ref="A233:A240"/>
-    <mergeCell ref="B226:B232"/>
     <mergeCell ref="C111:C121"/>
     <mergeCell ref="B233:B240"/>
     <mergeCell ref="C233:C240"/>

--- a/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FDB65-330E-4CEE-AD8D-ED1683125471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC82053-A6E6-4FD8-A83C-6692075305FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="363">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -427,9 +427,6 @@
     <t>The goal is to verify that Profile activty is recorded correctly</t>
   </si>
   <si>
-    <t>2. User is already logged in Facebook application</t>
-  </si>
-  <si>
     <t>1. User scrolls down to fotter of page</t>
   </si>
   <si>
@@ -451,24 +448,12 @@
     <t>3. Verify that user is routed to IMDB twitter page</t>
   </si>
   <si>
-    <t>Twich lik</t>
-  </si>
-  <si>
     <t>The goal is to verify that Twich icon redirects the user to Twich IMDb page</t>
   </si>
   <si>
     <t>The goal is to verify that Twitter icon redirects the user to Twitter IMDb page</t>
   </si>
   <si>
-    <t>2. User is already logged in Twitter application</t>
-  </si>
-  <si>
-    <t>2. User is already logged in Twich application</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to IMDB twich page</t>
-  </si>
-  <si>
     <t>Instagram Link</t>
   </si>
   <si>
@@ -476,9 +461,6 @@
   </si>
   <si>
     <t>3. Verify that user is routed to IMDB instagram page</t>
-  </si>
-  <si>
-    <t>2. User is already logged in Instagram application</t>
   </si>
   <si>
     <t>Youtube Link</t>
@@ -1193,6 +1175,18 @@
   </si>
   <si>
     <t>2. A drop-down displays uder Username</t>
+  </si>
+  <si>
+    <t>Twitch link</t>
+  </si>
+  <si>
+    <t>2. User selects Twitch icon</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to IMDB twitch page</t>
+  </si>
+  <si>
+    <t>2. User selects Instagram icon</t>
   </si>
 </sst>
 </file>
@@ -2583,166 +2577,27 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2752,59 +2607,198 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3027,9 +3021,9 @@
   </sheetPr>
   <dimension ref="A1:T649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3077,30 +3071,30 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="211" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="184" t="s">
+      <c r="D3" s="233" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="3"/>
@@ -3119,12 +3113,12 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="187"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="184"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="74" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="3"/>
@@ -3143,12 +3137,12 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="187"/>
-      <c r="B5" s="190"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="184"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="76" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="3"/>
@@ -3167,12 +3161,12 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="187"/>
-      <c r="B6" s="190"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="184"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="76" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="3"/>
@@ -3191,12 +3185,12 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="187"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="184"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="233"/>
       <c r="E7" s="76" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="3"/>
@@ -3215,12 +3209,12 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="187"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="184"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="76" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="3"/>
@@ -3239,12 +3233,12 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="184"/>
+      <c r="A9" s="208"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="76" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>59</v>
@@ -3265,10 +3259,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="184"/>
+      <c r="A10" s="208"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="233"/>
       <c r="E10" s="76"/>
       <c r="F10" s="78"/>
       <c r="G10" s="3"/>
@@ -3287,10 +3281,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" s="71" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="188"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="185"/>
+      <c r="A11" s="222"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="234"/>
       <c r="E11" s="67"/>
       <c r="F11" s="68"/>
       <c r="G11" s="69"/>
@@ -3309,20 +3303,20 @@
       <c r="T11" s="70"/>
     </row>
     <row r="12" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="217" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
@@ -3341,12 +3335,12 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="187"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="176"/>
+      <c r="A13" s="208"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="250"/>
       <c r="E13" s="79" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -3365,12 +3359,12 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="177"/>
+      <c r="A14" s="208"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="251"/>
       <c r="E14" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="3"/>
@@ -3389,12 +3383,12 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="187"/>
-      <c r="B15" s="190"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="177"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="251"/>
       <c r="E15" s="79" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
@@ -3413,12 +3407,12 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="190"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="177"/>
+      <c r="A16" s="208"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="251"/>
       <c r="E16" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3437,12 +3431,12 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="177"/>
+      <c r="A17" s="208"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="149" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -3461,12 +3455,12 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="187"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="177"/>
+      <c r="A18" s="208"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="251"/>
       <c r="E18" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>59</v>
@@ -3487,10 +3481,10 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="211"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="178"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="252"/>
       <c r="E19" s="88"/>
       <c r="F19" s="86" t="s">
         <v>63</v>
@@ -3511,20 +3505,20 @@
       <c r="T19" s="70"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="189" t="s">
+      <c r="B20" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="217" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3"/>
@@ -3543,14 +3537,14 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="187"/>
-      <c r="B21" s="190"/>
-      <c r="C21" s="193"/>
+      <c r="A21" s="208"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="211"/>
       <c r="D21" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -3569,14 +3563,14 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="187"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="193"/>
+      <c r="A22" s="208"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="211"/>
       <c r="D22" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
@@ -3595,12 +3589,12 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="187"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="173"/>
+      <c r="A23" s="208"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="194"/>
       <c r="E23" s="85" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
@@ -3619,10 +3613,10 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="187"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="174"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="195"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="4"/>
@@ -3641,10 +3635,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="187"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="174"/>
+      <c r="A25" s="208"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="195"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="4"/>
@@ -3663,10 +3657,10 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="187"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="175"/>
+      <c r="A26" s="208"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="249"/>
       <c r="E26" s="88"/>
       <c r="F26" s="89"/>
       <c r="G26" s="4"/>
@@ -3685,20 +3679,20 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="186" t="s">
+      <c r="A27" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="236" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="215" t="s">
-        <v>264</v>
+      <c r="C27" s="239" t="s">
+        <v>258</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="4"/>
@@ -3717,14 +3711,14 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A28" s="187"/>
-      <c r="B28" s="213"/>
-      <c r="C28" s="216"/>
+      <c r="A28" s="208"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="240"/>
       <c r="D28" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -3743,14 +3737,14 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="187"/>
-      <c r="B29" s="213"/>
-      <c r="C29" s="216"/>
+      <c r="A29" s="208"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="240"/>
       <c r="D29" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -3769,9 +3763,9 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="188"/>
-      <c r="B30" s="214"/>
-      <c r="C30" s="217"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="241"/>
       <c r="D30" s="96"/>
       <c r="E30" s="91"/>
       <c r="F30" s="92"/>
@@ -3791,18 +3785,18 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="186" t="s">
+      <c r="A31" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="189" t="s">
+      <c r="B31" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="218" t="s">
-        <v>263</v>
+      <c r="C31" s="245" t="s">
+        <v>257</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="129" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="4"/>
@@ -3821,14 +3815,14 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="187"/>
-      <c r="B32" s="190"/>
-      <c r="C32" s="193"/>
+      <c r="A32" s="208"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="211"/>
       <c r="D32" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
@@ -3847,14 +3841,14 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="187"/>
-      <c r="B33" s="190"/>
-      <c r="C33" s="193"/>
+      <c r="A33" s="208"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="211"/>
       <c r="D33" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="4"/>
@@ -3873,13 +3867,13 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="187"/>
-      <c r="B34" s="190"/>
-      <c r="C34" s="193"/>
+      <c r="A34" s="208"/>
+      <c r="B34" s="216"/>
+      <c r="C34" s="211"/>
       <c r="D34" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="180"/>
+      <c r="E34" s="242"/>
       <c r="F34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3897,13 +3891,13 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="187"/>
-      <c r="B35" s="190"/>
-      <c r="C35" s="193"/>
+      <c r="A35" s="208"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="211"/>
       <c r="D35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="181"/>
+      <c r="E35" s="243"/>
       <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3921,11 +3915,11 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="187"/>
-      <c r="B36" s="190"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="182"/>
+      <c r="A36" s="208"/>
+      <c r="B36" s="216"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="244"/>
       <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3943,10 +3937,10 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="188"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="179"/>
+      <c r="A37" s="222"/>
+      <c r="B37" s="224"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="196"/>
       <c r="E37" s="94"/>
       <c r="F37" s="95"/>
       <c r="G37" s="4"/>
@@ -3965,14 +3959,14 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="186" t="s">
+      <c r="A38" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="223" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="192" t="s">
-        <v>262</v>
+      <c r="C38" s="217" t="s">
+        <v>256</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="17"/>
@@ -3993,12 +3987,12 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="187"/>
-      <c r="B39" s="190"/>
-      <c r="C39" s="193"/>
+      <c r="A39" s="208"/>
+      <c r="B39" s="216"/>
+      <c r="C39" s="211"/>
       <c r="D39" s="81"/>
       <c r="E39" s="13" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="4"/>
@@ -4017,14 +4011,14 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="187"/>
-      <c r="B40" s="190"/>
-      <c r="C40" s="193"/>
+      <c r="A40" s="208"/>
+      <c r="B40" s="216"/>
+      <c r="C40" s="211"/>
       <c r="D40" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="4"/>
@@ -4043,14 +4037,14 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A41" s="187"/>
-      <c r="B41" s="190"/>
-      <c r="C41" s="193"/>
+      <c r="A41" s="208"/>
+      <c r="B41" s="216"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="113" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="4"/>
@@ -4069,9 +4063,9 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="187"/>
-      <c r="B42" s="190"/>
-      <c r="C42" s="193"/>
+      <c r="A42" s="208"/>
+      <c r="B42" s="216"/>
+      <c r="C42" s="211"/>
       <c r="D42" s="80" t="s">
         <v>68</v>
       </c>
@@ -4093,9 +4087,9 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="187"/>
-      <c r="B43" s="190"/>
-      <c r="C43" s="193"/>
+      <c r="A43" s="208"/>
+      <c r="B43" s="216"/>
+      <c r="C43" s="211"/>
       <c r="D43" s="81"/>
       <c r="E43" s="13"/>
       <c r="F43" s="14"/>
@@ -4115,9 +4109,9 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="188"/>
-      <c r="B44" s="191"/>
-      <c r="C44" s="194"/>
+      <c r="A44" s="222"/>
+      <c r="B44" s="224"/>
+      <c r="C44" s="218"/>
       <c r="D44" s="100"/>
       <c r="E44" s="94"/>
       <c r="F44" s="16"/>
@@ -4137,14 +4131,14 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="189" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="192" t="s">
-        <v>296</v>
+      <c r="B45" s="223" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="217" t="s">
+        <v>290</v>
       </c>
       <c r="D45" s="114"/>
       <c r="E45" s="17"/>
@@ -4165,14 +4159,14 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="187"/>
-      <c r="B46" s="190"/>
-      <c r="C46" s="193"/>
+      <c r="A46" s="208"/>
+      <c r="B46" s="216"/>
+      <c r="C46" s="211"/>
       <c r="D46" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="4"/>
@@ -4191,14 +4185,14 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="187"/>
-      <c r="B47" s="190"/>
-      <c r="C47" s="193"/>
+      <c r="A47" s="208"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="211"/>
       <c r="D47" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="4"/>
@@ -4217,14 +4211,14 @@
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="187"/>
-      <c r="B48" s="190"/>
-      <c r="C48" s="193"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="211"/>
       <c r="D48" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="4"/>
@@ -4243,9 +4237,9 @@
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="187"/>
-      <c r="B49" s="190"/>
-      <c r="C49" s="193"/>
+      <c r="A49" s="208"/>
+      <c r="B49" s="216"/>
+      <c r="C49" s="211"/>
       <c r="D49" s="81"/>
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
@@ -4265,9 +4259,9 @@
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="188"/>
-      <c r="B50" s="191"/>
-      <c r="C50" s="194"/>
+      <c r="A50" s="222"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="218"/>
       <c r="D50" s="100"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
@@ -4287,14 +4281,14 @@
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="186" t="s">
+      <c r="A51" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="189" t="s">
+      <c r="B51" s="223" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="192" t="s">
-        <v>261</v>
+      <c r="C51" s="217" t="s">
+        <v>255</v>
       </c>
       <c r="D51" s="114"/>
       <c r="E51" s="17"/>
@@ -4315,12 +4309,12 @@
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="187"/>
-      <c r="B52" s="190"/>
-      <c r="C52" s="193"/>
+      <c r="A52" s="208"/>
+      <c r="B52" s="216"/>
+      <c r="C52" s="211"/>
       <c r="D52" s="81"/>
       <c r="E52" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
@@ -4339,14 +4333,14 @@
       <c r="T52" s="4"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="187"/>
-      <c r="B53" s="190"/>
-      <c r="C53" s="193"/>
+      <c r="A53" s="208"/>
+      <c r="B53" s="216"/>
+      <c r="C53" s="211"/>
       <c r="D53" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="4"/>
@@ -4365,14 +4359,14 @@
       <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="187"/>
-      <c r="B54" s="190"/>
-      <c r="C54" s="193"/>
+      <c r="A54" s="208"/>
+      <c r="B54" s="216"/>
+      <c r="C54" s="211"/>
       <c r="D54" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="4"/>
@@ -4391,14 +4385,14 @@
       <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="187"/>
-      <c r="B55" s="190"/>
-      <c r="C55" s="193"/>
+      <c r="A55" s="208"/>
+      <c r="B55" s="216"/>
+      <c r="C55" s="211"/>
       <c r="D55" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="4"/>
@@ -4417,11 +4411,11 @@
       <c r="T55" s="4"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="187"/>
-      <c r="B56" s="190"/>
-      <c r="C56" s="193"/>
+      <c r="A56" s="208"/>
+      <c r="B56" s="216"/>
+      <c r="C56" s="211"/>
       <c r="D56" s="81" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="14"/>
@@ -4441,11 +4435,11 @@
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="187"/>
-      <c r="B57" s="190"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="173"/>
-      <c r="E57" s="180"/>
+      <c r="A57" s="208"/>
+      <c r="B57" s="216"/>
+      <c r="C57" s="211"/>
+      <c r="D57" s="194"/>
+      <c r="E57" s="242"/>
       <c r="F57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4463,11 +4457,11 @@
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="187"/>
-      <c r="B58" s="190"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="174"/>
-      <c r="E58" s="181"/>
+      <c r="A58" s="208"/>
+      <c r="B58" s="216"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="243"/>
       <c r="F58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4485,11 +4479,11 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="187"/>
-      <c r="B59" s="190"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="205"/>
-      <c r="E59" s="182"/>
+      <c r="A59" s="208"/>
+      <c r="B59" s="216"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="244"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4507,9 +4501,9 @@
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="188"/>
-      <c r="B60" s="191"/>
-      <c r="C60" s="194"/>
+      <c r="A60" s="222"/>
+      <c r="B60" s="224"/>
+      <c r="C60" s="218"/>
       <c r="D60" s="101"/>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
@@ -4529,14 +4523,14 @@
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="186" t="s">
+      <c r="A61" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="189" t="s">
+      <c r="B61" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="192" t="s">
-        <v>265</v>
+      <c r="C61" s="217" t="s">
+        <v>259</v>
       </c>
       <c r="D61" s="82"/>
       <c r="E61" s="17"/>
@@ -4557,9 +4551,9 @@
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="187"/>
-      <c r="B62" s="190"/>
-      <c r="C62" s="193"/>
+      <c r="A62" s="208"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="211"/>
       <c r="D62" s="82" t="s">
         <v>66</v>
       </c>
@@ -4583,14 +4577,14 @@
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="132" x14ac:dyDescent="0.3">
-      <c r="A63" s="187"/>
-      <c r="B63" s="190"/>
-      <c r="C63" s="193"/>
+      <c r="A63" s="208"/>
+      <c r="B63" s="216"/>
+      <c r="C63" s="211"/>
       <c r="D63" s="81" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E63" s="113" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="4"/>
@@ -4609,11 +4603,11 @@
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="187"/>
-      <c r="B64" s="190"/>
-      <c r="C64" s="193"/>
+      <c r="A64" s="208"/>
+      <c r="B64" s="216"/>
+      <c r="C64" s="211"/>
       <c r="D64" s="80" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -4633,10 +4627,10 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="187"/>
-      <c r="B65" s="190"/>
-      <c r="C65" s="193"/>
-      <c r="D65" s="173"/>
+      <c r="A65" s="208"/>
+      <c r="B65" s="216"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="194"/>
       <c r="E65" s="13"/>
       <c r="F65" s="14"/>
       <c r="G65" s="4"/>
@@ -4655,10 +4649,10 @@
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="187"/>
-      <c r="B66" s="190"/>
-      <c r="C66" s="193"/>
-      <c r="D66" s="174"/>
+      <c r="A66" s="208"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="211"/>
+      <c r="D66" s="195"/>
       <c r="E66" s="13"/>
       <c r="F66" s="14"/>
       <c r="G66" s="4"/>
@@ -4677,10 +4671,10 @@
       <c r="T66" s="4"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="187"/>
-      <c r="B67" s="190"/>
-      <c r="C67" s="193"/>
-      <c r="D67" s="205"/>
+      <c r="A67" s="208"/>
+      <c r="B67" s="216"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="198"/>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
       <c r="G67" s="4"/>
@@ -4699,9 +4693,9 @@
       <c r="T67" s="4"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="187"/>
-      <c r="B68" s="190"/>
-      <c r="C68" s="193"/>
+      <c r="A68" s="208"/>
+      <c r="B68" s="216"/>
+      <c r="C68" s="211"/>
       <c r="D68" s="82"/>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
@@ -4721,9 +4715,9 @@
       <c r="T68" s="4"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="187"/>
-      <c r="B69" s="190"/>
-      <c r="C69" s="193"/>
+      <c r="A69" s="208"/>
+      <c r="B69" s="216"/>
+      <c r="C69" s="211"/>
       <c r="D69" s="81"/>
       <c r="E69" s="13"/>
       <c r="F69" s="14"/>
@@ -4743,9 +4737,9 @@
       <c r="T69" s="4"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="187"/>
-      <c r="B70" s="190"/>
-      <c r="C70" s="193"/>
+      <c r="A70" s="208"/>
+      <c r="B70" s="216"/>
+      <c r="C70" s="211"/>
       <c r="D70" s="80"/>
       <c r="E70" s="13"/>
       <c r="F70" s="14"/>
@@ -4765,9 +4759,9 @@
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="187"/>
-      <c r="B71" s="190"/>
-      <c r="C71" s="193"/>
+      <c r="A71" s="208"/>
+      <c r="B71" s="216"/>
+      <c r="C71" s="211"/>
       <c r="D71" s="81"/>
       <c r="E71" s="13"/>
       <c r="F71" s="14"/>
@@ -4787,9 +4781,9 @@
       <c r="T71" s="4"/>
     </row>
     <row r="72" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="188"/>
-      <c r="B72" s="191"/>
-      <c r="C72" s="194"/>
+      <c r="A72" s="222"/>
+      <c r="B72" s="224"/>
+      <c r="C72" s="218"/>
       <c r="D72" s="102"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -4809,14 +4803,14 @@
       <c r="T72" s="4"/>
     </row>
     <row r="73" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="186" t="s">
+      <c r="A73" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="189" t="s">
+      <c r="B73" s="223" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="192" t="s">
-        <v>266</v>
+      <c r="C73" s="217" t="s">
+        <v>260</v>
       </c>
       <c r="D73" s="114"/>
       <c r="E73" s="17"/>
@@ -4837,9 +4831,9 @@
       <c r="T73" s="4"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="187"/>
-      <c r="B74" s="190"/>
-      <c r="C74" s="193"/>
+      <c r="A74" s="208"/>
+      <c r="B74" s="216"/>
+      <c r="C74" s="211"/>
       <c r="D74" s="82" t="s">
         <v>66</v>
       </c>
@@ -4863,11 +4857,11 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="187"/>
-      <c r="B75" s="190"/>
-      <c r="C75" s="193"/>
+      <c r="A75" s="208"/>
+      <c r="B75" s="216"/>
+      <c r="C75" s="211"/>
       <c r="D75" s="81" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>79</v>
@@ -4889,11 +4883,11 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="187"/>
-      <c r="B76" s="190"/>
-      <c r="C76" s="193"/>
+      <c r="A76" s="208"/>
+      <c r="B76" s="216"/>
+      <c r="C76" s="211"/>
       <c r="D76" s="80" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>80</v>
@@ -4915,9 +4909,9 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="187"/>
-      <c r="B77" s="190"/>
-      <c r="C77" s="193"/>
+      <c r="A77" s="208"/>
+      <c r="B77" s="216"/>
+      <c r="C77" s="211"/>
       <c r="D77" s="81"/>
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
@@ -4937,10 +4931,10 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="187"/>
-      <c r="B78" s="190"/>
-      <c r="C78" s="193"/>
-      <c r="D78" s="173"/>
+      <c r="A78" s="208"/>
+      <c r="B78" s="216"/>
+      <c r="C78" s="211"/>
+      <c r="D78" s="194"/>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
       <c r="G78" s="4"/>
@@ -4959,10 +4953,10 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="187"/>
-      <c r="B79" s="190"/>
-      <c r="C79" s="193"/>
-      <c r="D79" s="174"/>
+      <c r="A79" s="208"/>
+      <c r="B79" s="216"/>
+      <c r="C79" s="211"/>
+      <c r="D79" s="195"/>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
@@ -4981,10 +4975,10 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="187"/>
-      <c r="B80" s="190"/>
-      <c r="C80" s="193"/>
-      <c r="D80" s="174"/>
+      <c r="A80" s="208"/>
+      <c r="B80" s="216"/>
+      <c r="C80" s="211"/>
+      <c r="D80" s="195"/>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
       <c r="G80" s="4"/>
@@ -5003,10 +4997,10 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="187"/>
-      <c r="B81" s="190"/>
-      <c r="C81" s="193"/>
-      <c r="D81" s="174"/>
+      <c r="A81" s="208"/>
+      <c r="B81" s="216"/>
+      <c r="C81" s="211"/>
+      <c r="D81" s="195"/>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
       <c r="G81" s="4"/>
@@ -5025,10 +5019,10 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="187"/>
-      <c r="B82" s="190"/>
-      <c r="C82" s="193"/>
-      <c r="D82" s="205"/>
+      <c r="A82" s="208"/>
+      <c r="B82" s="216"/>
+      <c r="C82" s="211"/>
+      <c r="D82" s="198"/>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
       <c r="G82" s="4"/>
@@ -5047,9 +5041,9 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="187"/>
-      <c r="B83" s="190"/>
-      <c r="C83" s="193"/>
+      <c r="A83" s="208"/>
+      <c r="B83" s="216"/>
+      <c r="C83" s="211"/>
       <c r="D83" s="81"/>
       <c r="E83" s="13"/>
       <c r="F83" s="14"/>
@@ -5069,9 +5063,9 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="188"/>
-      <c r="B84" s="191"/>
-      <c r="C84" s="194"/>
+      <c r="A84" s="222"/>
+      <c r="B84" s="224"/>
+      <c r="C84" s="218"/>
       <c r="D84" s="100"/>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
@@ -5091,14 +5085,14 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="186" t="s">
+      <c r="A85" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="189" t="s">
+      <c r="B85" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="192" t="s">
-        <v>267</v>
+      <c r="C85" s="217" t="s">
+        <v>261</v>
       </c>
       <c r="D85" s="82"/>
       <c r="E85" s="17"/>
@@ -5119,9 +5113,9 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="187"/>
-      <c r="B86" s="190"/>
-      <c r="C86" s="193"/>
+      <c r="A86" s="208"/>
+      <c r="B86" s="216"/>
+      <c r="C86" s="211"/>
       <c r="D86" s="82" t="s">
         <v>66</v>
       </c>
@@ -5145,11 +5139,11 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="187"/>
-      <c r="B87" s="190"/>
-      <c r="C87" s="193"/>
+      <c r="A87" s="208"/>
+      <c r="B87" s="216"/>
+      <c r="C87" s="211"/>
       <c r="D87" s="81" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>79</v>
@@ -5171,11 +5165,11 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="187"/>
-      <c r="B88" s="190"/>
-      <c r="C88" s="193"/>
+      <c r="A88" s="208"/>
+      <c r="B88" s="216"/>
+      <c r="C88" s="211"/>
       <c r="D88" s="80" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>82</v>
@@ -5197,9 +5191,9 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="187"/>
-      <c r="B89" s="190"/>
-      <c r="C89" s="193"/>
+      <c r="A89" s="208"/>
+      <c r="B89" s="216"/>
+      <c r="C89" s="211"/>
       <c r="D89" s="81"/>
       <c r="E89" s="13" t="s">
         <v>83</v>
@@ -5221,9 +5215,9 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="187"/>
-      <c r="B90" s="190"/>
-      <c r="C90" s="193"/>
+      <c r="A90" s="208"/>
+      <c r="B90" s="216"/>
+      <c r="C90" s="211"/>
       <c r="D90" s="105"/>
       <c r="E90" s="63"/>
       <c r="F90" s="14"/>
@@ -5243,9 +5237,9 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="187"/>
-      <c r="B91" s="190"/>
-      <c r="C91" s="193"/>
+      <c r="A91" s="208"/>
+      <c r="B91" s="216"/>
+      <c r="C91" s="211"/>
       <c r="D91" s="106"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
@@ -5265,9 +5259,9 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="188"/>
-      <c r="B92" s="191"/>
-      <c r="C92" s="194"/>
+      <c r="A92" s="222"/>
+      <c r="B92" s="224"/>
+      <c r="C92" s="218"/>
       <c r="D92" s="107"/>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -5287,14 +5281,14 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="186" t="s">
+      <c r="A93" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="189" t="s">
+      <c r="B93" s="223" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="192" t="s">
-        <v>355</v>
+      <c r="C93" s="217" t="s">
+        <v>349</v>
       </c>
       <c r="D93" s="114"/>
       <c r="E93" s="20"/>
@@ -5315,9 +5309,9 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="187"/>
-      <c r="B94" s="190"/>
-      <c r="C94" s="193"/>
+      <c r="A94" s="208"/>
+      <c r="B94" s="216"/>
+      <c r="C94" s="211"/>
       <c r="D94" s="82" t="s">
         <v>66</v>
       </c>
@@ -5341,11 +5335,11 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="187"/>
-      <c r="B95" s="190"/>
-      <c r="C95" s="193"/>
+      <c r="A95" s="208"/>
+      <c r="B95" s="216"/>
+      <c r="C95" s="211"/>
       <c r="D95" s="81" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>79</v>
@@ -5367,14 +5361,14 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="187"/>
-      <c r="B96" s="190"/>
-      <c r="C96" s="193"/>
+      <c r="A96" s="208"/>
+      <c r="B96" s="216"/>
+      <c r="C96" s="211"/>
       <c r="D96" s="80" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="4"/>
@@ -5393,9 +5387,9 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="187"/>
-      <c r="B97" s="190"/>
-      <c r="C97" s="193"/>
+      <c r="A97" s="208"/>
+      <c r="B97" s="216"/>
+      <c r="C97" s="211"/>
       <c r="D97" s="105"/>
       <c r="E97" s="13" t="s">
         <v>83</v>
@@ -5417,9 +5411,9 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="187"/>
-      <c r="B98" s="190"/>
-      <c r="C98" s="193"/>
+      <c r="A98" s="208"/>
+      <c r="B98" s="216"/>
+      <c r="C98" s="211"/>
       <c r="D98" s="104"/>
       <c r="E98" s="22"/>
       <c r="F98" s="23"/>
@@ -5439,9 +5433,9 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="187"/>
-      <c r="B99" s="190"/>
-      <c r="C99" s="193"/>
+      <c r="A99" s="208"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="211"/>
       <c r="D99" s="99"/>
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
@@ -5461,9 +5455,9 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="188"/>
-      <c r="B100" s="191"/>
-      <c r="C100" s="194"/>
+      <c r="A100" s="222"/>
+      <c r="B100" s="224"/>
+      <c r="C100" s="218"/>
       <c r="D100" s="108"/>
       <c r="E100" s="24"/>
       <c r="F100" s="25"/>
@@ -5483,14 +5477,14 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="186" t="s">
+      <c r="A101" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="189" t="s">
+      <c r="B101" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="192" t="s">
-        <v>354</v>
+      <c r="C101" s="217" t="s">
+        <v>348</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="17"/>
@@ -5511,9 +5505,9 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="187"/>
-      <c r="B102" s="190"/>
-      <c r="C102" s="193"/>
+      <c r="A102" s="208"/>
+      <c r="B102" s="216"/>
+      <c r="C102" s="211"/>
       <c r="D102" s="81"/>
       <c r="E102" s="13" t="s">
         <v>94</v>
@@ -5535,9 +5529,9 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="187"/>
-      <c r="B103" s="190"/>
-      <c r="C103" s="193"/>
+      <c r="A103" s="208"/>
+      <c r="B103" s="216"/>
+      <c r="C103" s="211"/>
       <c r="D103" s="82" t="s">
         <v>66</v>
       </c>
@@ -5561,14 +5555,14 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="187"/>
-      <c r="B104" s="190"/>
-      <c r="C104" s="193"/>
+      <c r="A104" s="208"/>
+      <c r="B104" s="216"/>
+      <c r="C104" s="211"/>
       <c r="D104" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="4"/>
@@ -5587,17 +5581,17 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="187"/>
-      <c r="B105" s="190"/>
-      <c r="C105" s="193"/>
+      <c r="A105" s="208"/>
+      <c r="B105" s="216"/>
+      <c r="C105" s="211"/>
       <c r="D105" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5615,9 +5609,9 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="187"/>
-      <c r="B106" s="190"/>
-      <c r="C106" s="193"/>
+      <c r="A106" s="208"/>
+      <c r="B106" s="216"/>
+      <c r="C106" s="211"/>
       <c r="D106" s="82"/>
       <c r="E106" s="13"/>
       <c r="F106" s="14"/>
@@ -5637,9 +5631,9 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="187"/>
-      <c r="B107" s="190"/>
-      <c r="C107" s="193"/>
+      <c r="A107" s="208"/>
+      <c r="B107" s="216"/>
+      <c r="C107" s="211"/>
       <c r="D107" s="81"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
@@ -5659,9 +5653,9 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="187"/>
-      <c r="B108" s="190"/>
-      <c r="C108" s="193"/>
+      <c r="A108" s="208"/>
+      <c r="B108" s="216"/>
+      <c r="C108" s="211"/>
       <c r="D108" s="80"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
@@ -5681,9 +5675,9 @@
       <c r="T108" s="4"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="187"/>
-      <c r="B109" s="190"/>
-      <c r="C109" s="193"/>
+      <c r="A109" s="208"/>
+      <c r="B109" s="216"/>
+      <c r="C109" s="211"/>
       <c r="D109" s="105"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
@@ -5703,9 +5697,9 @@
       <c r="T109" s="4"/>
     </row>
     <row r="110" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="188"/>
-      <c r="B110" s="191"/>
-      <c r="C110" s="194"/>
+      <c r="A110" s="222"/>
+      <c r="B110" s="224"/>
+      <c r="C110" s="218"/>
       <c r="D110" s="109"/>
       <c r="E110" s="15"/>
       <c r="F110" s="16"/>
@@ -5725,14 +5719,14 @@
       <c r="T110" s="4"/>
     </row>
     <row r="111" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="186" t="s">
+      <c r="A111" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="189" t="s">
+      <c r="B111" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="192" t="s">
-        <v>353</v>
+      <c r="C111" s="217" t="s">
+        <v>347</v>
       </c>
       <c r="D111" s="82"/>
       <c r="E111" s="17"/>
@@ -5753,9 +5747,9 @@
       <c r="T111" s="4"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="187"/>
-      <c r="B112" s="190"/>
-      <c r="C112" s="193"/>
+      <c r="A112" s="208"/>
+      <c r="B112" s="216"/>
+      <c r="C112" s="211"/>
       <c r="D112" s="81"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
@@ -5775,9 +5769,9 @@
       <c r="T112" s="4"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="187"/>
-      <c r="B113" s="190"/>
-      <c r="C113" s="193"/>
+      <c r="A113" s="208"/>
+      <c r="B113" s="216"/>
+      <c r="C113" s="211"/>
       <c r="D113" s="82" t="s">
         <v>66</v>
       </c>
@@ -5801,9 +5795,9 @@
       <c r="T113" s="4"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="187"/>
-      <c r="B114" s="190"/>
-      <c r="C114" s="193"/>
+      <c r="A114" s="208"/>
+      <c r="B114" s="216"/>
+      <c r="C114" s="211"/>
       <c r="D114" s="81" t="s">
         <v>67</v>
       </c>
@@ -5827,14 +5821,14 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="187"/>
-      <c r="B115" s="190"/>
-      <c r="C115" s="193"/>
+      <c r="A115" s="208"/>
+      <c r="B115" s="216"/>
+      <c r="C115" s="211"/>
       <c r="D115" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="4"/>
@@ -5853,15 +5847,15 @@
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="187"/>
-      <c r="B116" s="190"/>
-      <c r="C116" s="193"/>
+      <c r="A116" s="208"/>
+      <c r="B116" s="216"/>
+      <c r="C116" s="211"/>
       <c r="D116" s="81"/>
       <c r="E116" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F116" s="162" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5879,9 +5873,9 @@
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="187"/>
-      <c r="B117" s="190"/>
-      <c r="C117" s="193"/>
+      <c r="A117" s="208"/>
+      <c r="B117" s="216"/>
+      <c r="C117" s="211"/>
       <c r="D117" s="80"/>
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
@@ -5901,9 +5895,9 @@
       <c r="T117" s="4"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="187"/>
-      <c r="B118" s="190"/>
-      <c r="C118" s="193"/>
+      <c r="A118" s="208"/>
+      <c r="B118" s="216"/>
+      <c r="C118" s="211"/>
       <c r="D118" s="82"/>
       <c r="E118" s="13"/>
       <c r="F118" s="14"/>
@@ -5923,9 +5917,9 @@
       <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="187"/>
-      <c r="B119" s="190"/>
-      <c r="C119" s="193"/>
+      <c r="A119" s="208"/>
+      <c r="B119" s="216"/>
+      <c r="C119" s="211"/>
       <c r="D119" s="82"/>
       <c r="E119" s="13"/>
       <c r="F119" s="14"/>
@@ -5945,9 +5939,9 @@
       <c r="T119" s="4"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="187"/>
-      <c r="B120" s="190"/>
-      <c r="C120" s="193"/>
+      <c r="A120" s="208"/>
+      <c r="B120" s="216"/>
+      <c r="C120" s="211"/>
       <c r="D120" s="103"/>
       <c r="E120" s="13"/>
       <c r="F120" s="14"/>
@@ -5967,9 +5961,9 @@
       <c r="T120" s="4"/>
     </row>
     <row r="121" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="188"/>
-      <c r="B121" s="191"/>
-      <c r="C121" s="194"/>
+      <c r="A121" s="222"/>
+      <c r="B121" s="224"/>
+      <c r="C121" s="218"/>
       <c r="D121" s="107"/>
       <c r="E121" s="15"/>
       <c r="F121" s="16"/>
@@ -5989,13 +5983,13 @@
       <c r="T121" s="4"/>
     </row>
     <row r="122" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="186" t="s">
+      <c r="A122" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="189" t="s">
+      <c r="B122" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="C122" s="192" t="s">
+      <c r="C122" s="217" t="s">
         <v>93</v>
       </c>
       <c r="D122" s="82"/>
@@ -6017,9 +6011,9 @@
       <c r="T122" s="4"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="187"/>
-      <c r="B123" s="190"/>
-      <c r="C123" s="193"/>
+      <c r="A123" s="208"/>
+      <c r="B123" s="216"/>
+      <c r="C123" s="211"/>
       <c r="D123" s="81"/>
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
@@ -6039,9 +6033,9 @@
       <c r="T123" s="4"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="187"/>
-      <c r="B124" s="190"/>
-      <c r="C124" s="193"/>
+      <c r="A124" s="208"/>
+      <c r="B124" s="216"/>
+      <c r="C124" s="211"/>
       <c r="D124" s="82" t="s">
         <v>66</v>
       </c>
@@ -6065,9 +6059,9 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="187"/>
-      <c r="B125" s="190"/>
-      <c r="C125" s="193"/>
+      <c r="A125" s="208"/>
+      <c r="B125" s="216"/>
+      <c r="C125" s="211"/>
       <c r="D125" s="81" t="s">
         <v>67</v>
       </c>
@@ -6091,14 +6085,14 @@
       <c r="T125" s="4"/>
     </row>
     <row r="126" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="187"/>
-      <c r="B126" s="190"/>
-      <c r="C126" s="193"/>
+      <c r="A126" s="208"/>
+      <c r="B126" s="216"/>
+      <c r="C126" s="211"/>
       <c r="D126" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="4"/>
@@ -6117,12 +6111,12 @@
       <c r="T126" s="4"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127" s="187"/>
-      <c r="B127" s="190"/>
-      <c r="C127" s="193"/>
+      <c r="A127" s="208"/>
+      <c r="B127" s="216"/>
+      <c r="C127" s="211"/>
       <c r="D127" s="82"/>
       <c r="E127" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="4"/>
@@ -6141,15 +6135,15 @@
       <c r="T127" s="4"/>
     </row>
     <row r="128" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A128" s="187"/>
-      <c r="B128" s="190"/>
-      <c r="C128" s="193"/>
+      <c r="A128" s="208"/>
+      <c r="B128" s="216"/>
+      <c r="C128" s="211"/>
       <c r="D128" s="82"/>
       <c r="E128" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F128" s="162" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -6167,9 +6161,9 @@
       <c r="T128" s="4"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="187"/>
-      <c r="B129" s="190"/>
-      <c r="C129" s="193"/>
+      <c r="A129" s="208"/>
+      <c r="B129" s="216"/>
+      <c r="C129" s="211"/>
       <c r="D129" s="82"/>
       <c r="E129" s="13"/>
       <c r="F129" s="14"/>
@@ -6189,9 +6183,9 @@
       <c r="T129" s="4"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="187"/>
-      <c r="B130" s="190"/>
-      <c r="C130" s="193"/>
+      <c r="A130" s="208"/>
+      <c r="B130" s="216"/>
+      <c r="C130" s="211"/>
       <c r="D130" s="82"/>
       <c r="E130" s="13"/>
       <c r="F130" s="14"/>
@@ -6211,9 +6205,9 @@
       <c r="T130" s="4"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="187"/>
-      <c r="B131" s="190"/>
-      <c r="C131" s="193"/>
+      <c r="A131" s="208"/>
+      <c r="B131" s="216"/>
+      <c r="C131" s="211"/>
       <c r="D131" s="81"/>
       <c r="E131" s="13"/>
       <c r="F131" s="14"/>
@@ -6233,9 +6227,9 @@
       <c r="T131" s="4"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="187"/>
-      <c r="B132" s="190"/>
-      <c r="C132" s="193"/>
+      <c r="A132" s="208"/>
+      <c r="B132" s="216"/>
+      <c r="C132" s="211"/>
       <c r="D132" s="80"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
@@ -6255,9 +6249,9 @@
       <c r="T132" s="4"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133" s="187"/>
-      <c r="B133" s="190"/>
-      <c r="C133" s="193"/>
+      <c r="A133" s="208"/>
+      <c r="B133" s="216"/>
+      <c r="C133" s="211"/>
       <c r="D133" s="103"/>
       <c r="E133" s="13"/>
       <c r="F133" s="14"/>
@@ -6277,9 +6271,9 @@
       <c r="T133" s="4"/>
     </row>
     <row r="134" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="188"/>
-      <c r="B134" s="191"/>
-      <c r="C134" s="194"/>
+      <c r="A134" s="222"/>
+      <c r="B134" s="224"/>
+      <c r="C134" s="218"/>
       <c r="D134" s="107"/>
       <c r="E134" s="15"/>
       <c r="F134" s="16"/>
@@ -6299,13 +6293,13 @@
       <c r="T134" s="4"/>
     </row>
     <row r="135" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="186" t="s">
+      <c r="A135" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="189" t="s">
+      <c r="B135" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="C135" s="192" t="s">
+      <c r="C135" s="217" t="s">
         <v>92</v>
       </c>
       <c r="D135" s="114"/>
@@ -6327,9 +6321,9 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="187"/>
-      <c r="B136" s="190"/>
-      <c r="C136" s="193"/>
+      <c r="A136" s="208"/>
+      <c r="B136" s="216"/>
+      <c r="C136" s="211"/>
       <c r="D136" s="81"/>
       <c r="E136" s="13"/>
       <c r="F136" s="14"/>
@@ -6349,9 +6343,9 @@
       <c r="T136" s="4"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="187"/>
-      <c r="B137" s="190"/>
-      <c r="C137" s="193"/>
+      <c r="A137" s="208"/>
+      <c r="B137" s="216"/>
+      <c r="C137" s="211"/>
       <c r="D137" s="82"/>
       <c r="E137" s="13" t="s">
         <v>94</v>
@@ -6373,9 +6367,9 @@
       <c r="T137" s="4"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="187"/>
-      <c r="B138" s="190"/>
-      <c r="C138" s="193"/>
+      <c r="A138" s="208"/>
+      <c r="B138" s="216"/>
+      <c r="C138" s="211"/>
       <c r="D138" s="81"/>
       <c r="E138" s="13" t="s">
         <v>79</v>
@@ -6397,11 +6391,11 @@
       <c r="T138" s="4"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="187"/>
-      <c r="B139" s="190"/>
-      <c r="C139" s="193"/>
+      <c r="A139" s="208"/>
+      <c r="B139" s="216"/>
+      <c r="C139" s="211"/>
       <c r="D139" s="80" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>91</v>
@@ -6423,9 +6417,9 @@
       <c r="T139" s="4"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="187"/>
-      <c r="B140" s="190"/>
-      <c r="C140" s="193"/>
+      <c r="A140" s="208"/>
+      <c r="B140" s="216"/>
+      <c r="C140" s="211"/>
       <c r="D140" s="82"/>
       <c r="E140" s="13" t="s">
         <v>90</v>
@@ -6447,15 +6441,15 @@
       <c r="T140" s="4"/>
     </row>
     <row r="141" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A141" s="187"/>
-      <c r="B141" s="190"/>
-      <c r="C141" s="193"/>
+      <c r="A141" s="208"/>
+      <c r="B141" s="216"/>
+      <c r="C141" s="211"/>
       <c r="D141" s="81"/>
       <c r="E141" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F141" s="162" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -6473,9 +6467,9 @@
       <c r="T141" s="4"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="187"/>
-      <c r="B142" s="190"/>
-      <c r="C142" s="193"/>
+      <c r="A142" s="208"/>
+      <c r="B142" s="216"/>
+      <c r="C142" s="211"/>
       <c r="D142" s="80"/>
       <c r="E142" s="13"/>
       <c r="F142" s="14"/>
@@ -6495,9 +6489,9 @@
       <c r="T142" s="4"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="187"/>
-      <c r="B143" s="190"/>
-      <c r="C143" s="193"/>
+      <c r="A143" s="208"/>
+      <c r="B143" s="216"/>
+      <c r="C143" s="211"/>
       <c r="D143" s="82"/>
       <c r="E143" s="13"/>
       <c r="F143" s="14"/>
@@ -6517,9 +6511,9 @@
       <c r="T143" s="4"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="187"/>
-      <c r="B144" s="190"/>
-      <c r="C144" s="193"/>
+      <c r="A144" s="208"/>
+      <c r="B144" s="216"/>
+      <c r="C144" s="211"/>
       <c r="D144" s="82"/>
       <c r="E144" s="13"/>
       <c r="F144" s="14"/>
@@ -6539,9 +6533,9 @@
       <c r="T144" s="4"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="187"/>
-      <c r="B145" s="190"/>
-      <c r="C145" s="193"/>
+      <c r="A145" s="208"/>
+      <c r="B145" s="216"/>
+      <c r="C145" s="211"/>
       <c r="D145" s="110"/>
       <c r="E145" s="13"/>
       <c r="F145" s="14"/>
@@ -6561,9 +6555,9 @@
       <c r="T145" s="4"/>
     </row>
     <row r="146" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="188"/>
-      <c r="B146" s="191"/>
-      <c r="C146" s="194"/>
+      <c r="A146" s="222"/>
+      <c r="B146" s="224"/>
+      <c r="C146" s="218"/>
       <c r="D146" s="109"/>
       <c r="E146" s="15"/>
       <c r="F146" s="16"/>
@@ -6583,16 +6577,16 @@
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="186" t="s">
+      <c r="A147" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="189" t="s">
-        <v>340</v>
-      </c>
-      <c r="C147" s="192" t="s">
-        <v>341</v>
-      </c>
-      <c r="D147" s="247"/>
+      <c r="B147" s="223" t="s">
+        <v>334</v>
+      </c>
+      <c r="C147" s="217" t="s">
+        <v>335</v>
+      </c>
+      <c r="D147" s="192"/>
       <c r="E147" s="17"/>
       <c r="F147" s="18"/>
       <c r="G147" s="4"/>
@@ -6611,10 +6605,10 @@
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="187"/>
-      <c r="B148" s="190"/>
-      <c r="C148" s="193"/>
-      <c r="D148" s="248"/>
+      <c r="A148" s="208"/>
+      <c r="B148" s="216"/>
+      <c r="C148" s="211"/>
+      <c r="D148" s="193"/>
       <c r="E148" s="13"/>
       <c r="F148" s="14"/>
       <c r="G148" s="4"/>
@@ -6633,9 +6627,9 @@
       <c r="T148" s="4"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="187"/>
-      <c r="B149" s="190"/>
-      <c r="C149" s="193"/>
+      <c r="A149" s="208"/>
+      <c r="B149" s="216"/>
+      <c r="C149" s="211"/>
       <c r="D149" s="80"/>
       <c r="E149" s="13" t="s">
         <v>94</v>
@@ -6657,9 +6651,9 @@
       <c r="T149" s="4"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="187"/>
-      <c r="B150" s="190"/>
-      <c r="C150" s="193"/>
+      <c r="A150" s="208"/>
+      <c r="B150" s="216"/>
+      <c r="C150" s="211"/>
       <c r="D150" s="82"/>
       <c r="E150" s="13" t="s">
         <v>79</v>
@@ -6681,9 +6675,9 @@
       <c r="T150" s="4"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="187"/>
-      <c r="B151" s="190"/>
-      <c r="C151" s="193"/>
+      <c r="A151" s="208"/>
+      <c r="B151" s="216"/>
+      <c r="C151" s="211"/>
       <c r="D151" s="81"/>
       <c r="E151" s="13" t="s">
         <v>95</v>
@@ -6705,11 +6699,11 @@
       <c r="T151" s="4"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="187"/>
-      <c r="B152" s="190"/>
-      <c r="C152" s="193"/>
+      <c r="A152" s="208"/>
+      <c r="B152" s="216"/>
+      <c r="C152" s="211"/>
       <c r="D152" s="80" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="14"/>
@@ -6729,9 +6723,9 @@
       <c r="T152" s="4"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="187"/>
-      <c r="B153" s="190"/>
-      <c r="C153" s="193"/>
+      <c r="A153" s="208"/>
+      <c r="B153" s="216"/>
+      <c r="C153" s="211"/>
       <c r="D153" s="82"/>
       <c r="E153" s="13"/>
       <c r="F153" s="14"/>
@@ -6751,9 +6745,9 @@
       <c r="T153" s="4"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="187"/>
-      <c r="B154" s="190"/>
-      <c r="C154" s="193"/>
+      <c r="A154" s="208"/>
+      <c r="B154" s="216"/>
+      <c r="C154" s="211"/>
       <c r="D154" s="80"/>
       <c r="E154" s="13"/>
       <c r="F154" s="14"/>
@@ -6773,9 +6767,9 @@
       <c r="T154" s="4"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="187"/>
-      <c r="B155" s="190"/>
-      <c r="C155" s="193"/>
+      <c r="A155" s="208"/>
+      <c r="B155" s="216"/>
+      <c r="C155" s="211"/>
       <c r="D155" s="82"/>
       <c r="E155" s="13"/>
       <c r="F155" s="14"/>
@@ -6795,9 +6789,9 @@
       <c r="T155" s="4"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="187"/>
-      <c r="B156" s="190"/>
-      <c r="C156" s="193"/>
+      <c r="A156" s="208"/>
+      <c r="B156" s="216"/>
+      <c r="C156" s="211"/>
       <c r="D156" s="103"/>
       <c r="E156" s="13"/>
       <c r="F156" s="14"/>
@@ -6817,9 +6811,9 @@
       <c r="T156" s="4"/>
     </row>
     <row r="157" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="188"/>
-      <c r="B157" s="191"/>
-      <c r="C157" s="194"/>
+      <c r="A157" s="222"/>
+      <c r="B157" s="224"/>
+      <c r="C157" s="218"/>
       <c r="D157" s="108"/>
       <c r="E157" s="15"/>
       <c r="F157" s="16"/>
@@ -6839,14 +6833,14 @@
       <c r="T157" s="4"/>
     </row>
     <row r="158" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="186" t="s">
+      <c r="A158" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="B158" s="189" t="s">
+      <c r="B158" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="C158" s="192" t="s">
-        <v>342</v>
+      <c r="C158" s="217" t="s">
+        <v>336</v>
       </c>
       <c r="D158" s="82"/>
       <c r="E158" s="17"/>
@@ -6867,14 +6861,14 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="187"/>
-      <c r="B159" s="190"/>
-      <c r="C159" s="193"/>
+      <c r="A159" s="208"/>
+      <c r="B159" s="216"/>
+      <c r="C159" s="211"/>
       <c r="D159" s="80" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="4"/>
@@ -6893,15 +6887,15 @@
       <c r="T159" s="4"/>
     </row>
     <row r="160" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="187"/>
-      <c r="B160" s="190"/>
-      <c r="C160" s="193"/>
+      <c r="A160" s="208"/>
+      <c r="B160" s="216"/>
+      <c r="C160" s="211"/>
       <c r="D160" s="80"/>
       <c r="E160" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F160" s="162" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -6919,9 +6913,9 @@
       <c r="T160" s="4"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="187"/>
-      <c r="B161" s="190"/>
-      <c r="C161" s="193"/>
+      <c r="A161" s="208"/>
+      <c r="B161" s="216"/>
+      <c r="C161" s="211"/>
       <c r="D161" s="80"/>
       <c r="E161" s="13"/>
       <c r="F161" s="14"/>
@@ -6941,9 +6935,9 @@
       <c r="T161" s="4"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="187"/>
-      <c r="B162" s="190"/>
-      <c r="C162" s="193"/>
+      <c r="A162" s="208"/>
+      <c r="B162" s="216"/>
+      <c r="C162" s="211"/>
       <c r="D162" s="82"/>
       <c r="E162" s="13"/>
       <c r="F162" s="14"/>
@@ -6963,9 +6957,9 @@
       <c r="T162" s="4"/>
     </row>
     <row r="163" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="188"/>
-      <c r="B163" s="191"/>
-      <c r="C163" s="194"/>
+      <c r="A163" s="222"/>
+      <c r="B163" s="224"/>
+      <c r="C163" s="218"/>
       <c r="D163" s="107"/>
       <c r="E163" s="15"/>
       <c r="F163" s="16"/>
@@ -6985,13 +6979,13 @@
       <c r="T163" s="4"/>
     </row>
     <row r="164" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="186" t="s">
+      <c r="A164" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="189" t="s">
+      <c r="B164" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="C164" s="192" t="s">
+      <c r="C164" s="217" t="s">
         <v>101</v>
       </c>
       <c r="D164" s="114"/>
@@ -7013,9 +7007,9 @@
       <c r="T164" s="4"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="187"/>
-      <c r="B165" s="190"/>
-      <c r="C165" s="193"/>
+      <c r="A165" s="208"/>
+      <c r="B165" s="216"/>
+      <c r="C165" s="211"/>
       <c r="D165" s="82"/>
       <c r="E165" s="112" t="s">
         <v>99</v>
@@ -7037,9 +7031,9 @@
       <c r="T165" s="4"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="187"/>
-      <c r="B166" s="190"/>
-      <c r="C166" s="193"/>
+      <c r="A166" s="208"/>
+      <c r="B166" s="216"/>
+      <c r="C166" s="211"/>
       <c r="D166" s="81"/>
       <c r="E166" s="111" t="s">
         <v>100</v>
@@ -7061,17 +7055,17 @@
       <c r="T166" s="4"/>
     </row>
     <row r="167" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="187"/>
-      <c r="B167" s="190"/>
-      <c r="C167" s="193"/>
+      <c r="A167" s="208"/>
+      <c r="B167" s="216"/>
+      <c r="C167" s="211"/>
       <c r="D167" s="80" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E167" s="111" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F167" s="165" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -7089,9 +7083,9 @@
       <c r="T167" s="4"/>
     </row>
     <row r="168" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="188"/>
-      <c r="B168" s="191"/>
-      <c r="C168" s="194"/>
+      <c r="A168" s="222"/>
+      <c r="B168" s="224"/>
+      <c r="C168" s="218"/>
       <c r="D168" s="107"/>
       <c r="E168" s="32"/>
       <c r="F168" s="33"/>
@@ -7111,13 +7105,13 @@
       <c r="T168" s="4"/>
     </row>
     <row r="169" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="186" t="s">
+      <c r="A169" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="189" t="s">
-        <v>320</v>
-      </c>
-      <c r="C169" s="192" t="s">
+      <c r="B169" s="223" t="s">
+        <v>314</v>
+      </c>
+      <c r="C169" s="217" t="s">
         <v>104</v>
       </c>
       <c r="D169" s="82"/>
@@ -7139,14 +7133,14 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="187"/>
-      <c r="B170" s="190"/>
-      <c r="C170" s="193"/>
+      <c r="A170" s="208"/>
+      <c r="B170" s="216"/>
+      <c r="C170" s="211"/>
       <c r="D170" s="80" t="s">
         <v>102</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="4"/>
@@ -7165,12 +7159,12 @@
       <c r="T170" s="4"/>
     </row>
     <row r="171" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="187"/>
-      <c r="B171" s="190"/>
-      <c r="C171" s="193"/>
+      <c r="A171" s="208"/>
+      <c r="B171" s="216"/>
+      <c r="C171" s="211"/>
       <c r="D171" s="80"/>
       <c r="E171" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="4"/>
@@ -7189,12 +7183,12 @@
       <c r="T171" s="4"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="187"/>
-      <c r="B172" s="190"/>
-      <c r="C172" s="193"/>
+      <c r="A172" s="208"/>
+      <c r="B172" s="216"/>
+      <c r="C172" s="211"/>
       <c r="D172" s="80"/>
       <c r="E172" s="13" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="4"/>
@@ -7213,12 +7207,12 @@
       <c r="T172" s="4"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="187"/>
-      <c r="B173" s="190"/>
-      <c r="C173" s="193"/>
+      <c r="A173" s="208"/>
+      <c r="B173" s="216"/>
+      <c r="C173" s="211"/>
       <c r="D173" s="82"/>
       <c r="E173" s="13" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="4"/>
@@ -7237,12 +7231,12 @@
       <c r="T173" s="4"/>
     </row>
     <row r="174" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="188"/>
-      <c r="B174" s="191"/>
-      <c r="C174" s="194"/>
+      <c r="A174" s="222"/>
+      <c r="B174" s="224"/>
+      <c r="C174" s="218"/>
       <c r="D174" s="107"/>
       <c r="E174" s="15" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="4"/>
@@ -7261,16 +7255,16 @@
       <c r="T174" s="4"/>
     </row>
     <row r="175" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="186" t="s">
+      <c r="A175" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="195" t="s">
+      <c r="B175" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="C175" s="192" t="s">
+      <c r="C175" s="217" t="s">
         <v>105</v>
       </c>
-      <c r="D175" s="249"/>
+      <c r="D175" s="197"/>
       <c r="F175" s="18"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -7288,12 +7282,12 @@
       <c r="T175" s="4"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="187"/>
-      <c r="B176" s="196"/>
-      <c r="C176" s="193"/>
-      <c r="D176" s="205"/>
+      <c r="A176" s="208"/>
+      <c r="B176" s="229"/>
+      <c r="C176" s="211"/>
+      <c r="D176" s="198"/>
       <c r="E176" s="34" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="4"/>
@@ -7312,14 +7306,14 @@
       <c r="T176" s="4"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="187"/>
-      <c r="B177" s="196"/>
-      <c r="C177" s="193"/>
+      <c r="A177" s="208"/>
+      <c r="B177" s="229"/>
+      <c r="C177" s="211"/>
       <c r="D177" s="80" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E177" s="113" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="4"/>
@@ -7338,10 +7332,10 @@
       <c r="T177" s="4"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="187"/>
-      <c r="B178" s="196"/>
-      <c r="C178" s="193"/>
-      <c r="D178" s="173"/>
+      <c r="A178" s="208"/>
+      <c r="B178" s="229"/>
+      <c r="C178" s="211"/>
+      <c r="D178" s="194"/>
       <c r="E178" s="113"/>
       <c r="F178" s="14"/>
       <c r="G178" s="4"/>
@@ -7360,10 +7354,10 @@
       <c r="T178" s="4"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="187"/>
-      <c r="B179" s="196"/>
-      <c r="C179" s="193"/>
-      <c r="D179" s="174"/>
+      <c r="A179" s="208"/>
+      <c r="B179" s="229"/>
+      <c r="C179" s="211"/>
+      <c r="D179" s="195"/>
       <c r="E179" s="113"/>
       <c r="F179" s="14"/>
       <c r="G179" s="4"/>
@@ -7382,10 +7376,10 @@
       <c r="T179" s="4"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="187"/>
-      <c r="B180" s="196"/>
-      <c r="C180" s="193"/>
-      <c r="D180" s="174"/>
+      <c r="A180" s="208"/>
+      <c r="B180" s="229"/>
+      <c r="C180" s="211"/>
+      <c r="D180" s="195"/>
       <c r="E180" s="113"/>
       <c r="F180" s="14"/>
       <c r="G180" s="4"/>
@@ -7404,10 +7398,10 @@
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="188"/>
-      <c r="B181" s="197"/>
-      <c r="C181" s="194"/>
-      <c r="D181" s="179"/>
+      <c r="A181" s="222"/>
+      <c r="B181" s="230"/>
+      <c r="C181" s="218"/>
+      <c r="D181" s="196"/>
       <c r="E181" s="36"/>
       <c r="F181" s="16"/>
       <c r="G181" s="4"/>
@@ -7426,16 +7420,16 @@
       <c r="T181" s="4"/>
     </row>
     <row r="182" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="186" t="s">
+      <c r="A182" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="B182" s="195" t="s">
+      <c r="B182" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="C182" s="192" t="s">
+      <c r="C182" s="217" t="s">
         <v>107</v>
       </c>
-      <c r="D182" s="250" t="s">
+      <c r="D182" s="203" t="s">
         <v>102</v>
       </c>
       <c r="E182" s="17" t="s">
@@ -7458,12 +7452,12 @@
       <c r="T182" s="4"/>
     </row>
     <row r="183" spans="1:20" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="187"/>
-      <c r="B183" s="196"/>
-      <c r="C183" s="193"/>
-      <c r="D183" s="251"/>
+      <c r="A183" s="208"/>
+      <c r="B183" s="229"/>
+      <c r="C183" s="211"/>
+      <c r="D183" s="204"/>
       <c r="E183" s="58" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F183" s="162"/>
       <c r="G183" s="4"/>
@@ -7482,12 +7476,12 @@
       <c r="T183" s="4"/>
     </row>
     <row r="184" spans="1:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="188"/>
-      <c r="B184" s="197"/>
-      <c r="C184" s="194"/>
+      <c r="A184" s="222"/>
+      <c r="B184" s="230"/>
+      <c r="C184" s="218"/>
       <c r="D184" s="150"/>
       <c r="E184" s="15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>63</v>
@@ -7508,17 +7502,17 @@
       <c r="T184" s="4"/>
     </row>
     <row r="185" spans="1:20" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="186" t="s">
+      <c r="A185" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="195" t="s">
+      <c r="B185" s="228" t="s">
         <v>109</v>
       </c>
-      <c r="C185" s="192" t="s">
+      <c r="C185" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="D185" s="184" t="s">
-        <v>357</v>
+      <c r="D185" s="233" t="s">
+        <v>351</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="38"/>
@@ -7538,10 +7532,10 @@
       <c r="T185" s="4"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="187"/>
-      <c r="B186" s="196"/>
-      <c r="C186" s="193"/>
-      <c r="D186" s="184"/>
+      <c r="A186" s="208"/>
+      <c r="B186" s="229"/>
+      <c r="C186" s="211"/>
+      <c r="D186" s="233"/>
       <c r="E186" s="39"/>
       <c r="F186" s="40"/>
       <c r="G186" s="4"/>
@@ -7560,10 +7554,10 @@
       <c r="T186" s="4"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="187"/>
-      <c r="B187" s="196"/>
-      <c r="C187" s="193"/>
-      <c r="D187" s="184"/>
+      <c r="A187" s="208"/>
+      <c r="B187" s="229"/>
+      <c r="C187" s="211"/>
+      <c r="D187" s="233"/>
       <c r="E187" s="39"/>
       <c r="F187" s="40"/>
       <c r="G187" s="4"/>
@@ -7582,12 +7576,12 @@
       <c r="T187" s="4"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="187"/>
-      <c r="B188" s="196"/>
-      <c r="C188" s="193"/>
-      <c r="D188" s="184"/>
+      <c r="A188" s="208"/>
+      <c r="B188" s="229"/>
+      <c r="C188" s="211"/>
+      <c r="D188" s="233"/>
       <c r="E188" s="39" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F188" s="40"/>
       <c r="G188" s="4"/>
@@ -7606,12 +7600,12 @@
       <c r="T188" s="4"/>
     </row>
     <row r="189" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="188"/>
-      <c r="B189" s="197"/>
-      <c r="C189" s="194"/>
-      <c r="D189" s="185"/>
+      <c r="A189" s="222"/>
+      <c r="B189" s="230"/>
+      <c r="C189" s="218"/>
+      <c r="D189" s="234"/>
       <c r="E189" s="119" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F189" s="42"/>
       <c r="G189" s="4"/>
@@ -7630,16 +7624,16 @@
       <c r="T189" s="4"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="187" t="s">
+      <c r="A190" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="B190" s="196" t="s">
+      <c r="B190" s="229" t="s">
         <v>111</v>
       </c>
-      <c r="C190" s="193" t="s">
+      <c r="C190" s="211" t="s">
         <v>112</v>
       </c>
-      <c r="D190" s="207" t="s">
+      <c r="D190" s="213" t="s">
         <v>102</v>
       </c>
       <c r="E190" s="39" t="s">
@@ -7662,10 +7656,10 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="187"/>
-      <c r="B191" s="196"/>
-      <c r="C191" s="193"/>
-      <c r="D191" s="207"/>
+      <c r="A191" s="208"/>
+      <c r="B191" s="229"/>
+      <c r="C191" s="211"/>
+      <c r="D191" s="213"/>
       <c r="E191" s="115" t="s">
         <v>114</v>
       </c>
@@ -7686,10 +7680,10 @@
       <c r="T191" s="4"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="187"/>
-      <c r="B192" s="196"/>
-      <c r="C192" s="193"/>
-      <c r="D192" s="207"/>
+      <c r="A192" s="208"/>
+      <c r="B192" s="229"/>
+      <c r="C192" s="211"/>
+      <c r="D192" s="213"/>
       <c r="E192" s="118" t="s">
         <v>115</v>
       </c>
@@ -7710,10 +7704,10 @@
       <c r="T192" s="4"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="187"/>
-      <c r="B193" s="196"/>
-      <c r="C193" s="193"/>
-      <c r="D193" s="207"/>
+      <c r="A193" s="208"/>
+      <c r="B193" s="229"/>
+      <c r="C193" s="211"/>
+      <c r="D193" s="213"/>
       <c r="E193" s="43" t="s">
         <v>116</v>
       </c>
@@ -7734,10 +7728,10 @@
       <c r="T193" s="4"/>
     </row>
     <row r="194" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="187"/>
-      <c r="B194" s="196"/>
-      <c r="C194" s="193"/>
-      <c r="D194" s="207"/>
+      <c r="A194" s="208"/>
+      <c r="B194" s="229"/>
+      <c r="C194" s="211"/>
+      <c r="D194" s="213"/>
       <c r="E194" s="13" t="s">
         <v>117</v>
       </c>
@@ -7758,10 +7752,10 @@
       <c r="T194" s="4"/>
     </row>
     <row r="195" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="187"/>
-      <c r="B195" s="196"/>
-      <c r="C195" s="193"/>
-      <c r="D195" s="207"/>
+      <c r="A195" s="208"/>
+      <c r="B195" s="229"/>
+      <c r="C195" s="211"/>
+      <c r="D195" s="213"/>
       <c r="E195" s="115" t="s">
         <v>118</v>
       </c>
@@ -7782,12 +7776,12 @@
       <c r="T195" s="4"/>
     </row>
     <row r="196" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="187"/>
-      <c r="B196" s="196"/>
-      <c r="C196" s="193"/>
-      <c r="D196" s="207"/>
+      <c r="A196" s="208"/>
+      <c r="B196" s="229"/>
+      <c r="C196" s="211"/>
+      <c r="D196" s="213"/>
       <c r="E196" s="156" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F196" s="158"/>
       <c r="G196" s="4"/>
@@ -7806,10 +7800,10 @@
       <c r="T196" s="4"/>
     </row>
     <row r="197" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="188"/>
-      <c r="B197" s="197"/>
-      <c r="C197" s="194"/>
-      <c r="D197" s="208"/>
+      <c r="A197" s="222"/>
+      <c r="B197" s="230"/>
+      <c r="C197" s="218"/>
+      <c r="D197" s="220"/>
       <c r="E197" s="159"/>
       <c r="F197" s="157"/>
       <c r="G197" s="4"/>
@@ -7828,16 +7822,16 @@
       <c r="T197" s="4"/>
     </row>
     <row r="198" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="187" t="s">
+      <c r="A198" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="B198" s="196" t="s">
+      <c r="B198" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="C198" s="193" t="s">
+      <c r="C198" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="D198" s="184"/>
+      <c r="D198" s="233"/>
       <c r="E198" s="43" t="s">
         <v>121</v>
       </c>
@@ -7858,10 +7852,10 @@
       <c r="T198" s="4"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="187"/>
-      <c r="B199" s="196"/>
-      <c r="C199" s="193"/>
-      <c r="D199" s="184"/>
+      <c r="A199" s="208"/>
+      <c r="B199" s="229"/>
+      <c r="C199" s="211"/>
+      <c r="D199" s="233"/>
       <c r="E199" s="39" t="s">
         <v>122</v>
       </c>
@@ -7882,10 +7876,10 @@
       <c r="T199" s="4"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="187"/>
-      <c r="B200" s="196"/>
-      <c r="C200" s="193"/>
-      <c r="D200" s="184"/>
+      <c r="A200" s="208"/>
+      <c r="B200" s="229"/>
+      <c r="C200" s="211"/>
+      <c r="D200" s="233"/>
       <c r="E200" s="39" t="s">
         <v>123</v>
       </c>
@@ -7906,10 +7900,10 @@
       <c r="T200" s="4"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="187"/>
-      <c r="B201" s="196"/>
-      <c r="C201" s="193"/>
-      <c r="D201" s="184"/>
+      <c r="A201" s="208"/>
+      <c r="B201" s="229"/>
+      <c r="C201" s="211"/>
+      <c r="D201" s="233"/>
       <c r="E201" s="13" t="s">
         <v>124</v>
       </c>
@@ -7930,10 +7924,10 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="188"/>
-      <c r="B202" s="197"/>
-      <c r="C202" s="194"/>
-      <c r="D202" s="185"/>
+      <c r="A202" s="222"/>
+      <c r="B202" s="230"/>
+      <c r="C202" s="218"/>
+      <c r="D202" s="234"/>
       <c r="E202" s="41"/>
       <c r="F202" s="46"/>
       <c r="G202" s="4"/>
@@ -7952,16 +7946,16 @@
       <c r="T202" s="4"/>
     </row>
     <row r="203" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="186" t="s">
+      <c r="A203" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="B203" s="195" t="s">
+      <c r="B203" s="228" t="s">
         <v>126</v>
       </c>
-      <c r="C203" s="192" t="s">
+      <c r="C203" s="217" t="s">
         <v>125</v>
       </c>
-      <c r="D203" s="203"/>
+      <c r="D203" s="247"/>
       <c r="E203" s="43"/>
       <c r="F203" s="44"/>
       <c r="G203" s="4"/>
@@ -7980,10 +7974,10 @@
       <c r="T203" s="4"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204" s="187"/>
-      <c r="B204" s="196"/>
-      <c r="C204" s="193"/>
-      <c r="D204" s="184"/>
+      <c r="A204" s="208"/>
+      <c r="B204" s="229"/>
+      <c r="C204" s="211"/>
+      <c r="D204" s="233"/>
       <c r="E204" s="43" t="s">
         <v>121</v>
       </c>
@@ -8004,10 +7998,10 @@
       <c r="T204" s="4"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="187"/>
-      <c r="B205" s="196"/>
-      <c r="C205" s="193"/>
-      <c r="D205" s="184"/>
+      <c r="A205" s="208"/>
+      <c r="B205" s="229"/>
+      <c r="C205" s="211"/>
+      <c r="D205" s="233"/>
       <c r="E205" s="39" t="s">
         <v>122</v>
       </c>
@@ -8028,12 +8022,12 @@
       <c r="T205" s="4"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A206" s="187"/>
-      <c r="B206" s="196"/>
-      <c r="C206" s="193"/>
-      <c r="D206" s="184"/>
+      <c r="A206" s="208"/>
+      <c r="B206" s="229"/>
+      <c r="C206" s="211"/>
+      <c r="D206" s="233"/>
       <c r="E206" s="39" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F206" s="45"/>
       <c r="G206" s="4"/>
@@ -8052,12 +8046,12 @@
       <c r="T206" s="4"/>
     </row>
     <row r="207" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="188"/>
-      <c r="B207" s="197"/>
-      <c r="C207" s="194"/>
-      <c r="D207" s="185"/>
+      <c r="A207" s="222"/>
+      <c r="B207" s="230"/>
+      <c r="C207" s="218"/>
+      <c r="D207" s="234"/>
       <c r="E207" s="13" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F207" s="45"/>
       <c r="G207" s="4"/>
@@ -8076,14 +8070,14 @@
       <c r="T207" s="4"/>
     </row>
     <row r="208" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="198" t="s">
+      <c r="A208" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="198"/>
-      <c r="C208" s="198"/>
-      <c r="D208" s="198"/>
-      <c r="E208" s="198"/>
-      <c r="F208" s="198"/>
+      <c r="B208" s="253"/>
+      <c r="C208" s="253"/>
+      <c r="D208" s="253"/>
+      <c r="E208" s="253"/>
+      <c r="F208" s="253"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -8122,16 +8116,16 @@
       <c r="T209" s="4"/>
     </row>
     <row r="210" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="186" t="s">
+      <c r="A210" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="204" t="s">
+      <c r="B210" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="C210" s="199" t="s">
+      <c r="C210" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="D210" s="183" t="s">
+      <c r="D210" s="212" t="s">
         <v>102</v>
       </c>
       <c r="E210" s="47"/>
@@ -8152,10 +8146,10 @@
       <c r="T210" s="4"/>
     </row>
     <row r="211" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="187"/>
-      <c r="B211" s="190"/>
-      <c r="C211" s="193"/>
-      <c r="D211" s="184"/>
+      <c r="A211" s="208"/>
+      <c r="B211" s="216"/>
+      <c r="C211" s="211"/>
+      <c r="D211" s="233"/>
       <c r="E211" s="47" t="s">
         <v>128</v>
       </c>
@@ -8176,12 +8170,12 @@
       <c r="T211" s="4"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A212" s="187"/>
-      <c r="B212" s="190"/>
-      <c r="C212" s="193"/>
-      <c r="D212" s="184"/>
+      <c r="A212" s="208"/>
+      <c r="B212" s="216"/>
+      <c r="C212" s="211"/>
+      <c r="D212" s="233"/>
       <c r="E212" s="47" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F212" s="19"/>
       <c r="G212" s="4"/>
@@ -8200,10 +8194,10 @@
       <c r="T212" s="4"/>
     </row>
     <row r="213" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="187"/>
-      <c r="B213" s="190"/>
-      <c r="C213" s="193"/>
-      <c r="D213" s="184"/>
+      <c r="A213" s="208"/>
+      <c r="B213" s="216"/>
+      <c r="C213" s="211"/>
+      <c r="D213" s="233"/>
       <c r="E213" s="47" t="s">
         <v>129</v>
       </c>
@@ -8224,12 +8218,12 @@
       <c r="T213" s="4"/>
     </row>
     <row r="214" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="187"/>
-      <c r="B214" s="190"/>
-      <c r="C214" s="193"/>
-      <c r="D214" s="184"/>
+      <c r="A214" s="208"/>
+      <c r="B214" s="216"/>
+      <c r="C214" s="211"/>
+      <c r="D214" s="233"/>
       <c r="E214" s="120" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F214" s="19"/>
       <c r="G214" s="4"/>
@@ -8248,12 +8242,12 @@
       <c r="T214" s="4"/>
     </row>
     <row r="215" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="187"/>
-      <c r="B215" s="190"/>
-      <c r="C215" s="193"/>
-      <c r="D215" s="184"/>
+      <c r="A215" s="208"/>
+      <c r="B215" s="216"/>
+      <c r="C215" s="211"/>
+      <c r="D215" s="233"/>
       <c r="E215" s="121" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F215" s="19"/>
       <c r="G215" s="4"/>
@@ -8272,10 +8266,10 @@
       <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="188"/>
-      <c r="B216" s="191"/>
-      <c r="C216" s="194"/>
-      <c r="D216" s="185"/>
+      <c r="A216" s="222"/>
+      <c r="B216" s="224"/>
+      <c r="C216" s="218"/>
+      <c r="D216" s="234"/>
       <c r="E216" s="122"/>
       <c r="F216" s="49"/>
       <c r="G216" s="4"/>
@@ -8294,18 +8288,16 @@
       <c r="T216" s="4"/>
     </row>
     <row r="217" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="186" t="s">
+      <c r="A217" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="B217" s="189" t="s">
+      <c r="B217" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="C217" s="192" t="s">
-        <v>138</v>
-      </c>
-      <c r="D217" s="252" t="s">
-        <v>102</v>
-      </c>
+      <c r="C217" s="217" t="s">
+        <v>137</v>
+      </c>
+      <c r="D217" s="205"/>
       <c r="E217" s="50"/>
       <c r="F217" s="51"/>
       <c r="G217" s="4"/>
@@ -8324,12 +8316,12 @@
       <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="187"/>
-      <c r="B218" s="190"/>
-      <c r="C218" s="193"/>
-      <c r="D218" s="251"/>
+      <c r="A218" s="208"/>
+      <c r="B218" s="216"/>
+      <c r="C218" s="211"/>
+      <c r="D218" s="204"/>
       <c r="E218" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F218" s="51"/>
       <c r="G218" s="4"/>
@@ -8348,14 +8340,12 @@
       <c r="T218" s="4"/>
     </row>
     <row r="219" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="187"/>
-      <c r="B219" s="190"/>
-      <c r="C219" s="193"/>
-      <c r="D219" s="80" t="s">
-        <v>133</v>
-      </c>
+      <c r="A219" s="208"/>
+      <c r="B219" s="216"/>
+      <c r="C219" s="211"/>
+      <c r="D219" s="80"/>
       <c r="E219" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F219" s="51"/>
       <c r="G219" s="4"/>
@@ -8374,12 +8364,12 @@
       <c r="T219" s="4"/>
     </row>
     <row r="220" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="187"/>
-      <c r="B220" s="190"/>
-      <c r="C220" s="193"/>
-      <c r="D220" s="173"/>
+      <c r="A220" s="208"/>
+      <c r="B220" s="216"/>
+      <c r="C220" s="211"/>
+      <c r="D220" s="194"/>
       <c r="E220" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F220" s="51"/>
       <c r="G220" s="4"/>
@@ -8398,10 +8388,10 @@
       <c r="T220" s="4"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221" s="187"/>
-      <c r="B221" s="190"/>
-      <c r="C221" s="193"/>
-      <c r="D221" s="174"/>
+      <c r="A221" s="208"/>
+      <c r="B221" s="216"/>
+      <c r="C221" s="211"/>
+      <c r="D221" s="195"/>
       <c r="E221" s="47"/>
       <c r="F221" s="19"/>
       <c r="G221" s="4"/>
@@ -8420,10 +8410,10 @@
       <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222" s="187"/>
-      <c r="B222" s="190"/>
-      <c r="C222" s="193"/>
-      <c r="D222" s="174"/>
+      <c r="A222" s="208"/>
+      <c r="B222" s="216"/>
+      <c r="C222" s="211"/>
+      <c r="D222" s="195"/>
       <c r="E222" s="47"/>
       <c r="F222" s="19"/>
       <c r="G222" s="4"/>
@@ -8442,10 +8432,10 @@
       <c r="T222" s="4"/>
     </row>
     <row r="223" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="187"/>
-      <c r="B223" s="190"/>
-      <c r="C223" s="193"/>
-      <c r="D223" s="179"/>
+      <c r="A223" s="208"/>
+      <c r="B223" s="216"/>
+      <c r="C223" s="211"/>
+      <c r="D223" s="196"/>
       <c r="E223" s="47"/>
       <c r="F223" s="19"/>
       <c r="G223" s="4"/>
@@ -8464,10 +8454,10 @@
       <c r="T223" s="4"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A224" s="187"/>
-      <c r="B224" s="190"/>
-      <c r="C224" s="193"/>
-      <c r="D224" s="249"/>
+      <c r="A224" s="208"/>
+      <c r="B224" s="216"/>
+      <c r="C224" s="211"/>
+      <c r="D224" s="197"/>
       <c r="E224" s="47"/>
       <c r="F224" s="19"/>
       <c r="G224" s="4"/>
@@ -8486,10 +8476,10 @@
       <c r="T224" s="4"/>
     </row>
     <row r="225" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="188"/>
-      <c r="B225" s="191"/>
-      <c r="C225" s="194"/>
-      <c r="D225" s="179"/>
+      <c r="A225" s="222"/>
+      <c r="B225" s="224"/>
+      <c r="C225" s="218"/>
+      <c r="D225" s="196"/>
       <c r="E225" s="48"/>
       <c r="F225" s="49"/>
       <c r="G225" s="4"/>
@@ -8508,18 +8498,16 @@
       <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="186" t="s">
+      <c r="A226" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="B226" s="189" t="s">
-        <v>137</v>
-      </c>
-      <c r="C226" s="192" t="s">
-        <v>143</v>
-      </c>
-      <c r="D226" s="250" t="s">
-        <v>102</v>
-      </c>
+      <c r="B226" s="223" t="s">
+        <v>136</v>
+      </c>
+      <c r="C226" s="217" t="s">
+        <v>141</v>
+      </c>
+      <c r="D226" s="203"/>
       <c r="E226" s="50"/>
       <c r="F226" s="51"/>
       <c r="G226" s="4"/>
@@ -8538,12 +8526,12 @@
       <c r="T226" s="4"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A227" s="187"/>
-      <c r="B227" s="190"/>
-      <c r="C227" s="193"/>
-      <c r="D227" s="251"/>
+      <c r="A227" s="208"/>
+      <c r="B227" s="216"/>
+      <c r="C227" s="211"/>
+      <c r="D227" s="204"/>
       <c r="E227" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F227" s="19"/>
       <c r="G227" s="4"/>
@@ -8562,14 +8550,12 @@
       <c r="T227" s="4"/>
     </row>
     <row r="228" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="187"/>
-      <c r="B228" s="190"/>
-      <c r="C228" s="193"/>
-      <c r="D228" s="80" t="s">
-        <v>144</v>
-      </c>
+      <c r="A228" s="208"/>
+      <c r="B228" s="216"/>
+      <c r="C228" s="211"/>
+      <c r="D228" s="80"/>
       <c r="E228" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F228" s="19"/>
       <c r="G228" s="4"/>
@@ -8588,12 +8574,12 @@
       <c r="T228" s="4"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A229" s="187"/>
-      <c r="B229" s="190"/>
-      <c r="C229" s="193"/>
-      <c r="D229" s="173"/>
+      <c r="A229" s="208"/>
+      <c r="B229" s="216"/>
+      <c r="C229" s="211"/>
+      <c r="D229" s="194"/>
       <c r="E229" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F229" s="19"/>
       <c r="G229" s="4"/>
@@ -8612,10 +8598,10 @@
       <c r="T229" s="4"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="187"/>
-      <c r="B230" s="190"/>
-      <c r="C230" s="193"/>
-      <c r="D230" s="174"/>
+      <c r="A230" s="208"/>
+      <c r="B230" s="216"/>
+      <c r="C230" s="211"/>
+      <c r="D230" s="195"/>
       <c r="E230" s="47"/>
       <c r="F230" s="19"/>
       <c r="G230" s="4"/>
@@ -8634,10 +8620,10 @@
       <c r="T230" s="4"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="187"/>
-      <c r="B231" s="190"/>
-      <c r="C231" s="193"/>
-      <c r="D231" s="174"/>
+      <c r="A231" s="208"/>
+      <c r="B231" s="216"/>
+      <c r="C231" s="211"/>
+      <c r="D231" s="195"/>
       <c r="E231" s="47"/>
       <c r="F231" s="19"/>
       <c r="G231" s="4"/>
@@ -8656,10 +8642,10 @@
       <c r="T231" s="4"/>
     </row>
     <row r="232" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="188"/>
-      <c r="B232" s="191"/>
-      <c r="C232" s="194"/>
-      <c r="D232" s="179"/>
+      <c r="A232" s="222"/>
+      <c r="B232" s="224"/>
+      <c r="C232" s="218"/>
+      <c r="D232" s="196"/>
       <c r="E232" s="48"/>
       <c r="F232" s="49"/>
       <c r="G232" s="4"/>
@@ -8678,16 +8664,16 @@
       <c r="T232" s="4"/>
     </row>
     <row r="233" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="186" t="s">
+      <c r="A233" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="B233" s="189" t="s">
-        <v>141</v>
-      </c>
-      <c r="C233" s="200" t="s">
-        <v>142</v>
-      </c>
-      <c r="D233" s="250"/>
+      <c r="B233" s="223" t="s">
+        <v>359</v>
+      </c>
+      <c r="C233" s="225" t="s">
+        <v>140</v>
+      </c>
+      <c r="D233" s="203"/>
       <c r="E233" s="50"/>
       <c r="F233" s="51"/>
       <c r="G233" s="4"/>
@@ -8706,10 +8692,10 @@
       <c r="T233" s="4"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="187"/>
-      <c r="B234" s="190"/>
-      <c r="C234" s="201"/>
-      <c r="D234" s="220"/>
+      <c r="A234" s="208"/>
+      <c r="B234" s="216"/>
+      <c r="C234" s="226"/>
+      <c r="D234" s="202"/>
       <c r="E234" s="47"/>
       <c r="F234" s="19"/>
       <c r="G234" s="4"/>
@@ -8728,14 +8714,12 @@
       <c r="T234" s="4"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="187"/>
-      <c r="B235" s="190"/>
-      <c r="C235" s="201"/>
-      <c r="D235" s="253" t="s">
-        <v>102</v>
-      </c>
+      <c r="A235" s="208"/>
+      <c r="B235" s="216"/>
+      <c r="C235" s="226"/>
+      <c r="D235" s="206"/>
       <c r="E235" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F235" s="19"/>
       <c r="G235" s="4"/>
@@ -8754,12 +8738,12 @@
       <c r="T235" s="4"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="187"/>
-      <c r="B236" s="190"/>
-      <c r="C236" s="201"/>
-      <c r="D236" s="236"/>
+      <c r="A236" s="208"/>
+      <c r="B236" s="216"/>
+      <c r="C236" s="226"/>
+      <c r="D236" s="207"/>
       <c r="E236" s="64" t="s">
-        <v>139</v>
+        <v>360</v>
       </c>
       <c r="F236" s="19"/>
       <c r="G236" s="4"/>
@@ -8778,14 +8762,12 @@
       <c r="T236" s="4"/>
     </row>
     <row r="237" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="187"/>
-      <c r="B237" s="190"/>
-      <c r="C237" s="201"/>
-      <c r="D237" s="125" t="s">
-        <v>145</v>
-      </c>
+      <c r="A237" s="208"/>
+      <c r="B237" s="216"/>
+      <c r="C237" s="226"/>
+      <c r="D237" s="125"/>
       <c r="E237" s="50" t="s">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="F237" s="19"/>
       <c r="G237" s="4"/>
@@ -8804,9 +8786,9 @@
       <c r="T237" s="4"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="187"/>
-      <c r="B238" s="190"/>
-      <c r="C238" s="201"/>
+      <c r="A238" s="208"/>
+      <c r="B238" s="216"/>
+      <c r="C238" s="226"/>
       <c r="D238" s="124"/>
       <c r="E238" s="123"/>
       <c r="F238" s="19"/>
@@ -8826,10 +8808,10 @@
       <c r="T238" s="4"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="187"/>
-      <c r="B239" s="190"/>
-      <c r="C239" s="201"/>
-      <c r="D239" s="219"/>
+      <c r="A239" s="208"/>
+      <c r="B239" s="216"/>
+      <c r="C239" s="226"/>
+      <c r="D239" s="201"/>
       <c r="E239" s="47"/>
       <c r="F239" s="19"/>
       <c r="G239" s="4"/>
@@ -8848,10 +8830,10 @@
       <c r="T239" s="4"/>
     </row>
     <row r="240" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="188"/>
-      <c r="B240" s="191"/>
-      <c r="C240" s="202"/>
-      <c r="D240" s="220"/>
+      <c r="A240" s="222"/>
+      <c r="B240" s="224"/>
+      <c r="C240" s="227"/>
+      <c r="D240" s="202"/>
       <c r="E240" s="48"/>
       <c r="F240" s="49"/>
       <c r="G240" s="4"/>
@@ -8870,18 +8852,16 @@
       <c r="T240" s="4"/>
     </row>
     <row r="241" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="186" t="s">
+      <c r="A241" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="B241" s="189" t="s">
-        <v>147</v>
-      </c>
-      <c r="C241" s="200" t="s">
-        <v>148</v>
-      </c>
-      <c r="D241" s="221" t="s">
-        <v>102</v>
-      </c>
+      <c r="B241" s="223" t="s">
+        <v>142</v>
+      </c>
+      <c r="C241" s="225" t="s">
+        <v>143</v>
+      </c>
+      <c r="D241" s="199"/>
       <c r="E241" s="50"/>
       <c r="F241" s="51"/>
       <c r="G241" s="4"/>
@@ -8900,12 +8880,12 @@
       <c r="T241" s="4"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="187"/>
-      <c r="B242" s="190"/>
-      <c r="C242" s="201"/>
-      <c r="D242" s="222"/>
+      <c r="A242" s="208"/>
+      <c r="B242" s="216"/>
+      <c r="C242" s="226"/>
+      <c r="D242" s="200"/>
       <c r="E242" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F242" s="19"/>
       <c r="G242" s="4"/>
@@ -8924,14 +8904,12 @@
       <c r="T242" s="4"/>
     </row>
     <row r="243" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="187"/>
-      <c r="B243" s="190"/>
-      <c r="C243" s="201"/>
-      <c r="D243" s="125" t="s">
-        <v>150</v>
-      </c>
+      <c r="A243" s="208"/>
+      <c r="B243" s="216"/>
+      <c r="C243" s="226"/>
+      <c r="D243" s="125"/>
       <c r="E243" s="64" t="s">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="4"/>
@@ -8950,12 +8928,12 @@
       <c r="T243" s="4"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="187"/>
-      <c r="B244" s="190"/>
-      <c r="C244" s="201"/>
+      <c r="A244" s="208"/>
+      <c r="B244" s="216"/>
+      <c r="C244" s="226"/>
       <c r="D244" s="124"/>
       <c r="E244" s="50" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F244" s="19"/>
       <c r="G244" s="4"/>
@@ -8974,9 +8952,9 @@
       <c r="T244" s="4"/>
     </row>
     <row r="245" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="188"/>
-      <c r="B245" s="191"/>
-      <c r="C245" s="202"/>
+      <c r="A245" s="222"/>
+      <c r="B245" s="224"/>
+      <c r="C245" s="227"/>
       <c r="D245" s="126"/>
       <c r="E245" s="48"/>
       <c r="F245" s="49"/>
@@ -8996,16 +8974,16 @@
       <c r="T245" s="4"/>
     </row>
     <row r="246" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="186" t="s">
+      <c r="A246" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="B246" s="189" t="s">
-        <v>151</v>
-      </c>
-      <c r="C246" s="200" t="s">
-        <v>152</v>
-      </c>
-      <c r="D246" s="221" t="s">
+      <c r="B246" s="223" t="s">
+        <v>145</v>
+      </c>
+      <c r="C246" s="225" t="s">
+        <v>146</v>
+      </c>
+      <c r="D246" s="199" t="s">
         <v>102</v>
       </c>
       <c r="E246" s="50"/>
@@ -9026,12 +9004,12 @@
       <c r="T246" s="4"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" s="187"/>
-      <c r="B247" s="190"/>
-      <c r="C247" s="201"/>
-      <c r="D247" s="222"/>
+      <c r="A247" s="208"/>
+      <c r="B247" s="216"/>
+      <c r="C247" s="226"/>
+      <c r="D247" s="200"/>
       <c r="E247" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F247" s="19"/>
       <c r="G247" s="4"/>
@@ -9050,14 +9028,14 @@
       <c r="T247" s="4"/>
     </row>
     <row r="248" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="187"/>
-      <c r="B248" s="190"/>
-      <c r="C248" s="201"/>
+      <c r="A248" s="208"/>
+      <c r="B248" s="216"/>
+      <c r="C248" s="226"/>
       <c r="D248" s="125" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E248" s="64" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F248" s="19"/>
       <c r="G248" s="4"/>
@@ -9076,12 +9054,12 @@
       <c r="T248" s="4"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="187"/>
-      <c r="B249" s="190"/>
-      <c r="C249" s="201"/>
+      <c r="A249" s="208"/>
+      <c r="B249" s="216"/>
+      <c r="C249" s="226"/>
       <c r="D249" s="124"/>
       <c r="E249" s="50" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F249" s="19"/>
       <c r="G249" s="4"/>
@@ -9100,10 +9078,10 @@
       <c r="T249" s="4"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="187"/>
-      <c r="B250" s="190"/>
-      <c r="C250" s="201"/>
-      <c r="D250" s="219"/>
+      <c r="A250" s="208"/>
+      <c r="B250" s="216"/>
+      <c r="C250" s="226"/>
+      <c r="D250" s="201"/>
       <c r="E250" s="47"/>
       <c r="F250" s="19"/>
       <c r="G250" s="4"/>
@@ -9122,10 +9100,10 @@
       <c r="T250" s="4"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" s="187"/>
-      <c r="B251" s="190"/>
-      <c r="C251" s="201"/>
-      <c r="D251" s="220"/>
+      <c r="A251" s="208"/>
+      <c r="B251" s="216"/>
+      <c r="C251" s="226"/>
+      <c r="D251" s="202"/>
       <c r="E251" s="47"/>
       <c r="F251" s="19"/>
       <c r="G251" s="4"/>
@@ -9144,9 +9122,9 @@
       <c r="T251" s="4"/>
     </row>
     <row r="252" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="188"/>
-      <c r="B252" s="191"/>
-      <c r="C252" s="202"/>
+      <c r="A252" s="222"/>
+      <c r="B252" s="224"/>
+      <c r="C252" s="227"/>
       <c r="D252" s="107"/>
       <c r="E252" s="48"/>
       <c r="F252" s="49"/>
@@ -9166,16 +9144,16 @@
       <c r="T252" s="4"/>
     </row>
     <row r="253" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="186" t="s">
+      <c r="A253" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="B253" s="189" t="s">
-        <v>156</v>
-      </c>
-      <c r="C253" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="D253" s="250" t="s">
+      <c r="B253" s="223" t="s">
+        <v>150</v>
+      </c>
+      <c r="C253" s="225" t="s">
+        <v>151</v>
+      </c>
+      <c r="D253" s="203" t="s">
         <v>102</v>
       </c>
       <c r="E253" s="50"/>
@@ -9196,12 +9174,12 @@
       <c r="T253" s="4"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" s="187"/>
-      <c r="B254" s="190"/>
-      <c r="C254" s="201"/>
-      <c r="D254" s="220"/>
+      <c r="A254" s="208"/>
+      <c r="B254" s="216"/>
+      <c r="C254" s="226"/>
+      <c r="D254" s="202"/>
       <c r="E254" s="47" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F254" s="19"/>
       <c r="G254" s="4"/>
@@ -9220,14 +9198,14 @@
       <c r="T254" s="4"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="187"/>
-      <c r="B255" s="190"/>
-      <c r="C255" s="201"/>
+      <c r="A255" s="208"/>
+      <c r="B255" s="216"/>
+      <c r="C255" s="226"/>
       <c r="D255" s="125" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E255" s="47" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F255" s="19"/>
       <c r="G255" s="4"/>
@@ -9246,12 +9224,12 @@
       <c r="T255" s="4"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="187"/>
-      <c r="B256" s="190"/>
-      <c r="C256" s="201"/>
+      <c r="A256" s="208"/>
+      <c r="B256" s="216"/>
+      <c r="C256" s="226"/>
       <c r="D256" s="124"/>
       <c r="E256" s="47" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F256" s="19"/>
       <c r="G256" s="4"/>
@@ -9270,10 +9248,10 @@
       <c r="T256" s="4"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" s="187"/>
-      <c r="B257" s="190"/>
-      <c r="C257" s="201"/>
-      <c r="D257" s="219"/>
+      <c r="A257" s="208"/>
+      <c r="B257" s="216"/>
+      <c r="C257" s="226"/>
+      <c r="D257" s="201"/>
       <c r="E257" s="47"/>
       <c r="F257" s="19"/>
       <c r="G257" s="4"/>
@@ -9292,10 +9270,10 @@
       <c r="T257" s="4"/>
     </row>
     <row r="258" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="188"/>
-      <c r="B258" s="191"/>
-      <c r="C258" s="202"/>
-      <c r="D258" s="220"/>
+      <c r="A258" s="222"/>
+      <c r="B258" s="224"/>
+      <c r="C258" s="227"/>
+      <c r="D258" s="202"/>
       <c r="E258" s="48"/>
       <c r="F258" s="49"/>
       <c r="G258" s="4"/>
@@ -9314,16 +9292,16 @@
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="186" t="s">
+      <c r="A259" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="C259" s="200" t="s">
-        <v>163</v>
-      </c>
-      <c r="D259" s="219"/>
+      <c r="B259" s="223" t="s">
+        <v>156</v>
+      </c>
+      <c r="C259" s="225" t="s">
+        <v>157</v>
+      </c>
+      <c r="D259" s="201"/>
       <c r="E259" s="127"/>
       <c r="F259" s="51"/>
       <c r="G259" s="4"/>
@@ -9342,12 +9320,12 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" s="187"/>
-      <c r="B260" s="190"/>
-      <c r="C260" s="201"/>
-      <c r="D260" s="220"/>
+      <c r="A260" s="208"/>
+      <c r="B260" s="216"/>
+      <c r="C260" s="226"/>
+      <c r="D260" s="202"/>
       <c r="E260" s="128" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F260" s="19"/>
       <c r="G260" s="4"/>
@@ -9366,14 +9344,14 @@
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="187"/>
-      <c r="B261" s="190"/>
-      <c r="C261" s="201"/>
-      <c r="D261" s="219" t="s">
+      <c r="A261" s="208"/>
+      <c r="B261" s="216"/>
+      <c r="C261" s="226"/>
+      <c r="D261" s="201" t="s">
         <v>102</v>
       </c>
       <c r="E261" s="128" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F261" s="19"/>
       <c r="G261" s="4"/>
@@ -9392,12 +9370,12 @@
       <c r="T261" s="4"/>
     </row>
     <row r="262" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="187"/>
-      <c r="B262" s="190"/>
-      <c r="C262" s="201"/>
-      <c r="D262" s="220"/>
+      <c r="A262" s="208"/>
+      <c r="B262" s="216"/>
+      <c r="C262" s="226"/>
+      <c r="D262" s="202"/>
       <c r="E262" s="128" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F262" s="19"/>
       <c r="G262" s="4"/>
@@ -9416,12 +9394,12 @@
       <c r="T262" s="4"/>
     </row>
     <row r="263" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="187"/>
-      <c r="B263" s="190"/>
-      <c r="C263" s="201"/>
+      <c r="A263" s="208"/>
+      <c r="B263" s="216"/>
+      <c r="C263" s="226"/>
       <c r="D263" s="126"/>
       <c r="E263" s="128" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F263" s="19"/>
       <c r="G263" s="4"/>
@@ -9440,12 +9418,12 @@
       <c r="T263" s="4"/>
     </row>
     <row r="264" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="187"/>
-      <c r="B264" s="190"/>
-      <c r="C264" s="201"/>
+      <c r="A264" s="208"/>
+      <c r="B264" s="216"/>
+      <c r="C264" s="226"/>
       <c r="D264" s="126"/>
       <c r="E264" s="128" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F264" s="19"/>
       <c r="G264" s="4"/>
@@ -9464,12 +9442,12 @@
       <c r="T264" s="4"/>
     </row>
     <row r="265" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="187"/>
-      <c r="B265" s="190"/>
-      <c r="C265" s="201"/>
+      <c r="A265" s="208"/>
+      <c r="B265" s="216"/>
+      <c r="C265" s="226"/>
       <c r="D265" s="126"/>
       <c r="E265" s="128" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F265" s="19"/>
       <c r="G265" s="4"/>
@@ -9488,12 +9466,12 @@
       <c r="T265" s="4"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" s="187"/>
-      <c r="B266" s="190"/>
-      <c r="C266" s="201"/>
-      <c r="D266" s="221"/>
+      <c r="A266" s="208"/>
+      <c r="B266" s="216"/>
+      <c r="C266" s="226"/>
+      <c r="D266" s="199"/>
       <c r="E266" s="130" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F266" s="19"/>
       <c r="G266" s="4"/>
@@ -9512,12 +9490,12 @@
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="188"/>
-      <c r="B267" s="191"/>
-      <c r="C267" s="202"/>
-      <c r="D267" s="222"/>
+      <c r="A267" s="222"/>
+      <c r="B267" s="224"/>
+      <c r="C267" s="227"/>
+      <c r="D267" s="200"/>
       <c r="E267" s="131" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F267" s="49"/>
       <c r="G267" s="4"/>
@@ -9536,16 +9514,16 @@
       <c r="T267" s="4"/>
     </row>
     <row r="268" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="186" t="s">
+      <c r="A268" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="B268" s="189" t="s">
-        <v>295</v>
-      </c>
-      <c r="C268" s="192" t="s">
-        <v>292</v>
-      </c>
-      <c r="D268" s="206" t="s">
+      <c r="B268" s="223" t="s">
+        <v>289</v>
+      </c>
+      <c r="C268" s="217" t="s">
+        <v>286</v>
+      </c>
+      <c r="D268" s="246" t="s">
         <v>102</v>
       </c>
       <c r="E268" s="127"/>
@@ -9566,12 +9544,12 @@
       <c r="T268" s="4"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" s="187"/>
-      <c r="B269" s="190"/>
-      <c r="C269" s="193"/>
-      <c r="D269" s="184"/>
+      <c r="A269" s="208"/>
+      <c r="B269" s="216"/>
+      <c r="C269" s="211"/>
+      <c r="D269" s="233"/>
       <c r="E269" s="128" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F269" s="19"/>
       <c r="G269" s="4"/>
@@ -9590,12 +9568,12 @@
       <c r="T269" s="4"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" s="187"/>
-      <c r="B270" s="190"/>
-      <c r="C270" s="193"/>
-      <c r="D270" s="184"/>
+      <c r="A270" s="208"/>
+      <c r="B270" s="216"/>
+      <c r="C270" s="211"/>
+      <c r="D270" s="233"/>
       <c r="E270" s="50" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F270" s="19"/>
       <c r="G270" s="4"/>
@@ -9614,12 +9592,12 @@
       <c r="T270" s="4"/>
     </row>
     <row r="271" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A271" s="187"/>
-      <c r="B271" s="190"/>
-      <c r="C271" s="193"/>
-      <c r="D271" s="184"/>
+      <c r="A271" s="208"/>
+      <c r="B271" s="216"/>
+      <c r="C271" s="211"/>
+      <c r="D271" s="233"/>
       <c r="E271" s="166" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F271" s="19"/>
       <c r="G271" s="4"/>
@@ -9638,10 +9616,10 @@
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="188"/>
-      <c r="B272" s="191"/>
-      <c r="C272" s="194"/>
-      <c r="D272" s="185"/>
+      <c r="A272" s="222"/>
+      <c r="B272" s="224"/>
+      <c r="C272" s="218"/>
+      <c r="D272" s="234"/>
       <c r="E272" s="134"/>
       <c r="F272" s="49"/>
       <c r="G272" s="4"/>
@@ -9660,16 +9638,16 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="186" t="s">
+      <c r="A273" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="B273" s="189" t="s">
-        <v>169</v>
-      </c>
-      <c r="C273" s="192" t="s">
-        <v>170</v>
-      </c>
-      <c r="D273" s="233" t="s">
+      <c r="B273" s="223" t="s">
+        <v>163</v>
+      </c>
+      <c r="C273" s="217" t="s">
+        <v>164</v>
+      </c>
+      <c r="D273" s="219" t="s">
         <v>102</v>
       </c>
       <c r="E273" s="20"/>
@@ -9690,12 +9668,12 @@
       <c r="T273" s="4"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="187"/>
-      <c r="B274" s="190"/>
-      <c r="C274" s="193"/>
-      <c r="D274" s="207"/>
+      <c r="A274" s="208"/>
+      <c r="B274" s="216"/>
+      <c r="C274" s="211"/>
+      <c r="D274" s="213"/>
       <c r="E274" s="133" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F274" s="123"/>
       <c r="G274" s="4"/>
@@ -9714,12 +9692,12 @@
       <c r="T274" s="4"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A275" s="187"/>
-      <c r="B275" s="190"/>
-      <c r="C275" s="193"/>
-      <c r="D275" s="207"/>
+      <c r="A275" s="208"/>
+      <c r="B275" s="216"/>
+      <c r="C275" s="211"/>
+      <c r="D275" s="213"/>
       <c r="E275" s="34" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F275" s="47"/>
       <c r="G275" s="4"/>
@@ -9738,12 +9716,12 @@
       <c r="T275" s="4"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" s="187"/>
-      <c r="B276" s="190"/>
-      <c r="C276" s="193"/>
-      <c r="D276" s="207"/>
+      <c r="A276" s="208"/>
+      <c r="B276" s="216"/>
+      <c r="C276" s="211"/>
+      <c r="D276" s="213"/>
       <c r="E276" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F276" s="47"/>
       <c r="G276" s="4"/>
@@ -9762,12 +9740,12 @@
       <c r="T276" s="4"/>
     </row>
     <row r="277" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="187"/>
-      <c r="B277" s="190"/>
-      <c r="C277" s="193"/>
-      <c r="D277" s="207"/>
+      <c r="A277" s="208"/>
+      <c r="B277" s="216"/>
+      <c r="C277" s="211"/>
+      <c r="D277" s="213"/>
       <c r="E277" s="13" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F277" s="47"/>
       <c r="G277" s="4"/>
@@ -9786,10 +9764,10 @@
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" s="187"/>
-      <c r="B278" s="190"/>
-      <c r="C278" s="193"/>
-      <c r="D278" s="207"/>
+      <c r="A278" s="208"/>
+      <c r="B278" s="216"/>
+      <c r="C278" s="211"/>
+      <c r="D278" s="213"/>
       <c r="E278" s="13"/>
       <c r="F278" s="47"/>
       <c r="G278" s="4"/>
@@ -9808,10 +9786,10 @@
       <c r="T278" s="4"/>
     </row>
     <row r="279" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="188"/>
-      <c r="B279" s="191"/>
-      <c r="C279" s="194"/>
-      <c r="D279" s="208"/>
+      <c r="A279" s="222"/>
+      <c r="B279" s="224"/>
+      <c r="C279" s="218"/>
+      <c r="D279" s="220"/>
       <c r="E279" s="135"/>
       <c r="F279" s="48"/>
       <c r="G279" s="4"/>
@@ -9830,16 +9808,16 @@
       <c r="T279" s="4"/>
     </row>
     <row r="280" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="186" t="s">
+      <c r="A280" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="B280" s="189" t="s">
-        <v>175</v>
-      </c>
-      <c r="C280" s="192" t="s">
-        <v>176</v>
-      </c>
-      <c r="D280" s="233" t="s">
+      <c r="B280" s="223" t="s">
+        <v>169</v>
+      </c>
+      <c r="C280" s="217" t="s">
+        <v>170</v>
+      </c>
+      <c r="D280" s="219" t="s">
         <v>102</v>
       </c>
       <c r="E280" s="20"/>
@@ -9860,12 +9838,12 @@
       <c r="T280" s="4"/>
     </row>
     <row r="281" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="187"/>
-      <c r="B281" s="190"/>
-      <c r="C281" s="193"/>
-      <c r="D281" s="207"/>
+      <c r="A281" s="208"/>
+      <c r="B281" s="216"/>
+      <c r="C281" s="211"/>
+      <c r="D281" s="213"/>
       <c r="E281" s="136" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F281" s="64"/>
       <c r="G281" s="4"/>
@@ -9884,12 +9862,12 @@
       <c r="T281" s="4"/>
     </row>
     <row r="282" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="187"/>
-      <c r="B282" s="190"/>
-      <c r="C282" s="193"/>
-      <c r="D282" s="207"/>
+      <c r="A282" s="208"/>
+      <c r="B282" s="216"/>
+      <c r="C282" s="211"/>
+      <c r="D282" s="213"/>
       <c r="E282" s="136" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F282" s="64"/>
       <c r="G282" s="4"/>
@@ -9908,12 +9886,12 @@
       <c r="T282" s="4"/>
     </row>
     <row r="283" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="187"/>
-      <c r="B283" s="190"/>
-      <c r="C283" s="193"/>
-      <c r="D283" s="207"/>
+      <c r="A283" s="208"/>
+      <c r="B283" s="216"/>
+      <c r="C283" s="211"/>
+      <c r="D283" s="213"/>
       <c r="E283" s="136" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F283" s="64"/>
       <c r="G283" s="4"/>
@@ -9932,12 +9910,12 @@
       <c r="T283" s="4"/>
     </row>
     <row r="284" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="187"/>
-      <c r="B284" s="190"/>
-      <c r="C284" s="193"/>
-      <c r="D284" s="207"/>
+      <c r="A284" s="208"/>
+      <c r="B284" s="216"/>
+      <c r="C284" s="211"/>
+      <c r="D284" s="213"/>
       <c r="E284" s="133" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F284" s="64"/>
       <c r="G284" s="4"/>
@@ -9956,12 +9934,12 @@
       <c r="T284" s="4"/>
     </row>
     <row r="285" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="187"/>
-      <c r="B285" s="190"/>
-      <c r="C285" s="193"/>
-      <c r="D285" s="207"/>
+      <c r="A285" s="208"/>
+      <c r="B285" s="216"/>
+      <c r="C285" s="211"/>
+      <c r="D285" s="213"/>
       <c r="E285" s="133" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F285" s="64"/>
       <c r="G285" s="4"/>
@@ -9980,10 +9958,10 @@
       <c r="T285" s="4"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="187"/>
-      <c r="B286" s="190"/>
-      <c r="C286" s="193"/>
-      <c r="D286" s="207"/>
+      <c r="A286" s="208"/>
+      <c r="B286" s="216"/>
+      <c r="C286" s="211"/>
+      <c r="D286" s="213"/>
       <c r="E286" s="133"/>
       <c r="F286" s="123"/>
       <c r="G286" s="4"/>
@@ -10002,10 +9980,10 @@
       <c r="T286" s="4"/>
     </row>
     <row r="287" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="188"/>
-      <c r="B287" s="191"/>
-      <c r="C287" s="194"/>
-      <c r="D287" s="208"/>
+      <c r="A287" s="222"/>
+      <c r="B287" s="224"/>
+      <c r="C287" s="218"/>
+      <c r="D287" s="220"/>
       <c r="E287" s="136"/>
       <c r="F287" s="48"/>
       <c r="G287" s="4"/>
@@ -10024,16 +10002,16 @@
       <c r="T287" s="4"/>
     </row>
     <row r="288" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="186" t="s">
+      <c r="A288" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="B288" s="189" t="s">
-        <v>182</v>
-      </c>
-      <c r="C288" s="192" t="s">
-        <v>183</v>
-      </c>
-      <c r="D288" s="233" t="s">
+      <c r="B288" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="C288" s="217" t="s">
+        <v>177</v>
+      </c>
+      <c r="D288" s="219" t="s">
         <v>102</v>
       </c>
       <c r="E288" s="20"/>
@@ -10054,12 +10032,12 @@
       <c r="T288" s="4"/>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A289" s="187"/>
-      <c r="B289" s="190"/>
-      <c r="C289" s="193"/>
-      <c r="D289" s="207"/>
+      <c r="A289" s="208"/>
+      <c r="B289" s="216"/>
+      <c r="C289" s="211"/>
+      <c r="D289" s="213"/>
       <c r="E289" s="133" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F289" s="123"/>
       <c r="G289" s="4"/>
@@ -10078,12 +10056,12 @@
       <c r="T289" s="4"/>
     </row>
     <row r="290" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="187"/>
-      <c r="B290" s="190"/>
-      <c r="C290" s="193"/>
-      <c r="D290" s="207"/>
+      <c r="A290" s="208"/>
+      <c r="B290" s="216"/>
+      <c r="C290" s="211"/>
+      <c r="D290" s="213"/>
       <c r="E290" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F290" s="123"/>
       <c r="G290" s="4"/>
@@ -10102,12 +10080,12 @@
       <c r="T290" s="4"/>
     </row>
     <row r="291" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="187"/>
-      <c r="B291" s="190"/>
-      <c r="C291" s="193"/>
-      <c r="D291" s="207"/>
+      <c r="A291" s="208"/>
+      <c r="B291" s="216"/>
+      <c r="C291" s="211"/>
+      <c r="D291" s="213"/>
       <c r="E291" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F291" s="123"/>
       <c r="G291" s="4"/>
@@ -10126,12 +10104,12 @@
       <c r="T291" s="4"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="187"/>
-      <c r="B292" s="190"/>
-      <c r="C292" s="193"/>
-      <c r="D292" s="207"/>
+      <c r="A292" s="208"/>
+      <c r="B292" s="216"/>
+      <c r="C292" s="211"/>
+      <c r="D292" s="213"/>
       <c r="E292" s="34" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F292" s="47"/>
       <c r="G292" s="4"/>
@@ -10150,12 +10128,12 @@
       <c r="T292" s="4"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A293" s="187"/>
-      <c r="B293" s="190"/>
-      <c r="C293" s="193"/>
-      <c r="D293" s="207"/>
+      <c r="A293" s="208"/>
+      <c r="B293" s="216"/>
+      <c r="C293" s="211"/>
+      <c r="D293" s="213"/>
       <c r="E293" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F293" s="47"/>
       <c r="G293" s="4"/>
@@ -10174,12 +10152,12 @@
       <c r="T293" s="4"/>
     </row>
     <row r="294" spans="1:20" s="98" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A294" s="187"/>
-      <c r="B294" s="190"/>
-      <c r="C294" s="193"/>
-      <c r="D294" s="207"/>
+      <c r="A294" s="208"/>
+      <c r="B294" s="216"/>
+      <c r="C294" s="211"/>
+      <c r="D294" s="213"/>
       <c r="E294" s="113" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F294" s="47"/>
       <c r="G294" s="4"/>
@@ -10198,12 +10176,12 @@
       <c r="T294" s="4"/>
     </row>
     <row r="295" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="187"/>
-      <c r="B295" s="190"/>
-      <c r="C295" s="193"/>
-      <c r="D295" s="207"/>
+      <c r="A295" s="208"/>
+      <c r="B295" s="216"/>
+      <c r="C295" s="211"/>
+      <c r="D295" s="213"/>
       <c r="E295" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F295" s="47"/>
       <c r="G295" s="4"/>
@@ -10222,12 +10200,12 @@
       <c r="T295" s="4"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A296" s="187"/>
-      <c r="B296" s="190"/>
-      <c r="C296" s="193"/>
-      <c r="D296" s="207"/>
+      <c r="A296" s="208"/>
+      <c r="B296" s="216"/>
+      <c r="C296" s="211"/>
+      <c r="D296" s="213"/>
       <c r="E296" s="132" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F296" s="47"/>
       <c r="G296" s="4"/>
@@ -10246,12 +10224,12 @@
       <c r="T296" s="4"/>
     </row>
     <row r="297" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="187"/>
-      <c r="B297" s="190"/>
-      <c r="C297" s="193"/>
-      <c r="D297" s="207"/>
+      <c r="A297" s="208"/>
+      <c r="B297" s="216"/>
+      <c r="C297" s="211"/>
+      <c r="D297" s="213"/>
       <c r="E297" s="133" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F297" s="137"/>
       <c r="G297" s="4"/>
@@ -10270,12 +10248,12 @@
       <c r="T297" s="4"/>
     </row>
     <row r="298" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="188"/>
-      <c r="B298" s="191"/>
-      <c r="C298" s="194"/>
-      <c r="D298" s="208"/>
+      <c r="A298" s="222"/>
+      <c r="B298" s="224"/>
+      <c r="C298" s="218"/>
+      <c r="D298" s="220"/>
       <c r="E298" s="138" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F298" s="48"/>
       <c r="G298" s="4"/>
@@ -10294,16 +10272,16 @@
       <c r="T298" s="4"/>
     </row>
     <row r="299" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="232" t="s">
+      <c r="A299" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="B299" s="227" t="s">
-        <v>193</v>
-      </c>
-      <c r="C299" s="231" t="s">
-        <v>194</v>
-      </c>
-      <c r="D299" s="234" t="s">
+      <c r="B299" s="182" t="s">
+        <v>187</v>
+      </c>
+      <c r="C299" s="186" t="s">
+        <v>188</v>
+      </c>
+      <c r="D299" s="187" t="s">
         <v>102</v>
       </c>
       <c r="E299" s="34"/>
@@ -10324,12 +10302,12 @@
       <c r="T299" s="4"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A300" s="224"/>
-      <c r="B300" s="228"/>
-      <c r="C300" s="228"/>
-      <c r="D300" s="235"/>
+      <c r="A300" s="174"/>
+      <c r="B300" s="183"/>
+      <c r="C300" s="183"/>
+      <c r="D300" s="188"/>
       <c r="E300" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F300" s="123"/>
       <c r="G300" s="4"/>
@@ -10348,12 +10326,12 @@
       <c r="T300" s="4"/>
     </row>
     <row r="301" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="225"/>
-      <c r="B301" s="229"/>
-      <c r="C301" s="229"/>
-      <c r="D301" s="235"/>
+      <c r="A301" s="180"/>
+      <c r="B301" s="184"/>
+      <c r="C301" s="184"/>
+      <c r="D301" s="188"/>
       <c r="E301" s="34" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F301" s="123"/>
       <c r="G301" s="4"/>
@@ -10372,12 +10350,12 @@
       <c r="T301" s="4"/>
     </row>
     <row r="302" spans="1:20" s="98" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A302" s="225"/>
-      <c r="B302" s="229"/>
-      <c r="C302" s="229"/>
-      <c r="D302" s="235"/>
+      <c r="A302" s="180"/>
+      <c r="B302" s="184"/>
+      <c r="C302" s="184"/>
+      <c r="D302" s="188"/>
       <c r="E302" s="34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F302" s="123"/>
       <c r="G302" s="4"/>
@@ -10396,10 +10374,10 @@
       <c r="T302" s="4"/>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A303" s="224"/>
-      <c r="B303" s="228"/>
-      <c r="C303" s="228"/>
-      <c r="D303" s="228"/>
+      <c r="A303" s="174"/>
+      <c r="B303" s="183"/>
+      <c r="C303" s="183"/>
+      <c r="D303" s="183"/>
       <c r="E303" s="34"/>
       <c r="F303" s="47"/>
       <c r="G303" s="4"/>
@@ -10418,10 +10396,10 @@
       <c r="T303" s="4"/>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A304" s="224"/>
-      <c r="B304" s="228"/>
-      <c r="C304" s="228"/>
-      <c r="D304" s="228"/>
+      <c r="A304" s="174"/>
+      <c r="B304" s="183"/>
+      <c r="C304" s="183"/>
+      <c r="D304" s="183"/>
       <c r="E304" s="132"/>
       <c r="F304" s="47"/>
       <c r="G304" s="4"/>
@@ -10440,10 +10418,10 @@
       <c r="T304" s="4"/>
     </row>
     <row r="305" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="226"/>
-      <c r="B305" s="230"/>
-      <c r="C305" s="230"/>
-      <c r="D305" s="246"/>
+      <c r="A305" s="175"/>
+      <c r="B305" s="185"/>
+      <c r="C305" s="185"/>
+      <c r="D305" s="189"/>
       <c r="E305" s="140"/>
       <c r="F305" s="139"/>
       <c r="G305" s="4"/>
@@ -10462,16 +10440,16 @@
       <c r="T305" s="4"/>
     </row>
     <row r="306" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="232" t="s">
+      <c r="A306" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="B306" s="227" t="s">
-        <v>198</v>
-      </c>
-      <c r="C306" s="231" t="s">
-        <v>200</v>
-      </c>
-      <c r="D306" s="237" t="s">
+      <c r="B306" s="182" t="s">
+        <v>192</v>
+      </c>
+      <c r="C306" s="186" t="s">
+        <v>194</v>
+      </c>
+      <c r="D306" s="191" t="s">
         <v>102</v>
       </c>
       <c r="E306" s="20"/>
@@ -10492,12 +10470,12 @@
       <c r="T306" s="4"/>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A307" s="224"/>
-      <c r="B307" s="228"/>
-      <c r="C307" s="228"/>
-      <c r="D307" s="237"/>
+      <c r="A307" s="174"/>
+      <c r="B307" s="183"/>
+      <c r="C307" s="183"/>
+      <c r="D307" s="191"/>
       <c r="E307" s="133" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F307" s="123"/>
       <c r="G307" s="4"/>
@@ -10516,12 +10494,12 @@
       <c r="T307" s="4"/>
     </row>
     <row r="308" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="225"/>
-      <c r="B308" s="229"/>
-      <c r="C308" s="229"/>
+      <c r="A308" s="180"/>
+      <c r="B308" s="184"/>
+      <c r="C308" s="184"/>
       <c r="D308" s="163"/>
       <c r="E308" s="34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F308" s="123"/>
       <c r="G308" s="4"/>
@@ -10540,12 +10518,12 @@
       <c r="T308" s="4"/>
     </row>
     <row r="309" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="225"/>
-      <c r="B309" s="229"/>
-      <c r="C309" s="229"/>
+      <c r="A309" s="180"/>
+      <c r="B309" s="184"/>
+      <c r="C309" s="184"/>
       <c r="D309" s="163"/>
       <c r="E309" s="13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F309" s="123"/>
       <c r="G309" s="4"/>
@@ -10564,14 +10542,14 @@
       <c r="T309" s="4"/>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A310" s="224"/>
-      <c r="B310" s="228"/>
-      <c r="C310" s="228"/>
+      <c r="A310" s="174"/>
+      <c r="B310" s="183"/>
+      <c r="C310" s="183"/>
       <c r="D310" s="126" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E310" s="167" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F310" s="47"/>
       <c r="G310" s="4"/>
@@ -10590,12 +10568,12 @@
       <c r="T310" s="4"/>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A311" s="224"/>
-      <c r="B311" s="228"/>
-      <c r="C311" s="228"/>
+      <c r="A311" s="174"/>
+      <c r="B311" s="183"/>
+      <c r="C311" s="183"/>
       <c r="D311" s="126"/>
       <c r="E311" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F311" s="47"/>
       <c r="G311" s="4"/>
@@ -10614,12 +10592,12 @@
       <c r="T311" s="4"/>
     </row>
     <row r="312" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="225"/>
-      <c r="B312" s="229"/>
-      <c r="C312" s="229"/>
+      <c r="A312" s="180"/>
+      <c r="B312" s="184"/>
+      <c r="C312" s="184"/>
       <c r="D312" s="163"/>
       <c r="E312" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F312" s="47"/>
       <c r="G312" s="4"/>
@@ -10638,12 +10616,12 @@
       <c r="T312" s="4"/>
     </row>
     <row r="313" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="224"/>
-      <c r="B313" s="228"/>
-      <c r="C313" s="228"/>
-      <c r="D313" s="237"/>
+      <c r="A313" s="174"/>
+      <c r="B313" s="183"/>
+      <c r="C313" s="183"/>
+      <c r="D313" s="191"/>
       <c r="E313" s="135" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F313" s="47"/>
       <c r="G313" s="4"/>
@@ -10662,10 +10640,10 @@
       <c r="T313" s="4"/>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A314" s="224"/>
-      <c r="B314" s="228"/>
-      <c r="C314" s="228"/>
-      <c r="D314" s="237"/>
+      <c r="A314" s="174"/>
+      <c r="B314" s="183"/>
+      <c r="C314" s="183"/>
+      <c r="D314" s="191"/>
       <c r="F314" s="47"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10683,9 +10661,9 @@
       <c r="T314" s="4"/>
     </row>
     <row r="315" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="226"/>
-      <c r="B315" s="230"/>
-      <c r="C315" s="230"/>
+      <c r="A315" s="175"/>
+      <c r="B315" s="185"/>
+      <c r="C315" s="185"/>
       <c r="D315" s="108"/>
       <c r="E315" s="135"/>
       <c r="F315" s="48"/>
@@ -10705,16 +10683,16 @@
       <c r="T315" s="4"/>
     </row>
     <row r="316" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="223" t="s">
+      <c r="A316" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="B316" s="227" t="s">
-        <v>299</v>
-      </c>
-      <c r="C316" s="231" t="s">
-        <v>201</v>
-      </c>
-      <c r="D316" s="236" t="s">
+      <c r="B316" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="C316" s="186" t="s">
+        <v>195</v>
+      </c>
+      <c r="D316" s="207" t="s">
         <v>102</v>
       </c>
       <c r="E316" s="133"/>
@@ -10735,12 +10713,12 @@
       <c r="T316" s="4"/>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A317" s="224"/>
-      <c r="B317" s="228"/>
-      <c r="C317" s="228"/>
-      <c r="D317" s="237"/>
+      <c r="A317" s="174"/>
+      <c r="B317" s="183"/>
+      <c r="C317" s="183"/>
+      <c r="D317" s="191"/>
       <c r="E317" s="34" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F317" s="123"/>
       <c r="G317" s="4"/>
@@ -10759,14 +10737,14 @@
       <c r="T317" s="4"/>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A318" s="224"/>
-      <c r="B318" s="228"/>
-      <c r="C318" s="228"/>
+      <c r="A318" s="174"/>
+      <c r="B318" s="183"/>
+      <c r="C318" s="183"/>
       <c r="D318" s="126" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E318" s="133" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F318" s="47"/>
       <c r="G318" s="4"/>
@@ -10785,12 +10763,12 @@
       <c r="T318" s="4"/>
     </row>
     <row r="319" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="225"/>
-      <c r="B319" s="229"/>
-      <c r="C319" s="229"/>
+      <c r="A319" s="180"/>
+      <c r="B319" s="184"/>
+      <c r="C319" s="184"/>
       <c r="D319" s="163"/>
       <c r="E319" s="34" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F319" s="47"/>
       <c r="G319" s="4"/>
@@ -10809,9 +10787,9 @@
       <c r="T319" s="4"/>
     </row>
     <row r="320" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="225"/>
-      <c r="B320" s="229"/>
-      <c r="C320" s="229"/>
+      <c r="A320" s="180"/>
+      <c r="B320" s="184"/>
+      <c r="C320" s="184"/>
       <c r="D320" s="163"/>
       <c r="F320" s="47"/>
       <c r="G320" s="4"/>
@@ -10830,11 +10808,11 @@
       <c r="T320" s="4"/>
     </row>
     <row r="321" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A321" s="224"/>
-      <c r="B321" s="228"/>
-      <c r="C321" s="228"/>
+      <c r="A321" s="174"/>
+      <c r="B321" s="183"/>
+      <c r="C321" s="183"/>
       <c r="D321" s="126" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E321" s="13"/>
       <c r="F321" s="47"/>
@@ -10854,9 +10832,9 @@
       <c r="T321" s="4"/>
     </row>
     <row r="322" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="226"/>
-      <c r="B322" s="230"/>
-      <c r="C322" s="230"/>
+      <c r="A322" s="175"/>
+      <c r="B322" s="185"/>
+      <c r="C322" s="185"/>
       <c r="D322" s="108"/>
       <c r="E322" s="135"/>
       <c r="F322" s="48"/>
@@ -10876,18 +10854,18 @@
       <c r="T322" s="4"/>
     </row>
     <row r="323" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="232" t="s">
+      <c r="A323" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="B323" s="227" t="s">
-        <v>314</v>
-      </c>
-      <c r="C323" s="231" t="s">
-        <v>315</v>
+      <c r="B323" s="182" t="s">
+        <v>308</v>
+      </c>
+      <c r="C323" s="186" t="s">
+        <v>309</v>
       </c>
       <c r="D323" s="163"/>
       <c r="E323" s="133" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F323" s="50"/>
       <c r="G323" s="4"/>
@@ -10906,14 +10884,14 @@
       <c r="T323" s="4"/>
     </row>
     <row r="324" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="224"/>
-      <c r="B324" s="228"/>
-      <c r="C324" s="228"/>
+      <c r="A324" s="174"/>
+      <c r="B324" s="183"/>
+      <c r="C324" s="183"/>
       <c r="D324" s="108" t="s">
         <v>102</v>
       </c>
       <c r="E324" s="34" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F324" s="123"/>
       <c r="G324" s="4"/>
@@ -10932,14 +10910,14 @@
       <c r="T324" s="4"/>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A325" s="224"/>
-      <c r="B325" s="228"/>
-      <c r="C325" s="228"/>
+      <c r="A325" s="174"/>
+      <c r="B325" s="183"/>
+      <c r="C325" s="183"/>
       <c r="D325" s="163" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F325" s="47"/>
       <c r="G325" s="4"/>
@@ -10958,9 +10936,9 @@
       <c r="T325" s="4"/>
     </row>
     <row r="326" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="224"/>
-      <c r="B326" s="228"/>
-      <c r="C326" s="228"/>
+      <c r="A326" s="174"/>
+      <c r="B326" s="183"/>
+      <c r="C326" s="183"/>
       <c r="D326" s="108"/>
       <c r="E326" s="13" t="s">
         <v>130</v>
@@ -10982,12 +10960,12 @@
       <c r="T326" s="4"/>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A327" s="224"/>
-      <c r="B327" s="228"/>
-      <c r="C327" s="228"/>
+      <c r="A327" s="174"/>
+      <c r="B327" s="183"/>
+      <c r="C327" s="183"/>
       <c r="D327" s="163"/>
       <c r="E327" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F327" s="47"/>
       <c r="G327" s="4"/>
@@ -11006,12 +10984,12 @@
       <c r="T327" s="4"/>
     </row>
     <row r="328" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="224"/>
-      <c r="B328" s="228"/>
-      <c r="C328" s="228"/>
+      <c r="A328" s="174"/>
+      <c r="B328" s="183"/>
+      <c r="C328" s="183"/>
       <c r="D328" s="108"/>
       <c r="E328" s="135" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F328" s="47"/>
       <c r="G328" s="4"/>
@@ -11030,9 +11008,9 @@
       <c r="T328" s="4"/>
     </row>
     <row r="329" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="226"/>
-      <c r="B329" s="230"/>
-      <c r="C329" s="230"/>
+      <c r="A329" s="175"/>
+      <c r="B329" s="185"/>
+      <c r="C329" s="185"/>
       <c r="D329" s="163"/>
       <c r="E329" s="20"/>
       <c r="F329" s="48"/>
@@ -11052,16 +11030,16 @@
       <c r="T329" s="4"/>
     </row>
     <row r="330" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="232" t="s">
+      <c r="A330" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="B330" s="227" t="s">
-        <v>205</v>
-      </c>
-      <c r="C330" s="231" t="s">
-        <v>206</v>
-      </c>
-      <c r="D330" s="234"/>
+      <c r="B330" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="C330" s="186" t="s">
+        <v>200</v>
+      </c>
+      <c r="D330" s="187"/>
       <c r="E330" s="20"/>
       <c r="F330" s="50"/>
       <c r="G330" s="4"/>
@@ -11080,12 +11058,12 @@
       <c r="T330" s="4"/>
     </row>
     <row r="331" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="187"/>
-      <c r="B331" s="190"/>
-      <c r="C331" s="193"/>
-      <c r="D331" s="207"/>
+      <c r="A331" s="208"/>
+      <c r="B331" s="216"/>
+      <c r="C331" s="211"/>
+      <c r="D331" s="213"/>
       <c r="E331" s="133" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F331" s="64"/>
       <c r="G331" s="4"/>
@@ -11104,12 +11082,12 @@
       <c r="T331" s="4"/>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A332" s="224"/>
-      <c r="B332" s="228"/>
-      <c r="C332" s="228"/>
-      <c r="D332" s="235"/>
+      <c r="A332" s="174"/>
+      <c r="B332" s="183"/>
+      <c r="C332" s="183"/>
+      <c r="D332" s="188"/>
       <c r="E332" s="34" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F332" s="123"/>
       <c r="G332" s="4"/>
@@ -11128,10 +11106,10 @@
       <c r="T332" s="4"/>
     </row>
     <row r="333" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="226"/>
-      <c r="B333" s="230"/>
-      <c r="C333" s="230"/>
-      <c r="D333" s="230"/>
+      <c r="A333" s="175"/>
+      <c r="B333" s="185"/>
+      <c r="C333" s="185"/>
+      <c r="D333" s="185"/>
       <c r="E333" s="136"/>
       <c r="F333" s="48"/>
       <c r="G333" s="4"/>
@@ -11150,16 +11128,16 @@
       <c r="T333" s="4"/>
     </row>
     <row r="334" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="232" t="s">
+      <c r="A334" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="B334" s="227" t="s">
-        <v>208</v>
-      </c>
-      <c r="C334" s="231" t="s">
-        <v>209</v>
-      </c>
-      <c r="D334" s="234" t="s">
+      <c r="B334" s="182" t="s">
+        <v>202</v>
+      </c>
+      <c r="C334" s="186" t="s">
+        <v>203</v>
+      </c>
+      <c r="D334" s="187" t="s">
         <v>102</v>
       </c>
       <c r="E334" s="20"/>
@@ -11180,12 +11158,12 @@
       <c r="T334" s="4"/>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A335" s="224"/>
-      <c r="B335" s="228"/>
-      <c r="C335" s="228"/>
-      <c r="D335" s="235"/>
+      <c r="A335" s="174"/>
+      <c r="B335" s="183"/>
+      <c r="C335" s="183"/>
+      <c r="D335" s="188"/>
       <c r="E335" s="133" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F335" s="123"/>
       <c r="G335" s="4"/>
@@ -11204,12 +11182,12 @@
       <c r="T335" s="4"/>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A336" s="224"/>
-      <c r="B336" s="228"/>
-      <c r="C336" s="228"/>
-      <c r="D336" s="228"/>
+      <c r="A336" s="174"/>
+      <c r="B336" s="183"/>
+      <c r="C336" s="183"/>
+      <c r="D336" s="183"/>
       <c r="E336" s="34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F336" s="47"/>
       <c r="G336" s="4"/>
@@ -11228,10 +11206,10 @@
       <c r="T336" s="4"/>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A337" s="224"/>
-      <c r="B337" s="228"/>
-      <c r="C337" s="228"/>
-      <c r="D337" s="228"/>
+      <c r="A337" s="174"/>
+      <c r="B337" s="183"/>
+      <c r="C337" s="183"/>
+      <c r="D337" s="183"/>
       <c r="E337" s="13"/>
       <c r="F337" s="47"/>
       <c r="G337" s="4"/>
@@ -11250,10 +11228,10 @@
       <c r="T337" s="4"/>
     </row>
     <row r="338" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="226"/>
-      <c r="B338" s="230"/>
-      <c r="C338" s="230"/>
-      <c r="D338" s="230"/>
+      <c r="A338" s="175"/>
+      <c r="B338" s="185"/>
+      <c r="C338" s="185"/>
+      <c r="D338" s="185"/>
       <c r="E338" s="135"/>
       <c r="F338" s="47"/>
       <c r="G338" s="4"/>
@@ -11272,16 +11250,16 @@
       <c r="T338" s="4"/>
     </row>
     <row r="339" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="232" t="s">
+      <c r="A339" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="B339" s="238" t="s">
-        <v>212</v>
-      </c>
-      <c r="C339" s="241" t="s">
-        <v>213</v>
-      </c>
-      <c r="D339" s="242" t="s">
+      <c r="B339" s="176" t="s">
+        <v>206</v>
+      </c>
+      <c r="C339" s="179" t="s">
+        <v>207</v>
+      </c>
+      <c r="D339" s="214" t="s">
         <v>102</v>
       </c>
       <c r="E339" s="20"/>
@@ -11302,12 +11280,12 @@
       <c r="T339" s="4"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A340" s="224"/>
-      <c r="B340" s="239"/>
-      <c r="C340" s="239"/>
-      <c r="D340" s="243"/>
+      <c r="A340" s="174"/>
+      <c r="B340" s="177"/>
+      <c r="C340" s="177"/>
+      <c r="D340" s="215"/>
       <c r="E340" s="133" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F340" s="53"/>
       <c r="G340" s="4"/>
@@ -11326,12 +11304,12 @@
       <c r="T340" s="4"/>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A341" s="224"/>
-      <c r="B341" s="239"/>
-      <c r="C341" s="239"/>
-      <c r="D341" s="239"/>
+      <c r="A341" s="174"/>
+      <c r="B341" s="177"/>
+      <c r="C341" s="177"/>
+      <c r="D341" s="177"/>
       <c r="E341" s="141" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F341" s="54"/>
       <c r="G341" s="4"/>
@@ -11350,12 +11328,12 @@
       <c r="T341" s="4"/>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A342" s="224"/>
-      <c r="B342" s="239"/>
-      <c r="C342" s="239"/>
-      <c r="D342" s="239"/>
+      <c r="A342" s="174"/>
+      <c r="B342" s="177"/>
+      <c r="C342" s="177"/>
+      <c r="D342" s="177"/>
       <c r="E342" s="142" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F342" s="53"/>
       <c r="G342" s="4"/>
@@ -11374,10 +11352,10 @@
       <c r="T342" s="4"/>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A343" s="224"/>
-      <c r="B343" s="239"/>
-      <c r="C343" s="239"/>
-      <c r="D343" s="239"/>
+      <c r="A343" s="174"/>
+      <c r="B343" s="177"/>
+      <c r="C343" s="177"/>
+      <c r="D343" s="177"/>
       <c r="E343" s="34"/>
       <c r="F343" s="54"/>
       <c r="G343" s="4"/>
@@ -11396,10 +11374,10 @@
       <c r="T343" s="4"/>
     </row>
     <row r="344" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="226"/>
-      <c r="B344" s="240"/>
-      <c r="C344" s="240"/>
-      <c r="D344" s="240"/>
+      <c r="A344" s="175"/>
+      <c r="B344" s="178"/>
+      <c r="C344" s="178"/>
+      <c r="D344" s="178"/>
       <c r="E344" s="135"/>
       <c r="F344" s="55"/>
       <c r="G344" s="4"/>
@@ -11418,14 +11396,14 @@
       <c r="T344" s="4"/>
     </row>
     <row r="345" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="223" t="s">
+      <c r="A345" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="B345" s="238" t="s">
-        <v>215</v>
-      </c>
-      <c r="C345" s="241" t="s">
-        <v>216</v>
+      <c r="B345" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="C345" s="179" t="s">
+        <v>210</v>
       </c>
       <c r="D345" s="82" t="s">
         <v>102</v>
@@ -11448,14 +11426,14 @@
       <c r="T345" s="4"/>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A346" s="224"/>
-      <c r="B346" s="239"/>
-      <c r="C346" s="239"/>
+      <c r="A346" s="174"/>
+      <c r="B346" s="177"/>
+      <c r="C346" s="177"/>
       <c r="D346" s="143" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E346" s="144" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F346" s="30"/>
       <c r="G346" s="4"/>
@@ -11474,12 +11452,12 @@
       <c r="T346" s="4"/>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A347" s="224"/>
-      <c r="B347" s="239"/>
-      <c r="C347" s="239"/>
+      <c r="A347" s="174"/>
+      <c r="B347" s="177"/>
+      <c r="C347" s="177"/>
       <c r="D347" s="80"/>
       <c r="E347" s="145" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F347" s="59"/>
       <c r="G347" s="4"/>
@@ -11498,12 +11476,12 @@
       <c r="T347" s="4"/>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A348" s="224"/>
-      <c r="B348" s="239"/>
-      <c r="C348" s="239"/>
+      <c r="A348" s="174"/>
+      <c r="B348" s="177"/>
+      <c r="C348" s="177"/>
       <c r="D348" s="82"/>
       <c r="E348" s="111" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F348" s="31"/>
       <c r="G348" s="4"/>
@@ -11522,12 +11500,12 @@
       <c r="T348" s="4"/>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A349" s="224"/>
-      <c r="B349" s="239"/>
-      <c r="C349" s="239"/>
+      <c r="A349" s="174"/>
+      <c r="B349" s="177"/>
+      <c r="C349" s="177"/>
       <c r="D349" s="81"/>
       <c r="E349" s="58" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F349" s="61"/>
       <c r="G349" s="4"/>
@@ -11546,9 +11524,9 @@
       <c r="T349" s="4"/>
     </row>
     <row r="350" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="226"/>
-      <c r="B350" s="240"/>
-      <c r="C350" s="240"/>
+      <c r="A350" s="175"/>
+      <c r="B350" s="178"/>
+      <c r="C350" s="178"/>
       <c r="D350" s="100"/>
       <c r="E350" s="160"/>
       <c r="F350" s="151"/>
@@ -11568,17 +11546,17 @@
       <c r="T350" s="4"/>
     </row>
     <row r="351" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="223" t="s">
+      <c r="A351" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="B351" s="238" t="s">
-        <v>219</v>
-      </c>
-      <c r="C351" s="241" t="s">
-        <v>218</v>
-      </c>
-      <c r="D351" s="242" t="s">
-        <v>220</v>
+      <c r="B351" s="176" t="s">
+        <v>213</v>
+      </c>
+      <c r="C351" s="179" t="s">
+        <v>212</v>
+      </c>
+      <c r="D351" s="214" t="s">
+        <v>214</v>
       </c>
       <c r="E351" s="146"/>
       <c r="F351" s="57"/>
@@ -11598,10 +11576,10 @@
       <c r="T351" s="4"/>
     </row>
     <row r="352" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="224"/>
-      <c r="B352" s="239"/>
-      <c r="C352" s="239"/>
-      <c r="D352" s="243"/>
+      <c r="A352" s="174"/>
+      <c r="B352" s="177"/>
+      <c r="C352" s="177"/>
+      <c r="D352" s="215"/>
       <c r="E352" s="133"/>
       <c r="F352" s="161"/>
       <c r="G352" s="4"/>
@@ -11620,10 +11598,10 @@
       <c r="T352" s="4"/>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A353" s="224"/>
-      <c r="B353" s="239"/>
-      <c r="C353" s="239"/>
-      <c r="D353" s="239"/>
+      <c r="A353" s="174"/>
+      <c r="B353" s="177"/>
+      <c r="C353" s="177"/>
+      <c r="D353" s="177"/>
       <c r="E353" s="56"/>
       <c r="F353" s="57"/>
       <c r="G353" s="4"/>
@@ -11642,12 +11620,12 @@
       <c r="T353" s="4"/>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A354" s="224"/>
-      <c r="B354" s="239"/>
-      <c r="C354" s="239"/>
-      <c r="D354" s="239"/>
+      <c r="A354" s="174"/>
+      <c r="B354" s="177"/>
+      <c r="C354" s="177"/>
+      <c r="D354" s="177"/>
       <c r="E354" s="111" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F354" s="31"/>
       <c r="G354" s="4"/>
@@ -11666,12 +11644,12 @@
       <c r="T354" s="4"/>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A355" s="224"/>
-      <c r="B355" s="239"/>
-      <c r="C355" s="239"/>
-      <c r="D355" s="239"/>
+      <c r="A355" s="174"/>
+      <c r="B355" s="177"/>
+      <c r="C355" s="177"/>
+      <c r="D355" s="177"/>
       <c r="E355" s="58" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F355" s="61"/>
       <c r="G355" s="4"/>
@@ -11690,12 +11668,12 @@
       <c r="T355" s="4"/>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A356" s="224"/>
-      <c r="B356" s="239"/>
-      <c r="C356" s="239"/>
-      <c r="D356" s="239"/>
+      <c r="A356" s="174"/>
+      <c r="B356" s="177"/>
+      <c r="C356" s="177"/>
+      <c r="D356" s="177"/>
       <c r="E356" s="58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F356" s="59"/>
       <c r="G356" s="4"/>
@@ -11714,10 +11692,10 @@
       <c r="T356" s="4"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A357" s="224"/>
-      <c r="B357" s="239"/>
-      <c r="C357" s="239"/>
-      <c r="D357" s="239"/>
+      <c r="A357" s="174"/>
+      <c r="B357" s="177"/>
+      <c r="C357" s="177"/>
+      <c r="D357" s="177"/>
       <c r="E357" s="60"/>
       <c r="F357" s="31"/>
       <c r="G357" s="4"/>
@@ -11736,10 +11714,10 @@
       <c r="T357" s="4"/>
     </row>
     <row r="358" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="226"/>
-      <c r="B358" s="240"/>
-      <c r="C358" s="240"/>
-      <c r="D358" s="240"/>
+      <c r="A358" s="175"/>
+      <c r="B358" s="178"/>
+      <c r="C358" s="178"/>
+      <c r="D358" s="178"/>
       <c r="E358" s="147"/>
       <c r="F358" s="55"/>
       <c r="G358" s="4"/>
@@ -11758,17 +11736,17 @@
       <c r="T358" s="4"/>
     </row>
     <row r="359" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="223" t="s">
+      <c r="A359" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="B359" s="238" t="s">
-        <v>223</v>
-      </c>
-      <c r="C359" s="199" t="s">
-        <v>224</v>
-      </c>
-      <c r="D359" s="183" t="s">
-        <v>220</v>
+      <c r="B359" s="176" t="s">
+        <v>217</v>
+      </c>
+      <c r="C359" s="210" t="s">
+        <v>218</v>
+      </c>
+      <c r="D359" s="212" t="s">
+        <v>214</v>
       </c>
       <c r="E359" s="146"/>
       <c r="F359" s="59"/>
@@ -11788,12 +11766,12 @@
       <c r="T359" s="4"/>
     </row>
     <row r="360" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="187"/>
-      <c r="B360" s="244"/>
-      <c r="C360" s="193"/>
-      <c r="D360" s="207"/>
+      <c r="A360" s="208"/>
+      <c r="B360" s="209"/>
+      <c r="C360" s="211"/>
+      <c r="D360" s="213"/>
       <c r="E360" s="111" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F360" s="153"/>
       <c r="G360" s="4"/>
@@ -11812,12 +11790,12 @@
       <c r="T360" s="4"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A361" s="224"/>
-      <c r="B361" s="239"/>
-      <c r="C361" s="228"/>
-      <c r="D361" s="235"/>
+      <c r="A361" s="174"/>
+      <c r="B361" s="177"/>
+      <c r="C361" s="183"/>
+      <c r="D361" s="188"/>
       <c r="E361" s="60" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F361" s="30"/>
       <c r="G361" s="4"/>
@@ -11836,12 +11814,12 @@
       <c r="T361" s="4"/>
     </row>
     <row r="362" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="225"/>
-      <c r="B362" s="245"/>
-      <c r="C362" s="229"/>
-      <c r="D362" s="235"/>
+      <c r="A362" s="180"/>
+      <c r="B362" s="181"/>
+      <c r="C362" s="184"/>
+      <c r="D362" s="188"/>
       <c r="E362" s="148" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F362" s="30"/>
       <c r="G362" s="4"/>
@@ -11860,10 +11838,10 @@
       <c r="T362" s="4"/>
     </row>
     <row r="363" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="226"/>
-      <c r="B363" s="240"/>
-      <c r="C363" s="230"/>
-      <c r="D363" s="230"/>
+      <c r="A363" s="175"/>
+      <c r="B363" s="178"/>
+      <c r="C363" s="185"/>
+      <c r="D363" s="185"/>
       <c r="E363" s="155"/>
       <c r="F363" s="62"/>
       <c r="G363" s="4"/>
@@ -11882,18 +11860,18 @@
       <c r="T363" s="4"/>
     </row>
     <row r="364" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="223" t="s">
+      <c r="A364" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="B364" s="227" t="s">
+      <c r="B364" s="182" t="s">
+        <v>219</v>
+      </c>
+      <c r="C364" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="C364" s="241" t="s">
-        <v>231</v>
-      </c>
-      <c r="D364" s="242"/>
+      <c r="D364" s="214"/>
       <c r="E364" s="154" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F364" s="57"/>
       <c r="G364" s="4"/>
@@ -11912,12 +11890,12 @@
       <c r="T364" s="4"/>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A365" s="224"/>
-      <c r="B365" s="228"/>
-      <c r="C365" s="239"/>
-      <c r="D365" s="243"/>
+      <c r="A365" s="174"/>
+      <c r="B365" s="183"/>
+      <c r="C365" s="177"/>
+      <c r="D365" s="215"/>
       <c r="E365" s="58" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F365" s="30"/>
       <c r="G365" s="4"/>
@@ -11936,12 +11914,12 @@
       <c r="T365" s="4"/>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A366" s="224"/>
-      <c r="B366" s="228"/>
-      <c r="C366" s="239"/>
-      <c r="D366" s="239"/>
+      <c r="A366" s="174"/>
+      <c r="B366" s="183"/>
+      <c r="C366" s="177"/>
+      <c r="D366" s="177"/>
       <c r="E366" s="58" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F366" s="59"/>
       <c r="G366" s="4"/>
@@ -11960,12 +11938,12 @@
       <c r="T366" s="4"/>
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A367" s="224"/>
-      <c r="B367" s="228"/>
-      <c r="C367" s="239"/>
-      <c r="D367" s="239"/>
+      <c r="A367" s="174"/>
+      <c r="B367" s="183"/>
+      <c r="C367" s="177"/>
+      <c r="D367" s="177"/>
       <c r="E367" s="58" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F367" s="31"/>
       <c r="G367" s="4"/>
@@ -11984,12 +11962,12 @@
       <c r="T367" s="4"/>
     </row>
     <row r="368" spans="1:20" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="226"/>
-      <c r="B368" s="230"/>
-      <c r="C368" s="240"/>
-      <c r="D368" s="240"/>
+      <c r="A368" s="175"/>
+      <c r="B368" s="185"/>
+      <c r="C368" s="178"/>
+      <c r="D368" s="178"/>
       <c r="E368" s="147" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F368" s="33"/>
       <c r="G368" s="4"/>
@@ -12008,16 +11986,16 @@
       <c r="T368" s="4"/>
     </row>
     <row r="369" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="223" t="s">
+      <c r="A369" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="B369" s="238" t="s">
-        <v>230</v>
-      </c>
-      <c r="C369" s="241" t="s">
-        <v>232</v>
-      </c>
-      <c r="D369" s="242"/>
+      <c r="B369" s="176" t="s">
+        <v>224</v>
+      </c>
+      <c r="C369" s="179" t="s">
+        <v>226</v>
+      </c>
+      <c r="D369" s="214"/>
       <c r="E369" s="29"/>
       <c r="F369" s="61"/>
       <c r="G369" s="4"/>
@@ -12036,12 +12014,12 @@
       <c r="T369" s="4"/>
     </row>
     <row r="370" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="224"/>
-      <c r="B370" s="239"/>
-      <c r="C370" s="239"/>
-      <c r="D370" s="239"/>
+      <c r="A370" s="174"/>
+      <c r="B370" s="177"/>
+      <c r="C370" s="177"/>
+      <c r="D370" s="177"/>
       <c r="E370" s="111" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F370" s="61"/>
       <c r="G370" s="4"/>
@@ -12060,12 +12038,12 @@
       <c r="T370" s="4"/>
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A371" s="224"/>
-      <c r="B371" s="239"/>
-      <c r="C371" s="239"/>
-      <c r="D371" s="239"/>
+      <c r="A371" s="174"/>
+      <c r="B371" s="177"/>
+      <c r="C371" s="177"/>
+      <c r="D371" s="177"/>
       <c r="E371" s="111" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F371" s="59"/>
       <c r="G371" s="4"/>
@@ -12084,12 +12062,12 @@
       <c r="T371" s="4"/>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A372" s="224"/>
-      <c r="B372" s="239"/>
-      <c r="C372" s="239"/>
-      <c r="D372" s="243"/>
+      <c r="A372" s="174"/>
+      <c r="B372" s="177"/>
+      <c r="C372" s="177"/>
+      <c r="D372" s="215"/>
       <c r="E372" s="148" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F372" s="30"/>
       <c r="G372" s="4"/>
@@ -12108,12 +12086,12 @@
       <c r="T372" s="4"/>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A373" s="224"/>
-      <c r="B373" s="239"/>
-      <c r="C373" s="239"/>
-      <c r="D373" s="239"/>
+      <c r="A373" s="174"/>
+      <c r="B373" s="177"/>
+      <c r="C373" s="177"/>
+      <c r="D373" s="177"/>
       <c r="E373" s="145" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F373" s="59"/>
       <c r="G373" s="4"/>
@@ -12132,12 +12110,12 @@
       <c r="T373" s="4"/>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A374" s="224"/>
-      <c r="B374" s="239"/>
-      <c r="C374" s="239"/>
-      <c r="D374" s="239"/>
+      <c r="A374" s="174"/>
+      <c r="B374" s="177"/>
+      <c r="C374" s="177"/>
+      <c r="D374" s="177"/>
       <c r="E374" s="111" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F374" s="31"/>
       <c r="G374" s="4"/>
@@ -12156,12 +12134,12 @@
       <c r="T374" s="4"/>
     </row>
     <row r="375" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="226"/>
-      <c r="B375" s="240"/>
-      <c r="C375" s="240"/>
-      <c r="D375" s="240"/>
+      <c r="A375" s="175"/>
+      <c r="B375" s="178"/>
+      <c r="C375" s="178"/>
+      <c r="D375" s="178"/>
       <c r="E375" s="147" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F375" s="152"/>
       <c r="G375" s="4"/>
@@ -12180,14 +12158,14 @@
       <c r="T375" s="4"/>
     </row>
     <row r="376" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="223" t="s">
-        <v>323</v>
-      </c>
-      <c r="B376" s="238" t="s">
-        <v>324</v>
-      </c>
-      <c r="C376" s="241" t="s">
-        <v>315</v>
+      <c r="A376" s="173" t="s">
+        <v>317</v>
+      </c>
+      <c r="B376" s="176" t="s">
+        <v>318</v>
+      </c>
+      <c r="C376" s="179" t="s">
+        <v>309</v>
       </c>
       <c r="D376" s="82"/>
       <c r="E376" s="29"/>
@@ -12208,14 +12186,14 @@
       <c r="T376" s="4"/>
     </row>
     <row r="377" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="224"/>
-      <c r="B377" s="239"/>
-      <c r="C377" s="239"/>
+      <c r="A377" s="174"/>
+      <c r="B377" s="177"/>
+      <c r="C377" s="177"/>
       <c r="D377" s="82" t="s">
         <v>102</v>
       </c>
       <c r="E377" s="111" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F377" s="61"/>
       <c r="G377" s="4"/>
@@ -12234,14 +12212,14 @@
       <c r="T377" s="4"/>
     </row>
     <row r="378" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="224"/>
-      <c r="B378" s="239"/>
-      <c r="C378" s="239"/>
+      <c r="A378" s="174"/>
+      <c r="B378" s="177"/>
+      <c r="C378" s="177"/>
       <c r="D378" s="143" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E378" s="111" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F378" s="59"/>
       <c r="G378" s="4"/>
@@ -12260,12 +12238,12 @@
       <c r="T378" s="4"/>
     </row>
     <row r="379" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="224"/>
-      <c r="B379" s="239"/>
-      <c r="C379" s="239"/>
+      <c r="A379" s="174"/>
+      <c r="B379" s="177"/>
+      <c r="C379" s="177"/>
       <c r="D379" s="82"/>
       <c r="E379" s="148" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F379" s="30"/>
       <c r="G379" s="4"/>
@@ -12284,12 +12262,12 @@
       <c r="T379" s="4"/>
     </row>
     <row r="380" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="224"/>
-      <c r="B380" s="239"/>
-      <c r="C380" s="239"/>
+      <c r="A380" s="174"/>
+      <c r="B380" s="177"/>
+      <c r="C380" s="177"/>
       <c r="D380" s="143"/>
       <c r="E380" s="111" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F380" s="59"/>
       <c r="G380" s="4"/>
@@ -12308,12 +12286,12 @@
       <c r="T380" s="4"/>
     </row>
     <row r="381" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="224"/>
-      <c r="B381" s="239"/>
-      <c r="C381" s="239"/>
+      <c r="A381" s="174"/>
+      <c r="B381" s="177"/>
+      <c r="C381" s="177"/>
       <c r="D381" s="80"/>
       <c r="E381" s="147" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F381" s="31"/>
       <c r="G381" s="4"/>
@@ -12332,9 +12310,9 @@
       <c r="T381" s="4"/>
     </row>
     <row r="382" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="226"/>
-      <c r="B382" s="240"/>
-      <c r="C382" s="240"/>
+      <c r="A382" s="175"/>
+      <c r="B382" s="178"/>
+      <c r="C382" s="178"/>
       <c r="D382" s="171"/>
       <c r="E382" s="147"/>
       <c r="F382" s="152"/>
@@ -12354,18 +12332,18 @@
       <c r="T382" s="4"/>
     </row>
     <row r="383" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="223" t="s">
-        <v>331</v>
-      </c>
-      <c r="B383" s="238" t="s">
-        <v>333</v>
-      </c>
-      <c r="C383" s="241" t="s">
-        <v>315</v>
+      <c r="A383" s="173" t="s">
+        <v>325</v>
+      </c>
+      <c r="B383" s="176" t="s">
+        <v>327</v>
+      </c>
+      <c r="C383" s="179" t="s">
+        <v>309</v>
       </c>
       <c r="D383" s="164"/>
       <c r="E383" s="111" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F383" s="61"/>
       <c r="G383" s="4"/>
@@ -12384,14 +12362,14 @@
       <c r="T383" s="4"/>
     </row>
     <row r="384" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="224"/>
-      <c r="B384" s="239"/>
-      <c r="C384" s="239"/>
+      <c r="A384" s="174"/>
+      <c r="B384" s="177"/>
+      <c r="C384" s="177"/>
       <c r="D384" s="82" t="s">
         <v>102</v>
       </c>
       <c r="E384" s="111" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F384" s="61"/>
       <c r="G384" s="4"/>
@@ -12410,14 +12388,14 @@
       <c r="T384" s="4"/>
     </row>
     <row r="385" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A385" s="224"/>
-      <c r="B385" s="239"/>
-      <c r="C385" s="239"/>
+      <c r="A385" s="174"/>
+      <c r="B385" s="177"/>
+      <c r="C385" s="177"/>
       <c r="D385" s="143" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E385" s="148" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F385" s="59"/>
       <c r="G385" s="4"/>
@@ -12436,12 +12414,12 @@
       <c r="T385" s="4"/>
     </row>
     <row r="386" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="224"/>
-      <c r="B386" s="239"/>
-      <c r="C386" s="239"/>
+      <c r="A386" s="174"/>
+      <c r="B386" s="177"/>
+      <c r="C386" s="177"/>
       <c r="D386" s="82"/>
       <c r="E386" s="169" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F386" s="30"/>
       <c r="G386" s="4"/>
@@ -12460,12 +12438,12 @@
       <c r="T386" s="4"/>
     </row>
     <row r="387" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="224"/>
-      <c r="B387" s="239"/>
-      <c r="C387" s="239"/>
+      <c r="A387" s="174"/>
+      <c r="B387" s="177"/>
+      <c r="C387" s="177"/>
       <c r="D387" s="168"/>
       <c r="E387" s="148" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F387" s="153"/>
       <c r="G387" s="4"/>
@@ -12484,12 +12462,12 @@
       <c r="T387" s="4"/>
     </row>
     <row r="388" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="225"/>
-      <c r="B388" s="245"/>
-      <c r="C388" s="245"/>
+      <c r="A388" s="180"/>
+      <c r="B388" s="181"/>
+      <c r="C388" s="181"/>
       <c r="D388" s="168"/>
       <c r="E388" s="148" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F388" s="153"/>
       <c r="G388" s="4"/>
@@ -12508,9 +12486,9 @@
       <c r="T388" s="4"/>
     </row>
     <row r="389" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="224"/>
-      <c r="B389" s="239"/>
-      <c r="C389" s="239"/>
+      <c r="A389" s="174"/>
+      <c r="B389" s="177"/>
+      <c r="C389" s="177"/>
       <c r="D389" s="172"/>
       <c r="E389" s="148"/>
       <c r="F389" s="30"/>
@@ -12530,9 +12508,9 @@
       <c r="T389" s="4"/>
     </row>
     <row r="390" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="226"/>
-      <c r="B390" s="240"/>
-      <c r="C390" s="240"/>
+      <c r="A390" s="175"/>
+      <c r="B390" s="178"/>
+      <c r="C390" s="178"/>
       <c r="D390" s="171"/>
       <c r="E390" s="122"/>
       <c r="F390" s="152"/>
@@ -12552,18 +12530,18 @@
       <c r="T390" s="4"/>
     </row>
     <row r="391" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="223" t="s">
-        <v>332</v>
-      </c>
-      <c r="B391" s="238" t="s">
-        <v>334</v>
-      </c>
-      <c r="C391" s="241" t="s">
-        <v>335</v>
+      <c r="A391" s="173" t="s">
+        <v>326</v>
+      </c>
+      <c r="B391" s="176" t="s">
+        <v>328</v>
+      </c>
+      <c r="C391" s="179" t="s">
+        <v>329</v>
       </c>
       <c r="D391" s="164"/>
       <c r="E391" s="154" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F391" s="61"/>
       <c r="G391" s="4"/>
@@ -12582,14 +12560,14 @@
       <c r="T391" s="4"/>
     </row>
     <row r="392" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="224"/>
-      <c r="B392" s="239"/>
-      <c r="C392" s="239"/>
+      <c r="A392" s="174"/>
+      <c r="B392" s="177"/>
+      <c r="C392" s="177"/>
       <c r="D392" s="82" t="s">
         <v>102</v>
       </c>
       <c r="E392" s="111" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F392" s="61"/>
       <c r="G392" s="4"/>
@@ -12608,14 +12586,14 @@
       <c r="T392" s="4"/>
     </row>
     <row r="393" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A393" s="224"/>
-      <c r="B393" s="239"/>
-      <c r="C393" s="239"/>
+      <c r="A393" s="174"/>
+      <c r="B393" s="177"/>
+      <c r="C393" s="177"/>
       <c r="D393" s="143" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E393" s="148" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F393" s="59"/>
       <c r="G393" s="4"/>
@@ -12634,12 +12612,12 @@
       <c r="T393" s="4"/>
     </row>
     <row r="394" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="224"/>
-      <c r="B394" s="239"/>
-      <c r="C394" s="239"/>
+      <c r="A394" s="174"/>
+      <c r="B394" s="177"/>
+      <c r="C394" s="177"/>
       <c r="D394" s="82"/>
       <c r="E394" s="169" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F394" s="30"/>
       <c r="G394" s="4"/>
@@ -12658,12 +12636,12 @@
       <c r="T394" s="4"/>
     </row>
     <row r="395" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="224"/>
-      <c r="B395" s="239"/>
-      <c r="C395" s="239"/>
+      <c r="A395" s="174"/>
+      <c r="B395" s="177"/>
+      <c r="C395" s="177"/>
       <c r="D395" s="143"/>
       <c r="E395" s="148" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F395" s="59"/>
       <c r="G395" s="4"/>
@@ -12682,12 +12660,12 @@
       <c r="T395" s="4"/>
     </row>
     <row r="396" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="224"/>
-      <c r="B396" s="239"/>
-      <c r="C396" s="239"/>
+      <c r="A396" s="174"/>
+      <c r="B396" s="177"/>
+      <c r="C396" s="177"/>
       <c r="D396" s="80"/>
       <c r="E396" s="170" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F396" s="31"/>
       <c r="G396" s="4"/>
@@ -12706,12 +12684,12 @@
       <c r="T396" s="4"/>
     </row>
     <row r="397" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A397" s="226"/>
-      <c r="B397" s="240"/>
-      <c r="C397" s="240"/>
+      <c r="A397" s="175"/>
+      <c r="B397" s="178"/>
+      <c r="C397" s="178"/>
       <c r="D397" s="82"/>
       <c r="E397" s="170" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F397" s="152"/>
       <c r="G397" s="4"/>
@@ -13487,15 +13465,183 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="A376:A382"/>
-    <mergeCell ref="B376:B382"/>
-    <mergeCell ref="C376:C382"/>
-    <mergeCell ref="A383:A390"/>
-    <mergeCell ref="B383:B390"/>
-    <mergeCell ref="C383:C390"/>
-    <mergeCell ref="A391:A397"/>
-    <mergeCell ref="B391:B397"/>
-    <mergeCell ref="C391:C397"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D210:D216"/>
+    <mergeCell ref="A217:A225"/>
+    <mergeCell ref="B217:B225"/>
+    <mergeCell ref="C217:C225"/>
+    <mergeCell ref="B203:B207"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="B135:B146"/>
+    <mergeCell ref="C135:C146"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="A135:A146"/>
+    <mergeCell ref="A147:A157"/>
+    <mergeCell ref="B147:B157"/>
+    <mergeCell ref="C147:C157"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="A111:A121"/>
+    <mergeCell ref="B111:B121"/>
+    <mergeCell ref="A122:A134"/>
+    <mergeCell ref="B122:B134"/>
+    <mergeCell ref="C111:C121"/>
+    <mergeCell ref="B233:B240"/>
+    <mergeCell ref="C233:C240"/>
+    <mergeCell ref="C122:C134"/>
+    <mergeCell ref="C203:C207"/>
+    <mergeCell ref="D203:D207"/>
+    <mergeCell ref="A210:A216"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="C85:C92"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="B101:B110"/>
+    <mergeCell ref="C101:C110"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="B169:B174"/>
+    <mergeCell ref="C169:C174"/>
+    <mergeCell ref="A169:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="C268:C272"/>
+    <mergeCell ref="D268:D272"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="C185:C189"/>
+    <mergeCell ref="D185:D189"/>
+    <mergeCell ref="B190:B197"/>
+    <mergeCell ref="C190:C197"/>
+    <mergeCell ref="D190:D197"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="B198:B202"/>
+    <mergeCell ref="C198:C202"/>
+    <mergeCell ref="D198:D202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A226:A232"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="A233:A240"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C73:C84"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="B61:B72"/>
+    <mergeCell ref="C61:C72"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A73:A84"/>
+    <mergeCell ref="B73:B84"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="A246:A252"/>
+    <mergeCell ref="A253:A258"/>
+    <mergeCell ref="B253:B258"/>
+    <mergeCell ref="C253:C258"/>
+    <mergeCell ref="A259:A267"/>
+    <mergeCell ref="B259:B267"/>
+    <mergeCell ref="B246:B252"/>
+    <mergeCell ref="C246:C252"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="A316:A322"/>
+    <mergeCell ref="B316:B322"/>
+    <mergeCell ref="C316:C322"/>
+    <mergeCell ref="B323:B329"/>
+    <mergeCell ref="C323:C329"/>
+    <mergeCell ref="A323:A329"/>
+    <mergeCell ref="C273:C279"/>
+    <mergeCell ref="D273:D279"/>
+    <mergeCell ref="A273:A279"/>
+    <mergeCell ref="B273:B279"/>
+    <mergeCell ref="A280:A287"/>
+    <mergeCell ref="B280:B287"/>
+    <mergeCell ref="C280:C287"/>
+    <mergeCell ref="D280:D287"/>
+    <mergeCell ref="B288:B298"/>
+    <mergeCell ref="C288:C298"/>
+    <mergeCell ref="D288:D298"/>
+    <mergeCell ref="C306:C315"/>
+    <mergeCell ref="A288:A298"/>
+    <mergeCell ref="A299:A305"/>
+    <mergeCell ref="C259:C267"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="C330:C333"/>
+    <mergeCell ref="D330:D333"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="B334:B338"/>
+    <mergeCell ref="A339:A344"/>
+    <mergeCell ref="B339:B344"/>
+    <mergeCell ref="C339:C344"/>
+    <mergeCell ref="D339:D344"/>
+    <mergeCell ref="B345:B350"/>
+    <mergeCell ref="C345:C350"/>
+    <mergeCell ref="A345:A350"/>
+    <mergeCell ref="C334:C338"/>
+    <mergeCell ref="D334:D338"/>
+    <mergeCell ref="A351:A358"/>
+    <mergeCell ref="B351:B358"/>
+    <mergeCell ref="C351:C358"/>
+    <mergeCell ref="D351:D358"/>
+    <mergeCell ref="A359:A363"/>
+    <mergeCell ref="B359:B363"/>
+    <mergeCell ref="B369:B375"/>
+    <mergeCell ref="C369:C375"/>
+    <mergeCell ref="C359:C363"/>
+    <mergeCell ref="D359:D363"/>
+    <mergeCell ref="A364:A368"/>
+    <mergeCell ref="B364:B368"/>
+    <mergeCell ref="C364:C368"/>
+    <mergeCell ref="D364:D368"/>
+    <mergeCell ref="D369:D375"/>
+    <mergeCell ref="A369:A375"/>
     <mergeCell ref="B299:B305"/>
     <mergeCell ref="C299:C305"/>
     <mergeCell ref="D299:D305"/>
@@ -13520,183 +13666,15 @@
     <mergeCell ref="D233:D234"/>
     <mergeCell ref="D239:D240"/>
     <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A359:A363"/>
-    <mergeCell ref="B359:B363"/>
-    <mergeCell ref="B369:B375"/>
-    <mergeCell ref="C369:C375"/>
-    <mergeCell ref="C359:C363"/>
-    <mergeCell ref="D359:D363"/>
-    <mergeCell ref="A364:A368"/>
-    <mergeCell ref="B364:B368"/>
-    <mergeCell ref="C364:C368"/>
-    <mergeCell ref="D364:D368"/>
-    <mergeCell ref="D369:D375"/>
-    <mergeCell ref="A369:A375"/>
-    <mergeCell ref="B345:B350"/>
-    <mergeCell ref="C345:C350"/>
-    <mergeCell ref="A345:A350"/>
-    <mergeCell ref="C334:C338"/>
-    <mergeCell ref="D334:D338"/>
-    <mergeCell ref="A351:A358"/>
-    <mergeCell ref="B351:B358"/>
-    <mergeCell ref="C351:C358"/>
-    <mergeCell ref="D351:D358"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="C330:C333"/>
-    <mergeCell ref="D330:D333"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="B334:B338"/>
-    <mergeCell ref="A339:A344"/>
-    <mergeCell ref="B339:B344"/>
-    <mergeCell ref="C339:C344"/>
-    <mergeCell ref="D339:D344"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="A316:A322"/>
-    <mergeCell ref="B316:B322"/>
-    <mergeCell ref="C316:C322"/>
-    <mergeCell ref="B323:B329"/>
-    <mergeCell ref="C323:C329"/>
-    <mergeCell ref="A323:A329"/>
-    <mergeCell ref="C273:C279"/>
-    <mergeCell ref="D273:D279"/>
-    <mergeCell ref="A273:A279"/>
-    <mergeCell ref="B273:B279"/>
-    <mergeCell ref="A280:A287"/>
-    <mergeCell ref="B280:B287"/>
-    <mergeCell ref="C280:C287"/>
-    <mergeCell ref="D280:D287"/>
-    <mergeCell ref="B288:B298"/>
-    <mergeCell ref="C288:C298"/>
-    <mergeCell ref="D288:D298"/>
-    <mergeCell ref="C306:C315"/>
-    <mergeCell ref="A288:A298"/>
-    <mergeCell ref="A299:A305"/>
-    <mergeCell ref="C259:C267"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="A246:A252"/>
-    <mergeCell ref="A253:A258"/>
-    <mergeCell ref="B253:B258"/>
-    <mergeCell ref="C253:C258"/>
-    <mergeCell ref="A259:A267"/>
-    <mergeCell ref="B259:B267"/>
-    <mergeCell ref="B246:B252"/>
-    <mergeCell ref="C246:C252"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="B226:B232"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A73:A84"/>
-    <mergeCell ref="B73:B84"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C73:C84"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="A61:A72"/>
-    <mergeCell ref="B61:B72"/>
-    <mergeCell ref="C61:C72"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="C268:C272"/>
-    <mergeCell ref="D268:D272"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="C185:C189"/>
-    <mergeCell ref="D185:D189"/>
-    <mergeCell ref="B190:B197"/>
-    <mergeCell ref="C190:C197"/>
-    <mergeCell ref="D190:D197"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="B198:B202"/>
-    <mergeCell ref="C198:C202"/>
-    <mergeCell ref="D198:D202"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A226:A232"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="A233:A240"/>
-    <mergeCell ref="C111:C121"/>
-    <mergeCell ref="B233:B240"/>
-    <mergeCell ref="C233:C240"/>
-    <mergeCell ref="C122:C134"/>
-    <mergeCell ref="C203:C207"/>
-    <mergeCell ref="D203:D207"/>
-    <mergeCell ref="A210:A216"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="B85:B92"/>
-    <mergeCell ref="C85:C92"/>
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="B101:B110"/>
-    <mergeCell ref="C101:C110"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="C169:C174"/>
-    <mergeCell ref="A169:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="D210:D216"/>
-    <mergeCell ref="A217:A225"/>
-    <mergeCell ref="B217:B225"/>
-    <mergeCell ref="C217:C225"/>
-    <mergeCell ref="B203:B207"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="B135:B146"/>
-    <mergeCell ref="C135:C146"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="A135:A146"/>
-    <mergeCell ref="A147:A157"/>
-    <mergeCell ref="B147:B157"/>
-    <mergeCell ref="C147:C157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="A111:A121"/>
-    <mergeCell ref="B111:B121"/>
-    <mergeCell ref="A122:A134"/>
-    <mergeCell ref="B122:B134"/>
+    <mergeCell ref="A376:A382"/>
+    <mergeCell ref="B376:B382"/>
+    <mergeCell ref="C376:C382"/>
+    <mergeCell ref="A383:A390"/>
+    <mergeCell ref="B383:B390"/>
+    <mergeCell ref="C383:C390"/>
+    <mergeCell ref="A391:A397"/>
+    <mergeCell ref="B391:B397"/>
+    <mergeCell ref="C391:C397"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC82053-A6E6-4FD8-A83C-6692075305FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FE48ED-A2F2-42E6-BB4A-4A5E3626D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="365">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -493,9 +493,6 @@
     <t>2. User Selects IMDB pro from action pannel</t>
   </si>
   <si>
-    <t>1. User selects movie 'Lucifer' from IMDB homepage slider</t>
-  </si>
-  <si>
     <t xml:space="preserve">Write Review </t>
   </si>
   <si>
@@ -509,6 +506,639 @@
   </si>
   <si>
     <t>5. User selects 'User Reviews' page</t>
+  </si>
+  <si>
+    <t>Info of top picks movies</t>
+  </si>
+  <si>
+    <t>The goal is to verify that info icon is availabe for top picks movies</t>
+  </si>
+  <si>
+    <t>1. User scrolls down to Top picks section on IMDb homepage</t>
+  </si>
+  <si>
+    <t>7. Verify that a pop up window opens up to write a review</t>
+  </si>
+  <si>
+    <t>3. User press info icon</t>
+  </si>
+  <si>
+    <t>Cast &amp; Crew of a Movie/Tv show</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Cast and Crew details are avaialble for a Movie/Tv show</t>
+  </si>
+  <si>
+    <t>2. User is routed to movie trailer page</t>
+  </si>
+  <si>
+    <t>3. Verify that Cast &amp; Crew option is available on top pannel</t>
+  </si>
+  <si>
+    <t>4. User selects Cast &amp; Crew option</t>
+  </si>
+  <si>
+    <t>Create new list</t>
+  </si>
+  <si>
+    <t>The goal is to verify that New list can be added</t>
+  </si>
+  <si>
+    <t>3. User selects Title details from right navigation pannel</t>
+  </si>
+  <si>
+    <t>4. User is routed to Title details page</t>
+  </si>
+  <si>
+    <t>5. User scrolls down and press the Add to watchlist dropdown</t>
+  </si>
+  <si>
+    <t>6.Verify that user is presented with two options
+*View watchlist
+*Create new list</t>
+  </si>
+  <si>
+    <t>7.User selects create new list</t>
+  </si>
+  <si>
+    <t>8.Create new list form is displyed</t>
+  </si>
+  <si>
+    <t>9. Fill in the mandatory fields and press  Create</t>
+  </si>
+  <si>
+    <t>10. Verify that new list is created</t>
+  </si>
+  <si>
+    <t>Account Setting</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Account settings can be edited</t>
+  </si>
+  <si>
+    <t>2. User selects 'Account Settings' from drop down</t>
+  </si>
+  <si>
+    <t>3. Verify that account setting page is displayed to edit 
+* Personal Information
+*Preferences
+*Other</t>
+  </si>
+  <si>
+    <t>Private Watchlist</t>
+  </si>
+  <si>
+    <t>2. Verify that Your watchlist is displayed</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Watchlist can be set to private and public</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Private Watchlist can not be shared</t>
+  </si>
+  <si>
+    <t>2. User has added items to watclist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Verify that option to set Watchlist Private and Public switch is available </t>
+  </si>
+  <si>
+    <t>1. User opens the site https://www.imdb.com/</t>
+  </si>
+  <si>
+    <t>UserInterface elements in place on IE browser</t>
+  </si>
+  <si>
+    <t>The goal is to verify that all UserInterface is in place on IE browser</t>
+  </si>
+  <si>
+    <t>2.Verify that IMDb page should looks fine and all active UI elements should be clickable on IE browser</t>
+  </si>
+  <si>
+    <t>SignOut Functionality</t>
+  </si>
+  <si>
+    <t>The goal is to verify that SignOut functionality is working as expected</t>
+  </si>
+  <si>
+    <t>1. User selects SignOut from top right corner drop down under username</t>
+  </si>
+  <si>
+    <t>2. Verify that user gets logged out</t>
+  </si>
+  <si>
+    <t>Slider Movies/Tv shows change</t>
+  </si>
+  <si>
+    <t>The goal is to verify that ImDb homepage slider and Up next work synchronously</t>
+  </si>
+  <si>
+    <t>2. User uses the slider to walkthrough the movies/Tv shows</t>
+  </si>
+  <si>
+    <t>WatchList page sorting</t>
+  </si>
+  <si>
+    <t>The goal is to verify that watchlist sorting by Rating is correct</t>
+  </si>
+  <si>
+    <t>2. User has already added  items to watchlist</t>
+  </si>
+  <si>
+    <t>The goal is to verify that user can not add items to watchlist if he is not loggedIn</t>
+  </si>
+  <si>
+    <t>SignOut&gt;Watchlist</t>
+  </si>
+  <si>
+    <t>1. User is not loggedIn</t>
+  </si>
+  <si>
+    <t>2. User selects plus button placed on movie 'Lucifer'</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to SignIn /Registration  page</t>
+  </si>
+  <si>
+    <t>SignOut&gt;Star rating</t>
+  </si>
+  <si>
+    <t>The goal is to verify that user can not add Star rating if he is not loggedIn</t>
+  </si>
+  <si>
+    <t>Unique Email&gt;SignIn</t>
+  </si>
+  <si>
+    <t>2. User slelects SignIn option from top left corner</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to SignIn /Registration  page to SignUp/SignIn</t>
+  </si>
+  <si>
+    <t>4. User enters an already IMDb used EmailId to SignUp again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Verify that following error message is diplayed 'Important Message!
+You indicated you're a new customer, but an account already exists with the email address weenakhalid@gmail.com.'
+</t>
+  </si>
+  <si>
+    <t>More than one instance&gt;IMDb</t>
+  </si>
+  <si>
+    <t>The goal is to verify that user can have only one account against a unique email Id</t>
+  </si>
+  <si>
+    <t>The goal is to verify that user can not have two instance of IMDb site, one loggedOut and other  LoggedIn</t>
+  </si>
+  <si>
+    <t>3. User opens the site https://www.imdb.com/ again in new tab</t>
+  </si>
+  <si>
+    <t>5. User hover back to logged In instance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Verify that user is Logged Out </t>
+  </si>
+  <si>
+    <t>1. Enter the below mentioned URL: https://www.imdb.com/</t>
+  </si>
+  <si>
+    <t>2. Press the Sign In button on top right corner</t>
+  </si>
+  <si>
+    <t>3. Verify that multiple Sign In options are displayed</t>
+  </si>
+  <si>
+    <t>4. Verify that ‘Create new account’ option is displayed</t>
+  </si>
+  <si>
+    <t>5. Press the ‘Create new account’ option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Enter the mandatory fields
+*Your name
+*Email
+*Password
+*Re-enter password
+Enter the mandatory fields
+*Your name
+*Email
+*Password
+*Re-enter password
+</t>
+  </si>
+  <si>
+    <t>7. Press the option ‘Create your IMDb account’</t>
+  </si>
+  <si>
+    <t>3. Press on English</t>
+  </si>
+  <si>
+    <t>4. Verify that multiple Sign In options are displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Select ‘Sign In with IMdb’ option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Enter the mandatory fields
+*Email
+*Password
+</t>
+  </si>
+  <si>
+    <t>7. Press the option ‘Sign In’</t>
+  </si>
+  <si>
+    <t>1. Verify that under ‘Featured today’ movies and photos  are displayed</t>
+  </si>
+  <si>
+    <t>2. Verify that under ‘What to watch’ movies and Tv shows is displayed</t>
+  </si>
+  <si>
+    <t>3. Verify that ‘Watchlist’ plus sign is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Press watchlist button against  moview Cruella(2021) and verify that Cruella is added to watchlist list </t>
+  </si>
+  <si>
+    <t>1. Select  Movie Cruella(2021) from Top picks section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Verify that following are displayed
+*IMDB rating
+*Your Rating
+*Popularity
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Verify that  clickable links are displayed
+*User Reviews
+*Critic Reviews
+*Metascore
+</t>
+  </si>
+  <si>
+    <t>1. Verify that User can select a movie from IMDb homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Press the Play button against 'Play trailer' heading </t>
+  </si>
+  <si>
+    <t>3. Verify that Trailer starts playing</t>
+  </si>
+  <si>
+    <t>1. User selects a movie 'Loki' from top picks section</t>
+  </si>
+  <si>
+    <t>2. User press share button from top corner</t>
+  </si>
+  <si>
+    <t>3. Verify that the following options displays in a drop down menue :
+*Facebook
+*Twitter
+*Email Link
+*Copy link
+*Share Imdb rating</t>
+  </si>
+  <si>
+    <t>The goal is to verify  that star button is working correctly against each Movie/Tv show</t>
+  </si>
+  <si>
+    <t>The goal is to verify  that share button is clickable against each Movie/Tv show</t>
+  </si>
+  <si>
+    <t>The goal is to verify that trailers can be watched against each Movie/Tv show</t>
+  </si>
+  <si>
+    <t>The goal is to verify that reviews are displayed against each Movie/Tv show</t>
+  </si>
+  <si>
+    <t>The goal is to verify that All dropdown against search bar is displayed</t>
+  </si>
+  <si>
+    <t>The goal is to verify that IMDb rating and Your rating is displayed</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Sort by ranking is working correctly</t>
+  </si>
+  <si>
+    <t>2. User is logged in IMDb site</t>
+  </si>
+  <si>
+    <t>3. User is on IMDb homepage</t>
+  </si>
+  <si>
+    <t>3. Select Sort by IMDb rating</t>
+  </si>
+  <si>
+    <t>3. Select Sort by Release Date</t>
+  </si>
+  <si>
+    <t>3. Select Sort by Your rating</t>
+  </si>
+  <si>
+    <t>1. Search for Tv show 'Virgin River' in search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Verify that following options are displayed under your username in action panel
+*You activity
+*Your watchlist
+*Your rating
+*Your lists
+*Account Settings
+*Sign Out
+</t>
+  </si>
+  <si>
+    <t>3. User select sort by 'RunTime' from drop-down and press arrow button</t>
+  </si>
+  <si>
+    <t>1. User scrolls down to From your watchlist section</t>
+  </si>
+  <si>
+    <t>3. Select the empty star against  star button to add rating</t>
+  </si>
+  <si>
+    <t>4. Verify that star rating is added instatntly and displayed as *6 against IMDb star rating</t>
+  </si>
+  <si>
+    <t>4.Verify movies are sorted by Release date (oldest) with Ascending order</t>
+  </si>
+  <si>
+    <t>The movies are sortedwith oldest with Ascending order</t>
+  </si>
+  <si>
+    <t>3. Select Sort by 'Number of rating'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Verify movies are sorted by Number of rating </t>
+  </si>
+  <si>
+    <t>3. Provide star rating (*4) to movie 'The God Father'</t>
+  </si>
+  <si>
+    <t>5. Verify that clicking it copies the address</t>
+  </si>
+  <si>
+    <t>When link is pasted the following link should appear 'https://www.imdb.com/chart/top/'</t>
+  </si>
+  <si>
+    <t>Exactly four ways are displayed</t>
+  </si>
+  <si>
+    <t>1. User press the forward and backward button present on IMDb homepage  Movie/Tv show Slider</t>
+  </si>
+  <si>
+    <t>2. Verify that Slider doesnot contain null values i.e the movies shouldkeep on changing randomly</t>
+  </si>
+  <si>
+    <t>Verify that each option is clickable</t>
+  </si>
+  <si>
+    <t>3. User selects  DVD &amp; Blu-ray Releases</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to signIn amazon accountto SignIn for IMDb pro member</t>
+  </si>
+  <si>
+    <t>The goal is to verify that only Titles are displayed when searched for Titles</t>
+  </si>
+  <si>
+    <t>1. User selects 'Titles' from All drop-down presents against search bar</t>
+  </si>
+  <si>
+    <t>2. User search for Virgin River in search bar and press search button</t>
+  </si>
+  <si>
+    <t>Search by Title</t>
+  </si>
+  <si>
+    <t>The goal is to verify that only Celebs are displayed when searched via Celebs option</t>
+  </si>
+  <si>
+    <t>1. User selects Celebs from All drop-down presents against search bar</t>
+  </si>
+  <si>
+    <t>Virginia Rivera,Virgin Rides and many more are displayed containing words river and  virgin</t>
+  </si>
+  <si>
+    <t>Sharing a private watchlist</t>
+  </si>
+  <si>
+    <t>1. User selects Watchlist button from top right corner under username menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Press Edit option to alter Setings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Press Settings </t>
+  </si>
+  <si>
+    <t>3. Verify that Share button is disabled for a private watchlist</t>
+  </si>
+  <si>
+    <t>3. User has set watchlist to private (Refer to TC SK_40)</t>
+  </si>
+  <si>
+    <t>5. User set the Watchlist to be Private and press Save button and DONE</t>
+  </si>
+  <si>
+    <t>6. Verify that watchlist is set to private</t>
+  </si>
+  <si>
+    <t>3. Verify that slider Movies/Tvshows works synchronously with Up Next movie</t>
+  </si>
+  <si>
+    <t>1. User selects watclist from top action pannel</t>
+  </si>
+  <si>
+    <t>4. Verify that sorting is done based on highest Metascore at top</t>
+  </si>
+  <si>
+    <t>2. User press Star icon placed against movie 'Lucifer' under Top picks section to provide star rating</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to SignIn /Registration  page to add star rating</t>
+  </si>
+  <si>
+    <t>2. User logs In the website</t>
+  </si>
+  <si>
+    <t>4. User LogsIn and then  LogsOut of website</t>
+  </si>
+  <si>
+    <t>IMDb button &gt;Your Activity</t>
+  </si>
+  <si>
+    <t>The goal is to verify that IMDb button routes user back to IMDB home page</t>
+  </si>
+  <si>
+    <t>2. User is on IMDb home page</t>
+  </si>
+  <si>
+    <t>2.User navigates to Usename drop down from top right corner</t>
+  </si>
+  <si>
+    <t>3. User selects Your activity option from drop down</t>
+  </si>
+  <si>
+    <t>5. User press IMDB button placed on top right corner</t>
+  </si>
+  <si>
+    <t>IMDb button&gt;Menu</t>
+  </si>
+  <si>
+    <t>2.User navigates to Menu button from top left corner</t>
+  </si>
+  <si>
+    <t>6. Verify user is routed to IMDB home page</t>
+  </si>
+  <si>
+    <t>SK_51</t>
+  </si>
+  <si>
+    <t>IMDB button &gt;Watchlist</t>
+  </si>
+  <si>
+    <t>2.User navigates to Watchlist button placed at top right corner with a + sign</t>
+  </si>
+  <si>
+    <t>3. User is routed to You watchlist where a list of Movies/Tv shows are displayed added by user</t>
+  </si>
+  <si>
+    <t>2.User navigates to Username drop down from top right corner</t>
+  </si>
+  <si>
+    <t>3. User selects Your Ratings option from drop down</t>
+  </si>
+  <si>
+    <t>2. User has already added Rating against Movie Matrix</t>
+  </si>
+  <si>
+    <t>4. Verify that User Alweena is routed to Your Ratings page</t>
+  </si>
+  <si>
+    <t>SK_52</t>
+  </si>
+  <si>
+    <t>SK_53</t>
+  </si>
+  <si>
+    <t>IMDB button &gt;Your Rating</t>
+  </si>
+  <si>
+    <t>Your Ratings&gt;Share the page</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Share the page optionis available on Your Ratings page</t>
+  </si>
+  <si>
+    <t>5. User press Share the page icon from 'Tell your friends header placed on top right corner</t>
+  </si>
+  <si>
+    <t>6. Verify that a link is displayed in a text box to share the page</t>
+  </si>
+  <si>
+    <t>7.User right clicks and copy the URL to share  Your ratings with your friends</t>
+  </si>
+  <si>
+    <t>Movies are sorted in ascending order i.e top movie has the  highest ''Your rating''</t>
+  </si>
+  <si>
+    <t>Top 250 as rated by IMDb Users</t>
+  </si>
+  <si>
+    <t>The goal is to verify that exactly 250 Top rated movies by IMDb Users</t>
+  </si>
+  <si>
+    <t>The goal is to verify that respective Tv shows are suggested when searching for Tv shows via search bar</t>
+  </si>
+  <si>
+    <t>7. Media viewer page is displayed in grid view</t>
+  </si>
+  <si>
+    <t>4. Verify that User  is routed to user details page</t>
+  </si>
+  <si>
+    <t>5. Verify that Profile for user Checklist is displayed</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to Titels page where titels only contain only word of these two ( Virgin + River ) are displayed</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to Names page where only titels containg Virgin or River are displayed</t>
+  </si>
+  <si>
+    <t>2. Click Star button against a movie 'Cruella' to provide rating</t>
+  </si>
+  <si>
+    <t>4. User has already added Cruella to the watchlist</t>
+  </si>
+  <si>
+    <t>Verify that All drop down is clickable and has the following options
+*All
+*Titles
+*Tv episodes
+*Celebs
+*Companies
+*Keywords
+*Advanced search</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Sort by Number of rating is working correctly</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Sort by Release date is working correctly</t>
+  </si>
+  <si>
+    <t>The goal is to verify that Sort by IMDb Rating is working correctly</t>
+  </si>
+  <si>
+    <t>Movies are sorted in ascending order i.e top movie has the most IMDb ratings</t>
+  </si>
+  <si>
+    <t>1. User is on IMDb homepage</t>
+  </si>
+  <si>
+    <t>3. Verify that there are 4 ways to search as below
+*Advanced Title Search
+*Advanced Name Search
+*Search Collaborations
+*Search Within a Topic</t>
+  </si>
+  <si>
+    <t>3. Verify that User is routed to Menu items with a cross button on right</t>
+  </si>
+  <si>
+    <t>5. User press IMDB button placed on top left corner</t>
+  </si>
+  <si>
+    <t>1. Verify that Movie/Tvshow slider is present on home page</t>
+  </si>
+  <si>
+    <t>2. Verify that name and time stamp in MIN:SEC format is displayed on Movie/Tv show slider</t>
+  </si>
+  <si>
+    <t>4. Verify that user is routed to New and Upcoming VOD, DVD, and Blu-ray Releases</t>
+  </si>
+  <si>
+    <t>2. A drop-down displays uder Username</t>
+  </si>
+  <si>
+    <t>Twitch link</t>
+  </si>
+  <si>
+    <t>2. User selects Twitch icon</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to IMDB twitch page</t>
+  </si>
+  <si>
+    <t>2. User selects Instagram icon</t>
+  </si>
+  <si>
+    <t>2. Verify that  System route sthe user to the movie trailer</t>
   </si>
   <si>
     <r>
@@ -531,662 +1161,38 @@
         <rFont val="Trebuchet MS"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> option uder the movie name 'Lucifer'</t>
+      <t xml:space="preserve"> option uder the movie name</t>
     </r>
   </si>
   <si>
-    <t>8. User press Submit button for the review to be published.</t>
-  </si>
-  <si>
-    <t>Info of top picks movies</t>
-  </si>
-  <si>
-    <t>The goal is to verify that info icon is availabe for top picks movies</t>
-  </si>
-  <si>
-    <t>1. User scrolls down to Top picks section on IMDb homepage</t>
-  </si>
-  <si>
-    <t>2. Verify that  System route sthe user to Lucifer movie trailer</t>
-  </si>
-  <si>
-    <t>7. Verify that a pop up window opens up to write a review</t>
-  </si>
-  <si>
-    <t>3. User press info icon</t>
-  </si>
-  <si>
-    <t>Cast &amp; Crew of a Movie/Tv show</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Cast and Crew details are avaialble for a Movie/Tv show</t>
-  </si>
-  <si>
-    <t>1. User selects movie' Forrest Grum'p from IMDB homepage slider</t>
-  </si>
-  <si>
-    <t>2. User is routed to movie trailer page</t>
-  </si>
-  <si>
-    <t>3. Verify that Cast &amp; Crew option is available on top pannel</t>
-  </si>
-  <si>
-    <t>4. User selects Cast &amp; Crew option</t>
-  </si>
-  <si>
-    <t>5. Verify that Full Cast &amp; Crew is displayed for the movie 'Forrest Grump'</t>
-  </si>
-  <si>
-    <t>Create new list</t>
-  </si>
-  <si>
-    <t>The goal is to verify that New list can be added</t>
-  </si>
-  <si>
-    <t>1. User selects a movie 'Luifer' on IMDb home page</t>
-  </si>
-  <si>
-    <t>3. User selects Title details from right navigation pannel</t>
-  </si>
-  <si>
-    <t>4. User is routed to Title details page</t>
-  </si>
-  <si>
-    <t>5. User scrolls down and press the Add to watchlist dropdown</t>
-  </si>
-  <si>
-    <t>6.Verify that user is presented with two options
-*View watchlist
-*Create new list</t>
-  </si>
-  <si>
-    <t>7.User selects create new list</t>
-  </si>
-  <si>
-    <t>8.Create new list form is displyed</t>
-  </si>
-  <si>
-    <t>9. Fill in the mandatory fields and press  Create</t>
-  </si>
-  <si>
-    <t>10. Verify that new list is created</t>
-  </si>
-  <si>
-    <t>Account Setting</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Account settings can be edited</t>
-  </si>
-  <si>
-    <t>1. User selects dropdown from top right corner where Username 'Alweena' is displayed</t>
-  </si>
-  <si>
-    <t>2. User selects 'Account Settings' from drop down</t>
-  </si>
-  <si>
-    <t>3. Verify that account setting page is displayed to edit 
-* Personal Information
-*Preferences
-*Other</t>
-  </si>
-  <si>
-    <t>Private Watchlist</t>
-  </si>
-  <si>
-    <t>2. Verify that Your watchlist is displayed</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Watchlist can be set to private and public</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Private Watchlist can not be shared</t>
-  </si>
-  <si>
-    <t>2. User has added items to watclist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Verify that option to set Watchlist Private and Public switch is available </t>
-  </si>
-  <si>
-    <t>1. User opens the site https://www.imdb.com/</t>
-  </si>
-  <si>
-    <t>UserInterface elements in place on IE browser</t>
-  </si>
-  <si>
-    <t>The goal is to verify that all UserInterface is in place on IE browser</t>
-  </si>
-  <si>
-    <t>2.Verify that IMDb page should looks fine and all active UI elements should be clickable on IE browser</t>
-  </si>
-  <si>
-    <t>SignOut Functionality</t>
-  </si>
-  <si>
-    <t>The goal is to verify that SignOut functionality is working as expected</t>
-  </si>
-  <si>
-    <t>1. User selects SignOut from top right corner drop down under username</t>
-  </si>
-  <si>
-    <t>2. Verify that user gets logged out</t>
-  </si>
-  <si>
-    <t>Slider Movies/Tv shows change</t>
-  </si>
-  <si>
-    <t>The goal is to verify that ImDb homepage slider and Up next work synchronously</t>
-  </si>
-  <si>
-    <t>2. User uses the slider to walkthrough the movies/Tv shows</t>
-  </si>
-  <si>
-    <t>WatchList page sorting</t>
-  </si>
-  <si>
-    <t>The goal is to verify that watchlist sorting by Rating is correct</t>
-  </si>
-  <si>
-    <t>2. User has already added  items to watchlist</t>
-  </si>
-  <si>
-    <t>The goal is to verify that user can not add items to watchlist if he is not loggedIn</t>
-  </si>
-  <si>
-    <t>SignOut&gt;Watchlist</t>
-  </si>
-  <si>
-    <t>1. User is not loggedIn</t>
-  </si>
-  <si>
-    <t>2. User selects plus button placed on movie 'Lucifer'</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to SignIn /Registration  page</t>
-  </si>
-  <si>
-    <t>SignOut&gt;Star rating</t>
-  </si>
-  <si>
-    <t>The goal is to verify that user can not add Star rating if he is not loggedIn</t>
-  </si>
-  <si>
-    <t>Unique Email&gt;SignIn</t>
-  </si>
-  <si>
-    <t>2. User slelects SignIn option from top left corner</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to SignIn /Registration  page to SignUp/SignIn</t>
-  </si>
-  <si>
-    <t>4. User enters an already IMDb used EmailId to SignUp again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Verify that following error message is diplayed 'Important Message!
-You indicated you're a new customer, but an account already exists with the email address weenakhalid@gmail.com.'
-</t>
-  </si>
-  <si>
-    <t>More than one instance&gt;IMDb</t>
-  </si>
-  <si>
-    <t>The goal is to verify that user can have only one account against a unique email Id</t>
-  </si>
-  <si>
-    <t>The goal is to verify that user can not have two instance of IMDb site, one loggedOut and other  LoggedIn</t>
-  </si>
-  <si>
-    <t>3. User opens the site https://www.imdb.com/ again in new tab</t>
-  </si>
-  <si>
-    <t>5. User hover back to logged In instance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Verify that user is Logged Out </t>
-  </si>
-  <si>
-    <t>1. Enter the below mentioned URL: https://www.imdb.com/</t>
-  </si>
-  <si>
-    <t>2. Press the Sign In button on top right corner</t>
-  </si>
-  <si>
-    <t>3. Verify that multiple Sign In options are displayed</t>
-  </si>
-  <si>
-    <t>4. Verify that ‘Create new account’ option is displayed</t>
-  </si>
-  <si>
-    <t>5. Press the ‘Create new account’ option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Enter the mandatory fields
-*Your name
-*Email
-*Password
-*Re-enter password
-Enter the mandatory fields
-*Your name
-*Email
-*Password
-*Re-enter password
-</t>
-  </si>
-  <si>
-    <t>7. Press the option ‘Create your IMDb account’</t>
-  </si>
-  <si>
-    <t>3. Press on English</t>
-  </si>
-  <si>
-    <t>4. Verify that multiple Sign In options are displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Select ‘Sign In with IMdb’ option </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Enter the mandatory fields
-*Email
-*Password
-</t>
-  </si>
-  <si>
-    <t>7. Press the option ‘Sign In’</t>
-  </si>
-  <si>
-    <t>1. Verify that under ‘Featured today’ movies and photos  are displayed</t>
-  </si>
-  <si>
-    <t>2. Verify that under ‘What to watch’ movies and Tv shows is displayed</t>
-  </si>
-  <si>
-    <t>3. Verify that ‘Watchlist’ plus sign is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Press watchlist button against  moview Cruella(2021) and verify that Cruella is added to watchlist list </t>
-  </si>
-  <si>
-    <t>1. Select  Movie Cruella(2021) from Top picks section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Verify that following are displayed
-*IMDB rating
-*Your Rating
-*Popularity
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Verify that  clickable links are displayed
-*User Reviews
-*Critic Reviews
-*Metascore
-</t>
-  </si>
-  <si>
-    <t>1. Verify that User can select a movie from IMDb homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Press the Play button against 'Play trailer' heading </t>
-  </si>
-  <si>
-    <t>3. Verify that Trailer starts playing</t>
-  </si>
-  <si>
-    <t>1. User selects a movie 'Loki' from top picks section</t>
-  </si>
-  <si>
-    <t>2. User press share button from top corner</t>
-  </si>
-  <si>
-    <t>3. Verify that the following options displays in a drop down menue :
-*Facebook
-*Twitter
-*Email Link
-*Copy link
-*Share Imdb rating</t>
-  </si>
-  <si>
-    <t>The goal is to verify  that star button is working correctly against each Movie/Tv show</t>
-  </si>
-  <si>
-    <t>The goal is to verify  that share button is clickable against each Movie/Tv show</t>
-  </si>
-  <si>
-    <t>The goal is to verify that trailers can be watched against each Movie/Tv show</t>
-  </si>
-  <si>
-    <t>The goal is to verify that reviews are displayed against each Movie/Tv show</t>
-  </si>
-  <si>
-    <t>The goal is to verify that All dropdown against search bar is displayed</t>
-  </si>
-  <si>
-    <t>The goal is to verify that IMDb rating and Your rating is displayed</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Sort by ranking is working correctly</t>
-  </si>
-  <si>
-    <t>2. User is logged in IMDb site</t>
-  </si>
-  <si>
-    <t>3. User is on IMDb homepage</t>
-  </si>
-  <si>
-    <t>3. Select Sort by IMDb rating</t>
-  </si>
-  <si>
-    <t>3. Select Sort by Release Date</t>
-  </si>
-  <si>
-    <t>3. Select Sort by Your rating</t>
-  </si>
-  <si>
-    <t>1. Search for Tv show 'Virgin River' in search bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Verify that following options are displayed under your username in action panel
-*You activity
-*Your watchlist
-*Your rating
-*Your lists
-*Account Settings
-*Sign Out
-</t>
-  </si>
-  <si>
-    <t>3. User select sort by 'RunTime' from drop-down and press arrow button</t>
-  </si>
-  <si>
-    <t>1. User scrolls down to From your watchlist section</t>
-  </si>
-  <si>
-    <t>3. Select the empty star against  star button to add rating</t>
-  </si>
-  <si>
-    <t>4. Verify that star rating is added instatntly and displayed as *6 against IMDb star rating</t>
-  </si>
-  <si>
-    <t>4.Verify movies are sorted by Release date (oldest) with Ascending order</t>
-  </si>
-  <si>
-    <t>The movies are sortedwith oldest with Ascending order</t>
-  </si>
-  <si>
-    <t>3. Select Sort by 'Number of rating'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.Verify movies are sorted by Number of rating </t>
-  </si>
-  <si>
-    <t>3. Provide star rating (*4) to movie 'The God Father'</t>
-  </si>
-  <si>
-    <t>5. Verify that clicking it copies the address</t>
-  </si>
-  <si>
-    <t>When link is pasted the following link should appear 'https://www.imdb.com/chart/top/'</t>
-  </si>
-  <si>
-    <t>Exactly four ways are displayed</t>
-  </si>
-  <si>
-    <t>1. User press the forward and backward button present on IMDb homepage  Movie/Tv show Slider</t>
-  </si>
-  <si>
-    <t>2. Verify that Slider doesnot contain null values i.e the movies shouldkeep on changing randomly</t>
-  </si>
-  <si>
-    <t>Verify that each option is clickable</t>
-  </si>
-  <si>
-    <t>3. User selects  DVD &amp; Blu-ray Releases</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to signIn amazon accountto SignIn for IMDb pro member</t>
-  </si>
-  <si>
-    <t>The goal is to verify that only Titles are displayed when searched for Titles</t>
-  </si>
-  <si>
-    <t>1. User selects 'Titles' from All drop-down presents against search bar</t>
-  </si>
-  <si>
-    <t>2. User search for Virgin River in search bar and press search button</t>
-  </si>
-  <si>
-    <t>Search by Title</t>
-  </si>
-  <si>
-    <t>The goal is to verify that only Celebs are displayed when searched via Celebs option</t>
-  </si>
-  <si>
-    <t>1. User selects Celebs from All drop-down presents against search bar</t>
-  </si>
-  <si>
-    <t>Virginia Rivera,Virgin Rides and many more are displayed containing words river and  virgin</t>
-  </si>
-  <si>
-    <t>Sharing a private watchlist</t>
-  </si>
-  <si>
-    <t>1. User selects Watchlist button from top right corner under username menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Press Edit option to alter Setings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Press Settings </t>
-  </si>
-  <si>
-    <t>3. Verify that Share button is disabled for a private watchlist</t>
-  </si>
-  <si>
-    <t>3. User has set watchlist to private (Refer to TC SK_40)</t>
-  </si>
-  <si>
-    <t>5. User set the Watchlist to be Private and press Save button and DONE</t>
-  </si>
-  <si>
-    <t>6. Verify that watchlist is set to private</t>
-  </si>
-  <si>
-    <t>3. Verify that slider Movies/Tvshows works synchronously with Up Next movie</t>
-  </si>
-  <si>
-    <t>1. User selects watclist from top action pannel</t>
-  </si>
-  <si>
-    <t>4. Verify that sorting is done based on highest Metascore at top</t>
-  </si>
-  <si>
-    <t>2. User press Star icon placed against movie 'Lucifer' under Top picks section to provide star rating</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to SignIn /Registration  page to add star rating</t>
-  </si>
-  <si>
-    <t>2. User logs In the website</t>
-  </si>
-  <si>
-    <t>4. User LogsIn and then  LogsOut of website</t>
-  </si>
-  <si>
-    <t>IMDb button &gt;Your Activity</t>
-  </si>
-  <si>
-    <t>The goal is to verify that IMDb button routes user back to IMDB home page</t>
-  </si>
-  <si>
-    <t>2. User is on IMDb home page</t>
-  </si>
-  <si>
-    <t>2.User navigates to Usename drop down from top right corner</t>
-  </si>
-  <si>
-    <t>3. User selects Your activity option from drop down</t>
-  </si>
-  <si>
-    <t>5. User press IMDB button placed on top right corner</t>
-  </si>
-  <si>
-    <t>IMDb button&gt;Menu</t>
-  </si>
-  <si>
-    <t>2.User navigates to Menu button from top left corner</t>
-  </si>
-  <si>
-    <t>6. Verify user is routed to IMDB home page</t>
-  </si>
-  <si>
-    <t>SK_51</t>
-  </si>
-  <si>
-    <t>IMDB button &gt;Watchlist</t>
-  </si>
-  <si>
-    <t>2.User navigates to Watchlist button placed at top right corner with a + sign</t>
-  </si>
-  <si>
-    <t>3. User is routed to You watchlist where a list of Movies/Tv shows are displayed added by user</t>
-  </si>
-  <si>
-    <t>2.User navigates to Username drop down from top right corner</t>
-  </si>
-  <si>
-    <t>3. User selects Your Ratings option from drop down</t>
-  </si>
-  <si>
-    <t>2. User has already added Rating against Movie Matrix</t>
-  </si>
-  <si>
-    <t>4. Verify that User Alweena is routed to Your Ratings page</t>
-  </si>
-  <si>
-    <t>SK_52</t>
-  </si>
-  <si>
-    <t>SK_53</t>
-  </si>
-  <si>
-    <t>IMDB button &gt;Your Rating</t>
-  </si>
-  <si>
-    <t>Your Ratings&gt;Share the page</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Share the page optionis available on Your Ratings page</t>
-  </si>
-  <si>
-    <t>5. User press Share the page icon from 'Tell your friends header placed on top right corner</t>
-  </si>
-  <si>
-    <t>6. Verify that a link is displayed in a text box to share the page</t>
-  </si>
-  <si>
-    <t>7.User right clicks and copy the URL to share  Your ratings with your friends</t>
-  </si>
-  <si>
-    <t>Movies are sorted in ascending order i.e top movie has the  highest ''Your rating''</t>
-  </si>
-  <si>
-    <t>Top 250 as rated by IMDb Users</t>
-  </si>
-  <si>
-    <t>The goal is to verify that exactly 250 Top rated movies by IMDb Users</t>
-  </si>
-  <si>
-    <t>The goal is to verify that respective Tv shows are suggested when searching for Tv shows via search bar</t>
-  </si>
-  <si>
-    <t>7. Media viewer page is displayed in grid view</t>
-  </si>
-  <si>
-    <t>4. Verify that User  is routed to user details page</t>
-  </si>
-  <si>
-    <t>5. Verify that Profile for user Checklist is displayed</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to Titels page where titels only contain only word of these two ( Virgin + River ) are displayed</t>
-  </si>
-  <si>
-    <t>2. Verify that info button is available to look into details of movie ''Lucifer'</t>
-  </si>
-  <si>
-    <t>4. Verify that a pop up window opens up showing minimal information for movie "Lucifer".</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to Names page where only titels containg Virgin or River are displayed</t>
-  </si>
-  <si>
-    <t>2. Click Star button against a movie 'Cruella' to provide rating</t>
-  </si>
-  <si>
-    <t>4. User has already added Cruella to the watchlist</t>
-  </si>
-  <si>
-    <t>Verify that All drop down is clickable and has the following options
-*All
-*Titles
-*Tv episodes
-*Celebs
-*Companies
-*Keywords
-*Advanced search</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Sort by Number of rating is working correctly</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Sort by Release date is working correctly</t>
-  </si>
-  <si>
-    <t>The goal is to verify that Sort by IMDb Rating is working correctly</t>
-  </si>
-  <si>
-    <t>Movies are sorted in ascending order i.e top movie has the most IMDb ratings</t>
-  </si>
-  <si>
-    <t>1. User is on IMDb homepage</t>
-  </si>
-  <si>
-    <t>3. Verify that there are 4 ways to search as below
-*Advanced Title Search
-*Advanced Name Search
-*Search Collaborations
-*Search Within a Topic</t>
-  </si>
-  <si>
-    <t>3. Verify that User is routed to Menu items with a cross button on right</t>
-  </si>
-  <si>
-    <t>5. User press IMDB button placed on top left corner</t>
-  </si>
-  <si>
-    <t>1. Verify that Movie/Tvshow slider is present on home page</t>
-  </si>
-  <si>
-    <t>2. Verify that name and time stamp in MIN:SEC format is displayed on Movie/Tv show slider</t>
-  </si>
-  <si>
-    <t>4. Verify that user is routed to New and Upcoming VOD, DVD, and Blu-ray Releases</t>
-  </si>
-  <si>
-    <t>2. A drop-down displays uder Username</t>
-  </si>
-  <si>
-    <t>Twitch link</t>
-  </si>
-  <si>
-    <t>2. User selects Twitch icon</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to IMDB twitch page</t>
-  </si>
-  <si>
-    <t>2. User selects Instagram icon</t>
+    <t>1. User selects the Trailer button of The Suicide Squad in home page</t>
+  </si>
+  <si>
+    <t>8. User writes a review and presses Submit button for the review to be published.</t>
+  </si>
+  <si>
+    <t>Search by Celeb</t>
+  </si>
+  <si>
+    <t>2. Verify that info button is available to look into details of the first movie</t>
+  </si>
+  <si>
+    <t>4. Verify that a pop up window opens up showing minimal information for the movie</t>
+  </si>
+  <si>
+    <t>2. User is routed to movie title page</t>
+  </si>
+  <si>
+    <t>1. User selects movie' Forrest Gump' from IMDB homepage slider</t>
+  </si>
+  <si>
+    <t>5. Verify that Full Cast &amp; Crew is displayed for the movie 'Forrest Gump'</t>
+  </si>
+  <si>
+    <t>1. User selects a movie 'The Suicide Squad' on IMDb home page</t>
+  </si>
+  <si>
+    <t>1. User selects dropdown from top right corner where Username is displayed</t>
   </si>
 </sst>
 </file>
@@ -2651,6 +2657,18 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2679,9 +2697,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,9 +2712,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2737,9 +2749,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2774,9 +2783,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3022,8 +3028,8 @@
   <dimension ref="A1:T649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E310" sqref="E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3071,30 +3077,30 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="233" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="233" t="s">
+      <c r="D3" s="206" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="3"/>
@@ -3113,12 +3119,12 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="208"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="233"/>
+      <c r="A4" s="212"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="206"/>
       <c r="E4" s="74" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="3"/>
@@ -3137,12 +3143,12 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="208"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="233"/>
+      <c r="A5" s="212"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="206"/>
       <c r="E5" s="76" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="3"/>
@@ -3161,12 +3167,12 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="208"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="233"/>
+      <c r="A6" s="212"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="3"/>
@@ -3185,12 +3191,12 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="208"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="233"/>
+      <c r="A7" s="212"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="3"/>
@@ -3209,12 +3215,12 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="208"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="233"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="3"/>
@@ -3233,12 +3239,12 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="208"/>
-      <c r="B9" s="216"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="233"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="206"/>
       <c r="E9" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>59</v>
@@ -3259,10 +3265,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="208"/>
-      <c r="B10" s="216"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="212"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="206"/>
       <c r="E10" s="76"/>
       <c r="F10" s="78"/>
       <c r="G10" s="3"/>
@@ -3281,10 +3287,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" s="71" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="222"/>
-      <c r="B11" s="224"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="234"/>
+      <c r="A11" s="224"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="235"/>
       <c r="E11" s="67"/>
       <c r="F11" s="68"/>
       <c r="G11" s="69"/>
@@ -3303,20 +3309,20 @@
       <c r="T11" s="70"/>
     </row>
     <row r="12" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="223" t="s">
+      <c r="B12" s="225" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="217" t="s">
+      <c r="C12" s="220" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
@@ -3335,12 +3341,12 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="208"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="211"/>
+      <c r="A13" s="212"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="250"/>
       <c r="E13" s="79" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -3359,12 +3365,12 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="208"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="211"/>
+      <c r="A14" s="212"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="215"/>
       <c r="D14" s="251"/>
       <c r="E14" s="13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="3"/>
@@ -3383,12 +3389,12 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="208"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="211"/>
+      <c r="A15" s="212"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="215"/>
       <c r="D15" s="251"/>
       <c r="E15" s="79" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
@@ -3407,12 +3413,12 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="208"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="211"/>
+      <c r="A16" s="212"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="215"/>
       <c r="D16" s="251"/>
       <c r="E16" s="13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3431,12 +3437,12 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="208"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="211"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="215"/>
       <c r="D17" s="251"/>
       <c r="E17" s="149" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -3455,12 +3461,12 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="208"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="211"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="215"/>
       <c r="D18" s="251"/>
       <c r="E18" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>59</v>
@@ -3481,9 +3487,9 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="235"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="218"/>
+      <c r="A19" s="236"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="221"/>
       <c r="D19" s="252"/>
       <c r="E19" s="88"/>
       <c r="F19" s="86" t="s">
@@ -3505,20 +3511,20 @@
       <c r="T19" s="70"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="217" t="s">
+      <c r="C20" s="220" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3"/>
@@ -3537,14 +3543,14 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="208"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="211"/>
+      <c r="A21" s="212"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="215"/>
       <c r="D21" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -3563,14 +3569,14 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="208"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="211"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="215"/>
       <c r="D22" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
@@ -3589,12 +3595,12 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="208"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="211"/>
+      <c r="A23" s="212"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="215"/>
       <c r="D23" s="194"/>
       <c r="E23" s="85" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
@@ -3613,9 +3619,9 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="208"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="211"/>
+      <c r="A24" s="212"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="215"/>
       <c r="D24" s="195"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
@@ -3635,9 +3641,9 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="208"/>
-      <c r="B25" s="216"/>
-      <c r="C25" s="211"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="215"/>
       <c r="D25" s="195"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
@@ -3657,9 +3663,9 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="208"/>
-      <c r="B26" s="224"/>
-      <c r="C26" s="218"/>
+      <c r="A26" s="212"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="221"/>
       <c r="D26" s="249"/>
       <c r="E26" s="88"/>
       <c r="F26" s="89"/>
@@ -3679,20 +3685,20 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="221" t="s">
+      <c r="A27" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="236" t="s">
+      <c r="B27" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="239" t="s">
-        <v>258</v>
+      <c r="C27" s="240" t="s">
+        <v>250</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="4"/>
@@ -3711,14 +3717,14 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A28" s="208"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="240"/>
+      <c r="A28" s="212"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="241"/>
       <c r="D28" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -3737,14 +3743,14 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="208"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="240"/>
+      <c r="A29" s="212"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="241"/>
       <c r="D29" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -3763,9 +3769,9 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="222"/>
-      <c r="B30" s="238"/>
-      <c r="C30" s="241"/>
+      <c r="A30" s="224"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="242"/>
       <c r="D30" s="96"/>
       <c r="E30" s="91"/>
       <c r="F30" s="92"/>
@@ -3785,18 +3791,18 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="221" t="s">
+      <c r="A31" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="245" t="s">
-        <v>257</v>
+      <c r="C31" s="246" t="s">
+        <v>249</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="129" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="4"/>
@@ -3815,14 +3821,14 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="208"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="211"/>
+      <c r="A32" s="212"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="215"/>
       <c r="D32" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
@@ -3841,14 +3847,14 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="208"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="211"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="215"/>
       <c r="D33" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="4"/>
@@ -3867,13 +3873,13 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="208"/>
-      <c r="B34" s="216"/>
-      <c r="C34" s="211"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="219"/>
+      <c r="C34" s="215"/>
       <c r="D34" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="242"/>
+      <c r="E34" s="243"/>
       <c r="F34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3891,13 +3897,13 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="208"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="211"/>
+      <c r="A35" s="212"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="215"/>
       <c r="D35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="243"/>
+      <c r="E35" s="244"/>
       <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3915,11 +3921,11 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="208"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="211"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="215"/>
       <c r="D36" s="194"/>
-      <c r="E36" s="244"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3937,9 +3943,9 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="222"/>
-      <c r="B37" s="224"/>
-      <c r="C37" s="218"/>
+      <c r="A37" s="224"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="221"/>
       <c r="D37" s="196"/>
       <c r="E37" s="94"/>
       <c r="F37" s="95"/>
@@ -3959,14 +3965,14 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="221" t="s">
+      <c r="A38" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="223" t="s">
+      <c r="B38" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="217" t="s">
-        <v>256</v>
+      <c r="C38" s="220" t="s">
+        <v>248</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="17"/>
@@ -3987,12 +3993,12 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="208"/>
-      <c r="B39" s="216"/>
-      <c r="C39" s="211"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="215"/>
       <c r="D39" s="81"/>
       <c r="E39" s="13" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="4"/>
@@ -4011,14 +4017,14 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="208"/>
-      <c r="B40" s="216"/>
-      <c r="C40" s="211"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="215"/>
       <c r="D40" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="4"/>
@@ -4037,14 +4043,14 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A41" s="208"/>
-      <c r="B41" s="216"/>
-      <c r="C41" s="211"/>
+      <c r="A41" s="212"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="215"/>
       <c r="D41" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="113" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="4"/>
@@ -4063,9 +4069,9 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="208"/>
-      <c r="B42" s="216"/>
-      <c r="C42" s="211"/>
+      <c r="A42" s="212"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="215"/>
       <c r="D42" s="80" t="s">
         <v>68</v>
       </c>
@@ -4087,9 +4093,9 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="208"/>
-      <c r="B43" s="216"/>
-      <c r="C43" s="211"/>
+      <c r="A43" s="212"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="215"/>
       <c r="D43" s="81"/>
       <c r="E43" s="13"/>
       <c r="F43" s="14"/>
@@ -4109,9 +4115,9 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="222"/>
-      <c r="B44" s="224"/>
-      <c r="C44" s="218"/>
+      <c r="A44" s="224"/>
+      <c r="B44" s="226"/>
+      <c r="C44" s="221"/>
       <c r="D44" s="100"/>
       <c r="E44" s="94"/>
       <c r="F44" s="16"/>
@@ -4131,14 +4137,14 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="221" t="s">
+      <c r="A45" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="223" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="217" t="s">
-        <v>290</v>
+      <c r="B45" s="225" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" s="220" t="s">
+        <v>282</v>
       </c>
       <c r="D45" s="114"/>
       <c r="E45" s="17"/>
@@ -4159,14 +4165,14 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="208"/>
-      <c r="B46" s="216"/>
-      <c r="C46" s="211"/>
+      <c r="A46" s="212"/>
+      <c r="B46" s="219"/>
+      <c r="C46" s="215"/>
       <c r="D46" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="4"/>
@@ -4185,14 +4191,14 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="208"/>
-      <c r="B47" s="216"/>
-      <c r="C47" s="211"/>
+      <c r="A47" s="212"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="215"/>
       <c r="D47" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="4"/>
@@ -4211,14 +4217,14 @@
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="208"/>
-      <c r="B48" s="216"/>
-      <c r="C48" s="211"/>
+      <c r="A48" s="212"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="215"/>
       <c r="D48" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="4"/>
@@ -4237,9 +4243,9 @@
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="208"/>
-      <c r="B49" s="216"/>
-      <c r="C49" s="211"/>
+      <c r="A49" s="212"/>
+      <c r="B49" s="219"/>
+      <c r="C49" s="215"/>
       <c r="D49" s="81"/>
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
@@ -4259,9 +4265,9 @@
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="222"/>
-      <c r="B50" s="224"/>
-      <c r="C50" s="218"/>
+      <c r="A50" s="224"/>
+      <c r="B50" s="226"/>
+      <c r="C50" s="221"/>
       <c r="D50" s="100"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
@@ -4281,14 +4287,14 @@
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="221" t="s">
+      <c r="A51" s="223" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="223" t="s">
+      <c r="B51" s="225" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="217" t="s">
-        <v>255</v>
+      <c r="C51" s="220" t="s">
+        <v>247</v>
       </c>
       <c r="D51" s="114"/>
       <c r="E51" s="17"/>
@@ -4309,12 +4315,12 @@
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="208"/>
-      <c r="B52" s="216"/>
-      <c r="C52" s="211"/>
+      <c r="A52" s="212"/>
+      <c r="B52" s="219"/>
+      <c r="C52" s="215"/>
       <c r="D52" s="81"/>
       <c r="E52" s="13" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
@@ -4333,14 +4339,14 @@
       <c r="T52" s="4"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="208"/>
-      <c r="B53" s="216"/>
-      <c r="C53" s="211"/>
+      <c r="A53" s="212"/>
+      <c r="B53" s="219"/>
+      <c r="C53" s="215"/>
       <c r="D53" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="4"/>
@@ -4359,14 +4365,14 @@
       <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="208"/>
-      <c r="B54" s="216"/>
-      <c r="C54" s="211"/>
+      <c r="A54" s="212"/>
+      <c r="B54" s="219"/>
+      <c r="C54" s="215"/>
       <c r="D54" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="4"/>
@@ -4385,14 +4391,14 @@
       <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="208"/>
-      <c r="B55" s="216"/>
-      <c r="C55" s="211"/>
+      <c r="A55" s="212"/>
+      <c r="B55" s="219"/>
+      <c r="C55" s="215"/>
       <c r="D55" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="4"/>
@@ -4411,11 +4417,11 @@
       <c r="T55" s="4"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="208"/>
-      <c r="B56" s="216"/>
-      <c r="C56" s="211"/>
+      <c r="A56" s="212"/>
+      <c r="B56" s="219"/>
+      <c r="C56" s="215"/>
       <c r="D56" s="81" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="14"/>
@@ -4435,11 +4441,11 @@
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="208"/>
-      <c r="B57" s="216"/>
-      <c r="C57" s="211"/>
+      <c r="A57" s="212"/>
+      <c r="B57" s="219"/>
+      <c r="C57" s="215"/>
       <c r="D57" s="194"/>
-      <c r="E57" s="242"/>
+      <c r="E57" s="243"/>
       <c r="F57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4457,11 +4463,11 @@
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="208"/>
-      <c r="B58" s="216"/>
-      <c r="C58" s="211"/>
+      <c r="A58" s="212"/>
+      <c r="B58" s="219"/>
+      <c r="C58" s="215"/>
       <c r="D58" s="195"/>
-      <c r="E58" s="243"/>
+      <c r="E58" s="244"/>
       <c r="F58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4479,11 +4485,11 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="208"/>
-      <c r="B59" s="216"/>
-      <c r="C59" s="211"/>
+      <c r="A59" s="212"/>
+      <c r="B59" s="219"/>
+      <c r="C59" s="215"/>
       <c r="D59" s="198"/>
-      <c r="E59" s="244"/>
+      <c r="E59" s="245"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4501,9 +4507,9 @@
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="222"/>
-      <c r="B60" s="224"/>
-      <c r="C60" s="218"/>
+      <c r="A60" s="224"/>
+      <c r="B60" s="226"/>
+      <c r="C60" s="221"/>
       <c r="D60" s="101"/>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
@@ -4523,14 +4529,14 @@
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="221" t="s">
+      <c r="A61" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="223" t="s">
+      <c r="B61" s="225" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="217" t="s">
-        <v>259</v>
+      <c r="C61" s="220" t="s">
+        <v>251</v>
       </c>
       <c r="D61" s="82"/>
       <c r="E61" s="17"/>
@@ -4551,9 +4557,9 @@
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="208"/>
-      <c r="B62" s="216"/>
-      <c r="C62" s="211"/>
+      <c r="A62" s="212"/>
+      <c r="B62" s="219"/>
+      <c r="C62" s="215"/>
       <c r="D62" s="82" t="s">
         <v>66</v>
       </c>
@@ -4577,14 +4583,14 @@
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="132" x14ac:dyDescent="0.3">
-      <c r="A63" s="208"/>
-      <c r="B63" s="216"/>
-      <c r="C63" s="211"/>
+      <c r="A63" s="212"/>
+      <c r="B63" s="219"/>
+      <c r="C63" s="215"/>
       <c r="D63" s="81" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E63" s="113" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="4"/>
@@ -4603,11 +4609,11 @@
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="208"/>
-      <c r="B64" s="216"/>
-      <c r="C64" s="211"/>
+      <c r="A64" s="212"/>
+      <c r="B64" s="219"/>
+      <c r="C64" s="215"/>
       <c r="D64" s="80" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -4627,9 +4633,9 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="208"/>
-      <c r="B65" s="216"/>
-      <c r="C65" s="211"/>
+      <c r="A65" s="212"/>
+      <c r="B65" s="219"/>
+      <c r="C65" s="215"/>
       <c r="D65" s="194"/>
       <c r="E65" s="13"/>
       <c r="F65" s="14"/>
@@ -4649,9 +4655,9 @@
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="208"/>
-      <c r="B66" s="216"/>
-      <c r="C66" s="211"/>
+      <c r="A66" s="212"/>
+      <c r="B66" s="219"/>
+      <c r="C66" s="215"/>
       <c r="D66" s="195"/>
       <c r="E66" s="13"/>
       <c r="F66" s="14"/>
@@ -4671,9 +4677,9 @@
       <c r="T66" s="4"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="208"/>
-      <c r="B67" s="216"/>
-      <c r="C67" s="211"/>
+      <c r="A67" s="212"/>
+      <c r="B67" s="219"/>
+      <c r="C67" s="215"/>
       <c r="D67" s="198"/>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
@@ -4693,9 +4699,9 @@
       <c r="T67" s="4"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="208"/>
-      <c r="B68" s="216"/>
-      <c r="C68" s="211"/>
+      <c r="A68" s="212"/>
+      <c r="B68" s="219"/>
+      <c r="C68" s="215"/>
       <c r="D68" s="82"/>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
@@ -4715,9 +4721,9 @@
       <c r="T68" s="4"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="208"/>
-      <c r="B69" s="216"/>
-      <c r="C69" s="211"/>
+      <c r="A69" s="212"/>
+      <c r="B69" s="219"/>
+      <c r="C69" s="215"/>
       <c r="D69" s="81"/>
       <c r="E69" s="13"/>
       <c r="F69" s="14"/>
@@ -4737,9 +4743,9 @@
       <c r="T69" s="4"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="208"/>
-      <c r="B70" s="216"/>
-      <c r="C70" s="211"/>
+      <c r="A70" s="212"/>
+      <c r="B70" s="219"/>
+      <c r="C70" s="215"/>
       <c r="D70" s="80"/>
       <c r="E70" s="13"/>
       <c r="F70" s="14"/>
@@ -4759,9 +4765,9 @@
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="208"/>
-      <c r="B71" s="216"/>
-      <c r="C71" s="211"/>
+      <c r="A71" s="212"/>
+      <c r="B71" s="219"/>
+      <c r="C71" s="215"/>
       <c r="D71" s="81"/>
       <c r="E71" s="13"/>
       <c r="F71" s="14"/>
@@ -4781,9 +4787,9 @@
       <c r="T71" s="4"/>
     </row>
     <row r="72" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="222"/>
-      <c r="B72" s="224"/>
-      <c r="C72" s="218"/>
+      <c r="A72" s="224"/>
+      <c r="B72" s="226"/>
+      <c r="C72" s="221"/>
       <c r="D72" s="102"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -4803,14 +4809,14 @@
       <c r="T72" s="4"/>
     </row>
     <row r="73" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="221" t="s">
+      <c r="A73" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="223" t="s">
+      <c r="B73" s="225" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="217" t="s">
-        <v>260</v>
+      <c r="C73" s="220" t="s">
+        <v>252</v>
       </c>
       <c r="D73" s="114"/>
       <c r="E73" s="17"/>
@@ -4831,9 +4837,9 @@
       <c r="T73" s="4"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="208"/>
-      <c r="B74" s="216"/>
-      <c r="C74" s="211"/>
+      <c r="A74" s="212"/>
+      <c r="B74" s="219"/>
+      <c r="C74" s="215"/>
       <c r="D74" s="82" t="s">
         <v>66</v>
       </c>
@@ -4857,11 +4863,11 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="208"/>
-      <c r="B75" s="216"/>
-      <c r="C75" s="211"/>
+      <c r="A75" s="212"/>
+      <c r="B75" s="219"/>
+      <c r="C75" s="215"/>
       <c r="D75" s="81" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>79</v>
@@ -4883,11 +4889,11 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="208"/>
-      <c r="B76" s="216"/>
-      <c r="C76" s="211"/>
+      <c r="A76" s="212"/>
+      <c r="B76" s="219"/>
+      <c r="C76" s="215"/>
       <c r="D76" s="80" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>80</v>
@@ -4909,9 +4915,9 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="208"/>
-      <c r="B77" s="216"/>
-      <c r="C77" s="211"/>
+      <c r="A77" s="212"/>
+      <c r="B77" s="219"/>
+      <c r="C77" s="215"/>
       <c r="D77" s="81"/>
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
@@ -4931,9 +4937,9 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="208"/>
-      <c r="B78" s="216"/>
-      <c r="C78" s="211"/>
+      <c r="A78" s="212"/>
+      <c r="B78" s="219"/>
+      <c r="C78" s="215"/>
       <c r="D78" s="194"/>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
@@ -4953,9 +4959,9 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="208"/>
-      <c r="B79" s="216"/>
-      <c r="C79" s="211"/>
+      <c r="A79" s="212"/>
+      <c r="B79" s="219"/>
+      <c r="C79" s="215"/>
       <c r="D79" s="195"/>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
@@ -4975,9 +4981,9 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="208"/>
-      <c r="B80" s="216"/>
-      <c r="C80" s="211"/>
+      <c r="A80" s="212"/>
+      <c r="B80" s="219"/>
+      <c r="C80" s="215"/>
       <c r="D80" s="195"/>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
@@ -4997,9 +5003,9 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="208"/>
-      <c r="B81" s="216"/>
-      <c r="C81" s="211"/>
+      <c r="A81" s="212"/>
+      <c r="B81" s="219"/>
+      <c r="C81" s="215"/>
       <c r="D81" s="195"/>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
@@ -5019,9 +5025,9 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="208"/>
-      <c r="B82" s="216"/>
-      <c r="C82" s="211"/>
+      <c r="A82" s="212"/>
+      <c r="B82" s="219"/>
+      <c r="C82" s="215"/>
       <c r="D82" s="198"/>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
@@ -5041,9 +5047,9 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="208"/>
-      <c r="B83" s="216"/>
-      <c r="C83" s="211"/>
+      <c r="A83" s="212"/>
+      <c r="B83" s="219"/>
+      <c r="C83" s="215"/>
       <c r="D83" s="81"/>
       <c r="E83" s="13"/>
       <c r="F83" s="14"/>
@@ -5063,9 +5069,9 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="222"/>
-      <c r="B84" s="224"/>
-      <c r="C84" s="218"/>
+      <c r="A84" s="224"/>
+      <c r="B84" s="226"/>
+      <c r="C84" s="221"/>
       <c r="D84" s="100"/>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
@@ -5085,14 +5091,14 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="221" t="s">
+      <c r="A85" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="223" t="s">
+      <c r="B85" s="225" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="217" t="s">
-        <v>261</v>
+      <c r="C85" s="220" t="s">
+        <v>253</v>
       </c>
       <c r="D85" s="82"/>
       <c r="E85" s="17"/>
@@ -5113,9 +5119,9 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="208"/>
-      <c r="B86" s="216"/>
-      <c r="C86" s="211"/>
+      <c r="A86" s="212"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="215"/>
       <c r="D86" s="82" t="s">
         <v>66</v>
       </c>
@@ -5139,11 +5145,11 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="208"/>
-      <c r="B87" s="216"/>
-      <c r="C87" s="211"/>
+      <c r="A87" s="212"/>
+      <c r="B87" s="219"/>
+      <c r="C87" s="215"/>
       <c r="D87" s="81" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>79</v>
@@ -5165,11 +5171,11 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="208"/>
-      <c r="B88" s="216"/>
-      <c r="C88" s="211"/>
+      <c r="A88" s="212"/>
+      <c r="B88" s="219"/>
+      <c r="C88" s="215"/>
       <c r="D88" s="80" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>82</v>
@@ -5191,9 +5197,9 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="208"/>
-      <c r="B89" s="216"/>
-      <c r="C89" s="211"/>
+      <c r="A89" s="212"/>
+      <c r="B89" s="219"/>
+      <c r="C89" s="215"/>
       <c r="D89" s="81"/>
       <c r="E89" s="13" t="s">
         <v>83</v>
@@ -5215,9 +5221,9 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="208"/>
-      <c r="B90" s="216"/>
-      <c r="C90" s="211"/>
+      <c r="A90" s="212"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="215"/>
       <c r="D90" s="105"/>
       <c r="E90" s="63"/>
       <c r="F90" s="14"/>
@@ -5237,9 +5243,9 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="208"/>
-      <c r="B91" s="216"/>
-      <c r="C91" s="211"/>
+      <c r="A91" s="212"/>
+      <c r="B91" s="219"/>
+      <c r="C91" s="215"/>
       <c r="D91" s="106"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
@@ -5259,9 +5265,9 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="222"/>
-      <c r="B92" s="224"/>
-      <c r="C92" s="218"/>
+      <c r="A92" s="224"/>
+      <c r="B92" s="226"/>
+      <c r="C92" s="221"/>
       <c r="D92" s="107"/>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -5281,14 +5287,14 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="221" t="s">
+      <c r="A93" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="223" t="s">
+      <c r="B93" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="217" t="s">
-        <v>349</v>
+      <c r="C93" s="220" t="s">
+        <v>339</v>
       </c>
       <c r="D93" s="114"/>
       <c r="E93" s="20"/>
@@ -5309,9 +5315,9 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="208"/>
-      <c r="B94" s="216"/>
-      <c r="C94" s="211"/>
+      <c r="A94" s="212"/>
+      <c r="B94" s="219"/>
+      <c r="C94" s="215"/>
       <c r="D94" s="82" t="s">
         <v>66</v>
       </c>
@@ -5335,11 +5341,11 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="208"/>
-      <c r="B95" s="216"/>
-      <c r="C95" s="211"/>
+      <c r="A95" s="212"/>
+      <c r="B95" s="219"/>
+      <c r="C95" s="215"/>
       <c r="D95" s="81" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>79</v>
@@ -5361,14 +5367,14 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="208"/>
-      <c r="B96" s="216"/>
-      <c r="C96" s="211"/>
+      <c r="A96" s="212"/>
+      <c r="B96" s="219"/>
+      <c r="C96" s="215"/>
       <c r="D96" s="80" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="4"/>
@@ -5387,9 +5393,9 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="208"/>
-      <c r="B97" s="216"/>
-      <c r="C97" s="211"/>
+      <c r="A97" s="212"/>
+      <c r="B97" s="219"/>
+      <c r="C97" s="215"/>
       <c r="D97" s="105"/>
       <c r="E97" s="13" t="s">
         <v>83</v>
@@ -5411,9 +5417,9 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="208"/>
-      <c r="B98" s="216"/>
-      <c r="C98" s="211"/>
+      <c r="A98" s="212"/>
+      <c r="B98" s="219"/>
+      <c r="C98" s="215"/>
       <c r="D98" s="104"/>
       <c r="E98" s="22"/>
       <c r="F98" s="23"/>
@@ -5433,9 +5439,9 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="208"/>
-      <c r="B99" s="216"/>
-      <c r="C99" s="211"/>
+      <c r="A99" s="212"/>
+      <c r="B99" s="219"/>
+      <c r="C99" s="215"/>
       <c r="D99" s="99"/>
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
@@ -5455,9 +5461,9 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="222"/>
-      <c r="B100" s="224"/>
-      <c r="C100" s="218"/>
+      <c r="A100" s="224"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="221"/>
       <c r="D100" s="108"/>
       <c r="E100" s="24"/>
       <c r="F100" s="25"/>
@@ -5477,14 +5483,14 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="221" t="s">
+      <c r="A101" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="223" t="s">
+      <c r="B101" s="225" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="217" t="s">
-        <v>348</v>
+      <c r="C101" s="220" t="s">
+        <v>338</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="17"/>
@@ -5505,9 +5511,9 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="208"/>
-      <c r="B102" s="216"/>
-      <c r="C102" s="211"/>
+      <c r="A102" s="212"/>
+      <c r="B102" s="219"/>
+      <c r="C102" s="215"/>
       <c r="D102" s="81"/>
       <c r="E102" s="13" t="s">
         <v>94</v>
@@ -5529,9 +5535,9 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="208"/>
-      <c r="B103" s="216"/>
-      <c r="C103" s="211"/>
+      <c r="A103" s="212"/>
+      <c r="B103" s="219"/>
+      <c r="C103" s="215"/>
       <c r="D103" s="82" t="s">
         <v>66</v>
       </c>
@@ -5555,14 +5561,14 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="208"/>
-      <c r="B104" s="216"/>
-      <c r="C104" s="211"/>
+      <c r="A104" s="212"/>
+      <c r="B104" s="219"/>
+      <c r="C104" s="215"/>
       <c r="D104" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="4"/>
@@ -5581,17 +5587,17 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="208"/>
-      <c r="B105" s="216"/>
-      <c r="C105" s="211"/>
+      <c r="A105" s="212"/>
+      <c r="B105" s="219"/>
+      <c r="C105" s="215"/>
       <c r="D105" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5609,9 +5615,9 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="208"/>
-      <c r="B106" s="216"/>
-      <c r="C106" s="211"/>
+      <c r="A106" s="212"/>
+      <c r="B106" s="219"/>
+      <c r="C106" s="215"/>
       <c r="D106" s="82"/>
       <c r="E106" s="13"/>
       <c r="F106" s="14"/>
@@ -5631,9 +5637,9 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="208"/>
-      <c r="B107" s="216"/>
-      <c r="C107" s="211"/>
+      <c r="A107" s="212"/>
+      <c r="B107" s="219"/>
+      <c r="C107" s="215"/>
       <c r="D107" s="81"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
@@ -5653,9 +5659,9 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="208"/>
-      <c r="B108" s="216"/>
-      <c r="C108" s="211"/>
+      <c r="A108" s="212"/>
+      <c r="B108" s="219"/>
+      <c r="C108" s="215"/>
       <c r="D108" s="80"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
@@ -5675,9 +5681,9 @@
       <c r="T108" s="4"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="208"/>
-      <c r="B109" s="216"/>
-      <c r="C109" s="211"/>
+      <c r="A109" s="212"/>
+      <c r="B109" s="219"/>
+      <c r="C109" s="215"/>
       <c r="D109" s="105"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
@@ -5697,9 +5703,9 @@
       <c r="T109" s="4"/>
     </row>
     <row r="110" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="222"/>
-      <c r="B110" s="224"/>
-      <c r="C110" s="218"/>
+      <c r="A110" s="224"/>
+      <c r="B110" s="226"/>
+      <c r="C110" s="221"/>
       <c r="D110" s="109"/>
       <c r="E110" s="15"/>
       <c r="F110" s="16"/>
@@ -5719,14 +5725,14 @@
       <c r="T110" s="4"/>
     </row>
     <row r="111" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="221" t="s">
+      <c r="A111" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="223" t="s">
+      <c r="B111" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="217" t="s">
-        <v>347</v>
+      <c r="C111" s="220" t="s">
+        <v>337</v>
       </c>
       <c r="D111" s="82"/>
       <c r="E111" s="17"/>
@@ -5747,9 +5753,9 @@
       <c r="T111" s="4"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="208"/>
-      <c r="B112" s="216"/>
-      <c r="C112" s="211"/>
+      <c r="A112" s="212"/>
+      <c r="B112" s="219"/>
+      <c r="C112" s="215"/>
       <c r="D112" s="81"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
@@ -5769,9 +5775,9 @@
       <c r="T112" s="4"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="208"/>
-      <c r="B113" s="216"/>
-      <c r="C113" s="211"/>
+      <c r="A113" s="212"/>
+      <c r="B113" s="219"/>
+      <c r="C113" s="215"/>
       <c r="D113" s="82" t="s">
         <v>66</v>
       </c>
@@ -5795,9 +5801,9 @@
       <c r="T113" s="4"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="208"/>
-      <c r="B114" s="216"/>
-      <c r="C114" s="211"/>
+      <c r="A114" s="212"/>
+      <c r="B114" s="219"/>
+      <c r="C114" s="215"/>
       <c r="D114" s="81" t="s">
         <v>67</v>
       </c>
@@ -5821,14 +5827,14 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="208"/>
-      <c r="B115" s="216"/>
-      <c r="C115" s="211"/>
+      <c r="A115" s="212"/>
+      <c r="B115" s="219"/>
+      <c r="C115" s="215"/>
       <c r="D115" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="4"/>
@@ -5847,15 +5853,15 @@
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="208"/>
-      <c r="B116" s="216"/>
-      <c r="C116" s="211"/>
+      <c r="A116" s="212"/>
+      <c r="B116" s="219"/>
+      <c r="C116" s="215"/>
       <c r="D116" s="81"/>
       <c r="E116" s="13" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F116" s="162" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5873,9 +5879,9 @@
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="208"/>
-      <c r="B117" s="216"/>
-      <c r="C117" s="211"/>
+      <c r="A117" s="212"/>
+      <c r="B117" s="219"/>
+      <c r="C117" s="215"/>
       <c r="D117" s="80"/>
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
@@ -5895,9 +5901,9 @@
       <c r="T117" s="4"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="208"/>
-      <c r="B118" s="216"/>
-      <c r="C118" s="211"/>
+      <c r="A118" s="212"/>
+      <c r="B118" s="219"/>
+      <c r="C118" s="215"/>
       <c r="D118" s="82"/>
       <c r="E118" s="13"/>
       <c r="F118" s="14"/>
@@ -5917,9 +5923,9 @@
       <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="208"/>
-      <c r="B119" s="216"/>
-      <c r="C119" s="211"/>
+      <c r="A119" s="212"/>
+      <c r="B119" s="219"/>
+      <c r="C119" s="215"/>
       <c r="D119" s="82"/>
       <c r="E119" s="13"/>
       <c r="F119" s="14"/>
@@ -5939,9 +5945,9 @@
       <c r="T119" s="4"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="208"/>
-      <c r="B120" s="216"/>
-      <c r="C120" s="211"/>
+      <c r="A120" s="212"/>
+      <c r="B120" s="219"/>
+      <c r="C120" s="215"/>
       <c r="D120" s="103"/>
       <c r="E120" s="13"/>
       <c r="F120" s="14"/>
@@ -5961,9 +5967,9 @@
       <c r="T120" s="4"/>
     </row>
     <row r="121" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="222"/>
-      <c r="B121" s="224"/>
-      <c r="C121" s="218"/>
+      <c r="A121" s="224"/>
+      <c r="B121" s="226"/>
+      <c r="C121" s="221"/>
       <c r="D121" s="107"/>
       <c r="E121" s="15"/>
       <c r="F121" s="16"/>
@@ -5983,13 +5989,13 @@
       <c r="T121" s="4"/>
     </row>
     <row r="122" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="221" t="s">
+      <c r="A122" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="223" t="s">
+      <c r="B122" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="C122" s="217" t="s">
+      <c r="C122" s="220" t="s">
         <v>93</v>
       </c>
       <c r="D122" s="82"/>
@@ -6011,9 +6017,9 @@
       <c r="T122" s="4"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="208"/>
-      <c r="B123" s="216"/>
-      <c r="C123" s="211"/>
+      <c r="A123" s="212"/>
+      <c r="B123" s="219"/>
+      <c r="C123" s="215"/>
       <c r="D123" s="81"/>
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
@@ -6033,9 +6039,9 @@
       <c r="T123" s="4"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="208"/>
-      <c r="B124" s="216"/>
-      <c r="C124" s="211"/>
+      <c r="A124" s="212"/>
+      <c r="B124" s="219"/>
+      <c r="C124" s="215"/>
       <c r="D124" s="82" t="s">
         <v>66</v>
       </c>
@@ -6059,9 +6065,9 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="208"/>
-      <c r="B125" s="216"/>
-      <c r="C125" s="211"/>
+      <c r="A125" s="212"/>
+      <c r="B125" s="219"/>
+      <c r="C125" s="215"/>
       <c r="D125" s="81" t="s">
         <v>67</v>
       </c>
@@ -6085,14 +6091,14 @@
       <c r="T125" s="4"/>
     </row>
     <row r="126" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="208"/>
-      <c r="B126" s="216"/>
-      <c r="C126" s="211"/>
+      <c r="A126" s="212"/>
+      <c r="B126" s="219"/>
+      <c r="C126" s="215"/>
       <c r="D126" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="4"/>
@@ -6111,12 +6117,12 @@
       <c r="T126" s="4"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127" s="208"/>
-      <c r="B127" s="216"/>
-      <c r="C127" s="211"/>
+      <c r="A127" s="212"/>
+      <c r="B127" s="219"/>
+      <c r="C127" s="215"/>
       <c r="D127" s="82"/>
       <c r="E127" s="13" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="4"/>
@@ -6135,15 +6141,15 @@
       <c r="T127" s="4"/>
     </row>
     <row r="128" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A128" s="208"/>
-      <c r="B128" s="216"/>
-      <c r="C128" s="211"/>
+      <c r="A128" s="212"/>
+      <c r="B128" s="219"/>
+      <c r="C128" s="215"/>
       <c r="D128" s="82"/>
       <c r="E128" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F128" s="162" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -6161,9 +6167,9 @@
       <c r="T128" s="4"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="208"/>
-      <c r="B129" s="216"/>
-      <c r="C129" s="211"/>
+      <c r="A129" s="212"/>
+      <c r="B129" s="219"/>
+      <c r="C129" s="215"/>
       <c r="D129" s="82"/>
       <c r="E129" s="13"/>
       <c r="F129" s="14"/>
@@ -6183,9 +6189,9 @@
       <c r="T129" s="4"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="208"/>
-      <c r="B130" s="216"/>
-      <c r="C130" s="211"/>
+      <c r="A130" s="212"/>
+      <c r="B130" s="219"/>
+      <c r="C130" s="215"/>
       <c r="D130" s="82"/>
       <c r="E130" s="13"/>
       <c r="F130" s="14"/>
@@ -6205,9 +6211,9 @@
       <c r="T130" s="4"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="208"/>
-      <c r="B131" s="216"/>
-      <c r="C131" s="211"/>
+      <c r="A131" s="212"/>
+      <c r="B131" s="219"/>
+      <c r="C131" s="215"/>
       <c r="D131" s="81"/>
       <c r="E131" s="13"/>
       <c r="F131" s="14"/>
@@ -6227,9 +6233,9 @@
       <c r="T131" s="4"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="208"/>
-      <c r="B132" s="216"/>
-      <c r="C132" s="211"/>
+      <c r="A132" s="212"/>
+      <c r="B132" s="219"/>
+      <c r="C132" s="215"/>
       <c r="D132" s="80"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
@@ -6249,9 +6255,9 @@
       <c r="T132" s="4"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133" s="208"/>
-      <c r="B133" s="216"/>
-      <c r="C133" s="211"/>
+      <c r="A133" s="212"/>
+      <c r="B133" s="219"/>
+      <c r="C133" s="215"/>
       <c r="D133" s="103"/>
       <c r="E133" s="13"/>
       <c r="F133" s="14"/>
@@ -6271,9 +6277,9 @@
       <c r="T133" s="4"/>
     </row>
     <row r="134" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="222"/>
-      <c r="B134" s="224"/>
-      <c r="C134" s="218"/>
+      <c r="A134" s="224"/>
+      <c r="B134" s="226"/>
+      <c r="C134" s="221"/>
       <c r="D134" s="107"/>
       <c r="E134" s="15"/>
       <c r="F134" s="16"/>
@@ -6293,13 +6299,13 @@
       <c r="T134" s="4"/>
     </row>
     <row r="135" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="221" t="s">
+      <c r="A135" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="223" t="s">
+      <c r="B135" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="C135" s="217" t="s">
+      <c r="C135" s="220" t="s">
         <v>92</v>
       </c>
       <c r="D135" s="114"/>
@@ -6321,9 +6327,9 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="208"/>
-      <c r="B136" s="216"/>
-      <c r="C136" s="211"/>
+      <c r="A136" s="212"/>
+      <c r="B136" s="219"/>
+      <c r="C136" s="215"/>
       <c r="D136" s="81"/>
       <c r="E136" s="13"/>
       <c r="F136" s="14"/>
@@ -6343,9 +6349,9 @@
       <c r="T136" s="4"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="208"/>
-      <c r="B137" s="216"/>
-      <c r="C137" s="211"/>
+      <c r="A137" s="212"/>
+      <c r="B137" s="219"/>
+      <c r="C137" s="215"/>
       <c r="D137" s="82"/>
       <c r="E137" s="13" t="s">
         <v>94</v>
@@ -6367,9 +6373,9 @@
       <c r="T137" s="4"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="208"/>
-      <c r="B138" s="216"/>
-      <c r="C138" s="211"/>
+      <c r="A138" s="212"/>
+      <c r="B138" s="219"/>
+      <c r="C138" s="215"/>
       <c r="D138" s="81"/>
       <c r="E138" s="13" t="s">
         <v>79</v>
@@ -6391,11 +6397,11 @@
       <c r="T138" s="4"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="208"/>
-      <c r="B139" s="216"/>
-      <c r="C139" s="211"/>
+      <c r="A139" s="212"/>
+      <c r="B139" s="219"/>
+      <c r="C139" s="215"/>
       <c r="D139" s="80" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>91</v>
@@ -6417,9 +6423,9 @@
       <c r="T139" s="4"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="208"/>
-      <c r="B140" s="216"/>
-      <c r="C140" s="211"/>
+      <c r="A140" s="212"/>
+      <c r="B140" s="219"/>
+      <c r="C140" s="215"/>
       <c r="D140" s="82"/>
       <c r="E140" s="13" t="s">
         <v>90</v>
@@ -6441,15 +6447,15 @@
       <c r="T140" s="4"/>
     </row>
     <row r="141" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A141" s="208"/>
-      <c r="B141" s="216"/>
-      <c r="C141" s="211"/>
+      <c r="A141" s="212"/>
+      <c r="B141" s="219"/>
+      <c r="C141" s="215"/>
       <c r="D141" s="81"/>
       <c r="E141" s="13" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F141" s="162" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -6467,9 +6473,9 @@
       <c r="T141" s="4"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="208"/>
-      <c r="B142" s="216"/>
-      <c r="C142" s="211"/>
+      <c r="A142" s="212"/>
+      <c r="B142" s="219"/>
+      <c r="C142" s="215"/>
       <c r="D142" s="80"/>
       <c r="E142" s="13"/>
       <c r="F142" s="14"/>
@@ -6489,9 +6495,9 @@
       <c r="T142" s="4"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="208"/>
-      <c r="B143" s="216"/>
-      <c r="C143" s="211"/>
+      <c r="A143" s="212"/>
+      <c r="B143" s="219"/>
+      <c r="C143" s="215"/>
       <c r="D143" s="82"/>
       <c r="E143" s="13"/>
       <c r="F143" s="14"/>
@@ -6511,9 +6517,9 @@
       <c r="T143" s="4"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="208"/>
-      <c r="B144" s="216"/>
-      <c r="C144" s="211"/>
+      <c r="A144" s="212"/>
+      <c r="B144" s="219"/>
+      <c r="C144" s="215"/>
       <c r="D144" s="82"/>
       <c r="E144" s="13"/>
       <c r="F144" s="14"/>
@@ -6533,9 +6539,9 @@
       <c r="T144" s="4"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="208"/>
-      <c r="B145" s="216"/>
-      <c r="C145" s="211"/>
+      <c r="A145" s="212"/>
+      <c r="B145" s="219"/>
+      <c r="C145" s="215"/>
       <c r="D145" s="110"/>
       <c r="E145" s="13"/>
       <c r="F145" s="14"/>
@@ -6555,9 +6561,9 @@
       <c r="T145" s="4"/>
     </row>
     <row r="146" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="222"/>
-      <c r="B146" s="224"/>
-      <c r="C146" s="218"/>
+      <c r="A146" s="224"/>
+      <c r="B146" s="226"/>
+      <c r="C146" s="221"/>
       <c r="D146" s="109"/>
       <c r="E146" s="15"/>
       <c r="F146" s="16"/>
@@ -6577,14 +6583,14 @@
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="221" t="s">
+      <c r="A147" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="223" t="s">
-        <v>334</v>
-      </c>
-      <c r="C147" s="217" t="s">
-        <v>335</v>
+      <c r="B147" s="225" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" s="220" t="s">
+        <v>327</v>
       </c>
       <c r="D147" s="192"/>
       <c r="E147" s="17"/>
@@ -6605,9 +6611,9 @@
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="208"/>
-      <c r="B148" s="216"/>
-      <c r="C148" s="211"/>
+      <c r="A148" s="212"/>
+      <c r="B148" s="219"/>
+      <c r="C148" s="215"/>
       <c r="D148" s="193"/>
       <c r="E148" s="13"/>
       <c r="F148" s="14"/>
@@ -6627,9 +6633,9 @@
       <c r="T148" s="4"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="208"/>
-      <c r="B149" s="216"/>
-      <c r="C149" s="211"/>
+      <c r="A149" s="212"/>
+      <c r="B149" s="219"/>
+      <c r="C149" s="215"/>
       <c r="D149" s="80"/>
       <c r="E149" s="13" t="s">
         <v>94</v>
@@ -6651,9 +6657,9 @@
       <c r="T149" s="4"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="208"/>
-      <c r="B150" s="216"/>
-      <c r="C150" s="211"/>
+      <c r="A150" s="212"/>
+      <c r="B150" s="219"/>
+      <c r="C150" s="215"/>
       <c r="D150" s="82"/>
       <c r="E150" s="13" t="s">
         <v>79</v>
@@ -6675,9 +6681,9 @@
       <c r="T150" s="4"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="208"/>
-      <c r="B151" s="216"/>
-      <c r="C151" s="211"/>
+      <c r="A151" s="212"/>
+      <c r="B151" s="219"/>
+      <c r="C151" s="215"/>
       <c r="D151" s="81"/>
       <c r="E151" s="13" t="s">
         <v>95</v>
@@ -6699,11 +6705,11 @@
       <c r="T151" s="4"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="208"/>
-      <c r="B152" s="216"/>
-      <c r="C152" s="211"/>
+      <c r="A152" s="212"/>
+      <c r="B152" s="219"/>
+      <c r="C152" s="215"/>
       <c r="D152" s="80" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="14"/>
@@ -6723,9 +6729,9 @@
       <c r="T152" s="4"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="208"/>
-      <c r="B153" s="216"/>
-      <c r="C153" s="211"/>
+      <c r="A153" s="212"/>
+      <c r="B153" s="219"/>
+      <c r="C153" s="215"/>
       <c r="D153" s="82"/>
       <c r="E153" s="13"/>
       <c r="F153" s="14"/>
@@ -6745,9 +6751,9 @@
       <c r="T153" s="4"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="208"/>
-      <c r="B154" s="216"/>
-      <c r="C154" s="211"/>
+      <c r="A154" s="212"/>
+      <c r="B154" s="219"/>
+      <c r="C154" s="215"/>
       <c r="D154" s="80"/>
       <c r="E154" s="13"/>
       <c r="F154" s="14"/>
@@ -6767,9 +6773,9 @@
       <c r="T154" s="4"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="208"/>
-      <c r="B155" s="216"/>
-      <c r="C155" s="211"/>
+      <c r="A155" s="212"/>
+      <c r="B155" s="219"/>
+      <c r="C155" s="215"/>
       <c r="D155" s="82"/>
       <c r="E155" s="13"/>
       <c r="F155" s="14"/>
@@ -6789,9 +6795,9 @@
       <c r="T155" s="4"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="208"/>
-      <c r="B156" s="216"/>
-      <c r="C156" s="211"/>
+      <c r="A156" s="212"/>
+      <c r="B156" s="219"/>
+      <c r="C156" s="215"/>
       <c r="D156" s="103"/>
       <c r="E156" s="13"/>
       <c r="F156" s="14"/>
@@ -6811,9 +6817,9 @@
       <c r="T156" s="4"/>
     </row>
     <row r="157" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="222"/>
-      <c r="B157" s="224"/>
-      <c r="C157" s="218"/>
+      <c r="A157" s="224"/>
+      <c r="B157" s="226"/>
+      <c r="C157" s="221"/>
       <c r="D157" s="108"/>
       <c r="E157" s="15"/>
       <c r="F157" s="16"/>
@@ -6833,14 +6839,14 @@
       <c r="T157" s="4"/>
     </row>
     <row r="158" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="221" t="s">
+      <c r="A158" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="B158" s="223" t="s">
+      <c r="B158" s="225" t="s">
         <v>96</v>
       </c>
-      <c r="C158" s="217" t="s">
-        <v>336</v>
+      <c r="C158" s="220" t="s">
+        <v>328</v>
       </c>
       <c r="D158" s="82"/>
       <c r="E158" s="17"/>
@@ -6861,14 +6867,14 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="208"/>
-      <c r="B159" s="216"/>
-      <c r="C159" s="211"/>
+      <c r="A159" s="212"/>
+      <c r="B159" s="219"/>
+      <c r="C159" s="215"/>
       <c r="D159" s="80" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="4"/>
@@ -6887,15 +6893,15 @@
       <c r="T159" s="4"/>
     </row>
     <row r="160" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="208"/>
-      <c r="B160" s="216"/>
-      <c r="C160" s="211"/>
+      <c r="A160" s="212"/>
+      <c r="B160" s="219"/>
+      <c r="C160" s="215"/>
       <c r="D160" s="80"/>
       <c r="E160" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F160" s="162" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -6913,9 +6919,9 @@
       <c r="T160" s="4"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="208"/>
-      <c r="B161" s="216"/>
-      <c r="C161" s="211"/>
+      <c r="A161" s="212"/>
+      <c r="B161" s="219"/>
+      <c r="C161" s="215"/>
       <c r="D161" s="80"/>
       <c r="E161" s="13"/>
       <c r="F161" s="14"/>
@@ -6935,9 +6941,9 @@
       <c r="T161" s="4"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="208"/>
-      <c r="B162" s="216"/>
-      <c r="C162" s="211"/>
+      <c r="A162" s="212"/>
+      <c r="B162" s="219"/>
+      <c r="C162" s="215"/>
       <c r="D162" s="82"/>
       <c r="E162" s="13"/>
       <c r="F162" s="14"/>
@@ -6957,9 +6963,9 @@
       <c r="T162" s="4"/>
     </row>
     <row r="163" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="222"/>
-      <c r="B163" s="224"/>
-      <c r="C163" s="218"/>
+      <c r="A163" s="224"/>
+      <c r="B163" s="226"/>
+      <c r="C163" s="221"/>
       <c r="D163" s="107"/>
       <c r="E163" s="15"/>
       <c r="F163" s="16"/>
@@ -6979,13 +6985,13 @@
       <c r="T163" s="4"/>
     </row>
     <row r="164" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="221" t="s">
+      <c r="A164" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="223" t="s">
+      <c r="B164" s="225" t="s">
         <v>98</v>
       </c>
-      <c r="C164" s="217" t="s">
+      <c r="C164" s="220" t="s">
         <v>101</v>
       </c>
       <c r="D164" s="114"/>
@@ -7007,9 +7013,9 @@
       <c r="T164" s="4"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="208"/>
-      <c r="B165" s="216"/>
-      <c r="C165" s="211"/>
+      <c r="A165" s="212"/>
+      <c r="B165" s="219"/>
+      <c r="C165" s="215"/>
       <c r="D165" s="82"/>
       <c r="E165" s="112" t="s">
         <v>99</v>
@@ -7031,9 +7037,9 @@
       <c r="T165" s="4"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="208"/>
-      <c r="B166" s="216"/>
-      <c r="C166" s="211"/>
+      <c r="A166" s="212"/>
+      <c r="B166" s="219"/>
+      <c r="C166" s="215"/>
       <c r="D166" s="81"/>
       <c r="E166" s="111" t="s">
         <v>100</v>
@@ -7055,17 +7061,17 @@
       <c r="T166" s="4"/>
     </row>
     <row r="167" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="208"/>
-      <c r="B167" s="216"/>
-      <c r="C167" s="211"/>
+      <c r="A167" s="212"/>
+      <c r="B167" s="219"/>
+      <c r="C167" s="215"/>
       <c r="D167" s="80" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E167" s="111" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F167" s="165" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -7083,9 +7089,9 @@
       <c r="T167" s="4"/>
     </row>
     <row r="168" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="222"/>
-      <c r="B168" s="224"/>
-      <c r="C168" s="218"/>
+      <c r="A168" s="224"/>
+      <c r="B168" s="226"/>
+      <c r="C168" s="221"/>
       <c r="D168" s="107"/>
       <c r="E168" s="32"/>
       <c r="F168" s="33"/>
@@ -7105,13 +7111,13 @@
       <c r="T168" s="4"/>
     </row>
     <row r="169" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="221" t="s">
+      <c r="A169" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="223" t="s">
-        <v>314</v>
-      </c>
-      <c r="C169" s="217" t="s">
+      <c r="B169" s="225" t="s">
+        <v>306</v>
+      </c>
+      <c r="C169" s="220" t="s">
         <v>104</v>
       </c>
       <c r="D169" s="82"/>
@@ -7133,14 +7139,14 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="208"/>
-      <c r="B170" s="216"/>
-      <c r="C170" s="211"/>
+      <c r="A170" s="212"/>
+      <c r="B170" s="219"/>
+      <c r="C170" s="215"/>
       <c r="D170" s="80" t="s">
         <v>102</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="4"/>
@@ -7159,12 +7165,12 @@
       <c r="T170" s="4"/>
     </row>
     <row r="171" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="208"/>
-      <c r="B171" s="216"/>
-      <c r="C171" s="211"/>
+      <c r="A171" s="212"/>
+      <c r="B171" s="219"/>
+      <c r="C171" s="215"/>
       <c r="D171" s="80"/>
       <c r="E171" s="13" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="4"/>
@@ -7183,12 +7189,12 @@
       <c r="T171" s="4"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="208"/>
-      <c r="B172" s="216"/>
-      <c r="C172" s="211"/>
+      <c r="A172" s="212"/>
+      <c r="B172" s="219"/>
+      <c r="C172" s="215"/>
       <c r="D172" s="80"/>
       <c r="E172" s="13" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="4"/>
@@ -7207,12 +7213,12 @@
       <c r="T172" s="4"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="208"/>
-      <c r="B173" s="216"/>
-      <c r="C173" s="211"/>
+      <c r="A173" s="212"/>
+      <c r="B173" s="219"/>
+      <c r="C173" s="215"/>
       <c r="D173" s="82"/>
       <c r="E173" s="13" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="4"/>
@@ -7231,12 +7237,12 @@
       <c r="T173" s="4"/>
     </row>
     <row r="174" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="222"/>
-      <c r="B174" s="224"/>
-      <c r="C174" s="218"/>
+      <c r="A174" s="224"/>
+      <c r="B174" s="226"/>
+      <c r="C174" s="221"/>
       <c r="D174" s="107"/>
       <c r="E174" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="4"/>
@@ -7255,13 +7261,13 @@
       <c r="T174" s="4"/>
     </row>
     <row r="175" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="221" t="s">
+      <c r="A175" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="228" t="s">
+      <c r="B175" s="230" t="s">
         <v>103</v>
       </c>
-      <c r="C175" s="217" t="s">
+      <c r="C175" s="220" t="s">
         <v>105</v>
       </c>
       <c r="D175" s="197"/>
@@ -7282,12 +7288,12 @@
       <c r="T175" s="4"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="208"/>
-      <c r="B176" s="229"/>
-      <c r="C176" s="211"/>
+      <c r="A176" s="212"/>
+      <c r="B176" s="231"/>
+      <c r="C176" s="215"/>
       <c r="D176" s="198"/>
       <c r="E176" s="34" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="4"/>
@@ -7306,14 +7312,14 @@
       <c r="T176" s="4"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="208"/>
-      <c r="B177" s="229"/>
-      <c r="C177" s="211"/>
+      <c r="A177" s="212"/>
+      <c r="B177" s="231"/>
+      <c r="C177" s="215"/>
       <c r="D177" s="80" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E177" s="113" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="4"/>
@@ -7332,9 +7338,9 @@
       <c r="T177" s="4"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="208"/>
-      <c r="B178" s="229"/>
-      <c r="C178" s="211"/>
+      <c r="A178" s="212"/>
+      <c r="B178" s="231"/>
+      <c r="C178" s="215"/>
       <c r="D178" s="194"/>
       <c r="E178" s="113"/>
       <c r="F178" s="14"/>
@@ -7354,9 +7360,9 @@
       <c r="T178" s="4"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="208"/>
-      <c r="B179" s="229"/>
-      <c r="C179" s="211"/>
+      <c r="A179" s="212"/>
+      <c r="B179" s="231"/>
+      <c r="C179" s="215"/>
       <c r="D179" s="195"/>
       <c r="E179" s="113"/>
       <c r="F179" s="14"/>
@@ -7376,9 +7382,9 @@
       <c r="T179" s="4"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="208"/>
-      <c r="B180" s="229"/>
-      <c r="C180" s="211"/>
+      <c r="A180" s="212"/>
+      <c r="B180" s="231"/>
+      <c r="C180" s="215"/>
       <c r="D180" s="195"/>
       <c r="E180" s="113"/>
       <c r="F180" s="14"/>
@@ -7398,9 +7404,9 @@
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="222"/>
-      <c r="B181" s="230"/>
-      <c r="C181" s="218"/>
+      <c r="A181" s="224"/>
+      <c r="B181" s="232"/>
+      <c r="C181" s="221"/>
       <c r="D181" s="196"/>
       <c r="E181" s="36"/>
       <c r="F181" s="16"/>
@@ -7420,16 +7426,16 @@
       <c r="T181" s="4"/>
     </row>
     <row r="182" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="221" t="s">
+      <c r="A182" s="223" t="s">
         <v>28</v>
       </c>
-      <c r="B182" s="228" t="s">
+      <c r="B182" s="230" t="s">
         <v>106</v>
       </c>
-      <c r="C182" s="217" t="s">
+      <c r="C182" s="220" t="s">
         <v>107</v>
       </c>
-      <c r="D182" s="203" t="s">
+      <c r="D182" s="207" t="s">
         <v>102</v>
       </c>
       <c r="E182" s="17" t="s">
@@ -7452,12 +7458,12 @@
       <c r="T182" s="4"/>
     </row>
     <row r="183" spans="1:20" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="208"/>
-      <c r="B183" s="229"/>
-      <c r="C183" s="211"/>
-      <c r="D183" s="204"/>
+      <c r="A183" s="212"/>
+      <c r="B183" s="231"/>
+      <c r="C183" s="215"/>
+      <c r="D183" s="208"/>
       <c r="E183" s="58" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F183" s="162"/>
       <c r="G183" s="4"/>
@@ -7476,12 +7482,12 @@
       <c r="T183" s="4"/>
     </row>
     <row r="184" spans="1:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="222"/>
-      <c r="B184" s="230"/>
-      <c r="C184" s="218"/>
+      <c r="A184" s="224"/>
+      <c r="B184" s="232"/>
+      <c r="C184" s="221"/>
       <c r="D184" s="150"/>
       <c r="E184" s="15" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>63</v>
@@ -7502,17 +7508,17 @@
       <c r="T184" s="4"/>
     </row>
     <row r="185" spans="1:20" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="221" t="s">
+      <c r="A185" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="228" t="s">
+      <c r="B185" s="230" t="s">
         <v>109</v>
       </c>
-      <c r="C185" s="217" t="s">
+      <c r="C185" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="D185" s="233" t="s">
-        <v>351</v>
+      <c r="D185" s="206" t="s">
+        <v>341</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="38"/>
@@ -7532,10 +7538,10 @@
       <c r="T185" s="4"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="208"/>
-      <c r="B186" s="229"/>
-      <c r="C186" s="211"/>
-      <c r="D186" s="233"/>
+      <c r="A186" s="212"/>
+      <c r="B186" s="231"/>
+      <c r="C186" s="215"/>
+      <c r="D186" s="206"/>
       <c r="E186" s="39"/>
       <c r="F186" s="40"/>
       <c r="G186" s="4"/>
@@ -7554,10 +7560,10 @@
       <c r="T186" s="4"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="208"/>
-      <c r="B187" s="229"/>
-      <c r="C187" s="211"/>
-      <c r="D187" s="233"/>
+      <c r="A187" s="212"/>
+      <c r="B187" s="231"/>
+      <c r="C187" s="215"/>
+      <c r="D187" s="206"/>
       <c r="E187" s="39"/>
       <c r="F187" s="40"/>
       <c r="G187" s="4"/>
@@ -7576,12 +7582,12 @@
       <c r="T187" s="4"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="208"/>
-      <c r="B188" s="229"/>
-      <c r="C188" s="211"/>
-      <c r="D188" s="233"/>
+      <c r="A188" s="212"/>
+      <c r="B188" s="231"/>
+      <c r="C188" s="215"/>
+      <c r="D188" s="206"/>
       <c r="E188" s="39" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F188" s="40"/>
       <c r="G188" s="4"/>
@@ -7600,12 +7606,12 @@
       <c r="T188" s="4"/>
     </row>
     <row r="189" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="222"/>
-      <c r="B189" s="230"/>
-      <c r="C189" s="218"/>
-      <c r="D189" s="234"/>
+      <c r="A189" s="224"/>
+      <c r="B189" s="232"/>
+      <c r="C189" s="221"/>
+      <c r="D189" s="235"/>
       <c r="E189" s="119" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F189" s="42"/>
       <c r="G189" s="4"/>
@@ -7624,16 +7630,16 @@
       <c r="T189" s="4"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="208" t="s">
+      <c r="A190" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="B190" s="229" t="s">
+      <c r="B190" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="C190" s="211" t="s">
+      <c r="C190" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="D190" s="213" t="s">
+      <c r="D190" s="204" t="s">
         <v>102</v>
       </c>
       <c r="E190" s="39" t="s">
@@ -7656,10 +7662,10 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="208"/>
-      <c r="B191" s="229"/>
-      <c r="C191" s="211"/>
-      <c r="D191" s="213"/>
+      <c r="A191" s="212"/>
+      <c r="B191" s="231"/>
+      <c r="C191" s="215"/>
+      <c r="D191" s="204"/>
       <c r="E191" s="115" t="s">
         <v>114</v>
       </c>
@@ -7680,10 +7686,10 @@
       <c r="T191" s="4"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="208"/>
-      <c r="B192" s="229"/>
-      <c r="C192" s="211"/>
-      <c r="D192" s="213"/>
+      <c r="A192" s="212"/>
+      <c r="B192" s="231"/>
+      <c r="C192" s="215"/>
+      <c r="D192" s="204"/>
       <c r="E192" s="118" t="s">
         <v>115</v>
       </c>
@@ -7704,10 +7710,10 @@
       <c r="T192" s="4"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="208"/>
-      <c r="B193" s="229"/>
-      <c r="C193" s="211"/>
-      <c r="D193" s="213"/>
+      <c r="A193" s="212"/>
+      <c r="B193" s="231"/>
+      <c r="C193" s="215"/>
+      <c r="D193" s="204"/>
       <c r="E193" s="43" t="s">
         <v>116</v>
       </c>
@@ -7728,10 +7734,10 @@
       <c r="T193" s="4"/>
     </row>
     <row r="194" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="208"/>
-      <c r="B194" s="229"/>
-      <c r="C194" s="211"/>
-      <c r="D194" s="213"/>
+      <c r="A194" s="212"/>
+      <c r="B194" s="231"/>
+      <c r="C194" s="215"/>
+      <c r="D194" s="204"/>
       <c r="E194" s="13" t="s">
         <v>117</v>
       </c>
@@ -7752,10 +7758,10 @@
       <c r="T194" s="4"/>
     </row>
     <row r="195" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="208"/>
-      <c r="B195" s="229"/>
-      <c r="C195" s="211"/>
-      <c r="D195" s="213"/>
+      <c r="A195" s="212"/>
+      <c r="B195" s="231"/>
+      <c r="C195" s="215"/>
+      <c r="D195" s="204"/>
       <c r="E195" s="115" t="s">
         <v>118</v>
       </c>
@@ -7776,12 +7782,12 @@
       <c r="T195" s="4"/>
     </row>
     <row r="196" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="208"/>
-      <c r="B196" s="229"/>
-      <c r="C196" s="211"/>
-      <c r="D196" s="213"/>
+      <c r="A196" s="212"/>
+      <c r="B196" s="231"/>
+      <c r="C196" s="215"/>
+      <c r="D196" s="204"/>
       <c r="E196" s="156" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F196" s="158"/>
       <c r="G196" s="4"/>
@@ -7800,10 +7806,10 @@
       <c r="T196" s="4"/>
     </row>
     <row r="197" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="222"/>
-      <c r="B197" s="230"/>
-      <c r="C197" s="218"/>
-      <c r="D197" s="220"/>
+      <c r="A197" s="224"/>
+      <c r="B197" s="232"/>
+      <c r="C197" s="221"/>
+      <c r="D197" s="222"/>
       <c r="E197" s="159"/>
       <c r="F197" s="157"/>
       <c r="G197" s="4"/>
@@ -7822,16 +7828,16 @@
       <c r="T197" s="4"/>
     </row>
     <row r="198" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="208" t="s">
+      <c r="A198" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="B198" s="229" t="s">
+      <c r="B198" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="C198" s="211" t="s">
+      <c r="C198" s="215" t="s">
         <v>120</v>
       </c>
-      <c r="D198" s="233"/>
+      <c r="D198" s="206"/>
       <c r="E198" s="43" t="s">
         <v>121</v>
       </c>
@@ -7852,10 +7858,10 @@
       <c r="T198" s="4"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="208"/>
-      <c r="B199" s="229"/>
-      <c r="C199" s="211"/>
-      <c r="D199" s="233"/>
+      <c r="A199" s="212"/>
+      <c r="B199" s="231"/>
+      <c r="C199" s="215"/>
+      <c r="D199" s="206"/>
       <c r="E199" s="39" t="s">
         <v>122</v>
       </c>
@@ -7876,10 +7882,10 @@
       <c r="T199" s="4"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="208"/>
-      <c r="B200" s="229"/>
-      <c r="C200" s="211"/>
-      <c r="D200" s="233"/>
+      <c r="A200" s="212"/>
+      <c r="B200" s="231"/>
+      <c r="C200" s="215"/>
+      <c r="D200" s="206"/>
       <c r="E200" s="39" t="s">
         <v>123</v>
       </c>
@@ -7900,10 +7906,10 @@
       <c r="T200" s="4"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="208"/>
-      <c r="B201" s="229"/>
-      <c r="C201" s="211"/>
-      <c r="D201" s="233"/>
+      <c r="A201" s="212"/>
+      <c r="B201" s="231"/>
+      <c r="C201" s="215"/>
+      <c r="D201" s="206"/>
       <c r="E201" s="13" t="s">
         <v>124</v>
       </c>
@@ -7924,10 +7930,10 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="222"/>
-      <c r="B202" s="230"/>
-      <c r="C202" s="218"/>
-      <c r="D202" s="234"/>
+      <c r="A202" s="224"/>
+      <c r="B202" s="232"/>
+      <c r="C202" s="221"/>
+      <c r="D202" s="235"/>
       <c r="E202" s="41"/>
       <c r="F202" s="46"/>
       <c r="G202" s="4"/>
@@ -7946,13 +7952,13 @@
       <c r="T202" s="4"/>
     </row>
     <row r="203" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="221" t="s">
+      <c r="A203" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="B203" s="228" t="s">
+      <c r="B203" s="230" t="s">
         <v>126</v>
       </c>
-      <c r="C203" s="217" t="s">
+      <c r="C203" s="220" t="s">
         <v>125</v>
       </c>
       <c r="D203" s="247"/>
@@ -7974,10 +7980,10 @@
       <c r="T203" s="4"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204" s="208"/>
-      <c r="B204" s="229"/>
-      <c r="C204" s="211"/>
-      <c r="D204" s="233"/>
+      <c r="A204" s="212"/>
+      <c r="B204" s="231"/>
+      <c r="C204" s="215"/>
+      <c r="D204" s="206"/>
       <c r="E204" s="43" t="s">
         <v>121</v>
       </c>
@@ -7998,10 +8004,10 @@
       <c r="T204" s="4"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="208"/>
-      <c r="B205" s="229"/>
-      <c r="C205" s="211"/>
-      <c r="D205" s="233"/>
+      <c r="A205" s="212"/>
+      <c r="B205" s="231"/>
+      <c r="C205" s="215"/>
+      <c r="D205" s="206"/>
       <c r="E205" s="39" t="s">
         <v>122</v>
       </c>
@@ -8022,12 +8028,12 @@
       <c r="T205" s="4"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A206" s="208"/>
-      <c r="B206" s="229"/>
-      <c r="C206" s="211"/>
-      <c r="D206" s="233"/>
+      <c r="A206" s="212"/>
+      <c r="B206" s="231"/>
+      <c r="C206" s="215"/>
+      <c r="D206" s="206"/>
       <c r="E206" s="39" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F206" s="45"/>
       <c r="G206" s="4"/>
@@ -8046,12 +8052,12 @@
       <c r="T206" s="4"/>
     </row>
     <row r="207" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="222"/>
-      <c r="B207" s="230"/>
-      <c r="C207" s="218"/>
-      <c r="D207" s="234"/>
+      <c r="A207" s="224"/>
+      <c r="B207" s="232"/>
+      <c r="C207" s="221"/>
+      <c r="D207" s="235"/>
       <c r="E207" s="13" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F207" s="45"/>
       <c r="G207" s="4"/>
@@ -8116,16 +8122,16 @@
       <c r="T209" s="4"/>
     </row>
     <row r="210" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="221" t="s">
+      <c r="A210" s="223" t="s">
         <v>34</v>
       </c>
       <c r="B210" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="C210" s="210" t="s">
+      <c r="C210" s="214" t="s">
         <v>132</v>
       </c>
-      <c r="D210" s="212" t="s">
+      <c r="D210" s="216" t="s">
         <v>102</v>
       </c>
       <c r="E210" s="47"/>
@@ -8146,10 +8152,10 @@
       <c r="T210" s="4"/>
     </row>
     <row r="211" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="208"/>
-      <c r="B211" s="216"/>
-      <c r="C211" s="211"/>
-      <c r="D211" s="233"/>
+      <c r="A211" s="212"/>
+      <c r="B211" s="219"/>
+      <c r="C211" s="215"/>
+      <c r="D211" s="206"/>
       <c r="E211" s="47" t="s">
         <v>128</v>
       </c>
@@ -8170,12 +8176,12 @@
       <c r="T211" s="4"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A212" s="208"/>
-      <c r="B212" s="216"/>
-      <c r="C212" s="211"/>
-      <c r="D212" s="233"/>
+      <c r="A212" s="212"/>
+      <c r="B212" s="219"/>
+      <c r="C212" s="215"/>
+      <c r="D212" s="206"/>
       <c r="E212" s="47" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F212" s="19"/>
       <c r="G212" s="4"/>
@@ -8194,10 +8200,10 @@
       <c r="T212" s="4"/>
     </row>
     <row r="213" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="208"/>
-      <c r="B213" s="216"/>
-      <c r="C213" s="211"/>
-      <c r="D213" s="233"/>
+      <c r="A213" s="212"/>
+      <c r="B213" s="219"/>
+      <c r="C213" s="215"/>
+      <c r="D213" s="206"/>
       <c r="E213" s="47" t="s">
         <v>129</v>
       </c>
@@ -8218,12 +8224,12 @@
       <c r="T213" s="4"/>
     </row>
     <row r="214" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="208"/>
-      <c r="B214" s="216"/>
-      <c r="C214" s="211"/>
-      <c r="D214" s="233"/>
+      <c r="A214" s="212"/>
+      <c r="B214" s="219"/>
+      <c r="C214" s="215"/>
+      <c r="D214" s="206"/>
       <c r="E214" s="120" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F214" s="19"/>
       <c r="G214" s="4"/>
@@ -8242,12 +8248,12 @@
       <c r="T214" s="4"/>
     </row>
     <row r="215" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="208"/>
-      <c r="B215" s="216"/>
-      <c r="C215" s="211"/>
-      <c r="D215" s="233"/>
+      <c r="A215" s="212"/>
+      <c r="B215" s="219"/>
+      <c r="C215" s="215"/>
+      <c r="D215" s="206"/>
       <c r="E215" s="121" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F215" s="19"/>
       <c r="G215" s="4"/>
@@ -8266,10 +8272,10 @@
       <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="222"/>
-      <c r="B216" s="224"/>
-      <c r="C216" s="218"/>
-      <c r="D216" s="234"/>
+      <c r="A216" s="224"/>
+      <c r="B216" s="226"/>
+      <c r="C216" s="221"/>
+      <c r="D216" s="235"/>
       <c r="E216" s="122"/>
       <c r="F216" s="49"/>
       <c r="G216" s="4"/>
@@ -8288,16 +8294,16 @@
       <c r="T216" s="4"/>
     </row>
     <row r="217" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="221" t="s">
+      <c r="A217" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="B217" s="223" t="s">
+      <c r="B217" s="225" t="s">
         <v>131</v>
       </c>
-      <c r="C217" s="217" t="s">
+      <c r="C217" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="D217" s="205"/>
+      <c r="D217" s="209"/>
       <c r="E217" s="50"/>
       <c r="F217" s="51"/>
       <c r="G217" s="4"/>
@@ -8316,10 +8322,10 @@
       <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="208"/>
-      <c r="B218" s="216"/>
-      <c r="C218" s="211"/>
-      <c r="D218" s="204"/>
+      <c r="A218" s="212"/>
+      <c r="B218" s="219"/>
+      <c r="C218" s="215"/>
+      <c r="D218" s="208"/>
       <c r="E218" s="50" t="s">
         <v>133</v>
       </c>
@@ -8340,9 +8346,9 @@
       <c r="T218" s="4"/>
     </row>
     <row r="219" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="208"/>
-      <c r="B219" s="216"/>
-      <c r="C219" s="211"/>
+      <c r="A219" s="212"/>
+      <c r="B219" s="219"/>
+      <c r="C219" s="215"/>
       <c r="D219" s="80"/>
       <c r="E219" s="50" t="s">
         <v>134</v>
@@ -8364,9 +8370,9 @@
       <c r="T219" s="4"/>
     </row>
     <row r="220" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="208"/>
-      <c r="B220" s="216"/>
-      <c r="C220" s="211"/>
+      <c r="A220" s="212"/>
+      <c r="B220" s="219"/>
+      <c r="C220" s="215"/>
       <c r="D220" s="194"/>
       <c r="E220" s="50" t="s">
         <v>135</v>
@@ -8388,9 +8394,9 @@
       <c r="T220" s="4"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221" s="208"/>
-      <c r="B221" s="216"/>
-      <c r="C221" s="211"/>
+      <c r="A221" s="212"/>
+      <c r="B221" s="219"/>
+      <c r="C221" s="215"/>
       <c r="D221" s="195"/>
       <c r="E221" s="47"/>
       <c r="F221" s="19"/>
@@ -8410,9 +8416,9 @@
       <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222" s="208"/>
-      <c r="B222" s="216"/>
-      <c r="C222" s="211"/>
+      <c r="A222" s="212"/>
+      <c r="B222" s="219"/>
+      <c r="C222" s="215"/>
       <c r="D222" s="195"/>
       <c r="E222" s="47"/>
       <c r="F222" s="19"/>
@@ -8432,9 +8438,9 @@
       <c r="T222" s="4"/>
     </row>
     <row r="223" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="208"/>
-      <c r="B223" s="216"/>
-      <c r="C223" s="211"/>
+      <c r="A223" s="212"/>
+      <c r="B223" s="219"/>
+      <c r="C223" s="215"/>
       <c r="D223" s="196"/>
       <c r="E223" s="47"/>
       <c r="F223" s="19"/>
@@ -8454,9 +8460,9 @@
       <c r="T223" s="4"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A224" s="208"/>
-      <c r="B224" s="216"/>
-      <c r="C224" s="211"/>
+      <c r="A224" s="212"/>
+      <c r="B224" s="219"/>
+      <c r="C224" s="215"/>
       <c r="D224" s="197"/>
       <c r="E224" s="47"/>
       <c r="F224" s="19"/>
@@ -8476,9 +8482,9 @@
       <c r="T224" s="4"/>
     </row>
     <row r="225" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="222"/>
-      <c r="B225" s="224"/>
-      <c r="C225" s="218"/>
+      <c r="A225" s="224"/>
+      <c r="B225" s="226"/>
+      <c r="C225" s="221"/>
       <c r="D225" s="196"/>
       <c r="E225" s="48"/>
       <c r="F225" s="49"/>
@@ -8498,16 +8504,16 @@
       <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="221" t="s">
+      <c r="A226" s="223" t="s">
         <v>36</v>
       </c>
-      <c r="B226" s="223" t="s">
+      <c r="B226" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="C226" s="217" t="s">
+      <c r="C226" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="D226" s="203"/>
+      <c r="D226" s="207"/>
       <c r="E226" s="50"/>
       <c r="F226" s="51"/>
       <c r="G226" s="4"/>
@@ -8526,10 +8532,10 @@
       <c r="T226" s="4"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A227" s="208"/>
-      <c r="B227" s="216"/>
-      <c r="C227" s="211"/>
-      <c r="D227" s="204"/>
+      <c r="A227" s="212"/>
+      <c r="B227" s="219"/>
+      <c r="C227" s="215"/>
+      <c r="D227" s="208"/>
       <c r="E227" s="50" t="s">
         <v>133</v>
       </c>
@@ -8550,9 +8556,9 @@
       <c r="T227" s="4"/>
     </row>
     <row r="228" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="208"/>
-      <c r="B228" s="216"/>
-      <c r="C228" s="211"/>
+      <c r="A228" s="212"/>
+      <c r="B228" s="219"/>
+      <c r="C228" s="215"/>
       <c r="D228" s="80"/>
       <c r="E228" s="50" t="s">
         <v>138</v>
@@ -8574,9 +8580,9 @@
       <c r="T228" s="4"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A229" s="208"/>
-      <c r="B229" s="216"/>
-      <c r="C229" s="211"/>
+      <c r="A229" s="212"/>
+      <c r="B229" s="219"/>
+      <c r="C229" s="215"/>
       <c r="D229" s="194"/>
       <c r="E229" s="50" t="s">
         <v>139</v>
@@ -8598,9 +8604,9 @@
       <c r="T229" s="4"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="208"/>
-      <c r="B230" s="216"/>
-      <c r="C230" s="211"/>
+      <c r="A230" s="212"/>
+      <c r="B230" s="219"/>
+      <c r="C230" s="215"/>
       <c r="D230" s="195"/>
       <c r="E230" s="47"/>
       <c r="F230" s="19"/>
@@ -8620,9 +8626,9 @@
       <c r="T230" s="4"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="208"/>
-      <c r="B231" s="216"/>
-      <c r="C231" s="211"/>
+      <c r="A231" s="212"/>
+      <c r="B231" s="219"/>
+      <c r="C231" s="215"/>
       <c r="D231" s="195"/>
       <c r="E231" s="47"/>
       <c r="F231" s="19"/>
@@ -8642,9 +8648,9 @@
       <c r="T231" s="4"/>
     </row>
     <row r="232" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="222"/>
-      <c r="B232" s="224"/>
-      <c r="C232" s="218"/>
+      <c r="A232" s="224"/>
+      <c r="B232" s="226"/>
+      <c r="C232" s="221"/>
       <c r="D232" s="196"/>
       <c r="E232" s="48"/>
       <c r="F232" s="49"/>
@@ -8664,16 +8670,16 @@
       <c r="T232" s="4"/>
     </row>
     <row r="233" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="221" t="s">
+      <c r="A233" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="B233" s="223" t="s">
-        <v>359</v>
-      </c>
-      <c r="C233" s="225" t="s">
+      <c r="B233" s="225" t="s">
+        <v>349</v>
+      </c>
+      <c r="C233" s="227" t="s">
         <v>140</v>
       </c>
-      <c r="D233" s="203"/>
+      <c r="D233" s="207"/>
       <c r="E233" s="50"/>
       <c r="F233" s="51"/>
       <c r="G233" s="4"/>
@@ -8692,9 +8698,9 @@
       <c r="T233" s="4"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="208"/>
-      <c r="B234" s="216"/>
-      <c r="C234" s="226"/>
+      <c r="A234" s="212"/>
+      <c r="B234" s="219"/>
+      <c r="C234" s="228"/>
       <c r="D234" s="202"/>
       <c r="E234" s="47"/>
       <c r="F234" s="19"/>
@@ -8714,10 +8720,10 @@
       <c r="T234" s="4"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="208"/>
-      <c r="B235" s="216"/>
-      <c r="C235" s="226"/>
-      <c r="D235" s="206"/>
+      <c r="A235" s="212"/>
+      <c r="B235" s="219"/>
+      <c r="C235" s="228"/>
+      <c r="D235" s="210"/>
       <c r="E235" s="64" t="s">
         <v>133</v>
       </c>
@@ -8738,12 +8744,12 @@
       <c r="T235" s="4"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="208"/>
-      <c r="B236" s="216"/>
-      <c r="C236" s="226"/>
-      <c r="D236" s="207"/>
+      <c r="A236" s="212"/>
+      <c r="B236" s="219"/>
+      <c r="C236" s="228"/>
+      <c r="D236" s="211"/>
       <c r="E236" s="64" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F236" s="19"/>
       <c r="G236" s="4"/>
@@ -8762,12 +8768,12 @@
       <c r="T236" s="4"/>
     </row>
     <row r="237" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="208"/>
-      <c r="B237" s="216"/>
-      <c r="C237" s="226"/>
+      <c r="A237" s="212"/>
+      <c r="B237" s="219"/>
+      <c r="C237" s="228"/>
       <c r="D237" s="125"/>
       <c r="E237" s="50" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F237" s="19"/>
       <c r="G237" s="4"/>
@@ -8786,9 +8792,9 @@
       <c r="T237" s="4"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="208"/>
-      <c r="B238" s="216"/>
-      <c r="C238" s="226"/>
+      <c r="A238" s="212"/>
+      <c r="B238" s="219"/>
+      <c r="C238" s="228"/>
       <c r="D238" s="124"/>
       <c r="E238" s="123"/>
       <c r="F238" s="19"/>
@@ -8808,9 +8814,9 @@
       <c r="T238" s="4"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="208"/>
-      <c r="B239" s="216"/>
-      <c r="C239" s="226"/>
+      <c r="A239" s="212"/>
+      <c r="B239" s="219"/>
+      <c r="C239" s="228"/>
       <c r="D239" s="201"/>
       <c r="E239" s="47"/>
       <c r="F239" s="19"/>
@@ -8830,9 +8836,9 @@
       <c r="T239" s="4"/>
     </row>
     <row r="240" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="222"/>
-      <c r="B240" s="224"/>
-      <c r="C240" s="227"/>
+      <c r="A240" s="224"/>
+      <c r="B240" s="226"/>
+      <c r="C240" s="229"/>
       <c r="D240" s="202"/>
       <c r="E240" s="48"/>
       <c r="F240" s="49"/>
@@ -8852,13 +8858,13 @@
       <c r="T240" s="4"/>
     </row>
     <row r="241" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="221" t="s">
+      <c r="A241" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="B241" s="223" t="s">
+      <c r="B241" s="225" t="s">
         <v>142</v>
       </c>
-      <c r="C241" s="225" t="s">
+      <c r="C241" s="227" t="s">
         <v>143</v>
       </c>
       <c r="D241" s="199"/>
@@ -8880,9 +8886,9 @@
       <c r="T241" s="4"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="208"/>
-      <c r="B242" s="216"/>
-      <c r="C242" s="226"/>
+      <c r="A242" s="212"/>
+      <c r="B242" s="219"/>
+      <c r="C242" s="228"/>
       <c r="D242" s="200"/>
       <c r="E242" s="64" t="s">
         <v>133</v>
@@ -8904,12 +8910,12 @@
       <c r="T242" s="4"/>
     </row>
     <row r="243" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="208"/>
-      <c r="B243" s="216"/>
-      <c r="C243" s="226"/>
+      <c r="A243" s="212"/>
+      <c r="B243" s="219"/>
+      <c r="C243" s="228"/>
       <c r="D243" s="125"/>
       <c r="E243" s="64" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="4"/>
@@ -8928,9 +8934,9 @@
       <c r="T243" s="4"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="208"/>
-      <c r="B244" s="216"/>
-      <c r="C244" s="226"/>
+      <c r="A244" s="212"/>
+      <c r="B244" s="219"/>
+      <c r="C244" s="228"/>
       <c r="D244" s="124"/>
       <c r="E244" s="50" t="s">
         <v>144</v>
@@ -8952,9 +8958,9 @@
       <c r="T244" s="4"/>
     </row>
     <row r="245" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="222"/>
-      <c r="B245" s="224"/>
-      <c r="C245" s="227"/>
+      <c r="A245" s="224"/>
+      <c r="B245" s="226"/>
+      <c r="C245" s="229"/>
       <c r="D245" s="126"/>
       <c r="E245" s="48"/>
       <c r="F245" s="49"/>
@@ -8974,13 +8980,13 @@
       <c r="T245" s="4"/>
     </row>
     <row r="246" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="221" t="s">
+      <c r="A246" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="B246" s="223" t="s">
+      <c r="B246" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="C246" s="225" t="s">
+      <c r="C246" s="227" t="s">
         <v>146</v>
       </c>
       <c r="D246" s="199" t="s">
@@ -9004,9 +9010,9 @@
       <c r="T246" s="4"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" s="208"/>
-      <c r="B247" s="216"/>
-      <c r="C247" s="226"/>
+      <c r="A247" s="212"/>
+      <c r="B247" s="219"/>
+      <c r="C247" s="228"/>
       <c r="D247" s="200"/>
       <c r="E247" s="64" t="s">
         <v>133</v>
@@ -9028,9 +9034,9 @@
       <c r="T247" s="4"/>
     </row>
     <row r="248" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="208"/>
-      <c r="B248" s="216"/>
-      <c r="C248" s="226"/>
+      <c r="A248" s="212"/>
+      <c r="B248" s="219"/>
+      <c r="C248" s="228"/>
       <c r="D248" s="125" t="s">
         <v>147</v>
       </c>
@@ -9054,9 +9060,9 @@
       <c r="T248" s="4"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="208"/>
-      <c r="B249" s="216"/>
-      <c r="C249" s="226"/>
+      <c r="A249" s="212"/>
+      <c r="B249" s="219"/>
+      <c r="C249" s="228"/>
       <c r="D249" s="124"/>
       <c r="E249" s="50" t="s">
         <v>149</v>
@@ -9078,9 +9084,9 @@
       <c r="T249" s="4"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="208"/>
-      <c r="B250" s="216"/>
-      <c r="C250" s="226"/>
+      <c r="A250" s="212"/>
+      <c r="B250" s="219"/>
+      <c r="C250" s="228"/>
       <c r="D250" s="201"/>
       <c r="E250" s="47"/>
       <c r="F250" s="19"/>
@@ -9100,9 +9106,9 @@
       <c r="T250" s="4"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" s="208"/>
-      <c r="B251" s="216"/>
-      <c r="C251" s="226"/>
+      <c r="A251" s="212"/>
+      <c r="B251" s="219"/>
+      <c r="C251" s="228"/>
       <c r="D251" s="202"/>
       <c r="E251" s="47"/>
       <c r="F251" s="19"/>
@@ -9122,9 +9128,9 @@
       <c r="T251" s="4"/>
     </row>
     <row r="252" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="222"/>
-      <c r="B252" s="224"/>
-      <c r="C252" s="227"/>
+      <c r="A252" s="224"/>
+      <c r="B252" s="226"/>
+      <c r="C252" s="229"/>
       <c r="D252" s="107"/>
       <c r="E252" s="48"/>
       <c r="F252" s="49"/>
@@ -9144,13 +9150,13 @@
       <c r="T252" s="4"/>
     </row>
     <row r="253" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="221" t="s">
+      <c r="A253" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="B253" s="223" t="s">
+      <c r="B253" s="225" t="s">
         <v>150</v>
       </c>
-      <c r="C253" s="225" t="s">
+      <c r="C253" s="227" t="s">
         <v>151</v>
       </c>
       <c r="D253" s="203" t="s">
@@ -9174,10 +9180,10 @@
       <c r="T253" s="4"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" s="208"/>
-      <c r="B254" s="216"/>
-      <c r="C254" s="226"/>
-      <c r="D254" s="202"/>
+      <c r="A254" s="212"/>
+      <c r="B254" s="219"/>
+      <c r="C254" s="228"/>
+      <c r="D254" s="204"/>
       <c r="E254" s="47" t="s">
         <v>153</v>
       </c>
@@ -9198,13 +9204,13 @@
       <c r="T254" s="4"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="208"/>
-      <c r="B255" s="216"/>
-      <c r="C255" s="226"/>
-      <c r="D255" s="125" t="s">
+      <c r="A255" s="212"/>
+      <c r="B255" s="219"/>
+      <c r="C255" s="228"/>
+      <c r="D255" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="E255" s="47" t="s">
+      <c r="E255" s="123" t="s">
         <v>154</v>
       </c>
       <c r="F255" s="19"/>
@@ -9224,12 +9230,12 @@
       <c r="T255" s="4"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="208"/>
-      <c r="B256" s="216"/>
-      <c r="C256" s="226"/>
+      <c r="A256" s="212"/>
+      <c r="B256" s="219"/>
+      <c r="C256" s="228"/>
       <c r="D256" s="124"/>
       <c r="E256" s="47" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F256" s="19"/>
       <c r="G256" s="4"/>
@@ -9248,10 +9254,10 @@
       <c r="T256" s="4"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" s="208"/>
-      <c r="B257" s="216"/>
-      <c r="C257" s="226"/>
-      <c r="D257" s="201"/>
+      <c r="A257" s="212"/>
+      <c r="B257" s="219"/>
+      <c r="C257" s="228"/>
+      <c r="D257" s="205"/>
       <c r="E257" s="47"/>
       <c r="F257" s="19"/>
       <c r="G257" s="4"/>
@@ -9270,10 +9276,10 @@
       <c r="T257" s="4"/>
     </row>
     <row r="258" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="222"/>
-      <c r="B258" s="224"/>
-      <c r="C258" s="227"/>
-      <c r="D258" s="202"/>
+      <c r="A258" s="224"/>
+      <c r="B258" s="226"/>
+      <c r="C258" s="229"/>
+      <c r="D258" s="206"/>
       <c r="E258" s="48"/>
       <c r="F258" s="49"/>
       <c r="G258" s="4"/>
@@ -9292,16 +9298,16 @@
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="221" t="s">
+      <c r="A259" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="223" t="s">
+      <c r="B259" s="225" t="s">
+        <v>155</v>
+      </c>
+      <c r="C259" s="227" t="s">
         <v>156</v>
       </c>
-      <c r="C259" s="225" t="s">
-        <v>157</v>
-      </c>
-      <c r="D259" s="201"/>
+      <c r="D259" s="203"/>
       <c r="E259" s="127"/>
       <c r="F259" s="51"/>
       <c r="G259" s="4"/>
@@ -9320,12 +9326,12 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" s="208"/>
-      <c r="B260" s="216"/>
-      <c r="C260" s="226"/>
-      <c r="D260" s="202"/>
+      <c r="A260" s="212"/>
+      <c r="B260" s="219"/>
+      <c r="C260" s="228"/>
+      <c r="D260" s="204"/>
       <c r="E260" s="128" t="s">
-        <v>155</v>
+        <v>355</v>
       </c>
       <c r="F260" s="19"/>
       <c r="G260" s="4"/>
@@ -9344,14 +9350,14 @@
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="208"/>
-      <c r="B261" s="216"/>
-      <c r="C261" s="226"/>
+      <c r="A261" s="212"/>
+      <c r="B261" s="219"/>
+      <c r="C261" s="228"/>
       <c r="D261" s="201" t="s">
         <v>102</v>
       </c>
       <c r="E261" s="128" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="F261" s="19"/>
       <c r="G261" s="4"/>
@@ -9370,12 +9376,12 @@
       <c r="T261" s="4"/>
     </row>
     <row r="262" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="208"/>
-      <c r="B262" s="216"/>
-      <c r="C262" s="226"/>
+      <c r="A262" s="212"/>
+      <c r="B262" s="219"/>
+      <c r="C262" s="228"/>
       <c r="D262" s="202"/>
       <c r="E262" s="128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F262" s="19"/>
       <c r="G262" s="4"/>
@@ -9394,12 +9400,12 @@
       <c r="T262" s="4"/>
     </row>
     <row r="263" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="208"/>
-      <c r="B263" s="216"/>
-      <c r="C263" s="226"/>
+      <c r="A263" s="212"/>
+      <c r="B263" s="219"/>
+      <c r="C263" s="228"/>
       <c r="D263" s="126"/>
       <c r="E263" s="128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F263" s="19"/>
       <c r="G263" s="4"/>
@@ -9418,12 +9424,12 @@
       <c r="T263" s="4"/>
     </row>
     <row r="264" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="208"/>
-      <c r="B264" s="216"/>
-      <c r="C264" s="226"/>
+      <c r="A264" s="212"/>
+      <c r="B264" s="219"/>
+      <c r="C264" s="228"/>
       <c r="D264" s="126"/>
       <c r="E264" s="128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F264" s="19"/>
       <c r="G264" s="4"/>
@@ -9442,12 +9448,12 @@
       <c r="T264" s="4"/>
     </row>
     <row r="265" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="208"/>
-      <c r="B265" s="216"/>
-      <c r="C265" s="226"/>
+      <c r="A265" s="212"/>
+      <c r="B265" s="219"/>
+      <c r="C265" s="228"/>
       <c r="D265" s="126"/>
       <c r="E265" s="128" t="s">
-        <v>161</v>
+        <v>354</v>
       </c>
       <c r="F265" s="19"/>
       <c r="G265" s="4"/>
@@ -9466,12 +9472,12 @@
       <c r="T265" s="4"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" s="208"/>
-      <c r="B266" s="216"/>
-      <c r="C266" s="226"/>
+      <c r="A266" s="212"/>
+      <c r="B266" s="219"/>
+      <c r="C266" s="228"/>
       <c r="D266" s="199"/>
       <c r="E266" s="130" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F266" s="19"/>
       <c r="G266" s="4"/>
@@ -9490,12 +9496,12 @@
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="222"/>
-      <c r="B267" s="224"/>
-      <c r="C267" s="227"/>
+      <c r="A267" s="224"/>
+      <c r="B267" s="226"/>
+      <c r="C267" s="229"/>
       <c r="D267" s="200"/>
       <c r="E267" s="131" t="s">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="F267" s="49"/>
       <c r="G267" s="4"/>
@@ -9514,16 +9520,16 @@
       <c r="T267" s="4"/>
     </row>
     <row r="268" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="221" t="s">
+      <c r="A268" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="B268" s="223" t="s">
-        <v>289</v>
-      </c>
-      <c r="C268" s="217" t="s">
-        <v>286</v>
-      </c>
-      <c r="D268" s="246" t="s">
+      <c r="B268" s="225" t="s">
+        <v>281</v>
+      </c>
+      <c r="C268" s="220" t="s">
+        <v>278</v>
+      </c>
+      <c r="D268" s="203" t="s">
         <v>102</v>
       </c>
       <c r="E268" s="127"/>
@@ -9544,12 +9550,12 @@
       <c r="T268" s="4"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" s="208"/>
-      <c r="B269" s="216"/>
-      <c r="C269" s="211"/>
-      <c r="D269" s="233"/>
+      <c r="A269" s="212"/>
+      <c r="B269" s="219"/>
+      <c r="C269" s="215"/>
+      <c r="D269" s="204"/>
       <c r="E269" s="128" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F269" s="19"/>
       <c r="G269" s="4"/>
@@ -9568,12 +9574,12 @@
       <c r="T269" s="4"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" s="208"/>
-      <c r="B270" s="216"/>
-      <c r="C270" s="211"/>
-      <c r="D270" s="233"/>
+      <c r="A270" s="212"/>
+      <c r="B270" s="219"/>
+      <c r="C270" s="215"/>
+      <c r="D270" s="204"/>
       <c r="E270" s="50" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F270" s="19"/>
       <c r="G270" s="4"/>
@@ -9592,12 +9598,12 @@
       <c r="T270" s="4"/>
     </row>
     <row r="271" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A271" s="208"/>
-      <c r="B271" s="216"/>
-      <c r="C271" s="211"/>
-      <c r="D271" s="233"/>
+      <c r="A271" s="212"/>
+      <c r="B271" s="219"/>
+      <c r="C271" s="215"/>
+      <c r="D271" s="204"/>
       <c r="E271" s="166" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F271" s="19"/>
       <c r="G271" s="4"/>
@@ -9616,10 +9622,10 @@
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="222"/>
-      <c r="B272" s="224"/>
-      <c r="C272" s="218"/>
-      <c r="D272" s="234"/>
+      <c r="A272" s="224"/>
+      <c r="B272" s="226"/>
+      <c r="C272" s="221"/>
+      <c r="D272" s="204"/>
       <c r="E272" s="134"/>
       <c r="F272" s="49"/>
       <c r="G272" s="4"/>
@@ -9638,16 +9644,16 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="221" t="s">
+      <c r="A273" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="B273" s="223" t="s">
-        <v>163</v>
-      </c>
-      <c r="C273" s="217" t="s">
-        <v>164</v>
-      </c>
-      <c r="D273" s="219" t="s">
+      <c r="B273" s="225" t="s">
+        <v>160</v>
+      </c>
+      <c r="C273" s="220" t="s">
+        <v>161</v>
+      </c>
+      <c r="D273" s="203" t="s">
         <v>102</v>
       </c>
       <c r="E273" s="20"/>
@@ -9668,12 +9674,12 @@
       <c r="T273" s="4"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="208"/>
-      <c r="B274" s="216"/>
-      <c r="C274" s="211"/>
-      <c r="D274" s="213"/>
+      <c r="A274" s="212"/>
+      <c r="B274" s="219"/>
+      <c r="C274" s="215"/>
+      <c r="D274" s="204"/>
       <c r="E274" s="133" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F274" s="123"/>
       <c r="G274" s="4"/>
@@ -9692,12 +9698,12 @@
       <c r="T274" s="4"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A275" s="208"/>
-      <c r="B275" s="216"/>
-      <c r="C275" s="211"/>
-      <c r="D275" s="213"/>
+      <c r="A275" s="212"/>
+      <c r="B275" s="219"/>
+      <c r="C275" s="215"/>
+      <c r="D275" s="204"/>
       <c r="E275" s="34" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F275" s="47"/>
       <c r="G275" s="4"/>
@@ -9716,12 +9722,12 @@
       <c r="T275" s="4"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" s="208"/>
-      <c r="B276" s="216"/>
-      <c r="C276" s="211"/>
-      <c r="D276" s="213"/>
+      <c r="A276" s="212"/>
+      <c r="B276" s="219"/>
+      <c r="C276" s="215"/>
+      <c r="D276" s="204"/>
       <c r="E276" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F276" s="47"/>
       <c r="G276" s="4"/>
@@ -9740,12 +9746,12 @@
       <c r="T276" s="4"/>
     </row>
     <row r="277" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="208"/>
-      <c r="B277" s="216"/>
-      <c r="C277" s="211"/>
-      <c r="D277" s="213"/>
+      <c r="A277" s="212"/>
+      <c r="B277" s="219"/>
+      <c r="C277" s="215"/>
+      <c r="D277" s="204"/>
       <c r="E277" s="13" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F277" s="47"/>
       <c r="G277" s="4"/>
@@ -9764,10 +9770,10 @@
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" s="208"/>
-      <c r="B278" s="216"/>
-      <c r="C278" s="211"/>
-      <c r="D278" s="213"/>
+      <c r="A278" s="212"/>
+      <c r="B278" s="219"/>
+      <c r="C278" s="215"/>
+      <c r="D278" s="204"/>
       <c r="E278" s="13"/>
       <c r="F278" s="47"/>
       <c r="G278" s="4"/>
@@ -9786,10 +9792,10 @@
       <c r="T278" s="4"/>
     </row>
     <row r="279" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="222"/>
-      <c r="B279" s="224"/>
-      <c r="C279" s="218"/>
-      <c r="D279" s="220"/>
+      <c r="A279" s="224"/>
+      <c r="B279" s="226"/>
+      <c r="C279" s="221"/>
+      <c r="D279" s="222"/>
       <c r="E279" s="135"/>
       <c r="F279" s="48"/>
       <c r="G279" s="4"/>
@@ -9808,16 +9814,16 @@
       <c r="T279" s="4"/>
     </row>
     <row r="280" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="221" t="s">
+      <c r="A280" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="B280" s="223" t="s">
-        <v>169</v>
-      </c>
-      <c r="C280" s="217" t="s">
-        <v>170</v>
-      </c>
-      <c r="D280" s="219" t="s">
+      <c r="B280" s="225" t="s">
+        <v>165</v>
+      </c>
+      <c r="C280" s="220" t="s">
+        <v>166</v>
+      </c>
+      <c r="D280" s="203" t="s">
         <v>102</v>
       </c>
       <c r="E280" s="20"/>
@@ -9838,12 +9844,12 @@
       <c r="T280" s="4"/>
     </row>
     <row r="281" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="208"/>
-      <c r="B281" s="216"/>
-      <c r="C281" s="211"/>
-      <c r="D281" s="213"/>
+      <c r="A281" s="212"/>
+      <c r="B281" s="219"/>
+      <c r="C281" s="215"/>
+      <c r="D281" s="204"/>
       <c r="E281" s="136" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="F281" s="64"/>
       <c r="G281" s="4"/>
@@ -9862,12 +9868,12 @@
       <c r="T281" s="4"/>
     </row>
     <row r="282" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="208"/>
-      <c r="B282" s="216"/>
-      <c r="C282" s="211"/>
-      <c r="D282" s="213"/>
+      <c r="A282" s="212"/>
+      <c r="B282" s="219"/>
+      <c r="C282" s="215"/>
+      <c r="D282" s="204"/>
       <c r="E282" s="136" t="s">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="F282" s="64"/>
       <c r="G282" s="4"/>
@@ -9886,12 +9892,12 @@
       <c r="T282" s="4"/>
     </row>
     <row r="283" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="208"/>
-      <c r="B283" s="216"/>
-      <c r="C283" s="211"/>
-      <c r="D283" s="213"/>
+      <c r="A283" s="212"/>
+      <c r="B283" s="219"/>
+      <c r="C283" s="215"/>
+      <c r="D283" s="204"/>
       <c r="E283" s="136" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F283" s="64"/>
       <c r="G283" s="4"/>
@@ -9910,12 +9916,12 @@
       <c r="T283" s="4"/>
     </row>
     <row r="284" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="208"/>
-      <c r="B284" s="216"/>
-      <c r="C284" s="211"/>
-      <c r="D284" s="213"/>
+      <c r="A284" s="212"/>
+      <c r="B284" s="219"/>
+      <c r="C284" s="215"/>
+      <c r="D284" s="204"/>
       <c r="E284" s="133" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F284" s="64"/>
       <c r="G284" s="4"/>
@@ -9934,12 +9940,12 @@
       <c r="T284" s="4"/>
     </row>
     <row r="285" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="208"/>
-      <c r="B285" s="216"/>
-      <c r="C285" s="211"/>
-      <c r="D285" s="213"/>
+      <c r="A285" s="212"/>
+      <c r="B285" s="219"/>
+      <c r="C285" s="215"/>
+      <c r="D285" s="204"/>
       <c r="E285" s="133" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
       <c r="F285" s="64"/>
       <c r="G285" s="4"/>
@@ -9958,10 +9964,10 @@
       <c r="T285" s="4"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="208"/>
-      <c r="B286" s="216"/>
-      <c r="C286" s="211"/>
-      <c r="D286" s="213"/>
+      <c r="A286" s="212"/>
+      <c r="B286" s="219"/>
+      <c r="C286" s="215"/>
+      <c r="D286" s="204"/>
       <c r="E286" s="133"/>
       <c r="F286" s="123"/>
       <c r="G286" s="4"/>
@@ -9980,10 +9986,10 @@
       <c r="T286" s="4"/>
     </row>
     <row r="287" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="222"/>
-      <c r="B287" s="224"/>
-      <c r="C287" s="218"/>
-      <c r="D287" s="220"/>
+      <c r="A287" s="224"/>
+      <c r="B287" s="226"/>
+      <c r="C287" s="221"/>
+      <c r="D287" s="222"/>
       <c r="E287" s="136"/>
       <c r="F287" s="48"/>
       <c r="G287" s="4"/>
@@ -10002,16 +10008,16 @@
       <c r="T287" s="4"/>
     </row>
     <row r="288" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="221" t="s">
+      <c r="A288" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="B288" s="223" t="s">
-        <v>176</v>
-      </c>
-      <c r="C288" s="217" t="s">
-        <v>177</v>
-      </c>
-      <c r="D288" s="219" t="s">
+      <c r="B288" s="225" t="s">
+        <v>170</v>
+      </c>
+      <c r="C288" s="220" t="s">
+        <v>171</v>
+      </c>
+      <c r="D288" s="203" t="s">
         <v>102</v>
       </c>
       <c r="E288" s="20"/>
@@ -10032,12 +10038,12 @@
       <c r="T288" s="4"/>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A289" s="208"/>
-      <c r="B289" s="216"/>
-      <c r="C289" s="211"/>
-      <c r="D289" s="213"/>
+      <c r="A289" s="212"/>
+      <c r="B289" s="219"/>
+      <c r="C289" s="215"/>
+      <c r="D289" s="204"/>
       <c r="E289" s="133" t="s">
-        <v>178</v>
+        <v>363</v>
       </c>
       <c r="F289" s="123"/>
       <c r="G289" s="4"/>
@@ -10056,12 +10062,12 @@
       <c r="T289" s="4"/>
     </row>
     <row r="290" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="208"/>
-      <c r="B290" s="216"/>
-      <c r="C290" s="211"/>
-      <c r="D290" s="213"/>
+      <c r="A290" s="212"/>
+      <c r="B290" s="219"/>
+      <c r="C290" s="215"/>
+      <c r="D290" s="204"/>
       <c r="E290" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F290" s="123"/>
       <c r="G290" s="4"/>
@@ -10080,12 +10086,12 @@
       <c r="T290" s="4"/>
     </row>
     <row r="291" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="208"/>
-      <c r="B291" s="216"/>
-      <c r="C291" s="211"/>
-      <c r="D291" s="213"/>
+      <c r="A291" s="212"/>
+      <c r="B291" s="219"/>
+      <c r="C291" s="215"/>
+      <c r="D291" s="204"/>
       <c r="E291" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F291" s="123"/>
       <c r="G291" s="4"/>
@@ -10104,12 +10110,12 @@
       <c r="T291" s="4"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="208"/>
-      <c r="B292" s="216"/>
-      <c r="C292" s="211"/>
-      <c r="D292" s="213"/>
+      <c r="A292" s="212"/>
+      <c r="B292" s="219"/>
+      <c r="C292" s="215"/>
+      <c r="D292" s="204"/>
       <c r="E292" s="34" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F292" s="47"/>
       <c r="G292" s="4"/>
@@ -10128,12 +10134,12 @@
       <c r="T292" s="4"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A293" s="208"/>
-      <c r="B293" s="216"/>
-      <c r="C293" s="211"/>
-      <c r="D293" s="213"/>
+      <c r="A293" s="212"/>
+      <c r="B293" s="219"/>
+      <c r="C293" s="215"/>
+      <c r="D293" s="204"/>
       <c r="E293" s="13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F293" s="47"/>
       <c r="G293" s="4"/>
@@ -10152,12 +10158,12 @@
       <c r="T293" s="4"/>
     </row>
     <row r="294" spans="1:20" s="98" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A294" s="208"/>
-      <c r="B294" s="216"/>
-      <c r="C294" s="211"/>
-      <c r="D294" s="213"/>
+      <c r="A294" s="212"/>
+      <c r="B294" s="219"/>
+      <c r="C294" s="215"/>
+      <c r="D294" s="204"/>
       <c r="E294" s="113" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F294" s="47"/>
       <c r="G294" s="4"/>
@@ -10176,12 +10182,12 @@
       <c r="T294" s="4"/>
     </row>
     <row r="295" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="208"/>
-      <c r="B295" s="216"/>
-      <c r="C295" s="211"/>
-      <c r="D295" s="213"/>
+      <c r="A295" s="212"/>
+      <c r="B295" s="219"/>
+      <c r="C295" s="215"/>
+      <c r="D295" s="204"/>
       <c r="E295" s="13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F295" s="47"/>
       <c r="G295" s="4"/>
@@ -10200,12 +10206,12 @@
       <c r="T295" s="4"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A296" s="208"/>
-      <c r="B296" s="216"/>
-      <c r="C296" s="211"/>
-      <c r="D296" s="213"/>
+      <c r="A296" s="212"/>
+      <c r="B296" s="219"/>
+      <c r="C296" s="215"/>
+      <c r="D296" s="204"/>
       <c r="E296" s="132" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F296" s="47"/>
       <c r="G296" s="4"/>
@@ -10224,12 +10230,12 @@
       <c r="T296" s="4"/>
     </row>
     <row r="297" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="208"/>
-      <c r="B297" s="216"/>
-      <c r="C297" s="211"/>
-      <c r="D297" s="213"/>
+      <c r="A297" s="212"/>
+      <c r="B297" s="219"/>
+      <c r="C297" s="215"/>
+      <c r="D297" s="204"/>
       <c r="E297" s="133" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F297" s="137"/>
       <c r="G297" s="4"/>
@@ -10248,12 +10254,12 @@
       <c r="T297" s="4"/>
     </row>
     <row r="298" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="222"/>
-      <c r="B298" s="224"/>
-      <c r="C298" s="218"/>
-      <c r="D298" s="220"/>
+      <c r="A298" s="224"/>
+      <c r="B298" s="226"/>
+      <c r="C298" s="221"/>
+      <c r="D298" s="222"/>
       <c r="E298" s="138" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F298" s="48"/>
       <c r="G298" s="4"/>
@@ -10276,10 +10282,10 @@
         <v>46</v>
       </c>
       <c r="B299" s="182" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C299" s="186" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D299" s="187" t="s">
         <v>102</v>
@@ -10307,7 +10313,7 @@
       <c r="C300" s="183"/>
       <c r="D300" s="188"/>
       <c r="E300" s="13" t="s">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="F300" s="123"/>
       <c r="G300" s="4"/>
@@ -10331,7 +10337,7 @@
       <c r="C301" s="184"/>
       <c r="D301" s="188"/>
       <c r="E301" s="34" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F301" s="123"/>
       <c r="G301" s="4"/>
@@ -10355,7 +10361,7 @@
       <c r="C302" s="184"/>
       <c r="D302" s="188"/>
       <c r="E302" s="34" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F302" s="123"/>
       <c r="G302" s="4"/>
@@ -10444,10 +10450,10 @@
         <v>47</v>
       </c>
       <c r="B306" s="182" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C306" s="186" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D306" s="191" t="s">
         <v>102</v>
@@ -10475,7 +10481,7 @@
       <c r="C307" s="183"/>
       <c r="D307" s="191"/>
       <c r="E307" s="133" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F307" s="123"/>
       <c r="G307" s="4"/>
@@ -10499,7 +10505,7 @@
       <c r="C308" s="184"/>
       <c r="D308" s="163"/>
       <c r="E308" s="34" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F308" s="123"/>
       <c r="G308" s="4"/>
@@ -10523,7 +10529,7 @@
       <c r="C309" s="184"/>
       <c r="D309" s="163"/>
       <c r="E309" s="13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F309" s="123"/>
       <c r="G309" s="4"/>
@@ -10546,10 +10552,10 @@
       <c r="B310" s="183"/>
       <c r="C310" s="183"/>
       <c r="D310" s="126" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E310" s="167" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F310" s="47"/>
       <c r="G310" s="4"/>
@@ -10573,7 +10579,7 @@
       <c r="C311" s="183"/>
       <c r="D311" s="126"/>
       <c r="E311" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F311" s="47"/>
       <c r="G311" s="4"/>
@@ -10597,7 +10603,7 @@
       <c r="C312" s="184"/>
       <c r="D312" s="163"/>
       <c r="E312" s="13" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F312" s="47"/>
       <c r="G312" s="4"/>
@@ -10621,7 +10627,7 @@
       <c r="C313" s="183"/>
       <c r="D313" s="191"/>
       <c r="E313" s="135" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F313" s="47"/>
       <c r="G313" s="4"/>
@@ -10687,12 +10693,12 @@
         <v>48</v>
       </c>
       <c r="B316" s="182" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C316" s="186" t="s">
-        <v>195</v>
-      </c>
-      <c r="D316" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="D316" s="211" t="s">
         <v>102</v>
       </c>
       <c r="E316" s="133"/>
@@ -10718,7 +10724,7 @@
       <c r="C317" s="183"/>
       <c r="D317" s="191"/>
       <c r="E317" s="34" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F317" s="123"/>
       <c r="G317" s="4"/>
@@ -10741,10 +10747,10 @@
       <c r="B318" s="183"/>
       <c r="C318" s="183"/>
       <c r="D318" s="126" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E318" s="133" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F318" s="47"/>
       <c r="G318" s="4"/>
@@ -10768,7 +10774,7 @@
       <c r="C319" s="184"/>
       <c r="D319" s="163"/>
       <c r="E319" s="34" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F319" s="47"/>
       <c r="G319" s="4"/>
@@ -10812,7 +10818,7 @@
       <c r="B321" s="183"/>
       <c r="C321" s="183"/>
       <c r="D321" s="126" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E321" s="13"/>
       <c r="F321" s="47"/>
@@ -10858,14 +10864,14 @@
         <v>49</v>
       </c>
       <c r="B323" s="182" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C323" s="186" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D323" s="163"/>
       <c r="E323" s="133" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F323" s="50"/>
       <c r="G323" s="4"/>
@@ -10891,7 +10897,7 @@
         <v>102</v>
       </c>
       <c r="E324" s="34" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F324" s="123"/>
       <c r="G324" s="4"/>
@@ -10914,10 +10920,10 @@
       <c r="B325" s="183"/>
       <c r="C325" s="183"/>
       <c r="D325" s="163" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F325" s="47"/>
       <c r="G325" s="4"/>
@@ -10965,7 +10971,7 @@
       <c r="C327" s="183"/>
       <c r="D327" s="163"/>
       <c r="E327" s="13" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F327" s="47"/>
       <c r="G327" s="4"/>
@@ -10989,7 +10995,7 @@
       <c r="C328" s="183"/>
       <c r="D328" s="108"/>
       <c r="E328" s="135" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F328" s="47"/>
       <c r="G328" s="4"/>
@@ -11034,10 +11040,10 @@
         <v>50</v>
       </c>
       <c r="B330" s="182" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C330" s="186" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D330" s="187"/>
       <c r="E330" s="20"/>
@@ -11058,12 +11064,12 @@
       <c r="T330" s="4"/>
     </row>
     <row r="331" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="208"/>
-      <c r="B331" s="216"/>
-      <c r="C331" s="211"/>
-      <c r="D331" s="213"/>
+      <c r="A331" s="212"/>
+      <c r="B331" s="219"/>
+      <c r="C331" s="215"/>
+      <c r="D331" s="204"/>
       <c r="E331" s="133" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F331" s="64"/>
       <c r="G331" s="4"/>
@@ -11087,7 +11093,7 @@
       <c r="C332" s="183"/>
       <c r="D332" s="188"/>
       <c r="E332" s="34" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F332" s="123"/>
       <c r="G332" s="4"/>
@@ -11132,10 +11138,10 @@
         <v>51</v>
       </c>
       <c r="B334" s="182" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C334" s="186" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D334" s="187" t="s">
         <v>102</v>
@@ -11163,7 +11169,7 @@
       <c r="C335" s="183"/>
       <c r="D335" s="188"/>
       <c r="E335" s="133" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F335" s="123"/>
       <c r="G335" s="4"/>
@@ -11187,7 +11193,7 @@
       <c r="C336" s="183"/>
       <c r="D336" s="183"/>
       <c r="E336" s="34" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F336" s="47"/>
       <c r="G336" s="4"/>
@@ -11254,12 +11260,12 @@
         <v>52</v>
       </c>
       <c r="B339" s="176" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C339" s="179" t="s">
-        <v>207</v>
-      </c>
-      <c r="D339" s="214" t="s">
+        <v>199</v>
+      </c>
+      <c r="D339" s="217" t="s">
         <v>102</v>
       </c>
       <c r="E339" s="20"/>
@@ -11283,7 +11289,7 @@
       <c r="A340" s="174"/>
       <c r="B340" s="177"/>
       <c r="C340" s="177"/>
-      <c r="D340" s="215"/>
+      <c r="D340" s="218"/>
       <c r="E340" s="133" t="s">
         <v>153</v>
       </c>
@@ -11309,7 +11315,7 @@
       <c r="C341" s="177"/>
       <c r="D341" s="177"/>
       <c r="E341" s="141" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F341" s="54"/>
       <c r="G341" s="4"/>
@@ -11333,7 +11339,7 @@
       <c r="C342" s="177"/>
       <c r="D342" s="177"/>
       <c r="E342" s="142" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F342" s="53"/>
       <c r="G342" s="4"/>
@@ -11400,10 +11406,10 @@
         <v>53</v>
       </c>
       <c r="B345" s="176" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C345" s="179" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D345" s="82" t="s">
         <v>102</v>
@@ -11430,10 +11436,10 @@
       <c r="B346" s="177"/>
       <c r="C346" s="177"/>
       <c r="D346" s="143" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E346" s="144" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F346" s="30"/>
       <c r="G346" s="4"/>
@@ -11457,7 +11463,7 @@
       <c r="C347" s="177"/>
       <c r="D347" s="80"/>
       <c r="E347" s="145" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F347" s="59"/>
       <c r="G347" s="4"/>
@@ -11481,7 +11487,7 @@
       <c r="C348" s="177"/>
       <c r="D348" s="82"/>
       <c r="E348" s="111" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F348" s="31"/>
       <c r="G348" s="4"/>
@@ -11505,7 +11511,7 @@
       <c r="C349" s="177"/>
       <c r="D349" s="81"/>
       <c r="E349" s="58" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F349" s="61"/>
       <c r="G349" s="4"/>
@@ -11550,13 +11556,13 @@
         <v>54</v>
       </c>
       <c r="B351" s="176" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C351" s="179" t="s">
-        <v>212</v>
-      </c>
-      <c r="D351" s="214" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="D351" s="217" t="s">
+        <v>206</v>
       </c>
       <c r="E351" s="146"/>
       <c r="F351" s="57"/>
@@ -11579,7 +11585,7 @@
       <c r="A352" s="174"/>
       <c r="B352" s="177"/>
       <c r="C352" s="177"/>
-      <c r="D352" s="215"/>
+      <c r="D352" s="218"/>
       <c r="E352" s="133"/>
       <c r="F352" s="161"/>
       <c r="G352" s="4"/>
@@ -11625,7 +11631,7 @@
       <c r="C354" s="177"/>
       <c r="D354" s="177"/>
       <c r="E354" s="111" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F354" s="31"/>
       <c r="G354" s="4"/>
@@ -11649,7 +11655,7 @@
       <c r="C355" s="177"/>
       <c r="D355" s="177"/>
       <c r="E355" s="58" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F355" s="61"/>
       <c r="G355" s="4"/>
@@ -11673,7 +11679,7 @@
       <c r="C356" s="177"/>
       <c r="D356" s="177"/>
       <c r="E356" s="58" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F356" s="59"/>
       <c r="G356" s="4"/>
@@ -11740,13 +11746,13 @@
         <v>55</v>
       </c>
       <c r="B359" s="176" t="s">
-        <v>217</v>
-      </c>
-      <c r="C359" s="210" t="s">
-        <v>218</v>
-      </c>
-      <c r="D359" s="212" t="s">
-        <v>214</v>
+        <v>209</v>
+      </c>
+      <c r="C359" s="214" t="s">
+        <v>210</v>
+      </c>
+      <c r="D359" s="216" t="s">
+        <v>206</v>
       </c>
       <c r="E359" s="146"/>
       <c r="F359" s="59"/>
@@ -11766,12 +11772,12 @@
       <c r="T359" s="4"/>
     </row>
     <row r="360" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="208"/>
-      <c r="B360" s="209"/>
-      <c r="C360" s="211"/>
-      <c r="D360" s="213"/>
+      <c r="A360" s="212"/>
+      <c r="B360" s="213"/>
+      <c r="C360" s="215"/>
+      <c r="D360" s="204"/>
       <c r="E360" s="111" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F360" s="153"/>
       <c r="G360" s="4"/>
@@ -11795,7 +11801,7 @@
       <c r="C361" s="183"/>
       <c r="D361" s="188"/>
       <c r="E361" s="60" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F361" s="30"/>
       <c r="G361" s="4"/>
@@ -11819,7 +11825,7 @@
       <c r="C362" s="184"/>
       <c r="D362" s="188"/>
       <c r="E362" s="148" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F362" s="30"/>
       <c r="G362" s="4"/>
@@ -11864,14 +11870,14 @@
         <v>56</v>
       </c>
       <c r="B364" s="182" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C364" s="179" t="s">
-        <v>225</v>
-      </c>
-      <c r="D364" s="214"/>
+        <v>217</v>
+      </c>
+      <c r="D364" s="217"/>
       <c r="E364" s="154" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F364" s="57"/>
       <c r="G364" s="4"/>
@@ -11893,9 +11899,9 @@
       <c r="A365" s="174"/>
       <c r="B365" s="183"/>
       <c r="C365" s="177"/>
-      <c r="D365" s="215"/>
+      <c r="D365" s="218"/>
       <c r="E365" s="58" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F365" s="30"/>
       <c r="G365" s="4"/>
@@ -11919,7 +11925,7 @@
       <c r="C366" s="177"/>
       <c r="D366" s="177"/>
       <c r="E366" s="58" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F366" s="59"/>
       <c r="G366" s="4"/>
@@ -11943,7 +11949,7 @@
       <c r="C367" s="177"/>
       <c r="D367" s="177"/>
       <c r="E367" s="58" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F367" s="31"/>
       <c r="G367" s="4"/>
@@ -11967,7 +11973,7 @@
       <c r="C368" s="178"/>
       <c r="D368" s="178"/>
       <c r="E368" s="147" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F368" s="33"/>
       <c r="G368" s="4"/>
@@ -11990,12 +11996,12 @@
         <v>57</v>
       </c>
       <c r="B369" s="176" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C369" s="179" t="s">
-        <v>226</v>
-      </c>
-      <c r="D369" s="214"/>
+        <v>218</v>
+      </c>
+      <c r="D369" s="217"/>
       <c r="E369" s="29"/>
       <c r="F369" s="61"/>
       <c r="G369" s="4"/>
@@ -12019,7 +12025,7 @@
       <c r="C370" s="177"/>
       <c r="D370" s="177"/>
       <c r="E370" s="111" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F370" s="61"/>
       <c r="G370" s="4"/>
@@ -12043,7 +12049,7 @@
       <c r="C371" s="177"/>
       <c r="D371" s="177"/>
       <c r="E371" s="111" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F371" s="59"/>
       <c r="G371" s="4"/>
@@ -12065,9 +12071,9 @@
       <c r="A372" s="174"/>
       <c r="B372" s="177"/>
       <c r="C372" s="177"/>
-      <c r="D372" s="215"/>
+      <c r="D372" s="218"/>
       <c r="E372" s="148" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F372" s="30"/>
       <c r="G372" s="4"/>
@@ -12091,7 +12097,7 @@
       <c r="C373" s="177"/>
       <c r="D373" s="177"/>
       <c r="E373" s="145" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F373" s="59"/>
       <c r="G373" s="4"/>
@@ -12115,7 +12121,7 @@
       <c r="C374" s="177"/>
       <c r="D374" s="177"/>
       <c r="E374" s="111" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F374" s="31"/>
       <c r="G374" s="4"/>
@@ -12139,7 +12145,7 @@
       <c r="C375" s="178"/>
       <c r="D375" s="178"/>
       <c r="E375" s="147" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F375" s="152"/>
       <c r="G375" s="4"/>
@@ -12159,13 +12165,13 @@
     </row>
     <row r="376" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A376" s="173" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B376" s="176" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C376" s="179" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D376" s="82"/>
       <c r="E376" s="29"/>
@@ -12193,7 +12199,7 @@
         <v>102</v>
       </c>
       <c r="E377" s="111" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F377" s="61"/>
       <c r="G377" s="4"/>
@@ -12216,10 +12222,10 @@
       <c r="B378" s="177"/>
       <c r="C378" s="177"/>
       <c r="D378" s="143" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E378" s="111" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F378" s="59"/>
       <c r="G378" s="4"/>
@@ -12243,7 +12249,7 @@
       <c r="C379" s="177"/>
       <c r="D379" s="82"/>
       <c r="E379" s="148" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F379" s="30"/>
       <c r="G379" s="4"/>
@@ -12267,7 +12273,7 @@
       <c r="C380" s="177"/>
       <c r="D380" s="143"/>
       <c r="E380" s="111" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F380" s="59"/>
       <c r="G380" s="4"/>
@@ -12291,7 +12297,7 @@
       <c r="C381" s="177"/>
       <c r="D381" s="80"/>
       <c r="E381" s="147" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F381" s="31"/>
       <c r="G381" s="4"/>
@@ -12333,17 +12339,17 @@
     </row>
     <row r="383" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A383" s="173" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B383" s="176" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C383" s="179" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D383" s="164"/>
       <c r="E383" s="111" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F383" s="61"/>
       <c r="G383" s="4"/>
@@ -12369,7 +12375,7 @@
         <v>102</v>
       </c>
       <c r="E384" s="111" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F384" s="61"/>
       <c r="G384" s="4"/>
@@ -12392,10 +12398,10 @@
       <c r="B385" s="177"/>
       <c r="C385" s="177"/>
       <c r="D385" s="143" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E385" s="148" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F385" s="59"/>
       <c r="G385" s="4"/>
@@ -12419,7 +12425,7 @@
       <c r="C386" s="177"/>
       <c r="D386" s="82"/>
       <c r="E386" s="169" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F386" s="30"/>
       <c r="G386" s="4"/>
@@ -12443,7 +12449,7 @@
       <c r="C387" s="177"/>
       <c r="D387" s="168"/>
       <c r="E387" s="148" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F387" s="153"/>
       <c r="G387" s="4"/>
@@ -12467,7 +12473,7 @@
       <c r="C388" s="181"/>
       <c r="D388" s="168"/>
       <c r="E388" s="148" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F388" s="153"/>
       <c r="G388" s="4"/>
@@ -12531,17 +12537,17 @@
     </row>
     <row r="391" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A391" s="173" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B391" s="176" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C391" s="179" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D391" s="164"/>
       <c r="E391" s="154" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F391" s="61"/>
       <c r="G391" s="4"/>
@@ -12567,7 +12573,7 @@
         <v>102</v>
       </c>
       <c r="E392" s="111" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F392" s="61"/>
       <c r="G392" s="4"/>
@@ -12590,10 +12596,10 @@
       <c r="B393" s="177"/>
       <c r="C393" s="177"/>
       <c r="D393" s="143" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E393" s="148" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F393" s="59"/>
       <c r="G393" s="4"/>
@@ -12617,7 +12623,7 @@
       <c r="C394" s="177"/>
       <c r="D394" s="82"/>
       <c r="E394" s="169" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F394" s="30"/>
       <c r="G394" s="4"/>
@@ -12641,7 +12647,7 @@
       <c r="C395" s="177"/>
       <c r="D395" s="143"/>
       <c r="E395" s="148" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F395" s="59"/>
       <c r="G395" s="4"/>
@@ -12665,7 +12671,7 @@
       <c r="C396" s="177"/>
       <c r="D396" s="80"/>
       <c r="E396" s="170" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F396" s="31"/>
       <c r="G396" s="4"/>
@@ -12689,7 +12695,7 @@
       <c r="C397" s="178"/>
       <c r="D397" s="82"/>
       <c r="E397" s="170" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F397" s="152"/>
       <c r="G397" s="4"/>

--- a/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FE48ED-A2F2-42E6-BB4A-4A5E3626D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE60137E-4752-413C-9899-D29D712641E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="367">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>3. User selects 'Your Activity'</t>
-  </si>
-  <si>
-    <t>4. Verify that User Alweena is routed to user details page</t>
   </si>
   <si>
     <t>Facebook link</t>
@@ -654,9 +651,6 @@
     <t>1. User is not loggedIn</t>
   </si>
   <si>
-    <t>2. User selects plus button placed on movie 'Lucifer'</t>
-  </si>
-  <si>
     <t>3. Verify that user is routed to SignIn /Registration  page</t>
   </si>
   <si>
@@ -670,17 +664,6 @@
   </si>
   <si>
     <t>2. User slelects SignIn option from top left corner</t>
-  </si>
-  <si>
-    <t>3. Verify that user is routed to SignIn /Registration  page to SignUp/SignIn</t>
-  </si>
-  <si>
-    <t>4. User enters an already IMDb used EmailId to SignUp again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Verify that following error message is diplayed 'Important Message!
-You indicated you're a new customer, but an account already exists with the email address weenakhalid@gmail.com.'
-</t>
   </si>
   <si>
     <t>More than one instance&gt;IMDb</t>
@@ -851,9 +834,6 @@
 </t>
   </si>
   <si>
-    <t>3. User select sort by 'RunTime' from drop-down and press arrow button</t>
-  </si>
-  <si>
     <t>1. User scrolls down to From your watchlist section</t>
   </si>
   <si>
@@ -926,9 +906,6 @@
     <t>Sharing a private watchlist</t>
   </si>
   <si>
-    <t>1. User selects Watchlist button from top right corner under username menu</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Press Edit option to alter Setings </t>
   </si>
   <si>
@@ -951,12 +928,6 @@
   </si>
   <si>
     <t>1. User selects watclist from top action pannel</t>
-  </si>
-  <si>
-    <t>4. Verify that sorting is done based on highest Metascore at top</t>
-  </si>
-  <si>
-    <t>2. User press Star icon placed against movie 'Lucifer' under Top picks section to provide star rating</t>
   </si>
   <si>
     <t>3. Verify that user is routed to SignIn /Registration  page to add star rating</t>
@@ -1193,6 +1164,41 @@
   </si>
   <si>
     <t>1. User selects dropdown from top right corner where Username is displayed</t>
+  </si>
+  <si>
+    <t>1. User selects Watchlist button from top right corner</t>
+  </si>
+  <si>
+    <t>4. Verify that the user is routed to user details page</t>
+  </si>
+  <si>
+    <t>2. User has already added items to watchlist</t>
+  </si>
+  <si>
+    <t>4. Verify that sorting is done based on highest IMDb Rating at top</t>
+  </si>
+  <si>
+    <t>3. User select sort by 'IMDb Rating' from drop-down</t>
+  </si>
+  <si>
+    <t>2. User selects plus button placed on movie 'Cruella'</t>
+  </si>
+  <si>
+    <t>2. User press Star icon placed against movie 'Cruella to provide star rating</t>
+  </si>
+  <si>
+    <t>3. Verify that user is routed to SignIn /Registration page to SignUp/SignIn</t>
+  </si>
+  <si>
+    <t>4. User presses the ‘Create new account’ option</t>
+  </si>
+  <si>
+    <t>5. User enters requiered details and an already IMDb used EmailId to SignUp again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Verify that following error message is diplayed 'Important Message!
+You indicated you're a new customer, but an account already exists with the email address weenakhalid@gmail.com.'
+</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2582,6 +2588,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3025,11 +3034,11 @@
     <tabColor rgb="FF6D9EEB"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T649"/>
+  <dimension ref="A1:T650"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E310" sqref="E310"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E370" sqref="E370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3077,30 +3086,30 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="207" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="3"/>
@@ -3119,12 +3128,12 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="212"/>
-      <c r="B4" s="219"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="206"/>
+      <c r="A4" s="213"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="207"/>
       <c r="E4" s="74" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="3"/>
@@ -3143,12 +3152,12 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="212"/>
-      <c r="B5" s="219"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="206"/>
+      <c r="A5" s="213"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="207"/>
       <c r="E5" s="76" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="3"/>
@@ -3167,12 +3176,12 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="212"/>
-      <c r="B6" s="219"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="206"/>
+      <c r="A6" s="213"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="76" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="3"/>
@@ -3191,12 +3200,12 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="212"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="206"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="76" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="3"/>
@@ -3215,12 +3224,12 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="212"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="206"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="76" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="3"/>
@@ -3239,12 +3248,12 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="212"/>
-      <c r="B9" s="219"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="206"/>
+      <c r="A9" s="213"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="207"/>
       <c r="E9" s="76" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>59</v>
@@ -3265,10 +3274,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="212"/>
-      <c r="B10" s="219"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="206"/>
+      <c r="A10" s="213"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="76"/>
       <c r="F10" s="78"/>
       <c r="G10" s="3"/>
@@ -3287,10 +3296,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" s="71" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="224"/>
-      <c r="B11" s="226"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="235"/>
+      <c r="A11" s="225"/>
+      <c r="B11" s="227"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="236"/>
       <c r="E11" s="67"/>
       <c r="F11" s="68"/>
       <c r="G11" s="69"/>
@@ -3309,20 +3318,20 @@
       <c r="T11" s="70"/>
     </row>
     <row r="12" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="226" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="220" t="s">
+      <c r="C12" s="221" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
@@ -3341,12 +3350,12 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
-      <c r="B13" s="219"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="250"/>
+      <c r="A13" s="213"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="251"/>
       <c r="E13" s="79" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -3365,12 +3374,12 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="212"/>
-      <c r="B14" s="219"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="251"/>
+      <c r="A14" s="213"/>
+      <c r="B14" s="220"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="252"/>
       <c r="E14" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="3"/>
@@ -3389,12 +3398,12 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="212"/>
-      <c r="B15" s="219"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="251"/>
+      <c r="A15" s="213"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="252"/>
       <c r="E15" s="79" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
@@ -3413,12 +3422,12 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
-      <c r="B16" s="219"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="251"/>
+      <c r="A16" s="213"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="252"/>
       <c r="E16" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3437,12 +3446,12 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
-      <c r="B17" s="219"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="251"/>
+      <c r="A17" s="213"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="252"/>
       <c r="E17" s="149" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -3461,12 +3470,12 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
-      <c r="B18" s="219"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="251"/>
+      <c r="A18" s="213"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>59</v>
@@ -3487,10 +3496,10 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="236"/>
-      <c r="B19" s="226"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="252"/>
+      <c r="A19" s="237"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="253"/>
       <c r="E19" s="88"/>
       <c r="F19" s="86" t="s">
         <v>63</v>
@@ -3511,20 +3520,20 @@
       <c r="T19" s="70"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="212" t="s">
+      <c r="A20" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="220" t="s">
+      <c r="C20" s="221" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3"/>
@@ -3543,14 +3552,14 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="212"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="215"/>
+      <c r="A21" s="213"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="216"/>
       <c r="D21" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -3569,14 +3578,14 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="212"/>
-      <c r="B22" s="219"/>
-      <c r="C22" s="215"/>
+      <c r="A22" s="213"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="216"/>
       <c r="D22" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
@@ -3595,12 +3604,12 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="212"/>
-      <c r="B23" s="219"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="194"/>
+      <c r="A23" s="213"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="85" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
@@ -3619,10 +3628,10 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="212"/>
-      <c r="B24" s="219"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="195"/>
+      <c r="A24" s="213"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="4"/>
@@ -3641,10 +3650,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="212"/>
-      <c r="B25" s="219"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="195"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="220"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="196"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="4"/>
@@ -3663,10 +3672,10 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="212"/>
-      <c r="B26" s="226"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="249"/>
+      <c r="A26" s="213"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="88"/>
       <c r="F26" s="89"/>
       <c r="G26" s="4"/>
@@ -3685,20 +3694,20 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="223" t="s">
+      <c r="A27" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="237" t="s">
+      <c r="B27" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="240" t="s">
-        <v>250</v>
+      <c r="C27" s="241" t="s">
+        <v>245</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="4"/>
@@ -3717,14 +3726,14 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A28" s="212"/>
-      <c r="B28" s="238"/>
-      <c r="C28" s="241"/>
+      <c r="A28" s="213"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="242"/>
       <c r="D28" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -3743,14 +3752,14 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="212"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="241"/>
+      <c r="A29" s="213"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="242"/>
       <c r="D29" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -3769,9 +3778,9 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="224"/>
-      <c r="B30" s="239"/>
-      <c r="C30" s="242"/>
+      <c r="A30" s="225"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="243"/>
       <c r="D30" s="96"/>
       <c r="E30" s="91"/>
       <c r="F30" s="92"/>
@@ -3791,18 +3800,18 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="223" t="s">
+      <c r="A31" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="225" t="s">
+      <c r="B31" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="246" t="s">
-        <v>249</v>
+      <c r="C31" s="247" t="s">
+        <v>244</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="129" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="4"/>
@@ -3821,14 +3830,14 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="212"/>
-      <c r="B32" s="219"/>
-      <c r="C32" s="215"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="216"/>
       <c r="D32" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
@@ -3847,14 +3856,14 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="212"/>
-      <c r="B33" s="219"/>
-      <c r="C33" s="215"/>
+      <c r="A33" s="213"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="216"/>
       <c r="D33" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="4"/>
@@ -3873,13 +3882,13 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="212"/>
-      <c r="B34" s="219"/>
-      <c r="C34" s="215"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="216"/>
       <c r="D34" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="243"/>
+      <c r="E34" s="244"/>
       <c r="F34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3897,13 +3906,13 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="212"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="215"/>
+      <c r="A35" s="213"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="216"/>
       <c r="D35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="244"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3921,11 +3930,11 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="212"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="215"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="245"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="246"/>
       <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3943,10 +3952,10 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="224"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="221"/>
-      <c r="D37" s="196"/>
+      <c r="A37" s="225"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="222"/>
+      <c r="D37" s="197"/>
       <c r="E37" s="94"/>
       <c r="F37" s="95"/>
       <c r="G37" s="4"/>
@@ -3965,14 +3974,14 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="223" t="s">
+      <c r="A38" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="225" t="s">
+      <c r="B38" s="226" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="220" t="s">
-        <v>248</v>
+      <c r="C38" s="221" t="s">
+        <v>243</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="17"/>
@@ -3993,12 +4002,12 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="212"/>
-      <c r="B39" s="219"/>
-      <c r="C39" s="215"/>
+      <c r="A39" s="213"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="216"/>
       <c r="D39" s="81"/>
       <c r="E39" s="13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="4"/>
@@ -4017,14 +4026,14 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="212"/>
-      <c r="B40" s="219"/>
-      <c r="C40" s="215"/>
+      <c r="A40" s="213"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="216"/>
       <c r="D40" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="4"/>
@@ -4043,14 +4052,14 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A41" s="212"/>
-      <c r="B41" s="219"/>
-      <c r="C41" s="215"/>
+      <c r="A41" s="213"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="216"/>
       <c r="D41" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="113" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="4"/>
@@ -4069,9 +4078,9 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="212"/>
-      <c r="B42" s="219"/>
-      <c r="C42" s="215"/>
+      <c r="A42" s="213"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="216"/>
       <c r="D42" s="80" t="s">
         <v>68</v>
       </c>
@@ -4093,9 +4102,9 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="212"/>
-      <c r="B43" s="219"/>
-      <c r="C43" s="215"/>
+      <c r="A43" s="213"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="216"/>
       <c r="D43" s="81"/>
       <c r="E43" s="13"/>
       <c r="F43" s="14"/>
@@ -4115,9 +4124,9 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="224"/>
-      <c r="B44" s="226"/>
-      <c r="C44" s="221"/>
+      <c r="A44" s="225"/>
+      <c r="B44" s="227"/>
+      <c r="C44" s="222"/>
       <c r="D44" s="100"/>
       <c r="E44" s="94"/>
       <c r="F44" s="16"/>
@@ -4137,14 +4146,14 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="223" t="s">
+      <c r="A45" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="225" t="s">
-        <v>357</v>
-      </c>
-      <c r="C45" s="220" t="s">
-        <v>282</v>
+      <c r="B45" s="226" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" s="221" t="s">
+        <v>276</v>
       </c>
       <c r="D45" s="114"/>
       <c r="E45" s="17"/>
@@ -4165,14 +4174,14 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="212"/>
-      <c r="B46" s="219"/>
-      <c r="C46" s="215"/>
+      <c r="A46" s="213"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="216"/>
       <c r="D46" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="4"/>
@@ -4191,14 +4200,14 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="212"/>
-      <c r="B47" s="219"/>
-      <c r="C47" s="215"/>
+      <c r="A47" s="213"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="216"/>
       <c r="D47" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="4"/>
@@ -4217,14 +4226,14 @@
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="212"/>
-      <c r="B48" s="219"/>
-      <c r="C48" s="215"/>
+      <c r="A48" s="213"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="216"/>
       <c r="D48" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="4"/>
@@ -4243,9 +4252,9 @@
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="212"/>
-      <c r="B49" s="219"/>
-      <c r="C49" s="215"/>
+      <c r="A49" s="213"/>
+      <c r="B49" s="220"/>
+      <c r="C49" s="216"/>
       <c r="D49" s="81"/>
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
@@ -4265,9 +4274,9 @@
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="224"/>
-      <c r="B50" s="226"/>
-      <c r="C50" s="221"/>
+      <c r="A50" s="225"/>
+      <c r="B50" s="227"/>
+      <c r="C50" s="222"/>
       <c r="D50" s="100"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
@@ -4287,14 +4296,14 @@
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="223" t="s">
+      <c r="A51" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="225" t="s">
+      <c r="B51" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="220" t="s">
-        <v>247</v>
+      <c r="C51" s="221" t="s">
+        <v>242</v>
       </c>
       <c r="D51" s="114"/>
       <c r="E51" s="17"/>
@@ -4315,12 +4324,12 @@
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="212"/>
-      <c r="B52" s="219"/>
-      <c r="C52" s="215"/>
+      <c r="A52" s="213"/>
+      <c r="B52" s="220"/>
+      <c r="C52" s="216"/>
       <c r="D52" s="81"/>
       <c r="E52" s="13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
@@ -4339,14 +4348,14 @@
       <c r="T52" s="4"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="212"/>
-      <c r="B53" s="219"/>
-      <c r="C53" s="215"/>
+      <c r="A53" s="213"/>
+      <c r="B53" s="220"/>
+      <c r="C53" s="216"/>
       <c r="D53" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="4"/>
@@ -4365,14 +4374,14 @@
       <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="212"/>
-      <c r="B54" s="219"/>
-      <c r="C54" s="215"/>
+      <c r="A54" s="213"/>
+      <c r="B54" s="220"/>
+      <c r="C54" s="216"/>
       <c r="D54" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="4"/>
@@ -4391,14 +4400,14 @@
       <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="212"/>
-      <c r="B55" s="219"/>
-      <c r="C55" s="215"/>
+      <c r="A55" s="213"/>
+      <c r="B55" s="220"/>
+      <c r="C55" s="216"/>
       <c r="D55" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="4"/>
@@ -4417,11 +4426,11 @@
       <c r="T55" s="4"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="212"/>
-      <c r="B56" s="219"/>
-      <c r="C56" s="215"/>
+      <c r="A56" s="213"/>
+      <c r="B56" s="220"/>
+      <c r="C56" s="216"/>
       <c r="D56" s="81" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="14"/>
@@ -4441,11 +4450,11 @@
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="212"/>
-      <c r="B57" s="219"/>
-      <c r="C57" s="215"/>
-      <c r="D57" s="194"/>
-      <c r="E57" s="243"/>
+      <c r="A57" s="213"/>
+      <c r="B57" s="220"/>
+      <c r="C57" s="216"/>
+      <c r="D57" s="195"/>
+      <c r="E57" s="244"/>
       <c r="F57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4463,11 +4472,11 @@
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="212"/>
-      <c r="B58" s="219"/>
-      <c r="C58" s="215"/>
-      <c r="D58" s="195"/>
-      <c r="E58" s="244"/>
+      <c r="A58" s="213"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="216"/>
+      <c r="D58" s="196"/>
+      <c r="E58" s="245"/>
       <c r="F58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4485,11 +4494,11 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="212"/>
-      <c r="B59" s="219"/>
-      <c r="C59" s="215"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="245"/>
+      <c r="A59" s="213"/>
+      <c r="B59" s="220"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="246"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4507,9 +4516,9 @@
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="224"/>
-      <c r="B60" s="226"/>
-      <c r="C60" s="221"/>
+      <c r="A60" s="225"/>
+      <c r="B60" s="227"/>
+      <c r="C60" s="222"/>
       <c r="D60" s="101"/>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
@@ -4529,14 +4538,14 @@
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="223" t="s">
+      <c r="A61" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="220" t="s">
-        <v>251</v>
+      <c r="C61" s="221" t="s">
+        <v>246</v>
       </c>
       <c r="D61" s="82"/>
       <c r="E61" s="17"/>
@@ -4557,9 +4566,9 @@
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="212"/>
-      <c r="B62" s="219"/>
-      <c r="C62" s="215"/>
+      <c r="A62" s="213"/>
+      <c r="B62" s="220"/>
+      <c r="C62" s="216"/>
       <c r="D62" s="82" t="s">
         <v>66</v>
       </c>
@@ -4583,14 +4592,14 @@
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="132" x14ac:dyDescent="0.3">
-      <c r="A63" s="212"/>
-      <c r="B63" s="219"/>
-      <c r="C63" s="215"/>
+      <c r="A63" s="213"/>
+      <c r="B63" s="220"/>
+      <c r="C63" s="216"/>
       <c r="D63" s="81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E63" s="113" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="4"/>
@@ -4609,11 +4618,11 @@
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="212"/>
-      <c r="B64" s="219"/>
-      <c r="C64" s="215"/>
+      <c r="A64" s="213"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="216"/>
       <c r="D64" s="80" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -4633,10 +4642,10 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="212"/>
-      <c r="B65" s="219"/>
-      <c r="C65" s="215"/>
-      <c r="D65" s="194"/>
+      <c r="A65" s="213"/>
+      <c r="B65" s="220"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="195"/>
       <c r="E65" s="13"/>
       <c r="F65" s="14"/>
       <c r="G65" s="4"/>
@@ -4655,10 +4664,10 @@
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="212"/>
-      <c r="B66" s="219"/>
-      <c r="C66" s="215"/>
-      <c r="D66" s="195"/>
+      <c r="A66" s="213"/>
+      <c r="B66" s="220"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="196"/>
       <c r="E66" s="13"/>
       <c r="F66" s="14"/>
       <c r="G66" s="4"/>
@@ -4677,10 +4686,10 @@
       <c r="T66" s="4"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="212"/>
-      <c r="B67" s="219"/>
-      <c r="C67" s="215"/>
-      <c r="D67" s="198"/>
+      <c r="A67" s="213"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="199"/>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
       <c r="G67" s="4"/>
@@ -4699,9 +4708,9 @@
       <c r="T67" s="4"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="212"/>
-      <c r="B68" s="219"/>
-      <c r="C68" s="215"/>
+      <c r="A68" s="213"/>
+      <c r="B68" s="220"/>
+      <c r="C68" s="216"/>
       <c r="D68" s="82"/>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
@@ -4721,9 +4730,9 @@
       <c r="T68" s="4"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="212"/>
-      <c r="B69" s="219"/>
-      <c r="C69" s="215"/>
+      <c r="A69" s="213"/>
+      <c r="B69" s="220"/>
+      <c r="C69" s="216"/>
       <c r="D69" s="81"/>
       <c r="E69" s="13"/>
       <c r="F69" s="14"/>
@@ -4743,9 +4752,9 @@
       <c r="T69" s="4"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="212"/>
-      <c r="B70" s="219"/>
-      <c r="C70" s="215"/>
+      <c r="A70" s="213"/>
+      <c r="B70" s="220"/>
+      <c r="C70" s="216"/>
       <c r="D70" s="80"/>
       <c r="E70" s="13"/>
       <c r="F70" s="14"/>
@@ -4765,9 +4774,9 @@
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="212"/>
-      <c r="B71" s="219"/>
-      <c r="C71" s="215"/>
+      <c r="A71" s="213"/>
+      <c r="B71" s="220"/>
+      <c r="C71" s="216"/>
       <c r="D71" s="81"/>
       <c r="E71" s="13"/>
       <c r="F71" s="14"/>
@@ -4787,9 +4796,9 @@
       <c r="T71" s="4"/>
     </row>
     <row r="72" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="224"/>
-      <c r="B72" s="226"/>
-      <c r="C72" s="221"/>
+      <c r="A72" s="225"/>
+      <c r="B72" s="227"/>
+      <c r="C72" s="222"/>
       <c r="D72" s="102"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -4809,14 +4818,14 @@
       <c r="T72" s="4"/>
     </row>
     <row r="73" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="223" t="s">
+      <c r="A73" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="225" t="s">
+      <c r="B73" s="226" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="220" t="s">
-        <v>252</v>
+      <c r="C73" s="221" t="s">
+        <v>247</v>
       </c>
       <c r="D73" s="114"/>
       <c r="E73" s="17"/>
@@ -4837,9 +4846,9 @@
       <c r="T73" s="4"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="212"/>
-      <c r="B74" s="219"/>
-      <c r="C74" s="215"/>
+      <c r="A74" s="213"/>
+      <c r="B74" s="220"/>
+      <c r="C74" s="216"/>
       <c r="D74" s="82" t="s">
         <v>66</v>
       </c>
@@ -4863,11 +4872,11 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="212"/>
-      <c r="B75" s="219"/>
-      <c r="C75" s="215"/>
+      <c r="A75" s="213"/>
+      <c r="B75" s="220"/>
+      <c r="C75" s="216"/>
       <c r="D75" s="81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>79</v>
@@ -4889,11 +4898,11 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="212"/>
-      <c r="B76" s="219"/>
-      <c r="C76" s="215"/>
+      <c r="A76" s="213"/>
+      <c r="B76" s="220"/>
+      <c r="C76" s="216"/>
       <c r="D76" s="80" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>80</v>
@@ -4915,9 +4924,9 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="212"/>
-      <c r="B77" s="219"/>
-      <c r="C77" s="215"/>
+      <c r="A77" s="213"/>
+      <c r="B77" s="220"/>
+      <c r="C77" s="216"/>
       <c r="D77" s="81"/>
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
@@ -4937,10 +4946,10 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="212"/>
-      <c r="B78" s="219"/>
-      <c r="C78" s="215"/>
-      <c r="D78" s="194"/>
+      <c r="A78" s="213"/>
+      <c r="B78" s="220"/>
+      <c r="C78" s="216"/>
+      <c r="D78" s="195"/>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
       <c r="G78" s="4"/>
@@ -4959,10 +4968,10 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="212"/>
-      <c r="B79" s="219"/>
-      <c r="C79" s="215"/>
-      <c r="D79" s="195"/>
+      <c r="A79" s="213"/>
+      <c r="B79" s="220"/>
+      <c r="C79" s="216"/>
+      <c r="D79" s="196"/>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
@@ -4981,10 +4990,10 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="212"/>
-      <c r="B80" s="219"/>
-      <c r="C80" s="215"/>
-      <c r="D80" s="195"/>
+      <c r="A80" s="213"/>
+      <c r="B80" s="220"/>
+      <c r="C80" s="216"/>
+      <c r="D80" s="196"/>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
       <c r="G80" s="4"/>
@@ -5003,10 +5012,10 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="212"/>
-      <c r="B81" s="219"/>
-      <c r="C81" s="215"/>
-      <c r="D81" s="195"/>
+      <c r="A81" s="213"/>
+      <c r="B81" s="220"/>
+      <c r="C81" s="216"/>
+      <c r="D81" s="196"/>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
       <c r="G81" s="4"/>
@@ -5025,10 +5034,10 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="212"/>
-      <c r="B82" s="219"/>
-      <c r="C82" s="215"/>
-      <c r="D82" s="198"/>
+      <c r="A82" s="213"/>
+      <c r="B82" s="220"/>
+      <c r="C82" s="216"/>
+      <c r="D82" s="199"/>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
       <c r="G82" s="4"/>
@@ -5047,9 +5056,9 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="212"/>
-      <c r="B83" s="219"/>
-      <c r="C83" s="215"/>
+      <c r="A83" s="213"/>
+      <c r="B83" s="220"/>
+      <c r="C83" s="216"/>
       <c r="D83" s="81"/>
       <c r="E83" s="13"/>
       <c r="F83" s="14"/>
@@ -5069,9 +5078,9 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="224"/>
-      <c r="B84" s="226"/>
-      <c r="C84" s="221"/>
+      <c r="A84" s="225"/>
+      <c r="B84" s="227"/>
+      <c r="C84" s="222"/>
       <c r="D84" s="100"/>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
@@ -5091,14 +5100,14 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="223" t="s">
+      <c r="A85" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="225" t="s">
+      <c r="B85" s="226" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="220" t="s">
-        <v>253</v>
+      <c r="C85" s="221" t="s">
+        <v>248</v>
       </c>
       <c r="D85" s="82"/>
       <c r="E85" s="17"/>
@@ -5119,9 +5128,9 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="212"/>
-      <c r="B86" s="219"/>
-      <c r="C86" s="215"/>
+      <c r="A86" s="213"/>
+      <c r="B86" s="220"/>
+      <c r="C86" s="216"/>
       <c r="D86" s="82" t="s">
         <v>66</v>
       </c>
@@ -5145,11 +5154,11 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="212"/>
-      <c r="B87" s="219"/>
-      <c r="C87" s="215"/>
+      <c r="A87" s="213"/>
+      <c r="B87" s="220"/>
+      <c r="C87" s="216"/>
       <c r="D87" s="81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>79</v>
@@ -5171,11 +5180,11 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="212"/>
-      <c r="B88" s="219"/>
-      <c r="C88" s="215"/>
+      <c r="A88" s="213"/>
+      <c r="B88" s="220"/>
+      <c r="C88" s="216"/>
       <c r="D88" s="80" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>82</v>
@@ -5197,9 +5206,9 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="212"/>
-      <c r="B89" s="219"/>
-      <c r="C89" s="215"/>
+      <c r="A89" s="213"/>
+      <c r="B89" s="220"/>
+      <c r="C89" s="216"/>
       <c r="D89" s="81"/>
       <c r="E89" s="13" t="s">
         <v>83</v>
@@ -5221,9 +5230,9 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="212"/>
-      <c r="B90" s="219"/>
-      <c r="C90" s="215"/>
+      <c r="A90" s="213"/>
+      <c r="B90" s="220"/>
+      <c r="C90" s="216"/>
       <c r="D90" s="105"/>
       <c r="E90" s="63"/>
       <c r="F90" s="14"/>
@@ -5243,9 +5252,9 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="212"/>
-      <c r="B91" s="219"/>
-      <c r="C91" s="215"/>
+      <c r="A91" s="213"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="216"/>
       <c r="D91" s="106"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
@@ -5265,9 +5274,9 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="224"/>
-      <c r="B92" s="226"/>
-      <c r="C92" s="221"/>
+      <c r="A92" s="225"/>
+      <c r="B92" s="227"/>
+      <c r="C92" s="222"/>
       <c r="D92" s="107"/>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -5287,14 +5296,14 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="223" t="s">
+      <c r="A93" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="225" t="s">
+      <c r="B93" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="220" t="s">
-        <v>339</v>
+      <c r="C93" s="221" t="s">
+        <v>330</v>
       </c>
       <c r="D93" s="114"/>
       <c r="E93" s="20"/>
@@ -5315,9 +5324,9 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="212"/>
-      <c r="B94" s="219"/>
-      <c r="C94" s="215"/>
+      <c r="A94" s="213"/>
+      <c r="B94" s="220"/>
+      <c r="C94" s="216"/>
       <c r="D94" s="82" t="s">
         <v>66</v>
       </c>
@@ -5341,11 +5350,11 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="212"/>
-      <c r="B95" s="219"/>
-      <c r="C95" s="215"/>
+      <c r="A95" s="213"/>
+      <c r="B95" s="220"/>
+      <c r="C95" s="216"/>
       <c r="D95" s="81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>79</v>
@@ -5367,14 +5376,14 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="212"/>
-      <c r="B96" s="219"/>
-      <c r="C96" s="215"/>
+      <c r="A96" s="213"/>
+      <c r="B96" s="220"/>
+      <c r="C96" s="216"/>
       <c r="D96" s="80" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="4"/>
@@ -5393,9 +5402,9 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="212"/>
-      <c r="B97" s="219"/>
-      <c r="C97" s="215"/>
+      <c r="A97" s="213"/>
+      <c r="B97" s="220"/>
+      <c r="C97" s="216"/>
       <c r="D97" s="105"/>
       <c r="E97" s="13" t="s">
         <v>83</v>
@@ -5417,9 +5426,9 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="212"/>
-      <c r="B98" s="219"/>
-      <c r="C98" s="215"/>
+      <c r="A98" s="213"/>
+      <c r="B98" s="220"/>
+      <c r="C98" s="216"/>
       <c r="D98" s="104"/>
       <c r="E98" s="22"/>
       <c r="F98" s="23"/>
@@ -5439,9 +5448,9 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="212"/>
-      <c r="B99" s="219"/>
-      <c r="C99" s="215"/>
+      <c r="A99" s="213"/>
+      <c r="B99" s="220"/>
+      <c r="C99" s="216"/>
       <c r="D99" s="99"/>
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
@@ -5461,9 +5470,9 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="224"/>
-      <c r="B100" s="226"/>
-      <c r="C100" s="221"/>
+      <c r="A100" s="225"/>
+      <c r="B100" s="227"/>
+      <c r="C100" s="222"/>
       <c r="D100" s="108"/>
       <c r="E100" s="24"/>
       <c r="F100" s="25"/>
@@ -5483,14 +5492,14 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="223" t="s">
+      <c r="A101" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="225" t="s">
+      <c r="B101" s="226" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="220" t="s">
-        <v>338</v>
+      <c r="C101" s="221" t="s">
+        <v>329</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="17"/>
@@ -5511,9 +5520,9 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="212"/>
-      <c r="B102" s="219"/>
-      <c r="C102" s="215"/>
+      <c r="A102" s="213"/>
+      <c r="B102" s="220"/>
+      <c r="C102" s="216"/>
       <c r="D102" s="81"/>
       <c r="E102" s="13" t="s">
         <v>94</v>
@@ -5535,9 +5544,9 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="212"/>
-      <c r="B103" s="219"/>
-      <c r="C103" s="215"/>
+      <c r="A103" s="213"/>
+      <c r="B103" s="220"/>
+      <c r="C103" s="216"/>
       <c r="D103" s="82" t="s">
         <v>66</v>
       </c>
@@ -5561,14 +5570,14 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="212"/>
-      <c r="B104" s="219"/>
-      <c r="C104" s="215"/>
+      <c r="A104" s="213"/>
+      <c r="B104" s="220"/>
+      <c r="C104" s="216"/>
       <c r="D104" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="4"/>
@@ -5587,17 +5596,17 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="212"/>
-      <c r="B105" s="219"/>
-      <c r="C105" s="215"/>
+      <c r="A105" s="213"/>
+      <c r="B105" s="220"/>
+      <c r="C105" s="216"/>
       <c r="D105" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5615,9 +5624,9 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="212"/>
-      <c r="B106" s="219"/>
-      <c r="C106" s="215"/>
+      <c r="A106" s="213"/>
+      <c r="B106" s="220"/>
+      <c r="C106" s="216"/>
       <c r="D106" s="82"/>
       <c r="E106" s="13"/>
       <c r="F106" s="14"/>
@@ -5637,9 +5646,9 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="212"/>
-      <c r="B107" s="219"/>
-      <c r="C107" s="215"/>
+      <c r="A107" s="213"/>
+      <c r="B107" s="220"/>
+      <c r="C107" s="216"/>
       <c r="D107" s="81"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
@@ -5659,9 +5668,9 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="212"/>
-      <c r="B108" s="219"/>
-      <c r="C108" s="215"/>
+      <c r="A108" s="213"/>
+      <c r="B108" s="220"/>
+      <c r="C108" s="216"/>
       <c r="D108" s="80"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
@@ -5681,9 +5690,9 @@
       <c r="T108" s="4"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="212"/>
-      <c r="B109" s="219"/>
-      <c r="C109" s="215"/>
+      <c r="A109" s="213"/>
+      <c r="B109" s="220"/>
+      <c r="C109" s="216"/>
       <c r="D109" s="105"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
@@ -5703,9 +5712,9 @@
       <c r="T109" s="4"/>
     </row>
     <row r="110" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="224"/>
-      <c r="B110" s="226"/>
-      <c r="C110" s="221"/>
+      <c r="A110" s="225"/>
+      <c r="B110" s="227"/>
+      <c r="C110" s="222"/>
       <c r="D110" s="109"/>
       <c r="E110" s="15"/>
       <c r="F110" s="16"/>
@@ -5725,14 +5734,14 @@
       <c r="T110" s="4"/>
     </row>
     <row r="111" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="223" t="s">
+      <c r="A111" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="225" t="s">
+      <c r="B111" s="226" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="220" t="s">
-        <v>337</v>
+      <c r="C111" s="221" t="s">
+        <v>328</v>
       </c>
       <c r="D111" s="82"/>
       <c r="E111" s="17"/>
@@ -5753,9 +5762,9 @@
       <c r="T111" s="4"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="212"/>
-      <c r="B112" s="219"/>
-      <c r="C112" s="215"/>
+      <c r="A112" s="213"/>
+      <c r="B112" s="220"/>
+      <c r="C112" s="216"/>
       <c r="D112" s="81"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
@@ -5775,9 +5784,9 @@
       <c r="T112" s="4"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="212"/>
-      <c r="B113" s="219"/>
-      <c r="C113" s="215"/>
+      <c r="A113" s="213"/>
+      <c r="B113" s="220"/>
+      <c r="C113" s="216"/>
       <c r="D113" s="82" t="s">
         <v>66</v>
       </c>
@@ -5801,9 +5810,9 @@
       <c r="T113" s="4"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="212"/>
-      <c r="B114" s="219"/>
-      <c r="C114" s="215"/>
+      <c r="A114" s="213"/>
+      <c r="B114" s="220"/>
+      <c r="C114" s="216"/>
       <c r="D114" s="81" t="s">
         <v>67</v>
       </c>
@@ -5827,14 +5836,14 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="212"/>
-      <c r="B115" s="219"/>
-      <c r="C115" s="215"/>
+      <c r="A115" s="213"/>
+      <c r="B115" s="220"/>
+      <c r="C115" s="216"/>
       <c r="D115" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="4"/>
@@ -5853,15 +5862,15 @@
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="212"/>
-      <c r="B116" s="219"/>
-      <c r="C116" s="215"/>
+      <c r="A116" s="213"/>
+      <c r="B116" s="220"/>
+      <c r="C116" s="216"/>
       <c r="D116" s="81"/>
       <c r="E116" s="13" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F116" s="162" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5879,9 +5888,9 @@
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="212"/>
-      <c r="B117" s="219"/>
-      <c r="C117" s="215"/>
+      <c r="A117" s="213"/>
+      <c r="B117" s="220"/>
+      <c r="C117" s="216"/>
       <c r="D117" s="80"/>
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
@@ -5901,9 +5910,9 @@
       <c r="T117" s="4"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="212"/>
-      <c r="B118" s="219"/>
-      <c r="C118" s="215"/>
+      <c r="A118" s="213"/>
+      <c r="B118" s="220"/>
+      <c r="C118" s="216"/>
       <c r="D118" s="82"/>
       <c r="E118" s="13"/>
       <c r="F118" s="14"/>
@@ -5923,9 +5932,9 @@
       <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="212"/>
-      <c r="B119" s="219"/>
-      <c r="C119" s="215"/>
+      <c r="A119" s="213"/>
+      <c r="B119" s="220"/>
+      <c r="C119" s="216"/>
       <c r="D119" s="82"/>
       <c r="E119" s="13"/>
       <c r="F119" s="14"/>
@@ -5945,9 +5954,9 @@
       <c r="T119" s="4"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="212"/>
-      <c r="B120" s="219"/>
-      <c r="C120" s="215"/>
+      <c r="A120" s="213"/>
+      <c r="B120" s="220"/>
+      <c r="C120" s="216"/>
       <c r="D120" s="103"/>
       <c r="E120" s="13"/>
       <c r="F120" s="14"/>
@@ -5967,9 +5976,9 @@
       <c r="T120" s="4"/>
     </row>
     <row r="121" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="224"/>
-      <c r="B121" s="226"/>
-      <c r="C121" s="221"/>
+      <c r="A121" s="225"/>
+      <c r="B121" s="227"/>
+      <c r="C121" s="222"/>
       <c r="D121" s="107"/>
       <c r="E121" s="15"/>
       <c r="F121" s="16"/>
@@ -5989,13 +5998,13 @@
       <c r="T121" s="4"/>
     </row>
     <row r="122" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="223" t="s">
+      <c r="A122" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="225" t="s">
+      <c r="B122" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="C122" s="220" t="s">
+      <c r="C122" s="221" t="s">
         <v>93</v>
       </c>
       <c r="D122" s="82"/>
@@ -6017,9 +6026,9 @@
       <c r="T122" s="4"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="212"/>
-      <c r="B123" s="219"/>
-      <c r="C123" s="215"/>
+      <c r="A123" s="213"/>
+      <c r="B123" s="220"/>
+      <c r="C123" s="216"/>
       <c r="D123" s="81"/>
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
@@ -6039,9 +6048,9 @@
       <c r="T123" s="4"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="212"/>
-      <c r="B124" s="219"/>
-      <c r="C124" s="215"/>
+      <c r="A124" s="213"/>
+      <c r="B124" s="220"/>
+      <c r="C124" s="216"/>
       <c r="D124" s="82" t="s">
         <v>66</v>
       </c>
@@ -6065,9 +6074,9 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="212"/>
-      <c r="B125" s="219"/>
-      <c r="C125" s="215"/>
+      <c r="A125" s="213"/>
+      <c r="B125" s="220"/>
+      <c r="C125" s="216"/>
       <c r="D125" s="81" t="s">
         <v>67</v>
       </c>
@@ -6091,14 +6100,14 @@
       <c r="T125" s="4"/>
     </row>
     <row r="126" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="212"/>
-      <c r="B126" s="219"/>
-      <c r="C126" s="215"/>
+      <c r="A126" s="213"/>
+      <c r="B126" s="220"/>
+      <c r="C126" s="216"/>
       <c r="D126" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="4"/>
@@ -6117,12 +6126,12 @@
       <c r="T126" s="4"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127" s="212"/>
-      <c r="B127" s="219"/>
-      <c r="C127" s="215"/>
+      <c r="A127" s="213"/>
+      <c r="B127" s="220"/>
+      <c r="C127" s="216"/>
       <c r="D127" s="82"/>
       <c r="E127" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="4"/>
@@ -6141,15 +6150,15 @@
       <c r="T127" s="4"/>
     </row>
     <row r="128" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A128" s="212"/>
-      <c r="B128" s="219"/>
-      <c r="C128" s="215"/>
+      <c r="A128" s="213"/>
+      <c r="B128" s="220"/>
+      <c r="C128" s="216"/>
       <c r="D128" s="82"/>
       <c r="E128" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F128" s="162" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -6167,9 +6176,9 @@
       <c r="T128" s="4"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="212"/>
-      <c r="B129" s="219"/>
-      <c r="C129" s="215"/>
+      <c r="A129" s="213"/>
+      <c r="B129" s="220"/>
+      <c r="C129" s="216"/>
       <c r="D129" s="82"/>
       <c r="E129" s="13"/>
       <c r="F129" s="14"/>
@@ -6189,9 +6198,9 @@
       <c r="T129" s="4"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="212"/>
-      <c r="B130" s="219"/>
-      <c r="C130" s="215"/>
+      <c r="A130" s="213"/>
+      <c r="B130" s="220"/>
+      <c r="C130" s="216"/>
       <c r="D130" s="82"/>
       <c r="E130" s="13"/>
       <c r="F130" s="14"/>
@@ -6211,9 +6220,9 @@
       <c r="T130" s="4"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="212"/>
-      <c r="B131" s="219"/>
-      <c r="C131" s="215"/>
+      <c r="A131" s="213"/>
+      <c r="B131" s="220"/>
+      <c r="C131" s="216"/>
       <c r="D131" s="81"/>
       <c r="E131" s="13"/>
       <c r="F131" s="14"/>
@@ -6233,9 +6242,9 @@
       <c r="T131" s="4"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="212"/>
-      <c r="B132" s="219"/>
-      <c r="C132" s="215"/>
+      <c r="A132" s="213"/>
+      <c r="B132" s="220"/>
+      <c r="C132" s="216"/>
       <c r="D132" s="80"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
@@ -6255,9 +6264,9 @@
       <c r="T132" s="4"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133" s="212"/>
-      <c r="B133" s="219"/>
-      <c r="C133" s="215"/>
+      <c r="A133" s="213"/>
+      <c r="B133" s="220"/>
+      <c r="C133" s="216"/>
       <c r="D133" s="103"/>
       <c r="E133" s="13"/>
       <c r="F133" s="14"/>
@@ -6277,9 +6286,9 @@
       <c r="T133" s="4"/>
     </row>
     <row r="134" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="224"/>
-      <c r="B134" s="226"/>
-      <c r="C134" s="221"/>
+      <c r="A134" s="225"/>
+      <c r="B134" s="227"/>
+      <c r="C134" s="222"/>
       <c r="D134" s="107"/>
       <c r="E134" s="15"/>
       <c r="F134" s="16"/>
@@ -6299,13 +6308,13 @@
       <c r="T134" s="4"/>
     </row>
     <row r="135" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="223" t="s">
+      <c r="A135" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="225" t="s">
+      <c r="B135" s="226" t="s">
         <v>89</v>
       </c>
-      <c r="C135" s="220" t="s">
+      <c r="C135" s="221" t="s">
         <v>92</v>
       </c>
       <c r="D135" s="114"/>
@@ -6327,9 +6336,9 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="212"/>
-      <c r="B136" s="219"/>
-      <c r="C136" s="215"/>
+      <c r="A136" s="213"/>
+      <c r="B136" s="220"/>
+      <c r="C136" s="216"/>
       <c r="D136" s="81"/>
       <c r="E136" s="13"/>
       <c r="F136" s="14"/>
@@ -6349,9 +6358,9 @@
       <c r="T136" s="4"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="212"/>
-      <c r="B137" s="219"/>
-      <c r="C137" s="215"/>
+      <c r="A137" s="213"/>
+      <c r="B137" s="220"/>
+      <c r="C137" s="216"/>
       <c r="D137" s="82"/>
       <c r="E137" s="13" t="s">
         <v>94</v>
@@ -6373,9 +6382,9 @@
       <c r="T137" s="4"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="212"/>
-      <c r="B138" s="219"/>
-      <c r="C138" s="215"/>
+      <c r="A138" s="213"/>
+      <c r="B138" s="220"/>
+      <c r="C138" s="216"/>
       <c r="D138" s="81"/>
       <c r="E138" s="13" t="s">
         <v>79</v>
@@ -6397,11 +6406,11 @@
       <c r="T138" s="4"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="212"/>
-      <c r="B139" s="219"/>
-      <c r="C139" s="215"/>
+      <c r="A139" s="213"/>
+      <c r="B139" s="220"/>
+      <c r="C139" s="216"/>
       <c r="D139" s="80" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>91</v>
@@ -6423,9 +6432,9 @@
       <c r="T139" s="4"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="212"/>
-      <c r="B140" s="219"/>
-      <c r="C140" s="215"/>
+      <c r="A140" s="213"/>
+      <c r="B140" s="220"/>
+      <c r="C140" s="216"/>
       <c r="D140" s="82"/>
       <c r="E140" s="13" t="s">
         <v>90</v>
@@ -6447,15 +6456,15 @@
       <c r="T140" s="4"/>
     </row>
     <row r="141" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A141" s="212"/>
-      <c r="B141" s="219"/>
-      <c r="C141" s="215"/>
+      <c r="A141" s="213"/>
+      <c r="B141" s="220"/>
+      <c r="C141" s="216"/>
       <c r="D141" s="81"/>
       <c r="E141" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F141" s="162" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -6473,9 +6482,9 @@
       <c r="T141" s="4"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="212"/>
-      <c r="B142" s="219"/>
-      <c r="C142" s="215"/>
+      <c r="A142" s="213"/>
+      <c r="B142" s="220"/>
+      <c r="C142" s="216"/>
       <c r="D142" s="80"/>
       <c r="E142" s="13"/>
       <c r="F142" s="14"/>
@@ -6495,9 +6504,9 @@
       <c r="T142" s="4"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="212"/>
-      <c r="B143" s="219"/>
-      <c r="C143" s="215"/>
+      <c r="A143" s="213"/>
+      <c r="B143" s="220"/>
+      <c r="C143" s="216"/>
       <c r="D143" s="82"/>
       <c r="E143" s="13"/>
       <c r="F143" s="14"/>
@@ -6517,9 +6526,9 @@
       <c r="T143" s="4"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="212"/>
-      <c r="B144" s="219"/>
-      <c r="C144" s="215"/>
+      <c r="A144" s="213"/>
+      <c r="B144" s="220"/>
+      <c r="C144" s="216"/>
       <c r="D144" s="82"/>
       <c r="E144" s="13"/>
       <c r="F144" s="14"/>
@@ -6539,9 +6548,9 @@
       <c r="T144" s="4"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="212"/>
-      <c r="B145" s="219"/>
-      <c r="C145" s="215"/>
+      <c r="A145" s="213"/>
+      <c r="B145" s="220"/>
+      <c r="C145" s="216"/>
       <c r="D145" s="110"/>
       <c r="E145" s="13"/>
       <c r="F145" s="14"/>
@@ -6561,9 +6570,9 @@
       <c r="T145" s="4"/>
     </row>
     <row r="146" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="224"/>
-      <c r="B146" s="226"/>
-      <c r="C146" s="221"/>
+      <c r="A146" s="225"/>
+      <c r="B146" s="227"/>
+      <c r="C146" s="222"/>
       <c r="D146" s="109"/>
       <c r="E146" s="15"/>
       <c r="F146" s="16"/>
@@ -6583,16 +6592,16 @@
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="223" t="s">
+      <c r="A147" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="225" t="s">
-        <v>326</v>
-      </c>
-      <c r="C147" s="220" t="s">
-        <v>327</v>
-      </c>
-      <c r="D147" s="192"/>
+      <c r="B147" s="226" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" s="221" t="s">
+        <v>318</v>
+      </c>
+      <c r="D147" s="193"/>
       <c r="E147" s="17"/>
       <c r="F147" s="18"/>
       <c r="G147" s="4"/>
@@ -6611,10 +6620,10 @@
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="212"/>
-      <c r="B148" s="219"/>
-      <c r="C148" s="215"/>
-      <c r="D148" s="193"/>
+      <c r="A148" s="213"/>
+      <c r="B148" s="220"/>
+      <c r="C148" s="216"/>
+      <c r="D148" s="194"/>
       <c r="E148" s="13"/>
       <c r="F148" s="14"/>
       <c r="G148" s="4"/>
@@ -6633,9 +6642,9 @@
       <c r="T148" s="4"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="212"/>
-      <c r="B149" s="219"/>
-      <c r="C149" s="215"/>
+      <c r="A149" s="213"/>
+      <c r="B149" s="220"/>
+      <c r="C149" s="216"/>
       <c r="D149" s="80"/>
       <c r="E149" s="13" t="s">
         <v>94</v>
@@ -6657,9 +6666,9 @@
       <c r="T149" s="4"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="212"/>
-      <c r="B150" s="219"/>
-      <c r="C150" s="215"/>
+      <c r="A150" s="213"/>
+      <c r="B150" s="220"/>
+      <c r="C150" s="216"/>
       <c r="D150" s="82"/>
       <c r="E150" s="13" t="s">
         <v>79</v>
@@ -6681,9 +6690,9 @@
       <c r="T150" s="4"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="212"/>
-      <c r="B151" s="219"/>
-      <c r="C151" s="215"/>
+      <c r="A151" s="213"/>
+      <c r="B151" s="220"/>
+      <c r="C151" s="216"/>
       <c r="D151" s="81"/>
       <c r="E151" s="13" t="s">
         <v>95</v>
@@ -6705,11 +6714,11 @@
       <c r="T151" s="4"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="212"/>
-      <c r="B152" s="219"/>
-      <c r="C152" s="215"/>
+      <c r="A152" s="213"/>
+      <c r="B152" s="220"/>
+      <c r="C152" s="216"/>
       <c r="D152" s="80" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="14"/>
@@ -6729,9 +6738,9 @@
       <c r="T152" s="4"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="212"/>
-      <c r="B153" s="219"/>
-      <c r="C153" s="215"/>
+      <c r="A153" s="213"/>
+      <c r="B153" s="220"/>
+      <c r="C153" s="216"/>
       <c r="D153" s="82"/>
       <c r="E153" s="13"/>
       <c r="F153" s="14"/>
@@ -6751,9 +6760,9 @@
       <c r="T153" s="4"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="212"/>
-      <c r="B154" s="219"/>
-      <c r="C154" s="215"/>
+      <c r="A154" s="213"/>
+      <c r="B154" s="220"/>
+      <c r="C154" s="216"/>
       <c r="D154" s="80"/>
       <c r="E154" s="13"/>
       <c r="F154" s="14"/>
@@ -6773,9 +6782,9 @@
       <c r="T154" s="4"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="212"/>
-      <c r="B155" s="219"/>
-      <c r="C155" s="215"/>
+      <c r="A155" s="213"/>
+      <c r="B155" s="220"/>
+      <c r="C155" s="216"/>
       <c r="D155" s="82"/>
       <c r="E155" s="13"/>
       <c r="F155" s="14"/>
@@ -6795,9 +6804,9 @@
       <c r="T155" s="4"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="212"/>
-      <c r="B156" s="219"/>
-      <c r="C156" s="215"/>
+      <c r="A156" s="213"/>
+      <c r="B156" s="220"/>
+      <c r="C156" s="216"/>
       <c r="D156" s="103"/>
       <c r="E156" s="13"/>
       <c r="F156" s="14"/>
@@ -6817,9 +6826,9 @@
       <c r="T156" s="4"/>
     </row>
     <row r="157" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="224"/>
-      <c r="B157" s="226"/>
-      <c r="C157" s="221"/>
+      <c r="A157" s="225"/>
+      <c r="B157" s="227"/>
+      <c r="C157" s="222"/>
       <c r="D157" s="108"/>
       <c r="E157" s="15"/>
       <c r="F157" s="16"/>
@@ -6839,14 +6848,14 @@
       <c r="T157" s="4"/>
     </row>
     <row r="158" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="223" t="s">
+      <c r="A158" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="B158" s="225" t="s">
+      <c r="B158" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="C158" s="220" t="s">
-        <v>328</v>
+      <c r="C158" s="221" t="s">
+        <v>319</v>
       </c>
       <c r="D158" s="82"/>
       <c r="E158" s="17"/>
@@ -6867,14 +6876,14 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="212"/>
-      <c r="B159" s="219"/>
-      <c r="C159" s="215"/>
+      <c r="A159" s="213"/>
+      <c r="B159" s="220"/>
+      <c r="C159" s="216"/>
       <c r="D159" s="80" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="4"/>
@@ -6893,15 +6902,15 @@
       <c r="T159" s="4"/>
     </row>
     <row r="160" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="212"/>
-      <c r="B160" s="219"/>
-      <c r="C160" s="215"/>
+      <c r="A160" s="213"/>
+      <c r="B160" s="220"/>
+      <c r="C160" s="216"/>
       <c r="D160" s="80"/>
       <c r="E160" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F160" s="162" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -6919,9 +6928,9 @@
       <c r="T160" s="4"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="212"/>
-      <c r="B161" s="219"/>
-      <c r="C161" s="215"/>
+      <c r="A161" s="213"/>
+      <c r="B161" s="220"/>
+      <c r="C161" s="216"/>
       <c r="D161" s="80"/>
       <c r="E161" s="13"/>
       <c r="F161" s="14"/>
@@ -6941,9 +6950,9 @@
       <c r="T161" s="4"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="212"/>
-      <c r="B162" s="219"/>
-      <c r="C162" s="215"/>
+      <c r="A162" s="213"/>
+      <c r="B162" s="220"/>
+      <c r="C162" s="216"/>
       <c r="D162" s="82"/>
       <c r="E162" s="13"/>
       <c r="F162" s="14"/>
@@ -6963,9 +6972,9 @@
       <c r="T162" s="4"/>
     </row>
     <row r="163" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="224"/>
-      <c r="B163" s="226"/>
-      <c r="C163" s="221"/>
+      <c r="A163" s="225"/>
+      <c r="B163" s="227"/>
+      <c r="C163" s="222"/>
       <c r="D163" s="107"/>
       <c r="E163" s="15"/>
       <c r="F163" s="16"/>
@@ -6985,13 +6994,13 @@
       <c r="T163" s="4"/>
     </row>
     <row r="164" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="223" t="s">
+      <c r="A164" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="225" t="s">
+      <c r="B164" s="226" t="s">
         <v>98</v>
       </c>
-      <c r="C164" s="220" t="s">
+      <c r="C164" s="221" t="s">
         <v>101</v>
       </c>
       <c r="D164" s="114"/>
@@ -7013,9 +7022,9 @@
       <c r="T164" s="4"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="212"/>
-      <c r="B165" s="219"/>
-      <c r="C165" s="215"/>
+      <c r="A165" s="213"/>
+      <c r="B165" s="220"/>
+      <c r="C165" s="216"/>
       <c r="D165" s="82"/>
       <c r="E165" s="112" t="s">
         <v>99</v>
@@ -7037,9 +7046,9 @@
       <c r="T165" s="4"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="212"/>
-      <c r="B166" s="219"/>
-      <c r="C166" s="215"/>
+      <c r="A166" s="213"/>
+      <c r="B166" s="220"/>
+      <c r="C166" s="216"/>
       <c r="D166" s="81"/>
       <c r="E166" s="111" t="s">
         <v>100</v>
@@ -7061,17 +7070,17 @@
       <c r="T166" s="4"/>
     </row>
     <row r="167" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="212"/>
-      <c r="B167" s="219"/>
-      <c r="C167" s="215"/>
+      <c r="A167" s="213"/>
+      <c r="B167" s="220"/>
+      <c r="C167" s="216"/>
       <c r="D167" s="80" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E167" s="111" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F167" s="165" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -7089,9 +7098,9 @@
       <c r="T167" s="4"/>
     </row>
     <row r="168" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="224"/>
-      <c r="B168" s="226"/>
-      <c r="C168" s="221"/>
+      <c r="A168" s="225"/>
+      <c r="B168" s="227"/>
+      <c r="C168" s="222"/>
       <c r="D168" s="107"/>
       <c r="E168" s="32"/>
       <c r="F168" s="33"/>
@@ -7111,13 +7120,13 @@
       <c r="T168" s="4"/>
     </row>
     <row r="169" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="223" t="s">
+      <c r="A169" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="225" t="s">
-        <v>306</v>
-      </c>
-      <c r="C169" s="220" t="s">
+      <c r="B169" s="226" t="s">
+        <v>297</v>
+      </c>
+      <c r="C169" s="221" t="s">
         <v>104</v>
       </c>
       <c r="D169" s="82"/>
@@ -7139,14 +7148,14 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="212"/>
-      <c r="B170" s="219"/>
-      <c r="C170" s="215"/>
+      <c r="A170" s="213"/>
+      <c r="B170" s="220"/>
+      <c r="C170" s="216"/>
       <c r="D170" s="80" t="s">
         <v>102</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="4"/>
@@ -7165,12 +7174,12 @@
       <c r="T170" s="4"/>
     </row>
     <row r="171" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="212"/>
-      <c r="B171" s="219"/>
-      <c r="C171" s="215"/>
+      <c r="A171" s="213"/>
+      <c r="B171" s="220"/>
+      <c r="C171" s="216"/>
       <c r="D171" s="80"/>
       <c r="E171" s="13" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="4"/>
@@ -7189,12 +7198,12 @@
       <c r="T171" s="4"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="212"/>
-      <c r="B172" s="219"/>
-      <c r="C172" s="215"/>
+      <c r="A172" s="213"/>
+      <c r="B172" s="220"/>
+      <c r="C172" s="216"/>
       <c r="D172" s="80"/>
       <c r="E172" s="13" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="4"/>
@@ -7213,12 +7222,12 @@
       <c r="T172" s="4"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="212"/>
-      <c r="B173" s="219"/>
-      <c r="C173" s="215"/>
+      <c r="A173" s="213"/>
+      <c r="B173" s="220"/>
+      <c r="C173" s="216"/>
       <c r="D173" s="82"/>
       <c r="E173" s="13" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="4"/>
@@ -7237,12 +7246,12 @@
       <c r="T173" s="4"/>
     </row>
     <row r="174" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="224"/>
-      <c r="B174" s="226"/>
-      <c r="C174" s="221"/>
+      <c r="A174" s="225"/>
+      <c r="B174" s="227"/>
+      <c r="C174" s="222"/>
       <c r="D174" s="107"/>
       <c r="E174" s="15" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="4"/>
@@ -7261,16 +7270,16 @@
       <c r="T174" s="4"/>
     </row>
     <row r="175" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="223" t="s">
+      <c r="A175" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="230" t="s">
+      <c r="B175" s="231" t="s">
         <v>103</v>
       </c>
-      <c r="C175" s="220" t="s">
+      <c r="C175" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="D175" s="197"/>
+      <c r="D175" s="198"/>
       <c r="F175" s="18"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -7288,12 +7297,12 @@
       <c r="T175" s="4"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="212"/>
-      <c r="B176" s="231"/>
-      <c r="C176" s="215"/>
-      <c r="D176" s="198"/>
+      <c r="A176" s="213"/>
+      <c r="B176" s="232"/>
+      <c r="C176" s="216"/>
+      <c r="D176" s="199"/>
       <c r="E176" s="34" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="4"/>
@@ -7312,14 +7321,14 @@
       <c r="T176" s="4"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="212"/>
-      <c r="B177" s="231"/>
-      <c r="C177" s="215"/>
+      <c r="A177" s="213"/>
+      <c r="B177" s="232"/>
+      <c r="C177" s="216"/>
       <c r="D177" s="80" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E177" s="113" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="4"/>
@@ -7338,10 +7347,10 @@
       <c r="T177" s="4"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="212"/>
-      <c r="B178" s="231"/>
-      <c r="C178" s="215"/>
-      <c r="D178" s="194"/>
+      <c r="A178" s="213"/>
+      <c r="B178" s="232"/>
+      <c r="C178" s="216"/>
+      <c r="D178" s="195"/>
       <c r="E178" s="113"/>
       <c r="F178" s="14"/>
       <c r="G178" s="4"/>
@@ -7360,10 +7369,10 @@
       <c r="T178" s="4"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="212"/>
-      <c r="B179" s="231"/>
-      <c r="C179" s="215"/>
-      <c r="D179" s="195"/>
+      <c r="A179" s="213"/>
+      <c r="B179" s="232"/>
+      <c r="C179" s="216"/>
+      <c r="D179" s="196"/>
       <c r="E179" s="113"/>
       <c r="F179" s="14"/>
       <c r="G179" s="4"/>
@@ -7382,10 +7391,10 @@
       <c r="T179" s="4"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="212"/>
-      <c r="B180" s="231"/>
-      <c r="C180" s="215"/>
-      <c r="D180" s="195"/>
+      <c r="A180" s="213"/>
+      <c r="B180" s="232"/>
+      <c r="C180" s="216"/>
+      <c r="D180" s="196"/>
       <c r="E180" s="113"/>
       <c r="F180" s="14"/>
       <c r="G180" s="4"/>
@@ -7404,10 +7413,10 @@
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="224"/>
-      <c r="B181" s="232"/>
-      <c r="C181" s="221"/>
-      <c r="D181" s="196"/>
+      <c r="A181" s="225"/>
+      <c r="B181" s="233"/>
+      <c r="C181" s="222"/>
+      <c r="D181" s="197"/>
       <c r="E181" s="36"/>
       <c r="F181" s="16"/>
       <c r="G181" s="4"/>
@@ -7426,16 +7435,16 @@
       <c r="T181" s="4"/>
     </row>
     <row r="182" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="223" t="s">
+      <c r="A182" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="B182" s="230" t="s">
+      <c r="B182" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="C182" s="220" t="s">
+      <c r="C182" s="221" t="s">
         <v>107</v>
       </c>
-      <c r="D182" s="207" t="s">
+      <c r="D182" s="208" t="s">
         <v>102</v>
       </c>
       <c r="E182" s="17" t="s">
@@ -7458,12 +7467,12 @@
       <c r="T182" s="4"/>
     </row>
     <row r="183" spans="1:20" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="212"/>
-      <c r="B183" s="231"/>
-      <c r="C183" s="215"/>
-      <c r="D183" s="208"/>
+      <c r="A183" s="213"/>
+      <c r="B183" s="232"/>
+      <c r="C183" s="216"/>
+      <c r="D183" s="209"/>
       <c r="E183" s="58" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F183" s="162"/>
       <c r="G183" s="4"/>
@@ -7482,12 +7491,12 @@
       <c r="T183" s="4"/>
     </row>
     <row r="184" spans="1:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="224"/>
-      <c r="B184" s="232"/>
-      <c r="C184" s="221"/>
+      <c r="A184" s="225"/>
+      <c r="B184" s="233"/>
+      <c r="C184" s="222"/>
       <c r="D184" s="150"/>
       <c r="E184" s="15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>63</v>
@@ -7508,17 +7517,17 @@
       <c r="T184" s="4"/>
     </row>
     <row r="185" spans="1:20" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="223" t="s">
+      <c r="A185" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="230" t="s">
+      <c r="B185" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="C185" s="220" t="s">
+      <c r="C185" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="D185" s="206" t="s">
-        <v>341</v>
+      <c r="D185" s="207" t="s">
+        <v>332</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="38"/>
@@ -7538,10 +7547,10 @@
       <c r="T185" s="4"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="212"/>
-      <c r="B186" s="231"/>
-      <c r="C186" s="215"/>
-      <c r="D186" s="206"/>
+      <c r="A186" s="213"/>
+      <c r="B186" s="232"/>
+      <c r="C186" s="216"/>
+      <c r="D186" s="207"/>
       <c r="E186" s="39"/>
       <c r="F186" s="40"/>
       <c r="G186" s="4"/>
@@ -7560,10 +7569,10 @@
       <c r="T186" s="4"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="212"/>
-      <c r="B187" s="231"/>
-      <c r="C187" s="215"/>
-      <c r="D187" s="206"/>
+      <c r="A187" s="213"/>
+      <c r="B187" s="232"/>
+      <c r="C187" s="216"/>
+      <c r="D187" s="207"/>
       <c r="E187" s="39"/>
       <c r="F187" s="40"/>
       <c r="G187" s="4"/>
@@ -7582,12 +7591,12 @@
       <c r="T187" s="4"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="212"/>
-      <c r="B188" s="231"/>
-      <c r="C188" s="215"/>
-      <c r="D188" s="206"/>
+      <c r="A188" s="213"/>
+      <c r="B188" s="232"/>
+      <c r="C188" s="216"/>
+      <c r="D188" s="207"/>
       <c r="E188" s="39" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F188" s="40"/>
       <c r="G188" s="4"/>
@@ -7606,12 +7615,12 @@
       <c r="T188" s="4"/>
     </row>
     <row r="189" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="224"/>
-      <c r="B189" s="232"/>
-      <c r="C189" s="221"/>
-      <c r="D189" s="235"/>
+      <c r="A189" s="225"/>
+      <c r="B189" s="233"/>
+      <c r="C189" s="222"/>
+      <c r="D189" s="236"/>
       <c r="E189" s="119" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F189" s="42"/>
       <c r="G189" s="4"/>
@@ -7630,16 +7639,16 @@
       <c r="T189" s="4"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="212" t="s">
+      <c r="A190" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="B190" s="231" t="s">
+      <c r="B190" s="232" t="s">
         <v>111</v>
       </c>
-      <c r="C190" s="215" t="s">
+      <c r="C190" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="D190" s="204" t="s">
+      <c r="D190" s="205" t="s">
         <v>102</v>
       </c>
       <c r="E190" s="39" t="s">
@@ -7662,10 +7671,10 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="212"/>
-      <c r="B191" s="231"/>
-      <c r="C191" s="215"/>
-      <c r="D191" s="204"/>
+      <c r="A191" s="213"/>
+      <c r="B191" s="232"/>
+      <c r="C191" s="216"/>
+      <c r="D191" s="205"/>
       <c r="E191" s="115" t="s">
         <v>114</v>
       </c>
@@ -7686,10 +7695,10 @@
       <c r="T191" s="4"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="212"/>
-      <c r="B192" s="231"/>
-      <c r="C192" s="215"/>
-      <c r="D192" s="204"/>
+      <c r="A192" s="213"/>
+      <c r="B192" s="232"/>
+      <c r="C192" s="216"/>
+      <c r="D192" s="205"/>
       <c r="E192" s="118" t="s">
         <v>115</v>
       </c>
@@ -7710,10 +7719,10 @@
       <c r="T192" s="4"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="212"/>
-      <c r="B193" s="231"/>
-      <c r="C193" s="215"/>
-      <c r="D193" s="204"/>
+      <c r="A193" s="213"/>
+      <c r="B193" s="232"/>
+      <c r="C193" s="216"/>
+      <c r="D193" s="205"/>
       <c r="E193" s="43" t="s">
         <v>116</v>
       </c>
@@ -7734,10 +7743,10 @@
       <c r="T193" s="4"/>
     </row>
     <row r="194" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="212"/>
-      <c r="B194" s="231"/>
-      <c r="C194" s="215"/>
-      <c r="D194" s="204"/>
+      <c r="A194" s="213"/>
+      <c r="B194" s="232"/>
+      <c r="C194" s="216"/>
+      <c r="D194" s="205"/>
       <c r="E194" s="13" t="s">
         <v>117</v>
       </c>
@@ -7758,10 +7767,10 @@
       <c r="T194" s="4"/>
     </row>
     <row r="195" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="212"/>
-      <c r="B195" s="231"/>
-      <c r="C195" s="215"/>
-      <c r="D195" s="204"/>
+      <c r="A195" s="213"/>
+      <c r="B195" s="232"/>
+      <c r="C195" s="216"/>
+      <c r="D195" s="205"/>
       <c r="E195" s="115" t="s">
         <v>118</v>
       </c>
@@ -7782,12 +7791,12 @@
       <c r="T195" s="4"/>
     </row>
     <row r="196" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="212"/>
-      <c r="B196" s="231"/>
-      <c r="C196" s="215"/>
-      <c r="D196" s="204"/>
+      <c r="A196" s="213"/>
+      <c r="B196" s="232"/>
+      <c r="C196" s="216"/>
+      <c r="D196" s="205"/>
       <c r="E196" s="156" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F196" s="158"/>
       <c r="G196" s="4"/>
@@ -7806,10 +7815,10 @@
       <c r="T196" s="4"/>
     </row>
     <row r="197" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="224"/>
-      <c r="B197" s="232"/>
-      <c r="C197" s="221"/>
-      <c r="D197" s="222"/>
+      <c r="A197" s="225"/>
+      <c r="B197" s="233"/>
+      <c r="C197" s="222"/>
+      <c r="D197" s="223"/>
       <c r="E197" s="159"/>
       <c r="F197" s="157"/>
       <c r="G197" s="4"/>
@@ -7828,16 +7837,16 @@
       <c r="T197" s="4"/>
     </row>
     <row r="198" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="212" t="s">
+      <c r="A198" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="B198" s="231" t="s">
+      <c r="B198" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="C198" s="215" t="s">
+      <c r="C198" s="216" t="s">
         <v>120</v>
       </c>
-      <c r="D198" s="206"/>
+      <c r="D198" s="207"/>
       <c r="E198" s="43" t="s">
         <v>121</v>
       </c>
@@ -7858,10 +7867,10 @@
       <c r="T198" s="4"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="212"/>
-      <c r="B199" s="231"/>
-      <c r="C199" s="215"/>
-      <c r="D199" s="206"/>
+      <c r="A199" s="213"/>
+      <c r="B199" s="232"/>
+      <c r="C199" s="216"/>
+      <c r="D199" s="207"/>
       <c r="E199" s="39" t="s">
         <v>122</v>
       </c>
@@ -7882,10 +7891,10 @@
       <c r="T199" s="4"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="212"/>
-      <c r="B200" s="231"/>
-      <c r="C200" s="215"/>
-      <c r="D200" s="206"/>
+      <c r="A200" s="213"/>
+      <c r="B200" s="232"/>
+      <c r="C200" s="216"/>
+      <c r="D200" s="207"/>
       <c r="E200" s="39" t="s">
         <v>123</v>
       </c>
@@ -7906,10 +7915,10 @@
       <c r="T200" s="4"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="212"/>
-      <c r="B201" s="231"/>
-      <c r="C201" s="215"/>
-      <c r="D201" s="206"/>
+      <c r="A201" s="213"/>
+      <c r="B201" s="232"/>
+      <c r="C201" s="216"/>
+      <c r="D201" s="207"/>
       <c r="E201" s="13" t="s">
         <v>124</v>
       </c>
@@ -7930,10 +7939,10 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="224"/>
-      <c r="B202" s="232"/>
-      <c r="C202" s="221"/>
-      <c r="D202" s="235"/>
+      <c r="A202" s="225"/>
+      <c r="B202" s="233"/>
+      <c r="C202" s="222"/>
+      <c r="D202" s="236"/>
       <c r="E202" s="41"/>
       <c r="F202" s="46"/>
       <c r="G202" s="4"/>
@@ -7952,16 +7961,16 @@
       <c r="T202" s="4"/>
     </row>
     <row r="203" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="223" t="s">
+      <c r="A203" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="B203" s="230" t="s">
+      <c r="B203" s="231" t="s">
         <v>126</v>
       </c>
-      <c r="C203" s="220" t="s">
+      <c r="C203" s="221" t="s">
         <v>125</v>
       </c>
-      <c r="D203" s="247"/>
+      <c r="D203" s="248"/>
       <c r="E203" s="43"/>
       <c r="F203" s="44"/>
       <c r="G203" s="4"/>
@@ -7980,10 +7989,10 @@
       <c r="T203" s="4"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204" s="212"/>
-      <c r="B204" s="231"/>
-      <c r="C204" s="215"/>
-      <c r="D204" s="206"/>
+      <c r="A204" s="213"/>
+      <c r="B204" s="232"/>
+      <c r="C204" s="216"/>
+      <c r="D204" s="207"/>
       <c r="E204" s="43" t="s">
         <v>121</v>
       </c>
@@ -8004,10 +8013,10 @@
       <c r="T204" s="4"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="212"/>
-      <c r="B205" s="231"/>
-      <c r="C205" s="215"/>
-      <c r="D205" s="206"/>
+      <c r="A205" s="213"/>
+      <c r="B205" s="232"/>
+      <c r="C205" s="216"/>
+      <c r="D205" s="207"/>
       <c r="E205" s="39" t="s">
         <v>122</v>
       </c>
@@ -8028,12 +8037,12 @@
       <c r="T205" s="4"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A206" s="212"/>
-      <c r="B206" s="231"/>
-      <c r="C206" s="215"/>
-      <c r="D206" s="206"/>
+      <c r="A206" s="213"/>
+      <c r="B206" s="232"/>
+      <c r="C206" s="216"/>
+      <c r="D206" s="207"/>
       <c r="E206" s="39" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F206" s="45"/>
       <c r="G206" s="4"/>
@@ -8052,12 +8061,12 @@
       <c r="T206" s="4"/>
     </row>
     <row r="207" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="224"/>
-      <c r="B207" s="232"/>
-      <c r="C207" s="221"/>
-      <c r="D207" s="235"/>
+      <c r="A207" s="225"/>
+      <c r="B207" s="233"/>
+      <c r="C207" s="222"/>
+      <c r="D207" s="236"/>
       <c r="E207" s="13" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F207" s="45"/>
       <c r="G207" s="4"/>
@@ -8076,14 +8085,14 @@
       <c r="T207" s="4"/>
     </row>
     <row r="208" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="253" t="s">
+      <c r="A208" s="254" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="253"/>
-      <c r="C208" s="253"/>
-      <c r="D208" s="253"/>
-      <c r="E208" s="253"/>
-      <c r="F208" s="253"/>
+      <c r="B208" s="254"/>
+      <c r="C208" s="254"/>
+      <c r="D208" s="254"/>
+      <c r="E208" s="254"/>
+      <c r="F208" s="254"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -8122,16 +8131,16 @@
       <c r="T209" s="4"/>
     </row>
     <row r="210" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="223" t="s">
+      <c r="A210" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="248" t="s">
+      <c r="B210" s="249" t="s">
         <v>127</v>
       </c>
-      <c r="C210" s="214" t="s">
-        <v>132</v>
-      </c>
-      <c r="D210" s="216" t="s">
+      <c r="C210" s="215" t="s">
+        <v>131</v>
+      </c>
+      <c r="D210" s="217" t="s">
         <v>102</v>
       </c>
       <c r="E210" s="47"/>
@@ -8152,10 +8161,10 @@
       <c r="T210" s="4"/>
     </row>
     <row r="211" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="212"/>
-      <c r="B211" s="219"/>
-      <c r="C211" s="215"/>
-      <c r="D211" s="206"/>
+      <c r="A211" s="213"/>
+      <c r="B211" s="220"/>
+      <c r="C211" s="216"/>
+      <c r="D211" s="207"/>
       <c r="E211" s="47" t="s">
         <v>128</v>
       </c>
@@ -8176,12 +8185,12 @@
       <c r="T211" s="4"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A212" s="212"/>
-      <c r="B212" s="219"/>
-      <c r="C212" s="215"/>
-      <c r="D212" s="206"/>
+      <c r="A212" s="213"/>
+      <c r="B212" s="220"/>
+      <c r="C212" s="216"/>
+      <c r="D212" s="207"/>
       <c r="E212" s="47" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F212" s="19"/>
       <c r="G212" s="4"/>
@@ -8200,10 +8209,10 @@
       <c r="T212" s="4"/>
     </row>
     <row r="213" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="212"/>
-      <c r="B213" s="219"/>
-      <c r="C213" s="215"/>
-      <c r="D213" s="206"/>
+      <c r="A213" s="213"/>
+      <c r="B213" s="220"/>
+      <c r="C213" s="216"/>
+      <c r="D213" s="207"/>
       <c r="E213" s="47" t="s">
         <v>129</v>
       </c>
@@ -8224,12 +8233,12 @@
       <c r="T213" s="4"/>
     </row>
     <row r="214" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="212"/>
-      <c r="B214" s="219"/>
-      <c r="C214" s="215"/>
-      <c r="D214" s="206"/>
+      <c r="A214" s="213"/>
+      <c r="B214" s="220"/>
+      <c r="C214" s="216"/>
+      <c r="D214" s="207"/>
       <c r="E214" s="120" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F214" s="19"/>
       <c r="G214" s="4"/>
@@ -8248,12 +8257,12 @@
       <c r="T214" s="4"/>
     </row>
     <row r="215" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="212"/>
-      <c r="B215" s="219"/>
-      <c r="C215" s="215"/>
-      <c r="D215" s="206"/>
+      <c r="A215" s="213"/>
+      <c r="B215" s="220"/>
+      <c r="C215" s="216"/>
+      <c r="D215" s="207"/>
       <c r="E215" s="121" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F215" s="19"/>
       <c r="G215" s="4"/>
@@ -8272,10 +8281,10 @@
       <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="224"/>
-      <c r="B216" s="226"/>
-      <c r="C216" s="221"/>
-      <c r="D216" s="235"/>
+      <c r="A216" s="225"/>
+      <c r="B216" s="227"/>
+      <c r="C216" s="222"/>
+      <c r="D216" s="236"/>
       <c r="E216" s="122"/>
       <c r="F216" s="49"/>
       <c r="G216" s="4"/>
@@ -8294,16 +8303,16 @@
       <c r="T216" s="4"/>
     </row>
     <row r="217" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="223" t="s">
+      <c r="A217" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="B217" s="225" t="s">
-        <v>131</v>
-      </c>
-      <c r="C217" s="220" t="s">
-        <v>137</v>
-      </c>
-      <c r="D217" s="209"/>
+      <c r="B217" s="226" t="s">
+        <v>130</v>
+      </c>
+      <c r="C217" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="D217" s="210"/>
       <c r="E217" s="50"/>
       <c r="F217" s="51"/>
       <c r="G217" s="4"/>
@@ -8322,12 +8331,12 @@
       <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="212"/>
-      <c r="B218" s="219"/>
-      <c r="C218" s="215"/>
-      <c r="D218" s="208"/>
+      <c r="A218" s="213"/>
+      <c r="B218" s="220"/>
+      <c r="C218" s="216"/>
+      <c r="D218" s="209"/>
       <c r="E218" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F218" s="51"/>
       <c r="G218" s="4"/>
@@ -8346,12 +8355,12 @@
       <c r="T218" s="4"/>
     </row>
     <row r="219" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="212"/>
-      <c r="B219" s="219"/>
-      <c r="C219" s="215"/>
+      <c r="A219" s="213"/>
+      <c r="B219" s="220"/>
+      <c r="C219" s="216"/>
       <c r="D219" s="80"/>
       <c r="E219" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F219" s="51"/>
       <c r="G219" s="4"/>
@@ -8370,12 +8379,12 @@
       <c r="T219" s="4"/>
     </row>
     <row r="220" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="212"/>
-      <c r="B220" s="219"/>
-      <c r="C220" s="215"/>
-      <c r="D220" s="194"/>
+      <c r="A220" s="213"/>
+      <c r="B220" s="220"/>
+      <c r="C220" s="216"/>
+      <c r="D220" s="195"/>
       <c r="E220" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F220" s="51"/>
       <c r="G220" s="4"/>
@@ -8394,10 +8403,10 @@
       <c r="T220" s="4"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221" s="212"/>
-      <c r="B221" s="219"/>
-      <c r="C221" s="215"/>
-      <c r="D221" s="195"/>
+      <c r="A221" s="213"/>
+      <c r="B221" s="220"/>
+      <c r="C221" s="216"/>
+      <c r="D221" s="196"/>
       <c r="E221" s="47"/>
       <c r="F221" s="19"/>
       <c r="G221" s="4"/>
@@ -8416,10 +8425,10 @@
       <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222" s="212"/>
-      <c r="B222" s="219"/>
-      <c r="C222" s="215"/>
-      <c r="D222" s="195"/>
+      <c r="A222" s="213"/>
+      <c r="B222" s="220"/>
+      <c r="C222" s="216"/>
+      <c r="D222" s="196"/>
       <c r="E222" s="47"/>
       <c r="F222" s="19"/>
       <c r="G222" s="4"/>
@@ -8438,10 +8447,10 @@
       <c r="T222" s="4"/>
     </row>
     <row r="223" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="212"/>
-      <c r="B223" s="219"/>
-      <c r="C223" s="215"/>
-      <c r="D223" s="196"/>
+      <c r="A223" s="213"/>
+      <c r="B223" s="220"/>
+      <c r="C223" s="216"/>
+      <c r="D223" s="197"/>
       <c r="E223" s="47"/>
       <c r="F223" s="19"/>
       <c r="G223" s="4"/>
@@ -8460,10 +8469,10 @@
       <c r="T223" s="4"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A224" s="212"/>
-      <c r="B224" s="219"/>
-      <c r="C224" s="215"/>
-      <c r="D224" s="197"/>
+      <c r="A224" s="213"/>
+      <c r="B224" s="220"/>
+      <c r="C224" s="216"/>
+      <c r="D224" s="198"/>
       <c r="E224" s="47"/>
       <c r="F224" s="19"/>
       <c r="G224" s="4"/>
@@ -8482,10 +8491,10 @@
       <c r="T224" s="4"/>
     </row>
     <row r="225" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="224"/>
-      <c r="B225" s="226"/>
-      <c r="C225" s="221"/>
-      <c r="D225" s="196"/>
+      <c r="A225" s="225"/>
+      <c r="B225" s="227"/>
+      <c r="C225" s="222"/>
+      <c r="D225" s="197"/>
       <c r="E225" s="48"/>
       <c r="F225" s="49"/>
       <c r="G225" s="4"/>
@@ -8504,16 +8513,16 @@
       <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="223" t="s">
+      <c r="A226" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="B226" s="225" t="s">
-        <v>136</v>
-      </c>
-      <c r="C226" s="220" t="s">
-        <v>141</v>
-      </c>
-      <c r="D226" s="207"/>
+      <c r="B226" s="226" t="s">
+        <v>135</v>
+      </c>
+      <c r="C226" s="221" t="s">
+        <v>140</v>
+      </c>
+      <c r="D226" s="208"/>
       <c r="E226" s="50"/>
       <c r="F226" s="51"/>
       <c r="G226" s="4"/>
@@ -8532,12 +8541,12 @@
       <c r="T226" s="4"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A227" s="212"/>
-      <c r="B227" s="219"/>
-      <c r="C227" s="215"/>
-      <c r="D227" s="208"/>
+      <c r="A227" s="213"/>
+      <c r="B227" s="220"/>
+      <c r="C227" s="216"/>
+      <c r="D227" s="209"/>
       <c r="E227" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F227" s="19"/>
       <c r="G227" s="4"/>
@@ -8556,12 +8565,12 @@
       <c r="T227" s="4"/>
     </row>
     <row r="228" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="212"/>
-      <c r="B228" s="219"/>
-      <c r="C228" s="215"/>
+      <c r="A228" s="213"/>
+      <c r="B228" s="220"/>
+      <c r="C228" s="216"/>
       <c r="D228" s="80"/>
       <c r="E228" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F228" s="19"/>
       <c r="G228" s="4"/>
@@ -8580,12 +8589,12 @@
       <c r="T228" s="4"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A229" s="212"/>
-      <c r="B229" s="219"/>
-      <c r="C229" s="215"/>
-      <c r="D229" s="194"/>
+      <c r="A229" s="213"/>
+      <c r="B229" s="220"/>
+      <c r="C229" s="216"/>
+      <c r="D229" s="195"/>
       <c r="E229" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F229" s="19"/>
       <c r="G229" s="4"/>
@@ -8604,10 +8613,10 @@
       <c r="T229" s="4"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="212"/>
-      <c r="B230" s="219"/>
-      <c r="C230" s="215"/>
-      <c r="D230" s="195"/>
+      <c r="A230" s="213"/>
+      <c r="B230" s="220"/>
+      <c r="C230" s="216"/>
+      <c r="D230" s="196"/>
       <c r="E230" s="47"/>
       <c r="F230" s="19"/>
       <c r="G230" s="4"/>
@@ -8626,10 +8635,10 @@
       <c r="T230" s="4"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="212"/>
-      <c r="B231" s="219"/>
-      <c r="C231" s="215"/>
-      <c r="D231" s="195"/>
+      <c r="A231" s="213"/>
+      <c r="B231" s="220"/>
+      <c r="C231" s="216"/>
+      <c r="D231" s="196"/>
       <c r="E231" s="47"/>
       <c r="F231" s="19"/>
       <c r="G231" s="4"/>
@@ -8648,10 +8657,10 @@
       <c r="T231" s="4"/>
     </row>
     <row r="232" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="224"/>
-      <c r="B232" s="226"/>
-      <c r="C232" s="221"/>
-      <c r="D232" s="196"/>
+      <c r="A232" s="225"/>
+      <c r="B232" s="227"/>
+      <c r="C232" s="222"/>
+      <c r="D232" s="197"/>
       <c r="E232" s="48"/>
       <c r="F232" s="49"/>
       <c r="G232" s="4"/>
@@ -8670,16 +8679,16 @@
       <c r="T232" s="4"/>
     </row>
     <row r="233" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="223" t="s">
+      <c r="A233" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="B233" s="225" t="s">
-        <v>349</v>
-      </c>
-      <c r="C233" s="227" t="s">
-        <v>140</v>
-      </c>
-      <c r="D233" s="207"/>
+      <c r="B233" s="226" t="s">
+        <v>340</v>
+      </c>
+      <c r="C233" s="228" t="s">
+        <v>139</v>
+      </c>
+      <c r="D233" s="208"/>
       <c r="E233" s="50"/>
       <c r="F233" s="51"/>
       <c r="G233" s="4"/>
@@ -8698,10 +8707,10 @@
       <c r="T233" s="4"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="212"/>
-      <c r="B234" s="219"/>
-      <c r="C234" s="228"/>
-      <c r="D234" s="202"/>
+      <c r="A234" s="213"/>
+      <c r="B234" s="220"/>
+      <c r="C234" s="229"/>
+      <c r="D234" s="203"/>
       <c r="E234" s="47"/>
       <c r="F234" s="19"/>
       <c r="G234" s="4"/>
@@ -8720,12 +8729,12 @@
       <c r="T234" s="4"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="212"/>
-      <c r="B235" s="219"/>
-      <c r="C235" s="228"/>
-      <c r="D235" s="210"/>
+      <c r="A235" s="213"/>
+      <c r="B235" s="220"/>
+      <c r="C235" s="229"/>
+      <c r="D235" s="211"/>
       <c r="E235" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F235" s="19"/>
       <c r="G235" s="4"/>
@@ -8744,12 +8753,12 @@
       <c r="T235" s="4"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="212"/>
-      <c r="B236" s="219"/>
-      <c r="C236" s="228"/>
-      <c r="D236" s="211"/>
+      <c r="A236" s="213"/>
+      <c r="B236" s="220"/>
+      <c r="C236" s="229"/>
+      <c r="D236" s="212"/>
       <c r="E236" s="64" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F236" s="19"/>
       <c r="G236" s="4"/>
@@ -8768,12 +8777,12 @@
       <c r="T236" s="4"/>
     </row>
     <row r="237" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="212"/>
-      <c r="B237" s="219"/>
-      <c r="C237" s="228"/>
+      <c r="A237" s="213"/>
+      <c r="B237" s="220"/>
+      <c r="C237" s="229"/>
       <c r="D237" s="125"/>
       <c r="E237" s="50" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F237" s="19"/>
       <c r="G237" s="4"/>
@@ -8792,9 +8801,9 @@
       <c r="T237" s="4"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="212"/>
-      <c r="B238" s="219"/>
-      <c r="C238" s="228"/>
+      <c r="A238" s="213"/>
+      <c r="B238" s="220"/>
+      <c r="C238" s="229"/>
       <c r="D238" s="124"/>
       <c r="E238" s="123"/>
       <c r="F238" s="19"/>
@@ -8814,10 +8823,10 @@
       <c r="T238" s="4"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="212"/>
-      <c r="B239" s="219"/>
-      <c r="C239" s="228"/>
-      <c r="D239" s="201"/>
+      <c r="A239" s="213"/>
+      <c r="B239" s="220"/>
+      <c r="C239" s="229"/>
+      <c r="D239" s="202"/>
       <c r="E239" s="47"/>
       <c r="F239" s="19"/>
       <c r="G239" s="4"/>
@@ -8836,10 +8845,10 @@
       <c r="T239" s="4"/>
     </row>
     <row r="240" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="224"/>
-      <c r="B240" s="226"/>
-      <c r="C240" s="229"/>
-      <c r="D240" s="202"/>
+      <c r="A240" s="225"/>
+      <c r="B240" s="227"/>
+      <c r="C240" s="230"/>
+      <c r="D240" s="203"/>
       <c r="E240" s="48"/>
       <c r="F240" s="49"/>
       <c r="G240" s="4"/>
@@ -8858,16 +8867,16 @@
       <c r="T240" s="4"/>
     </row>
     <row r="241" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="223" t="s">
+      <c r="A241" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="B241" s="225" t="s">
+      <c r="B241" s="226" t="s">
+        <v>141</v>
+      </c>
+      <c r="C241" s="228" t="s">
         <v>142</v>
       </c>
-      <c r="C241" s="227" t="s">
-        <v>143</v>
-      </c>
-      <c r="D241" s="199"/>
+      <c r="D241" s="200"/>
       <c r="E241" s="50"/>
       <c r="F241" s="51"/>
       <c r="G241" s="4"/>
@@ -8886,12 +8895,12 @@
       <c r="T241" s="4"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="212"/>
-      <c r="B242" s="219"/>
-      <c r="C242" s="228"/>
-      <c r="D242" s="200"/>
+      <c r="A242" s="213"/>
+      <c r="B242" s="220"/>
+      <c r="C242" s="229"/>
+      <c r="D242" s="201"/>
       <c r="E242" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F242" s="19"/>
       <c r="G242" s="4"/>
@@ -8910,12 +8919,12 @@
       <c r="T242" s="4"/>
     </row>
     <row r="243" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="212"/>
-      <c r="B243" s="219"/>
-      <c r="C243" s="228"/>
+      <c r="A243" s="213"/>
+      <c r="B243" s="220"/>
+      <c r="C243" s="229"/>
       <c r="D243" s="125"/>
       <c r="E243" s="64" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="4"/>
@@ -8934,12 +8943,12 @@
       <c r="T243" s="4"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="212"/>
-      <c r="B244" s="219"/>
-      <c r="C244" s="228"/>
+      <c r="A244" s="213"/>
+      <c r="B244" s="220"/>
+      <c r="C244" s="229"/>
       <c r="D244" s="124"/>
       <c r="E244" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F244" s="19"/>
       <c r="G244" s="4"/>
@@ -8958,9 +8967,9 @@
       <c r="T244" s="4"/>
     </row>
     <row r="245" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="224"/>
-      <c r="B245" s="226"/>
-      <c r="C245" s="229"/>
+      <c r="A245" s="225"/>
+      <c r="B245" s="227"/>
+      <c r="C245" s="230"/>
       <c r="D245" s="126"/>
       <c r="E245" s="48"/>
       <c r="F245" s="49"/>
@@ -8980,16 +8989,16 @@
       <c r="T245" s="4"/>
     </row>
     <row r="246" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="223" t="s">
+      <c r="A246" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="B246" s="225" t="s">
+      <c r="B246" s="226" t="s">
+        <v>144</v>
+      </c>
+      <c r="C246" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="C246" s="227" t="s">
-        <v>146</v>
-      </c>
-      <c r="D246" s="199" t="s">
+      <c r="D246" s="200" t="s">
         <v>102</v>
       </c>
       <c r="E246" s="50"/>
@@ -9010,12 +9019,12 @@
       <c r="T246" s="4"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" s="212"/>
-      <c r="B247" s="219"/>
-      <c r="C247" s="228"/>
-      <c r="D247" s="200"/>
+      <c r="A247" s="213"/>
+      <c r="B247" s="220"/>
+      <c r="C247" s="229"/>
+      <c r="D247" s="201"/>
       <c r="E247" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F247" s="19"/>
       <c r="G247" s="4"/>
@@ -9034,14 +9043,14 @@
       <c r="T247" s="4"/>
     </row>
     <row r="248" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="212"/>
-      <c r="B248" s="219"/>
-      <c r="C248" s="228"/>
+      <c r="A248" s="213"/>
+      <c r="B248" s="220"/>
+      <c r="C248" s="229"/>
       <c r="D248" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="E248" s="64" t="s">
         <v>147</v>
-      </c>
-      <c r="E248" s="64" t="s">
-        <v>148</v>
       </c>
       <c r="F248" s="19"/>
       <c r="G248" s="4"/>
@@ -9060,12 +9069,12 @@
       <c r="T248" s="4"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="212"/>
-      <c r="B249" s="219"/>
-      <c r="C249" s="228"/>
+      <c r="A249" s="213"/>
+      <c r="B249" s="220"/>
+      <c r="C249" s="229"/>
       <c r="D249" s="124"/>
       <c r="E249" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F249" s="19"/>
       <c r="G249" s="4"/>
@@ -9084,10 +9093,10 @@
       <c r="T249" s="4"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="212"/>
-      <c r="B250" s="219"/>
-      <c r="C250" s="228"/>
-      <c r="D250" s="201"/>
+      <c r="A250" s="213"/>
+      <c r="B250" s="220"/>
+      <c r="C250" s="229"/>
+      <c r="D250" s="202"/>
       <c r="E250" s="47"/>
       <c r="F250" s="19"/>
       <c r="G250" s="4"/>
@@ -9106,10 +9115,10 @@
       <c r="T250" s="4"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" s="212"/>
-      <c r="B251" s="219"/>
-      <c r="C251" s="228"/>
-      <c r="D251" s="202"/>
+      <c r="A251" s="213"/>
+      <c r="B251" s="220"/>
+      <c r="C251" s="229"/>
+      <c r="D251" s="203"/>
       <c r="E251" s="47"/>
       <c r="F251" s="19"/>
       <c r="G251" s="4"/>
@@ -9128,9 +9137,9 @@
       <c r="T251" s="4"/>
     </row>
     <row r="252" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="224"/>
-      <c r="B252" s="226"/>
-      <c r="C252" s="229"/>
+      <c r="A252" s="225"/>
+      <c r="B252" s="227"/>
+      <c r="C252" s="230"/>
       <c r="D252" s="107"/>
       <c r="E252" s="48"/>
       <c r="F252" s="49"/>
@@ -9150,16 +9159,16 @@
       <c r="T252" s="4"/>
     </row>
     <row r="253" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="223" t="s">
+      <c r="A253" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="B253" s="225" t="s">
+      <c r="B253" s="226" t="s">
+        <v>149</v>
+      </c>
+      <c r="C253" s="228" t="s">
         <v>150</v>
       </c>
-      <c r="C253" s="227" t="s">
-        <v>151</v>
-      </c>
-      <c r="D253" s="203" t="s">
+      <c r="D253" s="204" t="s">
         <v>102</v>
       </c>
       <c r="E253" s="50"/>
@@ -9180,12 +9189,12 @@
       <c r="T253" s="4"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" s="212"/>
-      <c r="B254" s="219"/>
-      <c r="C254" s="228"/>
-      <c r="D254" s="204"/>
+      <c r="A254" s="213"/>
+      <c r="B254" s="220"/>
+      <c r="C254" s="229"/>
+      <c r="D254" s="205"/>
       <c r="E254" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F254" s="19"/>
       <c r="G254" s="4"/>
@@ -9204,14 +9213,14 @@
       <c r="T254" s="4"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="212"/>
-      <c r="B255" s="219"/>
-      <c r="C255" s="228"/>
+      <c r="A255" s="213"/>
+      <c r="B255" s="220"/>
+      <c r="C255" s="229"/>
       <c r="D255" s="124" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E255" s="123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F255" s="19"/>
       <c r="G255" s="4"/>
@@ -9230,12 +9239,12 @@
       <c r="T255" s="4"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="212"/>
-      <c r="B256" s="219"/>
-      <c r="C256" s="228"/>
+      <c r="A256" s="213"/>
+      <c r="B256" s="220"/>
+      <c r="C256" s="229"/>
       <c r="D256" s="124"/>
       <c r="E256" s="47" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F256" s="19"/>
       <c r="G256" s="4"/>
@@ -9254,10 +9263,10 @@
       <c r="T256" s="4"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" s="212"/>
-      <c r="B257" s="219"/>
-      <c r="C257" s="228"/>
-      <c r="D257" s="205"/>
+      <c r="A257" s="213"/>
+      <c r="B257" s="220"/>
+      <c r="C257" s="229"/>
+      <c r="D257" s="206"/>
       <c r="E257" s="47"/>
       <c r="F257" s="19"/>
       <c r="G257" s="4"/>
@@ -9276,10 +9285,10 @@
       <c r="T257" s="4"/>
     </row>
     <row r="258" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="224"/>
-      <c r="B258" s="226"/>
-      <c r="C258" s="229"/>
-      <c r="D258" s="206"/>
+      <c r="A258" s="225"/>
+      <c r="B258" s="227"/>
+      <c r="C258" s="230"/>
+      <c r="D258" s="207"/>
       <c r="E258" s="48"/>
       <c r="F258" s="49"/>
       <c r="G258" s="4"/>
@@ -9298,16 +9307,16 @@
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="223" t="s">
+      <c r="A259" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="225" t="s">
+      <c r="B259" s="226" t="s">
+        <v>154</v>
+      </c>
+      <c r="C259" s="228" t="s">
         <v>155</v>
       </c>
-      <c r="C259" s="227" t="s">
-        <v>156</v>
-      </c>
-      <c r="D259" s="203"/>
+      <c r="D259" s="204"/>
       <c r="E259" s="127"/>
       <c r="F259" s="51"/>
       <c r="G259" s="4"/>
@@ -9326,12 +9335,12 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" s="212"/>
-      <c r="B260" s="219"/>
-      <c r="C260" s="228"/>
-      <c r="D260" s="204"/>
+      <c r="A260" s="213"/>
+      <c r="B260" s="220"/>
+      <c r="C260" s="229"/>
+      <c r="D260" s="205"/>
       <c r="E260" s="128" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F260" s="19"/>
       <c r="G260" s="4"/>
@@ -9350,14 +9359,14 @@
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="212"/>
-      <c r="B261" s="219"/>
-      <c r="C261" s="228"/>
-      <c r="D261" s="201" t="s">
+      <c r="A261" s="213"/>
+      <c r="B261" s="220"/>
+      <c r="C261" s="229"/>
+      <c r="D261" s="202" t="s">
         <v>102</v>
       </c>
       <c r="E261" s="128" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F261" s="19"/>
       <c r="G261" s="4"/>
@@ -9376,12 +9385,12 @@
       <c r="T261" s="4"/>
     </row>
     <row r="262" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="212"/>
-      <c r="B262" s="219"/>
-      <c r="C262" s="228"/>
-      <c r="D262" s="202"/>
+      <c r="A262" s="213"/>
+      <c r="B262" s="220"/>
+      <c r="C262" s="229"/>
+      <c r="D262" s="203"/>
       <c r="E262" s="128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F262" s="19"/>
       <c r="G262" s="4"/>
@@ -9400,12 +9409,12 @@
       <c r="T262" s="4"/>
     </row>
     <row r="263" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="212"/>
-      <c r="B263" s="219"/>
-      <c r="C263" s="228"/>
+      <c r="A263" s="213"/>
+      <c r="B263" s="220"/>
+      <c r="C263" s="229"/>
       <c r="D263" s="126"/>
       <c r="E263" s="128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F263" s="19"/>
       <c r="G263" s="4"/>
@@ -9424,12 +9433,12 @@
       <c r="T263" s="4"/>
     </row>
     <row r="264" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="212"/>
-      <c r="B264" s="219"/>
-      <c r="C264" s="228"/>
+      <c r="A264" s="213"/>
+      <c r="B264" s="220"/>
+      <c r="C264" s="229"/>
       <c r="D264" s="126"/>
       <c r="E264" s="128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F264" s="19"/>
       <c r="G264" s="4"/>
@@ -9448,12 +9457,12 @@
       <c r="T264" s="4"/>
     </row>
     <row r="265" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="212"/>
-      <c r="B265" s="219"/>
-      <c r="C265" s="228"/>
+      <c r="A265" s="213"/>
+      <c r="B265" s="220"/>
+      <c r="C265" s="229"/>
       <c r="D265" s="126"/>
       <c r="E265" s="128" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F265" s="19"/>
       <c r="G265" s="4"/>
@@ -9472,12 +9481,12 @@
       <c r="T265" s="4"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" s="212"/>
-      <c r="B266" s="219"/>
-      <c r="C266" s="228"/>
-      <c r="D266" s="199"/>
+      <c r="A266" s="213"/>
+      <c r="B266" s="220"/>
+      <c r="C266" s="229"/>
+      <c r="D266" s="200"/>
       <c r="E266" s="130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F266" s="19"/>
       <c r="G266" s="4"/>
@@ -9496,12 +9505,12 @@
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="224"/>
-      <c r="B267" s="226"/>
-      <c r="C267" s="229"/>
-      <c r="D267" s="200"/>
+      <c r="A267" s="225"/>
+      <c r="B267" s="227"/>
+      <c r="C267" s="230"/>
+      <c r="D267" s="201"/>
       <c r="E267" s="131" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F267" s="49"/>
       <c r="G267" s="4"/>
@@ -9520,16 +9529,16 @@
       <c r="T267" s="4"/>
     </row>
     <row r="268" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="223" t="s">
+      <c r="A268" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="B268" s="225" t="s">
-        <v>281</v>
-      </c>
-      <c r="C268" s="220" t="s">
-        <v>278</v>
-      </c>
-      <c r="D268" s="203" t="s">
+      <c r="B268" s="226" t="s">
+        <v>275</v>
+      </c>
+      <c r="C268" s="221" t="s">
+        <v>272</v>
+      </c>
+      <c r="D268" s="204" t="s">
         <v>102</v>
       </c>
       <c r="E268" s="127"/>
@@ -9550,12 +9559,12 @@
       <c r="T268" s="4"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" s="212"/>
-      <c r="B269" s="219"/>
-      <c r="C269" s="215"/>
-      <c r="D269" s="204"/>
+      <c r="A269" s="213"/>
+      <c r="B269" s="220"/>
+      <c r="C269" s="216"/>
+      <c r="D269" s="205"/>
       <c r="E269" s="128" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F269" s="19"/>
       <c r="G269" s="4"/>
@@ -9574,12 +9583,12 @@
       <c r="T269" s="4"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" s="212"/>
-      <c r="B270" s="219"/>
-      <c r="C270" s="215"/>
-      <c r="D270" s="204"/>
+      <c r="A270" s="213"/>
+      <c r="B270" s="220"/>
+      <c r="C270" s="216"/>
+      <c r="D270" s="205"/>
       <c r="E270" s="50" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F270" s="19"/>
       <c r="G270" s="4"/>
@@ -9598,12 +9607,12 @@
       <c r="T270" s="4"/>
     </row>
     <row r="271" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A271" s="212"/>
-      <c r="B271" s="219"/>
-      <c r="C271" s="215"/>
-      <c r="D271" s="204"/>
+      <c r="A271" s="213"/>
+      <c r="B271" s="220"/>
+      <c r="C271" s="216"/>
+      <c r="D271" s="205"/>
       <c r="E271" s="166" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F271" s="19"/>
       <c r="G271" s="4"/>
@@ -9622,10 +9631,10 @@
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="224"/>
-      <c r="B272" s="226"/>
-      <c r="C272" s="221"/>
-      <c r="D272" s="204"/>
+      <c r="A272" s="225"/>
+      <c r="B272" s="227"/>
+      <c r="C272" s="222"/>
+      <c r="D272" s="205"/>
       <c r="E272" s="134"/>
       <c r="F272" s="49"/>
       <c r="G272" s="4"/>
@@ -9644,16 +9653,16 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="223" t="s">
+      <c r="A273" s="224" t="s">
         <v>43</v>
       </c>
-      <c r="B273" s="225" t="s">
+      <c r="B273" s="226" t="s">
+        <v>159</v>
+      </c>
+      <c r="C273" s="221" t="s">
         <v>160</v>
       </c>
-      <c r="C273" s="220" t="s">
-        <v>161</v>
-      </c>
-      <c r="D273" s="203" t="s">
+      <c r="D273" s="204" t="s">
         <v>102</v>
       </c>
       <c r="E273" s="20"/>
@@ -9674,12 +9683,12 @@
       <c r="T273" s="4"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="212"/>
-      <c r="B274" s="219"/>
-      <c r="C274" s="215"/>
-      <c r="D274" s="204"/>
+      <c r="A274" s="213"/>
+      <c r="B274" s="220"/>
+      <c r="C274" s="216"/>
+      <c r="D274" s="205"/>
       <c r="E274" s="133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F274" s="123"/>
       <c r="G274" s="4"/>
@@ -9698,12 +9707,12 @@
       <c r="T274" s="4"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A275" s="212"/>
-      <c r="B275" s="219"/>
-      <c r="C275" s="215"/>
-      <c r="D275" s="204"/>
+      <c r="A275" s="213"/>
+      <c r="B275" s="220"/>
+      <c r="C275" s="216"/>
+      <c r="D275" s="205"/>
       <c r="E275" s="34" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F275" s="47"/>
       <c r="G275" s="4"/>
@@ -9722,12 +9731,12 @@
       <c r="T275" s="4"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" s="212"/>
-      <c r="B276" s="219"/>
-      <c r="C276" s="215"/>
-      <c r="D276" s="204"/>
+      <c r="A276" s="213"/>
+      <c r="B276" s="220"/>
+      <c r="C276" s="216"/>
+      <c r="D276" s="205"/>
       <c r="E276" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F276" s="47"/>
       <c r="G276" s="4"/>
@@ -9746,12 +9755,12 @@
       <c r="T276" s="4"/>
     </row>
     <row r="277" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="212"/>
-      <c r="B277" s="219"/>
-      <c r="C277" s="215"/>
-      <c r="D277" s="204"/>
+      <c r="A277" s="213"/>
+      <c r="B277" s="220"/>
+      <c r="C277" s="216"/>
+      <c r="D277" s="205"/>
       <c r="E277" s="13" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F277" s="47"/>
       <c r="G277" s="4"/>
@@ -9770,10 +9779,10 @@
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" s="212"/>
-      <c r="B278" s="219"/>
-      <c r="C278" s="215"/>
-      <c r="D278" s="204"/>
+      <c r="A278" s="213"/>
+      <c r="B278" s="220"/>
+      <c r="C278" s="216"/>
+      <c r="D278" s="205"/>
       <c r="E278" s="13"/>
       <c r="F278" s="47"/>
       <c r="G278" s="4"/>
@@ -9792,10 +9801,10 @@
       <c r="T278" s="4"/>
     </row>
     <row r="279" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="224"/>
-      <c r="B279" s="226"/>
-      <c r="C279" s="221"/>
-      <c r="D279" s="222"/>
+      <c r="A279" s="225"/>
+      <c r="B279" s="227"/>
+      <c r="C279" s="222"/>
+      <c r="D279" s="223"/>
       <c r="E279" s="135"/>
       <c r="F279" s="48"/>
       <c r="G279" s="4"/>
@@ -9814,16 +9823,16 @@
       <c r="T279" s="4"/>
     </row>
     <row r="280" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="223" t="s">
+      <c r="A280" s="224" t="s">
         <v>44</v>
       </c>
-      <c r="B280" s="225" t="s">
+      <c r="B280" s="226" t="s">
+        <v>164</v>
+      </c>
+      <c r="C280" s="221" t="s">
         <v>165</v>
       </c>
-      <c r="C280" s="220" t="s">
-        <v>166</v>
-      </c>
-      <c r="D280" s="203" t="s">
+      <c r="D280" s="204" t="s">
         <v>102</v>
       </c>
       <c r="E280" s="20"/>
@@ -9844,12 +9853,12 @@
       <c r="T280" s="4"/>
     </row>
     <row r="281" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="212"/>
-      <c r="B281" s="219"/>
-      <c r="C281" s="215"/>
-      <c r="D281" s="204"/>
+      <c r="A281" s="213"/>
+      <c r="B281" s="220"/>
+      <c r="C281" s="216"/>
+      <c r="D281" s="205"/>
       <c r="E281" s="136" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F281" s="64"/>
       <c r="G281" s="4"/>
@@ -9868,12 +9877,12 @@
       <c r="T281" s="4"/>
     </row>
     <row r="282" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="212"/>
-      <c r="B282" s="219"/>
-      <c r="C282" s="215"/>
-      <c r="D282" s="204"/>
+      <c r="A282" s="213"/>
+      <c r="B282" s="220"/>
+      <c r="C282" s="216"/>
+      <c r="D282" s="205"/>
       <c r="E282" s="136" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F282" s="64"/>
       <c r="G282" s="4"/>
@@ -9892,12 +9901,12 @@
       <c r="T282" s="4"/>
     </row>
     <row r="283" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="212"/>
-      <c r="B283" s="219"/>
-      <c r="C283" s="215"/>
-      <c r="D283" s="204"/>
+      <c r="A283" s="213"/>
+      <c r="B283" s="220"/>
+      <c r="C283" s="216"/>
+      <c r="D283" s="205"/>
       <c r="E283" s="136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F283" s="64"/>
       <c r="G283" s="4"/>
@@ -9916,12 +9925,12 @@
       <c r="T283" s="4"/>
     </row>
     <row r="284" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="212"/>
-      <c r="B284" s="219"/>
-      <c r="C284" s="215"/>
-      <c r="D284" s="204"/>
+      <c r="A284" s="213"/>
+      <c r="B284" s="220"/>
+      <c r="C284" s="216"/>
+      <c r="D284" s="205"/>
       <c r="E284" s="133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F284" s="64"/>
       <c r="G284" s="4"/>
@@ -9940,12 +9949,12 @@
       <c r="T284" s="4"/>
     </row>
     <row r="285" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="212"/>
-      <c r="B285" s="219"/>
-      <c r="C285" s="215"/>
-      <c r="D285" s="204"/>
+      <c r="A285" s="213"/>
+      <c r="B285" s="220"/>
+      <c r="C285" s="216"/>
+      <c r="D285" s="205"/>
       <c r="E285" s="133" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F285" s="64"/>
       <c r="G285" s="4"/>
@@ -9964,10 +9973,10 @@
       <c r="T285" s="4"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="212"/>
-      <c r="B286" s="219"/>
-      <c r="C286" s="215"/>
-      <c r="D286" s="204"/>
+      <c r="A286" s="213"/>
+      <c r="B286" s="220"/>
+      <c r="C286" s="216"/>
+      <c r="D286" s="205"/>
       <c r="E286" s="133"/>
       <c r="F286" s="123"/>
       <c r="G286" s="4"/>
@@ -9986,10 +9995,10 @@
       <c r="T286" s="4"/>
     </row>
     <row r="287" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="224"/>
-      <c r="B287" s="226"/>
-      <c r="C287" s="221"/>
-      <c r="D287" s="222"/>
+      <c r="A287" s="225"/>
+      <c r="B287" s="227"/>
+      <c r="C287" s="222"/>
+      <c r="D287" s="223"/>
       <c r="E287" s="136"/>
       <c r="F287" s="48"/>
       <c r="G287" s="4"/>
@@ -10008,16 +10017,16 @@
       <c r="T287" s="4"/>
     </row>
     <row r="288" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="223" t="s">
+      <c r="A288" s="224" t="s">
         <v>45</v>
       </c>
-      <c r="B288" s="225" t="s">
+      <c r="B288" s="226" t="s">
+        <v>169</v>
+      </c>
+      <c r="C288" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="C288" s="220" t="s">
-        <v>171</v>
-      </c>
-      <c r="D288" s="203" t="s">
+      <c r="D288" s="204" t="s">
         <v>102</v>
       </c>
       <c r="E288" s="20"/>
@@ -10038,12 +10047,12 @@
       <c r="T288" s="4"/>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A289" s="212"/>
-      <c r="B289" s="219"/>
-      <c r="C289" s="215"/>
-      <c r="D289" s="204"/>
+      <c r="A289" s="213"/>
+      <c r="B289" s="220"/>
+      <c r="C289" s="216"/>
+      <c r="D289" s="205"/>
       <c r="E289" s="133" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F289" s="123"/>
       <c r="G289" s="4"/>
@@ -10062,12 +10071,12 @@
       <c r="T289" s="4"/>
     </row>
     <row r="290" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="212"/>
-      <c r="B290" s="219"/>
-      <c r="C290" s="215"/>
-      <c r="D290" s="204"/>
+      <c r="A290" s="213"/>
+      <c r="B290" s="220"/>
+      <c r="C290" s="216"/>
+      <c r="D290" s="205"/>
       <c r="E290" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F290" s="123"/>
       <c r="G290" s="4"/>
@@ -10086,12 +10095,12 @@
       <c r="T290" s="4"/>
     </row>
     <row r="291" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="212"/>
-      <c r="B291" s="219"/>
-      <c r="C291" s="215"/>
-      <c r="D291" s="204"/>
+      <c r="A291" s="213"/>
+      <c r="B291" s="220"/>
+      <c r="C291" s="216"/>
+      <c r="D291" s="205"/>
       <c r="E291" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F291" s="123"/>
       <c r="G291" s="4"/>
@@ -10110,12 +10119,12 @@
       <c r="T291" s="4"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="212"/>
-      <c r="B292" s="219"/>
-      <c r="C292" s="215"/>
-      <c r="D292" s="204"/>
+      <c r="A292" s="213"/>
+      <c r="B292" s="220"/>
+      <c r="C292" s="216"/>
+      <c r="D292" s="205"/>
       <c r="E292" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F292" s="47"/>
       <c r="G292" s="4"/>
@@ -10134,12 +10143,12 @@
       <c r="T292" s="4"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A293" s="212"/>
-      <c r="B293" s="219"/>
-      <c r="C293" s="215"/>
-      <c r="D293" s="204"/>
+      <c r="A293" s="213"/>
+      <c r="B293" s="220"/>
+      <c r="C293" s="216"/>
+      <c r="D293" s="205"/>
       <c r="E293" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F293" s="47"/>
       <c r="G293" s="4"/>
@@ -10158,12 +10167,12 @@
       <c r="T293" s="4"/>
     </row>
     <row r="294" spans="1:20" s="98" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A294" s="212"/>
-      <c r="B294" s="219"/>
-      <c r="C294" s="215"/>
-      <c r="D294" s="204"/>
+      <c r="A294" s="213"/>
+      <c r="B294" s="220"/>
+      <c r="C294" s="216"/>
+      <c r="D294" s="205"/>
       <c r="E294" s="113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F294" s="47"/>
       <c r="G294" s="4"/>
@@ -10182,12 +10191,12 @@
       <c r="T294" s="4"/>
     </row>
     <row r="295" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="212"/>
-      <c r="B295" s="219"/>
-      <c r="C295" s="215"/>
-      <c r="D295" s="204"/>
+      <c r="A295" s="213"/>
+      <c r="B295" s="220"/>
+      <c r="C295" s="216"/>
+      <c r="D295" s="205"/>
       <c r="E295" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F295" s="47"/>
       <c r="G295" s="4"/>
@@ -10206,12 +10215,12 @@
       <c r="T295" s="4"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A296" s="212"/>
-      <c r="B296" s="219"/>
-      <c r="C296" s="215"/>
-      <c r="D296" s="204"/>
+      <c r="A296" s="213"/>
+      <c r="B296" s="220"/>
+      <c r="C296" s="216"/>
+      <c r="D296" s="205"/>
       <c r="E296" s="132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F296" s="47"/>
       <c r="G296" s="4"/>
@@ -10230,12 +10239,12 @@
       <c r="T296" s="4"/>
     </row>
     <row r="297" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="212"/>
-      <c r="B297" s="219"/>
-      <c r="C297" s="215"/>
-      <c r="D297" s="204"/>
+      <c r="A297" s="213"/>
+      <c r="B297" s="220"/>
+      <c r="C297" s="216"/>
+      <c r="D297" s="205"/>
       <c r="E297" s="133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F297" s="137"/>
       <c r="G297" s="4"/>
@@ -10254,12 +10263,12 @@
       <c r="T297" s="4"/>
     </row>
     <row r="298" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="224"/>
-      <c r="B298" s="226"/>
-      <c r="C298" s="221"/>
-      <c r="D298" s="222"/>
+      <c r="A298" s="225"/>
+      <c r="B298" s="227"/>
+      <c r="C298" s="222"/>
+      <c r="D298" s="223"/>
       <c r="E298" s="138" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F298" s="48"/>
       <c r="G298" s="4"/>
@@ -10278,16 +10287,16 @@
       <c r="T298" s="4"/>
     </row>
     <row r="299" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="190" t="s">
+      <c r="A299" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="B299" s="182" t="s">
+      <c r="B299" s="183" t="s">
+        <v>179</v>
+      </c>
+      <c r="C299" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="C299" s="186" t="s">
-        <v>181</v>
-      </c>
-      <c r="D299" s="187" t="s">
+      <c r="D299" s="188" t="s">
         <v>102</v>
       </c>
       <c r="E299" s="34"/>
@@ -10308,12 +10317,12 @@
       <c r="T299" s="4"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A300" s="174"/>
-      <c r="B300" s="183"/>
-      <c r="C300" s="183"/>
-      <c r="D300" s="188"/>
+      <c r="A300" s="175"/>
+      <c r="B300" s="184"/>
+      <c r="C300" s="184"/>
+      <c r="D300" s="189"/>
       <c r="E300" s="13" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F300" s="123"/>
       <c r="G300" s="4"/>
@@ -10332,12 +10341,12 @@
       <c r="T300" s="4"/>
     </row>
     <row r="301" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="180"/>
-      <c r="B301" s="184"/>
-      <c r="C301" s="184"/>
-      <c r="D301" s="188"/>
+      <c r="A301" s="181"/>
+      <c r="B301" s="185"/>
+      <c r="C301" s="185"/>
+      <c r="D301" s="189"/>
       <c r="E301" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F301" s="123"/>
       <c r="G301" s="4"/>
@@ -10356,12 +10365,12 @@
       <c r="T301" s="4"/>
     </row>
     <row r="302" spans="1:20" s="98" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A302" s="180"/>
-      <c r="B302" s="184"/>
-      <c r="C302" s="184"/>
-      <c r="D302" s="188"/>
+      <c r="A302" s="181"/>
+      <c r="B302" s="185"/>
+      <c r="C302" s="185"/>
+      <c r="D302" s="189"/>
       <c r="E302" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F302" s="123"/>
       <c r="G302" s="4"/>
@@ -10380,10 +10389,10 @@
       <c r="T302" s="4"/>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A303" s="174"/>
-      <c r="B303" s="183"/>
-      <c r="C303" s="183"/>
-      <c r="D303" s="183"/>
+      <c r="A303" s="175"/>
+      <c r="B303" s="184"/>
+      <c r="C303" s="184"/>
+      <c r="D303" s="184"/>
       <c r="E303" s="34"/>
       <c r="F303" s="47"/>
       <c r="G303" s="4"/>
@@ -10402,10 +10411,10 @@
       <c r="T303" s="4"/>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A304" s="174"/>
-      <c r="B304" s="183"/>
-      <c r="C304" s="183"/>
-      <c r="D304" s="183"/>
+      <c r="A304" s="175"/>
+      <c r="B304" s="184"/>
+      <c r="C304" s="184"/>
+      <c r="D304" s="184"/>
       <c r="E304" s="132"/>
       <c r="F304" s="47"/>
       <c r="G304" s="4"/>
@@ -10424,10 +10433,10 @@
       <c r="T304" s="4"/>
     </row>
     <row r="305" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="175"/>
-      <c r="B305" s="185"/>
-      <c r="C305" s="185"/>
-      <c r="D305" s="189"/>
+      <c r="A305" s="176"/>
+      <c r="B305" s="186"/>
+      <c r="C305" s="186"/>
+      <c r="D305" s="190"/>
       <c r="E305" s="140"/>
       <c r="F305" s="139"/>
       <c r="G305" s="4"/>
@@ -10446,16 +10455,16 @@
       <c r="T305" s="4"/>
     </row>
     <row r="306" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="190" t="s">
+      <c r="A306" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="B306" s="182" t="s">
-        <v>184</v>
-      </c>
-      <c r="C306" s="186" t="s">
-        <v>186</v>
-      </c>
-      <c r="D306" s="191" t="s">
+      <c r="B306" s="183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C306" s="187" t="s">
+        <v>185</v>
+      </c>
+      <c r="D306" s="192" t="s">
         <v>102</v>
       </c>
       <c r="E306" s="20"/>
@@ -10476,12 +10485,12 @@
       <c r="T306" s="4"/>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A307" s="174"/>
-      <c r="B307" s="183"/>
-      <c r="C307" s="183"/>
-      <c r="D307" s="191"/>
+      <c r="A307" s="175"/>
+      <c r="B307" s="184"/>
+      <c r="C307" s="184"/>
+      <c r="D307" s="192"/>
       <c r="E307" s="133" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="F307" s="123"/>
       <c r="G307" s="4"/>
@@ -10500,12 +10509,12 @@
       <c r="T307" s="4"/>
     </row>
     <row r="308" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="180"/>
-      <c r="B308" s="184"/>
-      <c r="C308" s="184"/>
+      <c r="A308" s="181"/>
+      <c r="B308" s="185"/>
+      <c r="C308" s="185"/>
       <c r="D308" s="163"/>
       <c r="E308" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F308" s="123"/>
       <c r="G308" s="4"/>
@@ -10524,12 +10533,12 @@
       <c r="T308" s="4"/>
     </row>
     <row r="309" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="180"/>
-      <c r="B309" s="184"/>
-      <c r="C309" s="184"/>
+      <c r="A309" s="181"/>
+      <c r="B309" s="185"/>
+      <c r="C309" s="185"/>
       <c r="D309" s="163"/>
       <c r="E309" s="13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F309" s="123"/>
       <c r="G309" s="4"/>
@@ -10548,14 +10557,14 @@
       <c r="T309" s="4"/>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A310" s="174"/>
-      <c r="B310" s="183"/>
-      <c r="C310" s="183"/>
+      <c r="A310" s="175"/>
+      <c r="B310" s="184"/>
+      <c r="C310" s="184"/>
       <c r="D310" s="126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E310" s="167" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F310" s="47"/>
       <c r="G310" s="4"/>
@@ -10574,12 +10583,12 @@
       <c r="T310" s="4"/>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A311" s="174"/>
-      <c r="B311" s="183"/>
-      <c r="C311" s="183"/>
+      <c r="A311" s="175"/>
+      <c r="B311" s="184"/>
+      <c r="C311" s="184"/>
       <c r="D311" s="126"/>
       <c r="E311" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F311" s="47"/>
       <c r="G311" s="4"/>
@@ -10598,12 +10607,12 @@
       <c r="T311" s="4"/>
     </row>
     <row r="312" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="180"/>
-      <c r="B312" s="184"/>
-      <c r="C312" s="184"/>
+      <c r="A312" s="181"/>
+      <c r="B312" s="185"/>
+      <c r="C312" s="185"/>
       <c r="D312" s="163"/>
       <c r="E312" s="13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F312" s="47"/>
       <c r="G312" s="4"/>
@@ -10622,12 +10631,12 @@
       <c r="T312" s="4"/>
     </row>
     <row r="313" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="174"/>
-      <c r="B313" s="183"/>
-      <c r="C313" s="183"/>
-      <c r="D313" s="191"/>
+      <c r="A313" s="175"/>
+      <c r="B313" s="184"/>
+      <c r="C313" s="184"/>
+      <c r="D313" s="192"/>
       <c r="E313" s="135" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F313" s="47"/>
       <c r="G313" s="4"/>
@@ -10646,10 +10655,10 @@
       <c r="T313" s="4"/>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A314" s="174"/>
-      <c r="B314" s="183"/>
-      <c r="C314" s="183"/>
-      <c r="D314" s="191"/>
+      <c r="A314" s="175"/>
+      <c r="B314" s="184"/>
+      <c r="C314" s="184"/>
+      <c r="D314" s="192"/>
       <c r="F314" s="47"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10667,9 +10676,9 @@
       <c r="T314" s="4"/>
     </row>
     <row r="315" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="175"/>
-      <c r="B315" s="185"/>
-      <c r="C315" s="185"/>
+      <c r="A315" s="176"/>
+      <c r="B315" s="186"/>
+      <c r="C315" s="186"/>
       <c r="D315" s="108"/>
       <c r="E315" s="135"/>
       <c r="F315" s="48"/>
@@ -10689,16 +10698,16 @@
       <c r="T315" s="4"/>
     </row>
     <row r="316" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="173" t="s">
+      <c r="A316" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="B316" s="182" t="s">
-        <v>285</v>
-      </c>
-      <c r="C316" s="186" t="s">
-        <v>187</v>
-      </c>
-      <c r="D316" s="211" t="s">
+      <c r="B316" s="183" t="s">
+        <v>279</v>
+      </c>
+      <c r="C316" s="187" t="s">
+        <v>186</v>
+      </c>
+      <c r="D316" s="212" t="s">
         <v>102</v>
       </c>
       <c r="E316" s="133"/>
@@ -10719,12 +10728,12 @@
       <c r="T316" s="4"/>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A317" s="174"/>
-      <c r="B317" s="183"/>
-      <c r="C317" s="183"/>
-      <c r="D317" s="191"/>
+      <c r="A317" s="175"/>
+      <c r="B317" s="184"/>
+      <c r="C317" s="184"/>
+      <c r="D317" s="192"/>
       <c r="E317" s="34" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="F317" s="123"/>
       <c r="G317" s="4"/>
@@ -10743,14 +10752,14 @@
       <c r="T317" s="4"/>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A318" s="174"/>
-      <c r="B318" s="183"/>
-      <c r="C318" s="183"/>
+      <c r="A318" s="175"/>
+      <c r="B318" s="184"/>
+      <c r="C318" s="184"/>
       <c r="D318" s="126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E318" s="133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F318" s="47"/>
       <c r="G318" s="4"/>
@@ -10769,12 +10778,12 @@
       <c r="T318" s="4"/>
     </row>
     <row r="319" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="180"/>
-      <c r="B319" s="184"/>
-      <c r="C319" s="184"/>
+      <c r="A319" s="181"/>
+      <c r="B319" s="185"/>
+      <c r="C319" s="185"/>
       <c r="D319" s="163"/>
       <c r="E319" s="34" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F319" s="47"/>
       <c r="G319" s="4"/>
@@ -10793,9 +10802,9 @@
       <c r="T319" s="4"/>
     </row>
     <row r="320" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="180"/>
-      <c r="B320" s="184"/>
-      <c r="C320" s="184"/>
+      <c r="A320" s="181"/>
+      <c r="B320" s="185"/>
+      <c r="C320" s="185"/>
       <c r="D320" s="163"/>
       <c r="F320" s="47"/>
       <c r="G320" s="4"/>
@@ -10814,11 +10823,11 @@
       <c r="T320" s="4"/>
     </row>
     <row r="321" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A321" s="174"/>
-      <c r="B321" s="183"/>
-      <c r="C321" s="183"/>
+      <c r="A321" s="175"/>
+      <c r="B321" s="184"/>
+      <c r="C321" s="184"/>
       <c r="D321" s="126" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E321" s="13"/>
       <c r="F321" s="47"/>
@@ -10838,9 +10847,9 @@
       <c r="T321" s="4"/>
     </row>
     <row r="322" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="175"/>
-      <c r="B322" s="185"/>
-      <c r="C322" s="185"/>
+      <c r="A322" s="176"/>
+      <c r="B322" s="186"/>
+      <c r="C322" s="186"/>
       <c r="D322" s="108"/>
       <c r="E322" s="135"/>
       <c r="F322" s="48"/>
@@ -10860,18 +10869,18 @@
       <c r="T322" s="4"/>
     </row>
     <row r="323" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="190" t="s">
+      <c r="A323" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B323" s="182" t="s">
-        <v>300</v>
-      </c>
-      <c r="C323" s="186" t="s">
-        <v>301</v>
+      <c r="B323" s="183" t="s">
+        <v>291</v>
+      </c>
+      <c r="C323" s="187" t="s">
+        <v>292</v>
       </c>
       <c r="D323" s="163"/>
       <c r="E323" s="133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F323" s="50"/>
       <c r="G323" s="4"/>
@@ -10889,15 +10898,15 @@
       <c r="S323" s="4"/>
       <c r="T323" s="4"/>
     </row>
-    <row r="324" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="174"/>
-      <c r="B324" s="183"/>
-      <c r="C324" s="183"/>
-      <c r="D324" s="108" t="s">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A324" s="175"/>
+      <c r="B324" s="184"/>
+      <c r="C324" s="184"/>
+      <c r="D324" s="173" t="s">
         <v>102</v>
       </c>
       <c r="E324" s="34" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F324" s="123"/>
       <c r="G324" s="4"/>
@@ -10916,14 +10925,14 @@
       <c r="T324" s="4"/>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A325" s="174"/>
-      <c r="B325" s="183"/>
-      <c r="C325" s="183"/>
+      <c r="A325" s="175"/>
+      <c r="B325" s="184"/>
+      <c r="C325" s="184"/>
       <c r="D325" s="163" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F325" s="47"/>
       <c r="G325" s="4"/>
@@ -10941,13 +10950,13 @@
       <c r="S325" s="4"/>
       <c r="T325" s="4"/>
     </row>
-    <row r="326" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="174"/>
-      <c r="B326" s="183"/>
-      <c r="C326" s="183"/>
-      <c r="D326" s="108"/>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A326" s="175"/>
+      <c r="B326" s="184"/>
+      <c r="C326" s="184"/>
+      <c r="D326" s="163"/>
       <c r="E326" s="13" t="s">
-        <v>130</v>
+        <v>357</v>
       </c>
       <c r="F326" s="47"/>
       <c r="G326" s="4"/>
@@ -10966,12 +10975,12 @@
       <c r="T326" s="4"/>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A327" s="174"/>
-      <c r="B327" s="183"/>
-      <c r="C327" s="183"/>
-      <c r="D327" s="163"/>
+      <c r="A327" s="175"/>
+      <c r="B327" s="184"/>
+      <c r="C327" s="184"/>
+      <c r="D327" s="173"/>
       <c r="E327" s="13" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F327" s="47"/>
       <c r="G327" s="4"/>
@@ -10989,13 +10998,13 @@
       <c r="S327" s="4"/>
       <c r="T327" s="4"/>
     </row>
-    <row r="328" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="174"/>
-      <c r="B328" s="183"/>
-      <c r="C328" s="183"/>
-      <c r="D328" s="108"/>
-      <c r="E328" s="135" t="s">
-        <v>308</v>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A328" s="175"/>
+      <c r="B328" s="184"/>
+      <c r="C328" s="184"/>
+      <c r="D328" s="173"/>
+      <c r="E328" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="F328" s="47"/>
       <c r="G328" s="4"/>
@@ -11014,11 +11023,11 @@
       <c r="T328" s="4"/>
     </row>
     <row r="329" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="175"/>
-      <c r="B329" s="185"/>
-      <c r="C329" s="185"/>
-      <c r="D329" s="163"/>
-      <c r="E329" s="20"/>
+      <c r="A329" s="176"/>
+      <c r="B329" s="186"/>
+      <c r="C329" s="186"/>
+      <c r="D329" s="108"/>
+      <c r="E329" s="135"/>
       <c r="F329" s="48"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
@@ -11036,16 +11045,16 @@
       <c r="T329" s="4"/>
     </row>
     <row r="330" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="190" t="s">
+      <c r="A330" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="B330" s="182" t="s">
+      <c r="B330" s="183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C330" s="187" t="s">
         <v>191</v>
       </c>
-      <c r="C330" s="186" t="s">
-        <v>192</v>
-      </c>
-      <c r="D330" s="187"/>
+      <c r="D330" s="188"/>
       <c r="E330" s="20"/>
       <c r="F330" s="50"/>
       <c r="G330" s="4"/>
@@ -11064,12 +11073,12 @@
       <c r="T330" s="4"/>
     </row>
     <row r="331" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="212"/>
-      <c r="B331" s="219"/>
-      <c r="C331" s="215"/>
-      <c r="D331" s="204"/>
+      <c r="A331" s="213"/>
+      <c r="B331" s="220"/>
+      <c r="C331" s="216"/>
+      <c r="D331" s="205"/>
       <c r="E331" s="133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F331" s="64"/>
       <c r="G331" s="4"/>
@@ -11088,12 +11097,12 @@
       <c r="T331" s="4"/>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A332" s="174"/>
-      <c r="B332" s="183"/>
-      <c r="C332" s="183"/>
-      <c r="D332" s="188"/>
+      <c r="A332" s="175"/>
+      <c r="B332" s="184"/>
+      <c r="C332" s="184"/>
+      <c r="D332" s="189"/>
       <c r="E332" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F332" s="123"/>
       <c r="G332" s="4"/>
@@ -11112,10 +11121,10 @@
       <c r="T332" s="4"/>
     </row>
     <row r="333" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="175"/>
-      <c r="B333" s="185"/>
-      <c r="C333" s="185"/>
-      <c r="D333" s="185"/>
+      <c r="A333" s="176"/>
+      <c r="B333" s="186"/>
+      <c r="C333" s="186"/>
+      <c r="D333" s="186"/>
       <c r="E333" s="136"/>
       <c r="F333" s="48"/>
       <c r="G333" s="4"/>
@@ -11134,16 +11143,16 @@
       <c r="T333" s="4"/>
     </row>
     <row r="334" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="190" t="s">
+      <c r="A334" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="B334" s="182" t="s">
+      <c r="B334" s="183" t="s">
+        <v>193</v>
+      </c>
+      <c r="C334" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="C334" s="186" t="s">
-        <v>195</v>
-      </c>
-      <c r="D334" s="187" t="s">
+      <c r="D334" s="188" t="s">
         <v>102</v>
       </c>
       <c r="E334" s="20"/>
@@ -11164,12 +11173,12 @@
       <c r="T334" s="4"/>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A335" s="174"/>
-      <c r="B335" s="183"/>
-      <c r="C335" s="183"/>
-      <c r="D335" s="188"/>
+      <c r="A335" s="175"/>
+      <c r="B335" s="184"/>
+      <c r="C335" s="184"/>
+      <c r="D335" s="189"/>
       <c r="E335" s="133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F335" s="123"/>
       <c r="G335" s="4"/>
@@ -11188,12 +11197,12 @@
       <c r="T335" s="4"/>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A336" s="174"/>
-      <c r="B336" s="183"/>
-      <c r="C336" s="183"/>
-      <c r="D336" s="183"/>
+      <c r="A336" s="175"/>
+      <c r="B336" s="184"/>
+      <c r="C336" s="184"/>
+      <c r="D336" s="184"/>
       <c r="E336" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F336" s="47"/>
       <c r="G336" s="4"/>
@@ -11212,10 +11221,10 @@
       <c r="T336" s="4"/>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A337" s="174"/>
-      <c r="B337" s="183"/>
-      <c r="C337" s="183"/>
-      <c r="D337" s="183"/>
+      <c r="A337" s="175"/>
+      <c r="B337" s="184"/>
+      <c r="C337" s="184"/>
+      <c r="D337" s="184"/>
       <c r="E337" s="13"/>
       <c r="F337" s="47"/>
       <c r="G337" s="4"/>
@@ -11234,10 +11243,10 @@
       <c r="T337" s="4"/>
     </row>
     <row r="338" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="175"/>
-      <c r="B338" s="185"/>
-      <c r="C338" s="185"/>
-      <c r="D338" s="185"/>
+      <c r="A338" s="176"/>
+      <c r="B338" s="186"/>
+      <c r="C338" s="186"/>
+      <c r="D338" s="186"/>
       <c r="E338" s="135"/>
       <c r="F338" s="47"/>
       <c r="G338" s="4"/>
@@ -11256,16 +11265,16 @@
       <c r="T338" s="4"/>
     </row>
     <row r="339" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="190" t="s">
+      <c r="A339" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="B339" s="176" t="s">
+      <c r="B339" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="C339" s="180" t="s">
         <v>198</v>
       </c>
-      <c r="C339" s="179" t="s">
-        <v>199</v>
-      </c>
-      <c r="D339" s="217" t="s">
+      <c r="D339" s="218" t="s">
         <v>102</v>
       </c>
       <c r="E339" s="20"/>
@@ -11286,12 +11295,12 @@
       <c r="T339" s="4"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A340" s="174"/>
-      <c r="B340" s="177"/>
-      <c r="C340" s="177"/>
-      <c r="D340" s="218"/>
+      <c r="A340" s="175"/>
+      <c r="B340" s="178"/>
+      <c r="C340" s="178"/>
+      <c r="D340" s="219"/>
       <c r="E340" s="133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F340" s="53"/>
       <c r="G340" s="4"/>
@@ -11310,12 +11319,12 @@
       <c r="T340" s="4"/>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A341" s="174"/>
-      <c r="B341" s="177"/>
-      <c r="C341" s="177"/>
-      <c r="D341" s="177"/>
+      <c r="A341" s="175"/>
+      <c r="B341" s="178"/>
+      <c r="C341" s="178"/>
+      <c r="D341" s="178"/>
       <c r="E341" s="141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F341" s="54"/>
       <c r="G341" s="4"/>
@@ -11334,12 +11343,12 @@
       <c r="T341" s="4"/>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A342" s="174"/>
-      <c r="B342" s="177"/>
-      <c r="C342" s="177"/>
-      <c r="D342" s="177"/>
+      <c r="A342" s="175"/>
+      <c r="B342" s="178"/>
+      <c r="C342" s="178"/>
+      <c r="D342" s="178"/>
       <c r="E342" s="142" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F342" s="53"/>
       <c r="G342" s="4"/>
@@ -11358,10 +11367,10 @@
       <c r="T342" s="4"/>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A343" s="174"/>
-      <c r="B343" s="177"/>
-      <c r="C343" s="177"/>
-      <c r="D343" s="177"/>
+      <c r="A343" s="175"/>
+      <c r="B343" s="178"/>
+      <c r="C343" s="178"/>
+      <c r="D343" s="178"/>
       <c r="E343" s="34"/>
       <c r="F343" s="54"/>
       <c r="G343" s="4"/>
@@ -11380,10 +11389,10 @@
       <c r="T343" s="4"/>
     </row>
     <row r="344" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="175"/>
-      <c r="B344" s="178"/>
-      <c r="C344" s="178"/>
-      <c r="D344" s="178"/>
+      <c r="A344" s="176"/>
+      <c r="B344" s="179"/>
+      <c r="C344" s="179"/>
+      <c r="D344" s="179"/>
       <c r="E344" s="135"/>
       <c r="F344" s="55"/>
       <c r="G344" s="4"/>
@@ -11402,14 +11411,14 @@
       <c r="T344" s="4"/>
     </row>
     <row r="345" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="173" t="s">
+      <c r="A345" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="B345" s="176" t="s">
+      <c r="B345" s="177" t="s">
+        <v>200</v>
+      </c>
+      <c r="C345" s="180" t="s">
         <v>201</v>
-      </c>
-      <c r="C345" s="179" t="s">
-        <v>202</v>
       </c>
       <c r="D345" s="82" t="s">
         <v>102</v>
@@ -11432,14 +11441,14 @@
       <c r="T345" s="4"/>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A346" s="174"/>
-      <c r="B346" s="177"/>
-      <c r="C346" s="177"/>
+      <c r="A346" s="175"/>
+      <c r="B346" s="178"/>
+      <c r="C346" s="178"/>
       <c r="D346" s="143" t="s">
-        <v>203</v>
+        <v>358</v>
       </c>
       <c r="E346" s="144" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F346" s="30"/>
       <c r="G346" s="4"/>
@@ -11458,12 +11467,12 @@
       <c r="T346" s="4"/>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A347" s="174"/>
-      <c r="B347" s="177"/>
-      <c r="C347" s="177"/>
+      <c r="A347" s="175"/>
+      <c r="B347" s="178"/>
+      <c r="C347" s="178"/>
       <c r="D347" s="80"/>
       <c r="E347" s="145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F347" s="59"/>
       <c r="G347" s="4"/>
@@ -11482,12 +11491,12 @@
       <c r="T347" s="4"/>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A348" s="174"/>
-      <c r="B348" s="177"/>
-      <c r="C348" s="177"/>
+      <c r="A348" s="175"/>
+      <c r="B348" s="178"/>
+      <c r="C348" s="178"/>
       <c r="D348" s="82"/>
       <c r="E348" s="111" t="s">
-        <v>261</v>
+        <v>360</v>
       </c>
       <c r="F348" s="31"/>
       <c r="G348" s="4"/>
@@ -11506,12 +11515,12 @@
       <c r="T348" s="4"/>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A349" s="174"/>
-      <c r="B349" s="177"/>
-      <c r="C349" s="177"/>
+      <c r="A349" s="175"/>
+      <c r="B349" s="178"/>
+      <c r="C349" s="178"/>
       <c r="D349" s="81"/>
       <c r="E349" s="58" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
       <c r="F349" s="61"/>
       <c r="G349" s="4"/>
@@ -11530,9 +11539,9 @@
       <c r="T349" s="4"/>
     </row>
     <row r="350" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="175"/>
-      <c r="B350" s="178"/>
-      <c r="C350" s="178"/>
+      <c r="A350" s="176"/>
+      <c r="B350" s="179"/>
+      <c r="C350" s="179"/>
       <c r="D350" s="100"/>
       <c r="E350" s="160"/>
       <c r="F350" s="151"/>
@@ -11552,17 +11561,17 @@
       <c r="T350" s="4"/>
     </row>
     <row r="351" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="173" t="s">
+      <c r="A351" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="B351" s="176" t="s">
+      <c r="B351" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="C351" s="180" t="s">
+        <v>203</v>
+      </c>
+      <c r="D351" s="218" t="s">
         <v>205</v>
-      </c>
-      <c r="C351" s="179" t="s">
-        <v>204</v>
-      </c>
-      <c r="D351" s="217" t="s">
-        <v>206</v>
       </c>
       <c r="E351" s="146"/>
       <c r="F351" s="57"/>
@@ -11582,10 +11591,10 @@
       <c r="T351" s="4"/>
     </row>
     <row r="352" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="174"/>
-      <c r="B352" s="177"/>
-      <c r="C352" s="177"/>
-      <c r="D352" s="218"/>
+      <c r="A352" s="175"/>
+      <c r="B352" s="178"/>
+      <c r="C352" s="178"/>
+      <c r="D352" s="219"/>
       <c r="E352" s="133"/>
       <c r="F352" s="161"/>
       <c r="G352" s="4"/>
@@ -11604,10 +11613,10 @@
       <c r="T352" s="4"/>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A353" s="174"/>
-      <c r="B353" s="177"/>
-      <c r="C353" s="177"/>
-      <c r="D353" s="177"/>
+      <c r="A353" s="175"/>
+      <c r="B353" s="178"/>
+      <c r="C353" s="178"/>
+      <c r="D353" s="178"/>
       <c r="E353" s="56"/>
       <c r="F353" s="57"/>
       <c r="G353" s="4"/>
@@ -11626,12 +11635,12 @@
       <c r="T353" s="4"/>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A354" s="174"/>
-      <c r="B354" s="177"/>
-      <c r="C354" s="177"/>
-      <c r="D354" s="177"/>
+      <c r="A354" s="175"/>
+      <c r="B354" s="178"/>
+      <c r="C354" s="178"/>
+      <c r="D354" s="178"/>
       <c r="E354" s="111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F354" s="31"/>
       <c r="G354" s="4"/>
@@ -11650,12 +11659,12 @@
       <c r="T354" s="4"/>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A355" s="174"/>
-      <c r="B355" s="177"/>
-      <c r="C355" s="177"/>
-      <c r="D355" s="177"/>
+      <c r="A355" s="175"/>
+      <c r="B355" s="178"/>
+      <c r="C355" s="178"/>
+      <c r="D355" s="178"/>
       <c r="E355" s="58" t="s">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="F355" s="61"/>
       <c r="G355" s="4"/>
@@ -11674,12 +11683,12 @@
       <c r="T355" s="4"/>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A356" s="174"/>
-      <c r="B356" s="177"/>
-      <c r="C356" s="177"/>
-      <c r="D356" s="177"/>
+      <c r="A356" s="175"/>
+      <c r="B356" s="178"/>
+      <c r="C356" s="178"/>
+      <c r="D356" s="178"/>
       <c r="E356" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F356" s="59"/>
       <c r="G356" s="4"/>
@@ -11698,10 +11707,10 @@
       <c r="T356" s="4"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A357" s="174"/>
-      <c r="B357" s="177"/>
-      <c r="C357" s="177"/>
-      <c r="D357" s="177"/>
+      <c r="A357" s="175"/>
+      <c r="B357" s="178"/>
+      <c r="C357" s="178"/>
+      <c r="D357" s="178"/>
       <c r="E357" s="60"/>
       <c r="F357" s="31"/>
       <c r="G357" s="4"/>
@@ -11720,10 +11729,10 @@
       <c r="T357" s="4"/>
     </row>
     <row r="358" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="175"/>
-      <c r="B358" s="178"/>
-      <c r="C358" s="178"/>
-      <c r="D358" s="178"/>
+      <c r="A358" s="176"/>
+      <c r="B358" s="179"/>
+      <c r="C358" s="179"/>
+      <c r="D358" s="179"/>
       <c r="E358" s="147"/>
       <c r="F358" s="55"/>
       <c r="G358" s="4"/>
@@ -11742,17 +11751,17 @@
       <c r="T358" s="4"/>
     </row>
     <row r="359" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="173" t="s">
+      <c r="A359" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="B359" s="176" t="s">
-        <v>209</v>
-      </c>
-      <c r="C359" s="214" t="s">
-        <v>210</v>
-      </c>
-      <c r="D359" s="216" t="s">
-        <v>206</v>
+      <c r="B359" s="177" t="s">
+        <v>207</v>
+      </c>
+      <c r="C359" s="215" t="s">
+        <v>208</v>
+      </c>
+      <c r="D359" s="217" t="s">
+        <v>205</v>
       </c>
       <c r="E359" s="146"/>
       <c r="F359" s="59"/>
@@ -11772,12 +11781,12 @@
       <c r="T359" s="4"/>
     </row>
     <row r="360" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="212"/>
-      <c r="B360" s="213"/>
-      <c r="C360" s="215"/>
-      <c r="D360" s="204"/>
+      <c r="A360" s="213"/>
+      <c r="B360" s="214"/>
+      <c r="C360" s="216"/>
+      <c r="D360" s="205"/>
       <c r="E360" s="111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F360" s="153"/>
       <c r="G360" s="4"/>
@@ -11796,12 +11805,12 @@
       <c r="T360" s="4"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A361" s="174"/>
-      <c r="B361" s="177"/>
-      <c r="C361" s="183"/>
-      <c r="D361" s="188"/>
+      <c r="A361" s="175"/>
+      <c r="B361" s="178"/>
+      <c r="C361" s="184"/>
+      <c r="D361" s="189"/>
       <c r="E361" s="60" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="F361" s="30"/>
       <c r="G361" s="4"/>
@@ -11820,12 +11829,12 @@
       <c r="T361" s="4"/>
     </row>
     <row r="362" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="180"/>
-      <c r="B362" s="181"/>
-      <c r="C362" s="184"/>
-      <c r="D362" s="188"/>
+      <c r="A362" s="181"/>
+      <c r="B362" s="182"/>
+      <c r="C362" s="185"/>
+      <c r="D362" s="189"/>
       <c r="E362" s="148" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F362" s="30"/>
       <c r="G362" s="4"/>
@@ -11844,10 +11853,10 @@
       <c r="T362" s="4"/>
     </row>
     <row r="363" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="175"/>
-      <c r="B363" s="178"/>
-      <c r="C363" s="185"/>
-      <c r="D363" s="185"/>
+      <c r="A363" s="176"/>
+      <c r="B363" s="179"/>
+      <c r="C363" s="186"/>
+      <c r="D363" s="186"/>
       <c r="E363" s="155"/>
       <c r="F363" s="62"/>
       <c r="G363" s="4"/>
@@ -11866,18 +11875,18 @@
       <c r="T363" s="4"/>
     </row>
     <row r="364" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="173" t="s">
+      <c r="A364" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="B364" s="182" t="s">
-        <v>211</v>
-      </c>
-      <c r="C364" s="179" t="s">
-        <v>217</v>
-      </c>
-      <c r="D364" s="217"/>
+      <c r="B364" s="183" t="s">
+        <v>209</v>
+      </c>
+      <c r="C364" s="180" t="s">
+        <v>212</v>
+      </c>
+      <c r="D364" s="218"/>
       <c r="E364" s="154" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F364" s="57"/>
       <c r="G364" s="4"/>
@@ -11896,12 +11905,12 @@
       <c r="T364" s="4"/>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A365" s="174"/>
-      <c r="B365" s="183"/>
-      <c r="C365" s="177"/>
-      <c r="D365" s="218"/>
+      <c r="A365" s="175"/>
+      <c r="B365" s="184"/>
+      <c r="C365" s="178"/>
+      <c r="D365" s="219"/>
       <c r="E365" s="58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F365" s="30"/>
       <c r="G365" s="4"/>
@@ -11920,12 +11929,12 @@
       <c r="T365" s="4"/>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A366" s="174"/>
-      <c r="B366" s="183"/>
-      <c r="C366" s="177"/>
-      <c r="D366" s="177"/>
+      <c r="A366" s="175"/>
+      <c r="B366" s="184"/>
+      <c r="C366" s="178"/>
+      <c r="D366" s="178"/>
       <c r="E366" s="58" t="s">
-        <v>213</v>
+        <v>363</v>
       </c>
       <c r="F366" s="59"/>
       <c r="G366" s="4"/>
@@ -11943,15 +11952,15 @@
       <c r="S366" s="4"/>
       <c r="T366" s="4"/>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A367" s="174"/>
-      <c r="B367" s="183"/>
-      <c r="C367" s="177"/>
-      <c r="D367" s="177"/>
+    <row r="367" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="181"/>
+      <c r="B367" s="185"/>
+      <c r="C367" s="182"/>
+      <c r="D367" s="182"/>
       <c r="E367" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="F367" s="31"/>
+        <v>364</v>
+      </c>
+      <c r="F367" s="59"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
@@ -11967,15 +11976,15 @@
       <c r="S367" s="4"/>
       <c r="T367" s="4"/>
     </row>
-    <row r="368" spans="1:20" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" s="175"/>
-      <c r="B368" s="185"/>
+      <c r="B368" s="184"/>
       <c r="C368" s="178"/>
       <c r="D368" s="178"/>
-      <c r="E368" s="147" t="s">
-        <v>215</v>
-      </c>
-      <c r="F368" s="33"/>
+      <c r="E368" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="F368" s="31"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
@@ -11991,19 +12000,15 @@
       <c r="S368" s="4"/>
       <c r="T368" s="4"/>
     </row>
-    <row r="369" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="173" t="s">
-        <v>57</v>
-      </c>
-      <c r="B369" s="176" t="s">
-        <v>216</v>
-      </c>
-      <c r="C369" s="179" t="s">
-        <v>218</v>
-      </c>
-      <c r="D369" s="217"/>
-      <c r="E369" s="29"/>
-      <c r="F369" s="61"/>
+    <row r="369" spans="1:20" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="176"/>
+      <c r="B369" s="186"/>
+      <c r="C369" s="179"/>
+      <c r="D369" s="179"/>
+      <c r="E369" s="147" t="s">
+        <v>366</v>
+      </c>
+      <c r="F369" s="33"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
@@ -12019,14 +12024,18 @@
       <c r="S369" s="4"/>
       <c r="T369" s="4"/>
     </row>
-    <row r="370" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="174"/>
-      <c r="B370" s="177"/>
-      <c r="C370" s="177"/>
-      <c r="D370" s="177"/>
-      <c r="E370" s="111" t="s">
-        <v>190</v>
-      </c>
+    <row r="370" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="B370" s="177" t="s">
+        <v>211</v>
+      </c>
+      <c r="C370" s="180" t="s">
+        <v>213</v>
+      </c>
+      <c r="D370" s="218"/>
+      <c r="E370" s="29"/>
       <c r="F370" s="61"/>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
@@ -12043,15 +12052,15 @@
       <c r="S370" s="4"/>
       <c r="T370" s="4"/>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A371" s="174"/>
-      <c r="B371" s="177"/>
-      <c r="C371" s="177"/>
-      <c r="D371" s="177"/>
+    <row r="371" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="175"/>
+      <c r="B371" s="178"/>
+      <c r="C371" s="178"/>
+      <c r="D371" s="178"/>
       <c r="E371" s="111" t="s">
-        <v>298</v>
-      </c>
-      <c r="F371" s="59"/>
+        <v>189</v>
+      </c>
+      <c r="F371" s="61"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
@@ -12068,14 +12077,14 @@
       <c r="T371" s="4"/>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A372" s="174"/>
-      <c r="B372" s="177"/>
-      <c r="C372" s="177"/>
-      <c r="D372" s="218"/>
-      <c r="E372" s="148" t="s">
-        <v>219</v>
-      </c>
-      <c r="F372" s="30"/>
+      <c r="A372" s="175"/>
+      <c r="B372" s="178"/>
+      <c r="C372" s="178"/>
+      <c r="D372" s="178"/>
+      <c r="E372" s="111" t="s">
+        <v>289</v>
+      </c>
+      <c r="F372" s="59"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
@@ -12092,14 +12101,14 @@
       <c r="T372" s="4"/>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A373" s="174"/>
-      <c r="B373" s="177"/>
-      <c r="C373" s="177"/>
-      <c r="D373" s="177"/>
-      <c r="E373" s="145" t="s">
-        <v>299</v>
-      </c>
-      <c r="F373" s="59"/>
+      <c r="A373" s="175"/>
+      <c r="B373" s="178"/>
+      <c r="C373" s="178"/>
+      <c r="D373" s="219"/>
+      <c r="E373" s="148" t="s">
+        <v>214</v>
+      </c>
+      <c r="F373" s="30"/>
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
@@ -12116,14 +12125,14 @@
       <c r="T373" s="4"/>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A374" s="174"/>
-      <c r="B374" s="177"/>
-      <c r="C374" s="177"/>
-      <c r="D374" s="177"/>
-      <c r="E374" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="F374" s="31"/>
+      <c r="A374" s="175"/>
+      <c r="B374" s="178"/>
+      <c r="C374" s="178"/>
+      <c r="D374" s="178"/>
+      <c r="E374" s="145" t="s">
+        <v>290</v>
+      </c>
+      <c r="F374" s="59"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
@@ -12139,15 +12148,15 @@
       <c r="S374" s="4"/>
       <c r="T374" s="4"/>
     </row>
-    <row r="375" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" s="175"/>
       <c r="B375" s="178"/>
       <c r="C375" s="178"/>
       <c r="D375" s="178"/>
-      <c r="E375" s="147" t="s">
-        <v>221</v>
-      </c>
-      <c r="F375" s="152"/>
+      <c r="E375" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="F375" s="31"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
@@ -12163,19 +12172,15 @@
       <c r="S375" s="4"/>
       <c r="T375" s="4"/>
     </row>
-    <row r="376" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="173" t="s">
-        <v>309</v>
-      </c>
-      <c r="B376" s="176" t="s">
-        <v>310</v>
-      </c>
-      <c r="C376" s="179" t="s">
-        <v>301</v>
-      </c>
-      <c r="D376" s="82"/>
-      <c r="E376" s="29"/>
-      <c r="F376" s="61"/>
+    <row r="376" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="176"/>
+      <c r="B376" s="179"/>
+      <c r="C376" s="179"/>
+      <c r="D376" s="179"/>
+      <c r="E376" s="147" t="s">
+        <v>216</v>
+      </c>
+      <c r="F376" s="152"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
@@ -12191,16 +12196,18 @@
       <c r="S376" s="4"/>
       <c r="T376" s="4"/>
     </row>
-    <row r="377" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="174"/>
-      <c r="B377" s="177"/>
-      <c r="C377" s="177"/>
-      <c r="D377" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="E377" s="111" t="s">
-        <v>190</v>
-      </c>
+    <row r="377" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="174" t="s">
+        <v>300</v>
+      </c>
+      <c r="B377" s="177" t="s">
+        <v>301</v>
+      </c>
+      <c r="C377" s="180" t="s">
+        <v>292</v>
+      </c>
+      <c r="D377" s="82"/>
+      <c r="E377" s="29"/>
       <c r="F377" s="61"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
@@ -12218,16 +12225,16 @@
       <c r="T377" s="4"/>
     </row>
     <row r="378" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="174"/>
-      <c r="B378" s="177"/>
-      <c r="C378" s="177"/>
-      <c r="D378" s="143" t="s">
-        <v>203</v>
+      <c r="A378" s="175"/>
+      <c r="B378" s="178"/>
+      <c r="C378" s="178"/>
+      <c r="D378" s="82" t="s">
+        <v>102</v>
       </c>
       <c r="E378" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="F378" s="59"/>
+        <v>189</v>
+      </c>
+      <c r="F378" s="61"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
@@ -12244,14 +12251,16 @@
       <c r="T378" s="4"/>
     </row>
     <row r="379" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="174"/>
-      <c r="B379" s="177"/>
-      <c r="C379" s="177"/>
-      <c r="D379" s="82"/>
-      <c r="E379" s="148" t="s">
-        <v>312</v>
-      </c>
-      <c r="F379" s="30"/>
+      <c r="A379" s="175"/>
+      <c r="B379" s="178"/>
+      <c r="C379" s="178"/>
+      <c r="D379" s="143" t="s">
+        <v>202</v>
+      </c>
+      <c r="E379" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="F379" s="59"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
@@ -12268,14 +12277,14 @@
       <c r="T379" s="4"/>
     </row>
     <row r="380" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="174"/>
-      <c r="B380" s="177"/>
-      <c r="C380" s="177"/>
-      <c r="D380" s="143"/>
-      <c r="E380" s="111" t="s">
-        <v>305</v>
-      </c>
-      <c r="F380" s="59"/>
+      <c r="A380" s="175"/>
+      <c r="B380" s="178"/>
+      <c r="C380" s="178"/>
+      <c r="D380" s="82"/>
+      <c r="E380" s="148" t="s">
+        <v>303</v>
+      </c>
+      <c r="F380" s="30"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
@@ -12291,15 +12300,15 @@
       <c r="S380" s="4"/>
       <c r="T380" s="4"/>
     </row>
-    <row r="381" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="174"/>
-      <c r="B381" s="177"/>
-      <c r="C381" s="177"/>
-      <c r="D381" s="80"/>
-      <c r="E381" s="147" t="s">
-        <v>308</v>
-      </c>
-      <c r="F381" s="31"/>
+    <row r="381" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="175"/>
+      <c r="B381" s="178"/>
+      <c r="C381" s="178"/>
+      <c r="D381" s="143"/>
+      <c r="E381" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="F381" s="59"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
@@ -12319,9 +12328,11 @@
       <c r="A382" s="175"/>
       <c r="B382" s="178"/>
       <c r="C382" s="178"/>
-      <c r="D382" s="171"/>
-      <c r="E382" s="147"/>
-      <c r="F382" s="152"/>
+      <c r="D382" s="80"/>
+      <c r="E382" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="F382" s="31"/>
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
@@ -12337,21 +12348,13 @@
       <c r="S382" s="4"/>
       <c r="T382" s="4"/>
     </row>
-    <row r="383" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="173" t="s">
-        <v>317</v>
-      </c>
-      <c r="B383" s="176" t="s">
-        <v>319</v>
-      </c>
-      <c r="C383" s="179" t="s">
-        <v>301</v>
-      </c>
-      <c r="D383" s="164"/>
-      <c r="E383" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="F383" s="61"/>
+    <row r="383" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="176"/>
+      <c r="B383" s="179"/>
+      <c r="C383" s="179"/>
+      <c r="D383" s="171"/>
+      <c r="E383" s="147"/>
+      <c r="F383" s="152"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
@@ -12367,15 +12370,19 @@
       <c r="S383" s="4"/>
       <c r="T383" s="4"/>
     </row>
-    <row r="384" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="174"/>
-      <c r="B384" s="177"/>
-      <c r="C384" s="177"/>
-      <c r="D384" s="82" t="s">
-        <v>102</v>
-      </c>
+    <row r="384" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="174" t="s">
+        <v>308</v>
+      </c>
+      <c r="B384" s="177" t="s">
+        <v>310</v>
+      </c>
+      <c r="C384" s="180" t="s">
+        <v>292</v>
+      </c>
+      <c r="D384" s="164"/>
       <c r="E384" s="111" t="s">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="F384" s="61"/>
       <c r="G384" s="4"/>
@@ -12393,17 +12400,17 @@
       <c r="S384" s="4"/>
       <c r="T384" s="4"/>
     </row>
-    <row r="385" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A385" s="174"/>
-      <c r="B385" s="177"/>
-      <c r="C385" s="177"/>
-      <c r="D385" s="143" t="s">
-        <v>315</v>
-      </c>
-      <c r="E385" s="148" t="s">
-        <v>314</v>
-      </c>
-      <c r="F385" s="59"/>
+    <row r="385" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="175"/>
+      <c r="B385" s="178"/>
+      <c r="C385" s="178"/>
+      <c r="D385" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E385" s="111" t="s">
+        <v>304</v>
+      </c>
+      <c r="F385" s="61"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
@@ -12419,15 +12426,17 @@
       <c r="S385" s="4"/>
       <c r="T385" s="4"/>
     </row>
-    <row r="386" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="174"/>
-      <c r="B386" s="177"/>
-      <c r="C386" s="177"/>
-      <c r="D386" s="82"/>
-      <c r="E386" s="169" t="s">
-        <v>316</v>
-      </c>
-      <c r="F386" s="30"/>
+    <row r="386" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A386" s="175"/>
+      <c r="B386" s="178"/>
+      <c r="C386" s="178"/>
+      <c r="D386" s="143" t="s">
+        <v>306</v>
+      </c>
+      <c r="E386" s="148" t="s">
+        <v>305</v>
+      </c>
+      <c r="F386" s="59"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
@@ -12444,14 +12453,14 @@
       <c r="T386" s="4"/>
     </row>
     <row r="387" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="174"/>
-      <c r="B387" s="177"/>
-      <c r="C387" s="177"/>
-      <c r="D387" s="168"/>
-      <c r="E387" s="148" t="s">
-        <v>305</v>
-      </c>
-      <c r="F387" s="153"/>
+      <c r="A387" s="175"/>
+      <c r="B387" s="178"/>
+      <c r="C387" s="178"/>
+      <c r="D387" s="82"/>
+      <c r="E387" s="169" t="s">
+        <v>307</v>
+      </c>
+      <c r="F387" s="30"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
@@ -12468,12 +12477,12 @@
       <c r="T387" s="4"/>
     </row>
     <row r="388" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="180"/>
-      <c r="B388" s="181"/>
-      <c r="C388" s="181"/>
+      <c r="A388" s="175"/>
+      <c r="B388" s="178"/>
+      <c r="C388" s="178"/>
       <c r="D388" s="168"/>
       <c r="E388" s="148" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F388" s="153"/>
       <c r="G388" s="4"/>
@@ -12492,12 +12501,14 @@
       <c r="T388" s="4"/>
     </row>
     <row r="389" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="174"/>
-      <c r="B389" s="177"/>
-      <c r="C389" s="177"/>
-      <c r="D389" s="172"/>
-      <c r="E389" s="148"/>
-      <c r="F389" s="30"/>
+      <c r="A389" s="181"/>
+      <c r="B389" s="182"/>
+      <c r="C389" s="182"/>
+      <c r="D389" s="168"/>
+      <c r="E389" s="148" t="s">
+        <v>299</v>
+      </c>
+      <c r="F389" s="153"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
@@ -12513,13 +12524,13 @@
       <c r="S389" s="4"/>
       <c r="T389" s="4"/>
     </row>
-    <row r="390" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="175"/>
       <c r="B390" s="178"/>
       <c r="C390" s="178"/>
-      <c r="D390" s="171"/>
-      <c r="E390" s="122"/>
-      <c r="F390" s="152"/>
+      <c r="D390" s="172"/>
+      <c r="E390" s="148"/>
+      <c r="F390" s="30"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
@@ -12535,21 +12546,13 @@
       <c r="S390" s="4"/>
       <c r="T390" s="4"/>
     </row>
-    <row r="391" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="173" t="s">
-        <v>318</v>
-      </c>
-      <c r="B391" s="176" t="s">
-        <v>320</v>
-      </c>
-      <c r="C391" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="D391" s="164"/>
-      <c r="E391" s="154" t="s">
-        <v>190</v>
-      </c>
-      <c r="F391" s="61"/>
+    <row r="391" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="176"/>
+      <c r="B391" s="179"/>
+      <c r="C391" s="179"/>
+      <c r="D391" s="171"/>
+      <c r="E391" s="122"/>
+      <c r="F391" s="152"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
@@ -12565,15 +12568,19 @@
       <c r="S391" s="4"/>
       <c r="T391" s="4"/>
     </row>
-    <row r="392" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="174"/>
-      <c r="B392" s="177"/>
-      <c r="C392" s="177"/>
-      <c r="D392" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="E392" s="111" t="s">
-        <v>313</v>
+    <row r="392" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="174" t="s">
+        <v>309</v>
+      </c>
+      <c r="B392" s="177" t="s">
+        <v>311</v>
+      </c>
+      <c r="C392" s="180" t="s">
+        <v>312</v>
+      </c>
+      <c r="D392" s="164"/>
+      <c r="E392" s="154" t="s">
+        <v>189</v>
       </c>
       <c r="F392" s="61"/>
       <c r="G392" s="4"/>
@@ -12591,17 +12598,17 @@
       <c r="S392" s="4"/>
       <c r="T392" s="4"/>
     </row>
-    <row r="393" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A393" s="174"/>
-      <c r="B393" s="177"/>
-      <c r="C393" s="177"/>
-      <c r="D393" s="143" t="s">
-        <v>315</v>
-      </c>
-      <c r="E393" s="148" t="s">
-        <v>314</v>
-      </c>
-      <c r="F393" s="59"/>
+    <row r="393" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="175"/>
+      <c r="B393" s="178"/>
+      <c r="C393" s="178"/>
+      <c r="D393" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E393" s="111" t="s">
+        <v>304</v>
+      </c>
+      <c r="F393" s="61"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
@@ -12617,15 +12624,17 @@
       <c r="S393" s="4"/>
       <c r="T393" s="4"/>
     </row>
-    <row r="394" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="174"/>
-      <c r="B394" s="177"/>
-      <c r="C394" s="177"/>
-      <c r="D394" s="82"/>
-      <c r="E394" s="169" t="s">
-        <v>316</v>
-      </c>
-      <c r="F394" s="30"/>
+    <row r="394" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A394" s="175"/>
+      <c r="B394" s="178"/>
+      <c r="C394" s="178"/>
+      <c r="D394" s="143" t="s">
+        <v>306</v>
+      </c>
+      <c r="E394" s="148" t="s">
+        <v>305</v>
+      </c>
+      <c r="F394" s="59"/>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
@@ -12642,14 +12651,14 @@
       <c r="T394" s="4"/>
     </row>
     <row r="395" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="174"/>
-      <c r="B395" s="177"/>
-      <c r="C395" s="177"/>
-      <c r="D395" s="143"/>
-      <c r="E395" s="148" t="s">
-        <v>322</v>
-      </c>
-      <c r="F395" s="59"/>
+      <c r="A395" s="175"/>
+      <c r="B395" s="178"/>
+      <c r="C395" s="178"/>
+      <c r="D395" s="82"/>
+      <c r="E395" s="169" t="s">
+        <v>307</v>
+      </c>
+      <c r="F395" s="30"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
@@ -12665,15 +12674,15 @@
       <c r="S395" s="4"/>
       <c r="T395" s="4"/>
     </row>
-    <row r="396" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="174"/>
-      <c r="B396" s="177"/>
-      <c r="C396" s="177"/>
-      <c r="D396" s="80"/>
-      <c r="E396" s="170" t="s">
-        <v>323</v>
-      </c>
-      <c r="F396" s="31"/>
+    <row r="396" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="175"/>
+      <c r="B396" s="178"/>
+      <c r="C396" s="178"/>
+      <c r="D396" s="143"/>
+      <c r="E396" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="F396" s="59"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
@@ -12693,11 +12702,11 @@
       <c r="A397" s="175"/>
       <c r="B397" s="178"/>
       <c r="C397" s="178"/>
-      <c r="D397" s="82"/>
+      <c r="D397" s="80"/>
       <c r="E397" s="170" t="s">
-        <v>324</v>
-      </c>
-      <c r="F397" s="152"/>
+        <v>314</v>
+      </c>
+      <c r="F397" s="31"/>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
@@ -12713,10 +12722,31 @@
       <c r="S397" s="4"/>
       <c r="T397" s="4"/>
     </row>
-    <row r="398" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E398" s="65"/>
-    </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="176"/>
+      <c r="B398" s="179"/>
+      <c r="C398" s="179"/>
+      <c r="D398" s="82"/>
+      <c r="E398" s="170" t="s">
+        <v>315</v>
+      </c>
+      <c r="F398" s="152"/>
+      <c r="G398" s="4"/>
+      <c r="H398" s="4"/>
+      <c r="I398" s="4"/>
+      <c r="J398" s="4"/>
+      <c r="K398" s="4"/>
+      <c r="L398" s="4"/>
+      <c r="M398" s="4"/>
+      <c r="N398" s="4"/>
+      <c r="O398" s="4"/>
+      <c r="P398" s="4"/>
+      <c r="Q398" s="4"/>
+      <c r="R398" s="4"/>
+      <c r="S398" s="4"/>
+      <c r="T398" s="4"/>
+    </row>
+    <row r="399" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E399" s="65"/>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.3">
@@ -13468,6 +13498,9 @@
     </row>
     <row r="649" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E649" s="65"/>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E650" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="210">
@@ -13638,16 +13671,16 @@
     <mergeCell ref="D351:D358"/>
     <mergeCell ref="A359:A363"/>
     <mergeCell ref="B359:B363"/>
-    <mergeCell ref="B369:B375"/>
-    <mergeCell ref="C369:C375"/>
+    <mergeCell ref="B370:B376"/>
+    <mergeCell ref="C370:C376"/>
     <mergeCell ref="C359:C363"/>
     <mergeCell ref="D359:D363"/>
-    <mergeCell ref="A364:A368"/>
-    <mergeCell ref="B364:B368"/>
-    <mergeCell ref="C364:C368"/>
-    <mergeCell ref="D364:D368"/>
-    <mergeCell ref="D369:D375"/>
-    <mergeCell ref="A369:A375"/>
+    <mergeCell ref="A364:A369"/>
+    <mergeCell ref="B364:B369"/>
+    <mergeCell ref="C364:C369"/>
+    <mergeCell ref="D364:D369"/>
+    <mergeCell ref="D370:D376"/>
+    <mergeCell ref="A370:A376"/>
     <mergeCell ref="B299:B305"/>
     <mergeCell ref="C299:C305"/>
     <mergeCell ref="D299:D305"/>
@@ -13672,15 +13705,15 @@
     <mergeCell ref="D233:D234"/>
     <mergeCell ref="D239:D240"/>
     <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A376:A382"/>
-    <mergeCell ref="B376:B382"/>
-    <mergeCell ref="C376:C382"/>
-    <mergeCell ref="A383:A390"/>
-    <mergeCell ref="B383:B390"/>
-    <mergeCell ref="C383:C390"/>
-    <mergeCell ref="A391:A397"/>
-    <mergeCell ref="B391:B397"/>
-    <mergeCell ref="C391:C397"/>
+    <mergeCell ref="A377:A383"/>
+    <mergeCell ref="B377:B383"/>
+    <mergeCell ref="C377:C383"/>
+    <mergeCell ref="A384:A391"/>
+    <mergeCell ref="B384:B391"/>
+    <mergeCell ref="C384:C391"/>
+    <mergeCell ref="A392:A398"/>
+    <mergeCell ref="B392:B398"/>
+    <mergeCell ref="C392:C398"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
+++ b/src/test/resources/test_descriptions/IMDB_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE60137E-4752-413C-9899-D29D712641E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CC4D7-2DDC-474E-AF7F-4586075B58B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="367">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -609,9 +609,6 @@
     <t>The goal is to verify that all UserInterface is in place on IE browser</t>
   </si>
   <si>
-    <t>2.Verify that IMDb page should looks fine and all active UI elements should be clickable on IE browser</t>
-  </si>
-  <si>
     <t>SignOut Functionality</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
   </si>
   <si>
     <t>3. User opens the site https://www.imdb.com/ again in new tab</t>
-  </si>
-  <si>
-    <t>5. User hover back to logged In instance.</t>
   </si>
   <si>
     <t xml:space="preserve">6. Verify that user is Logged Out </t>
@@ -936,9 +930,6 @@
     <t>2. User logs In the website</t>
   </si>
   <si>
-    <t>4. User LogsIn and then  LogsOut of website</t>
-  </si>
-  <si>
     <t>IMDb button &gt;Your Activity</t>
   </si>
   <si>
@@ -982,12 +973,6 @@
   </si>
   <si>
     <t>3. User selects Your Ratings option from drop down</t>
-  </si>
-  <si>
-    <t>2. User has already added Rating against Movie Matrix</t>
-  </si>
-  <si>
-    <t>4. Verify that User Alweena is routed to Your Ratings page</t>
   </si>
   <si>
     <t>SK_52</t>
@@ -1199,6 +1184,21 @@
     <t xml:space="preserve">6. Verify that following error message is diplayed 'Important Message!
 You indicated you're a new customer, but an account already exists with the email address weenakhalid@gmail.com.'
 </t>
+  </si>
+  <si>
+    <t>4. User LogsOut of website</t>
+  </si>
+  <si>
+    <t>5. User hover back to logged In instance and refreshes the page.</t>
+  </si>
+  <si>
+    <t>4. Verify that user is routed to Your Ratings page</t>
+  </si>
+  <si>
+    <t>2. User has already added Ratings</t>
+  </si>
+  <si>
+    <t>2.Verify that when user clicks the right arrow on the slider on the IE browser, the text description of the movie changes.</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2591,6 +2591,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3036,9 +3039,9 @@
   </sheetPr>
   <dimension ref="A1:T650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E370" sqref="E370"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C351" sqref="C351:C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3086,30 +3089,30 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="221" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="207" t="s">
+      <c r="D3" s="208" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="3"/>
@@ -3128,12 +3131,12 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="213"/>
-      <c r="B4" s="220"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="207"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="3"/>
@@ -3152,12 +3155,12 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="213"/>
-      <c r="B5" s="220"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="207"/>
+      <c r="A5" s="214"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="208"/>
       <c r="E5" s="76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="3"/>
@@ -3176,12 +3179,12 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="213"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="207"/>
+      <c r="A6" s="214"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="3"/>
@@ -3200,12 +3203,12 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="213"/>
-      <c r="B7" s="220"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="207"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="208"/>
       <c r="E7" s="76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="3"/>
@@ -3224,12 +3227,12 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="213"/>
-      <c r="B8" s="220"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="207"/>
+      <c r="A8" s="214"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="208"/>
       <c r="E8" s="76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="3"/>
@@ -3248,12 +3251,12 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="213"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="207"/>
+      <c r="A9" s="214"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="208"/>
       <c r="E9" s="76" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>59</v>
@@ -3274,10 +3277,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="213"/>
-      <c r="B10" s="220"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="207"/>
+      <c r="A10" s="214"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="208"/>
       <c r="E10" s="76"/>
       <c r="F10" s="78"/>
       <c r="G10" s="3"/>
@@ -3296,10 +3299,10 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" s="71" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="225"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="236"/>
+      <c r="A11" s="226"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="237"/>
       <c r="E11" s="67"/>
       <c r="F11" s="68"/>
       <c r="G11" s="69"/>
@@ -3318,20 +3321,20 @@
       <c r="T11" s="70"/>
     </row>
     <row r="12" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="226" t="s">
+      <c r="B12" s="227" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="222" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
@@ -3350,12 +3353,12 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="213"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="251"/>
+      <c r="A13" s="214"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3"/>
@@ -3374,12 +3377,12 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="213"/>
-      <c r="B14" s="220"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="252"/>
+      <c r="A14" s="214"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="253"/>
       <c r="E14" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="3"/>
@@ -3398,12 +3401,12 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="213"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="252"/>
+      <c r="A15" s="214"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="253"/>
       <c r="E15" s="79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
@@ -3422,12 +3425,12 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="220"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="252"/>
+      <c r="A16" s="214"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="253"/>
       <c r="E16" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
@@ -3446,12 +3449,12 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="213"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="252"/>
+      <c r="A17" s="214"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="253"/>
       <c r="E17" s="149" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3"/>
@@ -3470,12 +3473,12 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="213"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="252"/>
+      <c r="A18" s="214"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="253"/>
       <c r="E18" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>59</v>
@@ -3496,10 +3499,10 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="237"/>
-      <c r="B19" s="227"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="253"/>
+      <c r="A19" s="238"/>
+      <c r="B19" s="228"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="254"/>
       <c r="E19" s="88"/>
       <c r="F19" s="86" t="s">
         <v>63</v>
@@ -3520,20 +3523,20 @@
       <c r="T19" s="70"/>
     </row>
     <row r="20" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="227" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="222" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3"/>
@@ -3552,14 +3555,14 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="213"/>
-      <c r="B21" s="220"/>
-      <c r="C21" s="216"/>
+      <c r="A21" s="214"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="217"/>
       <c r="D21" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -3578,14 +3581,14 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="213"/>
-      <c r="B22" s="220"/>
-      <c r="C22" s="216"/>
+      <c r="A22" s="214"/>
+      <c r="B22" s="221"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="4"/>
@@ -3604,12 +3607,12 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="213"/>
-      <c r="B23" s="220"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="195"/>
+      <c r="A23" s="214"/>
+      <c r="B23" s="221"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="196"/>
       <c r="E23" s="85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
@@ -3628,10 +3631,10 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="213"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="196"/>
+      <c r="A24" s="214"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="4"/>
@@ -3650,10 +3653,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="213"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="196"/>
+      <c r="A25" s="214"/>
+      <c r="B25" s="221"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="4"/>
@@ -3672,10 +3675,10 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="213"/>
-      <c r="B26" s="227"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="250"/>
+      <c r="A26" s="214"/>
+      <c r="B26" s="228"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="251"/>
       <c r="E26" s="88"/>
       <c r="F26" s="89"/>
       <c r="G26" s="4"/>
@@ -3694,20 +3697,20 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="238" t="s">
+      <c r="B27" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="241" t="s">
-        <v>245</v>
+      <c r="C27" s="242" t="s">
+        <v>243</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F27" s="87"/>
       <c r="G27" s="4"/>
@@ -3726,14 +3729,14 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A28" s="213"/>
-      <c r="B28" s="239"/>
-      <c r="C28" s="242"/>
+      <c r="A28" s="214"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="243"/>
       <c r="D28" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -3752,14 +3755,14 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="213"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="242"/>
+      <c r="A29" s="214"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="243"/>
       <c r="D29" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -3778,9 +3781,9 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="225"/>
-      <c r="B30" s="240"/>
-      <c r="C30" s="243"/>
+      <c r="A30" s="226"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="244"/>
       <c r="D30" s="96"/>
       <c r="E30" s="91"/>
       <c r="F30" s="92"/>
@@ -3800,18 +3803,18 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="224" t="s">
+      <c r="A31" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="226" t="s">
+      <c r="B31" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="247" t="s">
-        <v>244</v>
+      <c r="C31" s="248" t="s">
+        <v>242</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="4"/>
@@ -3830,14 +3833,14 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="213"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="216"/>
+      <c r="A32" s="214"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="217"/>
       <c r="D32" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
@@ -3856,14 +3859,14 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="213"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="216"/>
+      <c r="A33" s="214"/>
+      <c r="B33" s="221"/>
+      <c r="C33" s="217"/>
       <c r="D33" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="4"/>
@@ -3882,13 +3885,13 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="213"/>
-      <c r="B34" s="220"/>
-      <c r="C34" s="216"/>
+      <c r="A34" s="214"/>
+      <c r="B34" s="221"/>
+      <c r="C34" s="217"/>
       <c r="D34" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="244"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3906,13 +3909,13 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="213"/>
-      <c r="B35" s="220"/>
-      <c r="C35" s="216"/>
+      <c r="A35" s="214"/>
+      <c r="B35" s="221"/>
+      <c r="C35" s="217"/>
       <c r="D35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="245"/>
+      <c r="E35" s="246"/>
       <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3930,11 +3933,11 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="213"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="246"/>
+      <c r="A36" s="214"/>
+      <c r="B36" s="221"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="247"/>
       <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3952,10 +3955,10 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="225"/>
-      <c r="B37" s="227"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="197"/>
+      <c r="A37" s="226"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="198"/>
       <c r="E37" s="94"/>
       <c r="F37" s="95"/>
       <c r="G37" s="4"/>
@@ -3974,14 +3977,14 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="224" t="s">
+      <c r="A38" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="227" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="221" t="s">
-        <v>243</v>
+      <c r="C38" s="222" t="s">
+        <v>241</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="17"/>
@@ -4002,12 +4005,12 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="213"/>
-      <c r="B39" s="220"/>
-      <c r="C39" s="216"/>
+      <c r="A39" s="214"/>
+      <c r="B39" s="221"/>
+      <c r="C39" s="217"/>
       <c r="D39" s="81"/>
       <c r="E39" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="4"/>
@@ -4026,14 +4029,14 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="213"/>
-      <c r="B40" s="220"/>
-      <c r="C40" s="216"/>
+      <c r="A40" s="214"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="217"/>
       <c r="D40" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="4"/>
@@ -4052,14 +4055,14 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="99" x14ac:dyDescent="0.3">
-      <c r="A41" s="213"/>
-      <c r="B41" s="220"/>
-      <c r="C41" s="216"/>
+      <c r="A41" s="214"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="217"/>
       <c r="D41" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="113" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="4"/>
@@ -4078,9 +4081,9 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="213"/>
-      <c r="B42" s="220"/>
-      <c r="C42" s="216"/>
+      <c r="A42" s="214"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="80" t="s">
         <v>68</v>
       </c>
@@ -4102,9 +4105,9 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="213"/>
-      <c r="B43" s="220"/>
-      <c r="C43" s="216"/>
+      <c r="A43" s="214"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="81"/>
       <c r="E43" s="13"/>
       <c r="F43" s="14"/>
@@ -4124,9 +4127,9 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="225"/>
-      <c r="B44" s="227"/>
-      <c r="C44" s="222"/>
+      <c r="A44" s="226"/>
+      <c r="B44" s="228"/>
+      <c r="C44" s="223"/>
       <c r="D44" s="100"/>
       <c r="E44" s="94"/>
       <c r="F44" s="16"/>
@@ -4146,14 +4149,14 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="224" t="s">
+      <c r="A45" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="226" t="s">
-        <v>348</v>
-      </c>
-      <c r="C45" s="221" t="s">
-        <v>276</v>
+      <c r="B45" s="227" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="222" t="s">
+        <v>274</v>
       </c>
       <c r="D45" s="114"/>
       <c r="E45" s="17"/>
@@ -4174,14 +4177,14 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="213"/>
-      <c r="B46" s="220"/>
-      <c r="C46" s="216"/>
+      <c r="A46" s="214"/>
+      <c r="B46" s="221"/>
+      <c r="C46" s="217"/>
       <c r="D46" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="4"/>
@@ -4200,14 +4203,14 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="213"/>
-      <c r="B47" s="220"/>
-      <c r="C47" s="216"/>
+      <c r="A47" s="214"/>
+      <c r="B47" s="221"/>
+      <c r="C47" s="217"/>
       <c r="D47" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="4"/>
@@ -4226,14 +4229,14 @@
       <c r="T47" s="4"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="213"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="216"/>
+      <c r="A48" s="214"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="217"/>
       <c r="D48" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="4"/>
@@ -4252,9 +4255,9 @@
       <c r="T48" s="4"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="213"/>
-      <c r="B49" s="220"/>
-      <c r="C49" s="216"/>
+      <c r="A49" s="214"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="217"/>
       <c r="D49" s="81"/>
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
@@ -4274,9 +4277,9 @@
       <c r="T49" s="4"/>
     </row>
     <row r="50" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="225"/>
-      <c r="B50" s="227"/>
-      <c r="C50" s="222"/>
+      <c r="A50" s="226"/>
+      <c r="B50" s="228"/>
+      <c r="C50" s="223"/>
       <c r="D50" s="100"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
@@ -4296,14 +4299,14 @@
       <c r="T50" s="4"/>
     </row>
     <row r="51" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="224" t="s">
+      <c r="A51" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="226" t="s">
+      <c r="B51" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="221" t="s">
-        <v>242</v>
+      <c r="C51" s="222" t="s">
+        <v>240</v>
       </c>
       <c r="D51" s="114"/>
       <c r="E51" s="17"/>
@@ -4324,12 +4327,12 @@
       <c r="T51" s="4"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="213"/>
-      <c r="B52" s="220"/>
-      <c r="C52" s="216"/>
+      <c r="A52" s="214"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="217"/>
       <c r="D52" s="81"/>
       <c r="E52" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="4"/>
@@ -4348,14 +4351,14 @@
       <c r="T52" s="4"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="213"/>
-      <c r="B53" s="220"/>
-      <c r="C53" s="216"/>
+      <c r="A53" s="214"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="217"/>
       <c r="D53" s="82" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="4"/>
@@ -4374,14 +4377,14 @@
       <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="213"/>
-      <c r="B54" s="220"/>
-      <c r="C54" s="216"/>
+      <c r="A54" s="214"/>
+      <c r="B54" s="221"/>
+      <c r="C54" s="217"/>
       <c r="D54" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="4"/>
@@ -4400,14 +4403,14 @@
       <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="213"/>
-      <c r="B55" s="220"/>
-      <c r="C55" s="216"/>
+      <c r="A55" s="214"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="217"/>
       <c r="D55" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="4"/>
@@ -4426,11 +4429,11 @@
       <c r="T55" s="4"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="213"/>
-      <c r="B56" s="220"/>
-      <c r="C56" s="216"/>
+      <c r="A56" s="214"/>
+      <c r="B56" s="221"/>
+      <c r="C56" s="217"/>
       <c r="D56" s="81" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="14"/>
@@ -4450,11 +4453,11 @@
       <c r="T56" s="4"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="213"/>
-      <c r="B57" s="220"/>
-      <c r="C57" s="216"/>
-      <c r="D57" s="195"/>
-      <c r="E57" s="244"/>
+      <c r="A57" s="214"/>
+      <c r="B57" s="221"/>
+      <c r="C57" s="217"/>
+      <c r="D57" s="196"/>
+      <c r="E57" s="245"/>
       <c r="F57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4472,11 +4475,11 @@
       <c r="T57" s="4"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="213"/>
-      <c r="B58" s="220"/>
-      <c r="C58" s="216"/>
-      <c r="D58" s="196"/>
-      <c r="E58" s="245"/>
+      <c r="A58" s="214"/>
+      <c r="B58" s="221"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="197"/>
+      <c r="E58" s="246"/>
       <c r="F58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4494,11 +4497,11 @@
       <c r="T58" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="213"/>
-      <c r="B59" s="220"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="199"/>
-      <c r="E59" s="246"/>
+      <c r="A59" s="214"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="247"/>
       <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4516,9 +4519,9 @@
       <c r="T59" s="4"/>
     </row>
     <row r="60" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="225"/>
-      <c r="B60" s="227"/>
-      <c r="C60" s="222"/>
+      <c r="A60" s="226"/>
+      <c r="B60" s="228"/>
+      <c r="C60" s="223"/>
       <c r="D60" s="101"/>
       <c r="E60" s="15"/>
       <c r="F60" s="16"/>
@@ -4538,14 +4541,14 @@
       <c r="T60" s="4"/>
     </row>
     <row r="61" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="224" t="s">
+      <c r="A61" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="226" t="s">
+      <c r="B61" s="227" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="221" t="s">
-        <v>246</v>
+      <c r="C61" s="222" t="s">
+        <v>244</v>
       </c>
       <c r="D61" s="82"/>
       <c r="E61" s="17"/>
@@ -4566,9 +4569,9 @@
       <c r="T61" s="4"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="213"/>
-      <c r="B62" s="220"/>
-      <c r="C62" s="216"/>
+      <c r="A62" s="214"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="217"/>
       <c r="D62" s="82" t="s">
         <v>66</v>
       </c>
@@ -4592,14 +4595,14 @@
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="132" x14ac:dyDescent="0.3">
-      <c r="A63" s="213"/>
-      <c r="B63" s="220"/>
-      <c r="C63" s="216"/>
+      <c r="A63" s="214"/>
+      <c r="B63" s="221"/>
+      <c r="C63" s="217"/>
       <c r="D63" s="81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E63" s="113" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="4"/>
@@ -4618,11 +4621,11 @@
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="213"/>
-      <c r="B64" s="220"/>
-      <c r="C64" s="216"/>
+      <c r="A64" s="214"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="217"/>
       <c r="D64" s="80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -4642,10 +4645,10 @@
       <c r="T64" s="4"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="213"/>
-      <c r="B65" s="220"/>
-      <c r="C65" s="216"/>
-      <c r="D65" s="195"/>
+      <c r="A65" s="214"/>
+      <c r="B65" s="221"/>
+      <c r="C65" s="217"/>
+      <c r="D65" s="196"/>
       <c r="E65" s="13"/>
       <c r="F65" s="14"/>
       <c r="G65" s="4"/>
@@ -4664,10 +4667,10 @@
       <c r="T65" s="4"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="213"/>
-      <c r="B66" s="220"/>
-      <c r="C66" s="216"/>
-      <c r="D66" s="196"/>
+      <c r="A66" s="214"/>
+      <c r="B66" s="221"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="197"/>
       <c r="E66" s="13"/>
       <c r="F66" s="14"/>
       <c r="G66" s="4"/>
@@ -4686,10 +4689,10 @@
       <c r="T66" s="4"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="213"/>
-      <c r="B67" s="220"/>
-      <c r="C67" s="216"/>
-      <c r="D67" s="199"/>
+      <c r="A67" s="214"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="217"/>
+      <c r="D67" s="200"/>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
       <c r="G67" s="4"/>
@@ -4708,9 +4711,9 @@
       <c r="T67" s="4"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="213"/>
-      <c r="B68" s="220"/>
-      <c r="C68" s="216"/>
+      <c r="A68" s="214"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="217"/>
       <c r="D68" s="82"/>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
@@ -4730,9 +4733,9 @@
       <c r="T68" s="4"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="213"/>
-      <c r="B69" s="220"/>
-      <c r="C69" s="216"/>
+      <c r="A69" s="214"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="217"/>
       <c r="D69" s="81"/>
       <c r="E69" s="13"/>
       <c r="F69" s="14"/>
@@ -4752,9 +4755,9 @@
       <c r="T69" s="4"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="213"/>
-      <c r="B70" s="220"/>
-      <c r="C70" s="216"/>
+      <c r="A70" s="214"/>
+      <c r="B70" s="221"/>
+      <c r="C70" s="217"/>
       <c r="D70" s="80"/>
       <c r="E70" s="13"/>
       <c r="F70" s="14"/>
@@ -4774,9 +4777,9 @@
       <c r="T70" s="4"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="213"/>
-      <c r="B71" s="220"/>
-      <c r="C71" s="216"/>
+      <c r="A71" s="214"/>
+      <c r="B71" s="221"/>
+      <c r="C71" s="217"/>
       <c r="D71" s="81"/>
       <c r="E71" s="13"/>
       <c r="F71" s="14"/>
@@ -4796,9 +4799,9 @@
       <c r="T71" s="4"/>
     </row>
     <row r="72" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="225"/>
-      <c r="B72" s="227"/>
-      <c r="C72" s="222"/>
+      <c r="A72" s="226"/>
+      <c r="B72" s="228"/>
+      <c r="C72" s="223"/>
       <c r="D72" s="102"/>
       <c r="E72" s="15"/>
       <c r="F72" s="16"/>
@@ -4818,14 +4821,14 @@
       <c r="T72" s="4"/>
     </row>
     <row r="73" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="224" t="s">
+      <c r="A73" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="226" t="s">
+      <c r="B73" s="227" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="221" t="s">
-        <v>247</v>
+      <c r="C73" s="222" t="s">
+        <v>245</v>
       </c>
       <c r="D73" s="114"/>
       <c r="E73" s="17"/>
@@ -4846,9 +4849,9 @@
       <c r="T73" s="4"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="213"/>
-      <c r="B74" s="220"/>
-      <c r="C74" s="216"/>
+      <c r="A74" s="214"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="217"/>
       <c r="D74" s="82" t="s">
         <v>66</v>
       </c>
@@ -4872,11 +4875,11 @@
       <c r="T74" s="4"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="213"/>
-      <c r="B75" s="220"/>
-      <c r="C75" s="216"/>
+      <c r="A75" s="214"/>
+      <c r="B75" s="221"/>
+      <c r="C75" s="217"/>
       <c r="D75" s="81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>79</v>
@@ -4898,11 +4901,11 @@
       <c r="T75" s="4"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="213"/>
-      <c r="B76" s="220"/>
-      <c r="C76" s="216"/>
+      <c r="A76" s="214"/>
+      <c r="B76" s="221"/>
+      <c r="C76" s="217"/>
       <c r="D76" s="80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>80</v>
@@ -4924,9 +4927,9 @@
       <c r="T76" s="4"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="213"/>
-      <c r="B77" s="220"/>
-      <c r="C77" s="216"/>
+      <c r="A77" s="214"/>
+      <c r="B77" s="221"/>
+      <c r="C77" s="217"/>
       <c r="D77" s="81"/>
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
@@ -4946,10 +4949,10 @@
       <c r="T77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="213"/>
-      <c r="B78" s="220"/>
-      <c r="C78" s="216"/>
-      <c r="D78" s="195"/>
+      <c r="A78" s="214"/>
+      <c r="B78" s="221"/>
+      <c r="C78" s="217"/>
+      <c r="D78" s="196"/>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
       <c r="G78" s="4"/>
@@ -4968,10 +4971,10 @@
       <c r="T78" s="4"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="213"/>
-      <c r="B79" s="220"/>
-      <c r="C79" s="216"/>
-      <c r="D79" s="196"/>
+      <c r="A79" s="214"/>
+      <c r="B79" s="221"/>
+      <c r="C79" s="217"/>
+      <c r="D79" s="197"/>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="4"/>
@@ -4990,10 +4993,10 @@
       <c r="T79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="213"/>
-      <c r="B80" s="220"/>
-      <c r="C80" s="216"/>
-      <c r="D80" s="196"/>
+      <c r="A80" s="214"/>
+      <c r="B80" s="221"/>
+      <c r="C80" s="217"/>
+      <c r="D80" s="197"/>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
       <c r="G80" s="4"/>
@@ -5012,10 +5015,10 @@
       <c r="T80" s="4"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="213"/>
-      <c r="B81" s="220"/>
-      <c r="C81" s="216"/>
-      <c r="D81" s="196"/>
+      <c r="A81" s="214"/>
+      <c r="B81" s="221"/>
+      <c r="C81" s="217"/>
+      <c r="D81" s="197"/>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
       <c r="G81" s="4"/>
@@ -5034,10 +5037,10 @@
       <c r="T81" s="4"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="213"/>
-      <c r="B82" s="220"/>
-      <c r="C82" s="216"/>
-      <c r="D82" s="199"/>
+      <c r="A82" s="214"/>
+      <c r="B82" s="221"/>
+      <c r="C82" s="217"/>
+      <c r="D82" s="200"/>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
       <c r="G82" s="4"/>
@@ -5056,9 +5059,9 @@
       <c r="T82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="213"/>
-      <c r="B83" s="220"/>
-      <c r="C83" s="216"/>
+      <c r="A83" s="214"/>
+      <c r="B83" s="221"/>
+      <c r="C83" s="217"/>
       <c r="D83" s="81"/>
       <c r="E83" s="13"/>
       <c r="F83" s="14"/>
@@ -5078,9 +5081,9 @@
       <c r="T83" s="4"/>
     </row>
     <row r="84" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="225"/>
-      <c r="B84" s="227"/>
-      <c r="C84" s="222"/>
+      <c r="A84" s="226"/>
+      <c r="B84" s="228"/>
+      <c r="C84" s="223"/>
       <c r="D84" s="100"/>
       <c r="E84" s="15"/>
       <c r="F84" s="16"/>
@@ -5100,14 +5103,14 @@
       <c r="T84" s="4"/>
     </row>
     <row r="85" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="224" t="s">
+      <c r="A85" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="226" t="s">
+      <c r="B85" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="221" t="s">
-        <v>248</v>
+      <c r="C85" s="222" t="s">
+        <v>246</v>
       </c>
       <c r="D85" s="82"/>
       <c r="E85" s="17"/>
@@ -5128,9 +5131,9 @@
       <c r="T85" s="4"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="213"/>
-      <c r="B86" s="220"/>
-      <c r="C86" s="216"/>
+      <c r="A86" s="214"/>
+      <c r="B86" s="221"/>
+      <c r="C86" s="217"/>
       <c r="D86" s="82" t="s">
         <v>66</v>
       </c>
@@ -5154,11 +5157,11 @@
       <c r="T86" s="4"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="213"/>
-      <c r="B87" s="220"/>
-      <c r="C87" s="216"/>
+      <c r="A87" s="214"/>
+      <c r="B87" s="221"/>
+      <c r="C87" s="217"/>
       <c r="D87" s="81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>79</v>
@@ -5180,11 +5183,11 @@
       <c r="T87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="213"/>
-      <c r="B88" s="220"/>
-      <c r="C88" s="216"/>
+      <c r="A88" s="214"/>
+      <c r="B88" s="221"/>
+      <c r="C88" s="217"/>
       <c r="D88" s="80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>82</v>
@@ -5206,9 +5209,9 @@
       <c r="T88" s="4"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A89" s="213"/>
-      <c r="B89" s="220"/>
-      <c r="C89" s="216"/>
+      <c r="A89" s="214"/>
+      <c r="B89" s="221"/>
+      <c r="C89" s="217"/>
       <c r="D89" s="81"/>
       <c r="E89" s="13" t="s">
         <v>83</v>
@@ -5230,9 +5233,9 @@
       <c r="T89" s="4"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="213"/>
-      <c r="B90" s="220"/>
-      <c r="C90" s="216"/>
+      <c r="A90" s="214"/>
+      <c r="B90" s="221"/>
+      <c r="C90" s="217"/>
       <c r="D90" s="105"/>
       <c r="E90" s="63"/>
       <c r="F90" s="14"/>
@@ -5252,9 +5255,9 @@
       <c r="T90" s="4"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="213"/>
-      <c r="B91" s="220"/>
-      <c r="C91" s="216"/>
+      <c r="A91" s="214"/>
+      <c r="B91" s="221"/>
+      <c r="C91" s="217"/>
       <c r="D91" s="106"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
@@ -5274,9 +5277,9 @@
       <c r="T91" s="4"/>
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="225"/>
-      <c r="B92" s="227"/>
-      <c r="C92" s="222"/>
+      <c r="A92" s="226"/>
+      <c r="B92" s="228"/>
+      <c r="C92" s="223"/>
       <c r="D92" s="107"/>
       <c r="E92" s="15"/>
       <c r="F92" s="16"/>
@@ -5296,14 +5299,14 @@
       <c r="T92" s="4"/>
     </row>
     <row r="93" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="224" t="s">
+      <c r="A93" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="226" t="s">
+      <c r="B93" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="221" t="s">
-        <v>330</v>
+      <c r="C93" s="222" t="s">
+        <v>325</v>
       </c>
       <c r="D93" s="114"/>
       <c r="E93" s="20"/>
@@ -5324,9 +5327,9 @@
       <c r="T93" s="4"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="213"/>
-      <c r="B94" s="220"/>
-      <c r="C94" s="216"/>
+      <c r="A94" s="214"/>
+      <c r="B94" s="221"/>
+      <c r="C94" s="217"/>
       <c r="D94" s="82" t="s">
         <v>66</v>
       </c>
@@ -5350,11 +5353,11 @@
       <c r="T94" s="4"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95" s="213"/>
-      <c r="B95" s="220"/>
-      <c r="C95" s="216"/>
+      <c r="A95" s="214"/>
+      <c r="B95" s="221"/>
+      <c r="C95" s="217"/>
       <c r="D95" s="81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>79</v>
@@ -5376,14 +5379,14 @@
       <c r="T95" s="4"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="213"/>
-      <c r="B96" s="220"/>
-      <c r="C96" s="216"/>
+      <c r="A96" s="214"/>
+      <c r="B96" s="221"/>
+      <c r="C96" s="217"/>
       <c r="D96" s="80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="4"/>
@@ -5402,9 +5405,9 @@
       <c r="T96" s="4"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="213"/>
-      <c r="B97" s="220"/>
-      <c r="C97" s="216"/>
+      <c r="A97" s="214"/>
+      <c r="B97" s="221"/>
+      <c r="C97" s="217"/>
       <c r="D97" s="105"/>
       <c r="E97" s="13" t="s">
         <v>83</v>
@@ -5426,9 +5429,9 @@
       <c r="T97" s="4"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A98" s="213"/>
-      <c r="B98" s="220"/>
-      <c r="C98" s="216"/>
+      <c r="A98" s="214"/>
+      <c r="B98" s="221"/>
+      <c r="C98" s="217"/>
       <c r="D98" s="104"/>
       <c r="E98" s="22"/>
       <c r="F98" s="23"/>
@@ -5448,9 +5451,9 @@
       <c r="T98" s="4"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="213"/>
-      <c r="B99" s="220"/>
-      <c r="C99" s="216"/>
+      <c r="A99" s="214"/>
+      <c r="B99" s="221"/>
+      <c r="C99" s="217"/>
       <c r="D99" s="99"/>
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
@@ -5470,9 +5473,9 @@
       <c r="T99" s="4"/>
     </row>
     <row r="100" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="225"/>
-      <c r="B100" s="227"/>
-      <c r="C100" s="222"/>
+      <c r="A100" s="226"/>
+      <c r="B100" s="228"/>
+      <c r="C100" s="223"/>
       <c r="D100" s="108"/>
       <c r="E100" s="24"/>
       <c r="F100" s="25"/>
@@ -5492,14 +5495,14 @@
       <c r="T100" s="4"/>
     </row>
     <row r="101" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="224" t="s">
+      <c r="A101" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="226" t="s">
+      <c r="B101" s="227" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="221" t="s">
-        <v>329</v>
+      <c r="C101" s="222" t="s">
+        <v>324</v>
       </c>
       <c r="D101" s="82"/>
       <c r="E101" s="17"/>
@@ -5520,9 +5523,9 @@
       <c r="T101" s="4"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A102" s="213"/>
-      <c r="B102" s="220"/>
-      <c r="C102" s="216"/>
+      <c r="A102" s="214"/>
+      <c r="B102" s="221"/>
+      <c r="C102" s="217"/>
       <c r="D102" s="81"/>
       <c r="E102" s="13" t="s">
         <v>94</v>
@@ -5544,9 +5547,9 @@
       <c r="T102" s="4"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A103" s="213"/>
-      <c r="B103" s="220"/>
-      <c r="C103" s="216"/>
+      <c r="A103" s="214"/>
+      <c r="B103" s="221"/>
+      <c r="C103" s="217"/>
       <c r="D103" s="82" t="s">
         <v>66</v>
       </c>
@@ -5570,14 +5573,14 @@
       <c r="T103" s="4"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="213"/>
-      <c r="B104" s="220"/>
-      <c r="C104" s="216"/>
+      <c r="A104" s="214"/>
+      <c r="B104" s="221"/>
+      <c r="C104" s="217"/>
       <c r="D104" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="4"/>
@@ -5596,17 +5599,17 @@
       <c r="T104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="213"/>
-      <c r="B105" s="220"/>
-      <c r="C105" s="216"/>
+      <c r="A105" s="214"/>
+      <c r="B105" s="221"/>
+      <c r="C105" s="217"/>
       <c r="D105" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5624,9 +5627,9 @@
       <c r="T105" s="4"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="213"/>
-      <c r="B106" s="220"/>
-      <c r="C106" s="216"/>
+      <c r="A106" s="214"/>
+      <c r="B106" s="221"/>
+      <c r="C106" s="217"/>
       <c r="D106" s="82"/>
       <c r="E106" s="13"/>
       <c r="F106" s="14"/>
@@ -5646,9 +5649,9 @@
       <c r="T106" s="4"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A107" s="213"/>
-      <c r="B107" s="220"/>
-      <c r="C107" s="216"/>
+      <c r="A107" s="214"/>
+      <c r="B107" s="221"/>
+      <c r="C107" s="217"/>
       <c r="D107" s="81"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
@@ -5668,9 +5671,9 @@
       <c r="T107" s="4"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A108" s="213"/>
-      <c r="B108" s="220"/>
-      <c r="C108" s="216"/>
+      <c r="A108" s="214"/>
+      <c r="B108" s="221"/>
+      <c r="C108" s="217"/>
       <c r="D108" s="80"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
@@ -5690,9 +5693,9 @@
       <c r="T108" s="4"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A109" s="213"/>
-      <c r="B109" s="220"/>
-      <c r="C109" s="216"/>
+      <c r="A109" s="214"/>
+      <c r="B109" s="221"/>
+      <c r="C109" s="217"/>
       <c r="D109" s="105"/>
       <c r="E109" s="13"/>
       <c r="F109" s="14"/>
@@ -5712,9 +5715,9 @@
       <c r="T109" s="4"/>
     </row>
     <row r="110" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="225"/>
-      <c r="B110" s="227"/>
-      <c r="C110" s="222"/>
+      <c r="A110" s="226"/>
+      <c r="B110" s="228"/>
+      <c r="C110" s="223"/>
       <c r="D110" s="109"/>
       <c r="E110" s="15"/>
       <c r="F110" s="16"/>
@@ -5734,14 +5737,14 @@
       <c r="T110" s="4"/>
     </row>
     <row r="111" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="224" t="s">
+      <c r="A111" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="B111" s="226" t="s">
+      <c r="B111" s="227" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="221" t="s">
-        <v>328</v>
+      <c r="C111" s="222" t="s">
+        <v>323</v>
       </c>
       <c r="D111" s="82"/>
       <c r="E111" s="17"/>
@@ -5762,9 +5765,9 @@
       <c r="T111" s="4"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="213"/>
-      <c r="B112" s="220"/>
-      <c r="C112" s="216"/>
+      <c r="A112" s="214"/>
+      <c r="B112" s="221"/>
+      <c r="C112" s="217"/>
       <c r="D112" s="81"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
@@ -5784,9 +5787,9 @@
       <c r="T112" s="4"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A113" s="213"/>
-      <c r="B113" s="220"/>
-      <c r="C113" s="216"/>
+      <c r="A113" s="214"/>
+      <c r="B113" s="221"/>
+      <c r="C113" s="217"/>
       <c r="D113" s="82" t="s">
         <v>66</v>
       </c>
@@ -5810,9 +5813,9 @@
       <c r="T113" s="4"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A114" s="213"/>
-      <c r="B114" s="220"/>
-      <c r="C114" s="216"/>
+      <c r="A114" s="214"/>
+      <c r="B114" s="221"/>
+      <c r="C114" s="217"/>
       <c r="D114" s="81" t="s">
         <v>67</v>
       </c>
@@ -5836,14 +5839,14 @@
       <c r="T114" s="4"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A115" s="213"/>
-      <c r="B115" s="220"/>
-      <c r="C115" s="216"/>
+      <c r="A115" s="214"/>
+      <c r="B115" s="221"/>
+      <c r="C115" s="217"/>
       <c r="D115" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="4"/>
@@ -5862,15 +5865,15 @@
       <c r="T115" s="4"/>
     </row>
     <row r="116" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="213"/>
-      <c r="B116" s="220"/>
-      <c r="C116" s="216"/>
+      <c r="A116" s="214"/>
+      <c r="B116" s="221"/>
+      <c r="C116" s="217"/>
       <c r="D116" s="81"/>
       <c r="E116" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F116" s="162" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5888,9 +5891,9 @@
       <c r="T116" s="4"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="213"/>
-      <c r="B117" s="220"/>
-      <c r="C117" s="216"/>
+      <c r="A117" s="214"/>
+      <c r="B117" s="221"/>
+      <c r="C117" s="217"/>
       <c r="D117" s="80"/>
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
@@ -5910,9 +5913,9 @@
       <c r="T117" s="4"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="213"/>
-      <c r="B118" s="220"/>
-      <c r="C118" s="216"/>
+      <c r="A118" s="214"/>
+      <c r="B118" s="221"/>
+      <c r="C118" s="217"/>
       <c r="D118" s="82"/>
       <c r="E118" s="13"/>
       <c r="F118" s="14"/>
@@ -5932,9 +5935,9 @@
       <c r="T118" s="4"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="213"/>
-      <c r="B119" s="220"/>
-      <c r="C119" s="216"/>
+      <c r="A119" s="214"/>
+      <c r="B119" s="221"/>
+      <c r="C119" s="217"/>
       <c r="D119" s="82"/>
       <c r="E119" s="13"/>
       <c r="F119" s="14"/>
@@ -5954,9 +5957,9 @@
       <c r="T119" s="4"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="213"/>
-      <c r="B120" s="220"/>
-      <c r="C120" s="216"/>
+      <c r="A120" s="214"/>
+      <c r="B120" s="221"/>
+      <c r="C120" s="217"/>
       <c r="D120" s="103"/>
       <c r="E120" s="13"/>
       <c r="F120" s="14"/>
@@ -5976,9 +5979,9 @@
       <c r="T120" s="4"/>
     </row>
     <row r="121" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="225"/>
-      <c r="B121" s="227"/>
-      <c r="C121" s="222"/>
+      <c r="A121" s="226"/>
+      <c r="B121" s="228"/>
+      <c r="C121" s="223"/>
       <c r="D121" s="107"/>
       <c r="E121" s="15"/>
       <c r="F121" s="16"/>
@@ -5998,13 +6001,13 @@
       <c r="T121" s="4"/>
     </row>
     <row r="122" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="224" t="s">
+      <c r="A122" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="226" t="s">
+      <c r="B122" s="227" t="s">
         <v>87</v>
       </c>
-      <c r="C122" s="221" t="s">
+      <c r="C122" s="222" t="s">
         <v>93</v>
       </c>
       <c r="D122" s="82"/>
@@ -6026,9 +6029,9 @@
       <c r="T122" s="4"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="213"/>
-      <c r="B123" s="220"/>
-      <c r="C123" s="216"/>
+      <c r="A123" s="214"/>
+      <c r="B123" s="221"/>
+      <c r="C123" s="217"/>
       <c r="D123" s="81"/>
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
@@ -6048,9 +6051,9 @@
       <c r="T123" s="4"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="213"/>
-      <c r="B124" s="220"/>
-      <c r="C124" s="216"/>
+      <c r="A124" s="214"/>
+      <c r="B124" s="221"/>
+      <c r="C124" s="217"/>
       <c r="D124" s="82" t="s">
         <v>66</v>
       </c>
@@ -6074,9 +6077,9 @@
       <c r="T124" s="4"/>
     </row>
     <row r="125" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="213"/>
-      <c r="B125" s="220"/>
-      <c r="C125" s="216"/>
+      <c r="A125" s="214"/>
+      <c r="B125" s="221"/>
+      <c r="C125" s="217"/>
       <c r="D125" s="81" t="s">
         <v>67</v>
       </c>
@@ -6100,14 +6103,14 @@
       <c r="T125" s="4"/>
     </row>
     <row r="126" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="213"/>
-      <c r="B126" s="220"/>
-      <c r="C126" s="216"/>
+      <c r="A126" s="214"/>
+      <c r="B126" s="221"/>
+      <c r="C126" s="217"/>
       <c r="D126" s="80" t="s">
         <v>68</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="4"/>
@@ -6126,12 +6129,12 @@
       <c r="T126" s="4"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127" s="213"/>
-      <c r="B127" s="220"/>
-      <c r="C127" s="216"/>
+      <c r="A127" s="214"/>
+      <c r="B127" s="221"/>
+      <c r="C127" s="217"/>
       <c r="D127" s="82"/>
       <c r="E127" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="4"/>
@@ -6150,15 +6153,15 @@
       <c r="T127" s="4"/>
     </row>
     <row r="128" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A128" s="213"/>
-      <c r="B128" s="220"/>
-      <c r="C128" s="216"/>
+      <c r="A128" s="214"/>
+      <c r="B128" s="221"/>
+      <c r="C128" s="217"/>
       <c r="D128" s="82"/>
       <c r="E128" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F128" s="162" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -6176,9 +6179,9 @@
       <c r="T128" s="4"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="213"/>
-      <c r="B129" s="220"/>
-      <c r="C129" s="216"/>
+      <c r="A129" s="214"/>
+      <c r="B129" s="221"/>
+      <c r="C129" s="217"/>
       <c r="D129" s="82"/>
       <c r="E129" s="13"/>
       <c r="F129" s="14"/>
@@ -6198,9 +6201,9 @@
       <c r="T129" s="4"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="213"/>
-      <c r="B130" s="220"/>
-      <c r="C130" s="216"/>
+      <c r="A130" s="214"/>
+      <c r="B130" s="221"/>
+      <c r="C130" s="217"/>
       <c r="D130" s="82"/>
       <c r="E130" s="13"/>
       <c r="F130" s="14"/>
@@ -6220,9 +6223,9 @@
       <c r="T130" s="4"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131" s="213"/>
-      <c r="B131" s="220"/>
-      <c r="C131" s="216"/>
+      <c r="A131" s="214"/>
+      <c r="B131" s="221"/>
+      <c r="C131" s="217"/>
       <c r="D131" s="81"/>
       <c r="E131" s="13"/>
       <c r="F131" s="14"/>
@@ -6242,9 +6245,9 @@
       <c r="T131" s="4"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132" s="213"/>
-      <c r="B132" s="220"/>
-      <c r="C132" s="216"/>
+      <c r="A132" s="214"/>
+      <c r="B132" s="221"/>
+      <c r="C132" s="217"/>
       <c r="D132" s="80"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
@@ -6264,9 +6267,9 @@
       <c r="T132" s="4"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133" s="213"/>
-      <c r="B133" s="220"/>
-      <c r="C133" s="216"/>
+      <c r="A133" s="214"/>
+      <c r="B133" s="221"/>
+      <c r="C133" s="217"/>
       <c r="D133" s="103"/>
       <c r="E133" s="13"/>
       <c r="F133" s="14"/>
@@ -6286,9 +6289,9 @@
       <c r="T133" s="4"/>
     </row>
     <row r="134" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="225"/>
-      <c r="B134" s="227"/>
-      <c r="C134" s="222"/>
+      <c r="A134" s="226"/>
+      <c r="B134" s="228"/>
+      <c r="C134" s="223"/>
       <c r="D134" s="107"/>
       <c r="E134" s="15"/>
       <c r="F134" s="16"/>
@@ -6308,13 +6311,13 @@
       <c r="T134" s="4"/>
     </row>
     <row r="135" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="224" t="s">
+      <c r="A135" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="226" t="s">
+      <c r="B135" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="C135" s="221" t="s">
+      <c r="C135" s="222" t="s">
         <v>92</v>
       </c>
       <c r="D135" s="114"/>
@@ -6336,9 +6339,9 @@
       <c r="T135" s="4"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="213"/>
-      <c r="B136" s="220"/>
-      <c r="C136" s="216"/>
+      <c r="A136" s="214"/>
+      <c r="B136" s="221"/>
+      <c r="C136" s="217"/>
       <c r="D136" s="81"/>
       <c r="E136" s="13"/>
       <c r="F136" s="14"/>
@@ -6358,9 +6361,9 @@
       <c r="T136" s="4"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="213"/>
-      <c r="B137" s="220"/>
-      <c r="C137" s="216"/>
+      <c r="A137" s="214"/>
+      <c r="B137" s="221"/>
+      <c r="C137" s="217"/>
       <c r="D137" s="82"/>
       <c r="E137" s="13" t="s">
         <v>94</v>
@@ -6382,9 +6385,9 @@
       <c r="T137" s="4"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="213"/>
-      <c r="B138" s="220"/>
-      <c r="C138" s="216"/>
+      <c r="A138" s="214"/>
+      <c r="B138" s="221"/>
+      <c r="C138" s="217"/>
       <c r="D138" s="81"/>
       <c r="E138" s="13" t="s">
         <v>79</v>
@@ -6406,11 +6409,11 @@
       <c r="T138" s="4"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="213"/>
-      <c r="B139" s="220"/>
-      <c r="C139" s="216"/>
+      <c r="A139" s="214"/>
+      <c r="B139" s="221"/>
+      <c r="C139" s="217"/>
       <c r="D139" s="80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>91</v>
@@ -6432,9 +6435,9 @@
       <c r="T139" s="4"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="213"/>
-      <c r="B140" s="220"/>
-      <c r="C140" s="216"/>
+      <c r="A140" s="214"/>
+      <c r="B140" s="221"/>
+      <c r="C140" s="217"/>
       <c r="D140" s="82"/>
       <c r="E140" s="13" t="s">
         <v>90</v>
@@ -6456,15 +6459,15 @@
       <c r="T140" s="4"/>
     </row>
     <row r="141" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A141" s="213"/>
-      <c r="B141" s="220"/>
-      <c r="C141" s="216"/>
+      <c r="A141" s="214"/>
+      <c r="B141" s="221"/>
+      <c r="C141" s="217"/>
       <c r="D141" s="81"/>
       <c r="E141" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F141" s="162" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -6482,9 +6485,9 @@
       <c r="T141" s="4"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="213"/>
-      <c r="B142" s="220"/>
-      <c r="C142" s="216"/>
+      <c r="A142" s="214"/>
+      <c r="B142" s="221"/>
+      <c r="C142" s="217"/>
       <c r="D142" s="80"/>
       <c r="E142" s="13"/>
       <c r="F142" s="14"/>
@@ -6504,9 +6507,9 @@
       <c r="T142" s="4"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="213"/>
-      <c r="B143" s="220"/>
-      <c r="C143" s="216"/>
+      <c r="A143" s="214"/>
+      <c r="B143" s="221"/>
+      <c r="C143" s="217"/>
       <c r="D143" s="82"/>
       <c r="E143" s="13"/>
       <c r="F143" s="14"/>
@@ -6526,9 +6529,9 @@
       <c r="T143" s="4"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="213"/>
-      <c r="B144" s="220"/>
-      <c r="C144" s="216"/>
+      <c r="A144" s="214"/>
+      <c r="B144" s="221"/>
+      <c r="C144" s="217"/>
       <c r="D144" s="82"/>
       <c r="E144" s="13"/>
       <c r="F144" s="14"/>
@@ -6548,9 +6551,9 @@
       <c r="T144" s="4"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="213"/>
-      <c r="B145" s="220"/>
-      <c r="C145" s="216"/>
+      <c r="A145" s="214"/>
+      <c r="B145" s="221"/>
+      <c r="C145" s="217"/>
       <c r="D145" s="110"/>
       <c r="E145" s="13"/>
       <c r="F145" s="14"/>
@@ -6570,9 +6573,9 @@
       <c r="T145" s="4"/>
     </row>
     <row r="146" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="225"/>
-      <c r="B146" s="227"/>
-      <c r="C146" s="222"/>
+      <c r="A146" s="226"/>
+      <c r="B146" s="228"/>
+      <c r="C146" s="223"/>
       <c r="D146" s="109"/>
       <c r="E146" s="15"/>
       <c r="F146" s="16"/>
@@ -6592,16 +6595,16 @@
       <c r="T146" s="4"/>
     </row>
     <row r="147" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="224" t="s">
+      <c r="A147" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="226" t="s">
-        <v>317</v>
-      </c>
-      <c r="C147" s="221" t="s">
-        <v>318</v>
-      </c>
-      <c r="D147" s="193"/>
+      <c r="B147" s="227" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" s="222" t="s">
+        <v>313</v>
+      </c>
+      <c r="D147" s="194"/>
       <c r="E147" s="17"/>
       <c r="F147" s="18"/>
       <c r="G147" s="4"/>
@@ -6620,10 +6623,10 @@
       <c r="T147" s="4"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="213"/>
-      <c r="B148" s="220"/>
-      <c r="C148" s="216"/>
-      <c r="D148" s="194"/>
+      <c r="A148" s="214"/>
+      <c r="B148" s="221"/>
+      <c r="C148" s="217"/>
+      <c r="D148" s="195"/>
       <c r="E148" s="13"/>
       <c r="F148" s="14"/>
       <c r="G148" s="4"/>
@@ -6642,9 +6645,9 @@
       <c r="T148" s="4"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="213"/>
-      <c r="B149" s="220"/>
-      <c r="C149" s="216"/>
+      <c r="A149" s="214"/>
+      <c r="B149" s="221"/>
+      <c r="C149" s="217"/>
       <c r="D149" s="80"/>
       <c r="E149" s="13" t="s">
         <v>94</v>
@@ -6666,9 +6669,9 @@
       <c r="T149" s="4"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="213"/>
-      <c r="B150" s="220"/>
-      <c r="C150" s="216"/>
+      <c r="A150" s="214"/>
+      <c r="B150" s="221"/>
+      <c r="C150" s="217"/>
       <c r="D150" s="82"/>
       <c r="E150" s="13" t="s">
         <v>79</v>
@@ -6690,9 +6693,9 @@
       <c r="T150" s="4"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="213"/>
-      <c r="B151" s="220"/>
-      <c r="C151" s="216"/>
+      <c r="A151" s="214"/>
+      <c r="B151" s="221"/>
+      <c r="C151" s="217"/>
       <c r="D151" s="81"/>
       <c r="E151" s="13" t="s">
         <v>95</v>
@@ -6714,11 +6717,11 @@
       <c r="T151" s="4"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="213"/>
-      <c r="B152" s="220"/>
-      <c r="C152" s="216"/>
+      <c r="A152" s="214"/>
+      <c r="B152" s="221"/>
+      <c r="C152" s="217"/>
       <c r="D152" s="80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="14"/>
@@ -6738,9 +6741,9 @@
       <c r="T152" s="4"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="213"/>
-      <c r="B153" s="220"/>
-      <c r="C153" s="216"/>
+      <c r="A153" s="214"/>
+      <c r="B153" s="221"/>
+      <c r="C153" s="217"/>
       <c r="D153" s="82"/>
       <c r="E153" s="13"/>
       <c r="F153" s="14"/>
@@ -6760,9 +6763,9 @@
       <c r="T153" s="4"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="213"/>
-      <c r="B154" s="220"/>
-      <c r="C154" s="216"/>
+      <c r="A154" s="214"/>
+      <c r="B154" s="221"/>
+      <c r="C154" s="217"/>
       <c r="D154" s="80"/>
       <c r="E154" s="13"/>
       <c r="F154" s="14"/>
@@ -6782,9 +6785,9 @@
       <c r="T154" s="4"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="213"/>
-      <c r="B155" s="220"/>
-      <c r="C155" s="216"/>
+      <c r="A155" s="214"/>
+      <c r="B155" s="221"/>
+      <c r="C155" s="217"/>
       <c r="D155" s="82"/>
       <c r="E155" s="13"/>
       <c r="F155" s="14"/>
@@ -6804,9 +6807,9 @@
       <c r="T155" s="4"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="213"/>
-      <c r="B156" s="220"/>
-      <c r="C156" s="216"/>
+      <c r="A156" s="214"/>
+      <c r="B156" s="221"/>
+      <c r="C156" s="217"/>
       <c r="D156" s="103"/>
       <c r="E156" s="13"/>
       <c r="F156" s="14"/>
@@ -6826,9 +6829,9 @@
       <c r="T156" s="4"/>
     </row>
     <row r="157" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="225"/>
-      <c r="B157" s="227"/>
-      <c r="C157" s="222"/>
+      <c r="A157" s="226"/>
+      <c r="B157" s="228"/>
+      <c r="C157" s="223"/>
       <c r="D157" s="108"/>
       <c r="E157" s="15"/>
       <c r="F157" s="16"/>
@@ -6848,14 +6851,14 @@
       <c r="T157" s="4"/>
     </row>
     <row r="158" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="224" t="s">
+      <c r="A158" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="B158" s="226" t="s">
+      <c r="B158" s="227" t="s">
         <v>96</v>
       </c>
-      <c r="C158" s="221" t="s">
-        <v>319</v>
+      <c r="C158" s="222" t="s">
+        <v>314</v>
       </c>
       <c r="D158" s="82"/>
       <c r="E158" s="17"/>
@@ -6876,14 +6879,14 @@
       <c r="T158" s="4"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="213"/>
-      <c r="B159" s="220"/>
-      <c r="C159" s="216"/>
+      <c r="A159" s="214"/>
+      <c r="B159" s="221"/>
+      <c r="C159" s="217"/>
       <c r="D159" s="80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="4"/>
@@ -6902,15 +6905,15 @@
       <c r="T159" s="4"/>
     </row>
     <row r="160" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="213"/>
-      <c r="B160" s="220"/>
-      <c r="C160" s="216"/>
+      <c r="A160" s="214"/>
+      <c r="B160" s="221"/>
+      <c r="C160" s="217"/>
       <c r="D160" s="80"/>
       <c r="E160" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F160" s="162" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -6928,9 +6931,9 @@
       <c r="T160" s="4"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="213"/>
-      <c r="B161" s="220"/>
-      <c r="C161" s="216"/>
+      <c r="A161" s="214"/>
+      <c r="B161" s="221"/>
+      <c r="C161" s="217"/>
       <c r="D161" s="80"/>
       <c r="E161" s="13"/>
       <c r="F161" s="14"/>
@@ -6950,9 +6953,9 @@
       <c r="T161" s="4"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="213"/>
-      <c r="B162" s="220"/>
-      <c r="C162" s="216"/>
+      <c r="A162" s="214"/>
+      <c r="B162" s="221"/>
+      <c r="C162" s="217"/>
       <c r="D162" s="82"/>
       <c r="E162" s="13"/>
       <c r="F162" s="14"/>
@@ -6972,9 +6975,9 @@
       <c r="T162" s="4"/>
     </row>
     <row r="163" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="225"/>
-      <c r="B163" s="227"/>
-      <c r="C163" s="222"/>
+      <c r="A163" s="226"/>
+      <c r="B163" s="228"/>
+      <c r="C163" s="223"/>
       <c r="D163" s="107"/>
       <c r="E163" s="15"/>
       <c r="F163" s="16"/>
@@ -6994,13 +6997,13 @@
       <c r="T163" s="4"/>
     </row>
     <row r="164" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="224" t="s">
+      <c r="A164" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="226" t="s">
+      <c r="B164" s="227" t="s">
         <v>98</v>
       </c>
-      <c r="C164" s="221" t="s">
+      <c r="C164" s="222" t="s">
         <v>101</v>
       </c>
       <c r="D164" s="114"/>
@@ -7022,9 +7025,9 @@
       <c r="T164" s="4"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="213"/>
-      <c r="B165" s="220"/>
-      <c r="C165" s="216"/>
+      <c r="A165" s="214"/>
+      <c r="B165" s="221"/>
+      <c r="C165" s="217"/>
       <c r="D165" s="82"/>
       <c r="E165" s="112" t="s">
         <v>99</v>
@@ -7046,9 +7049,9 @@
       <c r="T165" s="4"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="213"/>
-      <c r="B166" s="220"/>
-      <c r="C166" s="216"/>
+      <c r="A166" s="214"/>
+      <c r="B166" s="221"/>
+      <c r="C166" s="217"/>
       <c r="D166" s="81"/>
       <c r="E166" s="111" t="s">
         <v>100</v>
@@ -7070,17 +7073,17 @@
       <c r="T166" s="4"/>
     </row>
     <row r="167" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="213"/>
-      <c r="B167" s="220"/>
-      <c r="C167" s="216"/>
+      <c r="A167" s="214"/>
+      <c r="B167" s="221"/>
+      <c r="C167" s="217"/>
       <c r="D167" s="80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E167" s="111" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F167" s="165" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -7098,9 +7101,9 @@
       <c r="T167" s="4"/>
     </row>
     <row r="168" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="225"/>
-      <c r="B168" s="227"/>
-      <c r="C168" s="222"/>
+      <c r="A168" s="226"/>
+      <c r="B168" s="228"/>
+      <c r="C168" s="223"/>
       <c r="D168" s="107"/>
       <c r="E168" s="32"/>
       <c r="F168" s="33"/>
@@ -7120,13 +7123,13 @@
       <c r="T168" s="4"/>
     </row>
     <row r="169" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="224" t="s">
+      <c r="A169" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="226" t="s">
-        <v>297</v>
-      </c>
-      <c r="C169" s="221" t="s">
+      <c r="B169" s="227" t="s">
+        <v>294</v>
+      </c>
+      <c r="C169" s="222" t="s">
         <v>104</v>
       </c>
       <c r="D169" s="82"/>
@@ -7148,9 +7151,9 @@
       <c r="T169" s="4"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="213"/>
-      <c r="B170" s="220"/>
-      <c r="C170" s="216"/>
+      <c r="A170" s="214"/>
+      <c r="B170" s="221"/>
+      <c r="C170" s="217"/>
       <c r="D170" s="80" t="s">
         <v>102</v>
       </c>
@@ -7174,12 +7177,12 @@
       <c r="T170" s="4"/>
     </row>
     <row r="171" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="213"/>
-      <c r="B171" s="220"/>
-      <c r="C171" s="216"/>
+      <c r="A171" s="214"/>
+      <c r="B171" s="221"/>
+      <c r="C171" s="217"/>
       <c r="D171" s="80"/>
       <c r="E171" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="4"/>
@@ -7198,12 +7201,12 @@
       <c r="T171" s="4"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="213"/>
-      <c r="B172" s="220"/>
-      <c r="C172" s="216"/>
+      <c r="A172" s="214"/>
+      <c r="B172" s="221"/>
+      <c r="C172" s="217"/>
       <c r="D172" s="80"/>
       <c r="E172" s="13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="4"/>
@@ -7222,12 +7225,12 @@
       <c r="T172" s="4"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="213"/>
-      <c r="B173" s="220"/>
-      <c r="C173" s="216"/>
+      <c r="A173" s="214"/>
+      <c r="B173" s="221"/>
+      <c r="C173" s="217"/>
       <c r="D173" s="82"/>
       <c r="E173" s="13" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="4"/>
@@ -7246,12 +7249,12 @@
       <c r="T173" s="4"/>
     </row>
     <row r="174" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="225"/>
-      <c r="B174" s="227"/>
-      <c r="C174" s="222"/>
+      <c r="A174" s="226"/>
+      <c r="B174" s="228"/>
+      <c r="C174" s="223"/>
       <c r="D174" s="107"/>
       <c r="E174" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="4"/>
@@ -7270,16 +7273,16 @@
       <c r="T174" s="4"/>
     </row>
     <row r="175" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="224" t="s">
+      <c r="A175" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="231" t="s">
+      <c r="B175" s="232" t="s">
         <v>103</v>
       </c>
-      <c r="C175" s="221" t="s">
+      <c r="C175" s="222" t="s">
         <v>105</v>
       </c>
-      <c r="D175" s="198"/>
+      <c r="D175" s="199"/>
       <c r="F175" s="18"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -7297,12 +7300,12 @@
       <c r="T175" s="4"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="213"/>
-      <c r="B176" s="232"/>
-      <c r="C176" s="216"/>
-      <c r="D176" s="199"/>
+      <c r="A176" s="214"/>
+      <c r="B176" s="233"/>
+      <c r="C176" s="217"/>
+      <c r="D176" s="200"/>
       <c r="E176" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F176" s="14"/>
       <c r="G176" s="4"/>
@@ -7321,14 +7324,14 @@
       <c r="T176" s="4"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="213"/>
-      <c r="B177" s="232"/>
-      <c r="C177" s="216"/>
+      <c r="A177" s="214"/>
+      <c r="B177" s="233"/>
+      <c r="C177" s="217"/>
       <c r="D177" s="80" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E177" s="113" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="4"/>
@@ -7347,10 +7350,10 @@
       <c r="T177" s="4"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="213"/>
-      <c r="B178" s="232"/>
-      <c r="C178" s="216"/>
-      <c r="D178" s="195"/>
+      <c r="A178" s="214"/>
+      <c r="B178" s="233"/>
+      <c r="C178" s="217"/>
+      <c r="D178" s="196"/>
       <c r="E178" s="113"/>
       <c r="F178" s="14"/>
       <c r="G178" s="4"/>
@@ -7369,10 +7372,10 @@
       <c r="T178" s="4"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="213"/>
-      <c r="B179" s="232"/>
-      <c r="C179" s="216"/>
-      <c r="D179" s="196"/>
+      <c r="A179" s="214"/>
+      <c r="B179" s="233"/>
+      <c r="C179" s="217"/>
+      <c r="D179" s="197"/>
       <c r="E179" s="113"/>
       <c r="F179" s="14"/>
       <c r="G179" s="4"/>
@@ -7391,10 +7394,10 @@
       <c r="T179" s="4"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="213"/>
-      <c r="B180" s="232"/>
-      <c r="C180" s="216"/>
-      <c r="D180" s="196"/>
+      <c r="A180" s="214"/>
+      <c r="B180" s="233"/>
+      <c r="C180" s="217"/>
+      <c r="D180" s="197"/>
       <c r="E180" s="113"/>
       <c r="F180" s="14"/>
       <c r="G180" s="4"/>
@@ -7413,10 +7416,10 @@
       <c r="T180" s="4"/>
     </row>
     <row r="181" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="225"/>
-      <c r="B181" s="233"/>
-      <c r="C181" s="222"/>
-      <c r="D181" s="197"/>
+      <c r="A181" s="226"/>
+      <c r="B181" s="234"/>
+      <c r="C181" s="223"/>
+      <c r="D181" s="198"/>
       <c r="E181" s="36"/>
       <c r="F181" s="16"/>
       <c r="G181" s="4"/>
@@ -7435,16 +7438,16 @@
       <c r="T181" s="4"/>
     </row>
     <row r="182" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="224" t="s">
+      <c r="A182" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="B182" s="231" t="s">
+      <c r="B182" s="232" t="s">
         <v>106</v>
       </c>
-      <c r="C182" s="221" t="s">
+      <c r="C182" s="222" t="s">
         <v>107</v>
       </c>
-      <c r="D182" s="208" t="s">
+      <c r="D182" s="209" t="s">
         <v>102</v>
       </c>
       <c r="E182" s="17" t="s">
@@ -7467,12 +7470,12 @@
       <c r="T182" s="4"/>
     </row>
     <row r="183" spans="1:20" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="213"/>
-      <c r="B183" s="232"/>
-      <c r="C183" s="216"/>
-      <c r="D183" s="209"/>
+      <c r="A183" s="214"/>
+      <c r="B183" s="233"/>
+      <c r="C183" s="217"/>
+      <c r="D183" s="210"/>
       <c r="E183" s="58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F183" s="162"/>
       <c r="G183" s="4"/>
@@ -7491,12 +7494,12 @@
       <c r="T183" s="4"/>
     </row>
     <row r="184" spans="1:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="225"/>
-      <c r="B184" s="233"/>
-      <c r="C184" s="222"/>
+      <c r="A184" s="226"/>
+      <c r="B184" s="234"/>
+      <c r="C184" s="223"/>
       <c r="D184" s="150"/>
       <c r="E184" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>63</v>
@@ -7517,17 +7520,17 @@
       <c r="T184" s="4"/>
     </row>
     <row r="185" spans="1:20" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="224" t="s">
+      <c r="A185" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="231" t="s">
+      <c r="B185" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="C185" s="221" t="s">
+      <c r="C185" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="D185" s="207" t="s">
-        <v>332</v>
+      <c r="D185" s="208" t="s">
+        <v>327</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="38"/>
@@ -7547,10 +7550,10 @@
       <c r="T185" s="4"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="213"/>
-      <c r="B186" s="232"/>
-      <c r="C186" s="216"/>
-      <c r="D186" s="207"/>
+      <c r="A186" s="214"/>
+      <c r="B186" s="233"/>
+      <c r="C186" s="217"/>
+      <c r="D186" s="208"/>
       <c r="E186" s="39"/>
       <c r="F186" s="40"/>
       <c r="G186" s="4"/>
@@ -7569,10 +7572,10 @@
       <c r="T186" s="4"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="213"/>
-      <c r="B187" s="232"/>
-      <c r="C187" s="216"/>
-      <c r="D187" s="207"/>
+      <c r="A187" s="214"/>
+      <c r="B187" s="233"/>
+      <c r="C187" s="217"/>
+      <c r="D187" s="208"/>
       <c r="E187" s="39"/>
       <c r="F187" s="40"/>
       <c r="G187" s="4"/>
@@ -7591,12 +7594,12 @@
       <c r="T187" s="4"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="213"/>
-      <c r="B188" s="232"/>
-      <c r="C188" s="216"/>
-      <c r="D188" s="207"/>
+      <c r="A188" s="214"/>
+      <c r="B188" s="233"/>
+      <c r="C188" s="217"/>
+      <c r="D188" s="208"/>
       <c r="E188" s="39" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F188" s="40"/>
       <c r="G188" s="4"/>
@@ -7615,12 +7618,12 @@
       <c r="T188" s="4"/>
     </row>
     <row r="189" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="225"/>
-      <c r="B189" s="233"/>
-      <c r="C189" s="222"/>
-      <c r="D189" s="236"/>
+      <c r="A189" s="226"/>
+      <c r="B189" s="234"/>
+      <c r="C189" s="223"/>
+      <c r="D189" s="237"/>
       <c r="E189" s="119" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F189" s="42"/>
       <c r="G189" s="4"/>
@@ -7639,16 +7642,16 @@
       <c r="T189" s="4"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="213" t="s">
+      <c r="A190" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="B190" s="232" t="s">
+      <c r="B190" s="233" t="s">
         <v>111</v>
       </c>
-      <c r="C190" s="216" t="s">
+      <c r="C190" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="D190" s="205" t="s">
+      <c r="D190" s="206" t="s">
         <v>102</v>
       </c>
       <c r="E190" s="39" t="s">
@@ -7671,10 +7674,10 @@
       <c r="T190" s="4"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="213"/>
-      <c r="B191" s="232"/>
-      <c r="C191" s="216"/>
-      <c r="D191" s="205"/>
+      <c r="A191" s="214"/>
+      <c r="B191" s="233"/>
+      <c r="C191" s="217"/>
+      <c r="D191" s="206"/>
       <c r="E191" s="115" t="s">
         <v>114</v>
       </c>
@@ -7695,10 +7698,10 @@
       <c r="T191" s="4"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="213"/>
-      <c r="B192" s="232"/>
-      <c r="C192" s="216"/>
-      <c r="D192" s="205"/>
+      <c r="A192" s="214"/>
+      <c r="B192" s="233"/>
+      <c r="C192" s="217"/>
+      <c r="D192" s="206"/>
       <c r="E192" s="118" t="s">
         <v>115</v>
       </c>
@@ -7719,10 +7722,10 @@
       <c r="T192" s="4"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="213"/>
-      <c r="B193" s="232"/>
-      <c r="C193" s="216"/>
-      <c r="D193" s="205"/>
+      <c r="A193" s="214"/>
+      <c r="B193" s="233"/>
+      <c r="C193" s="217"/>
+      <c r="D193" s="206"/>
       <c r="E193" s="43" t="s">
         <v>116</v>
       </c>
@@ -7743,10 +7746,10 @@
       <c r="T193" s="4"/>
     </row>
     <row r="194" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="213"/>
-      <c r="B194" s="232"/>
-      <c r="C194" s="216"/>
-      <c r="D194" s="205"/>
+      <c r="A194" s="214"/>
+      <c r="B194" s="233"/>
+      <c r="C194" s="217"/>
+      <c r="D194" s="206"/>
       <c r="E194" s="13" t="s">
         <v>117</v>
       </c>
@@ -7767,10 +7770,10 @@
       <c r="T194" s="4"/>
     </row>
     <row r="195" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="213"/>
-      <c r="B195" s="232"/>
-      <c r="C195" s="216"/>
-      <c r="D195" s="205"/>
+      <c r="A195" s="214"/>
+      <c r="B195" s="233"/>
+      <c r="C195" s="217"/>
+      <c r="D195" s="206"/>
       <c r="E195" s="115" t="s">
         <v>118</v>
       </c>
@@ -7791,12 +7794,12 @@
       <c r="T195" s="4"/>
     </row>
     <row r="196" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="213"/>
-      <c r="B196" s="232"/>
-      <c r="C196" s="216"/>
-      <c r="D196" s="205"/>
+      <c r="A196" s="214"/>
+      <c r="B196" s="233"/>
+      <c r="C196" s="217"/>
+      <c r="D196" s="206"/>
       <c r="E196" s="156" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F196" s="158"/>
       <c r="G196" s="4"/>
@@ -7815,10 +7818,10 @@
       <c r="T196" s="4"/>
     </row>
     <row r="197" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="225"/>
-      <c r="B197" s="233"/>
-      <c r="C197" s="222"/>
-      <c r="D197" s="223"/>
+      <c r="A197" s="226"/>
+      <c r="B197" s="234"/>
+      <c r="C197" s="223"/>
+      <c r="D197" s="224"/>
       <c r="E197" s="159"/>
       <c r="F197" s="157"/>
       <c r="G197" s="4"/>
@@ -7837,16 +7840,16 @@
       <c r="T197" s="4"/>
     </row>
     <row r="198" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="213" t="s">
+      <c r="A198" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="B198" s="232" t="s">
+      <c r="B198" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="C198" s="216" t="s">
+      <c r="C198" s="217" t="s">
         <v>120</v>
       </c>
-      <c r="D198" s="207"/>
+      <c r="D198" s="208"/>
       <c r="E198" s="43" t="s">
         <v>121</v>
       </c>
@@ -7867,10 +7870,10 @@
       <c r="T198" s="4"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="213"/>
-      <c r="B199" s="232"/>
-      <c r="C199" s="216"/>
-      <c r="D199" s="207"/>
+      <c r="A199" s="214"/>
+      <c r="B199" s="233"/>
+      <c r="C199" s="217"/>
+      <c r="D199" s="208"/>
       <c r="E199" s="39" t="s">
         <v>122</v>
       </c>
@@ -7891,10 +7894,10 @@
       <c r="T199" s="4"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="213"/>
-      <c r="B200" s="232"/>
-      <c r="C200" s="216"/>
-      <c r="D200" s="207"/>
+      <c r="A200" s="214"/>
+      <c r="B200" s="233"/>
+      <c r="C200" s="217"/>
+      <c r="D200" s="208"/>
       <c r="E200" s="39" t="s">
         <v>123</v>
       </c>
@@ -7915,10 +7918,10 @@
       <c r="T200" s="4"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="213"/>
-      <c r="B201" s="232"/>
-      <c r="C201" s="216"/>
-      <c r="D201" s="207"/>
+      <c r="A201" s="214"/>
+      <c r="B201" s="233"/>
+      <c r="C201" s="217"/>
+      <c r="D201" s="208"/>
       <c r="E201" s="13" t="s">
         <v>124</v>
       </c>
@@ -7939,10 +7942,10 @@
       <c r="T201" s="4"/>
     </row>
     <row r="202" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="225"/>
-      <c r="B202" s="233"/>
-      <c r="C202" s="222"/>
-      <c r="D202" s="236"/>
+      <c r="A202" s="226"/>
+      <c r="B202" s="234"/>
+      <c r="C202" s="223"/>
+      <c r="D202" s="237"/>
       <c r="E202" s="41"/>
       <c r="F202" s="46"/>
       <c r="G202" s="4"/>
@@ -7961,16 +7964,16 @@
       <c r="T202" s="4"/>
     </row>
     <row r="203" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="224" t="s">
+      <c r="A203" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="B203" s="231" t="s">
+      <c r="B203" s="232" t="s">
         <v>126</v>
       </c>
-      <c r="C203" s="221" t="s">
+      <c r="C203" s="222" t="s">
         <v>125</v>
       </c>
-      <c r="D203" s="248"/>
+      <c r="D203" s="249"/>
       <c r="E203" s="43"/>
       <c r="F203" s="44"/>
       <c r="G203" s="4"/>
@@ -7989,10 +7992,10 @@
       <c r="T203" s="4"/>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204" s="213"/>
-      <c r="B204" s="232"/>
-      <c r="C204" s="216"/>
-      <c r="D204" s="207"/>
+      <c r="A204" s="214"/>
+      <c r="B204" s="233"/>
+      <c r="C204" s="217"/>
+      <c r="D204" s="208"/>
       <c r="E204" s="43" t="s">
         <v>121</v>
       </c>
@@ -8013,10 +8016,10 @@
       <c r="T204" s="4"/>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205" s="213"/>
-      <c r="B205" s="232"/>
-      <c r="C205" s="216"/>
-      <c r="D205" s="207"/>
+      <c r="A205" s="214"/>
+      <c r="B205" s="233"/>
+      <c r="C205" s="217"/>
+      <c r="D205" s="208"/>
       <c r="E205" s="39" t="s">
         <v>122</v>
       </c>
@@ -8037,12 +8040,12 @@
       <c r="T205" s="4"/>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A206" s="213"/>
-      <c r="B206" s="232"/>
-      <c r="C206" s="216"/>
-      <c r="D206" s="207"/>
+      <c r="A206" s="214"/>
+      <c r="B206" s="233"/>
+      <c r="C206" s="217"/>
+      <c r="D206" s="208"/>
       <c r="E206" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F206" s="45"/>
       <c r="G206" s="4"/>
@@ -8061,12 +8064,12 @@
       <c r="T206" s="4"/>
     </row>
     <row r="207" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="225"/>
-      <c r="B207" s="233"/>
-      <c r="C207" s="222"/>
-      <c r="D207" s="236"/>
+      <c r="A207" s="226"/>
+      <c r="B207" s="234"/>
+      <c r="C207" s="223"/>
+      <c r="D207" s="237"/>
       <c r="E207" s="13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F207" s="45"/>
       <c r="G207" s="4"/>
@@ -8085,14 +8088,14 @@
       <c r="T207" s="4"/>
     </row>
     <row r="208" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="254" t="s">
+      <c r="A208" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="B208" s="254"/>
-      <c r="C208" s="254"/>
-      <c r="D208" s="254"/>
-      <c r="E208" s="254"/>
-      <c r="F208" s="254"/>
+      <c r="B208" s="255"/>
+      <c r="C208" s="255"/>
+      <c r="D208" s="255"/>
+      <c r="E208" s="255"/>
+      <c r="F208" s="255"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -8131,16 +8134,16 @@
       <c r="T209" s="4"/>
     </row>
     <row r="210" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="224" t="s">
+      <c r="A210" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="249" t="s">
+      <c r="B210" s="250" t="s">
         <v>127</v>
       </c>
-      <c r="C210" s="215" t="s">
+      <c r="C210" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="D210" s="217" t="s">
+      <c r="D210" s="218" t="s">
         <v>102</v>
       </c>
       <c r="E210" s="47"/>
@@ -8161,10 +8164,10 @@
       <c r="T210" s="4"/>
     </row>
     <row r="211" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="213"/>
-      <c r="B211" s="220"/>
-      <c r="C211" s="216"/>
-      <c r="D211" s="207"/>
+      <c r="A211" s="214"/>
+      <c r="B211" s="221"/>
+      <c r="C211" s="217"/>
+      <c r="D211" s="208"/>
       <c r="E211" s="47" t="s">
         <v>128</v>
       </c>
@@ -8185,12 +8188,12 @@
       <c r="T211" s="4"/>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A212" s="213"/>
-      <c r="B212" s="220"/>
-      <c r="C212" s="216"/>
-      <c r="D212" s="207"/>
+      <c r="A212" s="214"/>
+      <c r="B212" s="221"/>
+      <c r="C212" s="217"/>
+      <c r="D212" s="208"/>
       <c r="E212" s="47" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F212" s="19"/>
       <c r="G212" s="4"/>
@@ -8209,10 +8212,10 @@
       <c r="T212" s="4"/>
     </row>
     <row r="213" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="213"/>
-      <c r="B213" s="220"/>
-      <c r="C213" s="216"/>
-      <c r="D213" s="207"/>
+      <c r="A213" s="214"/>
+      <c r="B213" s="221"/>
+      <c r="C213" s="217"/>
+      <c r="D213" s="208"/>
       <c r="E213" s="47" t="s">
         <v>129</v>
       </c>
@@ -8233,12 +8236,12 @@
       <c r="T213" s="4"/>
     </row>
     <row r="214" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="213"/>
-      <c r="B214" s="220"/>
-      <c r="C214" s="216"/>
-      <c r="D214" s="207"/>
+      <c r="A214" s="214"/>
+      <c r="B214" s="221"/>
+      <c r="C214" s="217"/>
+      <c r="D214" s="208"/>
       <c r="E214" s="120" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F214" s="19"/>
       <c r="G214" s="4"/>
@@ -8257,12 +8260,12 @@
       <c r="T214" s="4"/>
     </row>
     <row r="215" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="213"/>
-      <c r="B215" s="220"/>
-      <c r="C215" s="216"/>
-      <c r="D215" s="207"/>
+      <c r="A215" s="214"/>
+      <c r="B215" s="221"/>
+      <c r="C215" s="217"/>
+      <c r="D215" s="208"/>
       <c r="E215" s="121" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F215" s="19"/>
       <c r="G215" s="4"/>
@@ -8281,10 +8284,10 @@
       <c r="T215" s="4"/>
     </row>
     <row r="216" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="225"/>
-      <c r="B216" s="227"/>
-      <c r="C216" s="222"/>
-      <c r="D216" s="236"/>
+      <c r="A216" s="226"/>
+      <c r="B216" s="228"/>
+      <c r="C216" s="223"/>
+      <c r="D216" s="237"/>
       <c r="E216" s="122"/>
       <c r="F216" s="49"/>
       <c r="G216" s="4"/>
@@ -8303,16 +8306,16 @@
       <c r="T216" s="4"/>
     </row>
     <row r="217" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="224" t="s">
+      <c r="A217" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="B217" s="226" t="s">
+      <c r="B217" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="C217" s="221" t="s">
+      <c r="C217" s="222" t="s">
         <v>136</v>
       </c>
-      <c r="D217" s="210"/>
+      <c r="D217" s="211"/>
       <c r="E217" s="50"/>
       <c r="F217" s="51"/>
       <c r="G217" s="4"/>
@@ -8331,10 +8334,10 @@
       <c r="T217" s="4"/>
     </row>
     <row r="218" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="213"/>
-      <c r="B218" s="220"/>
-      <c r="C218" s="216"/>
-      <c r="D218" s="209"/>
+      <c r="A218" s="214"/>
+      <c r="B218" s="221"/>
+      <c r="C218" s="217"/>
+      <c r="D218" s="210"/>
       <c r="E218" s="50" t="s">
         <v>132</v>
       </c>
@@ -8355,9 +8358,9 @@
       <c r="T218" s="4"/>
     </row>
     <row r="219" spans="1:20" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="213"/>
-      <c r="B219" s="220"/>
-      <c r="C219" s="216"/>
+      <c r="A219" s="214"/>
+      <c r="B219" s="221"/>
+      <c r="C219" s="217"/>
       <c r="D219" s="80"/>
       <c r="E219" s="50" t="s">
         <v>133</v>
@@ -8379,10 +8382,10 @@
       <c r="T219" s="4"/>
     </row>
     <row r="220" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="213"/>
-      <c r="B220" s="220"/>
-      <c r="C220" s="216"/>
-      <c r="D220" s="195"/>
+      <c r="A220" s="214"/>
+      <c r="B220" s="221"/>
+      <c r="C220" s="217"/>
+      <c r="D220" s="196"/>
       <c r="E220" s="50" t="s">
         <v>134</v>
       </c>
@@ -8403,10 +8406,10 @@
       <c r="T220" s="4"/>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221" s="213"/>
-      <c r="B221" s="220"/>
-      <c r="C221" s="216"/>
-      <c r="D221" s="196"/>
+      <c r="A221" s="214"/>
+      <c r="B221" s="221"/>
+      <c r="C221" s="217"/>
+      <c r="D221" s="197"/>
       <c r="E221" s="47"/>
       <c r="F221" s="19"/>
       <c r="G221" s="4"/>
@@ -8425,10 +8428,10 @@
       <c r="T221" s="4"/>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222" s="213"/>
-      <c r="B222" s="220"/>
-      <c r="C222" s="216"/>
-      <c r="D222" s="196"/>
+      <c r="A222" s="214"/>
+      <c r="B222" s="221"/>
+      <c r="C222" s="217"/>
+      <c r="D222" s="197"/>
       <c r="E222" s="47"/>
       <c r="F222" s="19"/>
       <c r="G222" s="4"/>
@@ -8447,10 +8450,10 @@
       <c r="T222" s="4"/>
     </row>
     <row r="223" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="213"/>
-      <c r="B223" s="220"/>
-      <c r="C223" s="216"/>
-      <c r="D223" s="197"/>
+      <c r="A223" s="214"/>
+      <c r="B223" s="221"/>
+      <c r="C223" s="217"/>
+      <c r="D223" s="198"/>
       <c r="E223" s="47"/>
       <c r="F223" s="19"/>
       <c r="G223" s="4"/>
@@ -8469,10 +8472,10 @@
       <c r="T223" s="4"/>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A224" s="213"/>
-      <c r="B224" s="220"/>
-      <c r="C224" s="216"/>
-      <c r="D224" s="198"/>
+      <c r="A224" s="214"/>
+      <c r="B224" s="221"/>
+      <c r="C224" s="217"/>
+      <c r="D224" s="199"/>
       <c r="E224" s="47"/>
       <c r="F224" s="19"/>
       <c r="G224" s="4"/>
@@ -8491,10 +8494,10 @@
       <c r="T224" s="4"/>
     </row>
     <row r="225" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="225"/>
-      <c r="B225" s="227"/>
-      <c r="C225" s="222"/>
-      <c r="D225" s="197"/>
+      <c r="A225" s="226"/>
+      <c r="B225" s="228"/>
+      <c r="C225" s="223"/>
+      <c r="D225" s="198"/>
       <c r="E225" s="48"/>
       <c r="F225" s="49"/>
       <c r="G225" s="4"/>
@@ -8513,16 +8516,16 @@
       <c r="T225" s="4"/>
     </row>
     <row r="226" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="224" t="s">
+      <c r="A226" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="B226" s="226" t="s">
+      <c r="B226" s="227" t="s">
         <v>135</v>
       </c>
-      <c r="C226" s="221" t="s">
+      <c r="C226" s="222" t="s">
         <v>140</v>
       </c>
-      <c r="D226" s="208"/>
+      <c r="D226" s="209"/>
       <c r="E226" s="50"/>
       <c r="F226" s="51"/>
       <c r="G226" s="4"/>
@@ -8541,10 +8544,10 @@
       <c r="T226" s="4"/>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A227" s="213"/>
-      <c r="B227" s="220"/>
-      <c r="C227" s="216"/>
-      <c r="D227" s="209"/>
+      <c r="A227" s="214"/>
+      <c r="B227" s="221"/>
+      <c r="C227" s="217"/>
+      <c r="D227" s="210"/>
       <c r="E227" s="50" t="s">
         <v>132</v>
       </c>
@@ -8565,9 +8568,9 @@
       <c r="T227" s="4"/>
     </row>
     <row r="228" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="213"/>
-      <c r="B228" s="220"/>
-      <c r="C228" s="216"/>
+      <c r="A228" s="214"/>
+      <c r="B228" s="221"/>
+      <c r="C228" s="217"/>
       <c r="D228" s="80"/>
       <c r="E228" s="50" t="s">
         <v>137</v>
@@ -8589,10 +8592,10 @@
       <c r="T228" s="4"/>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A229" s="213"/>
-      <c r="B229" s="220"/>
-      <c r="C229" s="216"/>
-      <c r="D229" s="195"/>
+      <c r="A229" s="214"/>
+      <c r="B229" s="221"/>
+      <c r="C229" s="217"/>
+      <c r="D229" s="196"/>
       <c r="E229" s="50" t="s">
         <v>138</v>
       </c>
@@ -8613,10 +8616,10 @@
       <c r="T229" s="4"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A230" s="213"/>
-      <c r="B230" s="220"/>
-      <c r="C230" s="216"/>
-      <c r="D230" s="196"/>
+      <c r="A230" s="214"/>
+      <c r="B230" s="221"/>
+      <c r="C230" s="217"/>
+      <c r="D230" s="197"/>
       <c r="E230" s="47"/>
       <c r="F230" s="19"/>
       <c r="G230" s="4"/>
@@ -8635,10 +8638,10 @@
       <c r="T230" s="4"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="213"/>
-      <c r="B231" s="220"/>
-      <c r="C231" s="216"/>
-      <c r="D231" s="196"/>
+      <c r="A231" s="214"/>
+      <c r="B231" s="221"/>
+      <c r="C231" s="217"/>
+      <c r="D231" s="197"/>
       <c r="E231" s="47"/>
       <c r="F231" s="19"/>
       <c r="G231" s="4"/>
@@ -8657,10 +8660,10 @@
       <c r="T231" s="4"/>
     </row>
     <row r="232" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="225"/>
-      <c r="B232" s="227"/>
-      <c r="C232" s="222"/>
-      <c r="D232" s="197"/>
+      <c r="A232" s="226"/>
+      <c r="B232" s="228"/>
+      <c r="C232" s="223"/>
+      <c r="D232" s="198"/>
       <c r="E232" s="48"/>
       <c r="F232" s="49"/>
       <c r="G232" s="4"/>
@@ -8679,16 +8682,16 @@
       <c r="T232" s="4"/>
     </row>
     <row r="233" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="224" t="s">
+      <c r="A233" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="B233" s="226" t="s">
-        <v>340</v>
-      </c>
-      <c r="C233" s="228" t="s">
+      <c r="B233" s="227" t="s">
+        <v>335</v>
+      </c>
+      <c r="C233" s="229" t="s">
         <v>139</v>
       </c>
-      <c r="D233" s="208"/>
+      <c r="D233" s="209"/>
       <c r="E233" s="50"/>
       <c r="F233" s="51"/>
       <c r="G233" s="4"/>
@@ -8707,10 +8710,10 @@
       <c r="T233" s="4"/>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="213"/>
-      <c r="B234" s="220"/>
-      <c r="C234" s="229"/>
-      <c r="D234" s="203"/>
+      <c r="A234" s="214"/>
+      <c r="B234" s="221"/>
+      <c r="C234" s="230"/>
+      <c r="D234" s="204"/>
       <c r="E234" s="47"/>
       <c r="F234" s="19"/>
       <c r="G234" s="4"/>
@@ -8729,10 +8732,10 @@
       <c r="T234" s="4"/>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="213"/>
-      <c r="B235" s="220"/>
-      <c r="C235" s="229"/>
-      <c r="D235" s="211"/>
+      <c r="A235" s="214"/>
+      <c r="B235" s="221"/>
+      <c r="C235" s="230"/>
+      <c r="D235" s="212"/>
       <c r="E235" s="64" t="s">
         <v>132</v>
       </c>
@@ -8753,12 +8756,12 @@
       <c r="T235" s="4"/>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="213"/>
-      <c r="B236" s="220"/>
-      <c r="C236" s="229"/>
-      <c r="D236" s="212"/>
+      <c r="A236" s="214"/>
+      <c r="B236" s="221"/>
+      <c r="C236" s="230"/>
+      <c r="D236" s="213"/>
       <c r="E236" s="64" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F236" s="19"/>
       <c r="G236" s="4"/>
@@ -8777,12 +8780,12 @@
       <c r="T236" s="4"/>
     </row>
     <row r="237" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="213"/>
-      <c r="B237" s="220"/>
-      <c r="C237" s="229"/>
+      <c r="A237" s="214"/>
+      <c r="B237" s="221"/>
+      <c r="C237" s="230"/>
       <c r="D237" s="125"/>
       <c r="E237" s="50" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F237" s="19"/>
       <c r="G237" s="4"/>
@@ -8801,9 +8804,9 @@
       <c r="T237" s="4"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="213"/>
-      <c r="B238" s="220"/>
-      <c r="C238" s="229"/>
+      <c r="A238" s="214"/>
+      <c r="B238" s="221"/>
+      <c r="C238" s="230"/>
       <c r="D238" s="124"/>
       <c r="E238" s="123"/>
       <c r="F238" s="19"/>
@@ -8823,10 +8826,10 @@
       <c r="T238" s="4"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="213"/>
-      <c r="B239" s="220"/>
-      <c r="C239" s="229"/>
-      <c r="D239" s="202"/>
+      <c r="A239" s="214"/>
+      <c r="B239" s="221"/>
+      <c r="C239" s="230"/>
+      <c r="D239" s="203"/>
       <c r="E239" s="47"/>
       <c r="F239" s="19"/>
       <c r="G239" s="4"/>
@@ -8845,10 +8848,10 @@
       <c r="T239" s="4"/>
     </row>
     <row r="240" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="225"/>
-      <c r="B240" s="227"/>
-      <c r="C240" s="230"/>
-      <c r="D240" s="203"/>
+      <c r="A240" s="226"/>
+      <c r="B240" s="228"/>
+      <c r="C240" s="231"/>
+      <c r="D240" s="204"/>
       <c r="E240" s="48"/>
       <c r="F240" s="49"/>
       <c r="G240" s="4"/>
@@ -8867,16 +8870,16 @@
       <c r="T240" s="4"/>
     </row>
     <row r="241" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="224" t="s">
+      <c r="A241" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B241" s="226" t="s">
+      <c r="B241" s="227" t="s">
         <v>141</v>
       </c>
-      <c r="C241" s="228" t="s">
+      <c r="C241" s="229" t="s">
         <v>142</v>
       </c>
-      <c r="D241" s="200"/>
+      <c r="D241" s="201"/>
       <c r="E241" s="50"/>
       <c r="F241" s="51"/>
       <c r="G241" s="4"/>
@@ -8895,10 +8898,10 @@
       <c r="T241" s="4"/>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="213"/>
-      <c r="B242" s="220"/>
-      <c r="C242" s="229"/>
-      <c r="D242" s="201"/>
+      <c r="A242" s="214"/>
+      <c r="B242" s="221"/>
+      <c r="C242" s="230"/>
+      <c r="D242" s="202"/>
       <c r="E242" s="64" t="s">
         <v>132</v>
       </c>
@@ -8919,12 +8922,12 @@
       <c r="T242" s="4"/>
     </row>
     <row r="243" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="213"/>
-      <c r="B243" s="220"/>
-      <c r="C243" s="229"/>
+      <c r="A243" s="214"/>
+      <c r="B243" s="221"/>
+      <c r="C243" s="230"/>
       <c r="D243" s="125"/>
       <c r="E243" s="64" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="4"/>
@@ -8943,9 +8946,9 @@
       <c r="T243" s="4"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="213"/>
-      <c r="B244" s="220"/>
-      <c r="C244" s="229"/>
+      <c r="A244" s="214"/>
+      <c r="B244" s="221"/>
+      <c r="C244" s="230"/>
       <c r="D244" s="124"/>
       <c r="E244" s="50" t="s">
         <v>143</v>
@@ -8967,9 +8970,9 @@
       <c r="T244" s="4"/>
     </row>
     <row r="245" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="225"/>
-      <c r="B245" s="227"/>
-      <c r="C245" s="230"/>
+      <c r="A245" s="226"/>
+      <c r="B245" s="228"/>
+      <c r="C245" s="231"/>
       <c r="D245" s="126"/>
       <c r="E245" s="48"/>
       <c r="F245" s="49"/>
@@ -8989,16 +8992,16 @@
       <c r="T245" s="4"/>
     </row>
     <row r="246" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="224" t="s">
+      <c r="A246" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="B246" s="226" t="s">
+      <c r="B246" s="227" t="s">
         <v>144</v>
       </c>
-      <c r="C246" s="228" t="s">
+      <c r="C246" s="229" t="s">
         <v>145</v>
       </c>
-      <c r="D246" s="200" t="s">
+      <c r="D246" s="201" t="s">
         <v>102</v>
       </c>
       <c r="E246" s="50"/>
@@ -9019,10 +9022,10 @@
       <c r="T246" s="4"/>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A247" s="213"/>
-      <c r="B247" s="220"/>
-      <c r="C247" s="229"/>
-      <c r="D247" s="201"/>
+      <c r="A247" s="214"/>
+      <c r="B247" s="221"/>
+      <c r="C247" s="230"/>
+      <c r="D247" s="202"/>
       <c r="E247" s="64" t="s">
         <v>132</v>
       </c>
@@ -9043,9 +9046,9 @@
       <c r="T247" s="4"/>
     </row>
     <row r="248" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="213"/>
-      <c r="B248" s="220"/>
-      <c r="C248" s="229"/>
+      <c r="A248" s="214"/>
+      <c r="B248" s="221"/>
+      <c r="C248" s="230"/>
       <c r="D248" s="125" t="s">
         <v>146</v>
       </c>
@@ -9069,9 +9072,9 @@
       <c r="T248" s="4"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="213"/>
-      <c r="B249" s="220"/>
-      <c r="C249" s="229"/>
+      <c r="A249" s="214"/>
+      <c r="B249" s="221"/>
+      <c r="C249" s="230"/>
       <c r="D249" s="124"/>
       <c r="E249" s="50" t="s">
         <v>148</v>
@@ -9093,10 +9096,10 @@
       <c r="T249" s="4"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="213"/>
-      <c r="B250" s="220"/>
-      <c r="C250" s="229"/>
-      <c r="D250" s="202"/>
+      <c r="A250" s="214"/>
+      <c r="B250" s="221"/>
+      <c r="C250" s="230"/>
+      <c r="D250" s="203"/>
       <c r="E250" s="47"/>
       <c r="F250" s="19"/>
       <c r="G250" s="4"/>
@@ -9115,10 +9118,10 @@
       <c r="T250" s="4"/>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" s="213"/>
-      <c r="B251" s="220"/>
-      <c r="C251" s="229"/>
-      <c r="D251" s="203"/>
+      <c r="A251" s="214"/>
+      <c r="B251" s="221"/>
+      <c r="C251" s="230"/>
+      <c r="D251" s="204"/>
       <c r="E251" s="47"/>
       <c r="F251" s="19"/>
       <c r="G251" s="4"/>
@@ -9137,9 +9140,9 @@
       <c r="T251" s="4"/>
     </row>
     <row r="252" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="225"/>
-      <c r="B252" s="227"/>
-      <c r="C252" s="230"/>
+      <c r="A252" s="226"/>
+      <c r="B252" s="228"/>
+      <c r="C252" s="231"/>
       <c r="D252" s="107"/>
       <c r="E252" s="48"/>
       <c r="F252" s="49"/>
@@ -9159,16 +9162,16 @@
       <c r="T252" s="4"/>
     </row>
     <row r="253" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="224" t="s">
+      <c r="A253" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="B253" s="226" t="s">
+      <c r="B253" s="227" t="s">
         <v>149</v>
       </c>
-      <c r="C253" s="228" t="s">
+      <c r="C253" s="229" t="s">
         <v>150</v>
       </c>
-      <c r="D253" s="204" t="s">
+      <c r="D253" s="205" t="s">
         <v>102</v>
       </c>
       <c r="E253" s="50"/>
@@ -9189,10 +9192,10 @@
       <c r="T253" s="4"/>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" s="213"/>
-      <c r="B254" s="220"/>
-      <c r="C254" s="229"/>
-      <c r="D254" s="205"/>
+      <c r="A254" s="214"/>
+      <c r="B254" s="221"/>
+      <c r="C254" s="230"/>
+      <c r="D254" s="206"/>
       <c r="E254" s="47" t="s">
         <v>152</v>
       </c>
@@ -9213,9 +9216,9 @@
       <c r="T254" s="4"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="213"/>
-      <c r="B255" s="220"/>
-      <c r="C255" s="229"/>
+      <c r="A255" s="214"/>
+      <c r="B255" s="221"/>
+      <c r="C255" s="230"/>
       <c r="D255" s="124" t="s">
         <v>151</v>
       </c>
@@ -9239,12 +9242,12 @@
       <c r="T255" s="4"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="213"/>
-      <c r="B256" s="220"/>
-      <c r="C256" s="229"/>
+      <c r="A256" s="214"/>
+      <c r="B256" s="221"/>
+      <c r="C256" s="230"/>
       <c r="D256" s="124"/>
       <c r="E256" s="47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F256" s="19"/>
       <c r="G256" s="4"/>
@@ -9263,10 +9266,10 @@
       <c r="T256" s="4"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" s="213"/>
-      <c r="B257" s="220"/>
-      <c r="C257" s="229"/>
-      <c r="D257" s="206"/>
+      <c r="A257" s="214"/>
+      <c r="B257" s="221"/>
+      <c r="C257" s="230"/>
+      <c r="D257" s="207"/>
       <c r="E257" s="47"/>
       <c r="F257" s="19"/>
       <c r="G257" s="4"/>
@@ -9285,10 +9288,10 @@
       <c r="T257" s="4"/>
     </row>
     <row r="258" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="225"/>
-      <c r="B258" s="227"/>
-      <c r="C258" s="230"/>
-      <c r="D258" s="207"/>
+      <c r="A258" s="226"/>
+      <c r="B258" s="228"/>
+      <c r="C258" s="231"/>
+      <c r="D258" s="208"/>
       <c r="E258" s="48"/>
       <c r="F258" s="49"/>
       <c r="G258" s="4"/>
@@ -9307,16 +9310,16 @@
       <c r="T258" s="4"/>
     </row>
     <row r="259" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="224" t="s">
+      <c r="A259" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="226" t="s">
+      <c r="B259" s="227" t="s">
         <v>154</v>
       </c>
-      <c r="C259" s="228" t="s">
+      <c r="C259" s="229" t="s">
         <v>155</v>
       </c>
-      <c r="D259" s="204"/>
+      <c r="D259" s="205"/>
       <c r="E259" s="127"/>
       <c r="F259" s="51"/>
       <c r="G259" s="4"/>
@@ -9335,12 +9338,12 @@
       <c r="T259" s="4"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" s="213"/>
-      <c r="B260" s="220"/>
-      <c r="C260" s="229"/>
-      <c r="D260" s="205"/>
+      <c r="A260" s="214"/>
+      <c r="B260" s="221"/>
+      <c r="C260" s="230"/>
+      <c r="D260" s="206"/>
       <c r="E260" s="128" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F260" s="19"/>
       <c r="G260" s="4"/>
@@ -9359,14 +9362,14 @@
       <c r="T260" s="4"/>
     </row>
     <row r="261" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="213"/>
-      <c r="B261" s="220"/>
-      <c r="C261" s="229"/>
-      <c r="D261" s="202" t="s">
+      <c r="A261" s="214"/>
+      <c r="B261" s="221"/>
+      <c r="C261" s="230"/>
+      <c r="D261" s="203" t="s">
         <v>102</v>
       </c>
       <c r="E261" s="128" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F261" s="19"/>
       <c r="G261" s="4"/>
@@ -9385,10 +9388,10 @@
       <c r="T261" s="4"/>
     </row>
     <row r="262" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="213"/>
-      <c r="B262" s="220"/>
-      <c r="C262" s="229"/>
-      <c r="D262" s="203"/>
+      <c r="A262" s="214"/>
+      <c r="B262" s="221"/>
+      <c r="C262" s="230"/>
+      <c r="D262" s="204"/>
       <c r="E262" s="128" t="s">
         <v>156</v>
       </c>
@@ -9409,9 +9412,9 @@
       <c r="T262" s="4"/>
     </row>
     <row r="263" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="213"/>
-      <c r="B263" s="220"/>
-      <c r="C263" s="229"/>
+      <c r="A263" s="214"/>
+      <c r="B263" s="221"/>
+      <c r="C263" s="230"/>
       <c r="D263" s="126"/>
       <c r="E263" s="128" t="s">
         <v>157</v>
@@ -9433,9 +9436,9 @@
       <c r="T263" s="4"/>
     </row>
     <row r="264" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="213"/>
-      <c r="B264" s="220"/>
-      <c r="C264" s="229"/>
+      <c r="A264" s="214"/>
+      <c r="B264" s="221"/>
+      <c r="C264" s="230"/>
       <c r="D264" s="126"/>
       <c r="E264" s="128" t="s">
         <v>158</v>
@@ -9457,12 +9460,12 @@
       <c r="T264" s="4"/>
     </row>
     <row r="265" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="213"/>
-      <c r="B265" s="220"/>
-      <c r="C265" s="229"/>
+      <c r="A265" s="214"/>
+      <c r="B265" s="221"/>
+      <c r="C265" s="230"/>
       <c r="D265" s="126"/>
       <c r="E265" s="128" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F265" s="19"/>
       <c r="G265" s="4"/>
@@ -9481,10 +9484,10 @@
       <c r="T265" s="4"/>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" s="213"/>
-      <c r="B266" s="220"/>
-      <c r="C266" s="229"/>
-      <c r="D266" s="200"/>
+      <c r="A266" s="214"/>
+      <c r="B266" s="221"/>
+      <c r="C266" s="230"/>
+      <c r="D266" s="201"/>
       <c r="E266" s="130" t="s">
         <v>162</v>
       </c>
@@ -9505,12 +9508,12 @@
       <c r="T266" s="4"/>
     </row>
     <row r="267" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="225"/>
-      <c r="B267" s="227"/>
-      <c r="C267" s="230"/>
-      <c r="D267" s="201"/>
+      <c r="A267" s="226"/>
+      <c r="B267" s="228"/>
+      <c r="C267" s="231"/>
+      <c r="D267" s="202"/>
       <c r="E267" s="131" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F267" s="49"/>
       <c r="G267" s="4"/>
@@ -9529,16 +9532,16 @@
       <c r="T267" s="4"/>
     </row>
     <row r="268" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="224" t="s">
+      <c r="A268" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="B268" s="226" t="s">
-        <v>275</v>
-      </c>
-      <c r="C268" s="221" t="s">
-        <v>272</v>
-      </c>
-      <c r="D268" s="204" t="s">
+      <c r="B268" s="227" t="s">
+        <v>273</v>
+      </c>
+      <c r="C268" s="222" t="s">
+        <v>270</v>
+      </c>
+      <c r="D268" s="205" t="s">
         <v>102</v>
       </c>
       <c r="E268" s="127"/>
@@ -9559,12 +9562,12 @@
       <c r="T268" s="4"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269" s="213"/>
-      <c r="B269" s="220"/>
-      <c r="C269" s="216"/>
-      <c r="D269" s="205"/>
+      <c r="A269" s="214"/>
+      <c r="B269" s="221"/>
+      <c r="C269" s="217"/>
+      <c r="D269" s="206"/>
       <c r="E269" s="128" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F269" s="19"/>
       <c r="G269" s="4"/>
@@ -9583,12 +9586,12 @@
       <c r="T269" s="4"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270" s="213"/>
-      <c r="B270" s="220"/>
-      <c r="C270" s="216"/>
-      <c r="D270" s="205"/>
+      <c r="A270" s="214"/>
+      <c r="B270" s="221"/>
+      <c r="C270" s="217"/>
+      <c r="D270" s="206"/>
       <c r="E270" s="50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F270" s="19"/>
       <c r="G270" s="4"/>
@@ -9607,12 +9610,12 @@
       <c r="T270" s="4"/>
     </row>
     <row r="271" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A271" s="213"/>
-      <c r="B271" s="220"/>
-      <c r="C271" s="216"/>
-      <c r="D271" s="205"/>
+      <c r="A271" s="214"/>
+      <c r="B271" s="221"/>
+      <c r="C271" s="217"/>
+      <c r="D271" s="206"/>
       <c r="E271" s="166" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F271" s="19"/>
       <c r="G271" s="4"/>
@@ -9631,10 +9634,10 @@
       <c r="T271" s="4"/>
     </row>
     <row r="272" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="225"/>
-      <c r="B272" s="227"/>
-      <c r="C272" s="222"/>
-      <c r="D272" s="205"/>
+      <c r="A272" s="226"/>
+      <c r="B272" s="228"/>
+      <c r="C272" s="223"/>
+      <c r="D272" s="206"/>
       <c r="E272" s="134"/>
       <c r="F272" s="49"/>
       <c r="G272" s="4"/>
@@ -9653,16 +9656,16 @@
       <c r="T272" s="4"/>
     </row>
     <row r="273" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="224" t="s">
+      <c r="A273" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="B273" s="226" t="s">
+      <c r="B273" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="C273" s="221" t="s">
+      <c r="C273" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="D273" s="204" t="s">
+      <c r="D273" s="205" t="s">
         <v>102</v>
       </c>
       <c r="E273" s="20"/>
@@ -9683,10 +9686,10 @@
       <c r="T273" s="4"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="213"/>
-      <c r="B274" s="220"/>
-      <c r="C274" s="216"/>
-      <c r="D274" s="205"/>
+      <c r="A274" s="214"/>
+      <c r="B274" s="221"/>
+      <c r="C274" s="217"/>
+      <c r="D274" s="206"/>
       <c r="E274" s="133" t="s">
         <v>161</v>
       </c>
@@ -9707,12 +9710,12 @@
       <c r="T274" s="4"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A275" s="213"/>
-      <c r="B275" s="220"/>
-      <c r="C275" s="216"/>
-      <c r="D275" s="205"/>
+      <c r="A275" s="214"/>
+      <c r="B275" s="221"/>
+      <c r="C275" s="217"/>
+      <c r="D275" s="206"/>
       <c r="E275" s="34" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F275" s="47"/>
       <c r="G275" s="4"/>
@@ -9731,10 +9734,10 @@
       <c r="T275" s="4"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" s="213"/>
-      <c r="B276" s="220"/>
-      <c r="C276" s="216"/>
-      <c r="D276" s="205"/>
+      <c r="A276" s="214"/>
+      <c r="B276" s="221"/>
+      <c r="C276" s="217"/>
+      <c r="D276" s="206"/>
       <c r="E276" s="13" t="s">
         <v>163</v>
       </c>
@@ -9755,12 +9758,12 @@
       <c r="T276" s="4"/>
     </row>
     <row r="277" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="213"/>
-      <c r="B277" s="220"/>
-      <c r="C277" s="216"/>
-      <c r="D277" s="205"/>
+      <c r="A277" s="214"/>
+      <c r="B277" s="221"/>
+      <c r="C277" s="217"/>
+      <c r="D277" s="206"/>
       <c r="E277" s="13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F277" s="47"/>
       <c r="G277" s="4"/>
@@ -9779,10 +9782,10 @@
       <c r="T277" s="4"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" s="213"/>
-      <c r="B278" s="220"/>
-      <c r="C278" s="216"/>
-      <c r="D278" s="205"/>
+      <c r="A278" s="214"/>
+      <c r="B278" s="221"/>
+      <c r="C278" s="217"/>
+      <c r="D278" s="206"/>
       <c r="E278" s="13"/>
       <c r="F278" s="47"/>
       <c r="G278" s="4"/>
@@ -9801,10 +9804,10 @@
       <c r="T278" s="4"/>
     </row>
     <row r="279" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="225"/>
-      <c r="B279" s="227"/>
-      <c r="C279" s="222"/>
-      <c r="D279" s="223"/>
+      <c r="A279" s="226"/>
+      <c r="B279" s="228"/>
+      <c r="C279" s="223"/>
+      <c r="D279" s="224"/>
       <c r="E279" s="135"/>
       <c r="F279" s="48"/>
       <c r="G279" s="4"/>
@@ -9823,16 +9826,16 @@
       <c r="T279" s="4"/>
     </row>
     <row r="280" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="224" t="s">
+      <c r="A280" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="B280" s="226" t="s">
+      <c r="B280" s="227" t="s">
         <v>164</v>
       </c>
-      <c r="C280" s="221" t="s">
+      <c r="C280" s="222" t="s">
         <v>165</v>
       </c>
-      <c r="D280" s="204" t="s">
+      <c r="D280" s="205" t="s">
         <v>102</v>
       </c>
       <c r="E280" s="20"/>
@@ -9853,12 +9856,12 @@
       <c r="T280" s="4"/>
     </row>
     <row r="281" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="213"/>
-      <c r="B281" s="220"/>
-      <c r="C281" s="216"/>
-      <c r="D281" s="205"/>
+      <c r="A281" s="214"/>
+      <c r="B281" s="221"/>
+      <c r="C281" s="217"/>
+      <c r="D281" s="206"/>
       <c r="E281" s="136" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F281" s="64"/>
       <c r="G281" s="4"/>
@@ -9877,12 +9880,12 @@
       <c r="T281" s="4"/>
     </row>
     <row r="282" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="213"/>
-      <c r="B282" s="220"/>
-      <c r="C282" s="216"/>
-      <c r="D282" s="205"/>
+      <c r="A282" s="214"/>
+      <c r="B282" s="221"/>
+      <c r="C282" s="217"/>
+      <c r="D282" s="206"/>
       <c r="E282" s="136" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F282" s="64"/>
       <c r="G282" s="4"/>
@@ -9901,10 +9904,10 @@
       <c r="T282" s="4"/>
     </row>
     <row r="283" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="213"/>
-      <c r="B283" s="220"/>
-      <c r="C283" s="216"/>
-      <c r="D283" s="205"/>
+      <c r="A283" s="214"/>
+      <c r="B283" s="221"/>
+      <c r="C283" s="217"/>
+      <c r="D283" s="206"/>
       <c r="E283" s="136" t="s">
         <v>167</v>
       </c>
@@ -9925,10 +9928,10 @@
       <c r="T283" s="4"/>
     </row>
     <row r="284" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="213"/>
-      <c r="B284" s="220"/>
-      <c r="C284" s="216"/>
-      <c r="D284" s="205"/>
+      <c r="A284" s="214"/>
+      <c r="B284" s="221"/>
+      <c r="C284" s="217"/>
+      <c r="D284" s="206"/>
       <c r="E284" s="133" t="s">
         <v>168</v>
       </c>
@@ -9949,12 +9952,12 @@
       <c r="T284" s="4"/>
     </row>
     <row r="285" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="213"/>
-      <c r="B285" s="220"/>
-      <c r="C285" s="216"/>
-      <c r="D285" s="205"/>
+      <c r="A285" s="214"/>
+      <c r="B285" s="221"/>
+      <c r="C285" s="217"/>
+      <c r="D285" s="206"/>
       <c r="E285" s="133" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F285" s="64"/>
       <c r="G285" s="4"/>
@@ -9973,10 +9976,10 @@
       <c r="T285" s="4"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="213"/>
-      <c r="B286" s="220"/>
-      <c r="C286" s="216"/>
-      <c r="D286" s="205"/>
+      <c r="A286" s="214"/>
+      <c r="B286" s="221"/>
+      <c r="C286" s="217"/>
+      <c r="D286" s="206"/>
       <c r="E286" s="133"/>
       <c r="F286" s="123"/>
       <c r="G286" s="4"/>
@@ -9995,10 +9998,10 @@
       <c r="T286" s="4"/>
     </row>
     <row r="287" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="225"/>
-      <c r="B287" s="227"/>
-      <c r="C287" s="222"/>
-      <c r="D287" s="223"/>
+      <c r="A287" s="226"/>
+      <c r="B287" s="228"/>
+      <c r="C287" s="223"/>
+      <c r="D287" s="224"/>
       <c r="E287" s="136"/>
       <c r="F287" s="48"/>
       <c r="G287" s="4"/>
@@ -10017,16 +10020,16 @@
       <c r="T287" s="4"/>
     </row>
     <row r="288" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="224" t="s">
+      <c r="A288" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="B288" s="226" t="s">
+      <c r="B288" s="227" t="s">
         <v>169</v>
       </c>
-      <c r="C288" s="221" t="s">
+      <c r="C288" s="222" t="s">
         <v>170</v>
       </c>
-      <c r="D288" s="204" t="s">
+      <c r="D288" s="205" t="s">
         <v>102</v>
       </c>
       <c r="E288" s="20"/>
@@ -10047,12 +10050,12 @@
       <c r="T288" s="4"/>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A289" s="213"/>
-      <c r="B289" s="220"/>
-      <c r="C289" s="216"/>
-      <c r="D289" s="205"/>
+      <c r="A289" s="214"/>
+      <c r="B289" s="221"/>
+      <c r="C289" s="217"/>
+      <c r="D289" s="206"/>
       <c r="E289" s="133" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F289" s="123"/>
       <c r="G289" s="4"/>
@@ -10071,10 +10074,10 @@
       <c r="T289" s="4"/>
     </row>
     <row r="290" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="213"/>
-      <c r="B290" s="220"/>
-      <c r="C290" s="216"/>
-      <c r="D290" s="205"/>
+      <c r="A290" s="214"/>
+      <c r="B290" s="221"/>
+      <c r="C290" s="217"/>
+      <c r="D290" s="206"/>
       <c r="E290" s="13" t="s">
         <v>166</v>
       </c>
@@ -10095,10 +10098,10 @@
       <c r="T290" s="4"/>
     </row>
     <row r="291" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="213"/>
-      <c r="B291" s="220"/>
-      <c r="C291" s="216"/>
-      <c r="D291" s="205"/>
+      <c r="A291" s="214"/>
+      <c r="B291" s="221"/>
+      <c r="C291" s="217"/>
+      <c r="D291" s="206"/>
       <c r="E291" s="13" t="s">
         <v>171</v>
       </c>
@@ -10119,10 +10122,10 @@
       <c r="T291" s="4"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="213"/>
-      <c r="B292" s="220"/>
-      <c r="C292" s="216"/>
-      <c r="D292" s="205"/>
+      <c r="A292" s="214"/>
+      <c r="B292" s="221"/>
+      <c r="C292" s="217"/>
+      <c r="D292" s="206"/>
       <c r="E292" s="34" t="s">
         <v>172</v>
       </c>
@@ -10143,10 +10146,10 @@
       <c r="T292" s="4"/>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A293" s="213"/>
-      <c r="B293" s="220"/>
-      <c r="C293" s="216"/>
-      <c r="D293" s="205"/>
+      <c r="A293" s="214"/>
+      <c r="B293" s="221"/>
+      <c r="C293" s="217"/>
+      <c r="D293" s="206"/>
       <c r="E293" s="13" t="s">
         <v>173</v>
       </c>
@@ -10167,10 +10170,10 @@
       <c r="T293" s="4"/>
     </row>
     <row r="294" spans="1:20" s="98" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A294" s="213"/>
-      <c r="B294" s="220"/>
-      <c r="C294" s="216"/>
-      <c r="D294" s="205"/>
+      <c r="A294" s="214"/>
+      <c r="B294" s="221"/>
+      <c r="C294" s="217"/>
+      <c r="D294" s="206"/>
       <c r="E294" s="113" t="s">
         <v>174</v>
       </c>
@@ -10191,10 +10194,10 @@
       <c r="T294" s="4"/>
     </row>
     <row r="295" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="213"/>
-      <c r="B295" s="220"/>
-      <c r="C295" s="216"/>
-      <c r="D295" s="205"/>
+      <c r="A295" s="214"/>
+      <c r="B295" s="221"/>
+      <c r="C295" s="217"/>
+      <c r="D295" s="206"/>
       <c r="E295" s="13" t="s">
         <v>175</v>
       </c>
@@ -10215,10 +10218,10 @@
       <c r="T295" s="4"/>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A296" s="213"/>
-      <c r="B296" s="220"/>
-      <c r="C296" s="216"/>
-      <c r="D296" s="205"/>
+      <c r="A296" s="214"/>
+      <c r="B296" s="221"/>
+      <c r="C296" s="217"/>
+      <c r="D296" s="206"/>
       <c r="E296" s="132" t="s">
         <v>176</v>
       </c>
@@ -10239,10 +10242,10 @@
       <c r="T296" s="4"/>
     </row>
     <row r="297" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="213"/>
-      <c r="B297" s="220"/>
-      <c r="C297" s="216"/>
-      <c r="D297" s="205"/>
+      <c r="A297" s="214"/>
+      <c r="B297" s="221"/>
+      <c r="C297" s="217"/>
+      <c r="D297" s="206"/>
       <c r="E297" s="133" t="s">
         <v>177</v>
       </c>
@@ -10263,10 +10266,10 @@
       <c r="T297" s="4"/>
     </row>
     <row r="298" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="225"/>
-      <c r="B298" s="227"/>
-      <c r="C298" s="222"/>
-      <c r="D298" s="223"/>
+      <c r="A298" s="226"/>
+      <c r="B298" s="228"/>
+      <c r="C298" s="223"/>
+      <c r="D298" s="224"/>
       <c r="E298" s="138" t="s">
         <v>178</v>
       </c>
@@ -10287,16 +10290,16 @@
       <c r="T298" s="4"/>
     </row>
     <row r="299" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="191" t="s">
+      <c r="A299" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="B299" s="183" t="s">
+      <c r="B299" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="C299" s="187" t="s">
+      <c r="C299" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="D299" s="188" t="s">
+      <c r="D299" s="189" t="s">
         <v>102</v>
       </c>
       <c r="E299" s="34"/>
@@ -10317,12 +10320,12 @@
       <c r="T299" s="4"/>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A300" s="175"/>
-      <c r="B300" s="184"/>
-      <c r="C300" s="184"/>
-      <c r="D300" s="189"/>
+      <c r="A300" s="176"/>
+      <c r="B300" s="185"/>
+      <c r="C300" s="185"/>
+      <c r="D300" s="190"/>
       <c r="E300" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F300" s="123"/>
       <c r="G300" s="4"/>
@@ -10341,10 +10344,10 @@
       <c r="T300" s="4"/>
     </row>
     <row r="301" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="181"/>
-      <c r="B301" s="185"/>
-      <c r="C301" s="185"/>
-      <c r="D301" s="189"/>
+      <c r="A301" s="182"/>
+      <c r="B301" s="186"/>
+      <c r="C301" s="186"/>
+      <c r="D301" s="190"/>
       <c r="E301" s="34" t="s">
         <v>181</v>
       </c>
@@ -10365,10 +10368,10 @@
       <c r="T301" s="4"/>
     </row>
     <row r="302" spans="1:20" s="98" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A302" s="181"/>
-      <c r="B302" s="185"/>
-      <c r="C302" s="185"/>
-      <c r="D302" s="189"/>
+      <c r="A302" s="182"/>
+      <c r="B302" s="186"/>
+      <c r="C302" s="186"/>
+      <c r="D302" s="190"/>
       <c r="E302" s="34" t="s">
         <v>182</v>
       </c>
@@ -10389,10 +10392,10 @@
       <c r="T302" s="4"/>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A303" s="175"/>
-      <c r="B303" s="184"/>
-      <c r="C303" s="184"/>
-      <c r="D303" s="184"/>
+      <c r="A303" s="176"/>
+      <c r="B303" s="185"/>
+      <c r="C303" s="185"/>
+      <c r="D303" s="185"/>
       <c r="E303" s="34"/>
       <c r="F303" s="47"/>
       <c r="G303" s="4"/>
@@ -10411,10 +10414,10 @@
       <c r="T303" s="4"/>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A304" s="175"/>
-      <c r="B304" s="184"/>
-      <c r="C304" s="184"/>
-      <c r="D304" s="184"/>
+      <c r="A304" s="176"/>
+      <c r="B304" s="185"/>
+      <c r="C304" s="185"/>
+      <c r="D304" s="185"/>
       <c r="E304" s="132"/>
       <c r="F304" s="47"/>
       <c r="G304" s="4"/>
@@ -10433,10 +10436,10 @@
       <c r="T304" s="4"/>
     </row>
     <row r="305" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="176"/>
-      <c r="B305" s="186"/>
-      <c r="C305" s="186"/>
-      <c r="D305" s="190"/>
+      <c r="A305" s="177"/>
+      <c r="B305" s="187"/>
+      <c r="C305" s="187"/>
+      <c r="D305" s="191"/>
       <c r="E305" s="140"/>
       <c r="F305" s="139"/>
       <c r="G305" s="4"/>
@@ -10455,16 +10458,16 @@
       <c r="T305" s="4"/>
     </row>
     <row r="306" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="191" t="s">
+      <c r="A306" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B306" s="183" t="s">
+      <c r="B306" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="C306" s="187" t="s">
+      <c r="C306" s="188" t="s">
         <v>185</v>
       </c>
-      <c r="D306" s="192" t="s">
+      <c r="D306" s="193" t="s">
         <v>102</v>
       </c>
       <c r="E306" s="20"/>
@@ -10485,12 +10488,12 @@
       <c r="T306" s="4"/>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A307" s="175"/>
-      <c r="B307" s="184"/>
-      <c r="C307" s="184"/>
-      <c r="D307" s="192"/>
+      <c r="A307" s="176"/>
+      <c r="B307" s="185"/>
+      <c r="C307" s="185"/>
+      <c r="D307" s="193"/>
       <c r="E307" s="133" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F307" s="123"/>
       <c r="G307" s="4"/>
@@ -10509,9 +10512,9 @@
       <c r="T307" s="4"/>
     </row>
     <row r="308" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="181"/>
-      <c r="B308" s="185"/>
-      <c r="C308" s="185"/>
+      <c r="A308" s="182"/>
+      <c r="B308" s="186"/>
+      <c r="C308" s="186"/>
       <c r="D308" s="163"/>
       <c r="E308" s="34" t="s">
         <v>184</v>
@@ -10533,12 +10536,12 @@
       <c r="T308" s="4"/>
     </row>
     <row r="309" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="181"/>
-      <c r="B309" s="185"/>
-      <c r="C309" s="185"/>
+      <c r="A309" s="182"/>
+      <c r="B309" s="186"/>
+      <c r="C309" s="186"/>
       <c r="D309" s="163"/>
       <c r="E309" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F309" s="123"/>
       <c r="G309" s="4"/>
@@ -10557,14 +10560,14 @@
       <c r="T309" s="4"/>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A310" s="175"/>
-      <c r="B310" s="184"/>
-      <c r="C310" s="184"/>
+      <c r="A310" s="176"/>
+      <c r="B310" s="185"/>
+      <c r="C310" s="185"/>
       <c r="D310" s="126" t="s">
         <v>187</v>
       </c>
       <c r="E310" s="167" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F310" s="47"/>
       <c r="G310" s="4"/>
@@ -10583,9 +10586,9 @@
       <c r="T310" s="4"/>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A311" s="175"/>
-      <c r="B311" s="184"/>
-      <c r="C311" s="184"/>
+      <c r="A311" s="176"/>
+      <c r="B311" s="185"/>
+      <c r="C311" s="185"/>
       <c r="D311" s="126"/>
       <c r="E311" s="13" t="s">
         <v>188</v>
@@ -10607,12 +10610,12 @@
       <c r="T311" s="4"/>
     </row>
     <row r="312" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="181"/>
-      <c r="B312" s="185"/>
-      <c r="C312" s="185"/>
+      <c r="A312" s="182"/>
+      <c r="B312" s="186"/>
+      <c r="C312" s="186"/>
       <c r="D312" s="163"/>
       <c r="E312" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F312" s="47"/>
       <c r="G312" s="4"/>
@@ -10631,12 +10634,12 @@
       <c r="T312" s="4"/>
     </row>
     <row r="313" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="175"/>
-      <c r="B313" s="184"/>
-      <c r="C313" s="184"/>
-      <c r="D313" s="192"/>
+      <c r="A313" s="176"/>
+      <c r="B313" s="185"/>
+      <c r="C313" s="185"/>
+      <c r="D313" s="193"/>
       <c r="E313" s="135" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F313" s="47"/>
       <c r="G313" s="4"/>
@@ -10655,10 +10658,10 @@
       <c r="T313" s="4"/>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A314" s="175"/>
-      <c r="B314" s="184"/>
-      <c r="C314" s="184"/>
-      <c r="D314" s="192"/>
+      <c r="A314" s="176"/>
+      <c r="B314" s="185"/>
+      <c r="C314" s="185"/>
+      <c r="D314" s="193"/>
       <c r="F314" s="47"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
@@ -10676,9 +10679,9 @@
       <c r="T314" s="4"/>
     </row>
     <row r="315" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="176"/>
-      <c r="B315" s="186"/>
-      <c r="C315" s="186"/>
+      <c r="A315" s="177"/>
+      <c r="B315" s="187"/>
+      <c r="C315" s="187"/>
       <c r="D315" s="108"/>
       <c r="E315" s="135"/>
       <c r="F315" s="48"/>
@@ -10698,16 +10701,16 @@
       <c r="T315" s="4"/>
     </row>
     <row r="316" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="174" t="s">
+      <c r="A316" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="B316" s="183" t="s">
-        <v>279</v>
-      </c>
-      <c r="C316" s="187" t="s">
+      <c r="B316" s="184" t="s">
+        <v>277</v>
+      </c>
+      <c r="C316" s="188" t="s">
         <v>186</v>
       </c>
-      <c r="D316" s="212" t="s">
+      <c r="D316" s="213" t="s">
         <v>102</v>
       </c>
       <c r="E316" s="133"/>
@@ -10728,12 +10731,12 @@
       <c r="T316" s="4"/>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A317" s="175"/>
-      <c r="B317" s="184"/>
-      <c r="C317" s="184"/>
-      <c r="D317" s="192"/>
+      <c r="A317" s="176"/>
+      <c r="B317" s="185"/>
+      <c r="C317" s="185"/>
+      <c r="D317" s="193"/>
       <c r="E317" s="34" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F317" s="123"/>
       <c r="G317" s="4"/>
@@ -10752,9 +10755,9 @@
       <c r="T317" s="4"/>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A318" s="175"/>
-      <c r="B318" s="184"/>
-      <c r="C318" s="184"/>
+      <c r="A318" s="176"/>
+      <c r="B318" s="185"/>
+      <c r="C318" s="185"/>
       <c r="D318" s="126" t="s">
         <v>187</v>
       </c>
@@ -10778,12 +10781,12 @@
       <c r="T318" s="4"/>
     </row>
     <row r="319" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="181"/>
-      <c r="B319" s="185"/>
-      <c r="C319" s="185"/>
+      <c r="A319" s="182"/>
+      <c r="B319" s="186"/>
+      <c r="C319" s="186"/>
       <c r="D319" s="163"/>
       <c r="E319" s="34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F319" s="47"/>
       <c r="G319" s="4"/>
@@ -10802,9 +10805,9 @@
       <c r="T319" s="4"/>
     </row>
     <row r="320" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="181"/>
-      <c r="B320" s="185"/>
-      <c r="C320" s="185"/>
+      <c r="A320" s="182"/>
+      <c r="B320" s="186"/>
+      <c r="C320" s="186"/>
       <c r="D320" s="163"/>
       <c r="F320" s="47"/>
       <c r="G320" s="4"/>
@@ -10823,11 +10826,11 @@
       <c r="T320" s="4"/>
     </row>
     <row r="321" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A321" s="175"/>
-      <c r="B321" s="184"/>
-      <c r="C321" s="184"/>
+      <c r="A321" s="176"/>
+      <c r="B321" s="185"/>
+      <c r="C321" s="185"/>
       <c r="D321" s="126" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E321" s="13"/>
       <c r="F321" s="47"/>
@@ -10847,9 +10850,9 @@
       <c r="T321" s="4"/>
     </row>
     <row r="322" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="176"/>
-      <c r="B322" s="186"/>
-      <c r="C322" s="186"/>
+      <c r="A322" s="177"/>
+      <c r="B322" s="187"/>
+      <c r="C322" s="187"/>
       <c r="D322" s="108"/>
       <c r="E322" s="135"/>
       <c r="F322" s="48"/>
@@ -10869,14 +10872,14 @@
       <c r="T322" s="4"/>
     </row>
     <row r="323" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="191" t="s">
+      <c r="A323" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="B323" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="C323" s="187" t="s">
-        <v>292</v>
+      <c r="B323" s="184" t="s">
+        <v>288</v>
+      </c>
+      <c r="C323" s="188" t="s">
+        <v>289</v>
       </c>
       <c r="D323" s="163"/>
       <c r="E323" s="133" t="s">
@@ -10899,14 +10902,14 @@
       <c r="T323" s="4"/>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A324" s="175"/>
-      <c r="B324" s="184"/>
-      <c r="C324" s="184"/>
+      <c r="A324" s="176"/>
+      <c r="B324" s="185"/>
+      <c r="C324" s="185"/>
       <c r="D324" s="173" t="s">
         <v>102</v>
       </c>
       <c r="E324" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F324" s="123"/>
       <c r="G324" s="4"/>
@@ -10925,14 +10928,14 @@
       <c r="T324" s="4"/>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A325" s="175"/>
-      <c r="B325" s="184"/>
-      <c r="C325" s="184"/>
+      <c r="A325" s="176"/>
+      <c r="B325" s="185"/>
+      <c r="C325" s="185"/>
       <c r="D325" s="163" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F325" s="47"/>
       <c r="G325" s="4"/>
@@ -10951,12 +10954,12 @@
       <c r="T325" s="4"/>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A326" s="175"/>
-      <c r="B326" s="184"/>
-      <c r="C326" s="184"/>
+      <c r="A326" s="176"/>
+      <c r="B326" s="185"/>
+      <c r="C326" s="185"/>
       <c r="D326" s="163"/>
       <c r="E326" s="13" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F326" s="47"/>
       <c r="G326" s="4"/>
@@ -10975,12 +10978,12 @@
       <c r="T326" s="4"/>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A327" s="175"/>
-      <c r="B327" s="184"/>
-      <c r="C327" s="184"/>
+      <c r="A327" s="176"/>
+      <c r="B327" s="185"/>
+      <c r="C327" s="185"/>
       <c r="D327" s="173"/>
       <c r="E327" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F327" s="47"/>
       <c r="G327" s="4"/>
@@ -10999,12 +11002,12 @@
       <c r="T327" s="4"/>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A328" s="175"/>
-      <c r="B328" s="184"/>
-      <c r="C328" s="184"/>
+      <c r="A328" s="176"/>
+      <c r="B328" s="185"/>
+      <c r="C328" s="185"/>
       <c r="D328" s="173"/>
       <c r="E328" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F328" s="47"/>
       <c r="G328" s="4"/>
@@ -11023,9 +11026,9 @@
       <c r="T328" s="4"/>
     </row>
     <row r="329" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="176"/>
-      <c r="B329" s="186"/>
-      <c r="C329" s="186"/>
+      <c r="A329" s="177"/>
+      <c r="B329" s="187"/>
+      <c r="C329" s="187"/>
       <c r="D329" s="108"/>
       <c r="E329" s="135"/>
       <c r="F329" s="48"/>
@@ -11045,16 +11048,16 @@
       <c r="T329" s="4"/>
     </row>
     <row r="330" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="191" t="s">
+      <c r="A330" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="B330" s="183" t="s">
+      <c r="B330" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="C330" s="187" t="s">
+      <c r="C330" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="D330" s="188"/>
+      <c r="D330" s="189"/>
       <c r="E330" s="20"/>
       <c r="F330" s="50"/>
       <c r="G330" s="4"/>
@@ -11073,10 +11076,10 @@
       <c r="T330" s="4"/>
     </row>
     <row r="331" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="213"/>
-      <c r="B331" s="220"/>
-      <c r="C331" s="216"/>
-      <c r="D331" s="205"/>
+      <c r="A331" s="214"/>
+      <c r="B331" s="221"/>
+      <c r="C331" s="217"/>
+      <c r="D331" s="206"/>
       <c r="E331" s="133" t="s">
         <v>189</v>
       </c>
@@ -11096,13 +11099,13 @@
       <c r="S331" s="4"/>
       <c r="T331" s="4"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A332" s="175"/>
-      <c r="B332" s="184"/>
-      <c r="C332" s="184"/>
-      <c r="D332" s="189"/>
+    <row r="332" spans="1:20" ht="33" x14ac:dyDescent="0.3">
+      <c r="A332" s="176"/>
+      <c r="B332" s="185"/>
+      <c r="C332" s="185"/>
+      <c r="D332" s="190"/>
       <c r="E332" s="34" t="s">
-        <v>192</v>
+        <v>366</v>
       </c>
       <c r="F332" s="123"/>
       <c r="G332" s="4"/>
@@ -11121,10 +11124,10 @@
       <c r="T332" s="4"/>
     </row>
     <row r="333" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="176"/>
-      <c r="B333" s="186"/>
-      <c r="C333" s="186"/>
-      <c r="D333" s="186"/>
+      <c r="A333" s="177"/>
+      <c r="B333" s="187"/>
+      <c r="C333" s="187"/>
+      <c r="D333" s="187"/>
       <c r="E333" s="136"/>
       <c r="F333" s="48"/>
       <c r="G333" s="4"/>
@@ -11143,16 +11146,16 @@
       <c r="T333" s="4"/>
     </row>
     <row r="334" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="191" t="s">
+      <c r="A334" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="B334" s="183" t="s">
+      <c r="B334" s="184" t="s">
+        <v>192</v>
+      </c>
+      <c r="C334" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="C334" s="187" t="s">
-        <v>194</v>
-      </c>
-      <c r="D334" s="188" t="s">
+      <c r="D334" s="189" t="s">
         <v>102</v>
       </c>
       <c r="E334" s="20"/>
@@ -11173,12 +11176,12 @@
       <c r="T334" s="4"/>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A335" s="175"/>
-      <c r="B335" s="184"/>
-      <c r="C335" s="184"/>
-      <c r="D335" s="189"/>
+      <c r="A335" s="176"/>
+      <c r="B335" s="185"/>
+      <c r="C335" s="185"/>
+      <c r="D335" s="190"/>
       <c r="E335" s="133" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F335" s="123"/>
       <c r="G335" s="4"/>
@@ -11197,12 +11200,12 @@
       <c r="T335" s="4"/>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A336" s="175"/>
-      <c r="B336" s="184"/>
-      <c r="C336" s="184"/>
-      <c r="D336" s="184"/>
+      <c r="A336" s="176"/>
+      <c r="B336" s="185"/>
+      <c r="C336" s="185"/>
+      <c r="D336" s="185"/>
       <c r="E336" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F336" s="47"/>
       <c r="G336" s="4"/>
@@ -11221,10 +11224,10 @@
       <c r="T336" s="4"/>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A337" s="175"/>
-      <c r="B337" s="184"/>
-      <c r="C337" s="184"/>
-      <c r="D337" s="184"/>
+      <c r="A337" s="176"/>
+      <c r="B337" s="185"/>
+      <c r="C337" s="185"/>
+      <c r="D337" s="185"/>
       <c r="E337" s="13"/>
       <c r="F337" s="47"/>
       <c r="G337" s="4"/>
@@ -11243,10 +11246,10 @@
       <c r="T337" s="4"/>
     </row>
     <row r="338" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="176"/>
-      <c r="B338" s="186"/>
-      <c r="C338" s="186"/>
-      <c r="D338" s="186"/>
+      <c r="A338" s="177"/>
+      <c r="B338" s="187"/>
+      <c r="C338" s="187"/>
+      <c r="D338" s="187"/>
       <c r="E338" s="135"/>
       <c r="F338" s="47"/>
       <c r="G338" s="4"/>
@@ -11265,16 +11268,16 @@
       <c r="T338" s="4"/>
     </row>
     <row r="339" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="191" t="s">
+      <c r="A339" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="B339" s="177" t="s">
+      <c r="B339" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="C339" s="181" t="s">
         <v>197</v>
       </c>
-      <c r="C339" s="180" t="s">
-        <v>198</v>
-      </c>
-      <c r="D339" s="218" t="s">
+      <c r="D339" s="219" t="s">
         <v>102</v>
       </c>
       <c r="E339" s="20"/>
@@ -11295,10 +11298,10 @@
       <c r="T339" s="4"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A340" s="175"/>
-      <c r="B340" s="178"/>
-      <c r="C340" s="178"/>
-      <c r="D340" s="219"/>
+      <c r="A340" s="176"/>
+      <c r="B340" s="179"/>
+      <c r="C340" s="179"/>
+      <c r="D340" s="220"/>
       <c r="E340" s="133" t="s">
         <v>152</v>
       </c>
@@ -11319,12 +11322,12 @@
       <c r="T340" s="4"/>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A341" s="175"/>
-      <c r="B341" s="178"/>
-      <c r="C341" s="178"/>
-      <c r="D341" s="178"/>
+      <c r="A341" s="176"/>
+      <c r="B341" s="179"/>
+      <c r="C341" s="179"/>
+      <c r="D341" s="179"/>
       <c r="E341" s="141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F341" s="54"/>
       <c r="G341" s="4"/>
@@ -11343,12 +11346,12 @@
       <c r="T341" s="4"/>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A342" s="175"/>
-      <c r="B342" s="178"/>
-      <c r="C342" s="178"/>
-      <c r="D342" s="178"/>
+      <c r="A342" s="176"/>
+      <c r="B342" s="179"/>
+      <c r="C342" s="179"/>
+      <c r="D342" s="179"/>
       <c r="E342" s="142" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F342" s="53"/>
       <c r="G342" s="4"/>
@@ -11367,10 +11370,10 @@
       <c r="T342" s="4"/>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A343" s="175"/>
-      <c r="B343" s="178"/>
-      <c r="C343" s="178"/>
-      <c r="D343" s="178"/>
+      <c r="A343" s="176"/>
+      <c r="B343" s="179"/>
+      <c r="C343" s="179"/>
+      <c r="D343" s="179"/>
       <c r="E343" s="34"/>
       <c r="F343" s="54"/>
       <c r="G343" s="4"/>
@@ -11389,10 +11392,10 @@
       <c r="T343" s="4"/>
     </row>
     <row r="344" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="176"/>
-      <c r="B344" s="179"/>
-      <c r="C344" s="179"/>
-      <c r="D344" s="179"/>
+      <c r="A344" s="177"/>
+      <c r="B344" s="180"/>
+      <c r="C344" s="180"/>
+      <c r="D344" s="180"/>
       <c r="E344" s="135"/>
       <c r="F344" s="55"/>
       <c r="G344" s="4"/>
@@ -11411,14 +11414,14 @@
       <c r="T344" s="4"/>
     </row>
     <row r="345" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="174" t="s">
+      <c r="A345" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="B345" s="177" t="s">
+      <c r="B345" s="178" t="s">
+        <v>199</v>
+      </c>
+      <c r="C345" s="181" t="s">
         <v>200</v>
-      </c>
-      <c r="C345" s="180" t="s">
-        <v>201</v>
       </c>
       <c r="D345" s="82" t="s">
         <v>102</v>
@@ -11441,14 +11444,14 @@
       <c r="T345" s="4"/>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A346" s="175"/>
-      <c r="B346" s="178"/>
-      <c r="C346" s="178"/>
+      <c r="A346" s="176"/>
+      <c r="B346" s="179"/>
+      <c r="C346" s="179"/>
       <c r="D346" s="143" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E346" s="144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F346" s="30"/>
       <c r="G346" s="4"/>
@@ -11467,9 +11470,9 @@
       <c r="T346" s="4"/>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A347" s="175"/>
-      <c r="B347" s="178"/>
-      <c r="C347" s="178"/>
+      <c r="A347" s="176"/>
+      <c r="B347" s="179"/>
+      <c r="C347" s="179"/>
       <c r="D347" s="80"/>
       <c r="E347" s="145" t="s">
         <v>184</v>
@@ -11491,12 +11494,12 @@
       <c r="T347" s="4"/>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A348" s="175"/>
-      <c r="B348" s="178"/>
-      <c r="C348" s="178"/>
+      <c r="A348" s="176"/>
+      <c r="B348" s="179"/>
+      <c r="C348" s="179"/>
       <c r="D348" s="82"/>
       <c r="E348" s="111" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F348" s="31"/>
       <c r="G348" s="4"/>
@@ -11515,12 +11518,12 @@
       <c r="T348" s="4"/>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A349" s="175"/>
-      <c r="B349" s="178"/>
-      <c r="C349" s="178"/>
+      <c r="A349" s="176"/>
+      <c r="B349" s="179"/>
+      <c r="C349" s="179"/>
       <c r="D349" s="81"/>
       <c r="E349" s="58" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F349" s="61"/>
       <c r="G349" s="4"/>
@@ -11539,9 +11542,9 @@
       <c r="T349" s="4"/>
     </row>
     <row r="350" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="176"/>
-      <c r="B350" s="179"/>
-      <c r="C350" s="179"/>
+      <c r="A350" s="177"/>
+      <c r="B350" s="180"/>
+      <c r="C350" s="180"/>
       <c r="D350" s="100"/>
       <c r="E350" s="160"/>
       <c r="F350" s="151"/>
@@ -11561,17 +11564,17 @@
       <c r="T350" s="4"/>
     </row>
     <row r="351" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="174" t="s">
+      <c r="A351" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="B351" s="177" t="s">
+      <c r="B351" s="178" t="s">
+        <v>203</v>
+      </c>
+      <c r="C351" s="181" t="s">
+        <v>202</v>
+      </c>
+      <c r="D351" s="219" t="s">
         <v>204</v>
-      </c>
-      <c r="C351" s="180" t="s">
-        <v>203</v>
-      </c>
-      <c r="D351" s="218" t="s">
-        <v>205</v>
       </c>
       <c r="E351" s="146"/>
       <c r="F351" s="57"/>
@@ -11591,10 +11594,10 @@
       <c r="T351" s="4"/>
     </row>
     <row r="352" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="175"/>
-      <c r="B352" s="178"/>
-      <c r="C352" s="178"/>
-      <c r="D352" s="219"/>
+      <c r="A352" s="176"/>
+      <c r="B352" s="179"/>
+      <c r="C352" s="179"/>
+      <c r="D352" s="220"/>
       <c r="E352" s="133"/>
       <c r="F352" s="161"/>
       <c r="G352" s="4"/>
@@ -11613,10 +11616,10 @@
       <c r="T352" s="4"/>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A353" s="175"/>
-      <c r="B353" s="178"/>
-      <c r="C353" s="178"/>
-      <c r="D353" s="178"/>
+      <c r="A353" s="176"/>
+      <c r="B353" s="179"/>
+      <c r="C353" s="179"/>
+      <c r="D353" s="179"/>
       <c r="E353" s="56"/>
       <c r="F353" s="57"/>
       <c r="G353" s="4"/>
@@ -11635,10 +11638,10 @@
       <c r="T353" s="4"/>
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A354" s="175"/>
-      <c r="B354" s="178"/>
-      <c r="C354" s="178"/>
-      <c r="D354" s="178"/>
+      <c r="A354" s="176"/>
+      <c r="B354" s="179"/>
+      <c r="C354" s="179"/>
+      <c r="D354" s="179"/>
       <c r="E354" s="111" t="s">
         <v>189</v>
       </c>
@@ -11659,12 +11662,12 @@
       <c r="T354" s="4"/>
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A355" s="175"/>
-      <c r="B355" s="178"/>
-      <c r="C355" s="178"/>
-      <c r="D355" s="178"/>
+      <c r="A355" s="176"/>
+      <c r="B355" s="179"/>
+      <c r="C355" s="179"/>
+      <c r="D355" s="179"/>
       <c r="E355" s="58" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F355" s="61"/>
       <c r="G355" s="4"/>
@@ -11683,12 +11686,12 @@
       <c r="T355" s="4"/>
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A356" s="175"/>
-      <c r="B356" s="178"/>
-      <c r="C356" s="178"/>
-      <c r="D356" s="178"/>
+      <c r="A356" s="176"/>
+      <c r="B356" s="179"/>
+      <c r="C356" s="179"/>
+      <c r="D356" s="179"/>
       <c r="E356" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F356" s="59"/>
       <c r="G356" s="4"/>
@@ -11707,10 +11710,10 @@
       <c r="T356" s="4"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A357" s="175"/>
-      <c r="B357" s="178"/>
-      <c r="C357" s="178"/>
-      <c r="D357" s="178"/>
+      <c r="A357" s="176"/>
+      <c r="B357" s="179"/>
+      <c r="C357" s="179"/>
+      <c r="D357" s="179"/>
       <c r="E357" s="60"/>
       <c r="F357" s="31"/>
       <c r="G357" s="4"/>
@@ -11729,10 +11732,10 @@
       <c r="T357" s="4"/>
     </row>
     <row r="358" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="176"/>
-      <c r="B358" s="179"/>
-      <c r="C358" s="179"/>
-      <c r="D358" s="179"/>
+      <c r="A358" s="177"/>
+      <c r="B358" s="180"/>
+      <c r="C358" s="180"/>
+      <c r="D358" s="180"/>
       <c r="E358" s="147"/>
       <c r="F358" s="55"/>
       <c r="G358" s="4"/>
@@ -11751,17 +11754,17 @@
       <c r="T358" s="4"/>
     </row>
     <row r="359" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="174" t="s">
+      <c r="A359" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="B359" s="177" t="s">
+      <c r="B359" s="178" t="s">
+        <v>206</v>
+      </c>
+      <c r="C359" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="C359" s="215" t="s">
-        <v>208</v>
-      </c>
-      <c r="D359" s="217" t="s">
-        <v>205</v>
+      <c r="D359" s="218" t="s">
+        <v>204</v>
       </c>
       <c r="E359" s="146"/>
       <c r="F359" s="59"/>
@@ -11781,10 +11784,10 @@
       <c r="T359" s="4"/>
     </row>
     <row r="360" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="213"/>
-      <c r="B360" s="214"/>
-      <c r="C360" s="216"/>
-      <c r="D360" s="205"/>
+      <c r="A360" s="214"/>
+      <c r="B360" s="215"/>
+      <c r="C360" s="217"/>
+      <c r="D360" s="206"/>
       <c r="E360" s="111" t="s">
         <v>189</v>
       </c>
@@ -11805,12 +11808,12 @@
       <c r="T360" s="4"/>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A361" s="175"/>
-      <c r="B361" s="178"/>
-      <c r="C361" s="184"/>
-      <c r="D361" s="189"/>
+      <c r="A361" s="176"/>
+      <c r="B361" s="179"/>
+      <c r="C361" s="185"/>
+      <c r="D361" s="190"/>
       <c r="E361" s="60" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F361" s="30"/>
       <c r="G361" s="4"/>
@@ -11829,12 +11832,12 @@
       <c r="T361" s="4"/>
     </row>
     <row r="362" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="181"/>
-      <c r="B362" s="182"/>
-      <c r="C362" s="185"/>
-      <c r="D362" s="189"/>
+      <c r="A362" s="182"/>
+      <c r="B362" s="183"/>
+      <c r="C362" s="186"/>
+      <c r="D362" s="190"/>
       <c r="E362" s="148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F362" s="30"/>
       <c r="G362" s="4"/>
@@ -11853,10 +11856,10 @@
       <c r="T362" s="4"/>
     </row>
     <row r="363" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="176"/>
-      <c r="B363" s="179"/>
-      <c r="C363" s="186"/>
-      <c r="D363" s="186"/>
+      <c r="A363" s="177"/>
+      <c r="B363" s="180"/>
+      <c r="C363" s="187"/>
+      <c r="D363" s="187"/>
       <c r="E363" s="155"/>
       <c r="F363" s="62"/>
       <c r="G363" s="4"/>
@@ -11875,16 +11878,16 @@
       <c r="T363" s="4"/>
     </row>
     <row r="364" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="174" t="s">
+      <c r="A364" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="B364" s="183" t="s">
-        <v>209</v>
-      </c>
-      <c r="C364" s="180" t="s">
-        <v>212</v>
-      </c>
-      <c r="D364" s="218"/>
+      <c r="B364" s="184" t="s">
+        <v>208</v>
+      </c>
+      <c r="C364" s="181" t="s">
+        <v>211</v>
+      </c>
+      <c r="D364" s="219"/>
       <c r="E364" s="154" t="s">
         <v>189</v>
       </c>
@@ -11905,12 +11908,12 @@
       <c r="T364" s="4"/>
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A365" s="175"/>
-      <c r="B365" s="184"/>
-      <c r="C365" s="178"/>
-      <c r="D365" s="219"/>
+      <c r="A365" s="176"/>
+      <c r="B365" s="185"/>
+      <c r="C365" s="179"/>
+      <c r="D365" s="220"/>
       <c r="E365" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F365" s="30"/>
       <c r="G365" s="4"/>
@@ -11929,12 +11932,12 @@
       <c r="T365" s="4"/>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A366" s="175"/>
-      <c r="B366" s="184"/>
-      <c r="C366" s="178"/>
-      <c r="D366" s="178"/>
+      <c r="A366" s="176"/>
+      <c r="B366" s="185"/>
+      <c r="C366" s="179"/>
+      <c r="D366" s="179"/>
       <c r="E366" s="58" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F366" s="59"/>
       <c r="G366" s="4"/>
@@ -11953,12 +11956,12 @@
       <c r="T366" s="4"/>
     </row>
     <row r="367" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="181"/>
-      <c r="B367" s="185"/>
-      <c r="C367" s="182"/>
-      <c r="D367" s="182"/>
+      <c r="A367" s="182"/>
+      <c r="B367" s="186"/>
+      <c r="C367" s="183"/>
+      <c r="D367" s="183"/>
       <c r="E367" s="58" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F367" s="59"/>
       <c r="G367" s="4"/>
@@ -11977,12 +11980,12 @@
       <c r="T367" s="4"/>
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A368" s="175"/>
-      <c r="B368" s="184"/>
-      <c r="C368" s="178"/>
-      <c r="D368" s="178"/>
+      <c r="A368" s="176"/>
+      <c r="B368" s="185"/>
+      <c r="C368" s="179"/>
+      <c r="D368" s="179"/>
       <c r="E368" s="58" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F368" s="31"/>
       <c r="G368" s="4"/>
@@ -12001,12 +12004,12 @@
       <c r="T368" s="4"/>
     </row>
     <row r="369" spans="1:20" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="176"/>
-      <c r="B369" s="186"/>
-      <c r="C369" s="179"/>
-      <c r="D369" s="179"/>
+      <c r="A369" s="177"/>
+      <c r="B369" s="187"/>
+      <c r="C369" s="180"/>
+      <c r="D369" s="180"/>
       <c r="E369" s="147" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F369" s="33"/>
       <c r="G369" s="4"/>
@@ -12025,16 +12028,16 @@
       <c r="T369" s="4"/>
     </row>
     <row r="370" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="174" t="s">
+      <c r="A370" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="B370" s="177" t="s">
-        <v>211</v>
-      </c>
-      <c r="C370" s="180" t="s">
-        <v>213</v>
-      </c>
-      <c r="D370" s="218"/>
+      <c r="B370" s="178" t="s">
+        <v>210</v>
+      </c>
+      <c r="C370" s="181" t="s">
+        <v>212</v>
+      </c>
+      <c r="D370" s="219"/>
       <c r="E370" s="29"/>
       <c r="F370" s="61"/>
       <c r="G370" s="4"/>
@@ -12053,10 +12056,10 @@
       <c r="T370" s="4"/>
     </row>
     <row r="371" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="175"/>
-      <c r="B371" s="178"/>
-      <c r="C371" s="178"/>
-      <c r="D371" s="178"/>
+      <c r="A371" s="176"/>
+      <c r="B371" s="179"/>
+      <c r="C371" s="179"/>
+      <c r="D371" s="179"/>
       <c r="E371" s="111" t="s">
         <v>189</v>
       </c>
@@ -12077,12 +12080,12 @@
       <c r="T371" s="4"/>
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A372" s="175"/>
-      <c r="B372" s="178"/>
-      <c r="C372" s="178"/>
-      <c r="D372" s="178"/>
+      <c r="A372" s="176"/>
+      <c r="B372" s="179"/>
+      <c r="C372" s="179"/>
+      <c r="D372" s="179"/>
       <c r="E372" s="111" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F372" s="59"/>
       <c r="G372" s="4"/>
@@ -12101,12 +12104,12 @@
       <c r="T372" s="4"/>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A373" s="175"/>
-      <c r="B373" s="178"/>
-      <c r="C373" s="178"/>
-      <c r="D373" s="219"/>
+      <c r="A373" s="176"/>
+      <c r="B373" s="179"/>
+      <c r="C373" s="179"/>
+      <c r="D373" s="220"/>
       <c r="E373" s="148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F373" s="30"/>
       <c r="G373" s="4"/>
@@ -12125,12 +12128,12 @@
       <c r="T373" s="4"/>
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A374" s="175"/>
-      <c r="B374" s="178"/>
-      <c r="C374" s="178"/>
-      <c r="D374" s="178"/>
+      <c r="A374" s="176"/>
+      <c r="B374" s="179"/>
+      <c r="C374" s="179"/>
+      <c r="D374" s="179"/>
       <c r="E374" s="145" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="F374" s="59"/>
       <c r="G374" s="4"/>
@@ -12149,12 +12152,12 @@
       <c r="T374" s="4"/>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A375" s="175"/>
-      <c r="B375" s="178"/>
-      <c r="C375" s="178"/>
-      <c r="D375" s="178"/>
+      <c r="A375" s="176"/>
+      <c r="B375" s="179"/>
+      <c r="C375" s="179"/>
+      <c r="D375" s="179"/>
       <c r="E375" s="111" t="s">
-        <v>215</v>
+        <v>363</v>
       </c>
       <c r="F375" s="31"/>
       <c r="G375" s="4"/>
@@ -12173,12 +12176,12 @@
       <c r="T375" s="4"/>
     </row>
     <row r="376" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="176"/>
-      <c r="B376" s="179"/>
-      <c r="C376" s="179"/>
-      <c r="D376" s="179"/>
+      <c r="A376" s="177"/>
+      <c r="B376" s="180"/>
+      <c r="C376" s="180"/>
+      <c r="D376" s="180"/>
       <c r="E376" s="147" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F376" s="152"/>
       <c r="G376" s="4"/>
@@ -12197,14 +12200,14 @@
       <c r="T376" s="4"/>
     </row>
     <row r="377" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="174" t="s">
-        <v>300</v>
-      </c>
-      <c r="B377" s="177" t="s">
-        <v>301</v>
-      </c>
-      <c r="C377" s="180" t="s">
-        <v>292</v>
+      <c r="A377" s="175" t="s">
+        <v>297</v>
+      </c>
+      <c r="B377" s="178" t="s">
+        <v>298</v>
+      </c>
+      <c r="C377" s="181" t="s">
+        <v>289</v>
       </c>
       <c r="D377" s="82"/>
       <c r="E377" s="29"/>
@@ -12225,9 +12228,9 @@
       <c r="T377" s="4"/>
     </row>
     <row r="378" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="175"/>
-      <c r="B378" s="178"/>
-      <c r="C378" s="178"/>
+      <c r="A378" s="176"/>
+      <c r="B378" s="179"/>
+      <c r="C378" s="179"/>
       <c r="D378" s="82" t="s">
         <v>102</v>
       </c>
@@ -12251,14 +12254,14 @@
       <c r="T378" s="4"/>
     </row>
     <row r="379" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="175"/>
-      <c r="B379" s="178"/>
-      <c r="C379" s="178"/>
+      <c r="A379" s="176"/>
+      <c r="B379" s="179"/>
+      <c r="C379" s="179"/>
       <c r="D379" s="143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E379" s="111" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F379" s="59"/>
       <c r="G379" s="4"/>
@@ -12277,12 +12280,12 @@
       <c r="T379" s="4"/>
     </row>
     <row r="380" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="175"/>
-      <c r="B380" s="178"/>
-      <c r="C380" s="178"/>
+      <c r="A380" s="176"/>
+      <c r="B380" s="179"/>
+      <c r="C380" s="179"/>
       <c r="D380" s="82"/>
       <c r="E380" s="148" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F380" s="30"/>
       <c r="G380" s="4"/>
@@ -12301,12 +12304,12 @@
       <c r="T380" s="4"/>
     </row>
     <row r="381" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="175"/>
-      <c r="B381" s="178"/>
-      <c r="C381" s="178"/>
+      <c r="A381" s="176"/>
+      <c r="B381" s="179"/>
+      <c r="C381" s="179"/>
       <c r="D381" s="143"/>
       <c r="E381" s="111" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F381" s="59"/>
       <c r="G381" s="4"/>
@@ -12325,12 +12328,12 @@
       <c r="T381" s="4"/>
     </row>
     <row r="382" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="175"/>
-      <c r="B382" s="178"/>
-      <c r="C382" s="178"/>
+      <c r="A382" s="176"/>
+      <c r="B382" s="179"/>
+      <c r="C382" s="179"/>
       <c r="D382" s="80"/>
       <c r="E382" s="147" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F382" s="31"/>
       <c r="G382" s="4"/>
@@ -12349,9 +12352,9 @@
       <c r="T382" s="4"/>
     </row>
     <row r="383" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="176"/>
-      <c r="B383" s="179"/>
-      <c r="C383" s="179"/>
+      <c r="A383" s="177"/>
+      <c r="B383" s="180"/>
+      <c r="C383" s="180"/>
       <c r="D383" s="171"/>
       <c r="E383" s="147"/>
       <c r="F383" s="152"/>
@@ -12371,14 +12374,14 @@
       <c r="T383" s="4"/>
     </row>
     <row r="384" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="174" t="s">
-        <v>308</v>
-      </c>
-      <c r="B384" s="177" t="s">
-        <v>310</v>
-      </c>
-      <c r="C384" s="180" t="s">
-        <v>292</v>
+      <c r="A384" s="175" t="s">
+        <v>303</v>
+      </c>
+      <c r="B384" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="C384" s="181" t="s">
+        <v>289</v>
       </c>
       <c r="D384" s="164"/>
       <c r="E384" s="111" t="s">
@@ -12401,14 +12404,14 @@
       <c r="T384" s="4"/>
     </row>
     <row r="385" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="175"/>
-      <c r="B385" s="178"/>
-      <c r="C385" s="178"/>
+      <c r="A385" s="176"/>
+      <c r="B385" s="179"/>
+      <c r="C385" s="179"/>
       <c r="D385" s="82" t="s">
         <v>102</v>
       </c>
       <c r="E385" s="111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F385" s="61"/>
       <c r="G385" s="4"/>
@@ -12426,15 +12429,13 @@
       <c r="S385" s="4"/>
       <c r="T385" s="4"/>
     </row>
-    <row r="386" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A386" s="175"/>
-      <c r="B386" s="178"/>
-      <c r="C386" s="178"/>
-      <c r="D386" s="143" t="s">
-        <v>306</v>
-      </c>
+    <row r="386" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="176"/>
+      <c r="B386" s="179"/>
+      <c r="C386" s="179"/>
+      <c r="D386" s="143"/>
       <c r="E386" s="148" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F386" s="59"/>
       <c r="G386" s="4"/>
@@ -12453,12 +12454,12 @@
       <c r="T386" s="4"/>
     </row>
     <row r="387" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="175"/>
-      <c r="B387" s="178"/>
-      <c r="C387" s="178"/>
+      <c r="A387" s="176"/>
+      <c r="B387" s="179"/>
+      <c r="C387" s="179"/>
       <c r="D387" s="82"/>
       <c r="E387" s="169" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="F387" s="30"/>
       <c r="G387" s="4"/>
@@ -12477,12 +12478,12 @@
       <c r="T387" s="4"/>
     </row>
     <row r="388" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="175"/>
-      <c r="B388" s="178"/>
-      <c r="C388" s="178"/>
+      <c r="A388" s="176"/>
+      <c r="B388" s="179"/>
+      <c r="C388" s="179"/>
       <c r="D388" s="168"/>
       <c r="E388" s="148" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="F388" s="153"/>
       <c r="G388" s="4"/>
@@ -12501,12 +12502,12 @@
       <c r="T388" s="4"/>
     </row>
     <row r="389" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="181"/>
-      <c r="B389" s="182"/>
-      <c r="C389" s="182"/>
+      <c r="A389" s="182"/>
+      <c r="B389" s="183"/>
+      <c r="C389" s="183"/>
       <c r="D389" s="168"/>
       <c r="E389" s="148" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F389" s="153"/>
       <c r="G389" s="4"/>
@@ -12525,9 +12526,9 @@
       <c r="T389" s="4"/>
     </row>
     <row r="390" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="175"/>
-      <c r="B390" s="178"/>
-      <c r="C390" s="178"/>
+      <c r="A390" s="176"/>
+      <c r="B390" s="179"/>
+      <c r="C390" s="179"/>
       <c r="D390" s="172"/>
       <c r="E390" s="148"/>
       <c r="F390" s="30"/>
@@ -12547,9 +12548,9 @@
       <c r="T390" s="4"/>
     </row>
     <row r="391" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="176"/>
-      <c r="B391" s="179"/>
-      <c r="C391" s="179"/>
+      <c r="A391" s="177"/>
+      <c r="B391" s="180"/>
+      <c r="C391" s="180"/>
       <c r="D391" s="171"/>
       <c r="E391" s="122"/>
       <c r="F391" s="152"/>
@@ -12569,14 +12570,14 @@
       <c r="T391" s="4"/>
     </row>
     <row r="392" spans="1:20" s="98" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="174" t="s">
-        <v>309</v>
-      </c>
-      <c r="B392" s="177" t="s">
-        <v>311</v>
-      </c>
-      <c r="C392" s="180" t="s">
-        <v>312</v>
+      <c r="A392" s="175" t="s">
+        <v>304</v>
+      </c>
+      <c r="B392" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="C392" s="181" t="s">
+        <v>307</v>
       </c>
       <c r="D392" s="164"/>
       <c r="E392" s="154" t="s">
@@ -12599,14 +12600,14 @@
       <c r="T392" s="4"/>
     </row>
     <row r="393" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="175"/>
-      <c r="B393" s="178"/>
-      <c r="C393" s="178"/>
+      <c r="A393" s="176"/>
+      <c r="B393" s="179"/>
+      <c r="C393" s="179"/>
       <c r="D393" s="82" t="s">
         <v>102</v>
       </c>
       <c r="E393" s="111" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F393" s="61"/>
       <c r="G393" s="4"/>
@@ -12624,15 +12625,15 @@
       <c r="S393" s="4"/>
       <c r="T393" s="4"/>
     </row>
-    <row r="394" spans="1:20" s="98" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A394" s="175"/>
-      <c r="B394" s="178"/>
-      <c r="C394" s="178"/>
+    <row r="394" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="176"/>
+      <c r="B394" s="179"/>
+      <c r="C394" s="179"/>
       <c r="D394" s="143" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="E394" s="148" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F394" s="59"/>
       <c r="G394" s="4"/>
@@ -12651,12 +12652,12 @@
       <c r="T394" s="4"/>
     </row>
     <row r="395" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="175"/>
-      <c r="B395" s="178"/>
-      <c r="C395" s="178"/>
+      <c r="A395" s="176"/>
+      <c r="B395" s="179"/>
+      <c r="C395" s="179"/>
       <c r="D395" s="82"/>
       <c r="E395" s="169" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="F395" s="30"/>
       <c r="G395" s="4"/>
@@ -12675,12 +12676,12 @@
       <c r="T395" s="4"/>
     </row>
     <row r="396" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="175"/>
-      <c r="B396" s="178"/>
-      <c r="C396" s="178"/>
+      <c r="A396" s="176"/>
+      <c r="B396" s="179"/>
+      <c r="C396" s="179"/>
       <c r="D396" s="143"/>
       <c r="E396" s="148" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F396" s="59"/>
       <c r="G396" s="4"/>
@@ -12698,15 +12699,15 @@
       <c r="S396" s="4"/>
       <c r="T396" s="4"/>
     </row>
-    <row r="397" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A397" s="175"/>
-      <c r="B397" s="178"/>
-      <c r="C397" s="178"/>
-      <c r="D397" s="80"/>
-      <c r="E397" s="170" t="s">
-        <v>314</v>
-      </c>
-      <c r="F397" s="31"/>
+    <row r="397" spans="1:20" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="176"/>
+      <c r="B397" s="179"/>
+      <c r="C397" s="179"/>
+      <c r="D397" s="172"/>
+      <c r="E397" s="174" t="s">
+        <v>309</v>
+      </c>
+      <c r="F397" s="30"/>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
@@ -12723,12 +12724,12 @@
       <c r="T397" s="4"/>
     </row>
     <row r="398" spans="1:20" s="98" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A398" s="176"/>
-      <c r="B398" s="179"/>
-      <c r="C398" s="179"/>
-      <c r="D398" s="82"/>
+      <c r="A398" s="177"/>
+      <c r="B398" s="180"/>
+      <c r="C398" s="180"/>
+      <c r="D398" s="171"/>
       <c r="E398" s="170" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F398" s="152"/>
       <c r="G398" s="4"/>
